--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -22,7 +22,7 @@
     <t>当日行情走势</t>
   </si>
   <si>
-    <t>止损线情况</t>
+    <t>止损线状态</t>
   </si>
   <si>
     <t>是否向预期相反方向发展指标</t>
@@ -1281,7 +1281,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -1277,11 +1277,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:J1"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>日期</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>止损线状态</t>
-  </si>
-  <si>
-    <t>是否向预期相反方向发展指标</t>
   </si>
   <si>
     <t>强势卖出指标</t>
@@ -56,6 +53,10 @@
   </si>
   <si>
     <t>预期移动止损线股价</t>
+  </si>
+  <si>
+    <t>单日涨幅
+(创新高要注意)</t>
   </si>
   <si>
     <t>当日收盘价是否小于20日均线
@@ -180,22 +181,18 @@
       <t>%</t>
     </r>
   </si>
-  <si>
-    <t>单日涨幅
-(创新高要注意)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -242,37 +239,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,6 +265,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,15 +294,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,21 +311,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,15 +326,43 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,13 +408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +426,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +450,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,31 +540,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,19 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,90 +595,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,17 +632,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,6 +656,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -676,6 +693,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,176 +720,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,7 +870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -889,10 +886,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -904,28 +901,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -934,13 +937,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1265,11 +1268,11 @@
   <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X2" sqref="X$1:Y$1048576"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1284,19 +1287,19 @@
     <col min="8" max="8" width="13.5357142857143" customWidth="1"/>
     <col min="9" max="9" width="13.3839285714286" customWidth="1"/>
     <col min="10" max="10" width="20.3839285714286" customWidth="1"/>
-    <col min="11" max="11" width="30.0625" customWidth="1"/>
-    <col min="12" max="12" width="40.4732142857143" customWidth="1"/>
-    <col min="13" max="13" width="25.4464285714286" customWidth="1"/>
-    <col min="14" max="14" width="28.7142857142857" customWidth="1"/>
-    <col min="15" max="15" width="30.0625" customWidth="1"/>
-    <col min="16" max="16" width="21.875" customWidth="1"/>
-    <col min="17" max="17" width="20.6785714285714" customWidth="1"/>
-    <col min="18" max="18" width="39.5803571428571" customWidth="1"/>
-    <col min="19" max="19" width="20.5267857142857" style="1" customWidth="1"/>
-    <col min="20" max="20" width="18.4464285714286" customWidth="1"/>
-    <col min="21" max="21" width="22.3125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="18.3035714285714" customWidth="1"/>
-    <col min="23" max="23" width="20.3839285714286" customWidth="1"/>
+    <col min="11" max="11" width="20.3839285714286" customWidth="1"/>
+    <col min="12" max="12" width="30.0625" customWidth="1"/>
+    <col min="13" max="13" width="40.4732142857143" customWidth="1"/>
+    <col min="14" max="14" width="25.4464285714286" customWidth="1"/>
+    <col min="15" max="15" width="28.7142857142857" customWidth="1"/>
+    <col min="16" max="16" width="30.0625" customWidth="1"/>
+    <col min="17" max="17" width="21.875" customWidth="1"/>
+    <col min="18" max="18" width="20.6785714285714" customWidth="1"/>
+    <col min="19" max="19" width="39.5803571428571" customWidth="1"/>
+    <col min="20" max="20" width="20.5267857142857" style="1" customWidth="1"/>
+    <col min="21" max="21" width="18.4464285714286" customWidth="1"/>
+    <col min="22" max="22" width="22.3125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.3035714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -1316,91 +1319,89 @@
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="Q2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="R2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="S2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="V2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="W2" s="19" t="s">
         <v>25</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1416,19 +1417,19 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="9"/>
+      <c r="K3" s="15"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="16"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="24"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="7">
@@ -1443,19 +1444,19 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="9"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="24"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="7">
@@ -1470,19 +1471,19 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="9"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="22"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="24"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="7">
@@ -1497,19 +1498,19 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="9"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="22"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="24"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="7">
@@ -1533,8 +1534,8 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="6"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
     </row>
@@ -1560,8 +1561,8 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="6"/>
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
     </row>
@@ -1587,8 +1588,8 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="6"/>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
     </row>
@@ -1614,8 +1615,8 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="6"/>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
     </row>
@@ -1641,8 +1642,8 @@
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="6"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
     </row>
@@ -1668,8 +1669,8 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="6"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
     </row>
@@ -1695,8 +1696,8 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="6"/>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
     </row>
@@ -1722,8 +1723,8 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="6"/>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
     </row>
@@ -1749,8 +1750,8 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="6"/>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
     </row>
@@ -1776,8 +1777,8 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="6"/>
       <c r="V16" s="9"/>
       <c r="W16" s="9"/>
     </row>
@@ -1803,8 +1804,8 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="6"/>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
     </row>
@@ -1830,8 +1831,8 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="6"/>
       <c r="V18" s="9"/>
       <c r="W18" s="9"/>
     </row>
@@ -1857,8 +1858,8 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="6"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
@@ -1884,8 +1885,8 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="6"/>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
     </row>
@@ -1911,8 +1912,8 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="6"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
     </row>
@@ -1938,8 +1939,8 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="6"/>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
     </row>
@@ -1965,8 +1966,8 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="6"/>
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
     </row>
@@ -1992,8 +1993,8 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="6"/>
       <c r="V24" s="9"/>
       <c r="W24" s="9"/>
     </row>
@@ -2017,8 +2018,8 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="21"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
@@ -2044,8 +2045,8 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="21"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
@@ -2071,8 +2072,8 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="21"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
@@ -2098,8 +2099,8 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="21"/>
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
@@ -2125,8 +2126,8 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="21"/>
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
@@ -2152,8 +2153,8 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="21"/>
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
@@ -2179,8 +2180,8 @@
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="21"/>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
@@ -2206,8 +2207,8 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="21"/>
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
@@ -2233,8 +2234,8 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="21"/>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
@@ -2260,8 +2261,8 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="21"/>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
@@ -2287,8 +2288,8 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="21"/>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
@@ -2314,8 +2315,8 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="21"/>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
@@ -2341,8 +2342,8 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="21"/>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
@@ -2368,8 +2369,8 @@
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="21"/>
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
@@ -2392,9 +2393,8 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-      <c r="R39"/>
-      <c r="T39" s="1"/>
-      <c r="V39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="U39" s="1"/>
       <c r="W39" s="1"/>
     </row>
     <row r="40" spans="1:23">
@@ -2414,9 +2414,8 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="R40"/>
-      <c r="T40" s="1"/>
-      <c r="V40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="U40" s="1"/>
       <c r="W40" s="1"/>
     </row>
     <row r="41" spans="1:23">
@@ -2436,9 +2435,8 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-      <c r="R41"/>
-      <c r="T41" s="1"/>
-      <c r="V41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="U41" s="1"/>
       <c r="W41" s="1"/>
     </row>
     <row r="42" spans="1:23">
@@ -2458,9 +2456,8 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-      <c r="R42"/>
-      <c r="T42" s="1"/>
-      <c r="V42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="U42" s="1"/>
       <c r="W42" s="1"/>
     </row>
     <row r="43" spans="1:23">
@@ -2480,9 +2477,8 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="R43"/>
-      <c r="T43" s="1"/>
-      <c r="V43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="U43" s="1"/>
       <c r="W43" s="1"/>
     </row>
     <row r="44" spans="1:23">
@@ -2502,9 +2498,8 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-      <c r="R44"/>
-      <c r="T44" s="1"/>
-      <c r="V44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="U44" s="1"/>
       <c r="W44" s="1"/>
     </row>
     <row r="45" spans="1:23">
@@ -2524,9 +2519,8 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-      <c r="R45"/>
-      <c r="T45" s="1"/>
-      <c r="V45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="U45" s="1"/>
       <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23">
@@ -2546,9 +2540,8 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-      <c r="R46"/>
-      <c r="T46" s="1"/>
-      <c r="V46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="U46" s="1"/>
       <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23">
@@ -2568,9 +2561,8 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-      <c r="R47"/>
-      <c r="T47" s="1"/>
-      <c r="V47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="U47" s="1"/>
       <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23">
@@ -2590,9 +2582,8 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-      <c r="R48"/>
-      <c r="T48" s="1"/>
-      <c r="V48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="U48" s="1"/>
       <c r="W48" s="1"/>
     </row>
     <row r="49" spans="1:23">
@@ -2612,9 +2603,8 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-      <c r="R49"/>
-      <c r="T49" s="1"/>
-      <c r="V49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="U49" s="1"/>
       <c r="W49" s="1"/>
     </row>
     <row r="50" spans="1:23">
@@ -2634,9 +2624,8 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-      <c r="R50"/>
-      <c r="T50" s="1"/>
-      <c r="V50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="U50" s="1"/>
       <c r="W50" s="1"/>
     </row>
     <row r="51" spans="1:23">
@@ -2656,9 +2645,8 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-      <c r="R51"/>
-      <c r="T51" s="1"/>
-      <c r="V51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="U51" s="1"/>
       <c r="W51" s="1"/>
     </row>
     <row r="52" spans="1:23">
@@ -2678,9 +2666,8 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52"/>
-      <c r="T52" s="1"/>
-      <c r="V52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="U52" s="1"/>
       <c r="W52" s="1"/>
     </row>
     <row r="53" spans="1:23">
@@ -2700,9 +2687,8 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-      <c r="R53"/>
-      <c r="T53" s="1"/>
-      <c r="V53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="U53" s="1"/>
       <c r="W53" s="1"/>
     </row>
     <row r="54" spans="1:23">
@@ -2722,9 +2708,8 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-      <c r="R54"/>
-      <c r="T54" s="1"/>
-      <c r="V54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="U54" s="1"/>
       <c r="W54" s="1"/>
     </row>
     <row r="55" spans="1:23">
@@ -2744,9 +2729,8 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-      <c r="R55"/>
-      <c r="T55" s="1"/>
-      <c r="V55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="U55" s="1"/>
       <c r="W55" s="1"/>
     </row>
     <row r="56" spans="1:23">
@@ -2766,9 +2750,8 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-      <c r="R56"/>
-      <c r="T56" s="1"/>
-      <c r="V56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="U56" s="1"/>
       <c r="W56" s="1"/>
     </row>
     <row r="57" spans="1:23">
@@ -2788,9 +2771,8 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
-      <c r="R57"/>
-      <c r="T57" s="1"/>
-      <c r="V57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="U57" s="1"/>
       <c r="W57" s="1"/>
     </row>
     <row r="58" spans="1:23">
@@ -2810,9 +2792,8 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-      <c r="R58"/>
-      <c r="T58" s="1"/>
-      <c r="V58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="U58" s="1"/>
       <c r="W58" s="1"/>
     </row>
     <row r="59" spans="1:23">
@@ -2832,9 +2813,8 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-      <c r="R59"/>
-      <c r="T59" s="1"/>
-      <c r="V59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="U59" s="1"/>
       <c r="W59" s="1"/>
     </row>
     <row r="60" spans="1:23">
@@ -2854,9 +2834,8 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
-      <c r="R60"/>
-      <c r="T60" s="1"/>
-      <c r="V60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="U60" s="1"/>
       <c r="W60" s="1"/>
     </row>
     <row r="61" spans="1:23">
@@ -2876,9 +2855,8 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-      <c r="R61"/>
-      <c r="T61" s="1"/>
-      <c r="V61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="U61" s="1"/>
       <c r="W61" s="1"/>
     </row>
     <row r="62" spans="1:23">
@@ -2898,9 +2876,8 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-      <c r="R62"/>
-      <c r="T62" s="1"/>
-      <c r="V62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="U62" s="1"/>
       <c r="W62" s="1"/>
     </row>
     <row r="63" spans="1:23">
@@ -2920,9 +2897,8 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
-      <c r="R63"/>
-      <c r="T63" s="1"/>
-      <c r="V63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="U63" s="1"/>
       <c r="W63" s="1"/>
     </row>
     <row r="64" spans="1:23">
@@ -2942,9 +2918,8 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
-      <c r="R64"/>
-      <c r="T64" s="1"/>
-      <c r="V64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="U64" s="1"/>
       <c r="W64" s="1"/>
     </row>
     <row r="65" spans="1:23">
@@ -2964,9 +2939,8 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
-      <c r="R65"/>
-      <c r="T65" s="1"/>
-      <c r="V65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="U65" s="1"/>
       <c r="W65" s="1"/>
     </row>
     <row r="66" spans="1:23">
@@ -2986,9 +2960,8 @@
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
-      <c r="R66"/>
-      <c r="T66" s="1"/>
-      <c r="V66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="U66" s="1"/>
       <c r="W66" s="1"/>
     </row>
     <row r="67" spans="1:23">
@@ -3008,9 +2981,8 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
-      <c r="R67"/>
-      <c r="T67" s="1"/>
-      <c r="V67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="U67" s="1"/>
       <c r="W67" s="1"/>
     </row>
     <row r="68" spans="1:23">
@@ -3030,9 +3002,8 @@
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
-      <c r="R68"/>
-      <c r="T68" s="1"/>
-      <c r="V68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="U68" s="1"/>
       <c r="W68" s="1"/>
     </row>
     <row r="69" spans="1:23">
@@ -3052,9 +3023,8 @@
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
-      <c r="R69"/>
-      <c r="T69" s="1"/>
-      <c r="V69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="U69" s="1"/>
       <c r="W69" s="1"/>
     </row>
     <row r="70" spans="1:23">
@@ -3074,9 +3044,8 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
-      <c r="R70"/>
-      <c r="T70" s="1"/>
-      <c r="V70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="U70" s="1"/>
       <c r="W70" s="1"/>
     </row>
     <row r="71" spans="1:23">
@@ -3096,9 +3065,8 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
-      <c r="R71"/>
-      <c r="T71" s="1"/>
-      <c r="V71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="U71" s="1"/>
       <c r="W71" s="1"/>
     </row>
     <row r="72" spans="1:23">
@@ -3118,9 +3086,8 @@
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
-      <c r="R72"/>
-      <c r="T72" s="1"/>
-      <c r="V72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="U72" s="1"/>
       <c r="W72" s="1"/>
     </row>
     <row r="73" spans="1:23">
@@ -3140,9 +3107,8 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
-      <c r="R73"/>
-      <c r="T73" s="1"/>
-      <c r="V73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="U73" s="1"/>
       <c r="W73" s="1"/>
     </row>
     <row r="74" spans="1:23">
@@ -3162,9 +3128,8 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
-      <c r="R74"/>
-      <c r="T74" s="1"/>
-      <c r="V74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="U74" s="1"/>
       <c r="W74" s="1"/>
     </row>
     <row r="75" spans="1:23">
@@ -3184,9 +3149,8 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
-      <c r="R75"/>
-      <c r="T75" s="1"/>
-      <c r="V75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="U75" s="1"/>
       <c r="W75" s="1"/>
     </row>
     <row r="76" spans="1:23">
@@ -3206,9 +3170,8 @@
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
-      <c r="R76"/>
-      <c r="T76" s="1"/>
-      <c r="V76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="U76" s="1"/>
       <c r="W76" s="1"/>
     </row>
     <row r="77" spans="1:23">
@@ -3228,9 +3191,8 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
-      <c r="R77"/>
-      <c r="T77" s="1"/>
-      <c r="V77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="U77" s="1"/>
       <c r="W77" s="1"/>
     </row>
     <row r="78" spans="1:23">
@@ -3250,9 +3212,8 @@
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
-      <c r="R78"/>
-      <c r="T78" s="1"/>
-      <c r="V78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="U78" s="1"/>
       <c r="W78" s="1"/>
     </row>
     <row r="79" spans="1:23">
@@ -3272,9 +3233,8 @@
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
-      <c r="R79"/>
-      <c r="T79" s="1"/>
-      <c r="V79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="U79" s="1"/>
       <c r="W79" s="1"/>
     </row>
     <row r="80" spans="1:23">
@@ -3294,9 +3254,8 @@
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
-      <c r="R80"/>
-      <c r="T80" s="1"/>
-      <c r="V80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="U80" s="1"/>
       <c r="W80" s="1"/>
     </row>
     <row r="81" spans="1:23">
@@ -3316,9 +3275,8 @@
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
-      <c r="R81"/>
-      <c r="T81" s="1"/>
-      <c r="V81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="U81" s="1"/>
       <c r="W81" s="1"/>
     </row>
     <row r="82" spans="1:23">
@@ -3338,9 +3296,8 @@
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
-      <c r="R82"/>
-      <c r="T82" s="1"/>
-      <c r="V82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="U82" s="1"/>
       <c r="W82" s="1"/>
     </row>
     <row r="83" spans="1:23">
@@ -3360,9 +3317,8 @@
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
-      <c r="R83"/>
-      <c r="T83" s="1"/>
-      <c r="V83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="U83" s="1"/>
       <c r="W83" s="1"/>
     </row>
     <row r="84" spans="1:23">
@@ -3382,9 +3338,8 @@
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
-      <c r="R84"/>
-      <c r="T84" s="1"/>
-      <c r="V84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="U84" s="1"/>
       <c r="W84" s="1"/>
     </row>
     <row r="85" spans="1:23">
@@ -3404,9 +3359,8 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
-      <c r="R85"/>
-      <c r="T85" s="1"/>
-      <c r="V85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="U85" s="1"/>
       <c r="W85" s="1"/>
     </row>
     <row r="86" spans="1:23">
@@ -3426,9 +3380,8 @@
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
-      <c r="R86"/>
-      <c r="T86" s="1"/>
-      <c r="V86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="U86" s="1"/>
       <c r="W86" s="1"/>
     </row>
     <row r="87" spans="1:23">
@@ -3448,9 +3401,8 @@
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
-      <c r="R87"/>
-      <c r="T87" s="1"/>
-      <c r="V87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="U87" s="1"/>
       <c r="W87" s="1"/>
     </row>
     <row r="88" spans="1:23">
@@ -3470,9 +3422,8 @@
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
-      <c r="R88"/>
-      <c r="T88" s="1"/>
-      <c r="V88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="U88" s="1"/>
       <c r="W88" s="1"/>
     </row>
     <row r="89" spans="1:23">
@@ -3492,9 +3443,8 @@
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
-      <c r="R89"/>
-      <c r="T89" s="1"/>
-      <c r="V89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="U89" s="1"/>
       <c r="W89" s="1"/>
     </row>
     <row r="90" spans="1:23">
@@ -3514,9 +3464,8 @@
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
-      <c r="R90"/>
-      <c r="T90" s="1"/>
-      <c r="V90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="U90" s="1"/>
       <c r="W90" s="1"/>
     </row>
     <row r="91" spans="1:23">
@@ -3536,9 +3485,8 @@
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
-      <c r="R91"/>
-      <c r="T91" s="1"/>
-      <c r="V91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="U91" s="1"/>
       <c r="W91" s="1"/>
     </row>
     <row r="92" spans="1:23">
@@ -3558,9 +3506,8 @@
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
-      <c r="R92"/>
-      <c r="T92" s="1"/>
-      <c r="V92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="U92" s="1"/>
       <c r="W92" s="1"/>
     </row>
     <row r="93" spans="1:23">
@@ -3580,9 +3527,8 @@
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
-      <c r="R93"/>
-      <c r="T93" s="1"/>
-      <c r="V93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="U93" s="1"/>
       <c r="W93" s="1"/>
     </row>
     <row r="94" spans="1:23">
@@ -3602,9 +3548,8 @@
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
-      <c r="R94"/>
-      <c r="T94" s="1"/>
-      <c r="V94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="U94" s="1"/>
       <c r="W94" s="1"/>
     </row>
     <row r="95" spans="1:23">
@@ -3624,9 +3569,8 @@
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
-      <c r="R95"/>
-      <c r="T95" s="1"/>
-      <c r="V95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="U95" s="1"/>
       <c r="W95" s="1"/>
     </row>
     <row r="96" spans="1:23">
@@ -3646,9 +3590,8 @@
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
-      <c r="R96"/>
-      <c r="T96" s="1"/>
-      <c r="V96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="U96" s="1"/>
       <c r="W96" s="1"/>
     </row>
     <row r="97" spans="1:23">
@@ -3668,9 +3611,8 @@
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
-      <c r="R97"/>
-      <c r="T97" s="1"/>
-      <c r="V97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="U97" s="1"/>
       <c r="W97" s="1"/>
     </row>
     <row r="98" spans="1:23">
@@ -3690,9 +3632,8 @@
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
-      <c r="R98"/>
-      <c r="T98" s="1"/>
-      <c r="V98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="U98" s="1"/>
       <c r="W98" s="1"/>
     </row>
     <row r="99" spans="1:23">
@@ -3712,9 +3653,8 @@
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
-      <c r="R99"/>
-      <c r="T99" s="1"/>
-      <c r="V99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="U99" s="1"/>
       <c r="W99" s="1"/>
     </row>
     <row r="100" spans="1:23">
@@ -3734,9 +3674,8 @@
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
-      <c r="R100"/>
-      <c r="T100" s="1"/>
-      <c r="V100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="U100" s="1"/>
       <c r="W100" s="1"/>
     </row>
     <row r="101" spans="1:23">
@@ -3756,9 +3695,8 @@
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
-      <c r="R101"/>
-      <c r="T101" s="1"/>
-      <c r="V101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="U101" s="1"/>
       <c r="W101" s="1"/>
     </row>
     <row r="102" spans="1:23">
@@ -3778,9 +3716,8 @@
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
-      <c r="R102"/>
-      <c r="T102" s="1"/>
-      <c r="V102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="U102" s="1"/>
       <c r="W102" s="1"/>
     </row>
     <row r="103" spans="1:23">
@@ -3800,9 +3737,8 @@
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
-      <c r="R103"/>
-      <c r="T103" s="1"/>
-      <c r="V103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="U103" s="1"/>
       <c r="W103" s="1"/>
     </row>
     <row r="104" spans="1:23">
@@ -3822,9 +3758,8 @@
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
-      <c r="R104"/>
-      <c r="T104" s="1"/>
-      <c r="V104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="U104" s="1"/>
       <c r="W104" s="1"/>
     </row>
     <row r="105" spans="1:23">
@@ -3844,9 +3779,8 @@
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
-      <c r="R105"/>
-      <c r="T105" s="1"/>
-      <c r="V105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="U105" s="1"/>
       <c r="W105" s="1"/>
     </row>
     <row r="106" spans="1:23">
@@ -3866,9 +3800,8 @@
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
-      <c r="R106"/>
-      <c r="T106" s="1"/>
-      <c r="V106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="U106" s="1"/>
       <c r="W106" s="1"/>
     </row>
     <row r="107" spans="1:23">
@@ -3888,9 +3821,8 @@
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
-      <c r="R107"/>
-      <c r="T107" s="1"/>
-      <c r="V107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="U107" s="1"/>
       <c r="W107" s="1"/>
     </row>
     <row r="108" spans="1:23">
@@ -3910,9 +3842,8 @@
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
-      <c r="R108"/>
-      <c r="T108" s="1"/>
-      <c r="V108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="U108" s="1"/>
       <c r="W108" s="1"/>
     </row>
     <row r="109" spans="1:23">
@@ -3932,9 +3863,8 @@
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
-      <c r="R109"/>
-      <c r="T109" s="1"/>
-      <c r="V109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="U109" s="1"/>
       <c r="W109" s="1"/>
     </row>
     <row r="110" spans="1:23">
@@ -3954,9 +3884,8 @@
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
-      <c r="R110"/>
-      <c r="T110" s="1"/>
-      <c r="V110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="U110" s="1"/>
       <c r="W110" s="1"/>
     </row>
     <row r="111" spans="1:23">
@@ -3976,9 +3905,8 @@
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
-      <c r="R111"/>
-      <c r="T111" s="1"/>
-      <c r="V111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="U111" s="1"/>
       <c r="W111" s="1"/>
     </row>
     <row r="112" spans="1:23">
@@ -3998,9 +3926,8 @@
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
-      <c r="R112"/>
-      <c r="T112" s="1"/>
-      <c r="V112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="U112" s="1"/>
       <c r="W112" s="1"/>
     </row>
     <row r="113" spans="1:23">
@@ -4020,9 +3947,8 @@
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
-      <c r="R113"/>
-      <c r="T113" s="1"/>
-      <c r="V113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="U113" s="1"/>
       <c r="W113" s="1"/>
     </row>
     <row r="114" spans="1:23">
@@ -4042,9 +3968,8 @@
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
-      <c r="R114"/>
-      <c r="T114" s="1"/>
-      <c r="V114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="U114" s="1"/>
       <c r="W114" s="1"/>
     </row>
     <row r="115" spans="1:23">
@@ -4064,9 +3989,8 @@
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
-      <c r="R115"/>
-      <c r="T115" s="1"/>
-      <c r="V115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="U115" s="1"/>
       <c r="W115" s="1"/>
     </row>
     <row r="116" spans="1:23">
@@ -4086,9 +4010,8 @@
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
-      <c r="R116"/>
-      <c r="T116" s="1"/>
-      <c r="V116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="U116" s="1"/>
       <c r="W116" s="1"/>
     </row>
     <row r="117" spans="1:23">
@@ -4108,9 +4031,8 @@
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
-      <c r="R117"/>
-      <c r="T117" s="1"/>
-      <c r="V117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="U117" s="1"/>
       <c r="W117" s="1"/>
     </row>
     <row r="118" spans="1:23">
@@ -4130,9 +4052,8 @@
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
-      <c r="R118"/>
-      <c r="T118" s="1"/>
-      <c r="V118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="U118" s="1"/>
       <c r="W118" s="1"/>
     </row>
     <row r="119" spans="1:23">
@@ -4152,9 +4073,8 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
-      <c r="R119"/>
-      <c r="T119" s="1"/>
-      <c r="V119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="U119" s="1"/>
       <c r="W119" s="1"/>
     </row>
     <row r="120" spans="1:23">
@@ -4174,9 +4094,8 @@
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
-      <c r="R120"/>
-      <c r="T120" s="1"/>
-      <c r="V120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="U120" s="1"/>
       <c r="W120" s="1"/>
     </row>
     <row r="121" spans="1:23">
@@ -4196,9 +4115,8 @@
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
-      <c r="R121"/>
-      <c r="T121" s="1"/>
-      <c r="V121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="U121" s="1"/>
       <c r="W121" s="1"/>
     </row>
     <row r="122" spans="1:23">
@@ -4218,9 +4136,8 @@
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
-      <c r="R122"/>
-      <c r="T122" s="1"/>
-      <c r="V122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="U122" s="1"/>
       <c r="W122" s="1"/>
     </row>
     <row r="123" spans="1:23">
@@ -4240,9 +4157,8 @@
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
-      <c r="R123"/>
-      <c r="T123" s="1"/>
-      <c r="V123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="U123" s="1"/>
       <c r="W123" s="1"/>
     </row>
     <row r="124" spans="1:23">
@@ -4262,9 +4178,8 @@
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
-      <c r="R124"/>
-      <c r="T124" s="1"/>
-      <c r="V124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="U124" s="1"/>
       <c r="W124" s="1"/>
     </row>
     <row r="125" spans="1:23">
@@ -4284,9 +4199,8 @@
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
-      <c r="R125"/>
-      <c r="T125" s="1"/>
-      <c r="V125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="U125" s="1"/>
       <c r="W125" s="1"/>
     </row>
     <row r="126" spans="1:23">
@@ -4306,9 +4220,8 @@
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
-      <c r="R126"/>
-      <c r="T126" s="1"/>
-      <c r="V126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="U126" s="1"/>
       <c r="W126" s="1"/>
     </row>
     <row r="127" spans="1:23">
@@ -4328,9 +4241,8 @@
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
-      <c r="R127"/>
-      <c r="T127" s="1"/>
-      <c r="V127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="U127" s="1"/>
       <c r="W127" s="1"/>
     </row>
     <row r="128" spans="1:23">
@@ -4350,9 +4262,8 @@
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
-      <c r="R128"/>
-      <c r="T128" s="1"/>
-      <c r="V128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="U128" s="1"/>
       <c r="W128" s="1"/>
     </row>
     <row r="129" spans="1:23">
@@ -4372,9 +4283,8 @@
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
-      <c r="R129"/>
-      <c r="T129" s="1"/>
-      <c r="V129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="U129" s="1"/>
       <c r="W129" s="1"/>
     </row>
     <row r="130" spans="1:23">
@@ -4394,9 +4304,8 @@
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
-      <c r="R130"/>
-      <c r="T130" s="1"/>
-      <c r="V130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="U130" s="1"/>
       <c r="W130" s="1"/>
     </row>
     <row r="131" spans="1:23">
@@ -4416,9 +4325,8 @@
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
-      <c r="R131"/>
-      <c r="T131" s="1"/>
-      <c r="V131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="U131" s="1"/>
       <c r="W131" s="1"/>
     </row>
     <row r="132" spans="1:23">
@@ -4438,9 +4346,8 @@
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
-      <c r="R132"/>
-      <c r="T132" s="1"/>
-      <c r="V132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="U132" s="1"/>
       <c r="W132" s="1"/>
     </row>
     <row r="133" spans="1:23">
@@ -4460,9 +4367,8 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
-      <c r="R133"/>
-      <c r="T133" s="1"/>
-      <c r="V133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="U133" s="1"/>
       <c r="W133" s="1"/>
     </row>
     <row r="134" spans="1:23">
@@ -4482,9 +4388,8 @@
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
-      <c r="R134"/>
-      <c r="T134" s="1"/>
-      <c r="V134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="U134" s="1"/>
       <c r="W134" s="1"/>
     </row>
     <row r="135" spans="1:23">
@@ -4504,9 +4409,8 @@
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
-      <c r="R135"/>
-      <c r="T135" s="1"/>
-      <c r="V135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="U135" s="1"/>
       <c r="W135" s="1"/>
     </row>
     <row r="136" spans="1:23">
@@ -4526,9 +4430,8 @@
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
-      <c r="R136"/>
-      <c r="T136" s="1"/>
-      <c r="V136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="U136" s="1"/>
       <c r="W136" s="1"/>
     </row>
     <row r="137" spans="1:23">
@@ -4548,9 +4451,8 @@
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
-      <c r="R137"/>
-      <c r="T137" s="1"/>
-      <c r="V137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="U137" s="1"/>
       <c r="W137" s="1"/>
     </row>
     <row r="138" spans="1:23">
@@ -4570,9 +4472,8 @@
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
-      <c r="R138"/>
-      <c r="T138" s="1"/>
-      <c r="V138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="U138" s="1"/>
       <c r="W138" s="1"/>
     </row>
     <row r="139" spans="1:23">
@@ -4592,9 +4493,8 @@
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
-      <c r="R139"/>
-      <c r="T139" s="1"/>
-      <c r="V139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="U139" s="1"/>
       <c r="W139" s="1"/>
     </row>
     <row r="140" spans="1:23">
@@ -4614,9 +4514,8 @@
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
-      <c r="R140"/>
-      <c r="T140" s="1"/>
-      <c r="V140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="U140" s="1"/>
       <c r="W140" s="1"/>
     </row>
     <row r="141" spans="1:23">
@@ -4636,9 +4535,8 @@
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
-      <c r="R141"/>
-      <c r="T141" s="1"/>
-      <c r="V141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="U141" s="1"/>
       <c r="W141" s="1"/>
     </row>
     <row r="142" spans="1:23">
@@ -4658,9 +4556,8 @@
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
-      <c r="R142"/>
-      <c r="T142" s="1"/>
-      <c r="V142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="U142" s="1"/>
       <c r="W142" s="1"/>
     </row>
     <row r="143" spans="1:23">
@@ -4680,9 +4577,8 @@
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
-      <c r="R143"/>
-      <c r="T143" s="1"/>
-      <c r="V143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="U143" s="1"/>
       <c r="W143" s="1"/>
     </row>
     <row r="144" spans="1:23">
@@ -4702,9 +4598,8 @@
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
-      <c r="R144"/>
-      <c r="T144" s="1"/>
-      <c r="V144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="U144" s="1"/>
       <c r="W144" s="1"/>
     </row>
     <row r="145" spans="1:23">
@@ -4724,9 +4619,8 @@
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
-      <c r="R145"/>
-      <c r="T145" s="1"/>
-      <c r="V145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="U145" s="1"/>
       <c r="W145" s="1"/>
     </row>
     <row r="146" spans="1:23">
@@ -4746,9 +4640,8 @@
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
-      <c r="R146"/>
-      <c r="T146" s="1"/>
-      <c r="V146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="U146" s="1"/>
       <c r="W146" s="1"/>
     </row>
     <row r="147" spans="1:23">
@@ -4768,9 +4661,8 @@
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
-      <c r="R147"/>
-      <c r="T147" s="1"/>
-      <c r="V147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="U147" s="1"/>
       <c r="W147" s="1"/>
     </row>
     <row r="148" spans="1:23">
@@ -4790,9 +4682,8 @@
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
-      <c r="R148"/>
-      <c r="T148" s="1"/>
-      <c r="V148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="U148" s="1"/>
       <c r="W148" s="1"/>
     </row>
     <row r="149" spans="1:23">
@@ -4812,9 +4703,8 @@
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
-      <c r="R149"/>
-      <c r="T149" s="1"/>
-      <c r="V149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="U149" s="1"/>
       <c r="W149" s="1"/>
     </row>
     <row r="150" spans="1:23">
@@ -4834,9 +4724,8 @@
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
-      <c r="R150"/>
-      <c r="T150" s="1"/>
-      <c r="V150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="U150" s="1"/>
       <c r="W150" s="1"/>
     </row>
     <row r="151" spans="1:23">
@@ -4856,9 +4745,8 @@
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
-      <c r="R151"/>
-      <c r="T151" s="1"/>
-      <c r="V151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="U151" s="1"/>
       <c r="W151" s="1"/>
     </row>
     <row r="152" spans="1:23">
@@ -4878,9 +4766,8 @@
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
-      <c r="R152"/>
-      <c r="T152" s="1"/>
-      <c r="V152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="U152" s="1"/>
       <c r="W152" s="1"/>
     </row>
     <row r="153" spans="1:23">
@@ -4900,9 +4787,8 @@
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
-      <c r="R153"/>
-      <c r="T153" s="1"/>
-      <c r="V153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="U153" s="1"/>
       <c r="W153" s="1"/>
     </row>
     <row r="154" spans="1:23">
@@ -4922,9 +4808,8 @@
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
-      <c r="R154"/>
-      <c r="T154" s="1"/>
-      <c r="V154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="U154" s="1"/>
       <c r="W154" s="1"/>
     </row>
     <row r="155" spans="1:23">
@@ -4944,9 +4829,8 @@
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
-      <c r="R155"/>
-      <c r="T155" s="1"/>
-      <c r="V155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="U155" s="1"/>
       <c r="W155" s="1"/>
     </row>
     <row r="156" spans="1:23">
@@ -4966,9 +4850,8 @@
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
-      <c r="R156"/>
-      <c r="T156" s="1"/>
-      <c r="V156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="U156" s="1"/>
       <c r="W156" s="1"/>
     </row>
     <row r="157" spans="1:23">
@@ -4988,9 +4871,8 @@
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
-      <c r="R157"/>
-      <c r="T157" s="1"/>
-      <c r="V157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="U157" s="1"/>
       <c r="W157" s="1"/>
     </row>
     <row r="158" spans="1:23">
@@ -5010,9 +4892,8 @@
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
-      <c r="R158"/>
-      <c r="T158" s="1"/>
-      <c r="V158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="U158" s="1"/>
       <c r="W158" s="1"/>
     </row>
     <row r="159" spans="1:23">
@@ -5032,9 +4913,8 @@
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
-      <c r="R159"/>
-      <c r="T159" s="1"/>
-      <c r="V159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="U159" s="1"/>
       <c r="W159" s="1"/>
     </row>
     <row r="160" spans="1:23">
@@ -5054,9 +4934,8 @@
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
-      <c r="R160"/>
-      <c r="T160" s="1"/>
-      <c r="V160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="U160" s="1"/>
       <c r="W160" s="1"/>
     </row>
     <row r="161" spans="1:23">
@@ -5076,9 +4955,8 @@
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
-      <c r="R161"/>
-      <c r="T161" s="1"/>
-      <c r="V161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="U161" s="1"/>
       <c r="W161" s="1"/>
     </row>
     <row r="162" spans="1:23">
@@ -5098,9 +4976,8 @@
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
-      <c r="R162"/>
-      <c r="T162" s="1"/>
-      <c r="V162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="U162" s="1"/>
       <c r="W162" s="1"/>
     </row>
     <row r="163" spans="1:23">
@@ -5120,9 +4997,8 @@
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
-      <c r="R163"/>
-      <c r="T163" s="1"/>
-      <c r="V163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="U163" s="1"/>
       <c r="W163" s="1"/>
     </row>
     <row r="164" spans="1:23">
@@ -5142,9 +5018,8 @@
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
-      <c r="R164"/>
-      <c r="T164" s="1"/>
-      <c r="V164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="U164" s="1"/>
       <c r="W164" s="1"/>
     </row>
     <row r="165" spans="1:23">
@@ -5164,9 +5039,8 @@
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
-      <c r="R165"/>
-      <c r="T165" s="1"/>
-      <c r="V165" s="1"/>
+      <c r="R165" s="1"/>
+      <c r="U165" s="1"/>
       <c r="W165" s="1"/>
     </row>
     <row r="166" spans="1:23">
@@ -5186,9 +5060,8 @@
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
-      <c r="R166"/>
-      <c r="T166" s="1"/>
-      <c r="V166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="U166" s="1"/>
       <c r="W166" s="1"/>
     </row>
     <row r="167" spans="1:23">
@@ -5208,9 +5081,8 @@
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
-      <c r="R167"/>
-      <c r="T167" s="1"/>
-      <c r="V167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="U167" s="1"/>
       <c r="W167" s="1"/>
     </row>
     <row r="168" spans="1:23">
@@ -5230,9 +5102,8 @@
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
-      <c r="R168"/>
-      <c r="T168" s="1"/>
-      <c r="V168" s="1"/>
+      <c r="R168" s="1"/>
+      <c r="U168" s="1"/>
       <c r="W168" s="1"/>
     </row>
     <row r="169" spans="1:23">
@@ -5252,9 +5123,8 @@
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
-      <c r="R169"/>
-      <c r="T169" s="1"/>
-      <c r="V169" s="1"/>
+      <c r="R169" s="1"/>
+      <c r="U169" s="1"/>
       <c r="W169" s="1"/>
     </row>
     <row r="170" spans="1:23">
@@ -5274,9 +5144,8 @@
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
-      <c r="R170"/>
-      <c r="T170" s="1"/>
-      <c r="V170" s="1"/>
+      <c r="R170" s="1"/>
+      <c r="U170" s="1"/>
       <c r="W170" s="1"/>
     </row>
     <row r="171" spans="1:23">
@@ -5296,9 +5165,8 @@
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
-      <c r="R171"/>
-      <c r="T171" s="1"/>
-      <c r="V171" s="1"/>
+      <c r="R171" s="1"/>
+      <c r="U171" s="1"/>
       <c r="W171" s="1"/>
     </row>
     <row r="172" spans="1:23">
@@ -5318,9 +5186,8 @@
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
-      <c r="R172"/>
-      <c r="T172" s="1"/>
-      <c r="V172" s="1"/>
+      <c r="R172" s="1"/>
+      <c r="U172" s="1"/>
       <c r="W172" s="1"/>
     </row>
     <row r="173" spans="1:23">
@@ -5340,9 +5207,8 @@
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
-      <c r="R173"/>
-      <c r="T173" s="1"/>
-      <c r="V173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="U173" s="1"/>
       <c r="W173" s="1"/>
     </row>
     <row r="174" spans="1:23">
@@ -5362,9 +5228,8 @@
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
-      <c r="R174"/>
-      <c r="T174" s="1"/>
-      <c r="V174" s="1"/>
+      <c r="R174" s="1"/>
+      <c r="U174" s="1"/>
       <c r="W174" s="1"/>
     </row>
     <row r="175" spans="1:23">
@@ -5384,9 +5249,8 @@
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
-      <c r="R175"/>
-      <c r="T175" s="1"/>
-      <c r="V175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="U175" s="1"/>
       <c r="W175" s="1"/>
     </row>
     <row r="176" spans="1:23">
@@ -5406,9 +5270,8 @@
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
-      <c r="R176"/>
-      <c r="T176" s="1"/>
-      <c r="V176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="U176" s="1"/>
       <c r="W176" s="1"/>
     </row>
     <row r="177" spans="1:23">
@@ -5428,9 +5291,8 @@
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
-      <c r="R177"/>
-      <c r="T177" s="1"/>
-      <c r="V177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="U177" s="1"/>
       <c r="W177" s="1"/>
     </row>
     <row r="178" spans="1:23">
@@ -5450,9 +5312,8 @@
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
-      <c r="R178"/>
-      <c r="T178" s="1"/>
-      <c r="V178" s="1"/>
+      <c r="R178" s="1"/>
+      <c r="U178" s="1"/>
       <c r="W178" s="1"/>
     </row>
     <row r="179" spans="1:23">
@@ -5472,9 +5333,8 @@
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
-      <c r="R179"/>
-      <c r="T179" s="1"/>
-      <c r="V179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="U179" s="1"/>
       <c r="W179" s="1"/>
     </row>
     <row r="180" spans="1:23">
@@ -5494,9 +5354,8 @@
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
-      <c r="R180"/>
-      <c r="T180" s="1"/>
-      <c r="V180" s="1"/>
+      <c r="R180" s="1"/>
+      <c r="U180" s="1"/>
       <c r="W180" s="1"/>
     </row>
     <row r="181" spans="1:23">
@@ -5516,9 +5375,8 @@
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
-      <c r="R181"/>
-      <c r="T181" s="1"/>
-      <c r="V181" s="1"/>
+      <c r="R181" s="1"/>
+      <c r="U181" s="1"/>
       <c r="W181" s="1"/>
     </row>
     <row r="182" spans="1:23">
@@ -5538,9 +5396,8 @@
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
-      <c r="R182"/>
-      <c r="T182" s="1"/>
-      <c r="V182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="U182" s="1"/>
       <c r="W182" s="1"/>
     </row>
     <row r="183" spans="1:23">
@@ -5560,9 +5417,8 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
-      <c r="R183"/>
-      <c r="T183" s="1"/>
-      <c r="V183" s="1"/>
+      <c r="R183" s="1"/>
+      <c r="U183" s="1"/>
       <c r="W183" s="1"/>
     </row>
     <row r="184" spans="1:23">
@@ -5582,9 +5438,8 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
-      <c r="R184"/>
-      <c r="T184" s="1"/>
-      <c r="V184" s="1"/>
+      <c r="R184" s="1"/>
+      <c r="U184" s="1"/>
       <c r="W184" s="1"/>
     </row>
     <row r="185" spans="1:23">
@@ -5604,9 +5459,8 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
-      <c r="R185"/>
-      <c r="T185" s="1"/>
-      <c r="V185" s="1"/>
+      <c r="R185" s="1"/>
+      <c r="U185" s="1"/>
       <c r="W185" s="1"/>
     </row>
     <row r="186" spans="1:23">
@@ -5626,9 +5480,8 @@
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
-      <c r="R186"/>
-      <c r="T186" s="1"/>
-      <c r="V186" s="1"/>
+      <c r="R186" s="1"/>
+      <c r="U186" s="1"/>
       <c r="W186" s="1"/>
     </row>
     <row r="187" spans="1:23">
@@ -5648,9 +5501,8 @@
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
-      <c r="R187"/>
-      <c r="T187" s="1"/>
-      <c r="V187" s="1"/>
+      <c r="R187" s="1"/>
+      <c r="U187" s="1"/>
       <c r="W187" s="1"/>
     </row>
     <row r="188" spans="1:23">
@@ -5670,9 +5522,8 @@
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
-      <c r="R188"/>
-      <c r="T188" s="1"/>
-      <c r="V188" s="1"/>
+      <c r="R188" s="1"/>
+      <c r="U188" s="1"/>
       <c r="W188" s="1"/>
     </row>
     <row r="189" spans="1:23">
@@ -5692,9 +5543,8 @@
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
-      <c r="R189"/>
-      <c r="T189" s="1"/>
-      <c r="V189" s="1"/>
+      <c r="R189" s="1"/>
+      <c r="U189" s="1"/>
       <c r="W189" s="1"/>
     </row>
     <row r="190" spans="1:23">
@@ -5714,9 +5564,8 @@
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
-      <c r="R190"/>
-      <c r="T190" s="1"/>
-      <c r="V190" s="1"/>
+      <c r="R190" s="1"/>
+      <c r="U190" s="1"/>
       <c r="W190" s="1"/>
     </row>
     <row r="191" spans="1:23">
@@ -5736,9 +5585,8 @@
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
-      <c r="R191"/>
-      <c r="T191" s="1"/>
-      <c r="V191" s="1"/>
+      <c r="R191" s="1"/>
+      <c r="U191" s="1"/>
       <c r="W191" s="1"/>
     </row>
     <row r="192" spans="1:23">
@@ -5758,9 +5606,8 @@
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
-      <c r="R192"/>
-      <c r="T192" s="1"/>
-      <c r="V192" s="1"/>
+      <c r="R192" s="1"/>
+      <c r="U192" s="1"/>
       <c r="W192" s="1"/>
     </row>
     <row r="193" spans="1:23">
@@ -5780,9 +5627,8 @@
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
-      <c r="R193"/>
-      <c r="T193" s="1"/>
-      <c r="V193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="U193" s="1"/>
       <c r="W193" s="1"/>
     </row>
     <row r="194" spans="1:23">
@@ -5802,9 +5648,8 @@
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
-      <c r="R194"/>
-      <c r="T194" s="1"/>
-      <c r="V194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="U194" s="1"/>
       <c r="W194" s="1"/>
     </row>
     <row r="195" spans="1:23">
@@ -5824,9 +5669,8 @@
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
-      <c r="R195"/>
-      <c r="T195" s="1"/>
-      <c r="V195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="U195" s="1"/>
       <c r="W195" s="1"/>
     </row>
     <row r="196" spans="1:23">
@@ -5846,9 +5690,8 @@
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
-      <c r="R196"/>
-      <c r="T196" s="1"/>
-      <c r="V196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="U196" s="1"/>
       <c r="W196" s="1"/>
     </row>
     <row r="197" spans="1:23">
@@ -5868,9 +5711,8 @@
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
-      <c r="R197"/>
-      <c r="T197" s="1"/>
-      <c r="V197" s="1"/>
+      <c r="R197" s="1"/>
+      <c r="U197" s="1"/>
       <c r="W197" s="1"/>
     </row>
     <row r="198" spans="1:23">
@@ -5890,9 +5732,8 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
-      <c r="R198"/>
-      <c r="T198" s="1"/>
-      <c r="V198" s="1"/>
+      <c r="R198" s="1"/>
+      <c r="U198" s="1"/>
       <c r="W198" s="1"/>
     </row>
     <row r="199" spans="1:23">
@@ -5912,9 +5753,8 @@
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
-      <c r="R199"/>
-      <c r="T199" s="1"/>
-      <c r="V199" s="1"/>
+      <c r="R199" s="1"/>
+      <c r="U199" s="1"/>
       <c r="W199" s="1"/>
     </row>
     <row r="200" spans="1:23">
@@ -5934,9 +5774,8 @@
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
-      <c r="R200"/>
-      <c r="T200" s="1"/>
-      <c r="V200" s="1"/>
+      <c r="R200" s="1"/>
+      <c r="U200" s="1"/>
       <c r="W200" s="1"/>
     </row>
     <row r="201" spans="1:23">
@@ -5956,9 +5795,8 @@
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
-      <c r="R201"/>
-      <c r="T201" s="1"/>
-      <c r="V201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="U201" s="1"/>
       <c r="W201" s="1"/>
     </row>
     <row r="202" spans="1:23">
@@ -5978,9 +5816,8 @@
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
-      <c r="R202"/>
-      <c r="T202" s="1"/>
-      <c r="V202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="U202" s="1"/>
       <c r="W202" s="1"/>
     </row>
     <row r="203" spans="1:23">
@@ -6000,9 +5837,8 @@
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
-      <c r="R203"/>
-      <c r="T203" s="1"/>
-      <c r="V203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="U203" s="1"/>
       <c r="W203" s="1"/>
     </row>
     <row r="204" spans="1:23">
@@ -6022,9 +5858,8 @@
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
-      <c r="R204"/>
-      <c r="T204" s="1"/>
-      <c r="V204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="U204" s="1"/>
       <c r="W204" s="1"/>
     </row>
     <row r="205" spans="1:23">
@@ -6044,9 +5879,8 @@
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
-      <c r="R205"/>
-      <c r="T205" s="1"/>
-      <c r="V205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="U205" s="1"/>
       <c r="W205" s="1"/>
     </row>
     <row r="206" spans="1:23">
@@ -6066,9 +5900,8 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
-      <c r="R206"/>
-      <c r="T206" s="1"/>
-      <c r="V206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="U206" s="1"/>
       <c r="W206" s="1"/>
     </row>
     <row r="207" spans="1:23">
@@ -6088,9 +5921,8 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
-      <c r="R207"/>
-      <c r="T207" s="1"/>
-      <c r="V207" s="1"/>
+      <c r="R207" s="1"/>
+      <c r="U207" s="1"/>
       <c r="W207" s="1"/>
     </row>
     <row r="208" spans="1:23">
@@ -6110,9 +5942,8 @@
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
-      <c r="R208"/>
-      <c r="T208" s="1"/>
-      <c r="V208" s="1"/>
+      <c r="R208" s="1"/>
+      <c r="U208" s="1"/>
       <c r="W208" s="1"/>
     </row>
     <row r="209" spans="1:23">
@@ -6132,9 +5963,8 @@
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
-      <c r="R209"/>
-      <c r="T209" s="1"/>
-      <c r="V209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="U209" s="1"/>
       <c r="W209" s="1"/>
     </row>
     <row r="210" spans="1:23">
@@ -6154,9 +5984,8 @@
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
-      <c r="R210"/>
-      <c r="T210" s="1"/>
-      <c r="V210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="U210" s="1"/>
       <c r="W210" s="1"/>
     </row>
     <row r="211" spans="1:23">
@@ -6176,9 +6005,8 @@
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
-      <c r="R211"/>
-      <c r="T211" s="1"/>
-      <c r="V211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="U211" s="1"/>
       <c r="W211" s="1"/>
     </row>
     <row r="212" spans="1:23">
@@ -6198,9 +6026,8 @@
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
-      <c r="R212"/>
-      <c r="T212" s="1"/>
-      <c r="V212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="U212" s="1"/>
       <c r="W212" s="1"/>
     </row>
     <row r="213" spans="1:23">
@@ -6220,9 +6047,8 @@
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
-      <c r="R213"/>
-      <c r="T213" s="1"/>
-      <c r="V213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="U213" s="1"/>
       <c r="W213" s="1"/>
     </row>
     <row r="214" spans="1:23">
@@ -6242,9 +6068,8 @@
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
-      <c r="R214"/>
-      <c r="T214" s="1"/>
-      <c r="V214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="U214" s="1"/>
       <c r="W214" s="1"/>
     </row>
     <row r="215" spans="1:23">
@@ -6264,9 +6089,8 @@
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
-      <c r="R215"/>
-      <c r="T215" s="1"/>
-      <c r="V215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="U215" s="1"/>
       <c r="W215" s="1"/>
     </row>
     <row r="216" spans="1:23">
@@ -6286,9 +6110,8 @@
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
-      <c r="R216"/>
-      <c r="T216" s="1"/>
-      <c r="V216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="U216" s="1"/>
       <c r="W216" s="1"/>
     </row>
     <row r="217" spans="1:23">
@@ -6308,9 +6131,8 @@
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
-      <c r="R217"/>
-      <c r="T217" s="1"/>
-      <c r="V217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="U217" s="1"/>
       <c r="W217" s="1"/>
     </row>
     <row r="218" spans="1:23">
@@ -6330,9 +6152,8 @@
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
-      <c r="R218"/>
-      <c r="T218" s="1"/>
-      <c r="V218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="U218" s="1"/>
       <c r="W218" s="1"/>
     </row>
     <row r="219" spans="1:23">
@@ -6352,9 +6173,8 @@
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
-      <c r="R219"/>
-      <c r="T219" s="1"/>
-      <c r="V219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="U219" s="1"/>
       <c r="W219" s="1"/>
     </row>
     <row r="220" spans="1:23">
@@ -6374,9 +6194,8 @@
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
-      <c r="R220"/>
-      <c r="T220" s="1"/>
-      <c r="V220" s="1"/>
+      <c r="R220" s="1"/>
+      <c r="U220" s="1"/>
       <c r="W220" s="1"/>
     </row>
     <row r="221" spans="1:23">
@@ -6396,9 +6215,8 @@
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
-      <c r="R221"/>
-      <c r="T221" s="1"/>
-      <c r="V221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="U221" s="1"/>
       <c r="W221" s="1"/>
     </row>
     <row r="222" spans="1:23">
@@ -6418,9 +6236,8 @@
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
-      <c r="R222"/>
-      <c r="T222" s="1"/>
-      <c r="V222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="U222" s="1"/>
       <c r="W222" s="1"/>
     </row>
     <row r="223" spans="1:23">
@@ -6440,9 +6257,8 @@
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
-      <c r="R223"/>
-      <c r="T223" s="1"/>
-      <c r="V223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="U223" s="1"/>
       <c r="W223" s="1"/>
     </row>
     <row r="224" spans="1:23">
@@ -6462,9 +6278,8 @@
       <c r="O224" s="1"/>
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
-      <c r="R224"/>
-      <c r="T224" s="1"/>
-      <c r="V224" s="1"/>
+      <c r="R224" s="1"/>
+      <c r="U224" s="1"/>
       <c r="W224" s="1"/>
     </row>
     <row r="225" spans="1:23">
@@ -6484,9 +6299,8 @@
       <c r="O225" s="1"/>
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
-      <c r="R225"/>
-      <c r="T225" s="1"/>
-      <c r="V225" s="1"/>
+      <c r="R225" s="1"/>
+      <c r="U225" s="1"/>
       <c r="W225" s="1"/>
     </row>
     <row r="226" spans="1:23">
@@ -6506,9 +6320,8 @@
       <c r="O226" s="1"/>
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
-      <c r="R226"/>
-      <c r="T226" s="1"/>
-      <c r="V226" s="1"/>
+      <c r="R226" s="1"/>
+      <c r="U226" s="1"/>
       <c r="W226" s="1"/>
     </row>
     <row r="227" spans="1:23">
@@ -6528,9 +6341,8 @@
       <c r="O227" s="1"/>
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
-      <c r="R227"/>
-      <c r="T227" s="1"/>
-      <c r="V227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="U227" s="1"/>
       <c r="W227" s="1"/>
     </row>
     <row r="228" spans="1:23">
@@ -6550,9 +6362,8 @@
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
-      <c r="R228"/>
-      <c r="T228" s="1"/>
-      <c r="V228" s="1"/>
+      <c r="R228" s="1"/>
+      <c r="U228" s="1"/>
       <c r="W228" s="1"/>
     </row>
     <row r="229" spans="1:23">
@@ -6572,9 +6383,8 @@
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
-      <c r="R229"/>
-      <c r="T229" s="1"/>
-      <c r="V229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="U229" s="1"/>
       <c r="W229" s="1"/>
     </row>
     <row r="230" spans="1:23">
@@ -6594,9 +6404,8 @@
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
-      <c r="R230"/>
-      <c r="T230" s="1"/>
-      <c r="V230" s="1"/>
+      <c r="R230" s="1"/>
+      <c r="U230" s="1"/>
       <c r="W230" s="1"/>
     </row>
     <row r="231" spans="1:23">
@@ -6616,9 +6425,8 @@
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
-      <c r="R231"/>
-      <c r="T231" s="1"/>
-      <c r="V231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="U231" s="1"/>
       <c r="W231" s="1"/>
     </row>
     <row r="232" spans="1:23">
@@ -6638,9 +6446,8 @@
       <c r="O232" s="1"/>
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
-      <c r="R232"/>
-      <c r="T232" s="1"/>
-      <c r="V232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="U232" s="1"/>
       <c r="W232" s="1"/>
     </row>
     <row r="233" spans="1:23">
@@ -6660,9 +6467,8 @@
       <c r="O233" s="1"/>
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
-      <c r="R233"/>
-      <c r="T233" s="1"/>
-      <c r="V233" s="1"/>
+      <c r="R233" s="1"/>
+      <c r="U233" s="1"/>
       <c r="W233" s="1"/>
     </row>
     <row r="234" spans="1:23">
@@ -6682,9 +6488,8 @@
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
-      <c r="R234"/>
-      <c r="T234" s="1"/>
-      <c r="V234" s="1"/>
+      <c r="R234" s="1"/>
+      <c r="U234" s="1"/>
       <c r="W234" s="1"/>
     </row>
     <row r="235" spans="1:23">
@@ -6704,9 +6509,8 @@
       <c r="O235" s="1"/>
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
-      <c r="R235"/>
-      <c r="T235" s="1"/>
-      <c r="V235" s="1"/>
+      <c r="R235" s="1"/>
+      <c r="U235" s="1"/>
       <c r="W235" s="1"/>
     </row>
     <row r="236" spans="1:23">
@@ -6726,9 +6530,8 @@
       <c r="O236" s="1"/>
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
-      <c r="R236"/>
-      <c r="T236" s="1"/>
-      <c r="V236" s="1"/>
+      <c r="R236" s="1"/>
+      <c r="U236" s="1"/>
       <c r="W236" s="1"/>
     </row>
     <row r="237" spans="1:23">
@@ -6748,9 +6551,8 @@
       <c r="O237" s="1"/>
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
-      <c r="R237"/>
-      <c r="T237" s="1"/>
-      <c r="V237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="U237" s="1"/>
       <c r="W237" s="1"/>
     </row>
     <row r="238" spans="1:23">
@@ -6770,9 +6572,8 @@
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
-      <c r="R238"/>
-      <c r="T238" s="1"/>
-      <c r="V238" s="1"/>
+      <c r="R238" s="1"/>
+      <c r="U238" s="1"/>
       <c r="W238" s="1"/>
     </row>
     <row r="239" spans="1:23">
@@ -6792,9 +6593,8 @@
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
-      <c r="R239"/>
-      <c r="T239" s="1"/>
-      <c r="V239" s="1"/>
+      <c r="R239" s="1"/>
+      <c r="U239" s="1"/>
       <c r="W239" s="1"/>
     </row>
     <row r="240" spans="1:23">
@@ -6814,9 +6614,8 @@
       <c r="O240" s="1"/>
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
-      <c r="R240"/>
-      <c r="T240" s="1"/>
-      <c r="V240" s="1"/>
+      <c r="R240" s="1"/>
+      <c r="U240" s="1"/>
       <c r="W240" s="1"/>
     </row>
     <row r="241" spans="1:23">
@@ -6836,9 +6635,8 @@
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
-      <c r="R241"/>
-      <c r="T241" s="1"/>
-      <c r="V241" s="1"/>
+      <c r="R241" s="1"/>
+      <c r="U241" s="1"/>
       <c r="W241" s="1"/>
     </row>
     <row r="242" spans="1:23">
@@ -6858,9 +6656,8 @@
       <c r="O242" s="1"/>
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
-      <c r="R242"/>
-      <c r="T242" s="1"/>
-      <c r="V242" s="1"/>
+      <c r="R242" s="1"/>
+      <c r="U242" s="1"/>
       <c r="W242" s="1"/>
     </row>
     <row r="243" spans="1:23">
@@ -6880,9 +6677,8 @@
       <c r="O243" s="1"/>
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
-      <c r="R243"/>
-      <c r="T243" s="1"/>
-      <c r="V243" s="1"/>
+      <c r="R243" s="1"/>
+      <c r="U243" s="1"/>
       <c r="W243" s="1"/>
     </row>
     <row r="244" spans="1:23">
@@ -6902,9 +6698,8 @@
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
-      <c r="R244"/>
-      <c r="T244" s="1"/>
-      <c r="V244" s="1"/>
+      <c r="R244" s="1"/>
+      <c r="U244" s="1"/>
       <c r="W244" s="1"/>
     </row>
     <row r="245" spans="1:23">
@@ -6924,9 +6719,8 @@
       <c r="O245" s="1"/>
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
-      <c r="R245"/>
-      <c r="T245" s="1"/>
-      <c r="V245" s="1"/>
+      <c r="R245" s="1"/>
+      <c r="U245" s="1"/>
       <c r="W245" s="1"/>
     </row>
     <row r="246" spans="1:23">
@@ -6946,9 +6740,8 @@
       <c r="O246" s="1"/>
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
-      <c r="R246"/>
-      <c r="T246" s="1"/>
-      <c r="V246" s="1"/>
+      <c r="R246" s="1"/>
+      <c r="U246" s="1"/>
       <c r="W246" s="1"/>
     </row>
     <row r="247" spans="1:23">
@@ -6968,9 +6761,8 @@
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
-      <c r="R247"/>
-      <c r="T247" s="1"/>
-      <c r="V247" s="1"/>
+      <c r="R247" s="1"/>
+      <c r="U247" s="1"/>
       <c r="W247" s="1"/>
     </row>
     <row r="248" spans="1:23">
@@ -6990,9 +6782,8 @@
       <c r="O248" s="1"/>
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
-      <c r="R248"/>
-      <c r="T248" s="1"/>
-      <c r="V248" s="1"/>
+      <c r="R248" s="1"/>
+      <c r="U248" s="1"/>
       <c r="W248" s="1"/>
     </row>
     <row r="249" spans="1:23">
@@ -7012,9 +6803,8 @@
       <c r="O249" s="1"/>
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
-      <c r="R249"/>
-      <c r="T249" s="1"/>
-      <c r="V249" s="1"/>
+      <c r="R249" s="1"/>
+      <c r="U249" s="1"/>
       <c r="W249" s="1"/>
     </row>
     <row r="250" spans="1:23">
@@ -7034,9 +6824,8 @@
       <c r="O250" s="1"/>
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
-      <c r="R250"/>
-      <c r="T250" s="1"/>
-      <c r="V250" s="1"/>
+      <c r="R250" s="1"/>
+      <c r="U250" s="1"/>
       <c r="W250" s="1"/>
     </row>
     <row r="251" spans="1:23">
@@ -7056,9 +6845,8 @@
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
-      <c r="R251"/>
-      <c r="T251" s="1"/>
-      <c r="V251" s="1"/>
+      <c r="R251" s="1"/>
+      <c r="U251" s="1"/>
       <c r="W251" s="1"/>
     </row>
     <row r="252" spans="1:23">
@@ -7078,9 +6866,8 @@
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
-      <c r="R252"/>
-      <c r="T252" s="1"/>
-      <c r="V252" s="1"/>
+      <c r="R252" s="1"/>
+      <c r="U252" s="1"/>
       <c r="W252" s="1"/>
     </row>
     <row r="253" spans="1:23">
@@ -7100,9 +6887,8 @@
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
-      <c r="R253"/>
-      <c r="T253" s="1"/>
-      <c r="V253" s="1"/>
+      <c r="R253" s="1"/>
+      <c r="U253" s="1"/>
       <c r="W253" s="1"/>
     </row>
     <row r="254" spans="1:23">
@@ -7122,9 +6908,8 @@
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
-      <c r="R254"/>
-      <c r="T254" s="1"/>
-      <c r="V254" s="1"/>
+      <c r="R254" s="1"/>
+      <c r="U254" s="1"/>
       <c r="W254" s="1"/>
     </row>
     <row r="255" spans="1:23">
@@ -7144,9 +6929,8 @@
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
-      <c r="R255"/>
-      <c r="T255" s="1"/>
-      <c r="V255" s="1"/>
+      <c r="R255" s="1"/>
+      <c r="U255" s="1"/>
       <c r="W255" s="1"/>
     </row>
     <row r="256" spans="1:23">
@@ -7166,9 +6950,8 @@
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
-      <c r="R256"/>
-      <c r="T256" s="1"/>
-      <c r="V256" s="1"/>
+      <c r="R256" s="1"/>
+      <c r="U256" s="1"/>
       <c r="W256" s="1"/>
     </row>
     <row r="257" spans="1:23">
@@ -7188,9 +6971,8 @@
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
-      <c r="R257"/>
-      <c r="T257" s="1"/>
-      <c r="V257" s="1"/>
+      <c r="R257" s="1"/>
+      <c r="U257" s="1"/>
       <c r="W257" s="1"/>
     </row>
     <row r="258" spans="1:23">
@@ -7210,9 +6992,8 @@
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
-      <c r="R258"/>
-      <c r="T258" s="1"/>
-      <c r="V258" s="1"/>
+      <c r="R258" s="1"/>
+      <c r="U258" s="1"/>
       <c r="W258" s="1"/>
     </row>
     <row r="259" spans="1:23">
@@ -7232,9 +7013,8 @@
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
-      <c r="R259"/>
-      <c r="T259" s="1"/>
-      <c r="V259" s="1"/>
+      <c r="R259" s="1"/>
+      <c r="U259" s="1"/>
       <c r="W259" s="1"/>
     </row>
     <row r="260" spans="1:23">
@@ -7254,9 +7034,8 @@
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
-      <c r="R260"/>
-      <c r="T260" s="1"/>
-      <c r="V260" s="1"/>
+      <c r="R260" s="1"/>
+      <c r="U260" s="1"/>
       <c r="W260" s="1"/>
     </row>
     <row r="261" spans="1:23">
@@ -7276,9 +7055,8 @@
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
-      <c r="R261"/>
-      <c r="T261" s="1"/>
-      <c r="V261" s="1"/>
+      <c r="R261" s="1"/>
+      <c r="U261" s="1"/>
       <c r="W261" s="1"/>
     </row>
     <row r="262" spans="1:23">
@@ -7298,9 +7076,8 @@
       <c r="O262" s="1"/>
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
-      <c r="R262"/>
-      <c r="T262" s="1"/>
-      <c r="V262" s="1"/>
+      <c r="R262" s="1"/>
+      <c r="U262" s="1"/>
       <c r="W262" s="1"/>
     </row>
     <row r="263" spans="1:23">
@@ -7320,9 +7097,8 @@
       <c r="O263" s="1"/>
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
-      <c r="R263"/>
-      <c r="T263" s="1"/>
-      <c r="V263" s="1"/>
+      <c r="R263" s="1"/>
+      <c r="U263" s="1"/>
       <c r="W263" s="1"/>
     </row>
     <row r="264" spans="1:23">
@@ -7342,9 +7118,8 @@
       <c r="O264" s="1"/>
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
-      <c r="R264"/>
-      <c r="T264" s="1"/>
-      <c r="V264" s="1"/>
+      <c r="R264" s="1"/>
+      <c r="U264" s="1"/>
       <c r="W264" s="1"/>
     </row>
     <row r="265" spans="1:23">
@@ -7364,9 +7139,8 @@
       <c r="O265" s="1"/>
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
-      <c r="R265"/>
-      <c r="T265" s="1"/>
-      <c r="V265" s="1"/>
+      <c r="R265" s="1"/>
+      <c r="U265" s="1"/>
       <c r="W265" s="1"/>
     </row>
     <row r="266" spans="1:23">
@@ -7386,9 +7160,8 @@
       <c r="O266" s="1"/>
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
-      <c r="R266"/>
-      <c r="T266" s="1"/>
-      <c r="V266" s="1"/>
+      <c r="R266" s="1"/>
+      <c r="U266" s="1"/>
       <c r="W266" s="1"/>
     </row>
     <row r="267" spans="1:23">
@@ -7408,9 +7181,8 @@
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
-      <c r="R267"/>
-      <c r="T267" s="1"/>
-      <c r="V267" s="1"/>
+      <c r="R267" s="1"/>
+      <c r="U267" s="1"/>
       <c r="W267" s="1"/>
     </row>
     <row r="268" spans="1:23">
@@ -7430,9 +7202,8 @@
       <c r="O268" s="1"/>
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
-      <c r="R268"/>
-      <c r="T268" s="1"/>
-      <c r="V268" s="1"/>
+      <c r="R268" s="1"/>
+      <c r="U268" s="1"/>
       <c r="W268" s="1"/>
     </row>
     <row r="269" spans="1:23">
@@ -7452,9 +7223,8 @@
       <c r="O269" s="1"/>
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
-      <c r="R269"/>
-      <c r="T269" s="1"/>
-      <c r="V269" s="1"/>
+      <c r="R269" s="1"/>
+      <c r="U269" s="1"/>
       <c r="W269" s="1"/>
     </row>
     <row r="270" spans="1:23">
@@ -7474,9 +7244,8 @@
       <c r="O270" s="1"/>
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
-      <c r="R270"/>
-      <c r="T270" s="1"/>
-      <c r="V270" s="1"/>
+      <c r="R270" s="1"/>
+      <c r="U270" s="1"/>
       <c r="W270" s="1"/>
     </row>
     <row r="271" spans="1:23">
@@ -7496,9 +7265,8 @@
       <c r="O271" s="1"/>
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
-      <c r="R271"/>
-      <c r="T271" s="1"/>
-      <c r="V271" s="1"/>
+      <c r="R271" s="1"/>
+      <c r="U271" s="1"/>
       <c r="W271" s="1"/>
     </row>
     <row r="272" spans="1:23">
@@ -7518,9 +7286,8 @@
       <c r="O272" s="1"/>
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
-      <c r="R272"/>
-      <c r="T272" s="1"/>
-      <c r="V272" s="1"/>
+      <c r="R272" s="1"/>
+      <c r="U272" s="1"/>
       <c r="W272" s="1"/>
     </row>
     <row r="273" spans="1:23">
@@ -7540,9 +7307,8 @@
       <c r="O273" s="1"/>
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
-      <c r="R273"/>
-      <c r="T273" s="1"/>
-      <c r="V273" s="1"/>
+      <c r="R273" s="1"/>
+      <c r="U273" s="1"/>
       <c r="W273" s="1"/>
     </row>
     <row r="274" spans="1:23">
@@ -7562,9 +7328,8 @@
       <c r="O274" s="1"/>
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
-      <c r="R274"/>
-      <c r="T274" s="1"/>
-      <c r="V274" s="1"/>
+      <c r="R274" s="1"/>
+      <c r="U274" s="1"/>
       <c r="W274" s="1"/>
     </row>
     <row r="275" spans="1:23">
@@ -7584,9 +7349,8 @@
       <c r="O275" s="1"/>
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
-      <c r="R275"/>
-      <c r="T275" s="1"/>
-      <c r="V275" s="1"/>
+      <c r="R275" s="1"/>
+      <c r="U275" s="1"/>
       <c r="W275" s="1"/>
     </row>
     <row r="276" spans="1:23">
@@ -7606,9 +7370,8 @@
       <c r="O276" s="1"/>
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
-      <c r="R276"/>
-      <c r="T276" s="1"/>
-      <c r="V276" s="1"/>
+      <c r="R276" s="1"/>
+      <c r="U276" s="1"/>
       <c r="W276" s="1"/>
     </row>
     <row r="277" spans="1:23">
@@ -7628,9 +7391,8 @@
       <c r="O277" s="1"/>
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
-      <c r="R277"/>
-      <c r="T277" s="1"/>
-      <c r="V277" s="1"/>
+      <c r="R277" s="1"/>
+      <c r="U277" s="1"/>
       <c r="W277" s="1"/>
     </row>
     <row r="278" spans="1:23">
@@ -7650,9 +7412,8 @@
       <c r="O278" s="1"/>
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
-      <c r="R278"/>
-      <c r="T278" s="1"/>
-      <c r="V278" s="1"/>
+      <c r="R278" s="1"/>
+      <c r="U278" s="1"/>
       <c r="W278" s="1"/>
     </row>
     <row r="279" spans="1:23">
@@ -7672,9 +7433,8 @@
       <c r="O279" s="1"/>
       <c r="P279" s="1"/>
       <c r="Q279" s="1"/>
-      <c r="R279"/>
-      <c r="T279" s="1"/>
-      <c r="V279" s="1"/>
+      <c r="R279" s="1"/>
+      <c r="U279" s="1"/>
       <c r="W279" s="1"/>
     </row>
     <row r="280" spans="1:23">
@@ -7694,9 +7454,8 @@
       <c r="O280" s="1"/>
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
-      <c r="R280"/>
-      <c r="T280" s="1"/>
-      <c r="V280" s="1"/>
+      <c r="R280" s="1"/>
+      <c r="U280" s="1"/>
       <c r="W280" s="1"/>
     </row>
     <row r="281" spans="1:23">
@@ -7716,9 +7475,8 @@
       <c r="O281" s="1"/>
       <c r="P281" s="1"/>
       <c r="Q281" s="1"/>
-      <c r="R281"/>
-      <c r="T281" s="1"/>
-      <c r="V281" s="1"/>
+      <c r="R281" s="1"/>
+      <c r="U281" s="1"/>
       <c r="W281" s="1"/>
     </row>
     <row r="282" spans="1:23">
@@ -7738,9 +7496,8 @@
       <c r="O282" s="1"/>
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
-      <c r="R282"/>
-      <c r="T282" s="1"/>
-      <c r="V282" s="1"/>
+      <c r="R282" s="1"/>
+      <c r="U282" s="1"/>
       <c r="W282" s="1"/>
     </row>
     <row r="283" spans="1:23">
@@ -7760,9 +7517,8 @@
       <c r="O283" s="1"/>
       <c r="P283" s="1"/>
       <c r="Q283" s="1"/>
-      <c r="R283"/>
-      <c r="T283" s="1"/>
-      <c r="V283" s="1"/>
+      <c r="R283" s="1"/>
+      <c r="U283" s="1"/>
       <c r="W283" s="1"/>
     </row>
     <row r="284" spans="1:23">
@@ -7782,9 +7538,8 @@
       <c r="O284" s="1"/>
       <c r="P284" s="1"/>
       <c r="Q284" s="1"/>
-      <c r="R284"/>
-      <c r="T284" s="1"/>
-      <c r="V284" s="1"/>
+      <c r="R284" s="1"/>
+      <c r="U284" s="1"/>
       <c r="W284" s="1"/>
     </row>
     <row r="285" spans="1:23">
@@ -7804,9 +7559,8 @@
       <c r="O285" s="1"/>
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
-      <c r="R285"/>
-      <c r="T285" s="1"/>
-      <c r="V285" s="1"/>
+      <c r="R285" s="1"/>
+      <c r="U285" s="1"/>
       <c r="W285" s="1"/>
     </row>
     <row r="286" spans="1:23">
@@ -7826,9 +7580,8 @@
       <c r="O286" s="1"/>
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
-      <c r="R286"/>
-      <c r="T286" s="1"/>
-      <c r="V286" s="1"/>
+      <c r="R286" s="1"/>
+      <c r="U286" s="1"/>
       <c r="W286" s="1"/>
     </row>
     <row r="287" spans="1:23">
@@ -7848,9 +7601,8 @@
       <c r="O287" s="1"/>
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
-      <c r="R287"/>
-      <c r="T287" s="1"/>
-      <c r="V287" s="1"/>
+      <c r="R287" s="1"/>
+      <c r="U287" s="1"/>
       <c r="W287" s="1"/>
     </row>
     <row r="288" spans="1:23">
@@ -7870,9 +7622,8 @@
       <c r="O288" s="1"/>
       <c r="P288" s="1"/>
       <c r="Q288" s="1"/>
-      <c r="R288"/>
-      <c r="T288" s="1"/>
-      <c r="V288" s="1"/>
+      <c r="R288" s="1"/>
+      <c r="U288" s="1"/>
       <c r="W288" s="1"/>
     </row>
     <row r="289" spans="1:23">
@@ -7892,9 +7643,8 @@
       <c r="O289" s="1"/>
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
-      <c r="R289"/>
-      <c r="T289" s="1"/>
-      <c r="V289" s="1"/>
+      <c r="R289" s="1"/>
+      <c r="U289" s="1"/>
       <c r="W289" s="1"/>
     </row>
     <row r="290" spans="1:23">
@@ -7914,9 +7664,8 @@
       <c r="O290" s="1"/>
       <c r="P290" s="1"/>
       <c r="Q290" s="1"/>
-      <c r="R290"/>
-      <c r="T290" s="1"/>
-      <c r="V290" s="1"/>
+      <c r="R290" s="1"/>
+      <c r="U290" s="1"/>
       <c r="W290" s="1"/>
     </row>
     <row r="291" spans="1:23">
@@ -7936,9 +7685,8 @@
       <c r="O291" s="1"/>
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
-      <c r="R291"/>
-      <c r="T291" s="1"/>
-      <c r="V291" s="1"/>
+      <c r="R291" s="1"/>
+      <c r="U291" s="1"/>
       <c r="W291" s="1"/>
     </row>
     <row r="292" spans="1:23">
@@ -7958,9 +7706,8 @@
       <c r="O292" s="1"/>
       <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
-      <c r="R292"/>
-      <c r="T292" s="1"/>
-      <c r="V292" s="1"/>
+      <c r="R292" s="1"/>
+      <c r="U292" s="1"/>
       <c r="W292" s="1"/>
     </row>
     <row r="293" spans="1:23">
@@ -7980,9 +7727,8 @@
       <c r="O293" s="1"/>
       <c r="P293" s="1"/>
       <c r="Q293" s="1"/>
-      <c r="R293"/>
-      <c r="T293" s="1"/>
-      <c r="V293" s="1"/>
+      <c r="R293" s="1"/>
+      <c r="U293" s="1"/>
       <c r="W293" s="1"/>
     </row>
     <row r="294" spans="1:23">
@@ -8002,9 +7748,8 @@
       <c r="O294" s="1"/>
       <c r="P294" s="1"/>
       <c r="Q294" s="1"/>
-      <c r="R294"/>
-      <c r="T294" s="1"/>
-      <c r="V294" s="1"/>
+      <c r="R294" s="1"/>
+      <c r="U294" s="1"/>
       <c r="W294" s="1"/>
     </row>
     <row r="295" spans="1:23">
@@ -8024,9 +7769,8 @@
       <c r="O295" s="1"/>
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
-      <c r="R295"/>
-      <c r="T295" s="1"/>
-      <c r="V295" s="1"/>
+      <c r="R295" s="1"/>
+      <c r="U295" s="1"/>
       <c r="W295" s="1"/>
     </row>
     <row r="296" spans="1:23">
@@ -8046,9 +7790,8 @@
       <c r="O296" s="1"/>
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
-      <c r="R296"/>
-      <c r="T296" s="1"/>
-      <c r="V296" s="1"/>
+      <c r="R296" s="1"/>
+      <c r="U296" s="1"/>
       <c r="W296" s="1"/>
     </row>
     <row r="297" spans="1:23">
@@ -8068,9 +7811,8 @@
       <c r="O297" s="1"/>
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
-      <c r="R297"/>
-      <c r="T297" s="1"/>
-      <c r="V297" s="1"/>
+      <c r="R297" s="1"/>
+      <c r="U297" s="1"/>
       <c r="W297" s="1"/>
     </row>
     <row r="298" spans="1:23">
@@ -8090,9 +7832,8 @@
       <c r="O298" s="1"/>
       <c r="P298" s="1"/>
       <c r="Q298" s="1"/>
-      <c r="R298"/>
-      <c r="T298" s="1"/>
-      <c r="V298" s="1"/>
+      <c r="R298" s="1"/>
+      <c r="U298" s="1"/>
       <c r="W298" s="1"/>
     </row>
     <row r="299" spans="1:23">
@@ -8112,9 +7853,8 @@
       <c r="O299" s="1"/>
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
-      <c r="R299"/>
-      <c r="T299" s="1"/>
-      <c r="V299" s="1"/>
+      <c r="R299" s="1"/>
+      <c r="U299" s="1"/>
       <c r="W299" s="1"/>
     </row>
     <row r="300" spans="1:23">
@@ -8134,9 +7874,8 @@
       <c r="O300" s="1"/>
       <c r="P300" s="1"/>
       <c r="Q300" s="1"/>
-      <c r="R300"/>
-      <c r="T300" s="1"/>
-      <c r="V300" s="1"/>
+      <c r="R300" s="1"/>
+      <c r="U300" s="1"/>
       <c r="W300" s="1"/>
     </row>
     <row r="301" spans="1:23">
@@ -8156,9 +7895,8 @@
       <c r="O301" s="1"/>
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
-      <c r="R301"/>
-      <c r="T301" s="1"/>
-      <c r="V301" s="1"/>
+      <c r="R301" s="1"/>
+      <c r="U301" s="1"/>
       <c r="W301" s="1"/>
     </row>
     <row r="302" spans="1:23">
@@ -8178,9 +7916,8 @@
       <c r="O302" s="1"/>
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
-      <c r="R302"/>
-      <c r="T302" s="1"/>
-      <c r="V302" s="1"/>
+      <c r="R302" s="1"/>
+      <c r="U302" s="1"/>
       <c r="W302" s="1"/>
     </row>
     <row r="303" spans="1:23">
@@ -8200,9 +7937,8 @@
       <c r="O303" s="1"/>
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
-      <c r="R303"/>
-      <c r="T303" s="1"/>
-      <c r="V303" s="1"/>
+      <c r="R303" s="1"/>
+      <c r="U303" s="1"/>
       <c r="W303" s="1"/>
     </row>
     <row r="304" spans="1:23">
@@ -8222,9 +7958,8 @@
       <c r="O304" s="1"/>
       <c r="P304" s="1"/>
       <c r="Q304" s="1"/>
-      <c r="R304"/>
-      <c r="T304" s="1"/>
-      <c r="V304" s="1"/>
+      <c r="R304" s="1"/>
+      <c r="U304" s="1"/>
       <c r="W304" s="1"/>
     </row>
     <row r="305" spans="1:23">
@@ -8244,9 +7979,8 @@
       <c r="O305" s="1"/>
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
-      <c r="R305"/>
-      <c r="T305" s="1"/>
-      <c r="V305" s="1"/>
+      <c r="R305" s="1"/>
+      <c r="U305" s="1"/>
       <c r="W305" s="1"/>
     </row>
     <row r="306" spans="1:23">
@@ -8266,9 +8000,8 @@
       <c r="O306" s="1"/>
       <c r="P306" s="1"/>
       <c r="Q306" s="1"/>
-      <c r="R306"/>
-      <c r="T306" s="1"/>
-      <c r="V306" s="1"/>
+      <c r="R306" s="1"/>
+      <c r="U306" s="1"/>
       <c r="W306" s="1"/>
     </row>
     <row r="307" spans="1:23">
@@ -8288,9 +8021,8 @@
       <c r="O307" s="1"/>
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
-      <c r="R307"/>
-      <c r="T307" s="1"/>
-      <c r="V307" s="1"/>
+      <c r="R307" s="1"/>
+      <c r="U307" s="1"/>
       <c r="W307" s="1"/>
     </row>
     <row r="308" spans="1:23">
@@ -8310,9 +8042,8 @@
       <c r="O308" s="1"/>
       <c r="P308" s="1"/>
       <c r="Q308" s="1"/>
-      <c r="R308"/>
-      <c r="T308" s="1"/>
-      <c r="V308" s="1"/>
+      <c r="R308" s="1"/>
+      <c r="U308" s="1"/>
       <c r="W308" s="1"/>
     </row>
     <row r="309" spans="1:23">
@@ -8332,9 +8063,8 @@
       <c r="O309" s="1"/>
       <c r="P309" s="1"/>
       <c r="Q309" s="1"/>
-      <c r="R309"/>
-      <c r="T309" s="1"/>
-      <c r="V309" s="1"/>
+      <c r="R309" s="1"/>
+      <c r="U309" s="1"/>
       <c r="W309" s="1"/>
     </row>
     <row r="310" spans="1:23">
@@ -8354,9 +8084,8 @@
       <c r="O310" s="1"/>
       <c r="P310" s="1"/>
       <c r="Q310" s="1"/>
-      <c r="R310"/>
-      <c r="T310" s="1"/>
-      <c r="V310" s="1"/>
+      <c r="R310" s="1"/>
+      <c r="U310" s="1"/>
       <c r="W310" s="1"/>
     </row>
     <row r="311" spans="1:23">
@@ -8376,9 +8105,8 @@
       <c r="O311" s="1"/>
       <c r="P311" s="1"/>
       <c r="Q311" s="1"/>
-      <c r="R311"/>
-      <c r="T311" s="1"/>
-      <c r="V311" s="1"/>
+      <c r="R311" s="1"/>
+      <c r="U311" s="1"/>
       <c r="W311" s="1"/>
     </row>
     <row r="312" spans="1:23">
@@ -8398,9 +8126,8 @@
       <c r="O312" s="1"/>
       <c r="P312" s="1"/>
       <c r="Q312" s="1"/>
-      <c r="R312"/>
-      <c r="T312" s="1"/>
-      <c r="V312" s="1"/>
+      <c r="R312" s="1"/>
+      <c r="U312" s="1"/>
       <c r="W312" s="1"/>
     </row>
     <row r="313" spans="1:23">
@@ -8420,9 +8147,8 @@
       <c r="O313" s="1"/>
       <c r="P313" s="1"/>
       <c r="Q313" s="1"/>
-      <c r="R313"/>
-      <c r="T313" s="1"/>
-      <c r="V313" s="1"/>
+      <c r="R313" s="1"/>
+      <c r="U313" s="1"/>
       <c r="W313" s="1"/>
     </row>
     <row r="314" spans="1:23">
@@ -8442,9 +8168,8 @@
       <c r="O314" s="1"/>
       <c r="P314" s="1"/>
       <c r="Q314" s="1"/>
-      <c r="R314"/>
-      <c r="T314" s="1"/>
-      <c r="V314" s="1"/>
+      <c r="R314" s="1"/>
+      <c r="U314" s="1"/>
       <c r="W314" s="1"/>
     </row>
     <row r="315" spans="1:23">
@@ -8464,9 +8189,8 @@
       <c r="O315" s="1"/>
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
-      <c r="R315"/>
-      <c r="T315" s="1"/>
-      <c r="V315" s="1"/>
+      <c r="R315" s="1"/>
+      <c r="U315" s="1"/>
       <c r="W315" s="1"/>
     </row>
     <row r="316" spans="1:23">
@@ -8486,9 +8210,8 @@
       <c r="O316" s="1"/>
       <c r="P316" s="1"/>
       <c r="Q316" s="1"/>
-      <c r="R316"/>
-      <c r="T316" s="1"/>
-      <c r="V316" s="1"/>
+      <c r="R316" s="1"/>
+      <c r="U316" s="1"/>
       <c r="W316" s="1"/>
     </row>
     <row r="317" spans="1:23">
@@ -8508,9 +8231,8 @@
       <c r="O317" s="1"/>
       <c r="P317" s="1"/>
       <c r="Q317" s="1"/>
-      <c r="R317"/>
-      <c r="T317" s="1"/>
-      <c r="V317" s="1"/>
+      <c r="R317" s="1"/>
+      <c r="U317" s="1"/>
       <c r="W317" s="1"/>
     </row>
     <row r="318" spans="1:23">
@@ -8530,9 +8252,8 @@
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
       <c r="Q318" s="1"/>
-      <c r="R318"/>
-      <c r="T318" s="1"/>
-      <c r="V318" s="1"/>
+      <c r="R318" s="1"/>
+      <c r="U318" s="1"/>
       <c r="W318" s="1"/>
     </row>
     <row r="319" spans="1:23">
@@ -8552,9 +8273,8 @@
       <c r="O319" s="1"/>
       <c r="P319" s="1"/>
       <c r="Q319" s="1"/>
-      <c r="R319"/>
-      <c r="T319" s="1"/>
-      <c r="V319" s="1"/>
+      <c r="R319" s="1"/>
+      <c r="U319" s="1"/>
       <c r="W319" s="1"/>
     </row>
     <row r="320" spans="1:23">
@@ -8574,9 +8294,8 @@
       <c r="O320" s="1"/>
       <c r="P320" s="1"/>
       <c r="Q320" s="1"/>
-      <c r="R320"/>
-      <c r="T320" s="1"/>
-      <c r="V320" s="1"/>
+      <c r="R320" s="1"/>
+      <c r="U320" s="1"/>
       <c r="W320" s="1"/>
     </row>
     <row r="321" spans="1:23">
@@ -8596,9 +8315,8 @@
       <c r="O321" s="1"/>
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
-      <c r="R321"/>
-      <c r="T321" s="1"/>
-      <c r="V321" s="1"/>
+      <c r="R321" s="1"/>
+      <c r="U321" s="1"/>
       <c r="W321" s="1"/>
     </row>
     <row r="322" spans="1:23">
@@ -8618,9 +8336,8 @@
       <c r="O322" s="1"/>
       <c r="P322" s="1"/>
       <c r="Q322" s="1"/>
-      <c r="R322"/>
-      <c r="T322" s="1"/>
-      <c r="V322" s="1"/>
+      <c r="R322" s="1"/>
+      <c r="U322" s="1"/>
       <c r="W322" s="1"/>
     </row>
     <row r="323" spans="1:23">
@@ -8640,9 +8357,8 @@
       <c r="O323" s="1"/>
       <c r="P323" s="1"/>
       <c r="Q323" s="1"/>
-      <c r="R323"/>
-      <c r="T323" s="1"/>
-      <c r="V323" s="1"/>
+      <c r="R323" s="1"/>
+      <c r="U323" s="1"/>
       <c r="W323" s="1"/>
     </row>
     <row r="324" spans="1:23">
@@ -8662,9 +8378,8 @@
       <c r="O324" s="1"/>
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
-      <c r="R324"/>
-      <c r="T324" s="1"/>
-      <c r="V324" s="1"/>
+      <c r="R324" s="1"/>
+      <c r="U324" s="1"/>
       <c r="W324" s="1"/>
     </row>
     <row r="325" spans="1:23">
@@ -8684,9 +8399,8 @@
       <c r="O325" s="1"/>
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
-      <c r="R325"/>
-      <c r="T325" s="1"/>
-      <c r="V325" s="1"/>
+      <c r="R325" s="1"/>
+      <c r="U325" s="1"/>
       <c r="W325" s="1"/>
     </row>
     <row r="326" spans="1:23">
@@ -8706,9 +8420,8 @@
       <c r="O326" s="1"/>
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
-      <c r="R326"/>
-      <c r="T326" s="1"/>
-      <c r="V326" s="1"/>
+      <c r="R326" s="1"/>
+      <c r="U326" s="1"/>
       <c r="W326" s="1"/>
     </row>
     <row r="327" spans="1:23">
@@ -8728,9 +8441,8 @@
       <c r="O327" s="1"/>
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
-      <c r="R327"/>
-      <c r="T327" s="1"/>
-      <c r="V327" s="1"/>
+      <c r="R327" s="1"/>
+      <c r="U327" s="1"/>
       <c r="W327" s="1"/>
     </row>
     <row r="328" spans="1:23">
@@ -8750,9 +8462,8 @@
       <c r="O328" s="1"/>
       <c r="P328" s="1"/>
       <c r="Q328" s="1"/>
-      <c r="R328"/>
-      <c r="T328" s="1"/>
-      <c r="V328" s="1"/>
+      <c r="R328" s="1"/>
+      <c r="U328" s="1"/>
       <c r="W328" s="1"/>
     </row>
     <row r="329" spans="1:23">
@@ -8772,9 +8483,8 @@
       <c r="O329" s="1"/>
       <c r="P329" s="1"/>
       <c r="Q329" s="1"/>
-      <c r="R329"/>
-      <c r="T329" s="1"/>
-      <c r="V329" s="1"/>
+      <c r="R329" s="1"/>
+      <c r="U329" s="1"/>
       <c r="W329" s="1"/>
     </row>
     <row r="330" spans="1:23">
@@ -8794,9 +8504,8 @@
       <c r="O330" s="1"/>
       <c r="P330" s="1"/>
       <c r="Q330" s="1"/>
-      <c r="R330"/>
-      <c r="T330" s="1"/>
-      <c r="V330" s="1"/>
+      <c r="R330" s="1"/>
+      <c r="U330" s="1"/>
       <c r="W330" s="1"/>
     </row>
     <row r="331" spans="1:23">
@@ -8816,9 +8525,8 @@
       <c r="O331" s="1"/>
       <c r="P331" s="1"/>
       <c r="Q331" s="1"/>
-      <c r="R331"/>
-      <c r="T331" s="1"/>
-      <c r="V331" s="1"/>
+      <c r="R331" s="1"/>
+      <c r="U331" s="1"/>
       <c r="W331" s="1"/>
     </row>
     <row r="332" spans="1:23">
@@ -8838,9 +8546,8 @@
       <c r="O332" s="1"/>
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
-      <c r="R332"/>
-      <c r="T332" s="1"/>
-      <c r="V332" s="1"/>
+      <c r="R332" s="1"/>
+      <c r="U332" s="1"/>
       <c r="W332" s="1"/>
     </row>
     <row r="333" spans="1:23">
@@ -8860,9 +8567,8 @@
       <c r="O333" s="1"/>
       <c r="P333" s="1"/>
       <c r="Q333" s="1"/>
-      <c r="R333"/>
-      <c r="T333" s="1"/>
-      <c r="V333" s="1"/>
+      <c r="R333" s="1"/>
+      <c r="U333" s="1"/>
       <c r="W333" s="1"/>
     </row>
     <row r="334" spans="1:23">
@@ -8882,9 +8588,8 @@
       <c r="O334" s="1"/>
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
-      <c r="R334"/>
-      <c r="T334" s="1"/>
-      <c r="V334" s="1"/>
+      <c r="R334" s="1"/>
+      <c r="U334" s="1"/>
       <c r="W334" s="1"/>
     </row>
     <row r="335" spans="1:23">
@@ -8904,9 +8609,8 @@
       <c r="O335" s="1"/>
       <c r="P335" s="1"/>
       <c r="Q335" s="1"/>
-      <c r="R335"/>
-      <c r="T335" s="1"/>
-      <c r="V335" s="1"/>
+      <c r="R335" s="1"/>
+      <c r="U335" s="1"/>
       <c r="W335" s="1"/>
     </row>
     <row r="336" spans="1:23">
@@ -8926,9 +8630,8 @@
       <c r="O336" s="1"/>
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
-      <c r="R336"/>
-      <c r="T336" s="1"/>
-      <c r="V336" s="1"/>
+      <c r="R336" s="1"/>
+      <c r="U336" s="1"/>
       <c r="W336" s="1"/>
     </row>
     <row r="337" spans="1:23">
@@ -8948,9 +8651,8 @@
       <c r="O337" s="1"/>
       <c r="P337" s="1"/>
       <c r="Q337" s="1"/>
-      <c r="R337"/>
-      <c r="T337" s="1"/>
-      <c r="V337" s="1"/>
+      <c r="R337" s="1"/>
+      <c r="U337" s="1"/>
       <c r="W337" s="1"/>
     </row>
     <row r="338" spans="1:23">
@@ -8970,9 +8672,8 @@
       <c r="O338" s="1"/>
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
-      <c r="R338"/>
-      <c r="T338" s="1"/>
-      <c r="V338" s="1"/>
+      <c r="R338" s="1"/>
+      <c r="U338" s="1"/>
       <c r="W338" s="1"/>
     </row>
     <row r="339" spans="1:23">
@@ -8992,9 +8693,8 @@
       <c r="O339" s="1"/>
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
-      <c r="R339"/>
-      <c r="T339" s="1"/>
-      <c r="V339" s="1"/>
+      <c r="R339" s="1"/>
+      <c r="U339" s="1"/>
       <c r="W339" s="1"/>
     </row>
     <row r="340" spans="1:23">
@@ -9014,9 +8714,8 @@
       <c r="O340" s="1"/>
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
-      <c r="R340"/>
-      <c r="T340" s="1"/>
-      <c r="V340" s="1"/>
+      <c r="R340" s="1"/>
+      <c r="U340" s="1"/>
       <c r="W340" s="1"/>
     </row>
     <row r="341" spans="1:23">
@@ -9036,9 +8735,8 @@
       <c r="O341" s="1"/>
       <c r="P341" s="1"/>
       <c r="Q341" s="1"/>
-      <c r="R341"/>
-      <c r="T341" s="1"/>
-      <c r="V341" s="1"/>
+      <c r="R341" s="1"/>
+      <c r="U341" s="1"/>
       <c r="W341" s="1"/>
     </row>
     <row r="342" spans="1:23">
@@ -9058,9 +8756,8 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
       <c r="Q342" s="1"/>
-      <c r="R342"/>
-      <c r="T342" s="1"/>
-      <c r="V342" s="1"/>
+      <c r="R342" s="1"/>
+      <c r="U342" s="1"/>
       <c r="W342" s="1"/>
     </row>
     <row r="343" spans="1:23">
@@ -9080,9 +8777,8 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
       <c r="Q343" s="1"/>
-      <c r="R343"/>
-      <c r="T343" s="1"/>
-      <c r="V343" s="1"/>
+      <c r="R343" s="1"/>
+      <c r="U343" s="1"/>
       <c r="W343" s="1"/>
     </row>
     <row r="344" spans="1:23">
@@ -9102,9 +8798,8 @@
       <c r="O344" s="1"/>
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
-      <c r="R344"/>
-      <c r="T344" s="1"/>
-      <c r="V344" s="1"/>
+      <c r="R344" s="1"/>
+      <c r="U344" s="1"/>
       <c r="W344" s="1"/>
     </row>
     <row r="345" spans="1:23">
@@ -9124,9 +8819,8 @@
       <c r="O345" s="1"/>
       <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
-      <c r="R345"/>
-      <c r="T345" s="1"/>
-      <c r="V345" s="1"/>
+      <c r="R345" s="1"/>
+      <c r="U345" s="1"/>
       <c r="W345" s="1"/>
     </row>
     <row r="346" spans="1:23">
@@ -9146,9 +8840,8 @@
       <c r="O346" s="1"/>
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
-      <c r="R346"/>
-      <c r="T346" s="1"/>
-      <c r="V346" s="1"/>
+      <c r="R346" s="1"/>
+      <c r="U346" s="1"/>
       <c r="W346" s="1"/>
     </row>
     <row r="347" spans="1:23">
@@ -9168,9 +8861,8 @@
       <c r="O347" s="1"/>
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
-      <c r="R347"/>
-      <c r="T347" s="1"/>
-      <c r="V347" s="1"/>
+      <c r="R347" s="1"/>
+      <c r="U347" s="1"/>
       <c r="W347" s="1"/>
     </row>
     <row r="348" spans="1:23">
@@ -9190,9 +8882,8 @@
       <c r="O348" s="1"/>
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
-      <c r="R348"/>
-      <c r="T348" s="1"/>
-      <c r="V348" s="1"/>
+      <c r="R348" s="1"/>
+      <c r="U348" s="1"/>
       <c r="W348" s="1"/>
     </row>
     <row r="349" spans="1:23">
@@ -9212,9 +8903,8 @@
       <c r="O349" s="1"/>
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
-      <c r="R349"/>
-      <c r="T349" s="1"/>
-      <c r="V349" s="1"/>
+      <c r="R349" s="1"/>
+      <c r="U349" s="1"/>
       <c r="W349" s="1"/>
     </row>
     <row r="350" spans="1:23">
@@ -9234,9 +8924,8 @@
       <c r="O350" s="1"/>
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
-      <c r="R350"/>
-      <c r="T350" s="1"/>
-      <c r="V350" s="1"/>
+      <c r="R350" s="1"/>
+      <c r="U350" s="1"/>
       <c r="W350" s="1"/>
     </row>
     <row r="351" spans="1:23">
@@ -9256,9 +8945,8 @@
       <c r="O351" s="1"/>
       <c r="P351" s="1"/>
       <c r="Q351" s="1"/>
-      <c r="R351"/>
-      <c r="T351" s="1"/>
-      <c r="V351" s="1"/>
+      <c r="R351" s="1"/>
+      <c r="U351" s="1"/>
       <c r="W351" s="1"/>
     </row>
     <row r="352" spans="1:23">
@@ -9278,9 +8966,8 @@
       <c r="O352" s="1"/>
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
-      <c r="R352"/>
-      <c r="T352" s="1"/>
-      <c r="V352" s="1"/>
+      <c r="R352" s="1"/>
+      <c r="U352" s="1"/>
       <c r="W352" s="1"/>
     </row>
     <row r="353" spans="1:23">
@@ -9300,9 +8987,8 @@
       <c r="O353" s="1"/>
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
-      <c r="R353"/>
-      <c r="T353" s="1"/>
-      <c r="V353" s="1"/>
+      <c r="R353" s="1"/>
+      <c r="U353" s="1"/>
       <c r="W353" s="1"/>
     </row>
     <row r="354" spans="1:23">
@@ -9322,9 +9008,8 @@
       <c r="O354" s="1"/>
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
-      <c r="R354"/>
-      <c r="T354" s="1"/>
-      <c r="V354" s="1"/>
+      <c r="R354" s="1"/>
+      <c r="U354" s="1"/>
       <c r="W354" s="1"/>
     </row>
     <row r="355" spans="1:23">
@@ -9344,9 +9029,8 @@
       <c r="O355" s="1"/>
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
-      <c r="R355"/>
-      <c r="T355" s="1"/>
-      <c r="V355" s="1"/>
+      <c r="R355" s="1"/>
+      <c r="U355" s="1"/>
       <c r="W355" s="1"/>
     </row>
     <row r="356" spans="1:23">
@@ -9366,9 +9050,8 @@
       <c r="O356" s="1"/>
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
-      <c r="R356"/>
-      <c r="T356" s="1"/>
-      <c r="V356" s="1"/>
+      <c r="R356" s="1"/>
+      <c r="U356" s="1"/>
       <c r="W356" s="1"/>
     </row>
     <row r="357" spans="1:23">
@@ -9388,9 +9071,8 @@
       <c r="O357" s="1"/>
       <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
-      <c r="R357"/>
-      <c r="T357" s="1"/>
-      <c r="V357" s="1"/>
+      <c r="R357" s="1"/>
+      <c r="U357" s="1"/>
       <c r="W357" s="1"/>
     </row>
     <row r="358" spans="1:23">
@@ -9410,9 +9092,8 @@
       <c r="O358" s="1"/>
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
-      <c r="R358"/>
-      <c r="T358" s="1"/>
-      <c r="V358" s="1"/>
+      <c r="R358" s="1"/>
+      <c r="U358" s="1"/>
       <c r="W358" s="1"/>
     </row>
     <row r="359" spans="1:23">
@@ -9432,9 +9113,8 @@
       <c r="O359" s="1"/>
       <c r="P359" s="1"/>
       <c r="Q359" s="1"/>
-      <c r="R359"/>
-      <c r="T359" s="1"/>
-      <c r="V359" s="1"/>
+      <c r="R359" s="1"/>
+      <c r="U359" s="1"/>
       <c r="W359" s="1"/>
     </row>
     <row r="360" spans="1:23">
@@ -9454,9 +9134,8 @@
       <c r="O360" s="1"/>
       <c r="P360" s="1"/>
       <c r="Q360" s="1"/>
-      <c r="R360"/>
-      <c r="T360" s="1"/>
-      <c r="V360" s="1"/>
+      <c r="R360" s="1"/>
+      <c r="U360" s="1"/>
       <c r="W360" s="1"/>
     </row>
     <row r="361" spans="1:23">
@@ -9476,9 +9155,8 @@
       <c r="O361" s="1"/>
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
-      <c r="R361"/>
-      <c r="T361" s="1"/>
-      <c r="V361" s="1"/>
+      <c r="R361" s="1"/>
+      <c r="U361" s="1"/>
       <c r="W361" s="1"/>
     </row>
     <row r="362" spans="1:23">
@@ -9498,9 +9176,8 @@
       <c r="O362" s="1"/>
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
-      <c r="R362"/>
-      <c r="T362" s="1"/>
-      <c r="V362" s="1"/>
+      <c r="R362" s="1"/>
+      <c r="U362" s="1"/>
       <c r="W362" s="1"/>
     </row>
     <row r="363" spans="1:23">
@@ -9520,9 +9197,8 @@
       <c r="O363" s="1"/>
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
-      <c r="R363"/>
-      <c r="T363" s="1"/>
-      <c r="V363" s="1"/>
+      <c r="R363" s="1"/>
+      <c r="U363" s="1"/>
       <c r="W363" s="1"/>
     </row>
     <row r="364" spans="1:23">
@@ -9542,9 +9218,8 @@
       <c r="O364" s="1"/>
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
-      <c r="R364"/>
-      <c r="T364" s="1"/>
-      <c r="V364" s="1"/>
+      <c r="R364" s="1"/>
+      <c r="U364" s="1"/>
       <c r="W364" s="1"/>
     </row>
     <row r="365" spans="1:23">
@@ -9564,9 +9239,8 @@
       <c r="O365" s="1"/>
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
-      <c r="R365"/>
-      <c r="T365" s="1"/>
-      <c r="V365" s="1"/>
+      <c r="R365" s="1"/>
+      <c r="U365" s="1"/>
       <c r="W365" s="1"/>
     </row>
     <row r="366" spans="1:23">
@@ -9586,9 +9260,8 @@
       <c r="O366" s="1"/>
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
-      <c r="R366"/>
-      <c r="T366" s="1"/>
-      <c r="V366" s="1"/>
+      <c r="R366" s="1"/>
+      <c r="U366" s="1"/>
       <c r="W366" s="1"/>
     </row>
     <row r="367" spans="1:23">
@@ -9608,9 +9281,8 @@
       <c r="O367" s="1"/>
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
-      <c r="R367"/>
-      <c r="T367" s="1"/>
-      <c r="V367" s="1"/>
+      <c r="R367" s="1"/>
+      <c r="U367" s="1"/>
       <c r="W367" s="1"/>
     </row>
     <row r="368" spans="1:23">
@@ -9630,9 +9302,8 @@
       <c r="O368" s="1"/>
       <c r="P368" s="1"/>
       <c r="Q368" s="1"/>
-      <c r="R368"/>
-      <c r="T368" s="1"/>
-      <c r="V368" s="1"/>
+      <c r="R368" s="1"/>
+      <c r="U368" s="1"/>
       <c r="W368" s="1"/>
     </row>
     <row r="369" spans="1:23">
@@ -9652,9 +9323,8 @@
       <c r="O369" s="1"/>
       <c r="P369" s="1"/>
       <c r="Q369" s="1"/>
-      <c r="R369"/>
-      <c r="T369" s="1"/>
-      <c r="V369" s="1"/>
+      <c r="R369" s="1"/>
+      <c r="U369" s="1"/>
       <c r="W369" s="1"/>
     </row>
     <row r="370" spans="1:23">
@@ -9674,9 +9344,8 @@
       <c r="O370" s="1"/>
       <c r="P370" s="1"/>
       <c r="Q370" s="1"/>
-      <c r="R370"/>
-      <c r="T370" s="1"/>
-      <c r="V370" s="1"/>
+      <c r="R370" s="1"/>
+      <c r="U370" s="1"/>
       <c r="W370" s="1"/>
     </row>
     <row r="371" spans="1:23">
@@ -9696,9 +9365,8 @@
       <c r="O371" s="1"/>
       <c r="P371" s="1"/>
       <c r="Q371" s="1"/>
-      <c r="R371"/>
-      <c r="T371" s="1"/>
-      <c r="V371" s="1"/>
+      <c r="R371" s="1"/>
+      <c r="U371" s="1"/>
       <c r="W371" s="1"/>
     </row>
     <row r="372" spans="1:23">
@@ -9718,9 +9386,8 @@
       <c r="O372" s="1"/>
       <c r="P372" s="1"/>
       <c r="Q372" s="1"/>
-      <c r="R372"/>
-      <c r="T372" s="1"/>
-      <c r="V372" s="1"/>
+      <c r="R372" s="1"/>
+      <c r="U372" s="1"/>
       <c r="W372" s="1"/>
     </row>
     <row r="373" spans="1:23">
@@ -9740,9 +9407,8 @@
       <c r="O373" s="1"/>
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
-      <c r="R373"/>
-      <c r="T373" s="1"/>
-      <c r="V373" s="1"/>
+      <c r="R373" s="1"/>
+      <c r="U373" s="1"/>
       <c r="W373" s="1"/>
     </row>
     <row r="374" spans="1:23">
@@ -9762,9 +9428,8 @@
       <c r="O374" s="1"/>
       <c r="P374" s="1"/>
       <c r="Q374" s="1"/>
-      <c r="R374"/>
-      <c r="T374" s="1"/>
-      <c r="V374" s="1"/>
+      <c r="R374" s="1"/>
+      <c r="U374" s="1"/>
       <c r="W374" s="1"/>
     </row>
     <row r="375" spans="1:23">
@@ -9784,9 +9449,8 @@
       <c r="O375" s="1"/>
       <c r="P375" s="1"/>
       <c r="Q375" s="1"/>
-      <c r="R375"/>
-      <c r="T375" s="1"/>
-      <c r="V375" s="1"/>
+      <c r="R375" s="1"/>
+      <c r="U375" s="1"/>
       <c r="W375" s="1"/>
     </row>
     <row r="376" spans="1:23">
@@ -9806,9 +9470,8 @@
       <c r="O376" s="1"/>
       <c r="P376" s="1"/>
       <c r="Q376" s="1"/>
-      <c r="R376"/>
-      <c r="T376" s="1"/>
-      <c r="V376" s="1"/>
+      <c r="R376" s="1"/>
+      <c r="U376" s="1"/>
       <c r="W376" s="1"/>
     </row>
     <row r="377" spans="1:23">
@@ -9828,9 +9491,8 @@
       <c r="O377" s="1"/>
       <c r="P377" s="1"/>
       <c r="Q377" s="1"/>
-      <c r="R377"/>
-      <c r="T377" s="1"/>
-      <c r="V377" s="1"/>
+      <c r="R377" s="1"/>
+      <c r="U377" s="1"/>
       <c r="W377" s="1"/>
     </row>
     <row r="378" spans="1:23">
@@ -9850,9 +9512,8 @@
       <c r="O378" s="1"/>
       <c r="P378" s="1"/>
       <c r="Q378" s="1"/>
-      <c r="R378"/>
-      <c r="T378" s="1"/>
-      <c r="V378" s="1"/>
+      <c r="R378" s="1"/>
+      <c r="U378" s="1"/>
       <c r="W378" s="1"/>
     </row>
     <row r="379" spans="1:23">
@@ -9872,9 +9533,8 @@
       <c r="O379" s="1"/>
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
-      <c r="R379"/>
-      <c r="T379" s="1"/>
-      <c r="V379" s="1"/>
+      <c r="R379" s="1"/>
+      <c r="U379" s="1"/>
       <c r="W379" s="1"/>
     </row>
     <row r="380" spans="1:23">
@@ -9894,9 +9554,8 @@
       <c r="O380" s="1"/>
       <c r="P380" s="1"/>
       <c r="Q380" s="1"/>
-      <c r="R380"/>
-      <c r="T380" s="1"/>
-      <c r="V380" s="1"/>
+      <c r="R380" s="1"/>
+      <c r="U380" s="1"/>
       <c r="W380" s="1"/>
     </row>
     <row r="381" spans="1:23">
@@ -9916,9 +9575,8 @@
       <c r="O381" s="1"/>
       <c r="P381" s="1"/>
       <c r="Q381" s="1"/>
-      <c r="R381"/>
-      <c r="T381" s="1"/>
-      <c r="V381" s="1"/>
+      <c r="R381" s="1"/>
+      <c r="U381" s="1"/>
       <c r="W381" s="1"/>
     </row>
     <row r="382" spans="1:23">
@@ -9938,9 +9596,8 @@
       <c r="O382" s="1"/>
       <c r="P382" s="1"/>
       <c r="Q382" s="1"/>
-      <c r="R382"/>
-      <c r="T382" s="1"/>
-      <c r="V382" s="1"/>
+      <c r="R382" s="1"/>
+      <c r="U382" s="1"/>
       <c r="W382" s="1"/>
     </row>
     <row r="383" spans="1:23">
@@ -9960,9 +9617,8 @@
       <c r="O383" s="1"/>
       <c r="P383" s="1"/>
       <c r="Q383" s="1"/>
-      <c r="R383"/>
-      <c r="T383" s="1"/>
-      <c r="V383" s="1"/>
+      <c r="R383" s="1"/>
+      <c r="U383" s="1"/>
       <c r="W383" s="1"/>
     </row>
     <row r="384" spans="1:23">
@@ -9982,9 +9638,8 @@
       <c r="O384" s="1"/>
       <c r="P384" s="1"/>
       <c r="Q384" s="1"/>
-      <c r="R384"/>
-      <c r="T384" s="1"/>
-      <c r="V384" s="1"/>
+      <c r="R384" s="1"/>
+      <c r="U384" s="1"/>
       <c r="W384" s="1"/>
     </row>
     <row r="385" spans="1:23">
@@ -10004,9 +9659,8 @@
       <c r="O385" s="1"/>
       <c r="P385" s="1"/>
       <c r="Q385" s="1"/>
-      <c r="R385"/>
-      <c r="T385" s="1"/>
-      <c r="V385" s="1"/>
+      <c r="R385" s="1"/>
+      <c r="U385" s="1"/>
       <c r="W385" s="1"/>
     </row>
     <row r="386" spans="1:23">
@@ -10026,9 +9680,8 @@
       <c r="O386" s="1"/>
       <c r="P386" s="1"/>
       <c r="Q386" s="1"/>
-      <c r="R386"/>
-      <c r="T386" s="1"/>
-      <c r="V386" s="1"/>
+      <c r="R386" s="1"/>
+      <c r="U386" s="1"/>
       <c r="W386" s="1"/>
     </row>
     <row r="387" spans="1:23">
@@ -10048,9 +9701,8 @@
       <c r="O387" s="1"/>
       <c r="P387" s="1"/>
       <c r="Q387" s="1"/>
-      <c r="R387"/>
-      <c r="T387" s="1"/>
-      <c r="V387" s="1"/>
+      <c r="R387" s="1"/>
+      <c r="U387" s="1"/>
       <c r="W387" s="1"/>
     </row>
     <row r="388" spans="1:23">
@@ -10070,9 +9722,8 @@
       <c r="O388" s="1"/>
       <c r="P388" s="1"/>
       <c r="Q388" s="1"/>
-      <c r="R388"/>
-      <c r="T388" s="1"/>
-      <c r="V388" s="1"/>
+      <c r="R388" s="1"/>
+      <c r="U388" s="1"/>
       <c r="W388" s="1"/>
     </row>
     <row r="389" spans="1:23">
@@ -10092,9 +9743,8 @@
       <c r="O389" s="1"/>
       <c r="P389" s="1"/>
       <c r="Q389" s="1"/>
-      <c r="R389"/>
-      <c r="T389" s="1"/>
-      <c r="V389" s="1"/>
+      <c r="R389" s="1"/>
+      <c r="U389" s="1"/>
       <c r="W389" s="1"/>
     </row>
     <row r="390" spans="1:23">
@@ -10114,9 +9764,8 @@
       <c r="O390" s="1"/>
       <c r="P390" s="1"/>
       <c r="Q390" s="1"/>
-      <c r="R390"/>
-      <c r="T390" s="1"/>
-      <c r="V390" s="1"/>
+      <c r="R390" s="1"/>
+      <c r="U390" s="1"/>
       <c r="W390" s="1"/>
     </row>
     <row r="391" spans="1:23">
@@ -10136,9 +9785,8 @@
       <c r="O391" s="1"/>
       <c r="P391" s="1"/>
       <c r="Q391" s="1"/>
-      <c r="R391"/>
-      <c r="T391" s="1"/>
-      <c r="V391" s="1"/>
+      <c r="R391" s="1"/>
+      <c r="U391" s="1"/>
       <c r="W391" s="1"/>
     </row>
     <row r="392" spans="1:23">
@@ -10158,9 +9806,8 @@
       <c r="O392" s="1"/>
       <c r="P392" s="1"/>
       <c r="Q392" s="1"/>
-      <c r="R392"/>
-      <c r="T392" s="1"/>
-      <c r="V392" s="1"/>
+      <c r="R392" s="1"/>
+      <c r="U392" s="1"/>
       <c r="W392" s="1"/>
     </row>
     <row r="393" spans="1:23">
@@ -10180,9 +9827,8 @@
       <c r="O393" s="1"/>
       <c r="P393" s="1"/>
       <c r="Q393" s="1"/>
-      <c r="R393"/>
-      <c r="T393" s="1"/>
-      <c r="V393" s="1"/>
+      <c r="R393" s="1"/>
+      <c r="U393" s="1"/>
       <c r="W393" s="1"/>
     </row>
     <row r="394" spans="1:23">
@@ -10202,9 +9848,8 @@
       <c r="O394" s="1"/>
       <c r="P394" s="1"/>
       <c r="Q394" s="1"/>
-      <c r="R394"/>
-      <c r="T394" s="1"/>
-      <c r="V394" s="1"/>
+      <c r="R394" s="1"/>
+      <c r="U394" s="1"/>
       <c r="W394" s="1"/>
     </row>
     <row r="395" spans="1:23">
@@ -10224,9 +9869,8 @@
       <c r="O395" s="1"/>
       <c r="P395" s="1"/>
       <c r="Q395" s="1"/>
-      <c r="R395"/>
-      <c r="T395" s="1"/>
-      <c r="V395" s="1"/>
+      <c r="R395" s="1"/>
+      <c r="U395" s="1"/>
       <c r="W395" s="1"/>
     </row>
     <row r="396" spans="1:23">
@@ -10246,9 +9890,8 @@
       <c r="O396" s="1"/>
       <c r="P396" s="1"/>
       <c r="Q396" s="1"/>
-      <c r="R396"/>
-      <c r="T396" s="1"/>
-      <c r="V396" s="1"/>
+      <c r="R396" s="1"/>
+      <c r="U396" s="1"/>
       <c r="W396" s="1"/>
     </row>
     <row r="397" spans="1:23">
@@ -10268,9 +9911,8 @@
       <c r="O397" s="1"/>
       <c r="P397" s="1"/>
       <c r="Q397" s="1"/>
-      <c r="R397"/>
-      <c r="T397" s="1"/>
-      <c r="V397" s="1"/>
+      <c r="R397" s="1"/>
+      <c r="U397" s="1"/>
       <c r="W397" s="1"/>
     </row>
     <row r="398" spans="1:23">
@@ -10290,9 +9932,8 @@
       <c r="O398" s="1"/>
       <c r="P398" s="1"/>
       <c r="Q398" s="1"/>
-      <c r="R398"/>
-      <c r="T398" s="1"/>
-      <c r="V398" s="1"/>
+      <c r="R398" s="1"/>
+      <c r="U398" s="1"/>
       <c r="W398" s="1"/>
     </row>
     <row r="399" spans="1:23">
@@ -10312,9 +9953,8 @@
       <c r="O399" s="1"/>
       <c r="P399" s="1"/>
       <c r="Q399" s="1"/>
-      <c r="R399"/>
-      <c r="T399" s="1"/>
-      <c r="V399" s="1"/>
+      <c r="R399" s="1"/>
+      <c r="U399" s="1"/>
       <c r="W399" s="1"/>
     </row>
     <row r="400" spans="1:23">
@@ -10334,9 +9974,8 @@
       <c r="O400" s="1"/>
       <c r="P400" s="1"/>
       <c r="Q400" s="1"/>
-      <c r="R400"/>
-      <c r="T400" s="1"/>
-      <c r="V400" s="1"/>
+      <c r="R400" s="1"/>
+      <c r="U400" s="1"/>
       <c r="W400" s="1"/>
     </row>
     <row r="401" spans="1:23">
@@ -10356,9 +9995,8 @@
       <c r="O401" s="1"/>
       <c r="P401" s="1"/>
       <c r="Q401" s="1"/>
-      <c r="R401"/>
-      <c r="T401" s="1"/>
-      <c r="V401" s="1"/>
+      <c r="R401" s="1"/>
+      <c r="U401" s="1"/>
       <c r="W401" s="1"/>
     </row>
     <row r="402" spans="1:23">
@@ -10378,9 +10016,8 @@
       <c r="O402" s="1"/>
       <c r="P402" s="1"/>
       <c r="Q402" s="1"/>
-      <c r="R402"/>
-      <c r="T402" s="1"/>
-      <c r="V402" s="1"/>
+      <c r="R402" s="1"/>
+      <c r="U402" s="1"/>
       <c r="W402" s="1"/>
     </row>
     <row r="403" spans="1:23">
@@ -10400,9 +10037,8 @@
       <c r="O403" s="1"/>
       <c r="P403" s="1"/>
       <c r="Q403" s="1"/>
-      <c r="R403"/>
-      <c r="T403" s="1"/>
-      <c r="V403" s="1"/>
+      <c r="R403" s="1"/>
+      <c r="U403" s="1"/>
       <c r="W403" s="1"/>
     </row>
     <row r="404" spans="1:23">
@@ -10422,9 +10058,8 @@
       <c r="O404" s="1"/>
       <c r="P404" s="1"/>
       <c r="Q404" s="1"/>
-      <c r="R404"/>
-      <c r="T404" s="1"/>
-      <c r="V404" s="1"/>
+      <c r="R404" s="1"/>
+      <c r="U404" s="1"/>
       <c r="W404" s="1"/>
     </row>
     <row r="405" spans="1:23">
@@ -10444,9 +10079,8 @@
       <c r="O405" s="1"/>
       <c r="P405" s="1"/>
       <c r="Q405" s="1"/>
-      <c r="R405"/>
-      <c r="T405" s="1"/>
-      <c r="V405" s="1"/>
+      <c r="R405" s="1"/>
+      <c r="U405" s="1"/>
       <c r="W405" s="1"/>
     </row>
     <row r="406" spans="1:23">
@@ -10466,9 +10100,8 @@
       <c r="O406" s="1"/>
       <c r="P406" s="1"/>
       <c r="Q406" s="1"/>
-      <c r="R406"/>
-      <c r="T406" s="1"/>
-      <c r="V406" s="1"/>
+      <c r="R406" s="1"/>
+      <c r="U406" s="1"/>
       <c r="W406" s="1"/>
     </row>
     <row r="407" spans="1:23">
@@ -10488,9 +10121,8 @@
       <c r="O407" s="1"/>
       <c r="P407" s="1"/>
       <c r="Q407" s="1"/>
-      <c r="R407"/>
-      <c r="T407" s="1"/>
-      <c r="V407" s="1"/>
+      <c r="R407" s="1"/>
+      <c r="U407" s="1"/>
       <c r="W407" s="1"/>
     </row>
     <row r="408" spans="1:23">
@@ -10510,9 +10142,8 @@
       <c r="O408" s="1"/>
       <c r="P408" s="1"/>
       <c r="Q408" s="1"/>
-      <c r="R408"/>
-      <c r="T408" s="1"/>
-      <c r="V408" s="1"/>
+      <c r="R408" s="1"/>
+      <c r="U408" s="1"/>
       <c r="W408" s="1"/>
     </row>
     <row r="409" spans="1:23">
@@ -10532,9 +10163,8 @@
       <c r="O409" s="1"/>
       <c r="P409" s="1"/>
       <c r="Q409" s="1"/>
-      <c r="R409"/>
-      <c r="T409" s="1"/>
-      <c r="V409" s="1"/>
+      <c r="R409" s="1"/>
+      <c r="U409" s="1"/>
       <c r="W409" s="1"/>
     </row>
     <row r="410" spans="1:23">
@@ -10554,9 +10184,8 @@
       <c r="O410" s="1"/>
       <c r="P410" s="1"/>
       <c r="Q410" s="1"/>
-      <c r="R410"/>
-      <c r="T410" s="1"/>
-      <c r="V410" s="1"/>
+      <c r="R410" s="1"/>
+      <c r="U410" s="1"/>
       <c r="W410" s="1"/>
     </row>
     <row r="411" spans="1:23">
@@ -10576,9 +10205,8 @@
       <c r="O411" s="1"/>
       <c r="P411" s="1"/>
       <c r="Q411" s="1"/>
-      <c r="R411"/>
-      <c r="T411" s="1"/>
-      <c r="V411" s="1"/>
+      <c r="R411" s="1"/>
+      <c r="U411" s="1"/>
       <c r="W411" s="1"/>
     </row>
     <row r="412" spans="1:23">
@@ -10598,9 +10226,8 @@
       <c r="O412" s="1"/>
       <c r="P412" s="1"/>
       <c r="Q412" s="1"/>
-      <c r="R412"/>
-      <c r="T412" s="1"/>
-      <c r="V412" s="1"/>
+      <c r="R412" s="1"/>
+      <c r="U412" s="1"/>
       <c r="W412" s="1"/>
     </row>
     <row r="413" spans="1:23">
@@ -10620,9 +10247,8 @@
       <c r="O413" s="1"/>
       <c r="P413" s="1"/>
       <c r="Q413" s="1"/>
-      <c r="R413"/>
-      <c r="T413" s="1"/>
-      <c r="V413" s="1"/>
+      <c r="R413" s="1"/>
+      <c r="U413" s="1"/>
       <c r="W413" s="1"/>
     </row>
     <row r="414" spans="1:23">
@@ -10642,9 +10268,8 @@
       <c r="O414" s="1"/>
       <c r="P414" s="1"/>
       <c r="Q414" s="1"/>
-      <c r="R414"/>
-      <c r="T414" s="1"/>
-      <c r="V414" s="1"/>
+      <c r="R414" s="1"/>
+      <c r="U414" s="1"/>
       <c r="W414" s="1"/>
     </row>
     <row r="415" spans="1:23">
@@ -10664,9 +10289,8 @@
       <c r="O415" s="1"/>
       <c r="P415" s="1"/>
       <c r="Q415" s="1"/>
-      <c r="R415"/>
-      <c r="T415" s="1"/>
-      <c r="V415" s="1"/>
+      <c r="R415" s="1"/>
+      <c r="U415" s="1"/>
       <c r="W415" s="1"/>
     </row>
     <row r="416" spans="1:23">
@@ -10686,9 +10310,8 @@
       <c r="O416" s="1"/>
       <c r="P416" s="1"/>
       <c r="Q416" s="1"/>
-      <c r="R416"/>
-      <c r="T416" s="1"/>
-      <c r="V416" s="1"/>
+      <c r="R416" s="1"/>
+      <c r="U416" s="1"/>
       <c r="W416" s="1"/>
     </row>
     <row r="417" spans="1:23">
@@ -10708,9 +10331,8 @@
       <c r="O417" s="1"/>
       <c r="P417" s="1"/>
       <c r="Q417" s="1"/>
-      <c r="R417"/>
-      <c r="T417" s="1"/>
-      <c r="V417" s="1"/>
+      <c r="R417" s="1"/>
+      <c r="U417" s="1"/>
       <c r="W417" s="1"/>
     </row>
     <row r="418" spans="1:23">
@@ -10730,9 +10352,8 @@
       <c r="O418" s="1"/>
       <c r="P418" s="1"/>
       <c r="Q418" s="1"/>
-      <c r="R418"/>
-      <c r="T418" s="1"/>
-      <c r="V418" s="1"/>
+      <c r="R418" s="1"/>
+      <c r="U418" s="1"/>
       <c r="W418" s="1"/>
     </row>
     <row r="419" spans="1:23">
@@ -10752,9 +10373,8 @@
       <c r="O419" s="1"/>
       <c r="P419" s="1"/>
       <c r="Q419" s="1"/>
-      <c r="R419"/>
-      <c r="T419" s="1"/>
-      <c r="V419" s="1"/>
+      <c r="R419" s="1"/>
+      <c r="U419" s="1"/>
       <c r="W419" s="1"/>
     </row>
     <row r="420" spans="1:23">
@@ -10774,9 +10394,8 @@
       <c r="O420" s="1"/>
       <c r="P420" s="1"/>
       <c r="Q420" s="1"/>
-      <c r="R420"/>
-      <c r="T420" s="1"/>
-      <c r="V420" s="1"/>
+      <c r="R420" s="1"/>
+      <c r="U420" s="1"/>
       <c r="W420" s="1"/>
     </row>
     <row r="421" spans="1:23">
@@ -10796,9 +10415,8 @@
       <c r="O421" s="1"/>
       <c r="P421" s="1"/>
       <c r="Q421" s="1"/>
-      <c r="R421"/>
-      <c r="T421" s="1"/>
-      <c r="V421" s="1"/>
+      <c r="R421" s="1"/>
+      <c r="U421" s="1"/>
       <c r="W421" s="1"/>
     </row>
     <row r="422" spans="1:23">
@@ -10818,9 +10436,8 @@
       <c r="O422" s="1"/>
       <c r="P422" s="1"/>
       <c r="Q422" s="1"/>
-      <c r="R422"/>
-      <c r="T422" s="1"/>
-      <c r="V422" s="1"/>
+      <c r="R422" s="1"/>
+      <c r="U422" s="1"/>
       <c r="W422" s="1"/>
     </row>
     <row r="423" spans="1:23">
@@ -10840,9 +10457,8 @@
       <c r="O423" s="1"/>
       <c r="P423" s="1"/>
       <c r="Q423" s="1"/>
-      <c r="R423"/>
-      <c r="T423" s="1"/>
-      <c r="V423" s="1"/>
+      <c r="R423" s="1"/>
+      <c r="U423" s="1"/>
       <c r="W423" s="1"/>
     </row>
     <row r="424" spans="1:23">
@@ -10862,9 +10478,8 @@
       <c r="O424" s="1"/>
       <c r="P424" s="1"/>
       <c r="Q424" s="1"/>
-      <c r="R424"/>
-      <c r="T424" s="1"/>
-      <c r="V424" s="1"/>
+      <c r="R424" s="1"/>
+      <c r="U424" s="1"/>
       <c r="W424" s="1"/>
     </row>
     <row r="425" spans="1:23">
@@ -10884,9 +10499,8 @@
       <c r="O425" s="1"/>
       <c r="P425" s="1"/>
       <c r="Q425" s="1"/>
-      <c r="R425"/>
-      <c r="T425" s="1"/>
-      <c r="V425" s="1"/>
+      <c r="R425" s="1"/>
+      <c r="U425" s="1"/>
       <c r="W425" s="1"/>
     </row>
     <row r="426" spans="1:23">
@@ -10906,9 +10520,8 @@
       <c r="O426" s="1"/>
       <c r="P426" s="1"/>
       <c r="Q426" s="1"/>
-      <c r="R426"/>
-      <c r="T426" s="1"/>
-      <c r="V426" s="1"/>
+      <c r="R426" s="1"/>
+      <c r="U426" s="1"/>
       <c r="W426" s="1"/>
     </row>
     <row r="427" spans="1:23">
@@ -10928,9 +10541,8 @@
       <c r="O427" s="1"/>
       <c r="P427" s="1"/>
       <c r="Q427" s="1"/>
-      <c r="R427"/>
-      <c r="T427" s="1"/>
-      <c r="V427" s="1"/>
+      <c r="R427" s="1"/>
+      <c r="U427" s="1"/>
       <c r="W427" s="1"/>
     </row>
     <row r="428" spans="1:23">
@@ -10950,9 +10562,8 @@
       <c r="O428" s="1"/>
       <c r="P428" s="1"/>
       <c r="Q428" s="1"/>
-      <c r="R428"/>
-      <c r="T428" s="1"/>
-      <c r="V428" s="1"/>
+      <c r="R428" s="1"/>
+      <c r="U428" s="1"/>
       <c r="W428" s="1"/>
     </row>
     <row r="429" spans="1:23">
@@ -10972,9 +10583,8 @@
       <c r="O429" s="1"/>
       <c r="P429" s="1"/>
       <c r="Q429" s="1"/>
-      <c r="R429"/>
-      <c r="T429" s="1"/>
-      <c r="V429" s="1"/>
+      <c r="R429" s="1"/>
+      <c r="U429" s="1"/>
       <c r="W429" s="1"/>
     </row>
     <row r="430" spans="1:23">
@@ -10994,9 +10604,8 @@
       <c r="O430" s="1"/>
       <c r="P430" s="1"/>
       <c r="Q430" s="1"/>
-      <c r="R430"/>
-      <c r="T430" s="1"/>
-      <c r="V430" s="1"/>
+      <c r="R430" s="1"/>
+      <c r="U430" s="1"/>
       <c r="W430" s="1"/>
     </row>
     <row r="431" spans="1:23">
@@ -11016,9 +10625,8 @@
       <c r="O431" s="1"/>
       <c r="P431" s="1"/>
       <c r="Q431" s="1"/>
-      <c r="R431"/>
-      <c r="T431" s="1"/>
-      <c r="V431" s="1"/>
+      <c r="R431" s="1"/>
+      <c r="U431" s="1"/>
       <c r="W431" s="1"/>
     </row>
     <row r="432" spans="1:23">
@@ -11038,9 +10646,8 @@
       <c r="O432" s="1"/>
       <c r="P432" s="1"/>
       <c r="Q432" s="1"/>
-      <c r="R432"/>
-      <c r="T432" s="1"/>
-      <c r="V432" s="1"/>
+      <c r="R432" s="1"/>
+      <c r="U432" s="1"/>
       <c r="W432" s="1"/>
     </row>
     <row r="433" spans="1:23">
@@ -11060,9 +10667,8 @@
       <c r="O433" s="1"/>
       <c r="P433" s="1"/>
       <c r="Q433" s="1"/>
-      <c r="R433"/>
-      <c r="T433" s="1"/>
-      <c r="V433" s="1"/>
+      <c r="R433" s="1"/>
+      <c r="U433" s="1"/>
       <c r="W433" s="1"/>
     </row>
     <row r="434" spans="1:23">
@@ -11082,9 +10688,8 @@
       <c r="O434" s="1"/>
       <c r="P434" s="1"/>
       <c r="Q434" s="1"/>
-      <c r="R434"/>
-      <c r="T434" s="1"/>
-      <c r="V434" s="1"/>
+      <c r="R434" s="1"/>
+      <c r="U434" s="1"/>
       <c r="W434" s="1"/>
     </row>
     <row r="435" spans="1:23">
@@ -11104,9 +10709,8 @@
       <c r="O435" s="1"/>
       <c r="P435" s="1"/>
       <c r="Q435" s="1"/>
-      <c r="R435"/>
-      <c r="T435" s="1"/>
-      <c r="V435" s="1"/>
+      <c r="R435" s="1"/>
+      <c r="U435" s="1"/>
       <c r="W435" s="1"/>
     </row>
     <row r="436" spans="1:23">
@@ -11126,9 +10730,8 @@
       <c r="O436" s="1"/>
       <c r="P436" s="1"/>
       <c r="Q436" s="1"/>
-      <c r="R436"/>
-      <c r="T436" s="1"/>
-      <c r="V436" s="1"/>
+      <c r="R436" s="1"/>
+      <c r="U436" s="1"/>
       <c r="W436" s="1"/>
     </row>
     <row r="437" spans="1:23">
@@ -11148,9 +10751,8 @@
       <c r="O437" s="1"/>
       <c r="P437" s="1"/>
       <c r="Q437" s="1"/>
-      <c r="R437"/>
-      <c r="T437" s="1"/>
-      <c r="V437" s="1"/>
+      <c r="R437" s="1"/>
+      <c r="U437" s="1"/>
       <c r="W437" s="1"/>
     </row>
     <row r="438" spans="1:23">
@@ -11170,9 +10772,8 @@
       <c r="O438" s="1"/>
       <c r="P438" s="1"/>
       <c r="Q438" s="1"/>
-      <c r="R438"/>
-      <c r="T438" s="1"/>
-      <c r="V438" s="1"/>
+      <c r="R438" s="1"/>
+      <c r="U438" s="1"/>
       <c r="W438" s="1"/>
     </row>
     <row r="439" spans="1:23">
@@ -11192,9 +10793,8 @@
       <c r="O439" s="1"/>
       <c r="P439" s="1"/>
       <c r="Q439" s="1"/>
-      <c r="R439"/>
-      <c r="T439" s="1"/>
-      <c r="V439" s="1"/>
+      <c r="R439" s="1"/>
+      <c r="U439" s="1"/>
       <c r="W439" s="1"/>
     </row>
     <row r="440" spans="1:23">
@@ -11214,9 +10814,8 @@
       <c r="O440" s="1"/>
       <c r="P440" s="1"/>
       <c r="Q440" s="1"/>
-      <c r="R440"/>
-      <c r="T440" s="1"/>
-      <c r="V440" s="1"/>
+      <c r="R440" s="1"/>
+      <c r="U440" s="1"/>
       <c r="W440" s="1"/>
     </row>
     <row r="441" spans="1:23">
@@ -11236,9 +10835,8 @@
       <c r="O441" s="1"/>
       <c r="P441" s="1"/>
       <c r="Q441" s="1"/>
-      <c r="R441"/>
-      <c r="T441" s="1"/>
-      <c r="V441" s="1"/>
+      <c r="R441" s="1"/>
+      <c r="U441" s="1"/>
       <c r="W441" s="1"/>
     </row>
     <row r="442" spans="1:23">
@@ -11258,9 +10856,8 @@
       <c r="O442" s="1"/>
       <c r="P442" s="1"/>
       <c r="Q442" s="1"/>
-      <c r="R442"/>
-      <c r="T442" s="1"/>
-      <c r="V442" s="1"/>
+      <c r="R442" s="1"/>
+      <c r="U442" s="1"/>
       <c r="W442" s="1"/>
     </row>
     <row r="443" spans="1:23">
@@ -11280,9 +10877,8 @@
       <c r="O443" s="1"/>
       <c r="P443" s="1"/>
       <c r="Q443" s="1"/>
-      <c r="R443"/>
-      <c r="T443" s="1"/>
-      <c r="V443" s="1"/>
+      <c r="R443" s="1"/>
+      <c r="U443" s="1"/>
       <c r="W443" s="1"/>
     </row>
     <row r="444" spans="1:23">
@@ -11302,9 +10898,8 @@
       <c r="O444" s="1"/>
       <c r="P444" s="1"/>
       <c r="Q444" s="1"/>
-      <c r="R444"/>
-      <c r="T444" s="1"/>
-      <c r="V444" s="1"/>
+      <c r="R444" s="1"/>
+      <c r="U444" s="1"/>
       <c r="W444" s="1"/>
     </row>
     <row r="445" spans="1:23">
@@ -11324,9 +10919,8 @@
       <c r="O445" s="1"/>
       <c r="P445" s="1"/>
       <c r="Q445" s="1"/>
-      <c r="R445"/>
-      <c r="T445" s="1"/>
-      <c r="V445" s="1"/>
+      <c r="R445" s="1"/>
+      <c r="U445" s="1"/>
       <c r="W445" s="1"/>
     </row>
     <row r="446" spans="1:23">
@@ -11346,9 +10940,8 @@
       <c r="O446" s="1"/>
       <c r="P446" s="1"/>
       <c r="Q446" s="1"/>
-      <c r="R446"/>
-      <c r="T446" s="1"/>
-      <c r="V446" s="1"/>
+      <c r="R446" s="1"/>
+      <c r="U446" s="1"/>
       <c r="W446" s="1"/>
     </row>
     <row r="447" spans="1:23">
@@ -11368,9 +10961,8 @@
       <c r="O447" s="1"/>
       <c r="P447" s="1"/>
       <c r="Q447" s="1"/>
-      <c r="R447"/>
-      <c r="T447" s="1"/>
-      <c r="V447" s="1"/>
+      <c r="R447" s="1"/>
+      <c r="U447" s="1"/>
       <c r="W447" s="1"/>
     </row>
     <row r="448" spans="1:23">
@@ -11390,9 +10982,8 @@
       <c r="O448" s="1"/>
       <c r="P448" s="1"/>
       <c r="Q448" s="1"/>
-      <c r="R448"/>
-      <c r="T448" s="1"/>
-      <c r="V448" s="1"/>
+      <c r="R448" s="1"/>
+      <c r="U448" s="1"/>
       <c r="W448" s="1"/>
     </row>
     <row r="449" spans="1:23">
@@ -11412,9 +11003,8 @@
       <c r="O449" s="1"/>
       <c r="P449" s="1"/>
       <c r="Q449" s="1"/>
-      <c r="R449"/>
-      <c r="T449" s="1"/>
-      <c r="V449" s="1"/>
+      <c r="R449" s="1"/>
+      <c r="U449" s="1"/>
       <c r="W449" s="1"/>
     </row>
     <row r="450" spans="1:23">
@@ -11434,9 +11024,8 @@
       <c r="O450" s="1"/>
       <c r="P450" s="1"/>
       <c r="Q450" s="1"/>
-      <c r="R450"/>
-      <c r="T450" s="1"/>
-      <c r="V450" s="1"/>
+      <c r="R450" s="1"/>
+      <c r="U450" s="1"/>
       <c r="W450" s="1"/>
     </row>
     <row r="451" spans="1:23">
@@ -11456,9 +11045,8 @@
       <c r="O451" s="1"/>
       <c r="P451" s="1"/>
       <c r="Q451" s="1"/>
-      <c r="R451"/>
-      <c r="T451" s="1"/>
-      <c r="V451" s="1"/>
+      <c r="R451" s="1"/>
+      <c r="U451" s="1"/>
       <c r="W451" s="1"/>
     </row>
     <row r="452" spans="1:23">
@@ -11478,9 +11066,8 @@
       <c r="O452" s="1"/>
       <c r="P452" s="1"/>
       <c r="Q452" s="1"/>
-      <c r="R452"/>
-      <c r="T452" s="1"/>
-      <c r="V452" s="1"/>
+      <c r="R452" s="1"/>
+      <c r="U452" s="1"/>
       <c r="W452" s="1"/>
     </row>
     <row r="453" spans="1:23">
@@ -11500,9 +11087,8 @@
       <c r="O453" s="1"/>
       <c r="P453" s="1"/>
       <c r="Q453" s="1"/>
-      <c r="R453"/>
-      <c r="T453" s="1"/>
-      <c r="V453" s="1"/>
+      <c r="R453" s="1"/>
+      <c r="U453" s="1"/>
       <c r="W453" s="1"/>
     </row>
     <row r="454" spans="1:23">
@@ -11522,9 +11108,8 @@
       <c r="O454" s="1"/>
       <c r="P454" s="1"/>
       <c r="Q454" s="1"/>
-      <c r="R454"/>
-      <c r="T454" s="1"/>
-      <c r="V454" s="1"/>
+      <c r="R454" s="1"/>
+      <c r="U454" s="1"/>
       <c r="W454" s="1"/>
     </row>
     <row r="455" spans="1:23">
@@ -11544,9 +11129,8 @@
       <c r="O455" s="1"/>
       <c r="P455" s="1"/>
       <c r="Q455" s="1"/>
-      <c r="R455"/>
-      <c r="T455" s="1"/>
-      <c r="V455" s="1"/>
+      <c r="R455" s="1"/>
+      <c r="U455" s="1"/>
       <c r="W455" s="1"/>
     </row>
     <row r="456" spans="1:23">
@@ -11566,9 +11150,8 @@
       <c r="O456" s="1"/>
       <c r="P456" s="1"/>
       <c r="Q456" s="1"/>
-      <c r="R456"/>
-      <c r="T456" s="1"/>
-      <c r="V456" s="1"/>
+      <c r="R456" s="1"/>
+      <c r="U456" s="1"/>
       <c r="W456" s="1"/>
     </row>
     <row r="457" spans="1:23">
@@ -11588,9 +11171,8 @@
       <c r="O457" s="1"/>
       <c r="P457" s="1"/>
       <c r="Q457" s="1"/>
-      <c r="R457"/>
-      <c r="T457" s="1"/>
-      <c r="V457" s="1"/>
+      <c r="R457" s="1"/>
+      <c r="U457" s="1"/>
       <c r="W457" s="1"/>
     </row>
     <row r="458" spans="1:23">
@@ -11610,9 +11192,8 @@
       <c r="O458" s="1"/>
       <c r="P458" s="1"/>
       <c r="Q458" s="1"/>
-      <c r="R458"/>
-      <c r="T458" s="1"/>
-      <c r="V458" s="1"/>
+      <c r="R458" s="1"/>
+      <c r="U458" s="1"/>
       <c r="W458" s="1"/>
     </row>
     <row r="459" spans="1:23">
@@ -11632,9 +11213,8 @@
       <c r="O459" s="1"/>
       <c r="P459" s="1"/>
       <c r="Q459" s="1"/>
-      <c r="R459"/>
-      <c r="T459" s="1"/>
-      <c r="V459" s="1"/>
+      <c r="R459" s="1"/>
+      <c r="U459" s="1"/>
       <c r="W459" s="1"/>
     </row>
     <row r="460" spans="1:23">
@@ -11654,9 +11234,8 @@
       <c r="O460" s="1"/>
       <c r="P460" s="1"/>
       <c r="Q460" s="1"/>
-      <c r="R460"/>
-      <c r="T460" s="1"/>
-      <c r="V460" s="1"/>
+      <c r="R460" s="1"/>
+      <c r="U460" s="1"/>
       <c r="W460" s="1"/>
     </row>
     <row r="461" spans="1:23">
@@ -11676,9 +11255,8 @@
       <c r="O461" s="1"/>
       <c r="P461" s="1"/>
       <c r="Q461" s="1"/>
-      <c r="R461"/>
-      <c r="T461" s="1"/>
-      <c r="V461" s="1"/>
+      <c r="R461" s="1"/>
+      <c r="U461" s="1"/>
       <c r="W461" s="1"/>
     </row>
     <row r="462" spans="1:23">
@@ -11698,9 +11276,8 @@
       <c r="O462" s="1"/>
       <c r="P462" s="1"/>
       <c r="Q462" s="1"/>
-      <c r="R462"/>
-      <c r="T462" s="1"/>
-      <c r="V462" s="1"/>
+      <c r="R462" s="1"/>
+      <c r="U462" s="1"/>
       <c r="W462" s="1"/>
     </row>
     <row r="463" spans="1:23">
@@ -11720,9 +11297,8 @@
       <c r="O463" s="1"/>
       <c r="P463" s="1"/>
       <c r="Q463" s="1"/>
-      <c r="R463"/>
-      <c r="T463" s="1"/>
-      <c r="V463" s="1"/>
+      <c r="R463" s="1"/>
+      <c r="U463" s="1"/>
       <c r="W463" s="1"/>
     </row>
     <row r="464" spans="1:23">
@@ -11742,9 +11318,8 @@
       <c r="O464" s="1"/>
       <c r="P464" s="1"/>
       <c r="Q464" s="1"/>
-      <c r="R464"/>
-      <c r="T464" s="1"/>
-      <c r="V464" s="1"/>
+      <c r="R464" s="1"/>
+      <c r="U464" s="1"/>
       <c r="W464" s="1"/>
     </row>
     <row r="465" spans="1:23">
@@ -11764,9 +11339,8 @@
       <c r="O465" s="1"/>
       <c r="P465" s="1"/>
       <c r="Q465" s="1"/>
-      <c r="R465"/>
-      <c r="T465" s="1"/>
-      <c r="V465" s="1"/>
+      <c r="R465" s="1"/>
+      <c r="U465" s="1"/>
       <c r="W465" s="1"/>
     </row>
     <row r="466" spans="1:23">
@@ -11786,9 +11360,8 @@
       <c r="O466" s="1"/>
       <c r="P466" s="1"/>
       <c r="Q466" s="1"/>
-      <c r="R466"/>
-      <c r="T466" s="1"/>
-      <c r="V466" s="1"/>
+      <c r="R466" s="1"/>
+      <c r="U466" s="1"/>
       <c r="W466" s="1"/>
     </row>
     <row r="467" spans="1:23">
@@ -11808,9 +11381,8 @@
       <c r="O467" s="1"/>
       <c r="P467" s="1"/>
       <c r="Q467" s="1"/>
-      <c r="R467"/>
-      <c r="T467" s="1"/>
-      <c r="V467" s="1"/>
+      <c r="R467" s="1"/>
+      <c r="U467" s="1"/>
       <c r="W467" s="1"/>
     </row>
     <row r="468" spans="1:23">
@@ -11830,9 +11402,8 @@
       <c r="O468" s="1"/>
       <c r="P468" s="1"/>
       <c r="Q468" s="1"/>
-      <c r="R468"/>
-      <c r="T468" s="1"/>
-      <c r="V468" s="1"/>
+      <c r="R468" s="1"/>
+      <c r="U468" s="1"/>
       <c r="W468" s="1"/>
     </row>
     <row r="469" spans="1:23">
@@ -11852,9 +11423,8 @@
       <c r="O469" s="1"/>
       <c r="P469" s="1"/>
       <c r="Q469" s="1"/>
-      <c r="R469"/>
-      <c r="T469" s="1"/>
-      <c r="V469" s="1"/>
+      <c r="R469" s="1"/>
+      <c r="U469" s="1"/>
       <c r="W469" s="1"/>
     </row>
     <row r="470" spans="1:23">
@@ -11874,9 +11444,8 @@
       <c r="O470" s="1"/>
       <c r="P470" s="1"/>
       <c r="Q470" s="1"/>
-      <c r="R470"/>
-      <c r="T470" s="1"/>
-      <c r="V470" s="1"/>
+      <c r="R470" s="1"/>
+      <c r="U470" s="1"/>
       <c r="W470" s="1"/>
     </row>
     <row r="471" spans="1:23">
@@ -11896,9 +11465,8 @@
       <c r="O471" s="1"/>
       <c r="P471" s="1"/>
       <c r="Q471" s="1"/>
-      <c r="R471"/>
-      <c r="T471" s="1"/>
-      <c r="V471" s="1"/>
+      <c r="R471" s="1"/>
+      <c r="U471" s="1"/>
       <c r="W471" s="1"/>
     </row>
     <row r="472" spans="1:23">
@@ -11918,9 +11486,8 @@
       <c r="O472" s="1"/>
       <c r="P472" s="1"/>
       <c r="Q472" s="1"/>
-      <c r="R472"/>
-      <c r="T472" s="1"/>
-      <c r="V472" s="1"/>
+      <c r="R472" s="1"/>
+      <c r="U472" s="1"/>
       <c r="W472" s="1"/>
     </row>
     <row r="473" spans="1:23">
@@ -11940,9 +11507,8 @@
       <c r="O473" s="1"/>
       <c r="P473" s="1"/>
       <c r="Q473" s="1"/>
-      <c r="R473"/>
-      <c r="T473" s="1"/>
-      <c r="V473" s="1"/>
+      <c r="R473" s="1"/>
+      <c r="U473" s="1"/>
       <c r="W473" s="1"/>
     </row>
     <row r="474" spans="1:23">
@@ -11962,9 +11528,8 @@
       <c r="O474" s="1"/>
       <c r="P474" s="1"/>
       <c r="Q474" s="1"/>
-      <c r="R474"/>
-      <c r="T474" s="1"/>
-      <c r="V474" s="1"/>
+      <c r="R474" s="1"/>
+      <c r="U474" s="1"/>
       <c r="W474" s="1"/>
     </row>
     <row r="475" spans="1:23">
@@ -11984,9 +11549,8 @@
       <c r="O475" s="1"/>
       <c r="P475" s="1"/>
       <c r="Q475" s="1"/>
-      <c r="R475"/>
-      <c r="T475" s="1"/>
-      <c r="V475" s="1"/>
+      <c r="R475" s="1"/>
+      <c r="U475" s="1"/>
       <c r="W475" s="1"/>
     </row>
     <row r="476" spans="1:23">
@@ -12006,9 +11570,8 @@
       <c r="O476" s="1"/>
       <c r="P476" s="1"/>
       <c r="Q476" s="1"/>
-      <c r="R476"/>
-      <c r="T476" s="1"/>
-      <c r="V476" s="1"/>
+      <c r="R476" s="1"/>
+      <c r="U476" s="1"/>
       <c r="W476" s="1"/>
     </row>
     <row r="477" spans="1:23">
@@ -12028,9 +11591,8 @@
       <c r="O477" s="1"/>
       <c r="P477" s="1"/>
       <c r="Q477" s="1"/>
-      <c r="R477"/>
-      <c r="T477" s="1"/>
-      <c r="V477" s="1"/>
+      <c r="R477" s="1"/>
+      <c r="U477" s="1"/>
       <c r="W477" s="1"/>
     </row>
     <row r="478" spans="1:23">
@@ -12050,9 +11612,8 @@
       <c r="O478" s="1"/>
       <c r="P478" s="1"/>
       <c r="Q478" s="1"/>
-      <c r="R478"/>
-      <c r="T478" s="1"/>
-      <c r="V478" s="1"/>
+      <c r="R478" s="1"/>
+      <c r="U478" s="1"/>
       <c r="W478" s="1"/>
     </row>
     <row r="479" spans="1:23">
@@ -12072,9 +11633,8 @@
       <c r="O479" s="1"/>
       <c r="P479" s="1"/>
       <c r="Q479" s="1"/>
-      <c r="R479"/>
-      <c r="T479" s="1"/>
-      <c r="V479" s="1"/>
+      <c r="R479" s="1"/>
+      <c r="U479" s="1"/>
       <c r="W479" s="1"/>
     </row>
     <row r="480" spans="1:23">
@@ -12094,9 +11654,8 @@
       <c r="O480" s="1"/>
       <c r="P480" s="1"/>
       <c r="Q480" s="1"/>
-      <c r="R480"/>
-      <c r="T480" s="1"/>
-      <c r="V480" s="1"/>
+      <c r="R480" s="1"/>
+      <c r="U480" s="1"/>
       <c r="W480" s="1"/>
     </row>
     <row r="481" spans="1:23">
@@ -12116,9 +11675,8 @@
       <c r="O481" s="1"/>
       <c r="P481" s="1"/>
       <c r="Q481" s="1"/>
-      <c r="R481"/>
-      <c r="T481" s="1"/>
-      <c r="V481" s="1"/>
+      <c r="R481" s="1"/>
+      <c r="U481" s="1"/>
       <c r="W481" s="1"/>
     </row>
     <row r="482" spans="1:23">
@@ -12138,9 +11696,8 @@
       <c r="O482" s="1"/>
       <c r="P482" s="1"/>
       <c r="Q482" s="1"/>
-      <c r="R482"/>
-      <c r="T482" s="1"/>
-      <c r="V482" s="1"/>
+      <c r="R482" s="1"/>
+      <c r="U482" s="1"/>
       <c r="W482" s="1"/>
     </row>
     <row r="483" spans="1:23">
@@ -12160,9 +11717,8 @@
       <c r="O483" s="1"/>
       <c r="P483" s="1"/>
       <c r="Q483" s="1"/>
-      <c r="R483"/>
-      <c r="T483" s="1"/>
-      <c r="V483" s="1"/>
+      <c r="R483" s="1"/>
+      <c r="U483" s="1"/>
       <c r="W483" s="1"/>
     </row>
     <row r="484" spans="1:23">
@@ -12182,9 +11738,8 @@
       <c r="O484" s="1"/>
       <c r="P484" s="1"/>
       <c r="Q484" s="1"/>
-      <c r="R484"/>
-      <c r="T484" s="1"/>
-      <c r="V484" s="1"/>
+      <c r="R484" s="1"/>
+      <c r="U484" s="1"/>
       <c r="W484" s="1"/>
     </row>
     <row r="485" spans="1:23">
@@ -12204,9 +11759,8 @@
       <c r="O485" s="1"/>
       <c r="P485" s="1"/>
       <c r="Q485" s="1"/>
-      <c r="R485"/>
-      <c r="T485" s="1"/>
-      <c r="V485" s="1"/>
+      <c r="R485" s="1"/>
+      <c r="U485" s="1"/>
       <c r="W485" s="1"/>
     </row>
     <row r="486" spans="1:23">
@@ -12226,9 +11780,8 @@
       <c r="O486" s="1"/>
       <c r="P486" s="1"/>
       <c r="Q486" s="1"/>
-      <c r="R486"/>
-      <c r="T486" s="1"/>
-      <c r="V486" s="1"/>
+      <c r="R486" s="1"/>
+      <c r="U486" s="1"/>
       <c r="W486" s="1"/>
     </row>
     <row r="487" spans="1:23">
@@ -12248,9 +11801,8 @@
       <c r="O487" s="1"/>
       <c r="P487" s="1"/>
       <c r="Q487" s="1"/>
-      <c r="R487"/>
-      <c r="T487" s="1"/>
-      <c r="V487" s="1"/>
+      <c r="R487" s="1"/>
+      <c r="U487" s="1"/>
       <c r="W487" s="1"/>
     </row>
     <row r="488" spans="1:23">
@@ -12270,9 +11822,8 @@
       <c r="O488" s="1"/>
       <c r="P488" s="1"/>
       <c r="Q488" s="1"/>
-      <c r="R488"/>
-      <c r="T488" s="1"/>
-      <c r="V488" s="1"/>
+      <c r="R488" s="1"/>
+      <c r="U488" s="1"/>
       <c r="W488" s="1"/>
     </row>
     <row r="489" spans="1:23">
@@ -12292,9 +11843,8 @@
       <c r="O489" s="1"/>
       <c r="P489" s="1"/>
       <c r="Q489" s="1"/>
-      <c r="R489"/>
-      <c r="T489" s="1"/>
-      <c r="V489" s="1"/>
+      <c r="R489" s="1"/>
+      <c r="U489" s="1"/>
       <c r="W489" s="1"/>
     </row>
     <row r="490" spans="1:23">
@@ -12314,9 +11864,8 @@
       <c r="O490" s="1"/>
       <c r="P490" s="1"/>
       <c r="Q490" s="1"/>
-      <c r="R490"/>
-      <c r="T490" s="1"/>
-      <c r="V490" s="1"/>
+      <c r="R490" s="1"/>
+      <c r="U490" s="1"/>
       <c r="W490" s="1"/>
     </row>
     <row r="491" spans="1:23">
@@ -12336,9 +11885,8 @@
       <c r="O491" s="1"/>
       <c r="P491" s="1"/>
       <c r="Q491" s="1"/>
-      <c r="R491"/>
-      <c r="T491" s="1"/>
-      <c r="V491" s="1"/>
+      <c r="R491" s="1"/>
+      <c r="U491" s="1"/>
       <c r="W491" s="1"/>
     </row>
     <row r="492" spans="1:23">
@@ -12358,9 +11906,8 @@
       <c r="O492" s="1"/>
       <c r="P492" s="1"/>
       <c r="Q492" s="1"/>
-      <c r="R492"/>
-      <c r="T492" s="1"/>
-      <c r="V492" s="1"/>
+      <c r="R492" s="1"/>
+      <c r="U492" s="1"/>
       <c r="W492" s="1"/>
     </row>
     <row r="493" spans="1:23">
@@ -12380,9 +11927,8 @@
       <c r="O493" s="1"/>
       <c r="P493" s="1"/>
       <c r="Q493" s="1"/>
-      <c r="R493"/>
-      <c r="T493" s="1"/>
-      <c r="V493" s="1"/>
+      <c r="R493" s="1"/>
+      <c r="U493" s="1"/>
       <c r="W493" s="1"/>
     </row>
     <row r="494" spans="1:23">
@@ -12402,9 +11948,8 @@
       <c r="O494" s="1"/>
       <c r="P494" s="1"/>
       <c r="Q494" s="1"/>
-      <c r="R494"/>
-      <c r="T494" s="1"/>
-      <c r="V494" s="1"/>
+      <c r="R494" s="1"/>
+      <c r="U494" s="1"/>
       <c r="W494" s="1"/>
     </row>
     <row r="495" spans="1:23">
@@ -12424,9 +11969,8 @@
       <c r="O495" s="1"/>
       <c r="P495" s="1"/>
       <c r="Q495" s="1"/>
-      <c r="R495"/>
-      <c r="T495" s="1"/>
-      <c r="V495" s="1"/>
+      <c r="R495" s="1"/>
+      <c r="U495" s="1"/>
       <c r="W495" s="1"/>
     </row>
     <row r="496" spans="1:23">
@@ -12446,9 +11990,8 @@
       <c r="O496" s="1"/>
       <c r="P496" s="1"/>
       <c r="Q496" s="1"/>
-      <c r="R496"/>
-      <c r="T496" s="1"/>
-      <c r="V496" s="1"/>
+      <c r="R496" s="1"/>
+      <c r="U496" s="1"/>
       <c r="W496" s="1"/>
     </row>
     <row r="497" spans="1:23">
@@ -12468,9 +12011,8 @@
       <c r="O497" s="1"/>
       <c r="P497" s="1"/>
       <c r="Q497" s="1"/>
-      <c r="R497"/>
-      <c r="T497" s="1"/>
-      <c r="V497" s="1"/>
+      <c r="R497" s="1"/>
+      <c r="U497" s="1"/>
       <c r="W497" s="1"/>
     </row>
     <row r="498" spans="1:23">
@@ -12490,9 +12032,8 @@
       <c r="O498" s="1"/>
       <c r="P498" s="1"/>
       <c r="Q498" s="1"/>
-      <c r="R498"/>
-      <c r="T498" s="1"/>
-      <c r="V498" s="1"/>
+      <c r="R498" s="1"/>
+      <c r="U498" s="1"/>
       <c r="W498" s="1"/>
     </row>
     <row r="499" spans="1:23">
@@ -12512,9 +12053,8 @@
       <c r="O499" s="1"/>
       <c r="P499" s="1"/>
       <c r="Q499" s="1"/>
-      <c r="R499"/>
-      <c r="T499" s="1"/>
-      <c r="V499" s="1"/>
+      <c r="R499" s="1"/>
+      <c r="U499" s="1"/>
       <c r="W499" s="1"/>
     </row>
     <row r="500" spans="1:23">
@@ -12534,17 +12074,16 @@
       <c r="O500" s="1"/>
       <c r="P500" s="1"/>
       <c r="Q500" s="1"/>
-      <c r="R500"/>
-      <c r="T500" s="1"/>
-      <c r="V500" s="1"/>
+      <c r="R500" s="1"/>
+      <c r="U500" s="1"/>
       <c r="W500" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="T1:W1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>日期</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>止损线状态</t>
+  </si>
+  <si>
+    <t>是否向预期反向发展的指标</t>
   </si>
   <si>
     <t>强势卖出指标</t>
@@ -46,6 +49,10 @@
     <t>上涨天数</t>
   </si>
   <si>
+    <t>单日跌幅/涨幅
+(止损时，该值创新低是要引起注意；止盈时，该值创新高是要引起注意)</t>
+  </si>
+  <si>
     <t>当前止损线</t>
   </si>
   <si>
@@ -53,10 +60,6 @@
   </si>
   <si>
     <t>预期移动止损线股价</t>
-  </si>
-  <si>
-    <t>单日涨幅
-(创新高要注意)</t>
   </si>
   <si>
     <t>当日收盘价是否小于20日均线
@@ -187,12 +190,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -225,30 +228,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,18 +272,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -301,9 +304,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,8 +318,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -332,15 +341,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,9 +356,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,6 +399,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -403,12 +412,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +429,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,163 +597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,8 +629,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,6 +640,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,17 +685,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,15 +705,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,94 +728,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,49 +827,49 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -886,41 +889,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -928,22 +931,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1265,14 +1268,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:W500"/>
+  <dimension ref="A1:X500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1:Q1"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1284,25 +1287,25 @@
     <col min="5" max="5" width="9.96428571428571" customWidth="1"/>
     <col min="6" max="6" width="10.4107142857143" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.96428571428571" customWidth="1"/>
-    <col min="8" max="8" width="13.5357142857143" customWidth="1"/>
-    <col min="9" max="9" width="13.3839285714286" customWidth="1"/>
-    <col min="10" max="10" width="20.3839285714286" customWidth="1"/>
-    <col min="11" max="11" width="20.3839285714286" customWidth="1"/>
-    <col min="12" max="12" width="30.0625" customWidth="1"/>
-    <col min="13" max="13" width="40.4732142857143" customWidth="1"/>
-    <col min="14" max="14" width="25.4464285714286" customWidth="1"/>
-    <col min="15" max="15" width="28.7142857142857" customWidth="1"/>
-    <col min="16" max="16" width="30.0625" customWidth="1"/>
-    <col min="17" max="17" width="21.875" customWidth="1"/>
-    <col min="18" max="18" width="20.6785714285714" customWidth="1"/>
-    <col min="19" max="19" width="39.5803571428571" customWidth="1"/>
-    <col min="20" max="20" width="20.5267857142857" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.4464285714286" customWidth="1"/>
-    <col min="22" max="22" width="22.3125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.3035714285714" customWidth="1"/>
+    <col min="8" max="8" width="20.3839285714286" customWidth="1"/>
+    <col min="9" max="9" width="13.5357142857143" customWidth="1"/>
+    <col min="10" max="10" width="13.3839285714286" customWidth="1"/>
+    <col min="11" max="12" width="20.3839285714286" customWidth="1"/>
+    <col min="13" max="13" width="30.0625" customWidth="1"/>
+    <col min="14" max="14" width="40.4732142857143" customWidth="1"/>
+    <col min="15" max="15" width="25.4464285714286" customWidth="1"/>
+    <col min="16" max="16" width="28.7142857142857" customWidth="1"/>
+    <col min="17" max="17" width="30.0625" customWidth="1"/>
+    <col min="18" max="18" width="21.875" customWidth="1"/>
+    <col min="19" max="19" width="20.6785714285714" customWidth="1"/>
+    <col min="20" max="20" width="39.5803571428571" customWidth="1"/>
+    <col min="21" max="21" width="20.5267857142857" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.4464285714286" customWidth="1"/>
+    <col min="23" max="23" width="22.3125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.3035714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1314,97 +1317,103 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="17"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17" t="s">
+        <v>4</v>
+      </c>
       <c r="V1" s="17"/>
       <c r="W1" s="17"/>
-    </row>
-    <row r="2" ht="56" customHeight="1" spans="1:23">
+      <c r="X1" s="17"/>
+    </row>
+    <row r="2" ht="56" customHeight="1" spans="1:24">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="13" t="s">
         <v>20</v>
       </c>
       <c r="S2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="U2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="W2" s="20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="5">
         <v>44523</v>
       </c>
@@ -1414,24 +1423,25 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="9"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="10"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="24"/>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="S3" s="9"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="23"/>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="7">
         <v>44524</v>
       </c>
@@ -1441,24 +1451,25 @@
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="9"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="24"/>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="S4" s="9"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="23"/>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="7">
         <v>44525</v>
       </c>
@@ -1468,24 +1479,25 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="9"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="24"/>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="S5" s="9"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="23"/>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="7">
         <v>44526</v>
       </c>
@@ -1495,24 +1507,25 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="9"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="24"/>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="S6" s="9"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="23"/>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="7">
         <v>44527</v>
       </c>
@@ -1522,10 +1535,10 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="9"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -1535,11 +1548,12 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="6"/>
       <c r="W7" s="9"/>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="7">
         <v>44528</v>
       </c>
@@ -1549,10 +1563,10 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="9"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -1562,11 +1576,12 @@
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="6"/>
       <c r="W8" s="9"/>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" s="9"/>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="7">
         <v>44529</v>
       </c>
@@ -1576,10 +1591,10 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="9"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1589,11 +1604,12 @@
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="6"/>
       <c r="W9" s="9"/>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" s="9"/>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="7">
         <v>44530</v>
       </c>
@@ -1603,10 +1619,10 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="9"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -1616,11 +1632,12 @@
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="6"/>
       <c r="W10" s="9"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="7">
         <v>44531</v>
       </c>
@@ -1630,10 +1647,10 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="9"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -1643,11 +1660,12 @@
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="6"/>
       <c r="W11" s="9"/>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="7">
         <v>44532</v>
       </c>
@@ -1657,10 +1675,10 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="9"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -1670,11 +1688,12 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="6"/>
       <c r="W12" s="9"/>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" s="9"/>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="7">
         <v>44533</v>
       </c>
@@ -1684,10 +1703,10 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="9"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="9"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -1697,11 +1716,12 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="6"/>
       <c r="W13" s="9"/>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" s="9"/>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="7">
         <v>44534</v>
       </c>
@@ -1711,10 +1731,10 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="9"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -1724,11 +1744,12 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="6"/>
       <c r="W14" s="9"/>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" s="9"/>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="7">
         <v>44535</v>
       </c>
@@ -1738,10 +1759,10 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="9"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="9"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -1751,11 +1772,12 @@
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="6"/>
       <c r="W15" s="9"/>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" s="9"/>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="7">
         <v>44536</v>
       </c>
@@ -1765,10 +1787,10 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="9"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -1778,11 +1800,12 @@
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="6"/>
       <c r="W16" s="9"/>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" s="9"/>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="7">
         <v>44537</v>
       </c>
@@ -1792,10 +1815,10 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="9"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="9"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -1805,11 +1828,12 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="6"/>
       <c r="W17" s="9"/>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="7">
         <v>44538</v>
       </c>
@@ -1819,10 +1843,10 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="9"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -1832,11 +1856,12 @@
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="6"/>
       <c r="W18" s="9"/>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" s="9"/>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="7">
         <v>44539</v>
       </c>
@@ -1846,10 +1871,10 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="9"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -1859,11 +1884,12 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="6"/>
       <c r="W19" s="9"/>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" s="9"/>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="7">
         <v>44540</v>
       </c>
@@ -1873,10 +1899,10 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="6"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="9"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -1886,11 +1912,12 @@
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="6"/>
       <c r="W20" s="9"/>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" s="9"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="7">
         <v>44541</v>
       </c>
@@ -1900,10 +1927,10 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="9"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -1913,11 +1940,12 @@
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="6"/>
       <c r="W21" s="9"/>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" s="9"/>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="7">
         <v>44542</v>
       </c>
@@ -1927,10 +1955,10 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="6"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="9"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -1940,11 +1968,12 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="6"/>
       <c r="W22" s="9"/>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" s="9"/>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="7">
         <v>44543</v>
       </c>
@@ -1954,10 +1983,10 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="9"/>
+      <c r="K23" s="6"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -1967,11 +1996,12 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="6"/>
       <c r="W23" s="9"/>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" s="9"/>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="7">
         <v>44544</v>
       </c>
@@ -1981,10 +2011,10 @@
       <c r="E24" s="6"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="9"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="9"/>
+      <c r="K24" s="6"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -1994,11 +2024,12 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="6"/>
       <c r="W24" s="9"/>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" s="9"/>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="7">
         <v>44545</v>
       </c>
@@ -2008,10 +2039,10 @@
       <c r="E25" s="6"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="6"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-      <c r="K25" s="9"/>
+      <c r="K25" s="6"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -2019,13 +2050,14 @@
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="19"/>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" s="9"/>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="7">
         <v>44546</v>
       </c>
@@ -2035,10 +2067,10 @@
       <c r="E26" s="6"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="9"/>
+      <c r="K26" s="6"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -2046,13 +2078,14 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="19"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" s="9"/>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="7">
         <v>44547</v>
       </c>
@@ -2062,10 +2095,10 @@
       <c r="E27" s="6"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="9"/>
+      <c r="K27" s="6"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -2073,13 +2106,14 @@
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="19"/>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" s="9"/>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="7">
         <v>44548</v>
       </c>
@@ -2089,10 +2123,10 @@
       <c r="E28" s="6"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="6"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="9"/>
+      <c r="K28" s="6"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -2100,13 +2134,14 @@
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="19"/>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" s="9"/>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="7">
         <v>44549</v>
       </c>
@@ -2116,10 +2151,10 @@
       <c r="E29" s="6"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="6"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="9"/>
+      <c r="K29" s="6"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -2127,13 +2162,14 @@
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="19"/>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29" s="9"/>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="7">
         <v>44550</v>
       </c>
@@ -2143,10 +2179,10 @@
       <c r="E30" s="6"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="6"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="9"/>
+      <c r="K30" s="6"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -2154,13 +2190,14 @@
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="19"/>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" s="9"/>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="7">
         <v>44551</v>
       </c>
@@ -2170,10 +2207,10 @@
       <c r="E31" s="6"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="6"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="9"/>
+      <c r="K31" s="6"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
@@ -2181,13 +2218,14 @@
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="19"/>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" s="9"/>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="7">
         <v>44552</v>
       </c>
@@ -2197,10 +2235,10 @@
       <c r="E32" s="6"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="6"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-      <c r="K32" s="9"/>
+      <c r="K32" s="6"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -2208,13 +2246,14 @@
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="19"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" s="9"/>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="7">
         <v>44553</v>
       </c>
@@ -2224,10 +2263,10 @@
       <c r="E33" s="6"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="6"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-      <c r="K33" s="9"/>
+      <c r="K33" s="6"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -2235,13 +2274,14 @@
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="19"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33" s="9"/>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="7">
         <v>44554</v>
       </c>
@@ -2251,10 +2291,10 @@
       <c r="E34" s="6"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="6"/>
+      <c r="H34" s="9"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-      <c r="K34" s="9"/>
+      <c r="K34" s="6"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
@@ -2262,13 +2302,14 @@
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="19"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34" s="9"/>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="7">
         <v>44555</v>
       </c>
@@ -2278,10 +2319,10 @@
       <c r="E35" s="6"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="6"/>
+      <c r="H35" s="9"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="9"/>
+      <c r="K35" s="6"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -2289,13 +2330,14 @@
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="19"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35" s="9"/>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="7">
         <v>44556</v>
       </c>
@@ -2305,10 +2347,10 @@
       <c r="E36" s="6"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="6"/>
+      <c r="H36" s="9"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-      <c r="K36" s="9"/>
+      <c r="K36" s="6"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -2316,13 +2358,14 @@
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="19"/>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36" s="9"/>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="7">
         <v>44557</v>
       </c>
@@ -2332,10 +2375,10 @@
       <c r="E37" s="6"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="6"/>
+      <c r="H37" s="9"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" s="9"/>
+      <c r="K37" s="6"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -2343,13 +2386,14 @@
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="19"/>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37" s="9"/>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="7">
         <v>44558</v>
       </c>
@@ -2359,10 +2403,10 @@
       <c r="E38" s="6"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="6"/>
+      <c r="H38" s="9"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="9"/>
+      <c r="K38" s="6"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -2370,13 +2414,14 @@
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="19"/>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" s="9"/>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2394,10 +2439,11 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="W39" s="1"/>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="S39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="X39" s="1"/>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2415,10 +2461,11 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="W40" s="1"/>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="S40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="X40" s="1"/>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2436,10 +2483,11 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="W41" s="1"/>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="S41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="X41" s="1"/>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2457,10 +2505,11 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="W42" s="1"/>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="S42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="X42" s="1"/>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2478,10 +2527,11 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="W43" s="1"/>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="S43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2499,10 +2549,11 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="W44" s="1"/>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="S44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="X44" s="1"/>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2520,10 +2571,11 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="W45" s="1"/>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="S45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="X45" s="1"/>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2541,10 +2593,11 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="W46" s="1"/>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="S46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="X46" s="1"/>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2562,10 +2615,11 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="W47" s="1"/>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="S47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="X47" s="1"/>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2583,10 +2637,11 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="W48" s="1"/>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="S48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="X48" s="1"/>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2604,10 +2659,11 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="W49" s="1"/>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="S49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="X49" s="1"/>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2625,10 +2681,11 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="W50" s="1"/>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="S50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="X50" s="1"/>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2646,10 +2703,11 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="W51" s="1"/>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="S51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="X51" s="1"/>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2667,10 +2725,11 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="W52" s="1"/>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="S52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="X52" s="1"/>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2688,10 +2747,11 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="W53" s="1"/>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="S53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="X53" s="1"/>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2709,10 +2769,11 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="W54" s="1"/>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="S54" s="1"/>
+      <c r="V54" s="1"/>
+      <c r="X54" s="1"/>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2730,10 +2791,11 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="W55" s="1"/>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="S55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="X55" s="1"/>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2751,10 +2813,11 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="W56" s="1"/>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="S56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="X56" s="1"/>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2772,10 +2835,11 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="W57" s="1"/>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="S57" s="1"/>
+      <c r="V57" s="1"/>
+      <c r="X57" s="1"/>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2793,10 +2857,11 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="W58" s="1"/>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="S58" s="1"/>
+      <c r="V58" s="1"/>
+      <c r="X58" s="1"/>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2814,10 +2879,11 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="W59" s="1"/>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="S59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="X59" s="1"/>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2835,10 +2901,11 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="W60" s="1"/>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="S60" s="1"/>
+      <c r="V60" s="1"/>
+      <c r="X60" s="1"/>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2856,10 +2923,11 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="W61" s="1"/>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="S61" s="1"/>
+      <c r="V61" s="1"/>
+      <c r="X61" s="1"/>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2877,10 +2945,11 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="W62" s="1"/>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="S62" s="1"/>
+      <c r="V62" s="1"/>
+      <c r="X62" s="1"/>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2898,10 +2967,11 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="W63" s="1"/>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="S63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="X63" s="1"/>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2919,10 +2989,11 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="W64" s="1"/>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="S64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="X64" s="1"/>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2940,10 +3011,11 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="W65" s="1"/>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="S65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="X65" s="1"/>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2961,10 +3033,11 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="W66" s="1"/>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="S66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="X66" s="1"/>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2982,10 +3055,11 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="W67" s="1"/>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="S67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="X67" s="1"/>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3003,10 +3077,11 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="W68" s="1"/>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="S68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="X68" s="1"/>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3024,10 +3099,11 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="W69" s="1"/>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="S69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="X69" s="1"/>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3045,10 +3121,11 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="W70" s="1"/>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="S70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="X70" s="1"/>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3066,10 +3143,11 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="W71" s="1"/>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="S71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="X71" s="1"/>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3087,10 +3165,11 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="W72" s="1"/>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="S72" s="1"/>
+      <c r="V72" s="1"/>
+      <c r="X72" s="1"/>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3108,10 +3187,11 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="W73" s="1"/>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="S73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="X73" s="1"/>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3129,10 +3209,11 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="W74" s="1"/>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="S74" s="1"/>
+      <c r="V74" s="1"/>
+      <c r="X74" s="1"/>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3150,10 +3231,11 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="W75" s="1"/>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="S75" s="1"/>
+      <c r="V75" s="1"/>
+      <c r="X75" s="1"/>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3171,10 +3253,11 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="W76" s="1"/>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="S76" s="1"/>
+      <c r="V76" s="1"/>
+      <c r="X76" s="1"/>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3192,10 +3275,11 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="W77" s="1"/>
-    </row>
-    <row r="78" spans="1:23">
+      <c r="S77" s="1"/>
+      <c r="V77" s="1"/>
+      <c r="X77" s="1"/>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3213,10 +3297,11 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="W78" s="1"/>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="S78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="X78" s="1"/>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3234,10 +3319,11 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="W79" s="1"/>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="S79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="X79" s="1"/>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3255,10 +3341,11 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="W80" s="1"/>
-    </row>
-    <row r="81" spans="1:23">
+      <c r="S80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="X80" s="1"/>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3276,10 +3363,11 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="W81" s="1"/>
-    </row>
-    <row r="82" spans="1:23">
+      <c r="S81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="X81" s="1"/>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3297,10 +3385,11 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
-      <c r="U82" s="1"/>
-      <c r="W82" s="1"/>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="S82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="X82" s="1"/>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3318,10 +3407,11 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
-      <c r="U83" s="1"/>
-      <c r="W83" s="1"/>
-    </row>
-    <row r="84" spans="1:23">
+      <c r="S83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="X83" s="1"/>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3339,10 +3429,11 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
-      <c r="U84" s="1"/>
-      <c r="W84" s="1"/>
-    </row>
-    <row r="85" spans="1:23">
+      <c r="S84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="X84" s="1"/>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3360,10 +3451,11 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
-      <c r="U85" s="1"/>
-      <c r="W85" s="1"/>
-    </row>
-    <row r="86" spans="1:23">
+      <c r="S85" s="1"/>
+      <c r="V85" s="1"/>
+      <c r="X85" s="1"/>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3381,10 +3473,11 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
-      <c r="U86" s="1"/>
-      <c r="W86" s="1"/>
-    </row>
-    <row r="87" spans="1:23">
+      <c r="S86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="X86" s="1"/>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3402,10 +3495,11 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
-      <c r="U87" s="1"/>
-      <c r="W87" s="1"/>
-    </row>
-    <row r="88" spans="1:23">
+      <c r="S87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="X87" s="1"/>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3423,10 +3517,11 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="W88" s="1"/>
-    </row>
-    <row r="89" spans="1:23">
+      <c r="S88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="X88" s="1"/>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3444,10 +3539,11 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="W89" s="1"/>
-    </row>
-    <row r="90" spans="1:23">
+      <c r="S89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="X89" s="1"/>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3465,10 +3561,11 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="W90" s="1"/>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="S90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="X90" s="1"/>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3486,10 +3583,11 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="W91" s="1"/>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="S91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="X91" s="1"/>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3507,10 +3605,11 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="W92" s="1"/>
-    </row>
-    <row r="93" spans="1:23">
+      <c r="S92" s="1"/>
+      <c r="V92" s="1"/>
+      <c r="X92" s="1"/>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3528,10 +3627,11 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
-      <c r="U93" s="1"/>
-      <c r="W93" s="1"/>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="S93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="X93" s="1"/>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3549,10 +3649,11 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="W94" s="1"/>
-    </row>
-    <row r="95" spans="1:23">
+      <c r="S94" s="1"/>
+      <c r="V94" s="1"/>
+      <c r="X94" s="1"/>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3570,10 +3671,11 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
-      <c r="U95" s="1"/>
-      <c r="W95" s="1"/>
-    </row>
-    <row r="96" spans="1:23">
+      <c r="S95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="X95" s="1"/>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3591,10 +3693,11 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
-      <c r="U96" s="1"/>
-      <c r="W96" s="1"/>
-    </row>
-    <row r="97" spans="1:23">
+      <c r="S96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="X96" s="1"/>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3612,10 +3715,11 @@
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="W97" s="1"/>
-    </row>
-    <row r="98" spans="1:23">
+      <c r="S97" s="1"/>
+      <c r="V97" s="1"/>
+      <c r="X97" s="1"/>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3633,10 +3737,11 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
-      <c r="U98" s="1"/>
-      <c r="W98" s="1"/>
-    </row>
-    <row r="99" spans="1:23">
+      <c r="S98" s="1"/>
+      <c r="V98" s="1"/>
+      <c r="X98" s="1"/>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3654,10 +3759,11 @@
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="W99" s="1"/>
-    </row>
-    <row r="100" spans="1:23">
+      <c r="S99" s="1"/>
+      <c r="V99" s="1"/>
+      <c r="X99" s="1"/>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3675,10 +3781,11 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="W100" s="1"/>
-    </row>
-    <row r="101" spans="1:23">
+      <c r="S100" s="1"/>
+      <c r="V100" s="1"/>
+      <c r="X100" s="1"/>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3696,10 +3803,11 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
-      <c r="U101" s="1"/>
-      <c r="W101" s="1"/>
-    </row>
-    <row r="102" spans="1:23">
+      <c r="S101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="X101" s="1"/>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3717,10 +3825,11 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
-      <c r="U102" s="1"/>
-      <c r="W102" s="1"/>
-    </row>
-    <row r="103" spans="1:23">
+      <c r="S102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="X102" s="1"/>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3738,10 +3847,11 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
-      <c r="U103" s="1"/>
-      <c r="W103" s="1"/>
-    </row>
-    <row r="104" spans="1:23">
+      <c r="S103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="X103" s="1"/>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3759,10 +3869,11 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
-      <c r="U104" s="1"/>
-      <c r="W104" s="1"/>
-    </row>
-    <row r="105" spans="1:23">
+      <c r="S104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="X104" s="1"/>
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3780,10 +3891,11 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
-      <c r="U105" s="1"/>
-      <c r="W105" s="1"/>
-    </row>
-    <row r="106" spans="1:23">
+      <c r="S105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="X105" s="1"/>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3801,10 +3913,11 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
-      <c r="U106" s="1"/>
-      <c r="W106" s="1"/>
-    </row>
-    <row r="107" spans="1:23">
+      <c r="S106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="X106" s="1"/>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3822,10 +3935,11 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
-      <c r="U107" s="1"/>
-      <c r="W107" s="1"/>
-    </row>
-    <row r="108" spans="1:23">
+      <c r="S107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="X107" s="1"/>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3843,10 +3957,11 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
-      <c r="U108" s="1"/>
-      <c r="W108" s="1"/>
-    </row>
-    <row r="109" spans="1:23">
+      <c r="S108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="X108" s="1"/>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3864,10 +3979,11 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
-      <c r="U109" s="1"/>
-      <c r="W109" s="1"/>
-    </row>
-    <row r="110" spans="1:23">
+      <c r="S109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="X109" s="1"/>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3885,10 +4001,11 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
-      <c r="U110" s="1"/>
-      <c r="W110" s="1"/>
-    </row>
-    <row r="111" spans="1:23">
+      <c r="S110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="X110" s="1"/>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3906,10 +4023,11 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
-      <c r="U111" s="1"/>
-      <c r="W111" s="1"/>
-    </row>
-    <row r="112" spans="1:23">
+      <c r="S111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="X111" s="1"/>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3927,10 +4045,11 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
-      <c r="U112" s="1"/>
-      <c r="W112" s="1"/>
-    </row>
-    <row r="113" spans="1:23">
+      <c r="S112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="X112" s="1"/>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3948,10 +4067,11 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
-      <c r="U113" s="1"/>
-      <c r="W113" s="1"/>
-    </row>
-    <row r="114" spans="1:23">
+      <c r="S113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="X113" s="1"/>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3969,10 +4089,11 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
-      <c r="U114" s="1"/>
-      <c r="W114" s="1"/>
-    </row>
-    <row r="115" spans="1:23">
+      <c r="S114" s="1"/>
+      <c r="V114" s="1"/>
+      <c r="X114" s="1"/>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3990,10 +4111,11 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
-      <c r="U115" s="1"/>
-      <c r="W115" s="1"/>
-    </row>
-    <row r="116" spans="1:23">
+      <c r="S115" s="1"/>
+      <c r="V115" s="1"/>
+      <c r="X115" s="1"/>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4011,10 +4133,11 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
-      <c r="U116" s="1"/>
-      <c r="W116" s="1"/>
-    </row>
-    <row r="117" spans="1:23">
+      <c r="S116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="X116" s="1"/>
+    </row>
+    <row r="117" spans="1:24">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4032,10 +4155,11 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
-      <c r="U117" s="1"/>
-      <c r="W117" s="1"/>
-    </row>
-    <row r="118" spans="1:23">
+      <c r="S117" s="1"/>
+      <c r="V117" s="1"/>
+      <c r="X117" s="1"/>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4053,10 +4177,11 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
-      <c r="U118" s="1"/>
-      <c r="W118" s="1"/>
-    </row>
-    <row r="119" spans="1:23">
+      <c r="S118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="X118" s="1"/>
+    </row>
+    <row r="119" spans="1:24">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4074,10 +4199,11 @@
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
-      <c r="U119" s="1"/>
-      <c r="W119" s="1"/>
-    </row>
-    <row r="120" spans="1:23">
+      <c r="S119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="X119" s="1"/>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4095,10 +4221,11 @@
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
-      <c r="U120" s="1"/>
-      <c r="W120" s="1"/>
-    </row>
-    <row r="121" spans="1:23">
+      <c r="S120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="X120" s="1"/>
+    </row>
+    <row r="121" spans="1:24">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4116,10 +4243,11 @@
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
-      <c r="U121" s="1"/>
-      <c r="W121" s="1"/>
-    </row>
-    <row r="122" spans="1:23">
+      <c r="S121" s="1"/>
+      <c r="V121" s="1"/>
+      <c r="X121" s="1"/>
+    </row>
+    <row r="122" spans="1:24">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4137,10 +4265,11 @@
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
-      <c r="U122" s="1"/>
-      <c r="W122" s="1"/>
-    </row>
-    <row r="123" spans="1:23">
+      <c r="S122" s="1"/>
+      <c r="V122" s="1"/>
+      <c r="X122" s="1"/>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4158,10 +4287,11 @@
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
-      <c r="U123" s="1"/>
-      <c r="W123" s="1"/>
-    </row>
-    <row r="124" spans="1:23">
+      <c r="S123" s="1"/>
+      <c r="V123" s="1"/>
+      <c r="X123" s="1"/>
+    </row>
+    <row r="124" spans="1:24">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4179,10 +4309,11 @@
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
-      <c r="U124" s="1"/>
-      <c r="W124" s="1"/>
-    </row>
-    <row r="125" spans="1:23">
+      <c r="S124" s="1"/>
+      <c r="V124" s="1"/>
+      <c r="X124" s="1"/>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4200,10 +4331,11 @@
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
-      <c r="U125" s="1"/>
-      <c r="W125" s="1"/>
-    </row>
-    <row r="126" spans="1:23">
+      <c r="S125" s="1"/>
+      <c r="V125" s="1"/>
+      <c r="X125" s="1"/>
+    </row>
+    <row r="126" spans="1:24">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4221,10 +4353,11 @@
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
-      <c r="U126" s="1"/>
-      <c r="W126" s="1"/>
-    </row>
-    <row r="127" spans="1:23">
+      <c r="S126" s="1"/>
+      <c r="V126" s="1"/>
+      <c r="X126" s="1"/>
+    </row>
+    <row r="127" spans="1:24">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4242,10 +4375,11 @@
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
-      <c r="U127" s="1"/>
-      <c r="W127" s="1"/>
-    </row>
-    <row r="128" spans="1:23">
+      <c r="S127" s="1"/>
+      <c r="V127" s="1"/>
+      <c r="X127" s="1"/>
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4263,10 +4397,11 @@
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
-      <c r="U128" s="1"/>
-      <c r="W128" s="1"/>
-    </row>
-    <row r="129" spans="1:23">
+      <c r="S128" s="1"/>
+      <c r="V128" s="1"/>
+      <c r="X128" s="1"/>
+    </row>
+    <row r="129" spans="1:24">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4284,10 +4419,11 @@
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
-      <c r="U129" s="1"/>
-      <c r="W129" s="1"/>
-    </row>
-    <row r="130" spans="1:23">
+      <c r="S129" s="1"/>
+      <c r="V129" s="1"/>
+      <c r="X129" s="1"/>
+    </row>
+    <row r="130" spans="1:24">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4305,10 +4441,11 @@
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
-      <c r="U130" s="1"/>
-      <c r="W130" s="1"/>
-    </row>
-    <row r="131" spans="1:23">
+      <c r="S130" s="1"/>
+      <c r="V130" s="1"/>
+      <c r="X130" s="1"/>
+    </row>
+    <row r="131" spans="1:24">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4326,10 +4463,11 @@
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
-      <c r="U131" s="1"/>
-      <c r="W131" s="1"/>
-    </row>
-    <row r="132" spans="1:23">
+      <c r="S131" s="1"/>
+      <c r="V131" s="1"/>
+      <c r="X131" s="1"/>
+    </row>
+    <row r="132" spans="1:24">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4347,10 +4485,11 @@
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
-      <c r="U132" s="1"/>
-      <c r="W132" s="1"/>
-    </row>
-    <row r="133" spans="1:23">
+      <c r="S132" s="1"/>
+      <c r="V132" s="1"/>
+      <c r="X132" s="1"/>
+    </row>
+    <row r="133" spans="1:24">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4368,10 +4507,11 @@
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
-      <c r="U133" s="1"/>
-      <c r="W133" s="1"/>
-    </row>
-    <row r="134" spans="1:23">
+      <c r="S133" s="1"/>
+      <c r="V133" s="1"/>
+      <c r="X133" s="1"/>
+    </row>
+    <row r="134" spans="1:24">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4389,10 +4529,11 @@
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
-      <c r="U134" s="1"/>
-      <c r="W134" s="1"/>
-    </row>
-    <row r="135" spans="1:23">
+      <c r="S134" s="1"/>
+      <c r="V134" s="1"/>
+      <c r="X134" s="1"/>
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4410,10 +4551,11 @@
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
-      <c r="U135" s="1"/>
-      <c r="W135" s="1"/>
-    </row>
-    <row r="136" spans="1:23">
+      <c r="S135" s="1"/>
+      <c r="V135" s="1"/>
+      <c r="X135" s="1"/>
+    </row>
+    <row r="136" spans="1:24">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4431,10 +4573,11 @@
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
-      <c r="U136" s="1"/>
-      <c r="W136" s="1"/>
-    </row>
-    <row r="137" spans="1:23">
+      <c r="S136" s="1"/>
+      <c r="V136" s="1"/>
+      <c r="X136" s="1"/>
+    </row>
+    <row r="137" spans="1:24">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4452,10 +4595,11 @@
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
-      <c r="U137" s="1"/>
-      <c r="W137" s="1"/>
-    </row>
-    <row r="138" spans="1:23">
+      <c r="S137" s="1"/>
+      <c r="V137" s="1"/>
+      <c r="X137" s="1"/>
+    </row>
+    <row r="138" spans="1:24">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4473,10 +4617,11 @@
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
-      <c r="U138" s="1"/>
-      <c r="W138" s="1"/>
-    </row>
-    <row r="139" spans="1:23">
+      <c r="S138" s="1"/>
+      <c r="V138" s="1"/>
+      <c r="X138" s="1"/>
+    </row>
+    <row r="139" spans="1:24">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4494,10 +4639,11 @@
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
-      <c r="U139" s="1"/>
-      <c r="W139" s="1"/>
-    </row>
-    <row r="140" spans="1:23">
+      <c r="S139" s="1"/>
+      <c r="V139" s="1"/>
+      <c r="X139" s="1"/>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4515,10 +4661,11 @@
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
-      <c r="U140" s="1"/>
-      <c r="W140" s="1"/>
-    </row>
-    <row r="141" spans="1:23">
+      <c r="S140" s="1"/>
+      <c r="V140" s="1"/>
+      <c r="X140" s="1"/>
+    </row>
+    <row r="141" spans="1:24">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4536,10 +4683,11 @@
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
-      <c r="U141" s="1"/>
-      <c r="W141" s="1"/>
-    </row>
-    <row r="142" spans="1:23">
+      <c r="S141" s="1"/>
+      <c r="V141" s="1"/>
+      <c r="X141" s="1"/>
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4557,10 +4705,11 @@
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
-      <c r="U142" s="1"/>
-      <c r="W142" s="1"/>
-    </row>
-    <row r="143" spans="1:23">
+      <c r="S142" s="1"/>
+      <c r="V142" s="1"/>
+      <c r="X142" s="1"/>
+    </row>
+    <row r="143" spans="1:24">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4578,10 +4727,11 @@
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
-      <c r="U143" s="1"/>
-      <c r="W143" s="1"/>
-    </row>
-    <row r="144" spans="1:23">
+      <c r="S143" s="1"/>
+      <c r="V143" s="1"/>
+      <c r="X143" s="1"/>
+    </row>
+    <row r="144" spans="1:24">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4599,10 +4749,11 @@
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
-      <c r="U144" s="1"/>
-      <c r="W144" s="1"/>
-    </row>
-    <row r="145" spans="1:23">
+      <c r="S144" s="1"/>
+      <c r="V144" s="1"/>
+      <c r="X144" s="1"/>
+    </row>
+    <row r="145" spans="1:24">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4620,10 +4771,11 @@
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
-      <c r="U145" s="1"/>
-      <c r="W145" s="1"/>
-    </row>
-    <row r="146" spans="1:23">
+      <c r="S145" s="1"/>
+      <c r="V145" s="1"/>
+      <c r="X145" s="1"/>
+    </row>
+    <row r="146" spans="1:24">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4641,10 +4793,11 @@
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
-      <c r="U146" s="1"/>
-      <c r="W146" s="1"/>
-    </row>
-    <row r="147" spans="1:23">
+      <c r="S146" s="1"/>
+      <c r="V146" s="1"/>
+      <c r="X146" s="1"/>
+    </row>
+    <row r="147" spans="1:24">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4662,10 +4815,11 @@
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
-      <c r="U147" s="1"/>
-      <c r="W147" s="1"/>
-    </row>
-    <row r="148" spans="1:23">
+      <c r="S147" s="1"/>
+      <c r="V147" s="1"/>
+      <c r="X147" s="1"/>
+    </row>
+    <row r="148" spans="1:24">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4683,10 +4837,11 @@
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
-      <c r="U148" s="1"/>
-      <c r="W148" s="1"/>
-    </row>
-    <row r="149" spans="1:23">
+      <c r="S148" s="1"/>
+      <c r="V148" s="1"/>
+      <c r="X148" s="1"/>
+    </row>
+    <row r="149" spans="1:24">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4704,10 +4859,11 @@
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
-      <c r="U149" s="1"/>
-      <c r="W149" s="1"/>
-    </row>
-    <row r="150" spans="1:23">
+      <c r="S149" s="1"/>
+      <c r="V149" s="1"/>
+      <c r="X149" s="1"/>
+    </row>
+    <row r="150" spans="1:24">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4725,10 +4881,11 @@
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
-      <c r="U150" s="1"/>
-      <c r="W150" s="1"/>
-    </row>
-    <row r="151" spans="1:23">
+      <c r="S150" s="1"/>
+      <c r="V150" s="1"/>
+      <c r="X150" s="1"/>
+    </row>
+    <row r="151" spans="1:24">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4746,10 +4903,11 @@
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
-      <c r="U151" s="1"/>
-      <c r="W151" s="1"/>
-    </row>
-    <row r="152" spans="1:23">
+      <c r="S151" s="1"/>
+      <c r="V151" s="1"/>
+      <c r="X151" s="1"/>
+    </row>
+    <row r="152" spans="1:24">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4767,10 +4925,11 @@
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
-      <c r="U152" s="1"/>
-      <c r="W152" s="1"/>
-    </row>
-    <row r="153" spans="1:23">
+      <c r="S152" s="1"/>
+      <c r="V152" s="1"/>
+      <c r="X152" s="1"/>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4788,10 +4947,11 @@
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
-      <c r="U153" s="1"/>
-      <c r="W153" s="1"/>
-    </row>
-    <row r="154" spans="1:23">
+      <c r="S153" s="1"/>
+      <c r="V153" s="1"/>
+      <c r="X153" s="1"/>
+    </row>
+    <row r="154" spans="1:24">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4809,10 +4969,11 @@
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
-      <c r="U154" s="1"/>
-      <c r="W154" s="1"/>
-    </row>
-    <row r="155" spans="1:23">
+      <c r="S154" s="1"/>
+      <c r="V154" s="1"/>
+      <c r="X154" s="1"/>
+    </row>
+    <row r="155" spans="1:24">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4830,10 +4991,11 @@
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
-      <c r="U155" s="1"/>
-      <c r="W155" s="1"/>
-    </row>
-    <row r="156" spans="1:23">
+      <c r="S155" s="1"/>
+      <c r="V155" s="1"/>
+      <c r="X155" s="1"/>
+    </row>
+    <row r="156" spans="1:24">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -4851,10 +5013,11 @@
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
-      <c r="U156" s="1"/>
-      <c r="W156" s="1"/>
-    </row>
-    <row r="157" spans="1:23">
+      <c r="S156" s="1"/>
+      <c r="V156" s="1"/>
+      <c r="X156" s="1"/>
+    </row>
+    <row r="157" spans="1:24">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -4872,10 +5035,11 @@
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
-      <c r="U157" s="1"/>
-      <c r="W157" s="1"/>
-    </row>
-    <row r="158" spans="1:23">
+      <c r="S157" s="1"/>
+      <c r="V157" s="1"/>
+      <c r="X157" s="1"/>
+    </row>
+    <row r="158" spans="1:24">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4893,10 +5057,11 @@
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
-      <c r="U158" s="1"/>
-      <c r="W158" s="1"/>
-    </row>
-    <row r="159" spans="1:23">
+      <c r="S158" s="1"/>
+      <c r="V158" s="1"/>
+      <c r="X158" s="1"/>
+    </row>
+    <row r="159" spans="1:24">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4914,10 +5079,11 @@
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
-      <c r="U159" s="1"/>
-      <c r="W159" s="1"/>
-    </row>
-    <row r="160" spans="1:23">
+      <c r="S159" s="1"/>
+      <c r="V159" s="1"/>
+      <c r="X159" s="1"/>
+    </row>
+    <row r="160" spans="1:24">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4935,10 +5101,11 @@
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
-      <c r="U160" s="1"/>
-      <c r="W160" s="1"/>
-    </row>
-    <row r="161" spans="1:23">
+      <c r="S160" s="1"/>
+      <c r="V160" s="1"/>
+      <c r="X160" s="1"/>
+    </row>
+    <row r="161" spans="1:24">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4956,10 +5123,11 @@
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
-      <c r="U161" s="1"/>
-      <c r="W161" s="1"/>
-    </row>
-    <row r="162" spans="1:23">
+      <c r="S161" s="1"/>
+      <c r="V161" s="1"/>
+      <c r="X161" s="1"/>
+    </row>
+    <row r="162" spans="1:24">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4977,10 +5145,11 @@
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
-      <c r="U162" s="1"/>
-      <c r="W162" s="1"/>
-    </row>
-    <row r="163" spans="1:23">
+      <c r="S162" s="1"/>
+      <c r="V162" s="1"/>
+      <c r="X162" s="1"/>
+    </row>
+    <row r="163" spans="1:24">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4998,10 +5167,11 @@
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
-      <c r="U163" s="1"/>
-      <c r="W163" s="1"/>
-    </row>
-    <row r="164" spans="1:23">
+      <c r="S163" s="1"/>
+      <c r="V163" s="1"/>
+      <c r="X163" s="1"/>
+    </row>
+    <row r="164" spans="1:24">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5019,10 +5189,11 @@
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
-      <c r="U164" s="1"/>
-      <c r="W164" s="1"/>
-    </row>
-    <row r="165" spans="1:23">
+      <c r="S164" s="1"/>
+      <c r="V164" s="1"/>
+      <c r="X164" s="1"/>
+    </row>
+    <row r="165" spans="1:24">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5040,10 +5211,11 @@
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
-      <c r="U165" s="1"/>
-      <c r="W165" s="1"/>
-    </row>
-    <row r="166" spans="1:23">
+      <c r="S165" s="1"/>
+      <c r="V165" s="1"/>
+      <c r="X165" s="1"/>
+    </row>
+    <row r="166" spans="1:24">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5061,10 +5233,11 @@
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
-      <c r="U166" s="1"/>
-      <c r="W166" s="1"/>
-    </row>
-    <row r="167" spans="1:23">
+      <c r="S166" s="1"/>
+      <c r="V166" s="1"/>
+      <c r="X166" s="1"/>
+    </row>
+    <row r="167" spans="1:24">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5082,10 +5255,11 @@
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
-      <c r="U167" s="1"/>
-      <c r="W167" s="1"/>
-    </row>
-    <row r="168" spans="1:23">
+      <c r="S167" s="1"/>
+      <c r="V167" s="1"/>
+      <c r="X167" s="1"/>
+    </row>
+    <row r="168" spans="1:24">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5103,10 +5277,11 @@
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
-      <c r="U168" s="1"/>
-      <c r="W168" s="1"/>
-    </row>
-    <row r="169" spans="1:23">
+      <c r="S168" s="1"/>
+      <c r="V168" s="1"/>
+      <c r="X168" s="1"/>
+    </row>
+    <row r="169" spans="1:24">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5124,10 +5299,11 @@
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
-      <c r="U169" s="1"/>
-      <c r="W169" s="1"/>
-    </row>
-    <row r="170" spans="1:23">
+      <c r="S169" s="1"/>
+      <c r="V169" s="1"/>
+      <c r="X169" s="1"/>
+    </row>
+    <row r="170" spans="1:24">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5145,10 +5321,11 @@
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
-      <c r="U170" s="1"/>
-      <c r="W170" s="1"/>
-    </row>
-    <row r="171" spans="1:23">
+      <c r="S170" s="1"/>
+      <c r="V170" s="1"/>
+      <c r="X170" s="1"/>
+    </row>
+    <row r="171" spans="1:24">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5166,10 +5343,11 @@
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
-      <c r="U171" s="1"/>
-      <c r="W171" s="1"/>
-    </row>
-    <row r="172" spans="1:23">
+      <c r="S171" s="1"/>
+      <c r="V171" s="1"/>
+      <c r="X171" s="1"/>
+    </row>
+    <row r="172" spans="1:24">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5187,10 +5365,11 @@
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
-      <c r="U172" s="1"/>
-      <c r="W172" s="1"/>
-    </row>
-    <row r="173" spans="1:23">
+      <c r="S172" s="1"/>
+      <c r="V172" s="1"/>
+      <c r="X172" s="1"/>
+    </row>
+    <row r="173" spans="1:24">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5208,10 +5387,11 @@
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
-      <c r="U173" s="1"/>
-      <c r="W173" s="1"/>
-    </row>
-    <row r="174" spans="1:23">
+      <c r="S173" s="1"/>
+      <c r="V173" s="1"/>
+      <c r="X173" s="1"/>
+    </row>
+    <row r="174" spans="1:24">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5229,10 +5409,11 @@
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
-      <c r="U174" s="1"/>
-      <c r="W174" s="1"/>
-    </row>
-    <row r="175" spans="1:23">
+      <c r="S174" s="1"/>
+      <c r="V174" s="1"/>
+      <c r="X174" s="1"/>
+    </row>
+    <row r="175" spans="1:24">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5250,10 +5431,11 @@
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
-      <c r="U175" s="1"/>
-      <c r="W175" s="1"/>
-    </row>
-    <row r="176" spans="1:23">
+      <c r="S175" s="1"/>
+      <c r="V175" s="1"/>
+      <c r="X175" s="1"/>
+    </row>
+    <row r="176" spans="1:24">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5271,10 +5453,11 @@
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
-      <c r="U176" s="1"/>
-      <c r="W176" s="1"/>
-    </row>
-    <row r="177" spans="1:23">
+      <c r="S176" s="1"/>
+      <c r="V176" s="1"/>
+      <c r="X176" s="1"/>
+    </row>
+    <row r="177" spans="1:24">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5292,10 +5475,11 @@
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
-      <c r="U177" s="1"/>
-      <c r="W177" s="1"/>
-    </row>
-    <row r="178" spans="1:23">
+      <c r="S177" s="1"/>
+      <c r="V177" s="1"/>
+      <c r="X177" s="1"/>
+    </row>
+    <row r="178" spans="1:24">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5313,10 +5497,11 @@
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
-      <c r="U178" s="1"/>
-      <c r="W178" s="1"/>
-    </row>
-    <row r="179" spans="1:23">
+      <c r="S178" s="1"/>
+      <c r="V178" s="1"/>
+      <c r="X178" s="1"/>
+    </row>
+    <row r="179" spans="1:24">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5334,10 +5519,11 @@
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
-      <c r="U179" s="1"/>
-      <c r="W179" s="1"/>
-    </row>
-    <row r="180" spans="1:23">
+      <c r="S179" s="1"/>
+      <c r="V179" s="1"/>
+      <c r="X179" s="1"/>
+    </row>
+    <row r="180" spans="1:24">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5355,10 +5541,11 @@
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
-      <c r="U180" s="1"/>
-      <c r="W180" s="1"/>
-    </row>
-    <row r="181" spans="1:23">
+      <c r="S180" s="1"/>
+      <c r="V180" s="1"/>
+      <c r="X180" s="1"/>
+    </row>
+    <row r="181" spans="1:24">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5376,10 +5563,11 @@
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
-      <c r="U181" s="1"/>
-      <c r="W181" s="1"/>
-    </row>
-    <row r="182" spans="1:23">
+      <c r="S181" s="1"/>
+      <c r="V181" s="1"/>
+      <c r="X181" s="1"/>
+    </row>
+    <row r="182" spans="1:24">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5397,10 +5585,11 @@
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
-      <c r="U182" s="1"/>
-      <c r="W182" s="1"/>
-    </row>
-    <row r="183" spans="1:23">
+      <c r="S182" s="1"/>
+      <c r="V182" s="1"/>
+      <c r="X182" s="1"/>
+    </row>
+    <row r="183" spans="1:24">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5418,10 +5607,11 @@
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
-      <c r="U183" s="1"/>
-      <c r="W183" s="1"/>
-    </row>
-    <row r="184" spans="1:23">
+      <c r="S183" s="1"/>
+      <c r="V183" s="1"/>
+      <c r="X183" s="1"/>
+    </row>
+    <row r="184" spans="1:24">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5439,10 +5629,11 @@
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
-      <c r="U184" s="1"/>
-      <c r="W184" s="1"/>
-    </row>
-    <row r="185" spans="1:23">
+      <c r="S184" s="1"/>
+      <c r="V184" s="1"/>
+      <c r="X184" s="1"/>
+    </row>
+    <row r="185" spans="1:24">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5460,10 +5651,11 @@
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
-      <c r="U185" s="1"/>
-      <c r="W185" s="1"/>
-    </row>
-    <row r="186" spans="1:23">
+      <c r="S185" s="1"/>
+      <c r="V185" s="1"/>
+      <c r="X185" s="1"/>
+    </row>
+    <row r="186" spans="1:24">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5481,10 +5673,11 @@
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
-      <c r="U186" s="1"/>
-      <c r="W186" s="1"/>
-    </row>
-    <row r="187" spans="1:23">
+      <c r="S186" s="1"/>
+      <c r="V186" s="1"/>
+      <c r="X186" s="1"/>
+    </row>
+    <row r="187" spans="1:24">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5502,10 +5695,11 @@
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
-      <c r="U187" s="1"/>
-      <c r="W187" s="1"/>
-    </row>
-    <row r="188" spans="1:23">
+      <c r="S187" s="1"/>
+      <c r="V187" s="1"/>
+      <c r="X187" s="1"/>
+    </row>
+    <row r="188" spans="1:24">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5523,10 +5717,11 @@
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
-      <c r="U188" s="1"/>
-      <c r="W188" s="1"/>
-    </row>
-    <row r="189" spans="1:23">
+      <c r="S188" s="1"/>
+      <c r="V188" s="1"/>
+      <c r="X188" s="1"/>
+    </row>
+    <row r="189" spans="1:24">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5544,10 +5739,11 @@
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
-      <c r="U189" s="1"/>
-      <c r="W189" s="1"/>
-    </row>
-    <row r="190" spans="1:23">
+      <c r="S189" s="1"/>
+      <c r="V189" s="1"/>
+      <c r="X189" s="1"/>
+    </row>
+    <row r="190" spans="1:24">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5565,10 +5761,11 @@
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
-      <c r="U190" s="1"/>
-      <c r="W190" s="1"/>
-    </row>
-    <row r="191" spans="1:23">
+      <c r="S190" s="1"/>
+      <c r="V190" s="1"/>
+      <c r="X190" s="1"/>
+    </row>
+    <row r="191" spans="1:24">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5586,10 +5783,11 @@
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
-      <c r="U191" s="1"/>
-      <c r="W191" s="1"/>
-    </row>
-    <row r="192" spans="1:23">
+      <c r="S191" s="1"/>
+      <c r="V191" s="1"/>
+      <c r="X191" s="1"/>
+    </row>
+    <row r="192" spans="1:24">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5607,10 +5805,11 @@
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
-      <c r="U192" s="1"/>
-      <c r="W192" s="1"/>
-    </row>
-    <row r="193" spans="1:23">
+      <c r="S192" s="1"/>
+      <c r="V192" s="1"/>
+      <c r="X192" s="1"/>
+    </row>
+    <row r="193" spans="1:24">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5628,10 +5827,11 @@
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
-      <c r="U193" s="1"/>
-      <c r="W193" s="1"/>
-    </row>
-    <row r="194" spans="1:23">
+      <c r="S193" s="1"/>
+      <c r="V193" s="1"/>
+      <c r="X193" s="1"/>
+    </row>
+    <row r="194" spans="1:24">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5649,10 +5849,11 @@
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
-      <c r="U194" s="1"/>
-      <c r="W194" s="1"/>
-    </row>
-    <row r="195" spans="1:23">
+      <c r="S194" s="1"/>
+      <c r="V194" s="1"/>
+      <c r="X194" s="1"/>
+    </row>
+    <row r="195" spans="1:24">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5670,10 +5871,11 @@
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
-      <c r="U195" s="1"/>
-      <c r="W195" s="1"/>
-    </row>
-    <row r="196" spans="1:23">
+      <c r="S195" s="1"/>
+      <c r="V195" s="1"/>
+      <c r="X195" s="1"/>
+    </row>
+    <row r="196" spans="1:24">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5691,10 +5893,11 @@
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
-      <c r="U196" s="1"/>
-      <c r="W196" s="1"/>
-    </row>
-    <row r="197" spans="1:23">
+      <c r="S196" s="1"/>
+      <c r="V196" s="1"/>
+      <c r="X196" s="1"/>
+    </row>
+    <row r="197" spans="1:24">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5712,10 +5915,11 @@
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
-      <c r="U197" s="1"/>
-      <c r="W197" s="1"/>
-    </row>
-    <row r="198" spans="1:23">
+      <c r="S197" s="1"/>
+      <c r="V197" s="1"/>
+      <c r="X197" s="1"/>
+    </row>
+    <row r="198" spans="1:24">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5733,10 +5937,11 @@
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
-      <c r="U198" s="1"/>
-      <c r="W198" s="1"/>
-    </row>
-    <row r="199" spans="1:23">
+      <c r="S198" s="1"/>
+      <c r="V198" s="1"/>
+      <c r="X198" s="1"/>
+    </row>
+    <row r="199" spans="1:24">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5754,10 +5959,11 @@
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
-      <c r="U199" s="1"/>
-      <c r="W199" s="1"/>
-    </row>
-    <row r="200" spans="1:23">
+      <c r="S199" s="1"/>
+      <c r="V199" s="1"/>
+      <c r="X199" s="1"/>
+    </row>
+    <row r="200" spans="1:24">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -5775,10 +5981,11 @@
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
-      <c r="U200" s="1"/>
-      <c r="W200" s="1"/>
-    </row>
-    <row r="201" spans="1:23">
+      <c r="S200" s="1"/>
+      <c r="V200" s="1"/>
+      <c r="X200" s="1"/>
+    </row>
+    <row r="201" spans="1:24">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -5796,10 +6003,11 @@
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
-      <c r="U201" s="1"/>
-      <c r="W201" s="1"/>
-    </row>
-    <row r="202" spans="1:23">
+      <c r="S201" s="1"/>
+      <c r="V201" s="1"/>
+      <c r="X201" s="1"/>
+    </row>
+    <row r="202" spans="1:24">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -5817,10 +6025,11 @@
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
-      <c r="U202" s="1"/>
-      <c r="W202" s="1"/>
-    </row>
-    <row r="203" spans="1:23">
+      <c r="S202" s="1"/>
+      <c r="V202" s="1"/>
+      <c r="X202" s="1"/>
+    </row>
+    <row r="203" spans="1:24">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -5838,10 +6047,11 @@
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
-      <c r="U203" s="1"/>
-      <c r="W203" s="1"/>
-    </row>
-    <row r="204" spans="1:23">
+      <c r="S203" s="1"/>
+      <c r="V203" s="1"/>
+      <c r="X203" s="1"/>
+    </row>
+    <row r="204" spans="1:24">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -5859,10 +6069,11 @@
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
-      <c r="U204" s="1"/>
-      <c r="W204" s="1"/>
-    </row>
-    <row r="205" spans="1:23">
+      <c r="S204" s="1"/>
+      <c r="V204" s="1"/>
+      <c r="X204" s="1"/>
+    </row>
+    <row r="205" spans="1:24">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -5880,10 +6091,11 @@
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
       <c r="R205" s="1"/>
-      <c r="U205" s="1"/>
-      <c r="W205" s="1"/>
-    </row>
-    <row r="206" spans="1:23">
+      <c r="S205" s="1"/>
+      <c r="V205" s="1"/>
+      <c r="X205" s="1"/>
+    </row>
+    <row r="206" spans="1:24">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -5901,10 +6113,11 @@
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
-      <c r="U206" s="1"/>
-      <c r="W206" s="1"/>
-    </row>
-    <row r="207" spans="1:23">
+      <c r="S206" s="1"/>
+      <c r="V206" s="1"/>
+      <c r="X206" s="1"/>
+    </row>
+    <row r="207" spans="1:24">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -5922,10 +6135,11 @@
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
-      <c r="U207" s="1"/>
-      <c r="W207" s="1"/>
-    </row>
-    <row r="208" spans="1:23">
+      <c r="S207" s="1"/>
+      <c r="V207" s="1"/>
+      <c r="X207" s="1"/>
+    </row>
+    <row r="208" spans="1:24">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -5943,10 +6157,11 @@
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
-      <c r="U208" s="1"/>
-      <c r="W208" s="1"/>
-    </row>
-    <row r="209" spans="1:23">
+      <c r="S208" s="1"/>
+      <c r="V208" s="1"/>
+      <c r="X208" s="1"/>
+    </row>
+    <row r="209" spans="1:24">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -5964,10 +6179,11 @@
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
       <c r="R209" s="1"/>
-      <c r="U209" s="1"/>
-      <c r="W209" s="1"/>
-    </row>
-    <row r="210" spans="1:23">
+      <c r="S209" s="1"/>
+      <c r="V209" s="1"/>
+      <c r="X209" s="1"/>
+    </row>
+    <row r="210" spans="1:24">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -5985,10 +6201,11 @@
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
       <c r="R210" s="1"/>
-      <c r="U210" s="1"/>
-      <c r="W210" s="1"/>
-    </row>
-    <row r="211" spans="1:23">
+      <c r="S210" s="1"/>
+      <c r="V210" s="1"/>
+      <c r="X210" s="1"/>
+    </row>
+    <row r="211" spans="1:24">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6006,10 +6223,11 @@
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
       <c r="R211" s="1"/>
-      <c r="U211" s="1"/>
-      <c r="W211" s="1"/>
-    </row>
-    <row r="212" spans="1:23">
+      <c r="S211" s="1"/>
+      <c r="V211" s="1"/>
+      <c r="X211" s="1"/>
+    </row>
+    <row r="212" spans="1:24">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6027,10 +6245,11 @@
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
-      <c r="U212" s="1"/>
-      <c r="W212" s="1"/>
-    </row>
-    <row r="213" spans="1:23">
+      <c r="S212" s="1"/>
+      <c r="V212" s="1"/>
+      <c r="X212" s="1"/>
+    </row>
+    <row r="213" spans="1:24">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6048,10 +6267,11 @@
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
-      <c r="U213" s="1"/>
-      <c r="W213" s="1"/>
-    </row>
-    <row r="214" spans="1:23">
+      <c r="S213" s="1"/>
+      <c r="V213" s="1"/>
+      <c r="X213" s="1"/>
+    </row>
+    <row r="214" spans="1:24">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6069,10 +6289,11 @@
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
       <c r="R214" s="1"/>
-      <c r="U214" s="1"/>
-      <c r="W214" s="1"/>
-    </row>
-    <row r="215" spans="1:23">
+      <c r="S214" s="1"/>
+      <c r="V214" s="1"/>
+      <c r="X214" s="1"/>
+    </row>
+    <row r="215" spans="1:24">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6090,10 +6311,11 @@
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
       <c r="R215" s="1"/>
-      <c r="U215" s="1"/>
-      <c r="W215" s="1"/>
-    </row>
-    <row r="216" spans="1:23">
+      <c r="S215" s="1"/>
+      <c r="V215" s="1"/>
+      <c r="X215" s="1"/>
+    </row>
+    <row r="216" spans="1:24">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6111,10 +6333,11 @@
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
-      <c r="U216" s="1"/>
-      <c r="W216" s="1"/>
-    </row>
-    <row r="217" spans="1:23">
+      <c r="S216" s="1"/>
+      <c r="V216" s="1"/>
+      <c r="X216" s="1"/>
+    </row>
+    <row r="217" spans="1:24">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6132,10 +6355,11 @@
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
       <c r="R217" s="1"/>
-      <c r="U217" s="1"/>
-      <c r="W217" s="1"/>
-    </row>
-    <row r="218" spans="1:23">
+      <c r="S217" s="1"/>
+      <c r="V217" s="1"/>
+      <c r="X217" s="1"/>
+    </row>
+    <row r="218" spans="1:24">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6153,10 +6377,11 @@
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
       <c r="R218" s="1"/>
-      <c r="U218" s="1"/>
-      <c r="W218" s="1"/>
-    </row>
-    <row r="219" spans="1:23">
+      <c r="S218" s="1"/>
+      <c r="V218" s="1"/>
+      <c r="X218" s="1"/>
+    </row>
+    <row r="219" spans="1:24">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6174,10 +6399,11 @@
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
       <c r="R219" s="1"/>
-      <c r="U219" s="1"/>
-      <c r="W219" s="1"/>
-    </row>
-    <row r="220" spans="1:23">
+      <c r="S219" s="1"/>
+      <c r="V219" s="1"/>
+      <c r="X219" s="1"/>
+    </row>
+    <row r="220" spans="1:24">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6195,10 +6421,11 @@
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
       <c r="R220" s="1"/>
-      <c r="U220" s="1"/>
-      <c r="W220" s="1"/>
-    </row>
-    <row r="221" spans="1:23">
+      <c r="S220" s="1"/>
+      <c r="V220" s="1"/>
+      <c r="X220" s="1"/>
+    </row>
+    <row r="221" spans="1:24">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6216,10 +6443,11 @@
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
       <c r="R221" s="1"/>
-      <c r="U221" s="1"/>
-      <c r="W221" s="1"/>
-    </row>
-    <row r="222" spans="1:23">
+      <c r="S221" s="1"/>
+      <c r="V221" s="1"/>
+      <c r="X221" s="1"/>
+    </row>
+    <row r="222" spans="1:24">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6237,10 +6465,11 @@
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
-      <c r="U222" s="1"/>
-      <c r="W222" s="1"/>
-    </row>
-    <row r="223" spans="1:23">
+      <c r="S222" s="1"/>
+      <c r="V222" s="1"/>
+      <c r="X222" s="1"/>
+    </row>
+    <row r="223" spans="1:24">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6258,10 +6487,11 @@
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
       <c r="R223" s="1"/>
-      <c r="U223" s="1"/>
-      <c r="W223" s="1"/>
-    </row>
-    <row r="224" spans="1:23">
+      <c r="S223" s="1"/>
+      <c r="V223" s="1"/>
+      <c r="X223" s="1"/>
+    </row>
+    <row r="224" spans="1:24">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6279,10 +6509,11 @@
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
       <c r="R224" s="1"/>
-      <c r="U224" s="1"/>
-      <c r="W224" s="1"/>
-    </row>
-    <row r="225" spans="1:23">
+      <c r="S224" s="1"/>
+      <c r="V224" s="1"/>
+      <c r="X224" s="1"/>
+    </row>
+    <row r="225" spans="1:24">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6300,10 +6531,11 @@
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
       <c r="R225" s="1"/>
-      <c r="U225" s="1"/>
-      <c r="W225" s="1"/>
-    </row>
-    <row r="226" spans="1:23">
+      <c r="S225" s="1"/>
+      <c r="V225" s="1"/>
+      <c r="X225" s="1"/>
+    </row>
+    <row r="226" spans="1:24">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6321,10 +6553,11 @@
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
       <c r="R226" s="1"/>
-      <c r="U226" s="1"/>
-      <c r="W226" s="1"/>
-    </row>
-    <row r="227" spans="1:23">
+      <c r="S226" s="1"/>
+      <c r="V226" s="1"/>
+      <c r="X226" s="1"/>
+    </row>
+    <row r="227" spans="1:24">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6342,10 +6575,11 @@
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
       <c r="R227" s="1"/>
-      <c r="U227" s="1"/>
-      <c r="W227" s="1"/>
-    </row>
-    <row r="228" spans="1:23">
+      <c r="S227" s="1"/>
+      <c r="V227" s="1"/>
+      <c r="X227" s="1"/>
+    </row>
+    <row r="228" spans="1:24">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6363,10 +6597,11 @@
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
       <c r="R228" s="1"/>
-      <c r="U228" s="1"/>
-      <c r="W228" s="1"/>
-    </row>
-    <row r="229" spans="1:23">
+      <c r="S228" s="1"/>
+      <c r="V228" s="1"/>
+      <c r="X228" s="1"/>
+    </row>
+    <row r="229" spans="1:24">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6384,10 +6619,11 @@
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
       <c r="R229" s="1"/>
-      <c r="U229" s="1"/>
-      <c r="W229" s="1"/>
-    </row>
-    <row r="230" spans="1:23">
+      <c r="S229" s="1"/>
+      <c r="V229" s="1"/>
+      <c r="X229" s="1"/>
+    </row>
+    <row r="230" spans="1:24">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -6405,10 +6641,11 @@
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
       <c r="R230" s="1"/>
-      <c r="U230" s="1"/>
-      <c r="W230" s="1"/>
-    </row>
-    <row r="231" spans="1:23">
+      <c r="S230" s="1"/>
+      <c r="V230" s="1"/>
+      <c r="X230" s="1"/>
+    </row>
+    <row r="231" spans="1:24">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -6426,10 +6663,11 @@
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
       <c r="R231" s="1"/>
-      <c r="U231" s="1"/>
-      <c r="W231" s="1"/>
-    </row>
-    <row r="232" spans="1:23">
+      <c r="S231" s="1"/>
+      <c r="V231" s="1"/>
+      <c r="X231" s="1"/>
+    </row>
+    <row r="232" spans="1:24">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -6447,10 +6685,11 @@
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
-      <c r="U232" s="1"/>
-      <c r="W232" s="1"/>
-    </row>
-    <row r="233" spans="1:23">
+      <c r="S232" s="1"/>
+      <c r="V232" s="1"/>
+      <c r="X232" s="1"/>
+    </row>
+    <row r="233" spans="1:24">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -6468,10 +6707,11 @@
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
       <c r="R233" s="1"/>
-      <c r="U233" s="1"/>
-      <c r="W233" s="1"/>
-    </row>
-    <row r="234" spans="1:23">
+      <c r="S233" s="1"/>
+      <c r="V233" s="1"/>
+      <c r="X233" s="1"/>
+    </row>
+    <row r="234" spans="1:24">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -6489,10 +6729,11 @@
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
       <c r="R234" s="1"/>
-      <c r="U234" s="1"/>
-      <c r="W234" s="1"/>
-    </row>
-    <row r="235" spans="1:23">
+      <c r="S234" s="1"/>
+      <c r="V234" s="1"/>
+      <c r="X234" s="1"/>
+    </row>
+    <row r="235" spans="1:24">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -6510,10 +6751,11 @@
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
       <c r="R235" s="1"/>
-      <c r="U235" s="1"/>
-      <c r="W235" s="1"/>
-    </row>
-    <row r="236" spans="1:23">
+      <c r="S235" s="1"/>
+      <c r="V235" s="1"/>
+      <c r="X235" s="1"/>
+    </row>
+    <row r="236" spans="1:24">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -6531,10 +6773,11 @@
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
       <c r="R236" s="1"/>
-      <c r="U236" s="1"/>
-      <c r="W236" s="1"/>
-    </row>
-    <row r="237" spans="1:23">
+      <c r="S236" s="1"/>
+      <c r="V236" s="1"/>
+      <c r="X236" s="1"/>
+    </row>
+    <row r="237" spans="1:24">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -6552,10 +6795,11 @@
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
       <c r="R237" s="1"/>
-      <c r="U237" s="1"/>
-      <c r="W237" s="1"/>
-    </row>
-    <row r="238" spans="1:23">
+      <c r="S237" s="1"/>
+      <c r="V237" s="1"/>
+      <c r="X237" s="1"/>
+    </row>
+    <row r="238" spans="1:24">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -6573,10 +6817,11 @@
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
       <c r="R238" s="1"/>
-      <c r="U238" s="1"/>
-      <c r="W238" s="1"/>
-    </row>
-    <row r="239" spans="1:23">
+      <c r="S238" s="1"/>
+      <c r="V238" s="1"/>
+      <c r="X238" s="1"/>
+    </row>
+    <row r="239" spans="1:24">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -6594,10 +6839,11 @@
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
       <c r="R239" s="1"/>
-      <c r="U239" s="1"/>
-      <c r="W239" s="1"/>
-    </row>
-    <row r="240" spans="1:23">
+      <c r="S239" s="1"/>
+      <c r="V239" s="1"/>
+      <c r="X239" s="1"/>
+    </row>
+    <row r="240" spans="1:24">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -6615,10 +6861,11 @@
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
       <c r="R240" s="1"/>
-      <c r="U240" s="1"/>
-      <c r="W240" s="1"/>
-    </row>
-    <row r="241" spans="1:23">
+      <c r="S240" s="1"/>
+      <c r="V240" s="1"/>
+      <c r="X240" s="1"/>
+    </row>
+    <row r="241" spans="1:24">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -6636,10 +6883,11 @@
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
       <c r="R241" s="1"/>
-      <c r="U241" s="1"/>
-      <c r="W241" s="1"/>
-    </row>
-    <row r="242" spans="1:23">
+      <c r="S241" s="1"/>
+      <c r="V241" s="1"/>
+      <c r="X241" s="1"/>
+    </row>
+    <row r="242" spans="1:24">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -6657,10 +6905,11 @@
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
       <c r="R242" s="1"/>
-      <c r="U242" s="1"/>
-      <c r="W242" s="1"/>
-    </row>
-    <row r="243" spans="1:23">
+      <c r="S242" s="1"/>
+      <c r="V242" s="1"/>
+      <c r="X242" s="1"/>
+    </row>
+    <row r="243" spans="1:24">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -6678,10 +6927,11 @@
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
       <c r="R243" s="1"/>
-      <c r="U243" s="1"/>
-      <c r="W243" s="1"/>
-    </row>
-    <row r="244" spans="1:23">
+      <c r="S243" s="1"/>
+      <c r="V243" s="1"/>
+      <c r="X243" s="1"/>
+    </row>
+    <row r="244" spans="1:24">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -6699,10 +6949,11 @@
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
       <c r="R244" s="1"/>
-      <c r="U244" s="1"/>
-      <c r="W244" s="1"/>
-    </row>
-    <row r="245" spans="1:23">
+      <c r="S244" s="1"/>
+      <c r="V244" s="1"/>
+      <c r="X244" s="1"/>
+    </row>
+    <row r="245" spans="1:24">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -6720,10 +6971,11 @@
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
       <c r="R245" s="1"/>
-      <c r="U245" s="1"/>
-      <c r="W245" s="1"/>
-    </row>
-    <row r="246" spans="1:23">
+      <c r="S245" s="1"/>
+      <c r="V245" s="1"/>
+      <c r="X245" s="1"/>
+    </row>
+    <row r="246" spans="1:24">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -6741,10 +6993,11 @@
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
       <c r="R246" s="1"/>
-      <c r="U246" s="1"/>
-      <c r="W246" s="1"/>
-    </row>
-    <row r="247" spans="1:23">
+      <c r="S246" s="1"/>
+      <c r="V246" s="1"/>
+      <c r="X246" s="1"/>
+    </row>
+    <row r="247" spans="1:24">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -6762,10 +7015,11 @@
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
-      <c r="U247" s="1"/>
-      <c r="W247" s="1"/>
-    </row>
-    <row r="248" spans="1:23">
+      <c r="S247" s="1"/>
+      <c r="V247" s="1"/>
+      <c r="X247" s="1"/>
+    </row>
+    <row r="248" spans="1:24">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -6783,10 +7037,11 @@
       <c r="P248" s="1"/>
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
-      <c r="U248" s="1"/>
-      <c r="W248" s="1"/>
-    </row>
-    <row r="249" spans="1:23">
+      <c r="S248" s="1"/>
+      <c r="V248" s="1"/>
+      <c r="X248" s="1"/>
+    </row>
+    <row r="249" spans="1:24">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -6804,10 +7059,11 @@
       <c r="P249" s="1"/>
       <c r="Q249" s="1"/>
       <c r="R249" s="1"/>
-      <c r="U249" s="1"/>
-      <c r="W249" s="1"/>
-    </row>
-    <row r="250" spans="1:23">
+      <c r="S249" s="1"/>
+      <c r="V249" s="1"/>
+      <c r="X249" s="1"/>
+    </row>
+    <row r="250" spans="1:24">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -6825,10 +7081,11 @@
       <c r="P250" s="1"/>
       <c r="Q250" s="1"/>
       <c r="R250" s="1"/>
-      <c r="U250" s="1"/>
-      <c r="W250" s="1"/>
-    </row>
-    <row r="251" spans="1:23">
+      <c r="S250" s="1"/>
+      <c r="V250" s="1"/>
+      <c r="X250" s="1"/>
+    </row>
+    <row r="251" spans="1:24">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -6846,10 +7103,11 @@
       <c r="P251" s="1"/>
       <c r="Q251" s="1"/>
       <c r="R251" s="1"/>
-      <c r="U251" s="1"/>
-      <c r="W251" s="1"/>
-    </row>
-    <row r="252" spans="1:23">
+      <c r="S251" s="1"/>
+      <c r="V251" s="1"/>
+      <c r="X251" s="1"/>
+    </row>
+    <row r="252" spans="1:24">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -6867,10 +7125,11 @@
       <c r="P252" s="1"/>
       <c r="Q252" s="1"/>
       <c r="R252" s="1"/>
-      <c r="U252" s="1"/>
-      <c r="W252" s="1"/>
-    </row>
-    <row r="253" spans="1:23">
+      <c r="S252" s="1"/>
+      <c r="V252" s="1"/>
+      <c r="X252" s="1"/>
+    </row>
+    <row r="253" spans="1:24">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -6888,10 +7147,11 @@
       <c r="P253" s="1"/>
       <c r="Q253" s="1"/>
       <c r="R253" s="1"/>
-      <c r="U253" s="1"/>
-      <c r="W253" s="1"/>
-    </row>
-    <row r="254" spans="1:23">
+      <c r="S253" s="1"/>
+      <c r="V253" s="1"/>
+      <c r="X253" s="1"/>
+    </row>
+    <row r="254" spans="1:24">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -6909,10 +7169,11 @@
       <c r="P254" s="1"/>
       <c r="Q254" s="1"/>
       <c r="R254" s="1"/>
-      <c r="U254" s="1"/>
-      <c r="W254" s="1"/>
-    </row>
-    <row r="255" spans="1:23">
+      <c r="S254" s="1"/>
+      <c r="V254" s="1"/>
+      <c r="X254" s="1"/>
+    </row>
+    <row r="255" spans="1:24">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -6930,10 +7191,11 @@
       <c r="P255" s="1"/>
       <c r="Q255" s="1"/>
       <c r="R255" s="1"/>
-      <c r="U255" s="1"/>
-      <c r="W255" s="1"/>
-    </row>
-    <row r="256" spans="1:23">
+      <c r="S255" s="1"/>
+      <c r="V255" s="1"/>
+      <c r="X255" s="1"/>
+    </row>
+    <row r="256" spans="1:24">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -6951,10 +7213,11 @@
       <c r="P256" s="1"/>
       <c r="Q256" s="1"/>
       <c r="R256" s="1"/>
-      <c r="U256" s="1"/>
-      <c r="W256" s="1"/>
-    </row>
-    <row r="257" spans="1:23">
+      <c r="S256" s="1"/>
+      <c r="V256" s="1"/>
+      <c r="X256" s="1"/>
+    </row>
+    <row r="257" spans="1:24">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -6972,10 +7235,11 @@
       <c r="P257" s="1"/>
       <c r="Q257" s="1"/>
       <c r="R257" s="1"/>
-      <c r="U257" s="1"/>
-      <c r="W257" s="1"/>
-    </row>
-    <row r="258" spans="1:23">
+      <c r="S257" s="1"/>
+      <c r="V257" s="1"/>
+      <c r="X257" s="1"/>
+    </row>
+    <row r="258" spans="1:24">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -6993,10 +7257,11 @@
       <c r="P258" s="1"/>
       <c r="Q258" s="1"/>
       <c r="R258" s="1"/>
-      <c r="U258" s="1"/>
-      <c r="W258" s="1"/>
-    </row>
-    <row r="259" spans="1:23">
+      <c r="S258" s="1"/>
+      <c r="V258" s="1"/>
+      <c r="X258" s="1"/>
+    </row>
+    <row r="259" spans="1:24">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -7014,10 +7279,11 @@
       <c r="P259" s="1"/>
       <c r="Q259" s="1"/>
       <c r="R259" s="1"/>
-      <c r="U259" s="1"/>
-      <c r="W259" s="1"/>
-    </row>
-    <row r="260" spans="1:23">
+      <c r="S259" s="1"/>
+      <c r="V259" s="1"/>
+      <c r="X259" s="1"/>
+    </row>
+    <row r="260" spans="1:24">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -7035,10 +7301,11 @@
       <c r="P260" s="1"/>
       <c r="Q260" s="1"/>
       <c r="R260" s="1"/>
-      <c r="U260" s="1"/>
-      <c r="W260" s="1"/>
-    </row>
-    <row r="261" spans="1:23">
+      <c r="S260" s="1"/>
+      <c r="V260" s="1"/>
+      <c r="X260" s="1"/>
+    </row>
+    <row r="261" spans="1:24">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -7056,10 +7323,11 @@
       <c r="P261" s="1"/>
       <c r="Q261" s="1"/>
       <c r="R261" s="1"/>
-      <c r="U261" s="1"/>
-      <c r="W261" s="1"/>
-    </row>
-    <row r="262" spans="1:23">
+      <c r="S261" s="1"/>
+      <c r="V261" s="1"/>
+      <c r="X261" s="1"/>
+    </row>
+    <row r="262" spans="1:24">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -7077,10 +7345,11 @@
       <c r="P262" s="1"/>
       <c r="Q262" s="1"/>
       <c r="R262" s="1"/>
-      <c r="U262" s="1"/>
-      <c r="W262" s="1"/>
-    </row>
-    <row r="263" spans="1:23">
+      <c r="S262" s="1"/>
+      <c r="V262" s="1"/>
+      <c r="X262" s="1"/>
+    </row>
+    <row r="263" spans="1:24">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -7098,10 +7367,11 @@
       <c r="P263" s="1"/>
       <c r="Q263" s="1"/>
       <c r="R263" s="1"/>
-      <c r="U263" s="1"/>
-      <c r="W263" s="1"/>
-    </row>
-    <row r="264" spans="1:23">
+      <c r="S263" s="1"/>
+      <c r="V263" s="1"/>
+      <c r="X263" s="1"/>
+    </row>
+    <row r="264" spans="1:24">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -7119,10 +7389,11 @@
       <c r="P264" s="1"/>
       <c r="Q264" s="1"/>
       <c r="R264" s="1"/>
-      <c r="U264" s="1"/>
-      <c r="W264" s="1"/>
-    </row>
-    <row r="265" spans="1:23">
+      <c r="S264" s="1"/>
+      <c r="V264" s="1"/>
+      <c r="X264" s="1"/>
+    </row>
+    <row r="265" spans="1:24">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -7140,10 +7411,11 @@
       <c r="P265" s="1"/>
       <c r="Q265" s="1"/>
       <c r="R265" s="1"/>
-      <c r="U265" s="1"/>
-      <c r="W265" s="1"/>
-    </row>
-    <row r="266" spans="1:23">
+      <c r="S265" s="1"/>
+      <c r="V265" s="1"/>
+      <c r="X265" s="1"/>
+    </row>
+    <row r="266" spans="1:24">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -7161,10 +7433,11 @@
       <c r="P266" s="1"/>
       <c r="Q266" s="1"/>
       <c r="R266" s="1"/>
-      <c r="U266" s="1"/>
-      <c r="W266" s="1"/>
-    </row>
-    <row r="267" spans="1:23">
+      <c r="S266" s="1"/>
+      <c r="V266" s="1"/>
+      <c r="X266" s="1"/>
+    </row>
+    <row r="267" spans="1:24">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -7182,10 +7455,11 @@
       <c r="P267" s="1"/>
       <c r="Q267" s="1"/>
       <c r="R267" s="1"/>
-      <c r="U267" s="1"/>
-      <c r="W267" s="1"/>
-    </row>
-    <row r="268" spans="1:23">
+      <c r="S267" s="1"/>
+      <c r="V267" s="1"/>
+      <c r="X267" s="1"/>
+    </row>
+    <row r="268" spans="1:24">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -7203,10 +7477,11 @@
       <c r="P268" s="1"/>
       <c r="Q268" s="1"/>
       <c r="R268" s="1"/>
-      <c r="U268" s="1"/>
-      <c r="W268" s="1"/>
-    </row>
-    <row r="269" spans="1:23">
+      <c r="S268" s="1"/>
+      <c r="V268" s="1"/>
+      <c r="X268" s="1"/>
+    </row>
+    <row r="269" spans="1:24">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -7224,10 +7499,11 @@
       <c r="P269" s="1"/>
       <c r="Q269" s="1"/>
       <c r="R269" s="1"/>
-      <c r="U269" s="1"/>
-      <c r="W269" s="1"/>
-    </row>
-    <row r="270" spans="1:23">
+      <c r="S269" s="1"/>
+      <c r="V269" s="1"/>
+      <c r="X269" s="1"/>
+    </row>
+    <row r="270" spans="1:24">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -7245,10 +7521,11 @@
       <c r="P270" s="1"/>
       <c r="Q270" s="1"/>
       <c r="R270" s="1"/>
-      <c r="U270" s="1"/>
-      <c r="W270" s="1"/>
-    </row>
-    <row r="271" spans="1:23">
+      <c r="S270" s="1"/>
+      <c r="V270" s="1"/>
+      <c r="X270" s="1"/>
+    </row>
+    <row r="271" spans="1:24">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -7266,10 +7543,11 @@
       <c r="P271" s="1"/>
       <c r="Q271" s="1"/>
       <c r="R271" s="1"/>
-      <c r="U271" s="1"/>
-      <c r="W271" s="1"/>
-    </row>
-    <row r="272" spans="1:23">
+      <c r="S271" s="1"/>
+      <c r="V271" s="1"/>
+      <c r="X271" s="1"/>
+    </row>
+    <row r="272" spans="1:24">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -7287,10 +7565,11 @@
       <c r="P272" s="1"/>
       <c r="Q272" s="1"/>
       <c r="R272" s="1"/>
-      <c r="U272" s="1"/>
-      <c r="W272" s="1"/>
-    </row>
-    <row r="273" spans="1:23">
+      <c r="S272" s="1"/>
+      <c r="V272" s="1"/>
+      <c r="X272" s="1"/>
+    </row>
+    <row r="273" spans="1:24">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -7308,10 +7587,11 @@
       <c r="P273" s="1"/>
       <c r="Q273" s="1"/>
       <c r="R273" s="1"/>
-      <c r="U273" s="1"/>
-      <c r="W273" s="1"/>
-    </row>
-    <row r="274" spans="1:23">
+      <c r="S273" s="1"/>
+      <c r="V273" s="1"/>
+      <c r="X273" s="1"/>
+    </row>
+    <row r="274" spans="1:24">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -7329,10 +7609,11 @@
       <c r="P274" s="1"/>
       <c r="Q274" s="1"/>
       <c r="R274" s="1"/>
-      <c r="U274" s="1"/>
-      <c r="W274" s="1"/>
-    </row>
-    <row r="275" spans="1:23">
+      <c r="S274" s="1"/>
+      <c r="V274" s="1"/>
+      <c r="X274" s="1"/>
+    </row>
+    <row r="275" spans="1:24">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -7350,10 +7631,11 @@
       <c r="P275" s="1"/>
       <c r="Q275" s="1"/>
       <c r="R275" s="1"/>
-      <c r="U275" s="1"/>
-      <c r="W275" s="1"/>
-    </row>
-    <row r="276" spans="1:23">
+      <c r="S275" s="1"/>
+      <c r="V275" s="1"/>
+      <c r="X275" s="1"/>
+    </row>
+    <row r="276" spans="1:24">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -7371,10 +7653,11 @@
       <c r="P276" s="1"/>
       <c r="Q276" s="1"/>
       <c r="R276" s="1"/>
-      <c r="U276" s="1"/>
-      <c r="W276" s="1"/>
-    </row>
-    <row r="277" spans="1:23">
+      <c r="S276" s="1"/>
+      <c r="V276" s="1"/>
+      <c r="X276" s="1"/>
+    </row>
+    <row r="277" spans="1:24">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -7392,10 +7675,11 @@
       <c r="P277" s="1"/>
       <c r="Q277" s="1"/>
       <c r="R277" s="1"/>
-      <c r="U277" s="1"/>
-      <c r="W277" s="1"/>
-    </row>
-    <row r="278" spans="1:23">
+      <c r="S277" s="1"/>
+      <c r="V277" s="1"/>
+      <c r="X277" s="1"/>
+    </row>
+    <row r="278" spans="1:24">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -7413,10 +7697,11 @@
       <c r="P278" s="1"/>
       <c r="Q278" s="1"/>
       <c r="R278" s="1"/>
-      <c r="U278" s="1"/>
-      <c r="W278" s="1"/>
-    </row>
-    <row r="279" spans="1:23">
+      <c r="S278" s="1"/>
+      <c r="V278" s="1"/>
+      <c r="X278" s="1"/>
+    </row>
+    <row r="279" spans="1:24">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -7434,10 +7719,11 @@
       <c r="P279" s="1"/>
       <c r="Q279" s="1"/>
       <c r="R279" s="1"/>
-      <c r="U279" s="1"/>
-      <c r="W279" s="1"/>
-    </row>
-    <row r="280" spans="1:23">
+      <c r="S279" s="1"/>
+      <c r="V279" s="1"/>
+      <c r="X279" s="1"/>
+    </row>
+    <row r="280" spans="1:24">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -7455,10 +7741,11 @@
       <c r="P280" s="1"/>
       <c r="Q280" s="1"/>
       <c r="R280" s="1"/>
-      <c r="U280" s="1"/>
-      <c r="W280" s="1"/>
-    </row>
-    <row r="281" spans="1:23">
+      <c r="S280" s="1"/>
+      <c r="V280" s="1"/>
+      <c r="X280" s="1"/>
+    </row>
+    <row r="281" spans="1:24">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -7476,10 +7763,11 @@
       <c r="P281" s="1"/>
       <c r="Q281" s="1"/>
       <c r="R281" s="1"/>
-      <c r="U281" s="1"/>
-      <c r="W281" s="1"/>
-    </row>
-    <row r="282" spans="1:23">
+      <c r="S281" s="1"/>
+      <c r="V281" s="1"/>
+      <c r="X281" s="1"/>
+    </row>
+    <row r="282" spans="1:24">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -7497,10 +7785,11 @@
       <c r="P282" s="1"/>
       <c r="Q282" s="1"/>
       <c r="R282" s="1"/>
-      <c r="U282" s="1"/>
-      <c r="W282" s="1"/>
-    </row>
-    <row r="283" spans="1:23">
+      <c r="S282" s="1"/>
+      <c r="V282" s="1"/>
+      <c r="X282" s="1"/>
+    </row>
+    <row r="283" spans="1:24">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -7518,10 +7807,11 @@
       <c r="P283" s="1"/>
       <c r="Q283" s="1"/>
       <c r="R283" s="1"/>
-      <c r="U283" s="1"/>
-      <c r="W283" s="1"/>
-    </row>
-    <row r="284" spans="1:23">
+      <c r="S283" s="1"/>
+      <c r="V283" s="1"/>
+      <c r="X283" s="1"/>
+    </row>
+    <row r="284" spans="1:24">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -7539,10 +7829,11 @@
       <c r="P284" s="1"/>
       <c r="Q284" s="1"/>
       <c r="R284" s="1"/>
-      <c r="U284" s="1"/>
-      <c r="W284" s="1"/>
-    </row>
-    <row r="285" spans="1:23">
+      <c r="S284" s="1"/>
+      <c r="V284" s="1"/>
+      <c r="X284" s="1"/>
+    </row>
+    <row r="285" spans="1:24">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -7560,10 +7851,11 @@
       <c r="P285" s="1"/>
       <c r="Q285" s="1"/>
       <c r="R285" s="1"/>
-      <c r="U285" s="1"/>
-      <c r="W285" s="1"/>
-    </row>
-    <row r="286" spans="1:23">
+      <c r="S285" s="1"/>
+      <c r="V285" s="1"/>
+      <c r="X285" s="1"/>
+    </row>
+    <row r="286" spans="1:24">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -7581,10 +7873,11 @@
       <c r="P286" s="1"/>
       <c r="Q286" s="1"/>
       <c r="R286" s="1"/>
-      <c r="U286" s="1"/>
-      <c r="W286" s="1"/>
-    </row>
-    <row r="287" spans="1:23">
+      <c r="S286" s="1"/>
+      <c r="V286" s="1"/>
+      <c r="X286" s="1"/>
+    </row>
+    <row r="287" spans="1:24">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -7602,10 +7895,11 @@
       <c r="P287" s="1"/>
       <c r="Q287" s="1"/>
       <c r="R287" s="1"/>
-      <c r="U287" s="1"/>
-      <c r="W287" s="1"/>
-    </row>
-    <row r="288" spans="1:23">
+      <c r="S287" s="1"/>
+      <c r="V287" s="1"/>
+      <c r="X287" s="1"/>
+    </row>
+    <row r="288" spans="1:24">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -7623,10 +7917,11 @@
       <c r="P288" s="1"/>
       <c r="Q288" s="1"/>
       <c r="R288" s="1"/>
-      <c r="U288" s="1"/>
-      <c r="W288" s="1"/>
-    </row>
-    <row r="289" spans="1:23">
+      <c r="S288" s="1"/>
+      <c r="V288" s="1"/>
+      <c r="X288" s="1"/>
+    </row>
+    <row r="289" spans="1:24">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -7644,10 +7939,11 @@
       <c r="P289" s="1"/>
       <c r="Q289" s="1"/>
       <c r="R289" s="1"/>
-      <c r="U289" s="1"/>
-      <c r="W289" s="1"/>
-    </row>
-    <row r="290" spans="1:23">
+      <c r="S289" s="1"/>
+      <c r="V289" s="1"/>
+      <c r="X289" s="1"/>
+    </row>
+    <row r="290" spans="1:24">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -7665,10 +7961,11 @@
       <c r="P290" s="1"/>
       <c r="Q290" s="1"/>
       <c r="R290" s="1"/>
-      <c r="U290" s="1"/>
-      <c r="W290" s="1"/>
-    </row>
-    <row r="291" spans="1:23">
+      <c r="S290" s="1"/>
+      <c r="V290" s="1"/>
+      <c r="X290" s="1"/>
+    </row>
+    <row r="291" spans="1:24">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -7686,10 +7983,11 @@
       <c r="P291" s="1"/>
       <c r="Q291" s="1"/>
       <c r="R291" s="1"/>
-      <c r="U291" s="1"/>
-      <c r="W291" s="1"/>
-    </row>
-    <row r="292" spans="1:23">
+      <c r="S291" s="1"/>
+      <c r="V291" s="1"/>
+      <c r="X291" s="1"/>
+    </row>
+    <row r="292" spans="1:24">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -7707,10 +8005,11 @@
       <c r="P292" s="1"/>
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
-      <c r="U292" s="1"/>
-      <c r="W292" s="1"/>
-    </row>
-    <row r="293" spans="1:23">
+      <c r="S292" s="1"/>
+      <c r="V292" s="1"/>
+      <c r="X292" s="1"/>
+    </row>
+    <row r="293" spans="1:24">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -7728,10 +8027,11 @@
       <c r="P293" s="1"/>
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
-      <c r="U293" s="1"/>
-      <c r="W293" s="1"/>
-    </row>
-    <row r="294" spans="1:23">
+      <c r="S293" s="1"/>
+      <c r="V293" s="1"/>
+      <c r="X293" s="1"/>
+    </row>
+    <row r="294" spans="1:24">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -7749,10 +8049,11 @@
       <c r="P294" s="1"/>
       <c r="Q294" s="1"/>
       <c r="R294" s="1"/>
-      <c r="U294" s="1"/>
-      <c r="W294" s="1"/>
-    </row>
-    <row r="295" spans="1:23">
+      <c r="S294" s="1"/>
+      <c r="V294" s="1"/>
+      <c r="X294" s="1"/>
+    </row>
+    <row r="295" spans="1:24">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -7770,10 +8071,11 @@
       <c r="P295" s="1"/>
       <c r="Q295" s="1"/>
       <c r="R295" s="1"/>
-      <c r="U295" s="1"/>
-      <c r="W295" s="1"/>
-    </row>
-    <row r="296" spans="1:23">
+      <c r="S295" s="1"/>
+      <c r="V295" s="1"/>
+      <c r="X295" s="1"/>
+    </row>
+    <row r="296" spans="1:24">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -7791,10 +8093,11 @@
       <c r="P296" s="1"/>
       <c r="Q296" s="1"/>
       <c r="R296" s="1"/>
-      <c r="U296" s="1"/>
-      <c r="W296" s="1"/>
-    </row>
-    <row r="297" spans="1:23">
+      <c r="S296" s="1"/>
+      <c r="V296" s="1"/>
+      <c r="X296" s="1"/>
+    </row>
+    <row r="297" spans="1:24">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -7812,10 +8115,11 @@
       <c r="P297" s="1"/>
       <c r="Q297" s="1"/>
       <c r="R297" s="1"/>
-      <c r="U297" s="1"/>
-      <c r="W297" s="1"/>
-    </row>
-    <row r="298" spans="1:23">
+      <c r="S297" s="1"/>
+      <c r="V297" s="1"/>
+      <c r="X297" s="1"/>
+    </row>
+    <row r="298" spans="1:24">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -7833,10 +8137,11 @@
       <c r="P298" s="1"/>
       <c r="Q298" s="1"/>
       <c r="R298" s="1"/>
-      <c r="U298" s="1"/>
-      <c r="W298" s="1"/>
-    </row>
-    <row r="299" spans="1:23">
+      <c r="S298" s="1"/>
+      <c r="V298" s="1"/>
+      <c r="X298" s="1"/>
+    </row>
+    <row r="299" spans="1:24">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -7854,10 +8159,11 @@
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
       <c r="R299" s="1"/>
-      <c r="U299" s="1"/>
-      <c r="W299" s="1"/>
-    </row>
-    <row r="300" spans="1:23">
+      <c r="S299" s="1"/>
+      <c r="V299" s="1"/>
+      <c r="X299" s="1"/>
+    </row>
+    <row r="300" spans="1:24">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -7875,10 +8181,11 @@
       <c r="P300" s="1"/>
       <c r="Q300" s="1"/>
       <c r="R300" s="1"/>
-      <c r="U300" s="1"/>
-      <c r="W300" s="1"/>
-    </row>
-    <row r="301" spans="1:23">
+      <c r="S300" s="1"/>
+      <c r="V300" s="1"/>
+      <c r="X300" s="1"/>
+    </row>
+    <row r="301" spans="1:24">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -7896,10 +8203,11 @@
       <c r="P301" s="1"/>
       <c r="Q301" s="1"/>
       <c r="R301" s="1"/>
-      <c r="U301" s="1"/>
-      <c r="W301" s="1"/>
-    </row>
-    <row r="302" spans="1:23">
+      <c r="S301" s="1"/>
+      <c r="V301" s="1"/>
+      <c r="X301" s="1"/>
+    </row>
+    <row r="302" spans="1:24">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -7917,10 +8225,11 @@
       <c r="P302" s="1"/>
       <c r="Q302" s="1"/>
       <c r="R302" s="1"/>
-      <c r="U302" s="1"/>
-      <c r="W302" s="1"/>
-    </row>
-    <row r="303" spans="1:23">
+      <c r="S302" s="1"/>
+      <c r="V302" s="1"/>
+      <c r="X302" s="1"/>
+    </row>
+    <row r="303" spans="1:24">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -7938,10 +8247,11 @@
       <c r="P303" s="1"/>
       <c r="Q303" s="1"/>
       <c r="R303" s="1"/>
-      <c r="U303" s="1"/>
-      <c r="W303" s="1"/>
-    </row>
-    <row r="304" spans="1:23">
+      <c r="S303" s="1"/>
+      <c r="V303" s="1"/>
+      <c r="X303" s="1"/>
+    </row>
+    <row r="304" spans="1:24">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -7959,10 +8269,11 @@
       <c r="P304" s="1"/>
       <c r="Q304" s="1"/>
       <c r="R304" s="1"/>
-      <c r="U304" s="1"/>
-      <c r="W304" s="1"/>
-    </row>
-    <row r="305" spans="1:23">
+      <c r="S304" s="1"/>
+      <c r="V304" s="1"/>
+      <c r="X304" s="1"/>
+    </row>
+    <row r="305" spans="1:24">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -7980,10 +8291,11 @@
       <c r="P305" s="1"/>
       <c r="Q305" s="1"/>
       <c r="R305" s="1"/>
-      <c r="U305" s="1"/>
-      <c r="W305" s="1"/>
-    </row>
-    <row r="306" spans="1:23">
+      <c r="S305" s="1"/>
+      <c r="V305" s="1"/>
+      <c r="X305" s="1"/>
+    </row>
+    <row r="306" spans="1:24">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -8001,10 +8313,11 @@
       <c r="P306" s="1"/>
       <c r="Q306" s="1"/>
       <c r="R306" s="1"/>
-      <c r="U306" s="1"/>
-      <c r="W306" s="1"/>
-    </row>
-    <row r="307" spans="1:23">
+      <c r="S306" s="1"/>
+      <c r="V306" s="1"/>
+      <c r="X306" s="1"/>
+    </row>
+    <row r="307" spans="1:24">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -8022,10 +8335,11 @@
       <c r="P307" s="1"/>
       <c r="Q307" s="1"/>
       <c r="R307" s="1"/>
-      <c r="U307" s="1"/>
-      <c r="W307" s="1"/>
-    </row>
-    <row r="308" spans="1:23">
+      <c r="S307" s="1"/>
+      <c r="V307" s="1"/>
+      <c r="X307" s="1"/>
+    </row>
+    <row r="308" spans="1:24">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -8043,10 +8357,11 @@
       <c r="P308" s="1"/>
       <c r="Q308" s="1"/>
       <c r="R308" s="1"/>
-      <c r="U308" s="1"/>
-      <c r="W308" s="1"/>
-    </row>
-    <row r="309" spans="1:23">
+      <c r="S308" s="1"/>
+      <c r="V308" s="1"/>
+      <c r="X308" s="1"/>
+    </row>
+    <row r="309" spans="1:24">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -8064,10 +8379,11 @@
       <c r="P309" s="1"/>
       <c r="Q309" s="1"/>
       <c r="R309" s="1"/>
-      <c r="U309" s="1"/>
-      <c r="W309" s="1"/>
-    </row>
-    <row r="310" spans="1:23">
+      <c r="S309" s="1"/>
+      <c r="V309" s="1"/>
+      <c r="X309" s="1"/>
+    </row>
+    <row r="310" spans="1:24">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -8085,10 +8401,11 @@
       <c r="P310" s="1"/>
       <c r="Q310" s="1"/>
       <c r="R310" s="1"/>
-      <c r="U310" s="1"/>
-      <c r="W310" s="1"/>
-    </row>
-    <row r="311" spans="1:23">
+      <c r="S310" s="1"/>
+      <c r="V310" s="1"/>
+      <c r="X310" s="1"/>
+    </row>
+    <row r="311" spans="1:24">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -8106,10 +8423,11 @@
       <c r="P311" s="1"/>
       <c r="Q311" s="1"/>
       <c r="R311" s="1"/>
-      <c r="U311" s="1"/>
-      <c r="W311" s="1"/>
-    </row>
-    <row r="312" spans="1:23">
+      <c r="S311" s="1"/>
+      <c r="V311" s="1"/>
+      <c r="X311" s="1"/>
+    </row>
+    <row r="312" spans="1:24">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -8127,10 +8445,11 @@
       <c r="P312" s="1"/>
       <c r="Q312" s="1"/>
       <c r="R312" s="1"/>
-      <c r="U312" s="1"/>
-      <c r="W312" s="1"/>
-    </row>
-    <row r="313" spans="1:23">
+      <c r="S312" s="1"/>
+      <c r="V312" s="1"/>
+      <c r="X312" s="1"/>
+    </row>
+    <row r="313" spans="1:24">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -8148,10 +8467,11 @@
       <c r="P313" s="1"/>
       <c r="Q313" s="1"/>
       <c r="R313" s="1"/>
-      <c r="U313" s="1"/>
-      <c r="W313" s="1"/>
-    </row>
-    <row r="314" spans="1:23">
+      <c r="S313" s="1"/>
+      <c r="V313" s="1"/>
+      <c r="X313" s="1"/>
+    </row>
+    <row r="314" spans="1:24">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -8169,10 +8489,11 @@
       <c r="P314" s="1"/>
       <c r="Q314" s="1"/>
       <c r="R314" s="1"/>
-      <c r="U314" s="1"/>
-      <c r="W314" s="1"/>
-    </row>
-    <row r="315" spans="1:23">
+      <c r="S314" s="1"/>
+      <c r="V314" s="1"/>
+      <c r="X314" s="1"/>
+    </row>
+    <row r="315" spans="1:24">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -8190,10 +8511,11 @@
       <c r="P315" s="1"/>
       <c r="Q315" s="1"/>
       <c r="R315" s="1"/>
-      <c r="U315" s="1"/>
-      <c r="W315" s="1"/>
-    </row>
-    <row r="316" spans="1:23">
+      <c r="S315" s="1"/>
+      <c r="V315" s="1"/>
+      <c r="X315" s="1"/>
+    </row>
+    <row r="316" spans="1:24">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -8211,10 +8533,11 @@
       <c r="P316" s="1"/>
       <c r="Q316" s="1"/>
       <c r="R316" s="1"/>
-      <c r="U316" s="1"/>
-      <c r="W316" s="1"/>
-    </row>
-    <row r="317" spans="1:23">
+      <c r="S316" s="1"/>
+      <c r="V316" s="1"/>
+      <c r="X316" s="1"/>
+    </row>
+    <row r="317" spans="1:24">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -8232,10 +8555,11 @@
       <c r="P317" s="1"/>
       <c r="Q317" s="1"/>
       <c r="R317" s="1"/>
-      <c r="U317" s="1"/>
-      <c r="W317" s="1"/>
-    </row>
-    <row r="318" spans="1:23">
+      <c r="S317" s="1"/>
+      <c r="V317" s="1"/>
+      <c r="X317" s="1"/>
+    </row>
+    <row r="318" spans="1:24">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -8253,10 +8577,11 @@
       <c r="P318" s="1"/>
       <c r="Q318" s="1"/>
       <c r="R318" s="1"/>
-      <c r="U318" s="1"/>
-      <c r="W318" s="1"/>
-    </row>
-    <row r="319" spans="1:23">
+      <c r="S318" s="1"/>
+      <c r="V318" s="1"/>
+      <c r="X318" s="1"/>
+    </row>
+    <row r="319" spans="1:24">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -8274,10 +8599,11 @@
       <c r="P319" s="1"/>
       <c r="Q319" s="1"/>
       <c r="R319" s="1"/>
-      <c r="U319" s="1"/>
-      <c r="W319" s="1"/>
-    </row>
-    <row r="320" spans="1:23">
+      <c r="S319" s="1"/>
+      <c r="V319" s="1"/>
+      <c r="X319" s="1"/>
+    </row>
+    <row r="320" spans="1:24">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -8295,10 +8621,11 @@
       <c r="P320" s="1"/>
       <c r="Q320" s="1"/>
       <c r="R320" s="1"/>
-      <c r="U320" s="1"/>
-      <c r="W320" s="1"/>
-    </row>
-    <row r="321" spans="1:23">
+      <c r="S320" s="1"/>
+      <c r="V320" s="1"/>
+      <c r="X320" s="1"/>
+    </row>
+    <row r="321" spans="1:24">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -8316,10 +8643,11 @@
       <c r="P321" s="1"/>
       <c r="Q321" s="1"/>
       <c r="R321" s="1"/>
-      <c r="U321" s="1"/>
-      <c r="W321" s="1"/>
-    </row>
-    <row r="322" spans="1:23">
+      <c r="S321" s="1"/>
+      <c r="V321" s="1"/>
+      <c r="X321" s="1"/>
+    </row>
+    <row r="322" spans="1:24">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -8337,10 +8665,11 @@
       <c r="P322" s="1"/>
       <c r="Q322" s="1"/>
       <c r="R322" s="1"/>
-      <c r="U322" s="1"/>
-      <c r="W322" s="1"/>
-    </row>
-    <row r="323" spans="1:23">
+      <c r="S322" s="1"/>
+      <c r="V322" s="1"/>
+      <c r="X322" s="1"/>
+    </row>
+    <row r="323" spans="1:24">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -8358,10 +8687,11 @@
       <c r="P323" s="1"/>
       <c r="Q323" s="1"/>
       <c r="R323" s="1"/>
-      <c r="U323" s="1"/>
-      <c r="W323" s="1"/>
-    </row>
-    <row r="324" spans="1:23">
+      <c r="S323" s="1"/>
+      <c r="V323" s="1"/>
+      <c r="X323" s="1"/>
+    </row>
+    <row r="324" spans="1:24">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -8379,10 +8709,11 @@
       <c r="P324" s="1"/>
       <c r="Q324" s="1"/>
       <c r="R324" s="1"/>
-      <c r="U324" s="1"/>
-      <c r="W324" s="1"/>
-    </row>
-    <row r="325" spans="1:23">
+      <c r="S324" s="1"/>
+      <c r="V324" s="1"/>
+      <c r="X324" s="1"/>
+    </row>
+    <row r="325" spans="1:24">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -8400,10 +8731,11 @@
       <c r="P325" s="1"/>
       <c r="Q325" s="1"/>
       <c r="R325" s="1"/>
-      <c r="U325" s="1"/>
-      <c r="W325" s="1"/>
-    </row>
-    <row r="326" spans="1:23">
+      <c r="S325" s="1"/>
+      <c r="V325" s="1"/>
+      <c r="X325" s="1"/>
+    </row>
+    <row r="326" spans="1:24">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -8421,10 +8753,11 @@
       <c r="P326" s="1"/>
       <c r="Q326" s="1"/>
       <c r="R326" s="1"/>
-      <c r="U326" s="1"/>
-      <c r="W326" s="1"/>
-    </row>
-    <row r="327" spans="1:23">
+      <c r="S326" s="1"/>
+      <c r="V326" s="1"/>
+      <c r="X326" s="1"/>
+    </row>
+    <row r="327" spans="1:24">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -8442,10 +8775,11 @@
       <c r="P327" s="1"/>
       <c r="Q327" s="1"/>
       <c r="R327" s="1"/>
-      <c r="U327" s="1"/>
-      <c r="W327" s="1"/>
-    </row>
-    <row r="328" spans="1:23">
+      <c r="S327" s="1"/>
+      <c r="V327" s="1"/>
+      <c r="X327" s="1"/>
+    </row>
+    <row r="328" spans="1:24">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -8463,10 +8797,11 @@
       <c r="P328" s="1"/>
       <c r="Q328" s="1"/>
       <c r="R328" s="1"/>
-      <c r="U328" s="1"/>
-      <c r="W328" s="1"/>
-    </row>
-    <row r="329" spans="1:23">
+      <c r="S328" s="1"/>
+      <c r="V328" s="1"/>
+      <c r="X328" s="1"/>
+    </row>
+    <row r="329" spans="1:24">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -8484,10 +8819,11 @@
       <c r="P329" s="1"/>
       <c r="Q329" s="1"/>
       <c r="R329" s="1"/>
-      <c r="U329" s="1"/>
-      <c r="W329" s="1"/>
-    </row>
-    <row r="330" spans="1:23">
+      <c r="S329" s="1"/>
+      <c r="V329" s="1"/>
+      <c r="X329" s="1"/>
+    </row>
+    <row r="330" spans="1:24">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -8505,10 +8841,11 @@
       <c r="P330" s="1"/>
       <c r="Q330" s="1"/>
       <c r="R330" s="1"/>
-      <c r="U330" s="1"/>
-      <c r="W330" s="1"/>
-    </row>
-    <row r="331" spans="1:23">
+      <c r="S330" s="1"/>
+      <c r="V330" s="1"/>
+      <c r="X330" s="1"/>
+    </row>
+    <row r="331" spans="1:24">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -8526,10 +8863,11 @@
       <c r="P331" s="1"/>
       <c r="Q331" s="1"/>
       <c r="R331" s="1"/>
-      <c r="U331" s="1"/>
-      <c r="W331" s="1"/>
-    </row>
-    <row r="332" spans="1:23">
+      <c r="S331" s="1"/>
+      <c r="V331" s="1"/>
+      <c r="X331" s="1"/>
+    </row>
+    <row r="332" spans="1:24">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -8547,10 +8885,11 @@
       <c r="P332" s="1"/>
       <c r="Q332" s="1"/>
       <c r="R332" s="1"/>
-      <c r="U332" s="1"/>
-      <c r="W332" s="1"/>
-    </row>
-    <row r="333" spans="1:23">
+      <c r="S332" s="1"/>
+      <c r="V332" s="1"/>
+      <c r="X332" s="1"/>
+    </row>
+    <row r="333" spans="1:24">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -8568,10 +8907,11 @@
       <c r="P333" s="1"/>
       <c r="Q333" s="1"/>
       <c r="R333" s="1"/>
-      <c r="U333" s="1"/>
-      <c r="W333" s="1"/>
-    </row>
-    <row r="334" spans="1:23">
+      <c r="S333" s="1"/>
+      <c r="V333" s="1"/>
+      <c r="X333" s="1"/>
+    </row>
+    <row r="334" spans="1:24">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -8589,10 +8929,11 @@
       <c r="P334" s="1"/>
       <c r="Q334" s="1"/>
       <c r="R334" s="1"/>
-      <c r="U334" s="1"/>
-      <c r="W334" s="1"/>
-    </row>
-    <row r="335" spans="1:23">
+      <c r="S334" s="1"/>
+      <c r="V334" s="1"/>
+      <c r="X334" s="1"/>
+    </row>
+    <row r="335" spans="1:24">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -8610,10 +8951,11 @@
       <c r="P335" s="1"/>
       <c r="Q335" s="1"/>
       <c r="R335" s="1"/>
-      <c r="U335" s="1"/>
-      <c r="W335" s="1"/>
-    </row>
-    <row r="336" spans="1:23">
+      <c r="S335" s="1"/>
+      <c r="V335" s="1"/>
+      <c r="X335" s="1"/>
+    </row>
+    <row r="336" spans="1:24">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -8631,10 +8973,11 @@
       <c r="P336" s="1"/>
       <c r="Q336" s="1"/>
       <c r="R336" s="1"/>
-      <c r="U336" s="1"/>
-      <c r="W336" s="1"/>
-    </row>
-    <row r="337" spans="1:23">
+      <c r="S336" s="1"/>
+      <c r="V336" s="1"/>
+      <c r="X336" s="1"/>
+    </row>
+    <row r="337" spans="1:24">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -8652,10 +8995,11 @@
       <c r="P337" s="1"/>
       <c r="Q337" s="1"/>
       <c r="R337" s="1"/>
-      <c r="U337" s="1"/>
-      <c r="W337" s="1"/>
-    </row>
-    <row r="338" spans="1:23">
+      <c r="S337" s="1"/>
+      <c r="V337" s="1"/>
+      <c r="X337" s="1"/>
+    </row>
+    <row r="338" spans="1:24">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -8673,10 +9017,11 @@
       <c r="P338" s="1"/>
       <c r="Q338" s="1"/>
       <c r="R338" s="1"/>
-      <c r="U338" s="1"/>
-      <c r="W338" s="1"/>
-    </row>
-    <row r="339" spans="1:23">
+      <c r="S338" s="1"/>
+      <c r="V338" s="1"/>
+      <c r="X338" s="1"/>
+    </row>
+    <row r="339" spans="1:24">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -8694,10 +9039,11 @@
       <c r="P339" s="1"/>
       <c r="Q339" s="1"/>
       <c r="R339" s="1"/>
-      <c r="U339" s="1"/>
-      <c r="W339" s="1"/>
-    </row>
-    <row r="340" spans="1:23">
+      <c r="S339" s="1"/>
+      <c r="V339" s="1"/>
+      <c r="X339" s="1"/>
+    </row>
+    <row r="340" spans="1:24">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -8715,10 +9061,11 @@
       <c r="P340" s="1"/>
       <c r="Q340" s="1"/>
       <c r="R340" s="1"/>
-      <c r="U340" s="1"/>
-      <c r="W340" s="1"/>
-    </row>
-    <row r="341" spans="1:23">
+      <c r="S340" s="1"/>
+      <c r="V340" s="1"/>
+      <c r="X340" s="1"/>
+    </row>
+    <row r="341" spans="1:24">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -8736,10 +9083,11 @@
       <c r="P341" s="1"/>
       <c r="Q341" s="1"/>
       <c r="R341" s="1"/>
-      <c r="U341" s="1"/>
-      <c r="W341" s="1"/>
-    </row>
-    <row r="342" spans="1:23">
+      <c r="S341" s="1"/>
+      <c r="V341" s="1"/>
+      <c r="X341" s="1"/>
+    </row>
+    <row r="342" spans="1:24">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -8757,10 +9105,11 @@
       <c r="P342" s="1"/>
       <c r="Q342" s="1"/>
       <c r="R342" s="1"/>
-      <c r="U342" s="1"/>
-      <c r="W342" s="1"/>
-    </row>
-    <row r="343" spans="1:23">
+      <c r="S342" s="1"/>
+      <c r="V342" s="1"/>
+      <c r="X342" s="1"/>
+    </row>
+    <row r="343" spans="1:24">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -8778,10 +9127,11 @@
       <c r="P343" s="1"/>
       <c r="Q343" s="1"/>
       <c r="R343" s="1"/>
-      <c r="U343" s="1"/>
-      <c r="W343" s="1"/>
-    </row>
-    <row r="344" spans="1:23">
+      <c r="S343" s="1"/>
+      <c r="V343" s="1"/>
+      <c r="X343" s="1"/>
+    </row>
+    <row r="344" spans="1:24">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -8799,10 +9149,11 @@
       <c r="P344" s="1"/>
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
-      <c r="U344" s="1"/>
-      <c r="W344" s="1"/>
-    </row>
-    <row r="345" spans="1:23">
+      <c r="S344" s="1"/>
+      <c r="V344" s="1"/>
+      <c r="X344" s="1"/>
+    </row>
+    <row r="345" spans="1:24">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -8820,10 +9171,11 @@
       <c r="P345" s="1"/>
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
-      <c r="U345" s="1"/>
-      <c r="W345" s="1"/>
-    </row>
-    <row r="346" spans="1:23">
+      <c r="S345" s="1"/>
+      <c r="V345" s="1"/>
+      <c r="X345" s="1"/>
+    </row>
+    <row r="346" spans="1:24">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -8841,10 +9193,11 @@
       <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
       <c r="R346" s="1"/>
-      <c r="U346" s="1"/>
-      <c r="W346" s="1"/>
-    </row>
-    <row r="347" spans="1:23">
+      <c r="S346" s="1"/>
+      <c r="V346" s="1"/>
+      <c r="X346" s="1"/>
+    </row>
+    <row r="347" spans="1:24">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -8862,10 +9215,11 @@
       <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
       <c r="R347" s="1"/>
-      <c r="U347" s="1"/>
-      <c r="W347" s="1"/>
-    </row>
-    <row r="348" spans="1:23">
+      <c r="S347" s="1"/>
+      <c r="V347" s="1"/>
+      <c r="X347" s="1"/>
+    </row>
+    <row r="348" spans="1:24">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -8883,10 +9237,11 @@
       <c r="P348" s="1"/>
       <c r="Q348" s="1"/>
       <c r="R348" s="1"/>
-      <c r="U348" s="1"/>
-      <c r="W348" s="1"/>
-    </row>
-    <row r="349" spans="1:23">
+      <c r="S348" s="1"/>
+      <c r="V348" s="1"/>
+      <c r="X348" s="1"/>
+    </row>
+    <row r="349" spans="1:24">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -8904,10 +9259,11 @@
       <c r="P349" s="1"/>
       <c r="Q349" s="1"/>
       <c r="R349" s="1"/>
-      <c r="U349" s="1"/>
-      <c r="W349" s="1"/>
-    </row>
-    <row r="350" spans="1:23">
+      <c r="S349" s="1"/>
+      <c r="V349" s="1"/>
+      <c r="X349" s="1"/>
+    </row>
+    <row r="350" spans="1:24">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -8925,10 +9281,11 @@
       <c r="P350" s="1"/>
       <c r="Q350" s="1"/>
       <c r="R350" s="1"/>
-      <c r="U350" s="1"/>
-      <c r="W350" s="1"/>
-    </row>
-    <row r="351" spans="1:23">
+      <c r="S350" s="1"/>
+      <c r="V350" s="1"/>
+      <c r="X350" s="1"/>
+    </row>
+    <row r="351" spans="1:24">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -8946,10 +9303,11 @@
       <c r="P351" s="1"/>
       <c r="Q351" s="1"/>
       <c r="R351" s="1"/>
-      <c r="U351" s="1"/>
-      <c r="W351" s="1"/>
-    </row>
-    <row r="352" spans="1:23">
+      <c r="S351" s="1"/>
+      <c r="V351" s="1"/>
+      <c r="X351" s="1"/>
+    </row>
+    <row r="352" spans="1:24">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -8967,10 +9325,11 @@
       <c r="P352" s="1"/>
       <c r="Q352" s="1"/>
       <c r="R352" s="1"/>
-      <c r="U352" s="1"/>
-      <c r="W352" s="1"/>
-    </row>
-    <row r="353" spans="1:23">
+      <c r="S352" s="1"/>
+      <c r="V352" s="1"/>
+      <c r="X352" s="1"/>
+    </row>
+    <row r="353" spans="1:24">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -8988,10 +9347,11 @@
       <c r="P353" s="1"/>
       <c r="Q353" s="1"/>
       <c r="R353" s="1"/>
-      <c r="U353" s="1"/>
-      <c r="W353" s="1"/>
-    </row>
-    <row r="354" spans="1:23">
+      <c r="S353" s="1"/>
+      <c r="V353" s="1"/>
+      <c r="X353" s="1"/>
+    </row>
+    <row r="354" spans="1:24">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -9009,10 +9369,11 @@
       <c r="P354" s="1"/>
       <c r="Q354" s="1"/>
       <c r="R354" s="1"/>
-      <c r="U354" s="1"/>
-      <c r="W354" s="1"/>
-    </row>
-    <row r="355" spans="1:23">
+      <c r="S354" s="1"/>
+      <c r="V354" s="1"/>
+      <c r="X354" s="1"/>
+    </row>
+    <row r="355" spans="1:24">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -9030,10 +9391,11 @@
       <c r="P355" s="1"/>
       <c r="Q355" s="1"/>
       <c r="R355" s="1"/>
-      <c r="U355" s="1"/>
-      <c r="W355" s="1"/>
-    </row>
-    <row r="356" spans="1:23">
+      <c r="S355" s="1"/>
+      <c r="V355" s="1"/>
+      <c r="X355" s="1"/>
+    </row>
+    <row r="356" spans="1:24">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -9051,10 +9413,11 @@
       <c r="P356" s="1"/>
       <c r="Q356" s="1"/>
       <c r="R356" s="1"/>
-      <c r="U356" s="1"/>
-      <c r="W356" s="1"/>
-    </row>
-    <row r="357" spans="1:23">
+      <c r="S356" s="1"/>
+      <c r="V356" s="1"/>
+      <c r="X356" s="1"/>
+    </row>
+    <row r="357" spans="1:24">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -9072,10 +9435,11 @@
       <c r="P357" s="1"/>
       <c r="Q357" s="1"/>
       <c r="R357" s="1"/>
-      <c r="U357" s="1"/>
-      <c r="W357" s="1"/>
-    </row>
-    <row r="358" spans="1:23">
+      <c r="S357" s="1"/>
+      <c r="V357" s="1"/>
+      <c r="X357" s="1"/>
+    </row>
+    <row r="358" spans="1:24">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -9093,10 +9457,11 @@
       <c r="P358" s="1"/>
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
-      <c r="U358" s="1"/>
-      <c r="W358" s="1"/>
-    </row>
-    <row r="359" spans="1:23">
+      <c r="S358" s="1"/>
+      <c r="V358" s="1"/>
+      <c r="X358" s="1"/>
+    </row>
+    <row r="359" spans="1:24">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -9114,10 +9479,11 @@
       <c r="P359" s="1"/>
       <c r="Q359" s="1"/>
       <c r="R359" s="1"/>
-      <c r="U359" s="1"/>
-      <c r="W359" s="1"/>
-    </row>
-    <row r="360" spans="1:23">
+      <c r="S359" s="1"/>
+      <c r="V359" s="1"/>
+      <c r="X359" s="1"/>
+    </row>
+    <row r="360" spans="1:24">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -9135,10 +9501,11 @@
       <c r="P360" s="1"/>
       <c r="Q360" s="1"/>
       <c r="R360" s="1"/>
-      <c r="U360" s="1"/>
-      <c r="W360" s="1"/>
-    </row>
-    <row r="361" spans="1:23">
+      <c r="S360" s="1"/>
+      <c r="V360" s="1"/>
+      <c r="X360" s="1"/>
+    </row>
+    <row r="361" spans="1:24">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -9156,10 +9523,11 @@
       <c r="P361" s="1"/>
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
-      <c r="U361" s="1"/>
-      <c r="W361" s="1"/>
-    </row>
-    <row r="362" spans="1:23">
+      <c r="S361" s="1"/>
+      <c r="V361" s="1"/>
+      <c r="X361" s="1"/>
+    </row>
+    <row r="362" spans="1:24">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -9177,10 +9545,11 @@
       <c r="P362" s="1"/>
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
-      <c r="U362" s="1"/>
-      <c r="W362" s="1"/>
-    </row>
-    <row r="363" spans="1:23">
+      <c r="S362" s="1"/>
+      <c r="V362" s="1"/>
+      <c r="X362" s="1"/>
+    </row>
+    <row r="363" spans="1:24">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -9198,10 +9567,11 @@
       <c r="P363" s="1"/>
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
-      <c r="U363" s="1"/>
-      <c r="W363" s="1"/>
-    </row>
-    <row r="364" spans="1:23">
+      <c r="S363" s="1"/>
+      <c r="V363" s="1"/>
+      <c r="X363" s="1"/>
+    </row>
+    <row r="364" spans="1:24">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -9219,10 +9589,11 @@
       <c r="P364" s="1"/>
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>
-      <c r="U364" s="1"/>
-      <c r="W364" s="1"/>
-    </row>
-    <row r="365" spans="1:23">
+      <c r="S364" s="1"/>
+      <c r="V364" s="1"/>
+      <c r="X364" s="1"/>
+    </row>
+    <row r="365" spans="1:24">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -9240,10 +9611,11 @@
       <c r="P365" s="1"/>
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
-      <c r="U365" s="1"/>
-      <c r="W365" s="1"/>
-    </row>
-    <row r="366" spans="1:23">
+      <c r="S365" s="1"/>
+      <c r="V365" s="1"/>
+      <c r="X365" s="1"/>
+    </row>
+    <row r="366" spans="1:24">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -9261,10 +9633,11 @@
       <c r="P366" s="1"/>
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
-      <c r="U366" s="1"/>
-      <c r="W366" s="1"/>
-    </row>
-    <row r="367" spans="1:23">
+      <c r="S366" s="1"/>
+      <c r="V366" s="1"/>
+      <c r="X366" s="1"/>
+    </row>
+    <row r="367" spans="1:24">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -9282,10 +9655,11 @@
       <c r="P367" s="1"/>
       <c r="Q367" s="1"/>
       <c r="R367" s="1"/>
-      <c r="U367" s="1"/>
-      <c r="W367" s="1"/>
-    </row>
-    <row r="368" spans="1:23">
+      <c r="S367" s="1"/>
+      <c r="V367" s="1"/>
+      <c r="X367" s="1"/>
+    </row>
+    <row r="368" spans="1:24">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -9303,10 +9677,11 @@
       <c r="P368" s="1"/>
       <c r="Q368" s="1"/>
       <c r="R368" s="1"/>
-      <c r="U368" s="1"/>
-      <c r="W368" s="1"/>
-    </row>
-    <row r="369" spans="1:23">
+      <c r="S368" s="1"/>
+      <c r="V368" s="1"/>
+      <c r="X368" s="1"/>
+    </row>
+    <row r="369" spans="1:24">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -9324,10 +9699,11 @@
       <c r="P369" s="1"/>
       <c r="Q369" s="1"/>
       <c r="R369" s="1"/>
-      <c r="U369" s="1"/>
-      <c r="W369" s="1"/>
-    </row>
-    <row r="370" spans="1:23">
+      <c r="S369" s="1"/>
+      <c r="V369" s="1"/>
+      <c r="X369" s="1"/>
+    </row>
+    <row r="370" spans="1:24">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -9345,10 +9721,11 @@
       <c r="P370" s="1"/>
       <c r="Q370" s="1"/>
       <c r="R370" s="1"/>
-      <c r="U370" s="1"/>
-      <c r="W370" s="1"/>
-    </row>
-    <row r="371" spans="1:23">
+      <c r="S370" s="1"/>
+      <c r="V370" s="1"/>
+      <c r="X370" s="1"/>
+    </row>
+    <row r="371" spans="1:24">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -9366,10 +9743,11 @@
       <c r="P371" s="1"/>
       <c r="Q371" s="1"/>
       <c r="R371" s="1"/>
-      <c r="U371" s="1"/>
-      <c r="W371" s="1"/>
-    </row>
-    <row r="372" spans="1:23">
+      <c r="S371" s="1"/>
+      <c r="V371" s="1"/>
+      <c r="X371" s="1"/>
+    </row>
+    <row r="372" spans="1:24">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -9387,10 +9765,11 @@
       <c r="P372" s="1"/>
       <c r="Q372" s="1"/>
       <c r="R372" s="1"/>
-      <c r="U372" s="1"/>
-      <c r="W372" s="1"/>
-    </row>
-    <row r="373" spans="1:23">
+      <c r="S372" s="1"/>
+      <c r="V372" s="1"/>
+      <c r="X372" s="1"/>
+    </row>
+    <row r="373" spans="1:24">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -9408,10 +9787,11 @@
       <c r="P373" s="1"/>
       <c r="Q373" s="1"/>
       <c r="R373" s="1"/>
-      <c r="U373" s="1"/>
-      <c r="W373" s="1"/>
-    </row>
-    <row r="374" spans="1:23">
+      <c r="S373" s="1"/>
+      <c r="V373" s="1"/>
+      <c r="X373" s="1"/>
+    </row>
+    <row r="374" spans="1:24">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -9429,10 +9809,11 @@
       <c r="P374" s="1"/>
       <c r="Q374" s="1"/>
       <c r="R374" s="1"/>
-      <c r="U374" s="1"/>
-      <c r="W374" s="1"/>
-    </row>
-    <row r="375" spans="1:23">
+      <c r="S374" s="1"/>
+      <c r="V374" s="1"/>
+      <c r="X374" s="1"/>
+    </row>
+    <row r="375" spans="1:24">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -9450,10 +9831,11 @@
       <c r="P375" s="1"/>
       <c r="Q375" s="1"/>
       <c r="R375" s="1"/>
-      <c r="U375" s="1"/>
-      <c r="W375" s="1"/>
-    </row>
-    <row r="376" spans="1:23">
+      <c r="S375" s="1"/>
+      <c r="V375" s="1"/>
+      <c r="X375" s="1"/>
+    </row>
+    <row r="376" spans="1:24">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -9471,10 +9853,11 @@
       <c r="P376" s="1"/>
       <c r="Q376" s="1"/>
       <c r="R376" s="1"/>
-      <c r="U376" s="1"/>
-      <c r="W376" s="1"/>
-    </row>
-    <row r="377" spans="1:23">
+      <c r="S376" s="1"/>
+      <c r="V376" s="1"/>
+      <c r="X376" s="1"/>
+    </row>
+    <row r="377" spans="1:24">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -9492,10 +9875,11 @@
       <c r="P377" s="1"/>
       <c r="Q377" s="1"/>
       <c r="R377" s="1"/>
-      <c r="U377" s="1"/>
-      <c r="W377" s="1"/>
-    </row>
-    <row r="378" spans="1:23">
+      <c r="S377" s="1"/>
+      <c r="V377" s="1"/>
+      <c r="X377" s="1"/>
+    </row>
+    <row r="378" spans="1:24">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -9513,10 +9897,11 @@
       <c r="P378" s="1"/>
       <c r="Q378" s="1"/>
       <c r="R378" s="1"/>
-      <c r="U378" s="1"/>
-      <c r="W378" s="1"/>
-    </row>
-    <row r="379" spans="1:23">
+      <c r="S378" s="1"/>
+      <c r="V378" s="1"/>
+      <c r="X378" s="1"/>
+    </row>
+    <row r="379" spans="1:24">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -9534,10 +9919,11 @@
       <c r="P379" s="1"/>
       <c r="Q379" s="1"/>
       <c r="R379" s="1"/>
-      <c r="U379" s="1"/>
-      <c r="W379" s="1"/>
-    </row>
-    <row r="380" spans="1:23">
+      <c r="S379" s="1"/>
+      <c r="V379" s="1"/>
+      <c r="X379" s="1"/>
+    </row>
+    <row r="380" spans="1:24">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -9555,10 +9941,11 @@
       <c r="P380" s="1"/>
       <c r="Q380" s="1"/>
       <c r="R380" s="1"/>
-      <c r="U380" s="1"/>
-      <c r="W380" s="1"/>
-    </row>
-    <row r="381" spans="1:23">
+      <c r="S380" s="1"/>
+      <c r="V380" s="1"/>
+      <c r="X380" s="1"/>
+    </row>
+    <row r="381" spans="1:24">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -9576,10 +9963,11 @@
       <c r="P381" s="1"/>
       <c r="Q381" s="1"/>
       <c r="R381" s="1"/>
-      <c r="U381" s="1"/>
-      <c r="W381" s="1"/>
-    </row>
-    <row r="382" spans="1:23">
+      <c r="S381" s="1"/>
+      <c r="V381" s="1"/>
+      <c r="X381" s="1"/>
+    </row>
+    <row r="382" spans="1:24">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -9597,10 +9985,11 @@
       <c r="P382" s="1"/>
       <c r="Q382" s="1"/>
       <c r="R382" s="1"/>
-      <c r="U382" s="1"/>
-      <c r="W382" s="1"/>
-    </row>
-    <row r="383" spans="1:23">
+      <c r="S382" s="1"/>
+      <c r="V382" s="1"/>
+      <c r="X382" s="1"/>
+    </row>
+    <row r="383" spans="1:24">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -9618,10 +10007,11 @@
       <c r="P383" s="1"/>
       <c r="Q383" s="1"/>
       <c r="R383" s="1"/>
-      <c r="U383" s="1"/>
-      <c r="W383" s="1"/>
-    </row>
-    <row r="384" spans="1:23">
+      <c r="S383" s="1"/>
+      <c r="V383" s="1"/>
+      <c r="X383" s="1"/>
+    </row>
+    <row r="384" spans="1:24">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -9639,10 +10029,11 @@
       <c r="P384" s="1"/>
       <c r="Q384" s="1"/>
       <c r="R384" s="1"/>
-      <c r="U384" s="1"/>
-      <c r="W384" s="1"/>
-    </row>
-    <row r="385" spans="1:23">
+      <c r="S384" s="1"/>
+      <c r="V384" s="1"/>
+      <c r="X384" s="1"/>
+    </row>
+    <row r="385" spans="1:24">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -9660,10 +10051,11 @@
       <c r="P385" s="1"/>
       <c r="Q385" s="1"/>
       <c r="R385" s="1"/>
-      <c r="U385" s="1"/>
-      <c r="W385" s="1"/>
-    </row>
-    <row r="386" spans="1:23">
+      <c r="S385" s="1"/>
+      <c r="V385" s="1"/>
+      <c r="X385" s="1"/>
+    </row>
+    <row r="386" spans="1:24">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -9681,10 +10073,11 @@
       <c r="P386" s="1"/>
       <c r="Q386" s="1"/>
       <c r="R386" s="1"/>
-      <c r="U386" s="1"/>
-      <c r="W386" s="1"/>
-    </row>
-    <row r="387" spans="1:23">
+      <c r="S386" s="1"/>
+      <c r="V386" s="1"/>
+      <c r="X386" s="1"/>
+    </row>
+    <row r="387" spans="1:24">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -9702,10 +10095,11 @@
       <c r="P387" s="1"/>
       <c r="Q387" s="1"/>
       <c r="R387" s="1"/>
-      <c r="U387" s="1"/>
-      <c r="W387" s="1"/>
-    </row>
-    <row r="388" spans="1:23">
+      <c r="S387" s="1"/>
+      <c r="V387" s="1"/>
+      <c r="X387" s="1"/>
+    </row>
+    <row r="388" spans="1:24">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -9723,10 +10117,11 @@
       <c r="P388" s="1"/>
       <c r="Q388" s="1"/>
       <c r="R388" s="1"/>
-      <c r="U388" s="1"/>
-      <c r="W388" s="1"/>
-    </row>
-    <row r="389" spans="1:23">
+      <c r="S388" s="1"/>
+      <c r="V388" s="1"/>
+      <c r="X388" s="1"/>
+    </row>
+    <row r="389" spans="1:24">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -9744,10 +10139,11 @@
       <c r="P389" s="1"/>
       <c r="Q389" s="1"/>
       <c r="R389" s="1"/>
-      <c r="U389" s="1"/>
-      <c r="W389" s="1"/>
-    </row>
-    <row r="390" spans="1:23">
+      <c r="S389" s="1"/>
+      <c r="V389" s="1"/>
+      <c r="X389" s="1"/>
+    </row>
+    <row r="390" spans="1:24">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -9765,10 +10161,11 @@
       <c r="P390" s="1"/>
       <c r="Q390" s="1"/>
       <c r="R390" s="1"/>
-      <c r="U390" s="1"/>
-      <c r="W390" s="1"/>
-    </row>
-    <row r="391" spans="1:23">
+      <c r="S390" s="1"/>
+      <c r="V390" s="1"/>
+      <c r="X390" s="1"/>
+    </row>
+    <row r="391" spans="1:24">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -9786,10 +10183,11 @@
       <c r="P391" s="1"/>
       <c r="Q391" s="1"/>
       <c r="R391" s="1"/>
-      <c r="U391" s="1"/>
-      <c r="W391" s="1"/>
-    </row>
-    <row r="392" spans="1:23">
+      <c r="S391" s="1"/>
+      <c r="V391" s="1"/>
+      <c r="X391" s="1"/>
+    </row>
+    <row r="392" spans="1:24">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -9807,10 +10205,11 @@
       <c r="P392" s="1"/>
       <c r="Q392" s="1"/>
       <c r="R392" s="1"/>
-      <c r="U392" s="1"/>
-      <c r="W392" s="1"/>
-    </row>
-    <row r="393" spans="1:23">
+      <c r="S392" s="1"/>
+      <c r="V392" s="1"/>
+      <c r="X392" s="1"/>
+    </row>
+    <row r="393" spans="1:24">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -9828,10 +10227,11 @@
       <c r="P393" s="1"/>
       <c r="Q393" s="1"/>
       <c r="R393" s="1"/>
-      <c r="U393" s="1"/>
-      <c r="W393" s="1"/>
-    </row>
-    <row r="394" spans="1:23">
+      <c r="S393" s="1"/>
+      <c r="V393" s="1"/>
+      <c r="X393" s="1"/>
+    </row>
+    <row r="394" spans="1:24">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -9849,10 +10249,11 @@
       <c r="P394" s="1"/>
       <c r="Q394" s="1"/>
       <c r="R394" s="1"/>
-      <c r="U394" s="1"/>
-      <c r="W394" s="1"/>
-    </row>
-    <row r="395" spans="1:23">
+      <c r="S394" s="1"/>
+      <c r="V394" s="1"/>
+      <c r="X394" s="1"/>
+    </row>
+    <row r="395" spans="1:24">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -9870,10 +10271,11 @@
       <c r="P395" s="1"/>
       <c r="Q395" s="1"/>
       <c r="R395" s="1"/>
-      <c r="U395" s="1"/>
-      <c r="W395" s="1"/>
-    </row>
-    <row r="396" spans="1:23">
+      <c r="S395" s="1"/>
+      <c r="V395" s="1"/>
+      <c r="X395" s="1"/>
+    </row>
+    <row r="396" spans="1:24">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -9891,10 +10293,11 @@
       <c r="P396" s="1"/>
       <c r="Q396" s="1"/>
       <c r="R396" s="1"/>
-      <c r="U396" s="1"/>
-      <c r="W396" s="1"/>
-    </row>
-    <row r="397" spans="1:23">
+      <c r="S396" s="1"/>
+      <c r="V396" s="1"/>
+      <c r="X396" s="1"/>
+    </row>
+    <row r="397" spans="1:24">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -9912,10 +10315,11 @@
       <c r="P397" s="1"/>
       <c r="Q397" s="1"/>
       <c r="R397" s="1"/>
-      <c r="U397" s="1"/>
-      <c r="W397" s="1"/>
-    </row>
-    <row r="398" spans="1:23">
+      <c r="S397" s="1"/>
+      <c r="V397" s="1"/>
+      <c r="X397" s="1"/>
+    </row>
+    <row r="398" spans="1:24">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -9933,10 +10337,11 @@
       <c r="P398" s="1"/>
       <c r="Q398" s="1"/>
       <c r="R398" s="1"/>
-      <c r="U398" s="1"/>
-      <c r="W398" s="1"/>
-    </row>
-    <row r="399" spans="1:23">
+      <c r="S398" s="1"/>
+      <c r="V398" s="1"/>
+      <c r="X398" s="1"/>
+    </row>
+    <row r="399" spans="1:24">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -9954,10 +10359,11 @@
       <c r="P399" s="1"/>
       <c r="Q399" s="1"/>
       <c r="R399" s="1"/>
-      <c r="U399" s="1"/>
-      <c r="W399" s="1"/>
-    </row>
-    <row r="400" spans="1:23">
+      <c r="S399" s="1"/>
+      <c r="V399" s="1"/>
+      <c r="X399" s="1"/>
+    </row>
+    <row r="400" spans="1:24">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -9975,10 +10381,11 @@
       <c r="P400" s="1"/>
       <c r="Q400" s="1"/>
       <c r="R400" s="1"/>
-      <c r="U400" s="1"/>
-      <c r="W400" s="1"/>
-    </row>
-    <row r="401" spans="1:23">
+      <c r="S400" s="1"/>
+      <c r="V400" s="1"/>
+      <c r="X400" s="1"/>
+    </row>
+    <row r="401" spans="1:24">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -9996,10 +10403,11 @@
       <c r="P401" s="1"/>
       <c r="Q401" s="1"/>
       <c r="R401" s="1"/>
-      <c r="U401" s="1"/>
-      <c r="W401" s="1"/>
-    </row>
-    <row r="402" spans="1:23">
+      <c r="S401" s="1"/>
+      <c r="V401" s="1"/>
+      <c r="X401" s="1"/>
+    </row>
+    <row r="402" spans="1:24">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -10017,10 +10425,11 @@
       <c r="P402" s="1"/>
       <c r="Q402" s="1"/>
       <c r="R402" s="1"/>
-      <c r="U402" s="1"/>
-      <c r="W402" s="1"/>
-    </row>
-    <row r="403" spans="1:23">
+      <c r="S402" s="1"/>
+      <c r="V402" s="1"/>
+      <c r="X402" s="1"/>
+    </row>
+    <row r="403" spans="1:24">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -10038,10 +10447,11 @@
       <c r="P403" s="1"/>
       <c r="Q403" s="1"/>
       <c r="R403" s="1"/>
-      <c r="U403" s="1"/>
-      <c r="W403" s="1"/>
-    </row>
-    <row r="404" spans="1:23">
+      <c r="S403" s="1"/>
+      <c r="V403" s="1"/>
+      <c r="X403" s="1"/>
+    </row>
+    <row r="404" spans="1:24">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -10059,10 +10469,11 @@
       <c r="P404" s="1"/>
       <c r="Q404" s="1"/>
       <c r="R404" s="1"/>
-      <c r="U404" s="1"/>
-      <c r="W404" s="1"/>
-    </row>
-    <row r="405" spans="1:23">
+      <c r="S404" s="1"/>
+      <c r="V404" s="1"/>
+      <c r="X404" s="1"/>
+    </row>
+    <row r="405" spans="1:24">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -10080,10 +10491,11 @@
       <c r="P405" s="1"/>
       <c r="Q405" s="1"/>
       <c r="R405" s="1"/>
-      <c r="U405" s="1"/>
-      <c r="W405" s="1"/>
-    </row>
-    <row r="406" spans="1:23">
+      <c r="S405" s="1"/>
+      <c r="V405" s="1"/>
+      <c r="X405" s="1"/>
+    </row>
+    <row r="406" spans="1:24">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -10101,10 +10513,11 @@
       <c r="P406" s="1"/>
       <c r="Q406" s="1"/>
       <c r="R406" s="1"/>
-      <c r="U406" s="1"/>
-      <c r="W406" s="1"/>
-    </row>
-    <row r="407" spans="1:23">
+      <c r="S406" s="1"/>
+      <c r="V406" s="1"/>
+      <c r="X406" s="1"/>
+    </row>
+    <row r="407" spans="1:24">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -10122,10 +10535,11 @@
       <c r="P407" s="1"/>
       <c r="Q407" s="1"/>
       <c r="R407" s="1"/>
-      <c r="U407" s="1"/>
-      <c r="W407" s="1"/>
-    </row>
-    <row r="408" spans="1:23">
+      <c r="S407" s="1"/>
+      <c r="V407" s="1"/>
+      <c r="X407" s="1"/>
+    </row>
+    <row r="408" spans="1:24">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -10143,10 +10557,11 @@
       <c r="P408" s="1"/>
       <c r="Q408" s="1"/>
       <c r="R408" s="1"/>
-      <c r="U408" s="1"/>
-      <c r="W408" s="1"/>
-    </row>
-    <row r="409" spans="1:23">
+      <c r="S408" s="1"/>
+      <c r="V408" s="1"/>
+      <c r="X408" s="1"/>
+    </row>
+    <row r="409" spans="1:24">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -10164,10 +10579,11 @@
       <c r="P409" s="1"/>
       <c r="Q409" s="1"/>
       <c r="R409" s="1"/>
-      <c r="U409" s="1"/>
-      <c r="W409" s="1"/>
-    </row>
-    <row r="410" spans="1:23">
+      <c r="S409" s="1"/>
+      <c r="V409" s="1"/>
+      <c r="X409" s="1"/>
+    </row>
+    <row r="410" spans="1:24">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -10185,10 +10601,11 @@
       <c r="P410" s="1"/>
       <c r="Q410" s="1"/>
       <c r="R410" s="1"/>
-      <c r="U410" s="1"/>
-      <c r="W410" s="1"/>
-    </row>
-    <row r="411" spans="1:23">
+      <c r="S410" s="1"/>
+      <c r="V410" s="1"/>
+      <c r="X410" s="1"/>
+    </row>
+    <row r="411" spans="1:24">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -10206,10 +10623,11 @@
       <c r="P411" s="1"/>
       <c r="Q411" s="1"/>
       <c r="R411" s="1"/>
-      <c r="U411" s="1"/>
-      <c r="W411" s="1"/>
-    </row>
-    <row r="412" spans="1:23">
+      <c r="S411" s="1"/>
+      <c r="V411" s="1"/>
+      <c r="X411" s="1"/>
+    </row>
+    <row r="412" spans="1:24">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -10227,10 +10645,11 @@
       <c r="P412" s="1"/>
       <c r="Q412" s="1"/>
       <c r="R412" s="1"/>
-      <c r="U412" s="1"/>
-      <c r="W412" s="1"/>
-    </row>
-    <row r="413" spans="1:23">
+      <c r="S412" s="1"/>
+      <c r="V412" s="1"/>
+      <c r="X412" s="1"/>
+    </row>
+    <row r="413" spans="1:24">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -10248,10 +10667,11 @@
       <c r="P413" s="1"/>
       <c r="Q413" s="1"/>
       <c r="R413" s="1"/>
-      <c r="U413" s="1"/>
-      <c r="W413" s="1"/>
-    </row>
-    <row r="414" spans="1:23">
+      <c r="S413" s="1"/>
+      <c r="V413" s="1"/>
+      <c r="X413" s="1"/>
+    </row>
+    <row r="414" spans="1:24">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -10269,10 +10689,11 @@
       <c r="P414" s="1"/>
       <c r="Q414" s="1"/>
       <c r="R414" s="1"/>
-      <c r="U414" s="1"/>
-      <c r="W414" s="1"/>
-    </row>
-    <row r="415" spans="1:23">
+      <c r="S414" s="1"/>
+      <c r="V414" s="1"/>
+      <c r="X414" s="1"/>
+    </row>
+    <row r="415" spans="1:24">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -10290,10 +10711,11 @@
       <c r="P415" s="1"/>
       <c r="Q415" s="1"/>
       <c r="R415" s="1"/>
-      <c r="U415" s="1"/>
-      <c r="W415" s="1"/>
-    </row>
-    <row r="416" spans="1:23">
+      <c r="S415" s="1"/>
+      <c r="V415" s="1"/>
+      <c r="X415" s="1"/>
+    </row>
+    <row r="416" spans="1:24">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -10311,10 +10733,11 @@
       <c r="P416" s="1"/>
       <c r="Q416" s="1"/>
       <c r="R416" s="1"/>
-      <c r="U416" s="1"/>
-      <c r="W416" s="1"/>
-    </row>
-    <row r="417" spans="1:23">
+      <c r="S416" s="1"/>
+      <c r="V416" s="1"/>
+      <c r="X416" s="1"/>
+    </row>
+    <row r="417" spans="1:24">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -10332,10 +10755,11 @@
       <c r="P417" s="1"/>
       <c r="Q417" s="1"/>
       <c r="R417" s="1"/>
-      <c r="U417" s="1"/>
-      <c r="W417" s="1"/>
-    </row>
-    <row r="418" spans="1:23">
+      <c r="S417" s="1"/>
+      <c r="V417" s="1"/>
+      <c r="X417" s="1"/>
+    </row>
+    <row r="418" spans="1:24">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -10353,10 +10777,11 @@
       <c r="P418" s="1"/>
       <c r="Q418" s="1"/>
       <c r="R418" s="1"/>
-      <c r="U418" s="1"/>
-      <c r="W418" s="1"/>
-    </row>
-    <row r="419" spans="1:23">
+      <c r="S418" s="1"/>
+      <c r="V418" s="1"/>
+      <c r="X418" s="1"/>
+    </row>
+    <row r="419" spans="1:24">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -10374,10 +10799,11 @@
       <c r="P419" s="1"/>
       <c r="Q419" s="1"/>
       <c r="R419" s="1"/>
-      <c r="U419" s="1"/>
-      <c r="W419" s="1"/>
-    </row>
-    <row r="420" spans="1:23">
+      <c r="S419" s="1"/>
+      <c r="V419" s="1"/>
+      <c r="X419" s="1"/>
+    </row>
+    <row r="420" spans="1:24">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -10395,10 +10821,11 @@
       <c r="P420" s="1"/>
       <c r="Q420" s="1"/>
       <c r="R420" s="1"/>
-      <c r="U420" s="1"/>
-      <c r="W420" s="1"/>
-    </row>
-    <row r="421" spans="1:23">
+      <c r="S420" s="1"/>
+      <c r="V420" s="1"/>
+      <c r="X420" s="1"/>
+    </row>
+    <row r="421" spans="1:24">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -10416,10 +10843,11 @@
       <c r="P421" s="1"/>
       <c r="Q421" s="1"/>
       <c r="R421" s="1"/>
-      <c r="U421" s="1"/>
-      <c r="W421" s="1"/>
-    </row>
-    <row r="422" spans="1:23">
+      <c r="S421" s="1"/>
+      <c r="V421" s="1"/>
+      <c r="X421" s="1"/>
+    </row>
+    <row r="422" spans="1:24">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -10437,10 +10865,11 @@
       <c r="P422" s="1"/>
       <c r="Q422" s="1"/>
       <c r="R422" s="1"/>
-      <c r="U422" s="1"/>
-      <c r="W422" s="1"/>
-    </row>
-    <row r="423" spans="1:23">
+      <c r="S422" s="1"/>
+      <c r="V422" s="1"/>
+      <c r="X422" s="1"/>
+    </row>
+    <row r="423" spans="1:24">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -10458,10 +10887,11 @@
       <c r="P423" s="1"/>
       <c r="Q423" s="1"/>
       <c r="R423" s="1"/>
-      <c r="U423" s="1"/>
-      <c r="W423" s="1"/>
-    </row>
-    <row r="424" spans="1:23">
+      <c r="S423" s="1"/>
+      <c r="V423" s="1"/>
+      <c r="X423" s="1"/>
+    </row>
+    <row r="424" spans="1:24">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -10479,10 +10909,11 @@
       <c r="P424" s="1"/>
       <c r="Q424" s="1"/>
       <c r="R424" s="1"/>
-      <c r="U424" s="1"/>
-      <c r="W424" s="1"/>
-    </row>
-    <row r="425" spans="1:23">
+      <c r="S424" s="1"/>
+      <c r="V424" s="1"/>
+      <c r="X424" s="1"/>
+    </row>
+    <row r="425" spans="1:24">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -10500,10 +10931,11 @@
       <c r="P425" s="1"/>
       <c r="Q425" s="1"/>
       <c r="R425" s="1"/>
-      <c r="U425" s="1"/>
-      <c r="W425" s="1"/>
-    </row>
-    <row r="426" spans="1:23">
+      <c r="S425" s="1"/>
+      <c r="V425" s="1"/>
+      <c r="X425" s="1"/>
+    </row>
+    <row r="426" spans="1:24">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -10521,10 +10953,11 @@
       <c r="P426" s="1"/>
       <c r="Q426" s="1"/>
       <c r="R426" s="1"/>
-      <c r="U426" s="1"/>
-      <c r="W426" s="1"/>
-    </row>
-    <row r="427" spans="1:23">
+      <c r="S426" s="1"/>
+      <c r="V426" s="1"/>
+      <c r="X426" s="1"/>
+    </row>
+    <row r="427" spans="1:24">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -10542,10 +10975,11 @@
       <c r="P427" s="1"/>
       <c r="Q427" s="1"/>
       <c r="R427" s="1"/>
-      <c r="U427" s="1"/>
-      <c r="W427" s="1"/>
-    </row>
-    <row r="428" spans="1:23">
+      <c r="S427" s="1"/>
+      <c r="V427" s="1"/>
+      <c r="X427" s="1"/>
+    </row>
+    <row r="428" spans="1:24">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -10563,10 +10997,11 @@
       <c r="P428" s="1"/>
       <c r="Q428" s="1"/>
       <c r="R428" s="1"/>
-      <c r="U428" s="1"/>
-      <c r="W428" s="1"/>
-    </row>
-    <row r="429" spans="1:23">
+      <c r="S428" s="1"/>
+      <c r="V428" s="1"/>
+      <c r="X428" s="1"/>
+    </row>
+    <row r="429" spans="1:24">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -10584,10 +11019,11 @@
       <c r="P429" s="1"/>
       <c r="Q429" s="1"/>
       <c r="R429" s="1"/>
-      <c r="U429" s="1"/>
-      <c r="W429" s="1"/>
-    </row>
-    <row r="430" spans="1:23">
+      <c r="S429" s="1"/>
+      <c r="V429" s="1"/>
+      <c r="X429" s="1"/>
+    </row>
+    <row r="430" spans="1:24">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -10605,10 +11041,11 @@
       <c r="P430" s="1"/>
       <c r="Q430" s="1"/>
       <c r="R430" s="1"/>
-      <c r="U430" s="1"/>
-      <c r="W430" s="1"/>
-    </row>
-    <row r="431" spans="1:23">
+      <c r="S430" s="1"/>
+      <c r="V430" s="1"/>
+      <c r="X430" s="1"/>
+    </row>
+    <row r="431" spans="1:24">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -10626,10 +11063,11 @@
       <c r="P431" s="1"/>
       <c r="Q431" s="1"/>
       <c r="R431" s="1"/>
-      <c r="U431" s="1"/>
-      <c r="W431" s="1"/>
-    </row>
-    <row r="432" spans="1:23">
+      <c r="S431" s="1"/>
+      <c r="V431" s="1"/>
+      <c r="X431" s="1"/>
+    </row>
+    <row r="432" spans="1:24">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -10647,10 +11085,11 @@
       <c r="P432" s="1"/>
       <c r="Q432" s="1"/>
       <c r="R432" s="1"/>
-      <c r="U432" s="1"/>
-      <c r="W432" s="1"/>
-    </row>
-    <row r="433" spans="1:23">
+      <c r="S432" s="1"/>
+      <c r="V432" s="1"/>
+      <c r="X432" s="1"/>
+    </row>
+    <row r="433" spans="1:24">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -10668,10 +11107,11 @@
       <c r="P433" s="1"/>
       <c r="Q433" s="1"/>
       <c r="R433" s="1"/>
-      <c r="U433" s="1"/>
-      <c r="W433" s="1"/>
-    </row>
-    <row r="434" spans="1:23">
+      <c r="S433" s="1"/>
+      <c r="V433" s="1"/>
+      <c r="X433" s="1"/>
+    </row>
+    <row r="434" spans="1:24">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -10689,10 +11129,11 @@
       <c r="P434" s="1"/>
       <c r="Q434" s="1"/>
       <c r="R434" s="1"/>
-      <c r="U434" s="1"/>
-      <c r="W434" s="1"/>
-    </row>
-    <row r="435" spans="1:23">
+      <c r="S434" s="1"/>
+      <c r="V434" s="1"/>
+      <c r="X434" s="1"/>
+    </row>
+    <row r="435" spans="1:24">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -10710,10 +11151,11 @@
       <c r="P435" s="1"/>
       <c r="Q435" s="1"/>
       <c r="R435" s="1"/>
-      <c r="U435" s="1"/>
-      <c r="W435" s="1"/>
-    </row>
-    <row r="436" spans="1:23">
+      <c r="S435" s="1"/>
+      <c r="V435" s="1"/>
+      <c r="X435" s="1"/>
+    </row>
+    <row r="436" spans="1:24">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -10731,10 +11173,11 @@
       <c r="P436" s="1"/>
       <c r="Q436" s="1"/>
       <c r="R436" s="1"/>
-      <c r="U436" s="1"/>
-      <c r="W436" s="1"/>
-    </row>
-    <row r="437" spans="1:23">
+      <c r="S436" s="1"/>
+      <c r="V436" s="1"/>
+      <c r="X436" s="1"/>
+    </row>
+    <row r="437" spans="1:24">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -10752,10 +11195,11 @@
       <c r="P437" s="1"/>
       <c r="Q437" s="1"/>
       <c r="R437" s="1"/>
-      <c r="U437" s="1"/>
-      <c r="W437" s="1"/>
-    </row>
-    <row r="438" spans="1:23">
+      <c r="S437" s="1"/>
+      <c r="V437" s="1"/>
+      <c r="X437" s="1"/>
+    </row>
+    <row r="438" spans="1:24">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -10773,10 +11217,11 @@
       <c r="P438" s="1"/>
       <c r="Q438" s="1"/>
       <c r="R438" s="1"/>
-      <c r="U438" s="1"/>
-      <c r="W438" s="1"/>
-    </row>
-    <row r="439" spans="1:23">
+      <c r="S438" s="1"/>
+      <c r="V438" s="1"/>
+      <c r="X438" s="1"/>
+    </row>
+    <row r="439" spans="1:24">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -10794,10 +11239,11 @@
       <c r="P439" s="1"/>
       <c r="Q439" s="1"/>
       <c r="R439" s="1"/>
-      <c r="U439" s="1"/>
-      <c r="W439" s="1"/>
-    </row>
-    <row r="440" spans="1:23">
+      <c r="S439" s="1"/>
+      <c r="V439" s="1"/>
+      <c r="X439" s="1"/>
+    </row>
+    <row r="440" spans="1:24">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -10815,10 +11261,11 @@
       <c r="P440" s="1"/>
       <c r="Q440" s="1"/>
       <c r="R440" s="1"/>
-      <c r="U440" s="1"/>
-      <c r="W440" s="1"/>
-    </row>
-    <row r="441" spans="1:23">
+      <c r="S440" s="1"/>
+      <c r="V440" s="1"/>
+      <c r="X440" s="1"/>
+    </row>
+    <row r="441" spans="1:24">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -10836,10 +11283,11 @@
       <c r="P441" s="1"/>
       <c r="Q441" s="1"/>
       <c r="R441" s="1"/>
-      <c r="U441" s="1"/>
-      <c r="W441" s="1"/>
-    </row>
-    <row r="442" spans="1:23">
+      <c r="S441" s="1"/>
+      <c r="V441" s="1"/>
+      <c r="X441" s="1"/>
+    </row>
+    <row r="442" spans="1:24">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -10857,10 +11305,11 @@
       <c r="P442" s="1"/>
       <c r="Q442" s="1"/>
       <c r="R442" s="1"/>
-      <c r="U442" s="1"/>
-      <c r="W442" s="1"/>
-    </row>
-    <row r="443" spans="1:23">
+      <c r="S442" s="1"/>
+      <c r="V442" s="1"/>
+      <c r="X442" s="1"/>
+    </row>
+    <row r="443" spans="1:24">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -10878,10 +11327,11 @@
       <c r="P443" s="1"/>
       <c r="Q443" s="1"/>
       <c r="R443" s="1"/>
-      <c r="U443" s="1"/>
-      <c r="W443" s="1"/>
-    </row>
-    <row r="444" spans="1:23">
+      <c r="S443" s="1"/>
+      <c r="V443" s="1"/>
+      <c r="X443" s="1"/>
+    </row>
+    <row r="444" spans="1:24">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -10899,10 +11349,11 @@
       <c r="P444" s="1"/>
       <c r="Q444" s="1"/>
       <c r="R444" s="1"/>
-      <c r="U444" s="1"/>
-      <c r="W444" s="1"/>
-    </row>
-    <row r="445" spans="1:23">
+      <c r="S444" s="1"/>
+      <c r="V444" s="1"/>
+      <c r="X444" s="1"/>
+    </row>
+    <row r="445" spans="1:24">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -10920,10 +11371,11 @@
       <c r="P445" s="1"/>
       <c r="Q445" s="1"/>
       <c r="R445" s="1"/>
-      <c r="U445" s="1"/>
-      <c r="W445" s="1"/>
-    </row>
-    <row r="446" spans="1:23">
+      <c r="S445" s="1"/>
+      <c r="V445" s="1"/>
+      <c r="X445" s="1"/>
+    </row>
+    <row r="446" spans="1:24">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -10941,10 +11393,11 @@
       <c r="P446" s="1"/>
       <c r="Q446" s="1"/>
       <c r="R446" s="1"/>
-      <c r="U446" s="1"/>
-      <c r="W446" s="1"/>
-    </row>
-    <row r="447" spans="1:23">
+      <c r="S446" s="1"/>
+      <c r="V446" s="1"/>
+      <c r="X446" s="1"/>
+    </row>
+    <row r="447" spans="1:24">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -10962,10 +11415,11 @@
       <c r="P447" s="1"/>
       <c r="Q447" s="1"/>
       <c r="R447" s="1"/>
-      <c r="U447" s="1"/>
-      <c r="W447" s="1"/>
-    </row>
-    <row r="448" spans="1:23">
+      <c r="S447" s="1"/>
+      <c r="V447" s="1"/>
+      <c r="X447" s="1"/>
+    </row>
+    <row r="448" spans="1:24">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -10983,10 +11437,11 @@
       <c r="P448" s="1"/>
       <c r="Q448" s="1"/>
       <c r="R448" s="1"/>
-      <c r="U448" s="1"/>
-      <c r="W448" s="1"/>
-    </row>
-    <row r="449" spans="1:23">
+      <c r="S448" s="1"/>
+      <c r="V448" s="1"/>
+      <c r="X448" s="1"/>
+    </row>
+    <row r="449" spans="1:24">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -11004,10 +11459,11 @@
       <c r="P449" s="1"/>
       <c r="Q449" s="1"/>
       <c r="R449" s="1"/>
-      <c r="U449" s="1"/>
-      <c r="W449" s="1"/>
-    </row>
-    <row r="450" spans="1:23">
+      <c r="S449" s="1"/>
+      <c r="V449" s="1"/>
+      <c r="X449" s="1"/>
+    </row>
+    <row r="450" spans="1:24">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -11025,10 +11481,11 @@
       <c r="P450" s="1"/>
       <c r="Q450" s="1"/>
       <c r="R450" s="1"/>
-      <c r="U450" s="1"/>
-      <c r="W450" s="1"/>
-    </row>
-    <row r="451" spans="1:23">
+      <c r="S450" s="1"/>
+      <c r="V450" s="1"/>
+      <c r="X450" s="1"/>
+    </row>
+    <row r="451" spans="1:24">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -11046,10 +11503,11 @@
       <c r="P451" s="1"/>
       <c r="Q451" s="1"/>
       <c r="R451" s="1"/>
-      <c r="U451" s="1"/>
-      <c r="W451" s="1"/>
-    </row>
-    <row r="452" spans="1:23">
+      <c r="S451" s="1"/>
+      <c r="V451" s="1"/>
+      <c r="X451" s="1"/>
+    </row>
+    <row r="452" spans="1:24">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -11067,10 +11525,11 @@
       <c r="P452" s="1"/>
       <c r="Q452" s="1"/>
       <c r="R452" s="1"/>
-      <c r="U452" s="1"/>
-      <c r="W452" s="1"/>
-    </row>
-    <row r="453" spans="1:23">
+      <c r="S452" s="1"/>
+      <c r="V452" s="1"/>
+      <c r="X452" s="1"/>
+    </row>
+    <row r="453" spans="1:24">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -11088,10 +11547,11 @@
       <c r="P453" s="1"/>
       <c r="Q453" s="1"/>
       <c r="R453" s="1"/>
-      <c r="U453" s="1"/>
-      <c r="W453" s="1"/>
-    </row>
-    <row r="454" spans="1:23">
+      <c r="S453" s="1"/>
+      <c r="V453" s="1"/>
+      <c r="X453" s="1"/>
+    </row>
+    <row r="454" spans="1:24">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -11109,10 +11569,11 @@
       <c r="P454" s="1"/>
       <c r="Q454" s="1"/>
       <c r="R454" s="1"/>
-      <c r="U454" s="1"/>
-      <c r="W454" s="1"/>
-    </row>
-    <row r="455" spans="1:23">
+      <c r="S454" s="1"/>
+      <c r="V454" s="1"/>
+      <c r="X454" s="1"/>
+    </row>
+    <row r="455" spans="1:24">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -11130,10 +11591,11 @@
       <c r="P455" s="1"/>
       <c r="Q455" s="1"/>
       <c r="R455" s="1"/>
-      <c r="U455" s="1"/>
-      <c r="W455" s="1"/>
-    </row>
-    <row r="456" spans="1:23">
+      <c r="S455" s="1"/>
+      <c r="V455" s="1"/>
+      <c r="X455" s="1"/>
+    </row>
+    <row r="456" spans="1:24">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -11151,10 +11613,11 @@
       <c r="P456" s="1"/>
       <c r="Q456" s="1"/>
       <c r="R456" s="1"/>
-      <c r="U456" s="1"/>
-      <c r="W456" s="1"/>
-    </row>
-    <row r="457" spans="1:23">
+      <c r="S456" s="1"/>
+      <c r="V456" s="1"/>
+      <c r="X456" s="1"/>
+    </row>
+    <row r="457" spans="1:24">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -11172,10 +11635,11 @@
       <c r="P457" s="1"/>
       <c r="Q457" s="1"/>
       <c r="R457" s="1"/>
-      <c r="U457" s="1"/>
-      <c r="W457" s="1"/>
-    </row>
-    <row r="458" spans="1:23">
+      <c r="S457" s="1"/>
+      <c r="V457" s="1"/>
+      <c r="X457" s="1"/>
+    </row>
+    <row r="458" spans="1:24">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -11193,10 +11657,11 @@
       <c r="P458" s="1"/>
       <c r="Q458" s="1"/>
       <c r="R458" s="1"/>
-      <c r="U458" s="1"/>
-      <c r="W458" s="1"/>
-    </row>
-    <row r="459" spans="1:23">
+      <c r="S458" s="1"/>
+      <c r="V458" s="1"/>
+      <c r="X458" s="1"/>
+    </row>
+    <row r="459" spans="1:24">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -11214,10 +11679,11 @@
       <c r="P459" s="1"/>
       <c r="Q459" s="1"/>
       <c r="R459" s="1"/>
-      <c r="U459" s="1"/>
-      <c r="W459" s="1"/>
-    </row>
-    <row r="460" spans="1:23">
+      <c r="S459" s="1"/>
+      <c r="V459" s="1"/>
+      <c r="X459" s="1"/>
+    </row>
+    <row r="460" spans="1:24">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -11235,10 +11701,11 @@
       <c r="P460" s="1"/>
       <c r="Q460" s="1"/>
       <c r="R460" s="1"/>
-      <c r="U460" s="1"/>
-      <c r="W460" s="1"/>
-    </row>
-    <row r="461" spans="1:23">
+      <c r="S460" s="1"/>
+      <c r="V460" s="1"/>
+      <c r="X460" s="1"/>
+    </row>
+    <row r="461" spans="1:24">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -11256,10 +11723,11 @@
       <c r="P461" s="1"/>
       <c r="Q461" s="1"/>
       <c r="R461" s="1"/>
-      <c r="U461" s="1"/>
-      <c r="W461" s="1"/>
-    </row>
-    <row r="462" spans="1:23">
+      <c r="S461" s="1"/>
+      <c r="V461" s="1"/>
+      <c r="X461" s="1"/>
+    </row>
+    <row r="462" spans="1:24">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -11277,10 +11745,11 @@
       <c r="P462" s="1"/>
       <c r="Q462" s="1"/>
       <c r="R462" s="1"/>
-      <c r="U462" s="1"/>
-      <c r="W462" s="1"/>
-    </row>
-    <row r="463" spans="1:23">
+      <c r="S462" s="1"/>
+      <c r="V462" s="1"/>
+      <c r="X462" s="1"/>
+    </row>
+    <row r="463" spans="1:24">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -11298,10 +11767,11 @@
       <c r="P463" s="1"/>
       <c r="Q463" s="1"/>
       <c r="R463" s="1"/>
-      <c r="U463" s="1"/>
-      <c r="W463" s="1"/>
-    </row>
-    <row r="464" spans="1:23">
+      <c r="S463" s="1"/>
+      <c r="V463" s="1"/>
+      <c r="X463" s="1"/>
+    </row>
+    <row r="464" spans="1:24">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -11319,10 +11789,11 @@
       <c r="P464" s="1"/>
       <c r="Q464" s="1"/>
       <c r="R464" s="1"/>
-      <c r="U464" s="1"/>
-      <c r="W464" s="1"/>
-    </row>
-    <row r="465" spans="1:23">
+      <c r="S464" s="1"/>
+      <c r="V464" s="1"/>
+      <c r="X464" s="1"/>
+    </row>
+    <row r="465" spans="1:24">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -11340,10 +11811,11 @@
       <c r="P465" s="1"/>
       <c r="Q465" s="1"/>
       <c r="R465" s="1"/>
-      <c r="U465" s="1"/>
-      <c r="W465" s="1"/>
-    </row>
-    <row r="466" spans="1:23">
+      <c r="S465" s="1"/>
+      <c r="V465" s="1"/>
+      <c r="X465" s="1"/>
+    </row>
+    <row r="466" spans="1:24">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -11361,10 +11833,11 @@
       <c r="P466" s="1"/>
       <c r="Q466" s="1"/>
       <c r="R466" s="1"/>
-      <c r="U466" s="1"/>
-      <c r="W466" s="1"/>
-    </row>
-    <row r="467" spans="1:23">
+      <c r="S466" s="1"/>
+      <c r="V466" s="1"/>
+      <c r="X466" s="1"/>
+    </row>
+    <row r="467" spans="1:24">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -11382,10 +11855,11 @@
       <c r="P467" s="1"/>
       <c r="Q467" s="1"/>
       <c r="R467" s="1"/>
-      <c r="U467" s="1"/>
-      <c r="W467" s="1"/>
-    </row>
-    <row r="468" spans="1:23">
+      <c r="S467" s="1"/>
+      <c r="V467" s="1"/>
+      <c r="X467" s="1"/>
+    </row>
+    <row r="468" spans="1:24">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -11403,10 +11877,11 @@
       <c r="P468" s="1"/>
       <c r="Q468" s="1"/>
       <c r="R468" s="1"/>
-      <c r="U468" s="1"/>
-      <c r="W468" s="1"/>
-    </row>
-    <row r="469" spans="1:23">
+      <c r="S468" s="1"/>
+      <c r="V468" s="1"/>
+      <c r="X468" s="1"/>
+    </row>
+    <row r="469" spans="1:24">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -11424,10 +11899,11 @@
       <c r="P469" s="1"/>
       <c r="Q469" s="1"/>
       <c r="R469" s="1"/>
-      <c r="U469" s="1"/>
-      <c r="W469" s="1"/>
-    </row>
-    <row r="470" spans="1:23">
+      <c r="S469" s="1"/>
+      <c r="V469" s="1"/>
+      <c r="X469" s="1"/>
+    </row>
+    <row r="470" spans="1:24">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -11445,10 +11921,11 @@
       <c r="P470" s="1"/>
       <c r="Q470" s="1"/>
       <c r="R470" s="1"/>
-      <c r="U470" s="1"/>
-      <c r="W470" s="1"/>
-    </row>
-    <row r="471" spans="1:23">
+      <c r="S470" s="1"/>
+      <c r="V470" s="1"/>
+      <c r="X470" s="1"/>
+    </row>
+    <row r="471" spans="1:24">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -11466,10 +11943,11 @@
       <c r="P471" s="1"/>
       <c r="Q471" s="1"/>
       <c r="R471" s="1"/>
-      <c r="U471" s="1"/>
-      <c r="W471" s="1"/>
-    </row>
-    <row r="472" spans="1:23">
+      <c r="S471" s="1"/>
+      <c r="V471" s="1"/>
+      <c r="X471" s="1"/>
+    </row>
+    <row r="472" spans="1:24">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -11487,10 +11965,11 @@
       <c r="P472" s="1"/>
       <c r="Q472" s="1"/>
       <c r="R472" s="1"/>
-      <c r="U472" s="1"/>
-      <c r="W472" s="1"/>
-    </row>
-    <row r="473" spans="1:23">
+      <c r="S472" s="1"/>
+      <c r="V472" s="1"/>
+      <c r="X472" s="1"/>
+    </row>
+    <row r="473" spans="1:24">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -11508,10 +11987,11 @@
       <c r="P473" s="1"/>
       <c r="Q473" s="1"/>
       <c r="R473" s="1"/>
-      <c r="U473" s="1"/>
-      <c r="W473" s="1"/>
-    </row>
-    <row r="474" spans="1:23">
+      <c r="S473" s="1"/>
+      <c r="V473" s="1"/>
+      <c r="X473" s="1"/>
+    </row>
+    <row r="474" spans="1:24">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -11529,10 +12009,11 @@
       <c r="P474" s="1"/>
       <c r="Q474" s="1"/>
       <c r="R474" s="1"/>
-      <c r="U474" s="1"/>
-      <c r="W474" s="1"/>
-    </row>
-    <row r="475" spans="1:23">
+      <c r="S474" s="1"/>
+      <c r="V474" s="1"/>
+      <c r="X474" s="1"/>
+    </row>
+    <row r="475" spans="1:24">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -11550,10 +12031,11 @@
       <c r="P475" s="1"/>
       <c r="Q475" s="1"/>
       <c r="R475" s="1"/>
-      <c r="U475" s="1"/>
-      <c r="W475" s="1"/>
-    </row>
-    <row r="476" spans="1:23">
+      <c r="S475" s="1"/>
+      <c r="V475" s="1"/>
+      <c r="X475" s="1"/>
+    </row>
+    <row r="476" spans="1:24">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -11571,10 +12053,11 @@
       <c r="P476" s="1"/>
       <c r="Q476" s="1"/>
       <c r="R476" s="1"/>
-      <c r="U476" s="1"/>
-      <c r="W476" s="1"/>
-    </row>
-    <row r="477" spans="1:23">
+      <c r="S476" s="1"/>
+      <c r="V476" s="1"/>
+      <c r="X476" s="1"/>
+    </row>
+    <row r="477" spans="1:24">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -11592,10 +12075,11 @@
       <c r="P477" s="1"/>
       <c r="Q477" s="1"/>
       <c r="R477" s="1"/>
-      <c r="U477" s="1"/>
-      <c r="W477" s="1"/>
-    </row>
-    <row r="478" spans="1:23">
+      <c r="S477" s="1"/>
+      <c r="V477" s="1"/>
+      <c r="X477" s="1"/>
+    </row>
+    <row r="478" spans="1:24">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -11613,10 +12097,11 @@
       <c r="P478" s="1"/>
       <c r="Q478" s="1"/>
       <c r="R478" s="1"/>
-      <c r="U478" s="1"/>
-      <c r="W478" s="1"/>
-    </row>
-    <row r="479" spans="1:23">
+      <c r="S478" s="1"/>
+      <c r="V478" s="1"/>
+      <c r="X478" s="1"/>
+    </row>
+    <row r="479" spans="1:24">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -11634,10 +12119,11 @@
       <c r="P479" s="1"/>
       <c r="Q479" s="1"/>
       <c r="R479" s="1"/>
-      <c r="U479" s="1"/>
-      <c r="W479" s="1"/>
-    </row>
-    <row r="480" spans="1:23">
+      <c r="S479" s="1"/>
+      <c r="V479" s="1"/>
+      <c r="X479" s="1"/>
+    </row>
+    <row r="480" spans="1:24">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -11655,10 +12141,11 @@
       <c r="P480" s="1"/>
       <c r="Q480" s="1"/>
       <c r="R480" s="1"/>
-      <c r="U480" s="1"/>
-      <c r="W480" s="1"/>
-    </row>
-    <row r="481" spans="1:23">
+      <c r="S480" s="1"/>
+      <c r="V480" s="1"/>
+      <c r="X480" s="1"/>
+    </row>
+    <row r="481" spans="1:24">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -11676,10 +12163,11 @@
       <c r="P481" s="1"/>
       <c r="Q481" s="1"/>
       <c r="R481" s="1"/>
-      <c r="U481" s="1"/>
-      <c r="W481" s="1"/>
-    </row>
-    <row r="482" spans="1:23">
+      <c r="S481" s="1"/>
+      <c r="V481" s="1"/>
+      <c r="X481" s="1"/>
+    </row>
+    <row r="482" spans="1:24">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -11697,10 +12185,11 @@
       <c r="P482" s="1"/>
       <c r="Q482" s="1"/>
       <c r="R482" s="1"/>
-      <c r="U482" s="1"/>
-      <c r="W482" s="1"/>
-    </row>
-    <row r="483" spans="1:23">
+      <c r="S482" s="1"/>
+      <c r="V482" s="1"/>
+      <c r="X482" s="1"/>
+    </row>
+    <row r="483" spans="1:24">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -11718,10 +12207,11 @@
       <c r="P483" s="1"/>
       <c r="Q483" s="1"/>
       <c r="R483" s="1"/>
-      <c r="U483" s="1"/>
-      <c r="W483" s="1"/>
-    </row>
-    <row r="484" spans="1:23">
+      <c r="S483" s="1"/>
+      <c r="V483" s="1"/>
+      <c r="X483" s="1"/>
+    </row>
+    <row r="484" spans="1:24">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -11739,10 +12229,11 @@
       <c r="P484" s="1"/>
       <c r="Q484" s="1"/>
       <c r="R484" s="1"/>
-      <c r="U484" s="1"/>
-      <c r="W484" s="1"/>
-    </row>
-    <row r="485" spans="1:23">
+      <c r="S484" s="1"/>
+      <c r="V484" s="1"/>
+      <c r="X484" s="1"/>
+    </row>
+    <row r="485" spans="1:24">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -11760,10 +12251,11 @@
       <c r="P485" s="1"/>
       <c r="Q485" s="1"/>
       <c r="R485" s="1"/>
-      <c r="U485" s="1"/>
-      <c r="W485" s="1"/>
-    </row>
-    <row r="486" spans="1:23">
+      <c r="S485" s="1"/>
+      <c r="V485" s="1"/>
+      <c r="X485" s="1"/>
+    </row>
+    <row r="486" spans="1:24">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -11781,10 +12273,11 @@
       <c r="P486" s="1"/>
       <c r="Q486" s="1"/>
       <c r="R486" s="1"/>
-      <c r="U486" s="1"/>
-      <c r="W486" s="1"/>
-    </row>
-    <row r="487" spans="1:23">
+      <c r="S486" s="1"/>
+      <c r="V486" s="1"/>
+      <c r="X486" s="1"/>
+    </row>
+    <row r="487" spans="1:24">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -11802,10 +12295,11 @@
       <c r="P487" s="1"/>
       <c r="Q487" s="1"/>
       <c r="R487" s="1"/>
-      <c r="U487" s="1"/>
-      <c r="W487" s="1"/>
-    </row>
-    <row r="488" spans="1:23">
+      <c r="S487" s="1"/>
+      <c r="V487" s="1"/>
+      <c r="X487" s="1"/>
+    </row>
+    <row r="488" spans="1:24">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -11823,10 +12317,11 @@
       <c r="P488" s="1"/>
       <c r="Q488" s="1"/>
       <c r="R488" s="1"/>
-      <c r="U488" s="1"/>
-      <c r="W488" s="1"/>
-    </row>
-    <row r="489" spans="1:23">
+      <c r="S488" s="1"/>
+      <c r="V488" s="1"/>
+      <c r="X488" s="1"/>
+    </row>
+    <row r="489" spans="1:24">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -11844,10 +12339,11 @@
       <c r="P489" s="1"/>
       <c r="Q489" s="1"/>
       <c r="R489" s="1"/>
-      <c r="U489" s="1"/>
-      <c r="W489" s="1"/>
-    </row>
-    <row r="490" spans="1:23">
+      <c r="S489" s="1"/>
+      <c r="V489" s="1"/>
+      <c r="X489" s="1"/>
+    </row>
+    <row r="490" spans="1:24">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -11865,10 +12361,11 @@
       <c r="P490" s="1"/>
       <c r="Q490" s="1"/>
       <c r="R490" s="1"/>
-      <c r="U490" s="1"/>
-      <c r="W490" s="1"/>
-    </row>
-    <row r="491" spans="1:23">
+      <c r="S490" s="1"/>
+      <c r="V490" s="1"/>
+      <c r="X490" s="1"/>
+    </row>
+    <row r="491" spans="1:24">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -11886,10 +12383,11 @@
       <c r="P491" s="1"/>
       <c r="Q491" s="1"/>
       <c r="R491" s="1"/>
-      <c r="U491" s="1"/>
-      <c r="W491" s="1"/>
-    </row>
-    <row r="492" spans="1:23">
+      <c r="S491" s="1"/>
+      <c r="V491" s="1"/>
+      <c r="X491" s="1"/>
+    </row>
+    <row r="492" spans="1:24">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -11907,10 +12405,11 @@
       <c r="P492" s="1"/>
       <c r="Q492" s="1"/>
       <c r="R492" s="1"/>
-      <c r="U492" s="1"/>
-      <c r="W492" s="1"/>
-    </row>
-    <row r="493" spans="1:23">
+      <c r="S492" s="1"/>
+      <c r="V492" s="1"/>
+      <c r="X492" s="1"/>
+    </row>
+    <row r="493" spans="1:24">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -11928,10 +12427,11 @@
       <c r="P493" s="1"/>
       <c r="Q493" s="1"/>
       <c r="R493" s="1"/>
-      <c r="U493" s="1"/>
-      <c r="W493" s="1"/>
-    </row>
-    <row r="494" spans="1:23">
+      <c r="S493" s="1"/>
+      <c r="V493" s="1"/>
+      <c r="X493" s="1"/>
+    </row>
+    <row r="494" spans="1:24">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -11949,10 +12449,11 @@
       <c r="P494" s="1"/>
       <c r="Q494" s="1"/>
       <c r="R494" s="1"/>
-      <c r="U494" s="1"/>
-      <c r="W494" s="1"/>
-    </row>
-    <row r="495" spans="1:23">
+      <c r="S494" s="1"/>
+      <c r="V494" s="1"/>
+      <c r="X494" s="1"/>
+    </row>
+    <row r="495" spans="1:24">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -11970,10 +12471,11 @@
       <c r="P495" s="1"/>
       <c r="Q495" s="1"/>
       <c r="R495" s="1"/>
-      <c r="U495" s="1"/>
-      <c r="W495" s="1"/>
-    </row>
-    <row r="496" spans="1:23">
+      <c r="S495" s="1"/>
+      <c r="V495" s="1"/>
+      <c r="X495" s="1"/>
+    </row>
+    <row r="496" spans="1:24">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -11991,10 +12493,11 @@
       <c r="P496" s="1"/>
       <c r="Q496" s="1"/>
       <c r="R496" s="1"/>
-      <c r="U496" s="1"/>
-      <c r="W496" s="1"/>
-    </row>
-    <row r="497" spans="1:23">
+      <c r="S496" s="1"/>
+      <c r="V496" s="1"/>
+      <c r="X496" s="1"/>
+    </row>
+    <row r="497" spans="1:24">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -12012,10 +12515,11 @@
       <c r="P497" s="1"/>
       <c r="Q497" s="1"/>
       <c r="R497" s="1"/>
-      <c r="U497" s="1"/>
-      <c r="W497" s="1"/>
-    </row>
-    <row r="498" spans="1:23">
+      <c r="S497" s="1"/>
+      <c r="V497" s="1"/>
+      <c r="X497" s="1"/>
+    </row>
+    <row r="498" spans="1:24">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -12033,10 +12537,11 @@
       <c r="P498" s="1"/>
       <c r="Q498" s="1"/>
       <c r="R498" s="1"/>
-      <c r="U498" s="1"/>
-      <c r="W498" s="1"/>
-    </row>
-    <row r="499" spans="1:23">
+      <c r="S498" s="1"/>
+      <c r="V498" s="1"/>
+      <c r="X498" s="1"/>
+    </row>
+    <row r="499" spans="1:24">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -12054,10 +12559,11 @@
       <c r="P499" s="1"/>
       <c r="Q499" s="1"/>
       <c r="R499" s="1"/>
-      <c r="U499" s="1"/>
-      <c r="W499" s="1"/>
-    </row>
-    <row r="500" spans="1:23">
+      <c r="S499" s="1"/>
+      <c r="V499" s="1"/>
+      <c r="X499" s="1"/>
+    </row>
+    <row r="500" spans="1:24">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -12075,15 +12581,16 @@
       <c r="P500" s="1"/>
       <c r="Q500" s="1"/>
       <c r="R500" s="1"/>
-      <c r="U500" s="1"/>
-      <c r="W500" s="1"/>
+      <c r="S500" s="1"/>
+      <c r="V500" s="1"/>
+      <c r="X500" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="U1:X1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -1271,11 +1271,11 @@
   <dimension ref="A1:X500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>日期</t>
   </si>
@@ -51,6 +51,10 @@
   <si>
     <t>单日跌幅/涨幅
 (止损时，该值创新低是要引起注意；止盈时，该值创新高是要引起注意)</t>
+  </si>
+  <si>
+    <t>买入后总跌幅/涨幅
+(下跌超过3%考虑卖出；上涨超过25%考虑卖出)</t>
   </si>
   <si>
     <t>当前止损线</t>
@@ -101,13 +105,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
       <t>目前涨幅</t>
     </r>
     <r>
@@ -164,13 +161,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
       <t>上涨天数是否大于65</t>
     </r>
     <r>
@@ -913,11 +903,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -931,9 +921,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -943,10 +930,13 @@
     <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1268,14 +1258,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:X500"/>
+  <dimension ref="A1:Y500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:R1"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1287,25 +1277,25 @@
     <col min="5" max="5" width="9.96428571428571" customWidth="1"/>
     <col min="6" max="6" width="10.4107142857143" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.96428571428571" customWidth="1"/>
-    <col min="8" max="8" width="20.3839285714286" customWidth="1"/>
-    <col min="9" max="9" width="13.5357142857143" customWidth="1"/>
-    <col min="10" max="10" width="13.3839285714286" customWidth="1"/>
-    <col min="11" max="12" width="20.3839285714286" customWidth="1"/>
-    <col min="13" max="13" width="30.0625" customWidth="1"/>
-    <col min="14" max="14" width="40.4732142857143" customWidth="1"/>
-    <col min="15" max="15" width="25.4464285714286" customWidth="1"/>
-    <col min="16" max="16" width="28.7142857142857" customWidth="1"/>
-    <col min="17" max="17" width="30.0625" customWidth="1"/>
-    <col min="18" max="18" width="21.875" customWidth="1"/>
-    <col min="19" max="19" width="20.6785714285714" customWidth="1"/>
-    <col min="20" max="20" width="39.5803571428571" customWidth="1"/>
-    <col min="21" max="21" width="20.5267857142857" style="1" customWidth="1"/>
-    <col min="22" max="22" width="18.4464285714286" customWidth="1"/>
-    <col min="23" max="23" width="22.3125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="18.3035714285714" customWidth="1"/>
+    <col min="8" max="9" width="20.3839285714286" customWidth="1"/>
+    <col min="10" max="10" width="13.5357142857143" customWidth="1"/>
+    <col min="11" max="11" width="13.3839285714286" customWidth="1"/>
+    <col min="12" max="13" width="20.3839285714286" customWidth="1"/>
+    <col min="14" max="14" width="30.0625" customWidth="1"/>
+    <col min="15" max="15" width="40.4732142857143" customWidth="1"/>
+    <col min="16" max="16" width="25.4464285714286" customWidth="1"/>
+    <col min="17" max="17" width="28.7142857142857" customWidth="1"/>
+    <col min="18" max="18" width="30.0625" customWidth="1"/>
+    <col min="19" max="19" width="21.875" customWidth="1"/>
+    <col min="20" max="20" width="20.6785714285714" customWidth="1"/>
+    <col min="21" max="21" width="39.5803571428571" customWidth="1"/>
+    <col min="22" max="22" width="20.5267857142857" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.4464285714286" customWidth="1"/>
+    <col min="24" max="24" width="22.3125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="18.3035714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1318,30 +1308,31 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="12"/>
       <c r="K1" s="12"/>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="17"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
       <c r="T1" s="17"/>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="17"/>
+      <c r="V1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="17"/>
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
-    </row>
-    <row r="2" ht="56" customHeight="1" spans="1:24">
+      <c r="Y1" s="17"/>
+    </row>
+    <row r="2" ht="56" customHeight="1" spans="1:25">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -1364,20 +1355,20 @@
       <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>16</v>
@@ -1391,29 +1382,32 @@
       <c r="Q2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="14" t="s">
         <v>21</v>
       </c>
       <c r="T2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="U2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="5">
         <v>44523</v>
       </c>
@@ -1424,24 +1418,25 @@
       <c r="F3" s="6"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="6"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="9"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="10"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="23"/>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="T3" s="9"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="24"/>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="7">
         <v>44524</v>
       </c>
@@ -1452,24 +1447,25 @@
       <c r="F4" s="6"/>
       <c r="G4" s="9"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="6"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="9"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="23"/>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="T4" s="9"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="24"/>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="7">
         <v>44525</v>
       </c>
@@ -1480,24 +1476,25 @@
       <c r="F5" s="6"/>
       <c r="G5" s="9"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="6"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="9"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="23"/>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="T5" s="9"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="24"/>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="7">
         <v>44526</v>
       </c>
@@ -1508,24 +1505,25 @@
       <c r="F6" s="6"/>
       <c r="G6" s="9"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="6"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="9"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="23"/>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="T6" s="9"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="24"/>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="7">
         <v>44527</v>
       </c>
@@ -1536,10 +1534,10 @@
       <c r="F7" s="6"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="6"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="9"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -1549,11 +1547,12 @@
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="6"/>
       <c r="X7" s="9"/>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" s="9"/>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="7">
         <v>44528</v>
       </c>
@@ -1564,10 +1563,10 @@
       <c r="F8" s="6"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="9"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1577,11 +1576,12 @@
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="6"/>
       <c r="X8" s="9"/>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" s="9"/>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="7">
         <v>44529</v>
       </c>
@@ -1592,10 +1592,10 @@
       <c r="F9" s="6"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="6"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="9"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -1605,11 +1605,12 @@
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="6"/>
       <c r="X9" s="9"/>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" s="9"/>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="7">
         <v>44530</v>
       </c>
@@ -1620,10 +1621,10 @@
       <c r="F10" s="6"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="6"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="9"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -1633,11 +1634,12 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="6"/>
       <c r="X10" s="9"/>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" s="9"/>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="7">
         <v>44531</v>
       </c>
@@ -1648,10 +1650,10 @@
       <c r="F11" s="6"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="9"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -1661,11 +1663,12 @@
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="6"/>
       <c r="X11" s="9"/>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" s="9"/>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="7">
         <v>44532</v>
       </c>
@@ -1676,10 +1679,10 @@
       <c r="F12" s="6"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="6"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="9"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -1689,11 +1692,12 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="6"/>
       <c r="X12" s="9"/>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" s="9"/>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="7">
         <v>44533</v>
       </c>
@@ -1704,10 +1708,10 @@
       <c r="F13" s="6"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="9"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -1717,11 +1721,12 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="6"/>
       <c r="X13" s="9"/>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" s="9"/>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="7">
         <v>44534</v>
       </c>
@@ -1732,10 +1737,10 @@
       <c r="F14" s="6"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="6"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="9"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -1745,11 +1750,12 @@
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="6"/>
       <c r="X14" s="9"/>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" s="9"/>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="7">
         <v>44535</v>
       </c>
@@ -1760,10 +1766,10 @@
       <c r="F15" s="6"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="9"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
@@ -1773,11 +1779,12 @@
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="6"/>
       <c r="X15" s="9"/>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" s="9"/>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="7">
         <v>44536</v>
       </c>
@@ -1788,10 +1795,10 @@
       <c r="F16" s="6"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="9"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -1801,11 +1808,12 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="6"/>
       <c r="X16" s="9"/>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" s="9"/>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="7">
         <v>44537</v>
       </c>
@@ -1816,10 +1824,10 @@
       <c r="F17" s="6"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="9"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -1829,11 +1837,12 @@
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="6"/>
       <c r="X17" s="9"/>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" s="9"/>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="7">
         <v>44538</v>
       </c>
@@ -1844,10 +1853,10 @@
       <c r="F18" s="6"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="9"/>
+      <c r="L18" s="6"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -1857,11 +1866,12 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="6"/>
       <c r="X18" s="9"/>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" s="9"/>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="7">
         <v>44539</v>
       </c>
@@ -1872,10 +1882,10 @@
       <c r="F19" s="6"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="6"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="9"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -1885,11 +1895,12 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="6"/>
       <c r="X19" s="9"/>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" s="9"/>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="7">
         <v>44540</v>
       </c>
@@ -1900,10 +1911,10 @@
       <c r="F20" s="6"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="6"/>
+      <c r="I20" s="9"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="9"/>
+      <c r="L20" s="6"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -1913,11 +1924,12 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="6"/>
       <c r="X20" s="9"/>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" s="9"/>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="7">
         <v>44541</v>
       </c>
@@ -1928,10 +1940,10 @@
       <c r="F21" s="6"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="6"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="9"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -1941,11 +1953,12 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="6"/>
       <c r="X21" s="9"/>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" s="9"/>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="7">
         <v>44542</v>
       </c>
@@ -1956,10 +1969,10 @@
       <c r="F22" s="6"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="6"/>
+      <c r="I22" s="9"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="9"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -1969,11 +1982,12 @@
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="6"/>
       <c r="X22" s="9"/>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" s="9"/>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="7">
         <v>44543</v>
       </c>
@@ -1984,10 +1998,10 @@
       <c r="F23" s="6"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="9"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="9"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -1997,11 +2011,12 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="6"/>
       <c r="X23" s="9"/>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" s="9"/>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="7">
         <v>44544</v>
       </c>
@@ -2012,10 +2027,10 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="6"/>
+      <c r="I24" s="9"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="9"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -2025,11 +2040,12 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="6"/>
       <c r="X24" s="9"/>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24" s="9"/>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="7">
         <v>44545</v>
       </c>
@@ -2040,10 +2056,10 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="6"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="9"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -2051,13 +2067,14 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="23"/>
       <c r="V25" s="9"/>
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25" s="9"/>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="7">
         <v>44546</v>
       </c>
@@ -2068,10 +2085,10 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="6"/>
+      <c r="I26" s="9"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="9"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -2079,13 +2096,14 @@
       <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="23"/>
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Y26" s="9"/>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="7">
         <v>44547</v>
       </c>
@@ -2096,10 +2114,10 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="6"/>
+      <c r="I27" s="9"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="9"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
@@ -2107,13 +2125,14 @@
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="23"/>
       <c r="V27" s="9"/>
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Y27" s="9"/>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="7">
         <v>44548</v>
       </c>
@@ -2124,10 +2143,10 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="9"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="9"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
@@ -2135,13 +2154,14 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="23"/>
       <c r="V28" s="9"/>
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Y28" s="9"/>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="7">
         <v>44549</v>
       </c>
@@ -2152,10 +2172,10 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
-      <c r="I29" s="6"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="9"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
@@ -2163,13 +2183,14 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="23"/>
       <c r="V29" s="9"/>
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="Y29" s="9"/>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="7">
         <v>44550</v>
       </c>
@@ -2180,10 +2201,10 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="6"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="9"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
@@ -2191,13 +2212,14 @@
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="23"/>
       <c r="V30" s="9"/>
       <c r="W30" s="9"/>
       <c r="X30" s="9"/>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="Y30" s="9"/>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="7">
         <v>44551</v>
       </c>
@@ -2208,10 +2230,10 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
-      <c r="I31" s="6"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="9"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
@@ -2219,13 +2241,14 @@
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="23"/>
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
       <c r="X31" s="9"/>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="Y31" s="9"/>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" s="7">
         <v>44552</v>
       </c>
@@ -2236,10 +2259,10 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="6"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="9"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
@@ -2247,13 +2270,14 @@
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="23"/>
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
       <c r="X32" s="9"/>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="Y32" s="9"/>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" s="7">
         <v>44553</v>
       </c>
@@ -2264,10 +2288,10 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="6"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="9"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
@@ -2275,13 +2299,14 @@
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="23"/>
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Y33" s="9"/>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" s="7">
         <v>44554</v>
       </c>
@@ -2292,10 +2317,10 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="6"/>
+      <c r="I34" s="9"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="9"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -2303,13 +2328,14 @@
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="23"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="Y34" s="9"/>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" s="7">
         <v>44555</v>
       </c>
@@ -2320,10 +2346,10 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="6"/>
+      <c r="I35" s="9"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="9"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
@@ -2331,13 +2357,14 @@
       <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="23"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="9"/>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="Y35" s="9"/>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="7">
         <v>44556</v>
       </c>
@@ -2348,10 +2375,10 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="6"/>
+      <c r="I36" s="9"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="9"/>
+      <c r="L36" s="6"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
@@ -2359,13 +2386,14 @@
       <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="23"/>
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
       <c r="X36" s="9"/>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="Y36" s="9"/>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" s="7">
         <v>44557</v>
       </c>
@@ -2376,10 +2404,10 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
-      <c r="I37" s="6"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="9"/>
+      <c r="L37" s="6"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
@@ -2387,13 +2415,14 @@
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
       <c r="S37" s="9"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="23"/>
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="Y37" s="9"/>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="7">
         <v>44558</v>
       </c>
@@ -2404,10 +2433,10 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="6"/>
+      <c r="I38" s="9"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
-      <c r="L38" s="9"/>
+      <c r="L38" s="6"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
@@ -2415,13 +2444,14 @@
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="23"/>
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="Y38" s="9"/>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2440,10 +2470,11 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="X39" s="1"/>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="T39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="Y39" s="1"/>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2462,10 +2493,11 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="X40" s="1"/>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="T40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="Y40" s="1"/>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2484,10 +2516,11 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="X41" s="1"/>
-    </row>
-    <row r="42" spans="1:24">
+      <c r="T41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="Y41" s="1"/>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2506,10 +2539,11 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="X42" s="1"/>
-    </row>
-    <row r="43" spans="1:24">
+      <c r="T42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="Y42" s="1"/>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2528,10 +2562,11 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="X43" s="1"/>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="T43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="Y43" s="1"/>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2550,10 +2585,11 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="X44" s="1"/>
-    </row>
-    <row r="45" spans="1:24">
+      <c r="T44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="Y44" s="1"/>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2572,10 +2608,11 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="X45" s="1"/>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="T45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="Y45" s="1"/>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2594,10 +2631,11 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="X46" s="1"/>
-    </row>
-    <row r="47" spans="1:24">
+      <c r="T46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="Y46" s="1"/>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2616,10 +2654,11 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="X47" s="1"/>
-    </row>
-    <row r="48" spans="1:24">
+      <c r="T47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="Y47" s="1"/>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2638,10 +2677,11 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="X48" s="1"/>
-    </row>
-    <row r="49" spans="1:24">
+      <c r="T48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="Y48" s="1"/>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2660,10 +2700,11 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="X49" s="1"/>
-    </row>
-    <row r="50" spans="1:24">
+      <c r="T49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="Y49" s="1"/>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2682,10 +2723,11 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="X50" s="1"/>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="T50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="Y50" s="1"/>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2704,10 +2746,11 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="X51" s="1"/>
-    </row>
-    <row r="52" spans="1:24">
+      <c r="T51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="Y51" s="1"/>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2726,10 +2769,11 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="X52" s="1"/>
-    </row>
-    <row r="53" spans="1:24">
+      <c r="T52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="Y52" s="1"/>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2748,10 +2792,11 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="X53" s="1"/>
-    </row>
-    <row r="54" spans="1:24">
+      <c r="T53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="Y53" s="1"/>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2770,10 +2815,11 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="X54" s="1"/>
-    </row>
-    <row r="55" spans="1:24">
+      <c r="T54" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="Y54" s="1"/>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2792,10 +2838,11 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="X55" s="1"/>
-    </row>
-    <row r="56" spans="1:24">
+      <c r="T55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="Y55" s="1"/>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2814,10 +2861,11 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="X56" s="1"/>
-    </row>
-    <row r="57" spans="1:24">
+      <c r="T56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="Y56" s="1"/>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2836,10 +2884,11 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="X57" s="1"/>
-    </row>
-    <row r="58" spans="1:24">
+      <c r="T57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="Y57" s="1"/>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2858,10 +2907,11 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="X58" s="1"/>
-    </row>
-    <row r="59" spans="1:24">
+      <c r="T58" s="1"/>
+      <c r="W58" s="1"/>
+      <c r="Y58" s="1"/>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2880,10 +2930,11 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="X59" s="1"/>
-    </row>
-    <row r="60" spans="1:24">
+      <c r="T59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="Y59" s="1"/>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2902,10 +2953,11 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="X60" s="1"/>
-    </row>
-    <row r="61" spans="1:24">
+      <c r="T60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="Y60" s="1"/>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2924,10 +2976,11 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="X61" s="1"/>
-    </row>
-    <row r="62" spans="1:24">
+      <c r="T61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="Y61" s="1"/>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2946,10 +2999,11 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="X62" s="1"/>
-    </row>
-    <row r="63" spans="1:24">
+      <c r="T62" s="1"/>
+      <c r="W62" s="1"/>
+      <c r="Y62" s="1"/>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2968,10 +3022,11 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="X63" s="1"/>
-    </row>
-    <row r="64" spans="1:24">
+      <c r="T63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="Y63" s="1"/>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2990,10 +3045,11 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="X64" s="1"/>
-    </row>
-    <row r="65" spans="1:24">
+      <c r="T64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="Y64" s="1"/>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3012,10 +3068,11 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="X65" s="1"/>
-    </row>
-    <row r="66" spans="1:24">
+      <c r="T65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="Y65" s="1"/>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3034,10 +3091,11 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="X66" s="1"/>
-    </row>
-    <row r="67" spans="1:24">
+      <c r="T66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="Y66" s="1"/>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3056,10 +3114,11 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="X67" s="1"/>
-    </row>
-    <row r="68" spans="1:24">
+      <c r="T67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="Y67" s="1"/>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3078,10 +3137,11 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="X68" s="1"/>
-    </row>
-    <row r="69" spans="1:24">
+      <c r="T68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="Y68" s="1"/>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3100,10 +3160,11 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="X69" s="1"/>
-    </row>
-    <row r="70" spans="1:24">
+      <c r="T69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="Y69" s="1"/>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3122,10 +3183,11 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="X70" s="1"/>
-    </row>
-    <row r="71" spans="1:24">
+      <c r="T70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="Y70" s="1"/>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3144,10 +3206,11 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="X71" s="1"/>
-    </row>
-    <row r="72" spans="1:24">
+      <c r="T71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="Y71" s="1"/>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3166,10 +3229,11 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="X72" s="1"/>
-    </row>
-    <row r="73" spans="1:24">
+      <c r="T72" s="1"/>
+      <c r="W72" s="1"/>
+      <c r="Y72" s="1"/>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3188,10 +3252,11 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="X73" s="1"/>
-    </row>
-    <row r="74" spans="1:24">
+      <c r="T73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="Y73" s="1"/>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3210,10 +3275,11 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="X74" s="1"/>
-    </row>
-    <row r="75" spans="1:24">
+      <c r="T74" s="1"/>
+      <c r="W74" s="1"/>
+      <c r="Y74" s="1"/>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3232,10 +3298,11 @@
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="X75" s="1"/>
-    </row>
-    <row r="76" spans="1:24">
+      <c r="T75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="Y75" s="1"/>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3254,10 +3321,11 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
-      <c r="V76" s="1"/>
-      <c r="X76" s="1"/>
-    </row>
-    <row r="77" spans="1:24">
+      <c r="T76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="Y76" s="1"/>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3276,10 +3344,11 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="X77" s="1"/>
-    </row>
-    <row r="78" spans="1:24">
+      <c r="T77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="Y77" s="1"/>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3298,10 +3367,11 @@
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="X78" s="1"/>
-    </row>
-    <row r="79" spans="1:24">
+      <c r="T78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="Y78" s="1"/>
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3320,10 +3390,11 @@
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="X79" s="1"/>
-    </row>
-    <row r="80" spans="1:24">
+      <c r="T79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="Y79" s="1"/>
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3342,10 +3413,11 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
-      <c r="V80" s="1"/>
-      <c r="X80" s="1"/>
-    </row>
-    <row r="81" spans="1:24">
+      <c r="T80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="Y80" s="1"/>
+    </row>
+    <row r="81" spans="1:25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3364,10 +3436,11 @@
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="X81" s="1"/>
-    </row>
-    <row r="82" spans="1:24">
+      <c r="T81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="Y81" s="1"/>
+    </row>
+    <row r="82" spans="1:25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3386,10 +3459,11 @@
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
-      <c r="V82" s="1"/>
-      <c r="X82" s="1"/>
-    </row>
-    <row r="83" spans="1:24">
+      <c r="T82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="Y82" s="1"/>
+    </row>
+    <row r="83" spans="1:25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3408,10 +3482,11 @@
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
-      <c r="V83" s="1"/>
-      <c r="X83" s="1"/>
-    </row>
-    <row r="84" spans="1:24">
+      <c r="T83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="Y83" s="1"/>
+    </row>
+    <row r="84" spans="1:25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3430,10 +3505,11 @@
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
-      <c r="V84" s="1"/>
-      <c r="X84" s="1"/>
-    </row>
-    <row r="85" spans="1:24">
+      <c r="T84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="Y84" s="1"/>
+    </row>
+    <row r="85" spans="1:25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3452,10 +3528,11 @@
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
-      <c r="V85" s="1"/>
-      <c r="X85" s="1"/>
-    </row>
-    <row r="86" spans="1:24">
+      <c r="T85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="Y85" s="1"/>
+    </row>
+    <row r="86" spans="1:25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3474,10 +3551,11 @@
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
-      <c r="V86" s="1"/>
-      <c r="X86" s="1"/>
-    </row>
-    <row r="87" spans="1:24">
+      <c r="T86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="Y86" s="1"/>
+    </row>
+    <row r="87" spans="1:25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3496,10 +3574,11 @@
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
-      <c r="V87" s="1"/>
-      <c r="X87" s="1"/>
-    </row>
-    <row r="88" spans="1:24">
+      <c r="T87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="Y87" s="1"/>
+    </row>
+    <row r="88" spans="1:25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3518,10 +3597,11 @@
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
-      <c r="V88" s="1"/>
-      <c r="X88" s="1"/>
-    </row>
-    <row r="89" spans="1:24">
+      <c r="T88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="Y88" s="1"/>
+    </row>
+    <row r="89" spans="1:25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3540,10 +3620,11 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
-      <c r="V89" s="1"/>
-      <c r="X89" s="1"/>
-    </row>
-    <row r="90" spans="1:24">
+      <c r="T89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="Y89" s="1"/>
+    </row>
+    <row r="90" spans="1:25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3562,10 +3643,11 @@
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="X90" s="1"/>
-    </row>
-    <row r="91" spans="1:24">
+      <c r="T90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="Y90" s="1"/>
+    </row>
+    <row r="91" spans="1:25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3584,10 +3666,11 @@
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="X91" s="1"/>
-    </row>
-    <row r="92" spans="1:24">
+      <c r="T91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="Y91" s="1"/>
+    </row>
+    <row r="92" spans="1:25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3606,10 +3689,11 @@
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="X92" s="1"/>
-    </row>
-    <row r="93" spans="1:24">
+      <c r="T92" s="1"/>
+      <c r="W92" s="1"/>
+      <c r="Y92" s="1"/>
+    </row>
+    <row r="93" spans="1:25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3628,10 +3712,11 @@
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
-      <c r="V93" s="1"/>
-      <c r="X93" s="1"/>
-    </row>
-    <row r="94" spans="1:24">
+      <c r="T93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="Y93" s="1"/>
+    </row>
+    <row r="94" spans="1:25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3650,10 +3735,11 @@
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
-      <c r="V94" s="1"/>
-      <c r="X94" s="1"/>
-    </row>
-    <row r="95" spans="1:24">
+      <c r="T94" s="1"/>
+      <c r="W94" s="1"/>
+      <c r="Y94" s="1"/>
+    </row>
+    <row r="95" spans="1:25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3672,10 +3758,11 @@
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
-      <c r="V95" s="1"/>
-      <c r="X95" s="1"/>
-    </row>
-    <row r="96" spans="1:24">
+      <c r="T95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="Y95" s="1"/>
+    </row>
+    <row r="96" spans="1:25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3694,10 +3781,11 @@
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
-      <c r="V96" s="1"/>
-      <c r="X96" s="1"/>
-    </row>
-    <row r="97" spans="1:24">
+      <c r="T96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="Y96" s="1"/>
+    </row>
+    <row r="97" spans="1:25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3716,10 +3804,11 @@
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
-      <c r="V97" s="1"/>
-      <c r="X97" s="1"/>
-    </row>
-    <row r="98" spans="1:24">
+      <c r="T97" s="1"/>
+      <c r="W97" s="1"/>
+      <c r="Y97" s="1"/>
+    </row>
+    <row r="98" spans="1:25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3738,10 +3827,11 @@
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
-      <c r="V98" s="1"/>
-      <c r="X98" s="1"/>
-    </row>
-    <row r="99" spans="1:24">
+      <c r="T98" s="1"/>
+      <c r="W98" s="1"/>
+      <c r="Y98" s="1"/>
+    </row>
+    <row r="99" spans="1:25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3760,10 +3850,11 @@
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
-      <c r="V99" s="1"/>
-      <c r="X99" s="1"/>
-    </row>
-    <row r="100" spans="1:24">
+      <c r="T99" s="1"/>
+      <c r="W99" s="1"/>
+      <c r="Y99" s="1"/>
+    </row>
+    <row r="100" spans="1:25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3782,10 +3873,11 @@
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="X100" s="1"/>
-    </row>
-    <row r="101" spans="1:24">
+      <c r="T100" s="1"/>
+      <c r="W100" s="1"/>
+      <c r="Y100" s="1"/>
+    </row>
+    <row r="101" spans="1:25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3804,10 +3896,11 @@
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
-      <c r="V101" s="1"/>
-      <c r="X101" s="1"/>
-    </row>
-    <row r="102" spans="1:24">
+      <c r="T101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="Y101" s="1"/>
+    </row>
+    <row r="102" spans="1:25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3826,10 +3919,11 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
-      <c r="V102" s="1"/>
-      <c r="X102" s="1"/>
-    </row>
-    <row r="103" spans="1:24">
+      <c r="T102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="Y102" s="1"/>
+    </row>
+    <row r="103" spans="1:25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3848,10 +3942,11 @@
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
-      <c r="V103" s="1"/>
-      <c r="X103" s="1"/>
-    </row>
-    <row r="104" spans="1:24">
+      <c r="T103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="Y103" s="1"/>
+    </row>
+    <row r="104" spans="1:25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3870,10 +3965,11 @@
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
-      <c r="V104" s="1"/>
-      <c r="X104" s="1"/>
-    </row>
-    <row r="105" spans="1:24">
+      <c r="T104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="Y104" s="1"/>
+    </row>
+    <row r="105" spans="1:25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3892,10 +3988,11 @@
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
-      <c r="V105" s="1"/>
-      <c r="X105" s="1"/>
-    </row>
-    <row r="106" spans="1:24">
+      <c r="T105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="Y105" s="1"/>
+    </row>
+    <row r="106" spans="1:25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3914,10 +4011,11 @@
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
-      <c r="V106" s="1"/>
-      <c r="X106" s="1"/>
-    </row>
-    <row r="107" spans="1:24">
+      <c r="T106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="Y106" s="1"/>
+    </row>
+    <row r="107" spans="1:25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3936,10 +4034,11 @@
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
-      <c r="V107" s="1"/>
-      <c r="X107" s="1"/>
-    </row>
-    <row r="108" spans="1:24">
+      <c r="T107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="Y107" s="1"/>
+    </row>
+    <row r="108" spans="1:25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3958,10 +4057,11 @@
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
-      <c r="V108" s="1"/>
-      <c r="X108" s="1"/>
-    </row>
-    <row r="109" spans="1:24">
+      <c r="T108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="Y108" s="1"/>
+    </row>
+    <row r="109" spans="1:25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3980,10 +4080,11 @@
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
-      <c r="V109" s="1"/>
-      <c r="X109" s="1"/>
-    </row>
-    <row r="110" spans="1:24">
+      <c r="T109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="Y109" s="1"/>
+    </row>
+    <row r="110" spans="1:25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4002,10 +4103,11 @@
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
-      <c r="V110" s="1"/>
-      <c r="X110" s="1"/>
-    </row>
-    <row r="111" spans="1:24">
+      <c r="T110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="Y110" s="1"/>
+    </row>
+    <row r="111" spans="1:25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4024,10 +4126,11 @@
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
-      <c r="V111" s="1"/>
-      <c r="X111" s="1"/>
-    </row>
-    <row r="112" spans="1:24">
+      <c r="T111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="Y111" s="1"/>
+    </row>
+    <row r="112" spans="1:25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4046,10 +4149,11 @@
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
-      <c r="V112" s="1"/>
-      <c r="X112" s="1"/>
-    </row>
-    <row r="113" spans="1:24">
+      <c r="T112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="Y112" s="1"/>
+    </row>
+    <row r="113" spans="1:25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4068,10 +4172,11 @@
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
-      <c r="V113" s="1"/>
-      <c r="X113" s="1"/>
-    </row>
-    <row r="114" spans="1:24">
+      <c r="T113" s="1"/>
+      <c r="W113" s="1"/>
+      <c r="Y113" s="1"/>
+    </row>
+    <row r="114" spans="1:25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4090,10 +4195,11 @@
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
-      <c r="V114" s="1"/>
-      <c r="X114" s="1"/>
-    </row>
-    <row r="115" spans="1:24">
+      <c r="T114" s="1"/>
+      <c r="W114" s="1"/>
+      <c r="Y114" s="1"/>
+    </row>
+    <row r="115" spans="1:25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4112,10 +4218,11 @@
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
-      <c r="V115" s="1"/>
-      <c r="X115" s="1"/>
-    </row>
-    <row r="116" spans="1:24">
+      <c r="T115" s="1"/>
+      <c r="W115" s="1"/>
+      <c r="Y115" s="1"/>
+    </row>
+    <row r="116" spans="1:25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4134,10 +4241,11 @@
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
-      <c r="V116" s="1"/>
-      <c r="X116" s="1"/>
-    </row>
-    <row r="117" spans="1:24">
+      <c r="T116" s="1"/>
+      <c r="W116" s="1"/>
+      <c r="Y116" s="1"/>
+    </row>
+    <row r="117" spans="1:25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4156,10 +4264,11 @@
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
-      <c r="V117" s="1"/>
-      <c r="X117" s="1"/>
-    </row>
-    <row r="118" spans="1:24">
+      <c r="T117" s="1"/>
+      <c r="W117" s="1"/>
+      <c r="Y117" s="1"/>
+    </row>
+    <row r="118" spans="1:25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4178,10 +4287,11 @@
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
-      <c r="V118" s="1"/>
-      <c r="X118" s="1"/>
-    </row>
-    <row r="119" spans="1:24">
+      <c r="T118" s="1"/>
+      <c r="W118" s="1"/>
+      <c r="Y118" s="1"/>
+    </row>
+    <row r="119" spans="1:25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4200,10 +4310,11 @@
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
-      <c r="V119" s="1"/>
-      <c r="X119" s="1"/>
-    </row>
-    <row r="120" spans="1:24">
+      <c r="T119" s="1"/>
+      <c r="W119" s="1"/>
+      <c r="Y119" s="1"/>
+    </row>
+    <row r="120" spans="1:25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4222,10 +4333,11 @@
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
-      <c r="V120" s="1"/>
-      <c r="X120" s="1"/>
-    </row>
-    <row r="121" spans="1:24">
+      <c r="T120" s="1"/>
+      <c r="W120" s="1"/>
+      <c r="Y120" s="1"/>
+    </row>
+    <row r="121" spans="1:25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4244,10 +4356,11 @@
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
-      <c r="V121" s="1"/>
-      <c r="X121" s="1"/>
-    </row>
-    <row r="122" spans="1:24">
+      <c r="T121" s="1"/>
+      <c r="W121" s="1"/>
+      <c r="Y121" s="1"/>
+    </row>
+    <row r="122" spans="1:25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4266,10 +4379,11 @@
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
-      <c r="V122" s="1"/>
-      <c r="X122" s="1"/>
-    </row>
-    <row r="123" spans="1:24">
+      <c r="T122" s="1"/>
+      <c r="W122" s="1"/>
+      <c r="Y122" s="1"/>
+    </row>
+    <row r="123" spans="1:25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4288,10 +4402,11 @@
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
-      <c r="V123" s="1"/>
-      <c r="X123" s="1"/>
-    </row>
-    <row r="124" spans="1:24">
+      <c r="T123" s="1"/>
+      <c r="W123" s="1"/>
+      <c r="Y123" s="1"/>
+    </row>
+    <row r="124" spans="1:25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4310,10 +4425,11 @@
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
-      <c r="V124" s="1"/>
-      <c r="X124" s="1"/>
-    </row>
-    <row r="125" spans="1:24">
+      <c r="T124" s="1"/>
+      <c r="W124" s="1"/>
+      <c r="Y124" s="1"/>
+    </row>
+    <row r="125" spans="1:25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4332,10 +4448,11 @@
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
-      <c r="V125" s="1"/>
-      <c r="X125" s="1"/>
-    </row>
-    <row r="126" spans="1:24">
+      <c r="T125" s="1"/>
+      <c r="W125" s="1"/>
+      <c r="Y125" s="1"/>
+    </row>
+    <row r="126" spans="1:25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4354,10 +4471,11 @@
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
-      <c r="V126" s="1"/>
-      <c r="X126" s="1"/>
-    </row>
-    <row r="127" spans="1:24">
+      <c r="T126" s="1"/>
+      <c r="W126" s="1"/>
+      <c r="Y126" s="1"/>
+    </row>
+    <row r="127" spans="1:25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4376,10 +4494,11 @@
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
-      <c r="V127" s="1"/>
-      <c r="X127" s="1"/>
-    </row>
-    <row r="128" spans="1:24">
+      <c r="T127" s="1"/>
+      <c r="W127" s="1"/>
+      <c r="Y127" s="1"/>
+    </row>
+    <row r="128" spans="1:25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4398,10 +4517,11 @@
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
-      <c r="V128" s="1"/>
-      <c r="X128" s="1"/>
-    </row>
-    <row r="129" spans="1:24">
+      <c r="T128" s="1"/>
+      <c r="W128" s="1"/>
+      <c r="Y128" s="1"/>
+    </row>
+    <row r="129" spans="1:25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4420,10 +4540,11 @@
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
-      <c r="V129" s="1"/>
-      <c r="X129" s="1"/>
-    </row>
-    <row r="130" spans="1:24">
+      <c r="T129" s="1"/>
+      <c r="W129" s="1"/>
+      <c r="Y129" s="1"/>
+    </row>
+    <row r="130" spans="1:25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4442,10 +4563,11 @@
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
-      <c r="V130" s="1"/>
-      <c r="X130" s="1"/>
-    </row>
-    <row r="131" spans="1:24">
+      <c r="T130" s="1"/>
+      <c r="W130" s="1"/>
+      <c r="Y130" s="1"/>
+    </row>
+    <row r="131" spans="1:25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4464,10 +4586,11 @@
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
-      <c r="V131" s="1"/>
-      <c r="X131" s="1"/>
-    </row>
-    <row r="132" spans="1:24">
+      <c r="T131" s="1"/>
+      <c r="W131" s="1"/>
+      <c r="Y131" s="1"/>
+    </row>
+    <row r="132" spans="1:25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4486,10 +4609,11 @@
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
-      <c r="V132" s="1"/>
-      <c r="X132" s="1"/>
-    </row>
-    <row r="133" spans="1:24">
+      <c r="T132" s="1"/>
+      <c r="W132" s="1"/>
+      <c r="Y132" s="1"/>
+    </row>
+    <row r="133" spans="1:25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4508,10 +4632,11 @@
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
-      <c r="V133" s="1"/>
-      <c r="X133" s="1"/>
-    </row>
-    <row r="134" spans="1:24">
+      <c r="T133" s="1"/>
+      <c r="W133" s="1"/>
+      <c r="Y133" s="1"/>
+    </row>
+    <row r="134" spans="1:25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4530,10 +4655,11 @@
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
-      <c r="V134" s="1"/>
-      <c r="X134" s="1"/>
-    </row>
-    <row r="135" spans="1:24">
+      <c r="T134" s="1"/>
+      <c r="W134" s="1"/>
+      <c r="Y134" s="1"/>
+    </row>
+    <row r="135" spans="1:25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4552,10 +4678,11 @@
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
-      <c r="V135" s="1"/>
-      <c r="X135" s="1"/>
-    </row>
-    <row r="136" spans="1:24">
+      <c r="T135" s="1"/>
+      <c r="W135" s="1"/>
+      <c r="Y135" s="1"/>
+    </row>
+    <row r="136" spans="1:25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4574,10 +4701,11 @@
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
-      <c r="V136" s="1"/>
-      <c r="X136" s="1"/>
-    </row>
-    <row r="137" spans="1:24">
+      <c r="T136" s="1"/>
+      <c r="W136" s="1"/>
+      <c r="Y136" s="1"/>
+    </row>
+    <row r="137" spans="1:25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4596,10 +4724,11 @@
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
-      <c r="V137" s="1"/>
-      <c r="X137" s="1"/>
-    </row>
-    <row r="138" spans="1:24">
+      <c r="T137" s="1"/>
+      <c r="W137" s="1"/>
+      <c r="Y137" s="1"/>
+    </row>
+    <row r="138" spans="1:25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4618,10 +4747,11 @@
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
-      <c r="V138" s="1"/>
-      <c r="X138" s="1"/>
-    </row>
-    <row r="139" spans="1:24">
+      <c r="T138" s="1"/>
+      <c r="W138" s="1"/>
+      <c r="Y138" s="1"/>
+    </row>
+    <row r="139" spans="1:25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4640,10 +4770,11 @@
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
-      <c r="V139" s="1"/>
-      <c r="X139" s="1"/>
-    </row>
-    <row r="140" spans="1:24">
+      <c r="T139" s="1"/>
+      <c r="W139" s="1"/>
+      <c r="Y139" s="1"/>
+    </row>
+    <row r="140" spans="1:25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4662,10 +4793,11 @@
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
-      <c r="V140" s="1"/>
-      <c r="X140" s="1"/>
-    </row>
-    <row r="141" spans="1:24">
+      <c r="T140" s="1"/>
+      <c r="W140" s="1"/>
+      <c r="Y140" s="1"/>
+    </row>
+    <row r="141" spans="1:25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4684,10 +4816,11 @@
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
-      <c r="V141" s="1"/>
-      <c r="X141" s="1"/>
-    </row>
-    <row r="142" spans="1:24">
+      <c r="T141" s="1"/>
+      <c r="W141" s="1"/>
+      <c r="Y141" s="1"/>
+    </row>
+    <row r="142" spans="1:25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4706,10 +4839,11 @@
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
-      <c r="V142" s="1"/>
-      <c r="X142" s="1"/>
-    </row>
-    <row r="143" spans="1:24">
+      <c r="T142" s="1"/>
+      <c r="W142" s="1"/>
+      <c r="Y142" s="1"/>
+    </row>
+    <row r="143" spans="1:25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4728,10 +4862,11 @@
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
-      <c r="V143" s="1"/>
-      <c r="X143" s="1"/>
-    </row>
-    <row r="144" spans="1:24">
+      <c r="T143" s="1"/>
+      <c r="W143" s="1"/>
+      <c r="Y143" s="1"/>
+    </row>
+    <row r="144" spans="1:25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4750,10 +4885,11 @@
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
-      <c r="V144" s="1"/>
-      <c r="X144" s="1"/>
-    </row>
-    <row r="145" spans="1:24">
+      <c r="T144" s="1"/>
+      <c r="W144" s="1"/>
+      <c r="Y144" s="1"/>
+    </row>
+    <row r="145" spans="1:25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4772,10 +4908,11 @@
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
-      <c r="V145" s="1"/>
-      <c r="X145" s="1"/>
-    </row>
-    <row r="146" spans="1:24">
+      <c r="T145" s="1"/>
+      <c r="W145" s="1"/>
+      <c r="Y145" s="1"/>
+    </row>
+    <row r="146" spans="1:25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4794,10 +4931,11 @@
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
-      <c r="V146" s="1"/>
-      <c r="X146" s="1"/>
-    </row>
-    <row r="147" spans="1:24">
+      <c r="T146" s="1"/>
+      <c r="W146" s="1"/>
+      <c r="Y146" s="1"/>
+    </row>
+    <row r="147" spans="1:25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4816,10 +4954,11 @@
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
-      <c r="V147" s="1"/>
-      <c r="X147" s="1"/>
-    </row>
-    <row r="148" spans="1:24">
+      <c r="T147" s="1"/>
+      <c r="W147" s="1"/>
+      <c r="Y147" s="1"/>
+    </row>
+    <row r="148" spans="1:25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4838,10 +4977,11 @@
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
-      <c r="V148" s="1"/>
-      <c r="X148" s="1"/>
-    </row>
-    <row r="149" spans="1:24">
+      <c r="T148" s="1"/>
+      <c r="W148" s="1"/>
+      <c r="Y148" s="1"/>
+    </row>
+    <row r="149" spans="1:25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4860,10 +5000,11 @@
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
-      <c r="V149" s="1"/>
-      <c r="X149" s="1"/>
-    </row>
-    <row r="150" spans="1:24">
+      <c r="T149" s="1"/>
+      <c r="W149" s="1"/>
+      <c r="Y149" s="1"/>
+    </row>
+    <row r="150" spans="1:25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4882,10 +5023,11 @@
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
-      <c r="V150" s="1"/>
-      <c r="X150" s="1"/>
-    </row>
-    <row r="151" spans="1:24">
+      <c r="T150" s="1"/>
+      <c r="W150" s="1"/>
+      <c r="Y150" s="1"/>
+    </row>
+    <row r="151" spans="1:25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4904,10 +5046,11 @@
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
-      <c r="V151" s="1"/>
-      <c r="X151" s="1"/>
-    </row>
-    <row r="152" spans="1:24">
+      <c r="T151" s="1"/>
+      <c r="W151" s="1"/>
+      <c r="Y151" s="1"/>
+    </row>
+    <row r="152" spans="1:25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4926,10 +5069,11 @@
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
-      <c r="V152" s="1"/>
-      <c r="X152" s="1"/>
-    </row>
-    <row r="153" spans="1:24">
+      <c r="T152" s="1"/>
+      <c r="W152" s="1"/>
+      <c r="Y152" s="1"/>
+    </row>
+    <row r="153" spans="1:25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4948,10 +5092,11 @@
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
-      <c r="V153" s="1"/>
-      <c r="X153" s="1"/>
-    </row>
-    <row r="154" spans="1:24">
+      <c r="T153" s="1"/>
+      <c r="W153" s="1"/>
+      <c r="Y153" s="1"/>
+    </row>
+    <row r="154" spans="1:25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -4970,10 +5115,11 @@
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
-      <c r="V154" s="1"/>
-      <c r="X154" s="1"/>
-    </row>
-    <row r="155" spans="1:24">
+      <c r="T154" s="1"/>
+      <c r="W154" s="1"/>
+      <c r="Y154" s="1"/>
+    </row>
+    <row r="155" spans="1:25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -4992,10 +5138,11 @@
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
-      <c r="V155" s="1"/>
-      <c r="X155" s="1"/>
-    </row>
-    <row r="156" spans="1:24">
+      <c r="T155" s="1"/>
+      <c r="W155" s="1"/>
+      <c r="Y155" s="1"/>
+    </row>
+    <row r="156" spans="1:25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5014,10 +5161,11 @@
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
-      <c r="V156" s="1"/>
-      <c r="X156" s="1"/>
-    </row>
-    <row r="157" spans="1:24">
+      <c r="T156" s="1"/>
+      <c r="W156" s="1"/>
+      <c r="Y156" s="1"/>
+    </row>
+    <row r="157" spans="1:25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5036,10 +5184,11 @@
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
-      <c r="V157" s="1"/>
-      <c r="X157" s="1"/>
-    </row>
-    <row r="158" spans="1:24">
+      <c r="T157" s="1"/>
+      <c r="W157" s="1"/>
+      <c r="Y157" s="1"/>
+    </row>
+    <row r="158" spans="1:25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5058,10 +5207,11 @@
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
-      <c r="V158" s="1"/>
-      <c r="X158" s="1"/>
-    </row>
-    <row r="159" spans="1:24">
+      <c r="T158" s="1"/>
+      <c r="W158" s="1"/>
+      <c r="Y158" s="1"/>
+    </row>
+    <row r="159" spans="1:25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5080,10 +5230,11 @@
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
-      <c r="V159" s="1"/>
-      <c r="X159" s="1"/>
-    </row>
-    <row r="160" spans="1:24">
+      <c r="T159" s="1"/>
+      <c r="W159" s="1"/>
+      <c r="Y159" s="1"/>
+    </row>
+    <row r="160" spans="1:25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5102,10 +5253,11 @@
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
-      <c r="V160" s="1"/>
-      <c r="X160" s="1"/>
-    </row>
-    <row r="161" spans="1:24">
+      <c r="T160" s="1"/>
+      <c r="W160" s="1"/>
+      <c r="Y160" s="1"/>
+    </row>
+    <row r="161" spans="1:25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5124,10 +5276,11 @@
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
-      <c r="V161" s="1"/>
-      <c r="X161" s="1"/>
-    </row>
-    <row r="162" spans="1:24">
+      <c r="T161" s="1"/>
+      <c r="W161" s="1"/>
+      <c r="Y161" s="1"/>
+    </row>
+    <row r="162" spans="1:25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5146,10 +5299,11 @@
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
-      <c r="V162" s="1"/>
-      <c r="X162" s="1"/>
-    </row>
-    <row r="163" spans="1:24">
+      <c r="T162" s="1"/>
+      <c r="W162" s="1"/>
+      <c r="Y162" s="1"/>
+    </row>
+    <row r="163" spans="1:25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5168,10 +5322,11 @@
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
-      <c r="V163" s="1"/>
-      <c r="X163" s="1"/>
-    </row>
-    <row r="164" spans="1:24">
+      <c r="T163" s="1"/>
+      <c r="W163" s="1"/>
+      <c r="Y163" s="1"/>
+    </row>
+    <row r="164" spans="1:25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5190,10 +5345,11 @@
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
-      <c r="V164" s="1"/>
-      <c r="X164" s="1"/>
-    </row>
-    <row r="165" spans="1:24">
+      <c r="T164" s="1"/>
+      <c r="W164" s="1"/>
+      <c r="Y164" s="1"/>
+    </row>
+    <row r="165" spans="1:25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5212,10 +5368,11 @@
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
-      <c r="V165" s="1"/>
-      <c r="X165" s="1"/>
-    </row>
-    <row r="166" spans="1:24">
+      <c r="T165" s="1"/>
+      <c r="W165" s="1"/>
+      <c r="Y165" s="1"/>
+    </row>
+    <row r="166" spans="1:25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5234,10 +5391,11 @@
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
-      <c r="V166" s="1"/>
-      <c r="X166" s="1"/>
-    </row>
-    <row r="167" spans="1:24">
+      <c r="T166" s="1"/>
+      <c r="W166" s="1"/>
+      <c r="Y166" s="1"/>
+    </row>
+    <row r="167" spans="1:25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5256,10 +5414,11 @@
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
-      <c r="V167" s="1"/>
-      <c r="X167" s="1"/>
-    </row>
-    <row r="168" spans="1:24">
+      <c r="T167" s="1"/>
+      <c r="W167" s="1"/>
+      <c r="Y167" s="1"/>
+    </row>
+    <row r="168" spans="1:25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5278,10 +5437,11 @@
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
-      <c r="V168" s="1"/>
-      <c r="X168" s="1"/>
-    </row>
-    <row r="169" spans="1:24">
+      <c r="T168" s="1"/>
+      <c r="W168" s="1"/>
+      <c r="Y168" s="1"/>
+    </row>
+    <row r="169" spans="1:25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5300,10 +5460,11 @@
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
-      <c r="V169" s="1"/>
-      <c r="X169" s="1"/>
-    </row>
-    <row r="170" spans="1:24">
+      <c r="T169" s="1"/>
+      <c r="W169" s="1"/>
+      <c r="Y169" s="1"/>
+    </row>
+    <row r="170" spans="1:25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5322,10 +5483,11 @@
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
-      <c r="V170" s="1"/>
-      <c r="X170" s="1"/>
-    </row>
-    <row r="171" spans="1:24">
+      <c r="T170" s="1"/>
+      <c r="W170" s="1"/>
+      <c r="Y170" s="1"/>
+    </row>
+    <row r="171" spans="1:25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5344,10 +5506,11 @@
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
-      <c r="V171" s="1"/>
-      <c r="X171" s="1"/>
-    </row>
-    <row r="172" spans="1:24">
+      <c r="T171" s="1"/>
+      <c r="W171" s="1"/>
+      <c r="Y171" s="1"/>
+    </row>
+    <row r="172" spans="1:25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5366,10 +5529,11 @@
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
-      <c r="V172" s="1"/>
-      <c r="X172" s="1"/>
-    </row>
-    <row r="173" spans="1:24">
+      <c r="T172" s="1"/>
+      <c r="W172" s="1"/>
+      <c r="Y172" s="1"/>
+    </row>
+    <row r="173" spans="1:25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5388,10 +5552,11 @@
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
-      <c r="V173" s="1"/>
-      <c r="X173" s="1"/>
-    </row>
-    <row r="174" spans="1:24">
+      <c r="T173" s="1"/>
+      <c r="W173" s="1"/>
+      <c r="Y173" s="1"/>
+    </row>
+    <row r="174" spans="1:25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5410,10 +5575,11 @@
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
-      <c r="V174" s="1"/>
-      <c r="X174" s="1"/>
-    </row>
-    <row r="175" spans="1:24">
+      <c r="T174" s="1"/>
+      <c r="W174" s="1"/>
+      <c r="Y174" s="1"/>
+    </row>
+    <row r="175" spans="1:25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5432,10 +5598,11 @@
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
-      <c r="V175" s="1"/>
-      <c r="X175" s="1"/>
-    </row>
-    <row r="176" spans="1:24">
+      <c r="T175" s="1"/>
+      <c r="W175" s="1"/>
+      <c r="Y175" s="1"/>
+    </row>
+    <row r="176" spans="1:25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5454,10 +5621,11 @@
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
-      <c r="V176" s="1"/>
-      <c r="X176" s="1"/>
-    </row>
-    <row r="177" spans="1:24">
+      <c r="T176" s="1"/>
+      <c r="W176" s="1"/>
+      <c r="Y176" s="1"/>
+    </row>
+    <row r="177" spans="1:25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5476,10 +5644,11 @@
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
-      <c r="V177" s="1"/>
-      <c r="X177" s="1"/>
-    </row>
-    <row r="178" spans="1:24">
+      <c r="T177" s="1"/>
+      <c r="W177" s="1"/>
+      <c r="Y177" s="1"/>
+    </row>
+    <row r="178" spans="1:25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5498,10 +5667,11 @@
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
-      <c r="V178" s="1"/>
-      <c r="X178" s="1"/>
-    </row>
-    <row r="179" spans="1:24">
+      <c r="T178" s="1"/>
+      <c r="W178" s="1"/>
+      <c r="Y178" s="1"/>
+    </row>
+    <row r="179" spans="1:25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5520,10 +5690,11 @@
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
-      <c r="V179" s="1"/>
-      <c r="X179" s="1"/>
-    </row>
-    <row r="180" spans="1:24">
+      <c r="T179" s="1"/>
+      <c r="W179" s="1"/>
+      <c r="Y179" s="1"/>
+    </row>
+    <row r="180" spans="1:25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5542,10 +5713,11 @@
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
-      <c r="V180" s="1"/>
-      <c r="X180" s="1"/>
-    </row>
-    <row r="181" spans="1:24">
+      <c r="T180" s="1"/>
+      <c r="W180" s="1"/>
+      <c r="Y180" s="1"/>
+    </row>
+    <row r="181" spans="1:25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5564,10 +5736,11 @@
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
-      <c r="V181" s="1"/>
-      <c r="X181" s="1"/>
-    </row>
-    <row r="182" spans="1:24">
+      <c r="T181" s="1"/>
+      <c r="W181" s="1"/>
+      <c r="Y181" s="1"/>
+    </row>
+    <row r="182" spans="1:25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5586,10 +5759,11 @@
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
-      <c r="V182" s="1"/>
-      <c r="X182" s="1"/>
-    </row>
-    <row r="183" spans="1:24">
+      <c r="T182" s="1"/>
+      <c r="W182" s="1"/>
+      <c r="Y182" s="1"/>
+    </row>
+    <row r="183" spans="1:25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5608,10 +5782,11 @@
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
-      <c r="V183" s="1"/>
-      <c r="X183" s="1"/>
-    </row>
-    <row r="184" spans="1:24">
+      <c r="T183" s="1"/>
+      <c r="W183" s="1"/>
+      <c r="Y183" s="1"/>
+    </row>
+    <row r="184" spans="1:25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5630,10 +5805,11 @@
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
-      <c r="V184" s="1"/>
-      <c r="X184" s="1"/>
-    </row>
-    <row r="185" spans="1:24">
+      <c r="T184" s="1"/>
+      <c r="W184" s="1"/>
+      <c r="Y184" s="1"/>
+    </row>
+    <row r="185" spans="1:25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5652,10 +5828,11 @@
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
-      <c r="V185" s="1"/>
-      <c r="X185" s="1"/>
-    </row>
-    <row r="186" spans="1:24">
+      <c r="T185" s="1"/>
+      <c r="W185" s="1"/>
+      <c r="Y185" s="1"/>
+    </row>
+    <row r="186" spans="1:25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5674,10 +5851,11 @@
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
-      <c r="V186" s="1"/>
-      <c r="X186" s="1"/>
-    </row>
-    <row r="187" spans="1:24">
+      <c r="T186" s="1"/>
+      <c r="W186" s="1"/>
+      <c r="Y186" s="1"/>
+    </row>
+    <row r="187" spans="1:25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5696,10 +5874,11 @@
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
-      <c r="V187" s="1"/>
-      <c r="X187" s="1"/>
-    </row>
-    <row r="188" spans="1:24">
+      <c r="T187" s="1"/>
+      <c r="W187" s="1"/>
+      <c r="Y187" s="1"/>
+    </row>
+    <row r="188" spans="1:25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5718,10 +5897,11 @@
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
-      <c r="V188" s="1"/>
-      <c r="X188" s="1"/>
-    </row>
-    <row r="189" spans="1:24">
+      <c r="T188" s="1"/>
+      <c r="W188" s="1"/>
+      <c r="Y188" s="1"/>
+    </row>
+    <row r="189" spans="1:25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5740,10 +5920,11 @@
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
       <c r="S189" s="1"/>
-      <c r="V189" s="1"/>
-      <c r="X189" s="1"/>
-    </row>
-    <row r="190" spans="1:24">
+      <c r="T189" s="1"/>
+      <c r="W189" s="1"/>
+      <c r="Y189" s="1"/>
+    </row>
+    <row r="190" spans="1:25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5762,10 +5943,11 @@
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
-      <c r="V190" s="1"/>
-      <c r="X190" s="1"/>
-    </row>
-    <row r="191" spans="1:24">
+      <c r="T190" s="1"/>
+      <c r="W190" s="1"/>
+      <c r="Y190" s="1"/>
+    </row>
+    <row r="191" spans="1:25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5784,10 +5966,11 @@
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
-      <c r="V191" s="1"/>
-      <c r="X191" s="1"/>
-    </row>
-    <row r="192" spans="1:24">
+      <c r="T191" s="1"/>
+      <c r="W191" s="1"/>
+      <c r="Y191" s="1"/>
+    </row>
+    <row r="192" spans="1:25">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5806,10 +5989,11 @@
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
-      <c r="V192" s="1"/>
-      <c r="X192" s="1"/>
-    </row>
-    <row r="193" spans="1:24">
+      <c r="T192" s="1"/>
+      <c r="W192" s="1"/>
+      <c r="Y192" s="1"/>
+    </row>
+    <row r="193" spans="1:25">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5828,10 +6012,11 @@
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
-      <c r="V193" s="1"/>
-      <c r="X193" s="1"/>
-    </row>
-    <row r="194" spans="1:24">
+      <c r="T193" s="1"/>
+      <c r="W193" s="1"/>
+      <c r="Y193" s="1"/>
+    </row>
+    <row r="194" spans="1:25">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5850,10 +6035,11 @@
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
-      <c r="V194" s="1"/>
-      <c r="X194" s="1"/>
-    </row>
-    <row r="195" spans="1:24">
+      <c r="T194" s="1"/>
+      <c r="W194" s="1"/>
+      <c r="Y194" s="1"/>
+    </row>
+    <row r="195" spans="1:25">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5872,10 +6058,11 @@
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
-      <c r="V195" s="1"/>
-      <c r="X195" s="1"/>
-    </row>
-    <row r="196" spans="1:24">
+      <c r="T195" s="1"/>
+      <c r="W195" s="1"/>
+      <c r="Y195" s="1"/>
+    </row>
+    <row r="196" spans="1:25">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5894,10 +6081,11 @@
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
-      <c r="V196" s="1"/>
-      <c r="X196" s="1"/>
-    </row>
-    <row r="197" spans="1:24">
+      <c r="T196" s="1"/>
+      <c r="W196" s="1"/>
+      <c r="Y196" s="1"/>
+    </row>
+    <row r="197" spans="1:25">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5916,10 +6104,11 @@
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
-      <c r="V197" s="1"/>
-      <c r="X197" s="1"/>
-    </row>
-    <row r="198" spans="1:24">
+      <c r="T197" s="1"/>
+      <c r="W197" s="1"/>
+      <c r="Y197" s="1"/>
+    </row>
+    <row r="198" spans="1:25">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5938,10 +6127,11 @@
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
-      <c r="V198" s="1"/>
-      <c r="X198" s="1"/>
-    </row>
-    <row r="199" spans="1:24">
+      <c r="T198" s="1"/>
+      <c r="W198" s="1"/>
+      <c r="Y198" s="1"/>
+    </row>
+    <row r="199" spans="1:25">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -5960,10 +6150,11 @@
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
-      <c r="V199" s="1"/>
-      <c r="X199" s="1"/>
-    </row>
-    <row r="200" spans="1:24">
+      <c r="T199" s="1"/>
+      <c r="W199" s="1"/>
+      <c r="Y199" s="1"/>
+    </row>
+    <row r="200" spans="1:25">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -5982,10 +6173,11 @@
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
-      <c r="V200" s="1"/>
-      <c r="X200" s="1"/>
-    </row>
-    <row r="201" spans="1:24">
+      <c r="T200" s="1"/>
+      <c r="W200" s="1"/>
+      <c r="Y200" s="1"/>
+    </row>
+    <row r="201" spans="1:25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6004,10 +6196,11 @@
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
-      <c r="V201" s="1"/>
-      <c r="X201" s="1"/>
-    </row>
-    <row r="202" spans="1:24">
+      <c r="T201" s="1"/>
+      <c r="W201" s="1"/>
+      <c r="Y201" s="1"/>
+    </row>
+    <row r="202" spans="1:25">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6026,10 +6219,11 @@
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
-      <c r="V202" s="1"/>
-      <c r="X202" s="1"/>
-    </row>
-    <row r="203" spans="1:24">
+      <c r="T202" s="1"/>
+      <c r="W202" s="1"/>
+      <c r="Y202" s="1"/>
+    </row>
+    <row r="203" spans="1:25">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6048,10 +6242,11 @@
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
-      <c r="V203" s="1"/>
-      <c r="X203" s="1"/>
-    </row>
-    <row r="204" spans="1:24">
+      <c r="T203" s="1"/>
+      <c r="W203" s="1"/>
+      <c r="Y203" s="1"/>
+    </row>
+    <row r="204" spans="1:25">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6070,10 +6265,11 @@
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
-      <c r="V204" s="1"/>
-      <c r="X204" s="1"/>
-    </row>
-    <row r="205" spans="1:24">
+      <c r="T204" s="1"/>
+      <c r="W204" s="1"/>
+      <c r="Y204" s="1"/>
+    </row>
+    <row r="205" spans="1:25">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6092,10 +6288,11 @@
       <c r="Q205" s="1"/>
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
-      <c r="V205" s="1"/>
-      <c r="X205" s="1"/>
-    </row>
-    <row r="206" spans="1:24">
+      <c r="T205" s="1"/>
+      <c r="W205" s="1"/>
+      <c r="Y205" s="1"/>
+    </row>
+    <row r="206" spans="1:25">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6114,10 +6311,11 @@
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
       <c r="S206" s="1"/>
-      <c r="V206" s="1"/>
-      <c r="X206" s="1"/>
-    </row>
-    <row r="207" spans="1:24">
+      <c r="T206" s="1"/>
+      <c r="W206" s="1"/>
+      <c r="Y206" s="1"/>
+    </row>
+    <row r="207" spans="1:25">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6136,10 +6334,11 @@
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
-      <c r="V207" s="1"/>
-      <c r="X207" s="1"/>
-    </row>
-    <row r="208" spans="1:24">
+      <c r="T207" s="1"/>
+      <c r="W207" s="1"/>
+      <c r="Y207" s="1"/>
+    </row>
+    <row r="208" spans="1:25">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6158,10 +6357,11 @@
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
-      <c r="V208" s="1"/>
-      <c r="X208" s="1"/>
-    </row>
-    <row r="209" spans="1:24">
+      <c r="T208" s="1"/>
+      <c r="W208" s="1"/>
+      <c r="Y208" s="1"/>
+    </row>
+    <row r="209" spans="1:25">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6180,10 +6380,11 @@
       <c r="Q209" s="1"/>
       <c r="R209" s="1"/>
       <c r="S209" s="1"/>
-      <c r="V209" s="1"/>
-      <c r="X209" s="1"/>
-    </row>
-    <row r="210" spans="1:24">
+      <c r="T209" s="1"/>
+      <c r="W209" s="1"/>
+      <c r="Y209" s="1"/>
+    </row>
+    <row r="210" spans="1:25">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6202,10 +6403,11 @@
       <c r="Q210" s="1"/>
       <c r="R210" s="1"/>
       <c r="S210" s="1"/>
-      <c r="V210" s="1"/>
-      <c r="X210" s="1"/>
-    </row>
-    <row r="211" spans="1:24">
+      <c r="T210" s="1"/>
+      <c r="W210" s="1"/>
+      <c r="Y210" s="1"/>
+    </row>
+    <row r="211" spans="1:25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6224,10 +6426,11 @@
       <c r="Q211" s="1"/>
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
-      <c r="V211" s="1"/>
-      <c r="X211" s="1"/>
-    </row>
-    <row r="212" spans="1:24">
+      <c r="T211" s="1"/>
+      <c r="W211" s="1"/>
+      <c r="Y211" s="1"/>
+    </row>
+    <row r="212" spans="1:25">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6246,10 +6449,11 @@
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
       <c r="S212" s="1"/>
-      <c r="V212" s="1"/>
-      <c r="X212" s="1"/>
-    </row>
-    <row r="213" spans="1:24">
+      <c r="T212" s="1"/>
+      <c r="W212" s="1"/>
+      <c r="Y212" s="1"/>
+    </row>
+    <row r="213" spans="1:25">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6268,10 +6472,11 @@
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
-      <c r="V213" s="1"/>
-      <c r="X213" s="1"/>
-    </row>
-    <row r="214" spans="1:24">
+      <c r="T213" s="1"/>
+      <c r="W213" s="1"/>
+      <c r="Y213" s="1"/>
+    </row>
+    <row r="214" spans="1:25">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6290,10 +6495,11 @@
       <c r="Q214" s="1"/>
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
-      <c r="V214" s="1"/>
-      <c r="X214" s="1"/>
-    </row>
-    <row r="215" spans="1:24">
+      <c r="T214" s="1"/>
+      <c r="W214" s="1"/>
+      <c r="Y214" s="1"/>
+    </row>
+    <row r="215" spans="1:25">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6312,10 +6518,11 @@
       <c r="Q215" s="1"/>
       <c r="R215" s="1"/>
       <c r="S215" s="1"/>
-      <c r="V215" s="1"/>
-      <c r="X215" s="1"/>
-    </row>
-    <row r="216" spans="1:24">
+      <c r="T215" s="1"/>
+      <c r="W215" s="1"/>
+      <c r="Y215" s="1"/>
+    </row>
+    <row r="216" spans="1:25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6334,10 +6541,11 @@
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
       <c r="S216" s="1"/>
-      <c r="V216" s="1"/>
-      <c r="X216" s="1"/>
-    </row>
-    <row r="217" spans="1:24">
+      <c r="T216" s="1"/>
+      <c r="W216" s="1"/>
+      <c r="Y216" s="1"/>
+    </row>
+    <row r="217" spans="1:25">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6356,10 +6564,11 @@
       <c r="Q217" s="1"/>
       <c r="R217" s="1"/>
       <c r="S217" s="1"/>
-      <c r="V217" s="1"/>
-      <c r="X217" s="1"/>
-    </row>
-    <row r="218" spans="1:24">
+      <c r="T217" s="1"/>
+      <c r="W217" s="1"/>
+      <c r="Y217" s="1"/>
+    </row>
+    <row r="218" spans="1:25">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6378,10 +6587,11 @@
       <c r="Q218" s="1"/>
       <c r="R218" s="1"/>
       <c r="S218" s="1"/>
-      <c r="V218" s="1"/>
-      <c r="X218" s="1"/>
-    </row>
-    <row r="219" spans="1:24">
+      <c r="T218" s="1"/>
+      <c r="W218" s="1"/>
+      <c r="Y218" s="1"/>
+    </row>
+    <row r="219" spans="1:25">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6400,10 +6610,11 @@
       <c r="Q219" s="1"/>
       <c r="R219" s="1"/>
       <c r="S219" s="1"/>
-      <c r="V219" s="1"/>
-      <c r="X219" s="1"/>
-    </row>
-    <row r="220" spans="1:24">
+      <c r="T219" s="1"/>
+      <c r="W219" s="1"/>
+      <c r="Y219" s="1"/>
+    </row>
+    <row r="220" spans="1:25">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6422,10 +6633,11 @@
       <c r="Q220" s="1"/>
       <c r="R220" s="1"/>
       <c r="S220" s="1"/>
-      <c r="V220" s="1"/>
-      <c r="X220" s="1"/>
-    </row>
-    <row r="221" spans="1:24">
+      <c r="T220" s="1"/>
+      <c r="W220" s="1"/>
+      <c r="Y220" s="1"/>
+    </row>
+    <row r="221" spans="1:25">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6444,10 +6656,11 @@
       <c r="Q221" s="1"/>
       <c r="R221" s="1"/>
       <c r="S221" s="1"/>
-      <c r="V221" s="1"/>
-      <c r="X221" s="1"/>
-    </row>
-    <row r="222" spans="1:24">
+      <c r="T221" s="1"/>
+      <c r="W221" s="1"/>
+      <c r="Y221" s="1"/>
+    </row>
+    <row r="222" spans="1:25">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6466,10 +6679,11 @@
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
       <c r="S222" s="1"/>
-      <c r="V222" s="1"/>
-      <c r="X222" s="1"/>
-    </row>
-    <row r="223" spans="1:24">
+      <c r="T222" s="1"/>
+      <c r="W222" s="1"/>
+      <c r="Y222" s="1"/>
+    </row>
+    <row r="223" spans="1:25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6488,10 +6702,11 @@
       <c r="Q223" s="1"/>
       <c r="R223" s="1"/>
       <c r="S223" s="1"/>
-      <c r="V223" s="1"/>
-      <c r="X223" s="1"/>
-    </row>
-    <row r="224" spans="1:24">
+      <c r="T223" s="1"/>
+      <c r="W223" s="1"/>
+      <c r="Y223" s="1"/>
+    </row>
+    <row r="224" spans="1:25">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6510,10 +6725,11 @@
       <c r="Q224" s="1"/>
       <c r="R224" s="1"/>
       <c r="S224" s="1"/>
-      <c r="V224" s="1"/>
-      <c r="X224" s="1"/>
-    </row>
-    <row r="225" spans="1:24">
+      <c r="T224" s="1"/>
+      <c r="W224" s="1"/>
+      <c r="Y224" s="1"/>
+    </row>
+    <row r="225" spans="1:25">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6532,10 +6748,11 @@
       <c r="Q225" s="1"/>
       <c r="R225" s="1"/>
       <c r="S225" s="1"/>
-      <c r="V225" s="1"/>
-      <c r="X225" s="1"/>
-    </row>
-    <row r="226" spans="1:24">
+      <c r="T225" s="1"/>
+      <c r="W225" s="1"/>
+      <c r="Y225" s="1"/>
+    </row>
+    <row r="226" spans="1:25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6554,10 +6771,11 @@
       <c r="Q226" s="1"/>
       <c r="R226" s="1"/>
       <c r="S226" s="1"/>
-      <c r="V226" s="1"/>
-      <c r="X226" s="1"/>
-    </row>
-    <row r="227" spans="1:24">
+      <c r="T226" s="1"/>
+      <c r="W226" s="1"/>
+      <c r="Y226" s="1"/>
+    </row>
+    <row r="227" spans="1:25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6576,10 +6794,11 @@
       <c r="Q227" s="1"/>
       <c r="R227" s="1"/>
       <c r="S227" s="1"/>
-      <c r="V227" s="1"/>
-      <c r="X227" s="1"/>
-    </row>
-    <row r="228" spans="1:24">
+      <c r="T227" s="1"/>
+      <c r="W227" s="1"/>
+      <c r="Y227" s="1"/>
+    </row>
+    <row r="228" spans="1:25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6598,10 +6817,11 @@
       <c r="Q228" s="1"/>
       <c r="R228" s="1"/>
       <c r="S228" s="1"/>
-      <c r="V228" s="1"/>
-      <c r="X228" s="1"/>
-    </row>
-    <row r="229" spans="1:24">
+      <c r="T228" s="1"/>
+      <c r="W228" s="1"/>
+      <c r="Y228" s="1"/>
+    </row>
+    <row r="229" spans="1:25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6620,10 +6840,11 @@
       <c r="Q229" s="1"/>
       <c r="R229" s="1"/>
       <c r="S229" s="1"/>
-      <c r="V229" s="1"/>
-      <c r="X229" s="1"/>
-    </row>
-    <row r="230" spans="1:24">
+      <c r="T229" s="1"/>
+      <c r="W229" s="1"/>
+      <c r="Y229" s="1"/>
+    </row>
+    <row r="230" spans="1:25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -6642,10 +6863,11 @@
       <c r="Q230" s="1"/>
       <c r="R230" s="1"/>
       <c r="S230" s="1"/>
-      <c r="V230" s="1"/>
-      <c r="X230" s="1"/>
-    </row>
-    <row r="231" spans="1:24">
+      <c r="T230" s="1"/>
+      <c r="W230" s="1"/>
+      <c r="Y230" s="1"/>
+    </row>
+    <row r="231" spans="1:25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -6664,10 +6886,11 @@
       <c r="Q231" s="1"/>
       <c r="R231" s="1"/>
       <c r="S231" s="1"/>
-      <c r="V231" s="1"/>
-      <c r="X231" s="1"/>
-    </row>
-    <row r="232" spans="1:24">
+      <c r="T231" s="1"/>
+      <c r="W231" s="1"/>
+      <c r="Y231" s="1"/>
+    </row>
+    <row r="232" spans="1:25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -6686,10 +6909,11 @@
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
       <c r="S232" s="1"/>
-      <c r="V232" s="1"/>
-      <c r="X232" s="1"/>
-    </row>
-    <row r="233" spans="1:24">
+      <c r="T232" s="1"/>
+      <c r="W232" s="1"/>
+      <c r="Y232" s="1"/>
+    </row>
+    <row r="233" spans="1:25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -6708,10 +6932,11 @@
       <c r="Q233" s="1"/>
       <c r="R233" s="1"/>
       <c r="S233" s="1"/>
-      <c r="V233" s="1"/>
-      <c r="X233" s="1"/>
-    </row>
-    <row r="234" spans="1:24">
+      <c r="T233" s="1"/>
+      <c r="W233" s="1"/>
+      <c r="Y233" s="1"/>
+    </row>
+    <row r="234" spans="1:25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -6730,10 +6955,11 @@
       <c r="Q234" s="1"/>
       <c r="R234" s="1"/>
       <c r="S234" s="1"/>
-      <c r="V234" s="1"/>
-      <c r="X234" s="1"/>
-    </row>
-    <row r="235" spans="1:24">
+      <c r="T234" s="1"/>
+      <c r="W234" s="1"/>
+      <c r="Y234" s="1"/>
+    </row>
+    <row r="235" spans="1:25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -6752,10 +6978,11 @@
       <c r="Q235" s="1"/>
       <c r="R235" s="1"/>
       <c r="S235" s="1"/>
-      <c r="V235" s="1"/>
-      <c r="X235" s="1"/>
-    </row>
-    <row r="236" spans="1:24">
+      <c r="T235" s="1"/>
+      <c r="W235" s="1"/>
+      <c r="Y235" s="1"/>
+    </row>
+    <row r="236" spans="1:25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -6774,10 +7001,11 @@
       <c r="Q236" s="1"/>
       <c r="R236" s="1"/>
       <c r="S236" s="1"/>
-      <c r="V236" s="1"/>
-      <c r="X236" s="1"/>
-    </row>
-    <row r="237" spans="1:24">
+      <c r="T236" s="1"/>
+      <c r="W236" s="1"/>
+      <c r="Y236" s="1"/>
+    </row>
+    <row r="237" spans="1:25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -6796,10 +7024,11 @@
       <c r="Q237" s="1"/>
       <c r="R237" s="1"/>
       <c r="S237" s="1"/>
-      <c r="V237" s="1"/>
-      <c r="X237" s="1"/>
-    </row>
-    <row r="238" spans="1:24">
+      <c r="T237" s="1"/>
+      <c r="W237" s="1"/>
+      <c r="Y237" s="1"/>
+    </row>
+    <row r="238" spans="1:25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -6818,10 +7047,11 @@
       <c r="Q238" s="1"/>
       <c r="R238" s="1"/>
       <c r="S238" s="1"/>
-      <c r="V238" s="1"/>
-      <c r="X238" s="1"/>
-    </row>
-    <row r="239" spans="1:24">
+      <c r="T238" s="1"/>
+      <c r="W238" s="1"/>
+      <c r="Y238" s="1"/>
+    </row>
+    <row r="239" spans="1:25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -6840,10 +7070,11 @@
       <c r="Q239" s="1"/>
       <c r="R239" s="1"/>
       <c r="S239" s="1"/>
-      <c r="V239" s="1"/>
-      <c r="X239" s="1"/>
-    </row>
-    <row r="240" spans="1:24">
+      <c r="T239" s="1"/>
+      <c r="W239" s="1"/>
+      <c r="Y239" s="1"/>
+    </row>
+    <row r="240" spans="1:25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -6862,10 +7093,11 @@
       <c r="Q240" s="1"/>
       <c r="R240" s="1"/>
       <c r="S240" s="1"/>
-      <c r="V240" s="1"/>
-      <c r="X240" s="1"/>
-    </row>
-    <row r="241" spans="1:24">
+      <c r="T240" s="1"/>
+      <c r="W240" s="1"/>
+      <c r="Y240" s="1"/>
+    </row>
+    <row r="241" spans="1:25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -6884,10 +7116,11 @@
       <c r="Q241" s="1"/>
       <c r="R241" s="1"/>
       <c r="S241" s="1"/>
-      <c r="V241" s="1"/>
-      <c r="X241" s="1"/>
-    </row>
-    <row r="242" spans="1:24">
+      <c r="T241" s="1"/>
+      <c r="W241" s="1"/>
+      <c r="Y241" s="1"/>
+    </row>
+    <row r="242" spans="1:25">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -6906,10 +7139,11 @@
       <c r="Q242" s="1"/>
       <c r="R242" s="1"/>
       <c r="S242" s="1"/>
-      <c r="V242" s="1"/>
-      <c r="X242" s="1"/>
-    </row>
-    <row r="243" spans="1:24">
+      <c r="T242" s="1"/>
+      <c r="W242" s="1"/>
+      <c r="Y242" s="1"/>
+    </row>
+    <row r="243" spans="1:25">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -6928,10 +7162,11 @@
       <c r="Q243" s="1"/>
       <c r="R243" s="1"/>
       <c r="S243" s="1"/>
-      <c r="V243" s="1"/>
-      <c r="X243" s="1"/>
-    </row>
-    <row r="244" spans="1:24">
+      <c r="T243" s="1"/>
+      <c r="W243" s="1"/>
+      <c r="Y243" s="1"/>
+    </row>
+    <row r="244" spans="1:25">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -6950,10 +7185,11 @@
       <c r="Q244" s="1"/>
       <c r="R244" s="1"/>
       <c r="S244" s="1"/>
-      <c r="V244" s="1"/>
-      <c r="X244" s="1"/>
-    </row>
-    <row r="245" spans="1:24">
+      <c r="T244" s="1"/>
+      <c r="W244" s="1"/>
+      <c r="Y244" s="1"/>
+    </row>
+    <row r="245" spans="1:25">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -6972,10 +7208,11 @@
       <c r="Q245" s="1"/>
       <c r="R245" s="1"/>
       <c r="S245" s="1"/>
-      <c r="V245" s="1"/>
-      <c r="X245" s="1"/>
-    </row>
-    <row r="246" spans="1:24">
+      <c r="T245" s="1"/>
+      <c r="W245" s="1"/>
+      <c r="Y245" s="1"/>
+    </row>
+    <row r="246" spans="1:25">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -6994,10 +7231,11 @@
       <c r="Q246" s="1"/>
       <c r="R246" s="1"/>
       <c r="S246" s="1"/>
-      <c r="V246" s="1"/>
-      <c r="X246" s="1"/>
-    </row>
-    <row r="247" spans="1:24">
+      <c r="T246" s="1"/>
+      <c r="W246" s="1"/>
+      <c r="Y246" s="1"/>
+    </row>
+    <row r="247" spans="1:25">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -7016,10 +7254,11 @@
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
       <c r="S247" s="1"/>
-      <c r="V247" s="1"/>
-      <c r="X247" s="1"/>
-    </row>
-    <row r="248" spans="1:24">
+      <c r="T247" s="1"/>
+      <c r="W247" s="1"/>
+      <c r="Y247" s="1"/>
+    </row>
+    <row r="248" spans="1:25">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -7038,10 +7277,11 @@
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
       <c r="S248" s="1"/>
-      <c r="V248" s="1"/>
-      <c r="X248" s="1"/>
-    </row>
-    <row r="249" spans="1:24">
+      <c r="T248" s="1"/>
+      <c r="W248" s="1"/>
+      <c r="Y248" s="1"/>
+    </row>
+    <row r="249" spans="1:25">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -7060,10 +7300,11 @@
       <c r="Q249" s="1"/>
       <c r="R249" s="1"/>
       <c r="S249" s="1"/>
-      <c r="V249" s="1"/>
-      <c r="X249" s="1"/>
-    </row>
-    <row r="250" spans="1:24">
+      <c r="T249" s="1"/>
+      <c r="W249" s="1"/>
+      <c r="Y249" s="1"/>
+    </row>
+    <row r="250" spans="1:25">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -7082,10 +7323,11 @@
       <c r="Q250" s="1"/>
       <c r="R250" s="1"/>
       <c r="S250" s="1"/>
-      <c r="V250" s="1"/>
-      <c r="X250" s="1"/>
-    </row>
-    <row r="251" spans="1:24">
+      <c r="T250" s="1"/>
+      <c r="W250" s="1"/>
+      <c r="Y250" s="1"/>
+    </row>
+    <row r="251" spans="1:25">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -7104,10 +7346,11 @@
       <c r="Q251" s="1"/>
       <c r="R251" s="1"/>
       <c r="S251" s="1"/>
-      <c r="V251" s="1"/>
-      <c r="X251" s="1"/>
-    </row>
-    <row r="252" spans="1:24">
+      <c r="T251" s="1"/>
+      <c r="W251" s="1"/>
+      <c r="Y251" s="1"/>
+    </row>
+    <row r="252" spans="1:25">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -7126,10 +7369,11 @@
       <c r="Q252" s="1"/>
       <c r="R252" s="1"/>
       <c r="S252" s="1"/>
-      <c r="V252" s="1"/>
-      <c r="X252" s="1"/>
-    </row>
-    <row r="253" spans="1:24">
+      <c r="T252" s="1"/>
+      <c r="W252" s="1"/>
+      <c r="Y252" s="1"/>
+    </row>
+    <row r="253" spans="1:25">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -7148,10 +7392,11 @@
       <c r="Q253" s="1"/>
       <c r="R253" s="1"/>
       <c r="S253" s="1"/>
-      <c r="V253" s="1"/>
-      <c r="X253" s="1"/>
-    </row>
-    <row r="254" spans="1:24">
+      <c r="T253" s="1"/>
+      <c r="W253" s="1"/>
+      <c r="Y253" s="1"/>
+    </row>
+    <row r="254" spans="1:25">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -7170,10 +7415,11 @@
       <c r="Q254" s="1"/>
       <c r="R254" s="1"/>
       <c r="S254" s="1"/>
-      <c r="V254" s="1"/>
-      <c r="X254" s="1"/>
-    </row>
-    <row r="255" spans="1:24">
+      <c r="T254" s="1"/>
+      <c r="W254" s="1"/>
+      <c r="Y254" s="1"/>
+    </row>
+    <row r="255" spans="1:25">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -7192,10 +7438,11 @@
       <c r="Q255" s="1"/>
       <c r="R255" s="1"/>
       <c r="S255" s="1"/>
-      <c r="V255" s="1"/>
-      <c r="X255" s="1"/>
-    </row>
-    <row r="256" spans="1:24">
+      <c r="T255" s="1"/>
+      <c r="W255" s="1"/>
+      <c r="Y255" s="1"/>
+    </row>
+    <row r="256" spans="1:25">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -7214,10 +7461,11 @@
       <c r="Q256" s="1"/>
       <c r="R256" s="1"/>
       <c r="S256" s="1"/>
-      <c r="V256" s="1"/>
-      <c r="X256" s="1"/>
-    </row>
-    <row r="257" spans="1:24">
+      <c r="T256" s="1"/>
+      <c r="W256" s="1"/>
+      <c r="Y256" s="1"/>
+    </row>
+    <row r="257" spans="1:25">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -7236,10 +7484,11 @@
       <c r="Q257" s="1"/>
       <c r="R257" s="1"/>
       <c r="S257" s="1"/>
-      <c r="V257" s="1"/>
-      <c r="X257" s="1"/>
-    </row>
-    <row r="258" spans="1:24">
+      <c r="T257" s="1"/>
+      <c r="W257" s="1"/>
+      <c r="Y257" s="1"/>
+    </row>
+    <row r="258" spans="1:25">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -7258,10 +7507,11 @@
       <c r="Q258" s="1"/>
       <c r="R258" s="1"/>
       <c r="S258" s="1"/>
-      <c r="V258" s="1"/>
-      <c r="X258" s="1"/>
-    </row>
-    <row r="259" spans="1:24">
+      <c r="T258" s="1"/>
+      <c r="W258" s="1"/>
+      <c r="Y258" s="1"/>
+    </row>
+    <row r="259" spans="1:25">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -7280,10 +7530,11 @@
       <c r="Q259" s="1"/>
       <c r="R259" s="1"/>
       <c r="S259" s="1"/>
-      <c r="V259" s="1"/>
-      <c r="X259" s="1"/>
-    </row>
-    <row r="260" spans="1:24">
+      <c r="T259" s="1"/>
+      <c r="W259" s="1"/>
+      <c r="Y259" s="1"/>
+    </row>
+    <row r="260" spans="1:25">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -7302,10 +7553,11 @@
       <c r="Q260" s="1"/>
       <c r="R260" s="1"/>
       <c r="S260" s="1"/>
-      <c r="V260" s="1"/>
-      <c r="X260" s="1"/>
-    </row>
-    <row r="261" spans="1:24">
+      <c r="T260" s="1"/>
+      <c r="W260" s="1"/>
+      <c r="Y260" s="1"/>
+    </row>
+    <row r="261" spans="1:25">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -7324,10 +7576,11 @@
       <c r="Q261" s="1"/>
       <c r="R261" s="1"/>
       <c r="S261" s="1"/>
-      <c r="V261" s="1"/>
-      <c r="X261" s="1"/>
-    </row>
-    <row r="262" spans="1:24">
+      <c r="T261" s="1"/>
+      <c r="W261" s="1"/>
+      <c r="Y261" s="1"/>
+    </row>
+    <row r="262" spans="1:25">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -7346,10 +7599,11 @@
       <c r="Q262" s="1"/>
       <c r="R262" s="1"/>
       <c r="S262" s="1"/>
-      <c r="V262" s="1"/>
-      <c r="X262" s="1"/>
-    </row>
-    <row r="263" spans="1:24">
+      <c r="T262" s="1"/>
+      <c r="W262" s="1"/>
+      <c r="Y262" s="1"/>
+    </row>
+    <row r="263" spans="1:25">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -7368,10 +7622,11 @@
       <c r="Q263" s="1"/>
       <c r="R263" s="1"/>
       <c r="S263" s="1"/>
-      <c r="V263" s="1"/>
-      <c r="X263" s="1"/>
-    </row>
-    <row r="264" spans="1:24">
+      <c r="T263" s="1"/>
+      <c r="W263" s="1"/>
+      <c r="Y263" s="1"/>
+    </row>
+    <row r="264" spans="1:25">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -7390,10 +7645,11 @@
       <c r="Q264" s="1"/>
       <c r="R264" s="1"/>
       <c r="S264" s="1"/>
-      <c r="V264" s="1"/>
-      <c r="X264" s="1"/>
-    </row>
-    <row r="265" spans="1:24">
+      <c r="T264" s="1"/>
+      <c r="W264" s="1"/>
+      <c r="Y264" s="1"/>
+    </row>
+    <row r="265" spans="1:25">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -7412,10 +7668,11 @@
       <c r="Q265" s="1"/>
       <c r="R265" s="1"/>
       <c r="S265" s="1"/>
-      <c r="V265" s="1"/>
-      <c r="X265" s="1"/>
-    </row>
-    <row r="266" spans="1:24">
+      <c r="T265" s="1"/>
+      <c r="W265" s="1"/>
+      <c r="Y265" s="1"/>
+    </row>
+    <row r="266" spans="1:25">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -7434,10 +7691,11 @@
       <c r="Q266" s="1"/>
       <c r="R266" s="1"/>
       <c r="S266" s="1"/>
-      <c r="V266" s="1"/>
-      <c r="X266" s="1"/>
-    </row>
-    <row r="267" spans="1:24">
+      <c r="T266" s="1"/>
+      <c r="W266" s="1"/>
+      <c r="Y266" s="1"/>
+    </row>
+    <row r="267" spans="1:25">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -7456,10 +7714,11 @@
       <c r="Q267" s="1"/>
       <c r="R267" s="1"/>
       <c r="S267" s="1"/>
-      <c r="V267" s="1"/>
-      <c r="X267" s="1"/>
-    </row>
-    <row r="268" spans="1:24">
+      <c r="T267" s="1"/>
+      <c r="W267" s="1"/>
+      <c r="Y267" s="1"/>
+    </row>
+    <row r="268" spans="1:25">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -7478,10 +7737,11 @@
       <c r="Q268" s="1"/>
       <c r="R268" s="1"/>
       <c r="S268" s="1"/>
-      <c r="V268" s="1"/>
-      <c r="X268" s="1"/>
-    </row>
-    <row r="269" spans="1:24">
+      <c r="T268" s="1"/>
+      <c r="W268" s="1"/>
+      <c r="Y268" s="1"/>
+    </row>
+    <row r="269" spans="1:25">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -7500,10 +7760,11 @@
       <c r="Q269" s="1"/>
       <c r="R269" s="1"/>
       <c r="S269" s="1"/>
-      <c r="V269" s="1"/>
-      <c r="X269" s="1"/>
-    </row>
-    <row r="270" spans="1:24">
+      <c r="T269" s="1"/>
+      <c r="W269" s="1"/>
+      <c r="Y269" s="1"/>
+    </row>
+    <row r="270" spans="1:25">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -7522,10 +7783,11 @@
       <c r="Q270" s="1"/>
       <c r="R270" s="1"/>
       <c r="S270" s="1"/>
-      <c r="V270" s="1"/>
-      <c r="X270" s="1"/>
-    </row>
-    <row r="271" spans="1:24">
+      <c r="T270" s="1"/>
+      <c r="W270" s="1"/>
+      <c r="Y270" s="1"/>
+    </row>
+    <row r="271" spans="1:25">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -7544,10 +7806,11 @@
       <c r="Q271" s="1"/>
       <c r="R271" s="1"/>
       <c r="S271" s="1"/>
-      <c r="V271" s="1"/>
-      <c r="X271" s="1"/>
-    </row>
-    <row r="272" spans="1:24">
+      <c r="T271" s="1"/>
+      <c r="W271" s="1"/>
+      <c r="Y271" s="1"/>
+    </row>
+    <row r="272" spans="1:25">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -7566,10 +7829,11 @@
       <c r="Q272" s="1"/>
       <c r="R272" s="1"/>
       <c r="S272" s="1"/>
-      <c r="V272" s="1"/>
-      <c r="X272" s="1"/>
-    </row>
-    <row r="273" spans="1:24">
+      <c r="T272" s="1"/>
+      <c r="W272" s="1"/>
+      <c r="Y272" s="1"/>
+    </row>
+    <row r="273" spans="1:25">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -7588,10 +7852,11 @@
       <c r="Q273" s="1"/>
       <c r="R273" s="1"/>
       <c r="S273" s="1"/>
-      <c r="V273" s="1"/>
-      <c r="X273" s="1"/>
-    </row>
-    <row r="274" spans="1:24">
+      <c r="T273" s="1"/>
+      <c r="W273" s="1"/>
+      <c r="Y273" s="1"/>
+    </row>
+    <row r="274" spans="1:25">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -7610,10 +7875,11 @@
       <c r="Q274" s="1"/>
       <c r="R274" s="1"/>
       <c r="S274" s="1"/>
-      <c r="V274" s="1"/>
-      <c r="X274" s="1"/>
-    </row>
-    <row r="275" spans="1:24">
+      <c r="T274" s="1"/>
+      <c r="W274" s="1"/>
+      <c r="Y274" s="1"/>
+    </row>
+    <row r="275" spans="1:25">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -7632,10 +7898,11 @@
       <c r="Q275" s="1"/>
       <c r="R275" s="1"/>
       <c r="S275" s="1"/>
-      <c r="V275" s="1"/>
-      <c r="X275" s="1"/>
-    </row>
-    <row r="276" spans="1:24">
+      <c r="T275" s="1"/>
+      <c r="W275" s="1"/>
+      <c r="Y275" s="1"/>
+    </row>
+    <row r="276" spans="1:25">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -7654,10 +7921,11 @@
       <c r="Q276" s="1"/>
       <c r="R276" s="1"/>
       <c r="S276" s="1"/>
-      <c r="V276" s="1"/>
-      <c r="X276" s="1"/>
-    </row>
-    <row r="277" spans="1:24">
+      <c r="T276" s="1"/>
+      <c r="W276" s="1"/>
+      <c r="Y276" s="1"/>
+    </row>
+    <row r="277" spans="1:25">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -7676,10 +7944,11 @@
       <c r="Q277" s="1"/>
       <c r="R277" s="1"/>
       <c r="S277" s="1"/>
-      <c r="V277" s="1"/>
-      <c r="X277" s="1"/>
-    </row>
-    <row r="278" spans="1:24">
+      <c r="T277" s="1"/>
+      <c r="W277" s="1"/>
+      <c r="Y277" s="1"/>
+    </row>
+    <row r="278" spans="1:25">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -7698,10 +7967,11 @@
       <c r="Q278" s="1"/>
       <c r="R278" s="1"/>
       <c r="S278" s="1"/>
-      <c r="V278" s="1"/>
-      <c r="X278" s="1"/>
-    </row>
-    <row r="279" spans="1:24">
+      <c r="T278" s="1"/>
+      <c r="W278" s="1"/>
+      <c r="Y278" s="1"/>
+    </row>
+    <row r="279" spans="1:25">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -7720,10 +7990,11 @@
       <c r="Q279" s="1"/>
       <c r="R279" s="1"/>
       <c r="S279" s="1"/>
-      <c r="V279" s="1"/>
-      <c r="X279" s="1"/>
-    </row>
-    <row r="280" spans="1:24">
+      <c r="T279" s="1"/>
+      <c r="W279" s="1"/>
+      <c r="Y279" s="1"/>
+    </row>
+    <row r="280" spans="1:25">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -7742,10 +8013,11 @@
       <c r="Q280" s="1"/>
       <c r="R280" s="1"/>
       <c r="S280" s="1"/>
-      <c r="V280" s="1"/>
-      <c r="X280" s="1"/>
-    </row>
-    <row r="281" spans="1:24">
+      <c r="T280" s="1"/>
+      <c r="W280" s="1"/>
+      <c r="Y280" s="1"/>
+    </row>
+    <row r="281" spans="1:25">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -7764,10 +8036,11 @@
       <c r="Q281" s="1"/>
       <c r="R281" s="1"/>
       <c r="S281" s="1"/>
-      <c r="V281" s="1"/>
-      <c r="X281" s="1"/>
-    </row>
-    <row r="282" spans="1:24">
+      <c r="T281" s="1"/>
+      <c r="W281" s="1"/>
+      <c r="Y281" s="1"/>
+    </row>
+    <row r="282" spans="1:25">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -7786,10 +8059,11 @@
       <c r="Q282" s="1"/>
       <c r="R282" s="1"/>
       <c r="S282" s="1"/>
-      <c r="V282" s="1"/>
-      <c r="X282" s="1"/>
-    </row>
-    <row r="283" spans="1:24">
+      <c r="T282" s="1"/>
+      <c r="W282" s="1"/>
+      <c r="Y282" s="1"/>
+    </row>
+    <row r="283" spans="1:25">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -7808,10 +8082,11 @@
       <c r="Q283" s="1"/>
       <c r="R283" s="1"/>
       <c r="S283" s="1"/>
-      <c r="V283" s="1"/>
-      <c r="X283" s="1"/>
-    </row>
-    <row r="284" spans="1:24">
+      <c r="T283" s="1"/>
+      <c r="W283" s="1"/>
+      <c r="Y283" s="1"/>
+    </row>
+    <row r="284" spans="1:25">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -7830,10 +8105,11 @@
       <c r="Q284" s="1"/>
       <c r="R284" s="1"/>
       <c r="S284" s="1"/>
-      <c r="V284" s="1"/>
-      <c r="X284" s="1"/>
-    </row>
-    <row r="285" spans="1:24">
+      <c r="T284" s="1"/>
+      <c r="W284" s="1"/>
+      <c r="Y284" s="1"/>
+    </row>
+    <row r="285" spans="1:25">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -7852,10 +8128,11 @@
       <c r="Q285" s="1"/>
       <c r="R285" s="1"/>
       <c r="S285" s="1"/>
-      <c r="V285" s="1"/>
-      <c r="X285" s="1"/>
-    </row>
-    <row r="286" spans="1:24">
+      <c r="T285" s="1"/>
+      <c r="W285" s="1"/>
+      <c r="Y285" s="1"/>
+    </row>
+    <row r="286" spans="1:25">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -7874,10 +8151,11 @@
       <c r="Q286" s="1"/>
       <c r="R286" s="1"/>
       <c r="S286" s="1"/>
-      <c r="V286" s="1"/>
-      <c r="X286" s="1"/>
-    </row>
-    <row r="287" spans="1:24">
+      <c r="T286" s="1"/>
+      <c r="W286" s="1"/>
+      <c r="Y286" s="1"/>
+    </row>
+    <row r="287" spans="1:25">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -7896,10 +8174,11 @@
       <c r="Q287" s="1"/>
       <c r="R287" s="1"/>
       <c r="S287" s="1"/>
-      <c r="V287" s="1"/>
-      <c r="X287" s="1"/>
-    </row>
-    <row r="288" spans="1:24">
+      <c r="T287" s="1"/>
+      <c r="W287" s="1"/>
+      <c r="Y287" s="1"/>
+    </row>
+    <row r="288" spans="1:25">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -7918,10 +8197,11 @@
       <c r="Q288" s="1"/>
       <c r="R288" s="1"/>
       <c r="S288" s="1"/>
-      <c r="V288" s="1"/>
-      <c r="X288" s="1"/>
-    </row>
-    <row r="289" spans="1:24">
+      <c r="T288" s="1"/>
+      <c r="W288" s="1"/>
+      <c r="Y288" s="1"/>
+    </row>
+    <row r="289" spans="1:25">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -7940,10 +8220,11 @@
       <c r="Q289" s="1"/>
       <c r="R289" s="1"/>
       <c r="S289" s="1"/>
-      <c r="V289" s="1"/>
-      <c r="X289" s="1"/>
-    </row>
-    <row r="290" spans="1:24">
+      <c r="T289" s="1"/>
+      <c r="W289" s="1"/>
+      <c r="Y289" s="1"/>
+    </row>
+    <row r="290" spans="1:25">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -7962,10 +8243,11 @@
       <c r="Q290" s="1"/>
       <c r="R290" s="1"/>
       <c r="S290" s="1"/>
-      <c r="V290" s="1"/>
-      <c r="X290" s="1"/>
-    </row>
-    <row r="291" spans="1:24">
+      <c r="T290" s="1"/>
+      <c r="W290" s="1"/>
+      <c r="Y290" s="1"/>
+    </row>
+    <row r="291" spans="1:25">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -7984,10 +8266,11 @@
       <c r="Q291" s="1"/>
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
-      <c r="V291" s="1"/>
-      <c r="X291" s="1"/>
-    </row>
-    <row r="292" spans="1:24">
+      <c r="T291" s="1"/>
+      <c r="W291" s="1"/>
+      <c r="Y291" s="1"/>
+    </row>
+    <row r="292" spans="1:25">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -8006,10 +8289,11 @@
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
-      <c r="V292" s="1"/>
-      <c r="X292" s="1"/>
-    </row>
-    <row r="293" spans="1:24">
+      <c r="T292" s="1"/>
+      <c r="W292" s="1"/>
+      <c r="Y292" s="1"/>
+    </row>
+    <row r="293" spans="1:25">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -8028,10 +8312,11 @@
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
       <c r="S293" s="1"/>
-      <c r="V293" s="1"/>
-      <c r="X293" s="1"/>
-    </row>
-    <row r="294" spans="1:24">
+      <c r="T293" s="1"/>
+      <c r="W293" s="1"/>
+      <c r="Y293" s="1"/>
+    </row>
+    <row r="294" spans="1:25">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -8050,10 +8335,11 @@
       <c r="Q294" s="1"/>
       <c r="R294" s="1"/>
       <c r="S294" s="1"/>
-      <c r="V294" s="1"/>
-      <c r="X294" s="1"/>
-    </row>
-    <row r="295" spans="1:24">
+      <c r="T294" s="1"/>
+      <c r="W294" s="1"/>
+      <c r="Y294" s="1"/>
+    </row>
+    <row r="295" spans="1:25">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -8072,10 +8358,11 @@
       <c r="Q295" s="1"/>
       <c r="R295" s="1"/>
       <c r="S295" s="1"/>
-      <c r="V295" s="1"/>
-      <c r="X295" s="1"/>
-    </row>
-    <row r="296" spans="1:24">
+      <c r="T295" s="1"/>
+      <c r="W295" s="1"/>
+      <c r="Y295" s="1"/>
+    </row>
+    <row r="296" spans="1:25">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -8094,10 +8381,11 @@
       <c r="Q296" s="1"/>
       <c r="R296" s="1"/>
       <c r="S296" s="1"/>
-      <c r="V296" s="1"/>
-      <c r="X296" s="1"/>
-    </row>
-    <row r="297" spans="1:24">
+      <c r="T296" s="1"/>
+      <c r="W296" s="1"/>
+      <c r="Y296" s="1"/>
+    </row>
+    <row r="297" spans="1:25">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -8116,10 +8404,11 @@
       <c r="Q297" s="1"/>
       <c r="R297" s="1"/>
       <c r="S297" s="1"/>
-      <c r="V297" s="1"/>
-      <c r="X297" s="1"/>
-    </row>
-    <row r="298" spans="1:24">
+      <c r="T297" s="1"/>
+      <c r="W297" s="1"/>
+      <c r="Y297" s="1"/>
+    </row>
+    <row r="298" spans="1:25">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -8138,10 +8427,11 @@
       <c r="Q298" s="1"/>
       <c r="R298" s="1"/>
       <c r="S298" s="1"/>
-      <c r="V298" s="1"/>
-      <c r="X298" s="1"/>
-    </row>
-    <row r="299" spans="1:24">
+      <c r="T298" s="1"/>
+      <c r="W298" s="1"/>
+      <c r="Y298" s="1"/>
+    </row>
+    <row r="299" spans="1:25">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -8160,10 +8450,11 @@
       <c r="Q299" s="1"/>
       <c r="R299" s="1"/>
       <c r="S299" s="1"/>
-      <c r="V299" s="1"/>
-      <c r="X299" s="1"/>
-    </row>
-    <row r="300" spans="1:24">
+      <c r="T299" s="1"/>
+      <c r="W299" s="1"/>
+      <c r="Y299" s="1"/>
+    </row>
+    <row r="300" spans="1:25">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -8182,10 +8473,11 @@
       <c r="Q300" s="1"/>
       <c r="R300" s="1"/>
       <c r="S300" s="1"/>
-      <c r="V300" s="1"/>
-      <c r="X300" s="1"/>
-    </row>
-    <row r="301" spans="1:24">
+      <c r="T300" s="1"/>
+      <c r="W300" s="1"/>
+      <c r="Y300" s="1"/>
+    </row>
+    <row r="301" spans="1:25">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -8204,10 +8496,11 @@
       <c r="Q301" s="1"/>
       <c r="R301" s="1"/>
       <c r="S301" s="1"/>
-      <c r="V301" s="1"/>
-      <c r="X301" s="1"/>
-    </row>
-    <row r="302" spans="1:24">
+      <c r="T301" s="1"/>
+      <c r="W301" s="1"/>
+      <c r="Y301" s="1"/>
+    </row>
+    <row r="302" spans="1:25">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -8226,10 +8519,11 @@
       <c r="Q302" s="1"/>
       <c r="R302" s="1"/>
       <c r="S302" s="1"/>
-      <c r="V302" s="1"/>
-      <c r="X302" s="1"/>
-    </row>
-    <row r="303" spans="1:24">
+      <c r="T302" s="1"/>
+      <c r="W302" s="1"/>
+      <c r="Y302" s="1"/>
+    </row>
+    <row r="303" spans="1:25">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -8248,10 +8542,11 @@
       <c r="Q303" s="1"/>
       <c r="R303" s="1"/>
       <c r="S303" s="1"/>
-      <c r="V303" s="1"/>
-      <c r="X303" s="1"/>
-    </row>
-    <row r="304" spans="1:24">
+      <c r="T303" s="1"/>
+      <c r="W303" s="1"/>
+      <c r="Y303" s="1"/>
+    </row>
+    <row r="304" spans="1:25">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -8270,10 +8565,11 @@
       <c r="Q304" s="1"/>
       <c r="R304" s="1"/>
       <c r="S304" s="1"/>
-      <c r="V304" s="1"/>
-      <c r="X304" s="1"/>
-    </row>
-    <row r="305" spans="1:24">
+      <c r="T304" s="1"/>
+      <c r="W304" s="1"/>
+      <c r="Y304" s="1"/>
+    </row>
+    <row r="305" spans="1:25">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -8292,10 +8588,11 @@
       <c r="Q305" s="1"/>
       <c r="R305" s="1"/>
       <c r="S305" s="1"/>
-      <c r="V305" s="1"/>
-      <c r="X305" s="1"/>
-    </row>
-    <row r="306" spans="1:24">
+      <c r="T305" s="1"/>
+      <c r="W305" s="1"/>
+      <c r="Y305" s="1"/>
+    </row>
+    <row r="306" spans="1:25">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -8314,10 +8611,11 @@
       <c r="Q306" s="1"/>
       <c r="R306" s="1"/>
       <c r="S306" s="1"/>
-      <c r="V306" s="1"/>
-      <c r="X306" s="1"/>
-    </row>
-    <row r="307" spans="1:24">
+      <c r="T306" s="1"/>
+      <c r="W306" s="1"/>
+      <c r="Y306" s="1"/>
+    </row>
+    <row r="307" spans="1:25">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -8336,10 +8634,11 @@
       <c r="Q307" s="1"/>
       <c r="R307" s="1"/>
       <c r="S307" s="1"/>
-      <c r="V307" s="1"/>
-      <c r="X307" s="1"/>
-    </row>
-    <row r="308" spans="1:24">
+      <c r="T307" s="1"/>
+      <c r="W307" s="1"/>
+      <c r="Y307" s="1"/>
+    </row>
+    <row r="308" spans="1:25">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -8358,10 +8657,11 @@
       <c r="Q308" s="1"/>
       <c r="R308" s="1"/>
       <c r="S308" s="1"/>
-      <c r="V308" s="1"/>
-      <c r="X308" s="1"/>
-    </row>
-    <row r="309" spans="1:24">
+      <c r="T308" s="1"/>
+      <c r="W308" s="1"/>
+      <c r="Y308" s="1"/>
+    </row>
+    <row r="309" spans="1:25">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -8380,10 +8680,11 @@
       <c r="Q309" s="1"/>
       <c r="R309" s="1"/>
       <c r="S309" s="1"/>
-      <c r="V309" s="1"/>
-      <c r="X309" s="1"/>
-    </row>
-    <row r="310" spans="1:24">
+      <c r="T309" s="1"/>
+      <c r="W309" s="1"/>
+      <c r="Y309" s="1"/>
+    </row>
+    <row r="310" spans="1:25">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -8402,10 +8703,11 @@
       <c r="Q310" s="1"/>
       <c r="R310" s="1"/>
       <c r="S310" s="1"/>
-      <c r="V310" s="1"/>
-      <c r="X310" s="1"/>
-    </row>
-    <row r="311" spans="1:24">
+      <c r="T310" s="1"/>
+      <c r="W310" s="1"/>
+      <c r="Y310" s="1"/>
+    </row>
+    <row r="311" spans="1:25">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -8424,10 +8726,11 @@
       <c r="Q311" s="1"/>
       <c r="R311" s="1"/>
       <c r="S311" s="1"/>
-      <c r="V311" s="1"/>
-      <c r="X311" s="1"/>
-    </row>
-    <row r="312" spans="1:24">
+      <c r="T311" s="1"/>
+      <c r="W311" s="1"/>
+      <c r="Y311" s="1"/>
+    </row>
+    <row r="312" spans="1:25">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -8446,10 +8749,11 @@
       <c r="Q312" s="1"/>
       <c r="R312" s="1"/>
       <c r="S312" s="1"/>
-      <c r="V312" s="1"/>
-      <c r="X312" s="1"/>
-    </row>
-    <row r="313" spans="1:24">
+      <c r="T312" s="1"/>
+      <c r="W312" s="1"/>
+      <c r="Y312" s="1"/>
+    </row>
+    <row r="313" spans="1:25">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -8468,10 +8772,11 @@
       <c r="Q313" s="1"/>
       <c r="R313" s="1"/>
       <c r="S313" s="1"/>
-      <c r="V313" s="1"/>
-      <c r="X313" s="1"/>
-    </row>
-    <row r="314" spans="1:24">
+      <c r="T313" s="1"/>
+      <c r="W313" s="1"/>
+      <c r="Y313" s="1"/>
+    </row>
+    <row r="314" spans="1:25">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -8490,10 +8795,11 @@
       <c r="Q314" s="1"/>
       <c r="R314" s="1"/>
       <c r="S314" s="1"/>
-      <c r="V314" s="1"/>
-      <c r="X314" s="1"/>
-    </row>
-    <row r="315" spans="1:24">
+      <c r="T314" s="1"/>
+      <c r="W314" s="1"/>
+      <c r="Y314" s="1"/>
+    </row>
+    <row r="315" spans="1:25">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -8512,10 +8818,11 @@
       <c r="Q315" s="1"/>
       <c r="R315" s="1"/>
       <c r="S315" s="1"/>
-      <c r="V315" s="1"/>
-      <c r="X315" s="1"/>
-    </row>
-    <row r="316" spans="1:24">
+      <c r="T315" s="1"/>
+      <c r="W315" s="1"/>
+      <c r="Y315" s="1"/>
+    </row>
+    <row r="316" spans="1:25">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -8534,10 +8841,11 @@
       <c r="Q316" s="1"/>
       <c r="R316" s="1"/>
       <c r="S316" s="1"/>
-      <c r="V316" s="1"/>
-      <c r="X316" s="1"/>
-    </row>
-    <row r="317" spans="1:24">
+      <c r="T316" s="1"/>
+      <c r="W316" s="1"/>
+      <c r="Y316" s="1"/>
+    </row>
+    <row r="317" spans="1:25">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -8556,10 +8864,11 @@
       <c r="Q317" s="1"/>
       <c r="R317" s="1"/>
       <c r="S317" s="1"/>
-      <c r="V317" s="1"/>
-      <c r="X317" s="1"/>
-    </row>
-    <row r="318" spans="1:24">
+      <c r="T317" s="1"/>
+      <c r="W317" s="1"/>
+      <c r="Y317" s="1"/>
+    </row>
+    <row r="318" spans="1:25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -8578,10 +8887,11 @@
       <c r="Q318" s="1"/>
       <c r="R318" s="1"/>
       <c r="S318" s="1"/>
-      <c r="V318" s="1"/>
-      <c r="X318" s="1"/>
-    </row>
-    <row r="319" spans="1:24">
+      <c r="T318" s="1"/>
+      <c r="W318" s="1"/>
+      <c r="Y318" s="1"/>
+    </row>
+    <row r="319" spans="1:25">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -8600,10 +8910,11 @@
       <c r="Q319" s="1"/>
       <c r="R319" s="1"/>
       <c r="S319" s="1"/>
-      <c r="V319" s="1"/>
-      <c r="X319" s="1"/>
-    </row>
-    <row r="320" spans="1:24">
+      <c r="T319" s="1"/>
+      <c r="W319" s="1"/>
+      <c r="Y319" s="1"/>
+    </row>
+    <row r="320" spans="1:25">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -8622,10 +8933,11 @@
       <c r="Q320" s="1"/>
       <c r="R320" s="1"/>
       <c r="S320" s="1"/>
-      <c r="V320" s="1"/>
-      <c r="X320" s="1"/>
-    </row>
-    <row r="321" spans="1:24">
+      <c r="T320" s="1"/>
+      <c r="W320" s="1"/>
+      <c r="Y320" s="1"/>
+    </row>
+    <row r="321" spans="1:25">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -8644,10 +8956,11 @@
       <c r="Q321" s="1"/>
       <c r="R321" s="1"/>
       <c r="S321" s="1"/>
-      <c r="V321" s="1"/>
-      <c r="X321" s="1"/>
-    </row>
-    <row r="322" spans="1:24">
+      <c r="T321" s="1"/>
+      <c r="W321" s="1"/>
+      <c r="Y321" s="1"/>
+    </row>
+    <row r="322" spans="1:25">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -8666,10 +8979,11 @@
       <c r="Q322" s="1"/>
       <c r="R322" s="1"/>
       <c r="S322" s="1"/>
-      <c r="V322" s="1"/>
-      <c r="X322" s="1"/>
-    </row>
-    <row r="323" spans="1:24">
+      <c r="T322" s="1"/>
+      <c r="W322" s="1"/>
+      <c r="Y322" s="1"/>
+    </row>
+    <row r="323" spans="1:25">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -8688,10 +9002,11 @@
       <c r="Q323" s="1"/>
       <c r="R323" s="1"/>
       <c r="S323" s="1"/>
-      <c r="V323" s="1"/>
-      <c r="X323" s="1"/>
-    </row>
-    <row r="324" spans="1:24">
+      <c r="T323" s="1"/>
+      <c r="W323" s="1"/>
+      <c r="Y323" s="1"/>
+    </row>
+    <row r="324" spans="1:25">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -8710,10 +9025,11 @@
       <c r="Q324" s="1"/>
       <c r="R324" s="1"/>
       <c r="S324" s="1"/>
-      <c r="V324" s="1"/>
-      <c r="X324" s="1"/>
-    </row>
-    <row r="325" spans="1:24">
+      <c r="T324" s="1"/>
+      <c r="W324" s="1"/>
+      <c r="Y324" s="1"/>
+    </row>
+    <row r="325" spans="1:25">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -8732,10 +9048,11 @@
       <c r="Q325" s="1"/>
       <c r="R325" s="1"/>
       <c r="S325" s="1"/>
-      <c r="V325" s="1"/>
-      <c r="X325" s="1"/>
-    </row>
-    <row r="326" spans="1:24">
+      <c r="T325" s="1"/>
+      <c r="W325" s="1"/>
+      <c r="Y325" s="1"/>
+    </row>
+    <row r="326" spans="1:25">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -8754,10 +9071,11 @@
       <c r="Q326" s="1"/>
       <c r="R326" s="1"/>
       <c r="S326" s="1"/>
-      <c r="V326" s="1"/>
-      <c r="X326" s="1"/>
-    </row>
-    <row r="327" spans="1:24">
+      <c r="T326" s="1"/>
+      <c r="W326" s="1"/>
+      <c r="Y326" s="1"/>
+    </row>
+    <row r="327" spans="1:25">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -8776,10 +9094,11 @@
       <c r="Q327" s="1"/>
       <c r="R327" s="1"/>
       <c r="S327" s="1"/>
-      <c r="V327" s="1"/>
-      <c r="X327" s="1"/>
-    </row>
-    <row r="328" spans="1:24">
+      <c r="T327" s="1"/>
+      <c r="W327" s="1"/>
+      <c r="Y327" s="1"/>
+    </row>
+    <row r="328" spans="1:25">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -8798,10 +9117,11 @@
       <c r="Q328" s="1"/>
       <c r="R328" s="1"/>
       <c r="S328" s="1"/>
-      <c r="V328" s="1"/>
-      <c r="X328" s="1"/>
-    </row>
-    <row r="329" spans="1:24">
+      <c r="T328" s="1"/>
+      <c r="W328" s="1"/>
+      <c r="Y328" s="1"/>
+    </row>
+    <row r="329" spans="1:25">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -8820,10 +9140,11 @@
       <c r="Q329" s="1"/>
       <c r="R329" s="1"/>
       <c r="S329" s="1"/>
-      <c r="V329" s="1"/>
-      <c r="X329" s="1"/>
-    </row>
-    <row r="330" spans="1:24">
+      <c r="T329" s="1"/>
+      <c r="W329" s="1"/>
+      <c r="Y329" s="1"/>
+    </row>
+    <row r="330" spans="1:25">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -8842,10 +9163,11 @@
       <c r="Q330" s="1"/>
       <c r="R330" s="1"/>
       <c r="S330" s="1"/>
-      <c r="V330" s="1"/>
-      <c r="X330" s="1"/>
-    </row>
-    <row r="331" spans="1:24">
+      <c r="T330" s="1"/>
+      <c r="W330" s="1"/>
+      <c r="Y330" s="1"/>
+    </row>
+    <row r="331" spans="1:25">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -8864,10 +9186,11 @@
       <c r="Q331" s="1"/>
       <c r="R331" s="1"/>
       <c r="S331" s="1"/>
-      <c r="V331" s="1"/>
-      <c r="X331" s="1"/>
-    </row>
-    <row r="332" spans="1:24">
+      <c r="T331" s="1"/>
+      <c r="W331" s="1"/>
+      <c r="Y331" s="1"/>
+    </row>
+    <row r="332" spans="1:25">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -8886,10 +9209,11 @@
       <c r="Q332" s="1"/>
       <c r="R332" s="1"/>
       <c r="S332" s="1"/>
-      <c r="V332" s="1"/>
-      <c r="X332" s="1"/>
-    </row>
-    <row r="333" spans="1:24">
+      <c r="T332" s="1"/>
+      <c r="W332" s="1"/>
+      <c r="Y332" s="1"/>
+    </row>
+    <row r="333" spans="1:25">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -8908,10 +9232,11 @@
       <c r="Q333" s="1"/>
       <c r="R333" s="1"/>
       <c r="S333" s="1"/>
-      <c r="V333" s="1"/>
-      <c r="X333" s="1"/>
-    </row>
-    <row r="334" spans="1:24">
+      <c r="T333" s="1"/>
+      <c r="W333" s="1"/>
+      <c r="Y333" s="1"/>
+    </row>
+    <row r="334" spans="1:25">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -8930,10 +9255,11 @@
       <c r="Q334" s="1"/>
       <c r="R334" s="1"/>
       <c r="S334" s="1"/>
-      <c r="V334" s="1"/>
-      <c r="X334" s="1"/>
-    </row>
-    <row r="335" spans="1:24">
+      <c r="T334" s="1"/>
+      <c r="W334" s="1"/>
+      <c r="Y334" s="1"/>
+    </row>
+    <row r="335" spans="1:25">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -8952,10 +9278,11 @@
       <c r="Q335" s="1"/>
       <c r="R335" s="1"/>
       <c r="S335" s="1"/>
-      <c r="V335" s="1"/>
-      <c r="X335" s="1"/>
-    </row>
-    <row r="336" spans="1:24">
+      <c r="T335" s="1"/>
+      <c r="W335" s="1"/>
+      <c r="Y335" s="1"/>
+    </row>
+    <row r="336" spans="1:25">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -8974,10 +9301,11 @@
       <c r="Q336" s="1"/>
       <c r="R336" s="1"/>
       <c r="S336" s="1"/>
-      <c r="V336" s="1"/>
-      <c r="X336" s="1"/>
-    </row>
-    <row r="337" spans="1:24">
+      <c r="T336" s="1"/>
+      <c r="W336" s="1"/>
+      <c r="Y336" s="1"/>
+    </row>
+    <row r="337" spans="1:25">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -8996,10 +9324,11 @@
       <c r="Q337" s="1"/>
       <c r="R337" s="1"/>
       <c r="S337" s="1"/>
-      <c r="V337" s="1"/>
-      <c r="X337" s="1"/>
-    </row>
-    <row r="338" spans="1:24">
+      <c r="T337" s="1"/>
+      <c r="W337" s="1"/>
+      <c r="Y337" s="1"/>
+    </row>
+    <row r="338" spans="1:25">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -9018,10 +9347,11 @@
       <c r="Q338" s="1"/>
       <c r="R338" s="1"/>
       <c r="S338" s="1"/>
-      <c r="V338" s="1"/>
-      <c r="X338" s="1"/>
-    </row>
-    <row r="339" spans="1:24">
+      <c r="T338" s="1"/>
+      <c r="W338" s="1"/>
+      <c r="Y338" s="1"/>
+    </row>
+    <row r="339" spans="1:25">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -9040,10 +9370,11 @@
       <c r="Q339" s="1"/>
       <c r="R339" s="1"/>
       <c r="S339" s="1"/>
-      <c r="V339" s="1"/>
-      <c r="X339" s="1"/>
-    </row>
-    <row r="340" spans="1:24">
+      <c r="T339" s="1"/>
+      <c r="W339" s="1"/>
+      <c r="Y339" s="1"/>
+    </row>
+    <row r="340" spans="1:25">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -9062,10 +9393,11 @@
       <c r="Q340" s="1"/>
       <c r="R340" s="1"/>
       <c r="S340" s="1"/>
-      <c r="V340" s="1"/>
-      <c r="X340" s="1"/>
-    </row>
-    <row r="341" spans="1:24">
+      <c r="T340" s="1"/>
+      <c r="W340" s="1"/>
+      <c r="Y340" s="1"/>
+    </row>
+    <row r="341" spans="1:25">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -9084,10 +9416,11 @@
       <c r="Q341" s="1"/>
       <c r="R341" s="1"/>
       <c r="S341" s="1"/>
-      <c r="V341" s="1"/>
-      <c r="X341" s="1"/>
-    </row>
-    <row r="342" spans="1:24">
+      <c r="T341" s="1"/>
+      <c r="W341" s="1"/>
+      <c r="Y341" s="1"/>
+    </row>
+    <row r="342" spans="1:25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -9106,10 +9439,11 @@
       <c r="Q342" s="1"/>
       <c r="R342" s="1"/>
       <c r="S342" s="1"/>
-      <c r="V342" s="1"/>
-      <c r="X342" s="1"/>
-    </row>
-    <row r="343" spans="1:24">
+      <c r="T342" s="1"/>
+      <c r="W342" s="1"/>
+      <c r="Y342" s="1"/>
+    </row>
+    <row r="343" spans="1:25">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -9128,10 +9462,11 @@
       <c r="Q343" s="1"/>
       <c r="R343" s="1"/>
       <c r="S343" s="1"/>
-      <c r="V343" s="1"/>
-      <c r="X343" s="1"/>
-    </row>
-    <row r="344" spans="1:24">
+      <c r="T343" s="1"/>
+      <c r="W343" s="1"/>
+      <c r="Y343" s="1"/>
+    </row>
+    <row r="344" spans="1:25">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -9150,10 +9485,11 @@
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
       <c r="S344" s="1"/>
-      <c r="V344" s="1"/>
-      <c r="X344" s="1"/>
-    </row>
-    <row r="345" spans="1:24">
+      <c r="T344" s="1"/>
+      <c r="W344" s="1"/>
+      <c r="Y344" s="1"/>
+    </row>
+    <row r="345" spans="1:25">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -9172,10 +9508,11 @@
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
       <c r="S345" s="1"/>
-      <c r="V345" s="1"/>
-      <c r="X345" s="1"/>
-    </row>
-    <row r="346" spans="1:24">
+      <c r="T345" s="1"/>
+      <c r="W345" s="1"/>
+      <c r="Y345" s="1"/>
+    </row>
+    <row r="346" spans="1:25">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -9194,10 +9531,11 @@
       <c r="Q346" s="1"/>
       <c r="R346" s="1"/>
       <c r="S346" s="1"/>
-      <c r="V346" s="1"/>
-      <c r="X346" s="1"/>
-    </row>
-    <row r="347" spans="1:24">
+      <c r="T346" s="1"/>
+      <c r="W346" s="1"/>
+      <c r="Y346" s="1"/>
+    </row>
+    <row r="347" spans="1:25">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -9216,10 +9554,11 @@
       <c r="Q347" s="1"/>
       <c r="R347" s="1"/>
       <c r="S347" s="1"/>
-      <c r="V347" s="1"/>
-      <c r="X347" s="1"/>
-    </row>
-    <row r="348" spans="1:24">
+      <c r="T347" s="1"/>
+      <c r="W347" s="1"/>
+      <c r="Y347" s="1"/>
+    </row>
+    <row r="348" spans="1:25">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -9238,10 +9577,11 @@
       <c r="Q348" s="1"/>
       <c r="R348" s="1"/>
       <c r="S348" s="1"/>
-      <c r="V348" s="1"/>
-      <c r="X348" s="1"/>
-    </row>
-    <row r="349" spans="1:24">
+      <c r="T348" s="1"/>
+      <c r="W348" s="1"/>
+      <c r="Y348" s="1"/>
+    </row>
+    <row r="349" spans="1:25">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -9260,10 +9600,11 @@
       <c r="Q349" s="1"/>
       <c r="R349" s="1"/>
       <c r="S349" s="1"/>
-      <c r="V349" s="1"/>
-      <c r="X349" s="1"/>
-    </row>
-    <row r="350" spans="1:24">
+      <c r="T349" s="1"/>
+      <c r="W349" s="1"/>
+      <c r="Y349" s="1"/>
+    </row>
+    <row r="350" spans="1:25">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -9282,10 +9623,11 @@
       <c r="Q350" s="1"/>
       <c r="R350" s="1"/>
       <c r="S350" s="1"/>
-      <c r="V350" s="1"/>
-      <c r="X350" s="1"/>
-    </row>
-    <row r="351" spans="1:24">
+      <c r="T350" s="1"/>
+      <c r="W350" s="1"/>
+      <c r="Y350" s="1"/>
+    </row>
+    <row r="351" spans="1:25">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -9304,10 +9646,11 @@
       <c r="Q351" s="1"/>
       <c r="R351" s="1"/>
       <c r="S351" s="1"/>
-      <c r="V351" s="1"/>
-      <c r="X351" s="1"/>
-    </row>
-    <row r="352" spans="1:24">
+      <c r="T351" s="1"/>
+      <c r="W351" s="1"/>
+      <c r="Y351" s="1"/>
+    </row>
+    <row r="352" spans="1:25">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -9326,10 +9669,11 @@
       <c r="Q352" s="1"/>
       <c r="R352" s="1"/>
       <c r="S352" s="1"/>
-      <c r="V352" s="1"/>
-      <c r="X352" s="1"/>
-    </row>
-    <row r="353" spans="1:24">
+      <c r="T352" s="1"/>
+      <c r="W352" s="1"/>
+      <c r="Y352" s="1"/>
+    </row>
+    <row r="353" spans="1:25">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -9348,10 +9692,11 @@
       <c r="Q353" s="1"/>
       <c r="R353" s="1"/>
       <c r="S353" s="1"/>
-      <c r="V353" s="1"/>
-      <c r="X353" s="1"/>
-    </row>
-    <row r="354" spans="1:24">
+      <c r="T353" s="1"/>
+      <c r="W353" s="1"/>
+      <c r="Y353" s="1"/>
+    </row>
+    <row r="354" spans="1:25">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -9370,10 +9715,11 @@
       <c r="Q354" s="1"/>
       <c r="R354" s="1"/>
       <c r="S354" s="1"/>
-      <c r="V354" s="1"/>
-      <c r="X354" s="1"/>
-    </row>
-    <row r="355" spans="1:24">
+      <c r="T354" s="1"/>
+      <c r="W354" s="1"/>
+      <c r="Y354" s="1"/>
+    </row>
+    <row r="355" spans="1:25">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -9392,10 +9738,11 @@
       <c r="Q355" s="1"/>
       <c r="R355" s="1"/>
       <c r="S355" s="1"/>
-      <c r="V355" s="1"/>
-      <c r="X355" s="1"/>
-    </row>
-    <row r="356" spans="1:24">
+      <c r="T355" s="1"/>
+      <c r="W355" s="1"/>
+      <c r="Y355" s="1"/>
+    </row>
+    <row r="356" spans="1:25">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -9414,10 +9761,11 @@
       <c r="Q356" s="1"/>
       <c r="R356" s="1"/>
       <c r="S356" s="1"/>
-      <c r="V356" s="1"/>
-      <c r="X356" s="1"/>
-    </row>
-    <row r="357" spans="1:24">
+      <c r="T356" s="1"/>
+      <c r="W356" s="1"/>
+      <c r="Y356" s="1"/>
+    </row>
+    <row r="357" spans="1:25">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -9436,10 +9784,11 @@
       <c r="Q357" s="1"/>
       <c r="R357" s="1"/>
       <c r="S357" s="1"/>
-      <c r="V357" s="1"/>
-      <c r="X357" s="1"/>
-    </row>
-    <row r="358" spans="1:24">
+      <c r="T357" s="1"/>
+      <c r="W357" s="1"/>
+      <c r="Y357" s="1"/>
+    </row>
+    <row r="358" spans="1:25">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -9458,10 +9807,11 @@
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
       <c r="S358" s="1"/>
-      <c r="V358" s="1"/>
-      <c r="X358" s="1"/>
-    </row>
-    <row r="359" spans="1:24">
+      <c r="T358" s="1"/>
+      <c r="W358" s="1"/>
+      <c r="Y358" s="1"/>
+    </row>
+    <row r="359" spans="1:25">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -9480,10 +9830,11 @@
       <c r="Q359" s="1"/>
       <c r="R359" s="1"/>
       <c r="S359" s="1"/>
-      <c r="V359" s="1"/>
-      <c r="X359" s="1"/>
-    </row>
-    <row r="360" spans="1:24">
+      <c r="T359" s="1"/>
+      <c r="W359" s="1"/>
+      <c r="Y359" s="1"/>
+    </row>
+    <row r="360" spans="1:25">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -9502,10 +9853,11 @@
       <c r="Q360" s="1"/>
       <c r="R360" s="1"/>
       <c r="S360" s="1"/>
-      <c r="V360" s="1"/>
-      <c r="X360" s="1"/>
-    </row>
-    <row r="361" spans="1:24">
+      <c r="T360" s="1"/>
+      <c r="W360" s="1"/>
+      <c r="Y360" s="1"/>
+    </row>
+    <row r="361" spans="1:25">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -9524,10 +9876,11 @@
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
       <c r="S361" s="1"/>
-      <c r="V361" s="1"/>
-      <c r="X361" s="1"/>
-    </row>
-    <row r="362" spans="1:24">
+      <c r="T361" s="1"/>
+      <c r="W361" s="1"/>
+      <c r="Y361" s="1"/>
+    </row>
+    <row r="362" spans="1:25">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -9546,10 +9899,11 @@
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
       <c r="S362" s="1"/>
-      <c r="V362" s="1"/>
-      <c r="X362" s="1"/>
-    </row>
-    <row r="363" spans="1:24">
+      <c r="T362" s="1"/>
+      <c r="W362" s="1"/>
+      <c r="Y362" s="1"/>
+    </row>
+    <row r="363" spans="1:25">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -9568,10 +9922,11 @@
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
       <c r="S363" s="1"/>
-      <c r="V363" s="1"/>
-      <c r="X363" s="1"/>
-    </row>
-    <row r="364" spans="1:24">
+      <c r="T363" s="1"/>
+      <c r="W363" s="1"/>
+      <c r="Y363" s="1"/>
+    </row>
+    <row r="364" spans="1:25">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -9590,10 +9945,11 @@
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>
       <c r="S364" s="1"/>
-      <c r="V364" s="1"/>
-      <c r="X364" s="1"/>
-    </row>
-    <row r="365" spans="1:24">
+      <c r="T364" s="1"/>
+      <c r="W364" s="1"/>
+      <c r="Y364" s="1"/>
+    </row>
+    <row r="365" spans="1:25">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -9612,10 +9968,11 @@
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
       <c r="S365" s="1"/>
-      <c r="V365" s="1"/>
-      <c r="X365" s="1"/>
-    </row>
-    <row r="366" spans="1:24">
+      <c r="T365" s="1"/>
+      <c r="W365" s="1"/>
+      <c r="Y365" s="1"/>
+    </row>
+    <row r="366" spans="1:25">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -9634,10 +9991,11 @@
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
       <c r="S366" s="1"/>
-      <c r="V366" s="1"/>
-      <c r="X366" s="1"/>
-    </row>
-    <row r="367" spans="1:24">
+      <c r="T366" s="1"/>
+      <c r="W366" s="1"/>
+      <c r="Y366" s="1"/>
+    </row>
+    <row r="367" spans="1:25">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -9656,10 +10014,11 @@
       <c r="Q367" s="1"/>
       <c r="R367" s="1"/>
       <c r="S367" s="1"/>
-      <c r="V367" s="1"/>
-      <c r="X367" s="1"/>
-    </row>
-    <row r="368" spans="1:24">
+      <c r="T367" s="1"/>
+      <c r="W367" s="1"/>
+      <c r="Y367" s="1"/>
+    </row>
+    <row r="368" spans="1:25">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -9678,10 +10037,11 @@
       <c r="Q368" s="1"/>
       <c r="R368" s="1"/>
       <c r="S368" s="1"/>
-      <c r="V368" s="1"/>
-      <c r="X368" s="1"/>
-    </row>
-    <row r="369" spans="1:24">
+      <c r="T368" s="1"/>
+      <c r="W368" s="1"/>
+      <c r="Y368" s="1"/>
+    </row>
+    <row r="369" spans="1:25">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -9700,10 +10060,11 @@
       <c r="Q369" s="1"/>
       <c r="R369" s="1"/>
       <c r="S369" s="1"/>
-      <c r="V369" s="1"/>
-      <c r="X369" s="1"/>
-    </row>
-    <row r="370" spans="1:24">
+      <c r="T369" s="1"/>
+      <c r="W369" s="1"/>
+      <c r="Y369" s="1"/>
+    </row>
+    <row r="370" spans="1:25">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -9722,10 +10083,11 @@
       <c r="Q370" s="1"/>
       <c r="R370" s="1"/>
       <c r="S370" s="1"/>
-      <c r="V370" s="1"/>
-      <c r="X370" s="1"/>
-    </row>
-    <row r="371" spans="1:24">
+      <c r="T370" s="1"/>
+      <c r="W370" s="1"/>
+      <c r="Y370" s="1"/>
+    </row>
+    <row r="371" spans="1:25">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -9744,10 +10106,11 @@
       <c r="Q371" s="1"/>
       <c r="R371" s="1"/>
       <c r="S371" s="1"/>
-      <c r="V371" s="1"/>
-      <c r="X371" s="1"/>
-    </row>
-    <row r="372" spans="1:24">
+      <c r="T371" s="1"/>
+      <c r="W371" s="1"/>
+      <c r="Y371" s="1"/>
+    </row>
+    <row r="372" spans="1:25">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -9766,10 +10129,11 @@
       <c r="Q372" s="1"/>
       <c r="R372" s="1"/>
       <c r="S372" s="1"/>
-      <c r="V372" s="1"/>
-      <c r="X372" s="1"/>
-    </row>
-    <row r="373" spans="1:24">
+      <c r="T372" s="1"/>
+      <c r="W372" s="1"/>
+      <c r="Y372" s="1"/>
+    </row>
+    <row r="373" spans="1:25">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -9788,10 +10152,11 @@
       <c r="Q373" s="1"/>
       <c r="R373" s="1"/>
       <c r="S373" s="1"/>
-      <c r="V373" s="1"/>
-      <c r="X373" s="1"/>
-    </row>
-    <row r="374" spans="1:24">
+      <c r="T373" s="1"/>
+      <c r="W373" s="1"/>
+      <c r="Y373" s="1"/>
+    </row>
+    <row r="374" spans="1:25">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -9810,10 +10175,11 @@
       <c r="Q374" s="1"/>
       <c r="R374" s="1"/>
       <c r="S374" s="1"/>
-      <c r="V374" s="1"/>
-      <c r="X374" s="1"/>
-    </row>
-    <row r="375" spans="1:24">
+      <c r="T374" s="1"/>
+      <c r="W374" s="1"/>
+      <c r="Y374" s="1"/>
+    </row>
+    <row r="375" spans="1:25">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -9832,10 +10198,11 @@
       <c r="Q375" s="1"/>
       <c r="R375" s="1"/>
       <c r="S375" s="1"/>
-      <c r="V375" s="1"/>
-      <c r="X375" s="1"/>
-    </row>
-    <row r="376" spans="1:24">
+      <c r="T375" s="1"/>
+      <c r="W375" s="1"/>
+      <c r="Y375" s="1"/>
+    </row>
+    <row r="376" spans="1:25">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -9854,10 +10221,11 @@
       <c r="Q376" s="1"/>
       <c r="R376" s="1"/>
       <c r="S376" s="1"/>
-      <c r="V376" s="1"/>
-      <c r="X376" s="1"/>
-    </row>
-    <row r="377" spans="1:24">
+      <c r="T376" s="1"/>
+      <c r="W376" s="1"/>
+      <c r="Y376" s="1"/>
+    </row>
+    <row r="377" spans="1:25">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -9876,10 +10244,11 @@
       <c r="Q377" s="1"/>
       <c r="R377" s="1"/>
       <c r="S377" s="1"/>
-      <c r="V377" s="1"/>
-      <c r="X377" s="1"/>
-    </row>
-    <row r="378" spans="1:24">
+      <c r="T377" s="1"/>
+      <c r="W377" s="1"/>
+      <c r="Y377" s="1"/>
+    </row>
+    <row r="378" spans="1:25">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -9898,10 +10267,11 @@
       <c r="Q378" s="1"/>
       <c r="R378" s="1"/>
       <c r="S378" s="1"/>
-      <c r="V378" s="1"/>
-      <c r="X378" s="1"/>
-    </row>
-    <row r="379" spans="1:24">
+      <c r="T378" s="1"/>
+      <c r="W378" s="1"/>
+      <c r="Y378" s="1"/>
+    </row>
+    <row r="379" spans="1:25">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -9920,10 +10290,11 @@
       <c r="Q379" s="1"/>
       <c r="R379" s="1"/>
       <c r="S379" s="1"/>
-      <c r="V379" s="1"/>
-      <c r="X379" s="1"/>
-    </row>
-    <row r="380" spans="1:24">
+      <c r="T379" s="1"/>
+      <c r="W379" s="1"/>
+      <c r="Y379" s="1"/>
+    </row>
+    <row r="380" spans="1:25">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -9942,10 +10313,11 @@
       <c r="Q380" s="1"/>
       <c r="R380" s="1"/>
       <c r="S380" s="1"/>
-      <c r="V380" s="1"/>
-      <c r="X380" s="1"/>
-    </row>
-    <row r="381" spans="1:24">
+      <c r="T380" s="1"/>
+      <c r="W380" s="1"/>
+      <c r="Y380" s="1"/>
+    </row>
+    <row r="381" spans="1:25">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -9964,10 +10336,11 @@
       <c r="Q381" s="1"/>
       <c r="R381" s="1"/>
       <c r="S381" s="1"/>
-      <c r="V381" s="1"/>
-      <c r="X381" s="1"/>
-    </row>
-    <row r="382" spans="1:24">
+      <c r="T381" s="1"/>
+      <c r="W381" s="1"/>
+      <c r="Y381" s="1"/>
+    </row>
+    <row r="382" spans="1:25">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -9986,10 +10359,11 @@
       <c r="Q382" s="1"/>
       <c r="R382" s="1"/>
       <c r="S382" s="1"/>
-      <c r="V382" s="1"/>
-      <c r="X382" s="1"/>
-    </row>
-    <row r="383" spans="1:24">
+      <c r="T382" s="1"/>
+      <c r="W382" s="1"/>
+      <c r="Y382" s="1"/>
+    </row>
+    <row r="383" spans="1:25">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -10008,10 +10382,11 @@
       <c r="Q383" s="1"/>
       <c r="R383" s="1"/>
       <c r="S383" s="1"/>
-      <c r="V383" s="1"/>
-      <c r="X383" s="1"/>
-    </row>
-    <row r="384" spans="1:24">
+      <c r="T383" s="1"/>
+      <c r="W383" s="1"/>
+      <c r="Y383" s="1"/>
+    </row>
+    <row r="384" spans="1:25">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -10030,10 +10405,11 @@
       <c r="Q384" s="1"/>
       <c r="R384" s="1"/>
       <c r="S384" s="1"/>
-      <c r="V384" s="1"/>
-      <c r="X384" s="1"/>
-    </row>
-    <row r="385" spans="1:24">
+      <c r="T384" s="1"/>
+      <c r="W384" s="1"/>
+      <c r="Y384" s="1"/>
+    </row>
+    <row r="385" spans="1:25">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -10052,10 +10428,11 @@
       <c r="Q385" s="1"/>
       <c r="R385" s="1"/>
       <c r="S385" s="1"/>
-      <c r="V385" s="1"/>
-      <c r="X385" s="1"/>
-    </row>
-    <row r="386" spans="1:24">
+      <c r="T385" s="1"/>
+      <c r="W385" s="1"/>
+      <c r="Y385" s="1"/>
+    </row>
+    <row r="386" spans="1:25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -10074,10 +10451,11 @@
       <c r="Q386" s="1"/>
       <c r="R386" s="1"/>
       <c r="S386" s="1"/>
-      <c r="V386" s="1"/>
-      <c r="X386" s="1"/>
-    </row>
-    <row r="387" spans="1:24">
+      <c r="T386" s="1"/>
+      <c r="W386" s="1"/>
+      <c r="Y386" s="1"/>
+    </row>
+    <row r="387" spans="1:25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -10096,10 +10474,11 @@
       <c r="Q387" s="1"/>
       <c r="R387" s="1"/>
       <c r="S387" s="1"/>
-      <c r="V387" s="1"/>
-      <c r="X387" s="1"/>
-    </row>
-    <row r="388" spans="1:24">
+      <c r="T387" s="1"/>
+      <c r="W387" s="1"/>
+      <c r="Y387" s="1"/>
+    </row>
+    <row r="388" spans="1:25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -10118,10 +10497,11 @@
       <c r="Q388" s="1"/>
       <c r="R388" s="1"/>
       <c r="S388" s="1"/>
-      <c r="V388" s="1"/>
-      <c r="X388" s="1"/>
-    </row>
-    <row r="389" spans="1:24">
+      <c r="T388" s="1"/>
+      <c r="W388" s="1"/>
+      <c r="Y388" s="1"/>
+    </row>
+    <row r="389" spans="1:25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -10140,10 +10520,11 @@
       <c r="Q389" s="1"/>
       <c r="R389" s="1"/>
       <c r="S389" s="1"/>
-      <c r="V389" s="1"/>
-      <c r="X389" s="1"/>
-    </row>
-    <row r="390" spans="1:24">
+      <c r="T389" s="1"/>
+      <c r="W389" s="1"/>
+      <c r="Y389" s="1"/>
+    </row>
+    <row r="390" spans="1:25">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -10162,10 +10543,11 @@
       <c r="Q390" s="1"/>
       <c r="R390" s="1"/>
       <c r="S390" s="1"/>
-      <c r="V390" s="1"/>
-      <c r="X390" s="1"/>
-    </row>
-    <row r="391" spans="1:24">
+      <c r="T390" s="1"/>
+      <c r="W390" s="1"/>
+      <c r="Y390" s="1"/>
+    </row>
+    <row r="391" spans="1:25">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -10184,10 +10566,11 @@
       <c r="Q391" s="1"/>
       <c r="R391" s="1"/>
       <c r="S391" s="1"/>
-      <c r="V391" s="1"/>
-      <c r="X391" s="1"/>
-    </row>
-    <row r="392" spans="1:24">
+      <c r="T391" s="1"/>
+      <c r="W391" s="1"/>
+      <c r="Y391" s="1"/>
+    </row>
+    <row r="392" spans="1:25">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -10206,10 +10589,11 @@
       <c r="Q392" s="1"/>
       <c r="R392" s="1"/>
       <c r="S392" s="1"/>
-      <c r="V392" s="1"/>
-      <c r="X392" s="1"/>
-    </row>
-    <row r="393" spans="1:24">
+      <c r="T392" s="1"/>
+      <c r="W392" s="1"/>
+      <c r="Y392" s="1"/>
+    </row>
+    <row r="393" spans="1:25">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -10228,10 +10612,11 @@
       <c r="Q393" s="1"/>
       <c r="R393" s="1"/>
       <c r="S393" s="1"/>
-      <c r="V393" s="1"/>
-      <c r="X393" s="1"/>
-    </row>
-    <row r="394" spans="1:24">
+      <c r="T393" s="1"/>
+      <c r="W393" s="1"/>
+      <c r="Y393" s="1"/>
+    </row>
+    <row r="394" spans="1:25">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -10250,10 +10635,11 @@
       <c r="Q394" s="1"/>
       <c r="R394" s="1"/>
       <c r="S394" s="1"/>
-      <c r="V394" s="1"/>
-      <c r="X394" s="1"/>
-    </row>
-    <row r="395" spans="1:24">
+      <c r="T394" s="1"/>
+      <c r="W394" s="1"/>
+      <c r="Y394" s="1"/>
+    </row>
+    <row r="395" spans="1:25">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -10272,10 +10658,11 @@
       <c r="Q395" s="1"/>
       <c r="R395" s="1"/>
       <c r="S395" s="1"/>
-      <c r="V395" s="1"/>
-      <c r="X395" s="1"/>
-    </row>
-    <row r="396" spans="1:24">
+      <c r="T395" s="1"/>
+      <c r="W395" s="1"/>
+      <c r="Y395" s="1"/>
+    </row>
+    <row r="396" spans="1:25">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -10294,10 +10681,11 @@
       <c r="Q396" s="1"/>
       <c r="R396" s="1"/>
       <c r="S396" s="1"/>
-      <c r="V396" s="1"/>
-      <c r="X396" s="1"/>
-    </row>
-    <row r="397" spans="1:24">
+      <c r="T396" s="1"/>
+      <c r="W396" s="1"/>
+      <c r="Y396" s="1"/>
+    </row>
+    <row r="397" spans="1:25">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -10316,10 +10704,11 @@
       <c r="Q397" s="1"/>
       <c r="R397" s="1"/>
       <c r="S397" s="1"/>
-      <c r="V397" s="1"/>
-      <c r="X397" s="1"/>
-    </row>
-    <row r="398" spans="1:24">
+      <c r="T397" s="1"/>
+      <c r="W397" s="1"/>
+      <c r="Y397" s="1"/>
+    </row>
+    <row r="398" spans="1:25">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -10338,10 +10727,11 @@
       <c r="Q398" s="1"/>
       <c r="R398" s="1"/>
       <c r="S398" s="1"/>
-      <c r="V398" s="1"/>
-      <c r="X398" s="1"/>
-    </row>
-    <row r="399" spans="1:24">
+      <c r="T398" s="1"/>
+      <c r="W398" s="1"/>
+      <c r="Y398" s="1"/>
+    </row>
+    <row r="399" spans="1:25">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -10360,10 +10750,11 @@
       <c r="Q399" s="1"/>
       <c r="R399" s="1"/>
       <c r="S399" s="1"/>
-      <c r="V399" s="1"/>
-      <c r="X399" s="1"/>
-    </row>
-    <row r="400" spans="1:24">
+      <c r="T399" s="1"/>
+      <c r="W399" s="1"/>
+      <c r="Y399" s="1"/>
+    </row>
+    <row r="400" spans="1:25">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -10382,10 +10773,11 @@
       <c r="Q400" s="1"/>
       <c r="R400" s="1"/>
       <c r="S400" s="1"/>
-      <c r="V400" s="1"/>
-      <c r="X400" s="1"/>
-    </row>
-    <row r="401" spans="1:24">
+      <c r="T400" s="1"/>
+      <c r="W400" s="1"/>
+      <c r="Y400" s="1"/>
+    </row>
+    <row r="401" spans="1:25">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -10404,10 +10796,11 @@
       <c r="Q401" s="1"/>
       <c r="R401" s="1"/>
       <c r="S401" s="1"/>
-      <c r="V401" s="1"/>
-      <c r="X401" s="1"/>
-    </row>
-    <row r="402" spans="1:24">
+      <c r="T401" s="1"/>
+      <c r="W401" s="1"/>
+      <c r="Y401" s="1"/>
+    </row>
+    <row r="402" spans="1:25">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -10426,10 +10819,11 @@
       <c r="Q402" s="1"/>
       <c r="R402" s="1"/>
       <c r="S402" s="1"/>
-      <c r="V402" s="1"/>
-      <c r="X402" s="1"/>
-    </row>
-    <row r="403" spans="1:24">
+      <c r="T402" s="1"/>
+      <c r="W402" s="1"/>
+      <c r="Y402" s="1"/>
+    </row>
+    <row r="403" spans="1:25">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -10448,10 +10842,11 @@
       <c r="Q403" s="1"/>
       <c r="R403" s="1"/>
       <c r="S403" s="1"/>
-      <c r="V403" s="1"/>
-      <c r="X403" s="1"/>
-    </row>
-    <row r="404" spans="1:24">
+      <c r="T403" s="1"/>
+      <c r="W403" s="1"/>
+      <c r="Y403" s="1"/>
+    </row>
+    <row r="404" spans="1:25">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -10470,10 +10865,11 @@
       <c r="Q404" s="1"/>
       <c r="R404" s="1"/>
       <c r="S404" s="1"/>
-      <c r="V404" s="1"/>
-      <c r="X404" s="1"/>
-    </row>
-    <row r="405" spans="1:24">
+      <c r="T404" s="1"/>
+      <c r="W404" s="1"/>
+      <c r="Y404" s="1"/>
+    </row>
+    <row r="405" spans="1:25">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -10492,10 +10888,11 @@
       <c r="Q405" s="1"/>
       <c r="R405" s="1"/>
       <c r="S405" s="1"/>
-      <c r="V405" s="1"/>
-      <c r="X405" s="1"/>
-    </row>
-    <row r="406" spans="1:24">
+      <c r="T405" s="1"/>
+      <c r="W405" s="1"/>
+      <c r="Y405" s="1"/>
+    </row>
+    <row r="406" spans="1:25">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -10514,10 +10911,11 @@
       <c r="Q406" s="1"/>
       <c r="R406" s="1"/>
       <c r="S406" s="1"/>
-      <c r="V406" s="1"/>
-      <c r="X406" s="1"/>
-    </row>
-    <row r="407" spans="1:24">
+      <c r="T406" s="1"/>
+      <c r="W406" s="1"/>
+      <c r="Y406" s="1"/>
+    </row>
+    <row r="407" spans="1:25">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -10536,10 +10934,11 @@
       <c r="Q407" s="1"/>
       <c r="R407" s="1"/>
       <c r="S407" s="1"/>
-      <c r="V407" s="1"/>
-      <c r="X407" s="1"/>
-    </row>
-    <row r="408" spans="1:24">
+      <c r="T407" s="1"/>
+      <c r="W407" s="1"/>
+      <c r="Y407" s="1"/>
+    </row>
+    <row r="408" spans="1:25">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -10558,10 +10957,11 @@
       <c r="Q408" s="1"/>
       <c r="R408" s="1"/>
       <c r="S408" s="1"/>
-      <c r="V408" s="1"/>
-      <c r="X408" s="1"/>
-    </row>
-    <row r="409" spans="1:24">
+      <c r="T408" s="1"/>
+      <c r="W408" s="1"/>
+      <c r="Y408" s="1"/>
+    </row>
+    <row r="409" spans="1:25">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -10580,10 +10980,11 @@
       <c r="Q409" s="1"/>
       <c r="R409" s="1"/>
       <c r="S409" s="1"/>
-      <c r="V409" s="1"/>
-      <c r="X409" s="1"/>
-    </row>
-    <row r="410" spans="1:24">
+      <c r="T409" s="1"/>
+      <c r="W409" s="1"/>
+      <c r="Y409" s="1"/>
+    </row>
+    <row r="410" spans="1:25">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -10602,10 +11003,11 @@
       <c r="Q410" s="1"/>
       <c r="R410" s="1"/>
       <c r="S410" s="1"/>
-      <c r="V410" s="1"/>
-      <c r="X410" s="1"/>
-    </row>
-    <row r="411" spans="1:24">
+      <c r="T410" s="1"/>
+      <c r="W410" s="1"/>
+      <c r="Y410" s="1"/>
+    </row>
+    <row r="411" spans="1:25">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -10624,10 +11026,11 @@
       <c r="Q411" s="1"/>
       <c r="R411" s="1"/>
       <c r="S411" s="1"/>
-      <c r="V411" s="1"/>
-      <c r="X411" s="1"/>
-    </row>
-    <row r="412" spans="1:24">
+      <c r="T411" s="1"/>
+      <c r="W411" s="1"/>
+      <c r="Y411" s="1"/>
+    </row>
+    <row r="412" spans="1:25">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -10646,10 +11049,11 @@
       <c r="Q412" s="1"/>
       <c r="R412" s="1"/>
       <c r="S412" s="1"/>
-      <c r="V412" s="1"/>
-      <c r="X412" s="1"/>
-    </row>
-    <row r="413" spans="1:24">
+      <c r="T412" s="1"/>
+      <c r="W412" s="1"/>
+      <c r="Y412" s="1"/>
+    </row>
+    <row r="413" spans="1:25">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -10668,10 +11072,11 @@
       <c r="Q413" s="1"/>
       <c r="R413" s="1"/>
       <c r="S413" s="1"/>
-      <c r="V413" s="1"/>
-      <c r="X413" s="1"/>
-    </row>
-    <row r="414" spans="1:24">
+      <c r="T413" s="1"/>
+      <c r="W413" s="1"/>
+      <c r="Y413" s="1"/>
+    </row>
+    <row r="414" spans="1:25">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -10690,10 +11095,11 @@
       <c r="Q414" s="1"/>
       <c r="R414" s="1"/>
       <c r="S414" s="1"/>
-      <c r="V414" s="1"/>
-      <c r="X414" s="1"/>
-    </row>
-    <row r="415" spans="1:24">
+      <c r="T414" s="1"/>
+      <c r="W414" s="1"/>
+      <c r="Y414" s="1"/>
+    </row>
+    <row r="415" spans="1:25">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -10712,10 +11118,11 @@
       <c r="Q415" s="1"/>
       <c r="R415" s="1"/>
       <c r="S415" s="1"/>
-      <c r="V415" s="1"/>
-      <c r="X415" s="1"/>
-    </row>
-    <row r="416" spans="1:24">
+      <c r="T415" s="1"/>
+      <c r="W415" s="1"/>
+      <c r="Y415" s="1"/>
+    </row>
+    <row r="416" spans="1:25">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -10734,10 +11141,11 @@
       <c r="Q416" s="1"/>
       <c r="R416" s="1"/>
       <c r="S416" s="1"/>
-      <c r="V416" s="1"/>
-      <c r="X416" s="1"/>
-    </row>
-    <row r="417" spans="1:24">
+      <c r="T416" s="1"/>
+      <c r="W416" s="1"/>
+      <c r="Y416" s="1"/>
+    </row>
+    <row r="417" spans="1:25">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -10756,10 +11164,11 @@
       <c r="Q417" s="1"/>
       <c r="R417" s="1"/>
       <c r="S417" s="1"/>
-      <c r="V417" s="1"/>
-      <c r="X417" s="1"/>
-    </row>
-    <row r="418" spans="1:24">
+      <c r="T417" s="1"/>
+      <c r="W417" s="1"/>
+      <c r="Y417" s="1"/>
+    </row>
+    <row r="418" spans="1:25">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -10778,10 +11187,11 @@
       <c r="Q418" s="1"/>
       <c r="R418" s="1"/>
       <c r="S418" s="1"/>
-      <c r="V418" s="1"/>
-      <c r="X418" s="1"/>
-    </row>
-    <row r="419" spans="1:24">
+      <c r="T418" s="1"/>
+      <c r="W418" s="1"/>
+      <c r="Y418" s="1"/>
+    </row>
+    <row r="419" spans="1:25">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -10800,10 +11210,11 @@
       <c r="Q419" s="1"/>
       <c r="R419" s="1"/>
       <c r="S419" s="1"/>
-      <c r="V419" s="1"/>
-      <c r="X419" s="1"/>
-    </row>
-    <row r="420" spans="1:24">
+      <c r="T419" s="1"/>
+      <c r="W419" s="1"/>
+      <c r="Y419" s="1"/>
+    </row>
+    <row r="420" spans="1:25">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -10822,10 +11233,11 @@
       <c r="Q420" s="1"/>
       <c r="R420" s="1"/>
       <c r="S420" s="1"/>
-      <c r="V420" s="1"/>
-      <c r="X420" s="1"/>
-    </row>
-    <row r="421" spans="1:24">
+      <c r="T420" s="1"/>
+      <c r="W420" s="1"/>
+      <c r="Y420" s="1"/>
+    </row>
+    <row r="421" spans="1:25">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -10844,10 +11256,11 @@
       <c r="Q421" s="1"/>
       <c r="R421" s="1"/>
       <c r="S421" s="1"/>
-      <c r="V421" s="1"/>
-      <c r="X421" s="1"/>
-    </row>
-    <row r="422" spans="1:24">
+      <c r="T421" s="1"/>
+      <c r="W421" s="1"/>
+      <c r="Y421" s="1"/>
+    </row>
+    <row r="422" spans="1:25">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -10866,10 +11279,11 @@
       <c r="Q422" s="1"/>
       <c r="R422" s="1"/>
       <c r="S422" s="1"/>
-      <c r="V422" s="1"/>
-      <c r="X422" s="1"/>
-    </row>
-    <row r="423" spans="1:24">
+      <c r="T422" s="1"/>
+      <c r="W422" s="1"/>
+      <c r="Y422" s="1"/>
+    </row>
+    <row r="423" spans="1:25">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -10888,10 +11302,11 @@
       <c r="Q423" s="1"/>
       <c r="R423" s="1"/>
       <c r="S423" s="1"/>
-      <c r="V423" s="1"/>
-      <c r="X423" s="1"/>
-    </row>
-    <row r="424" spans="1:24">
+      <c r="T423" s="1"/>
+      <c r="W423" s="1"/>
+      <c r="Y423" s="1"/>
+    </row>
+    <row r="424" spans="1:25">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -10910,10 +11325,11 @@
       <c r="Q424" s="1"/>
       <c r="R424" s="1"/>
       <c r="S424" s="1"/>
-      <c r="V424" s="1"/>
-      <c r="X424" s="1"/>
-    </row>
-    <row r="425" spans="1:24">
+      <c r="T424" s="1"/>
+      <c r="W424" s="1"/>
+      <c r="Y424" s="1"/>
+    </row>
+    <row r="425" spans="1:25">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -10932,10 +11348,11 @@
       <c r="Q425" s="1"/>
       <c r="R425" s="1"/>
       <c r="S425" s="1"/>
-      <c r="V425" s="1"/>
-      <c r="X425" s="1"/>
-    </row>
-    <row r="426" spans="1:24">
+      <c r="T425" s="1"/>
+      <c r="W425" s="1"/>
+      <c r="Y425" s="1"/>
+    </row>
+    <row r="426" spans="1:25">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -10954,10 +11371,11 @@
       <c r="Q426" s="1"/>
       <c r="R426" s="1"/>
       <c r="S426" s="1"/>
-      <c r="V426" s="1"/>
-      <c r="X426" s="1"/>
-    </row>
-    <row r="427" spans="1:24">
+      <c r="T426" s="1"/>
+      <c r="W426" s="1"/>
+      <c r="Y426" s="1"/>
+    </row>
+    <row r="427" spans="1:25">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -10976,10 +11394,11 @@
       <c r="Q427" s="1"/>
       <c r="R427" s="1"/>
       <c r="S427" s="1"/>
-      <c r="V427" s="1"/>
-      <c r="X427" s="1"/>
-    </row>
-    <row r="428" spans="1:24">
+      <c r="T427" s="1"/>
+      <c r="W427" s="1"/>
+      <c r="Y427" s="1"/>
+    </row>
+    <row r="428" spans="1:25">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -10998,10 +11417,11 @@
       <c r="Q428" s="1"/>
       <c r="R428" s="1"/>
       <c r="S428" s="1"/>
-      <c r="V428" s="1"/>
-      <c r="X428" s="1"/>
-    </row>
-    <row r="429" spans="1:24">
+      <c r="T428" s="1"/>
+      <c r="W428" s="1"/>
+      <c r="Y428" s="1"/>
+    </row>
+    <row r="429" spans="1:25">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -11020,10 +11440,11 @@
       <c r="Q429" s="1"/>
       <c r="R429" s="1"/>
       <c r="S429" s="1"/>
-      <c r="V429" s="1"/>
-      <c r="X429" s="1"/>
-    </row>
-    <row r="430" spans="1:24">
+      <c r="T429" s="1"/>
+      <c r="W429" s="1"/>
+      <c r="Y429" s="1"/>
+    </row>
+    <row r="430" spans="1:25">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -11042,10 +11463,11 @@
       <c r="Q430" s="1"/>
       <c r="R430" s="1"/>
       <c r="S430" s="1"/>
-      <c r="V430" s="1"/>
-      <c r="X430" s="1"/>
-    </row>
-    <row r="431" spans="1:24">
+      <c r="T430" s="1"/>
+      <c r="W430" s="1"/>
+      <c r="Y430" s="1"/>
+    </row>
+    <row r="431" spans="1:25">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -11064,10 +11486,11 @@
       <c r="Q431" s="1"/>
       <c r="R431" s="1"/>
       <c r="S431" s="1"/>
-      <c r="V431" s="1"/>
-      <c r="X431" s="1"/>
-    </row>
-    <row r="432" spans="1:24">
+      <c r="T431" s="1"/>
+      <c r="W431" s="1"/>
+      <c r="Y431" s="1"/>
+    </row>
+    <row r="432" spans="1:25">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -11086,10 +11509,11 @@
       <c r="Q432" s="1"/>
       <c r="R432" s="1"/>
       <c r="S432" s="1"/>
-      <c r="V432" s="1"/>
-      <c r="X432" s="1"/>
-    </row>
-    <row r="433" spans="1:24">
+      <c r="T432" s="1"/>
+      <c r="W432" s="1"/>
+      <c r="Y432" s="1"/>
+    </row>
+    <row r="433" spans="1:25">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -11108,10 +11532,11 @@
       <c r="Q433" s="1"/>
       <c r="R433" s="1"/>
       <c r="S433" s="1"/>
-      <c r="V433" s="1"/>
-      <c r="X433" s="1"/>
-    </row>
-    <row r="434" spans="1:24">
+      <c r="T433" s="1"/>
+      <c r="W433" s="1"/>
+      <c r="Y433" s="1"/>
+    </row>
+    <row r="434" spans="1:25">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -11130,10 +11555,11 @@
       <c r="Q434" s="1"/>
       <c r="R434" s="1"/>
       <c r="S434" s="1"/>
-      <c r="V434" s="1"/>
-      <c r="X434" s="1"/>
-    </row>
-    <row r="435" spans="1:24">
+      <c r="T434" s="1"/>
+      <c r="W434" s="1"/>
+      <c r="Y434" s="1"/>
+    </row>
+    <row r="435" spans="1:25">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -11152,10 +11578,11 @@
       <c r="Q435" s="1"/>
       <c r="R435" s="1"/>
       <c r="S435" s="1"/>
-      <c r="V435" s="1"/>
-      <c r="X435" s="1"/>
-    </row>
-    <row r="436" spans="1:24">
+      <c r="T435" s="1"/>
+      <c r="W435" s="1"/>
+      <c r="Y435" s="1"/>
+    </row>
+    <row r="436" spans="1:25">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -11174,10 +11601,11 @@
       <c r="Q436" s="1"/>
       <c r="R436" s="1"/>
       <c r="S436" s="1"/>
-      <c r="V436" s="1"/>
-      <c r="X436" s="1"/>
-    </row>
-    <row r="437" spans="1:24">
+      <c r="T436" s="1"/>
+      <c r="W436" s="1"/>
+      <c r="Y436" s="1"/>
+    </row>
+    <row r="437" spans="1:25">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -11196,10 +11624,11 @@
       <c r="Q437" s="1"/>
       <c r="R437" s="1"/>
       <c r="S437" s="1"/>
-      <c r="V437" s="1"/>
-      <c r="X437" s="1"/>
-    </row>
-    <row r="438" spans="1:24">
+      <c r="T437" s="1"/>
+      <c r="W437" s="1"/>
+      <c r="Y437" s="1"/>
+    </row>
+    <row r="438" spans="1:25">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -11218,10 +11647,11 @@
       <c r="Q438" s="1"/>
       <c r="R438" s="1"/>
       <c r="S438" s="1"/>
-      <c r="V438" s="1"/>
-      <c r="X438" s="1"/>
-    </row>
-    <row r="439" spans="1:24">
+      <c r="T438" s="1"/>
+      <c r="W438" s="1"/>
+      <c r="Y438" s="1"/>
+    </row>
+    <row r="439" spans="1:25">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -11240,10 +11670,11 @@
       <c r="Q439" s="1"/>
       <c r="R439" s="1"/>
       <c r="S439" s="1"/>
-      <c r="V439" s="1"/>
-      <c r="X439" s="1"/>
-    </row>
-    <row r="440" spans="1:24">
+      <c r="T439" s="1"/>
+      <c r="W439" s="1"/>
+      <c r="Y439" s="1"/>
+    </row>
+    <row r="440" spans="1:25">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -11262,10 +11693,11 @@
       <c r="Q440" s="1"/>
       <c r="R440" s="1"/>
       <c r="S440" s="1"/>
-      <c r="V440" s="1"/>
-      <c r="X440" s="1"/>
-    </row>
-    <row r="441" spans="1:24">
+      <c r="T440" s="1"/>
+      <c r="W440" s="1"/>
+      <c r="Y440" s="1"/>
+    </row>
+    <row r="441" spans="1:25">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -11284,10 +11716,11 @@
       <c r="Q441" s="1"/>
       <c r="R441" s="1"/>
       <c r="S441" s="1"/>
-      <c r="V441" s="1"/>
-      <c r="X441" s="1"/>
-    </row>
-    <row r="442" spans="1:24">
+      <c r="T441" s="1"/>
+      <c r="W441" s="1"/>
+      <c r="Y441" s="1"/>
+    </row>
+    <row r="442" spans="1:25">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -11306,10 +11739,11 @@
       <c r="Q442" s="1"/>
       <c r="R442" s="1"/>
       <c r="S442" s="1"/>
-      <c r="V442" s="1"/>
-      <c r="X442" s="1"/>
-    </row>
-    <row r="443" spans="1:24">
+      <c r="T442" s="1"/>
+      <c r="W442" s="1"/>
+      <c r="Y442" s="1"/>
+    </row>
+    <row r="443" spans="1:25">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -11328,10 +11762,11 @@
       <c r="Q443" s="1"/>
       <c r="R443" s="1"/>
       <c r="S443" s="1"/>
-      <c r="V443" s="1"/>
-      <c r="X443" s="1"/>
-    </row>
-    <row r="444" spans="1:24">
+      <c r="T443" s="1"/>
+      <c r="W443" s="1"/>
+      <c r="Y443" s="1"/>
+    </row>
+    <row r="444" spans="1:25">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -11350,10 +11785,11 @@
       <c r="Q444" s="1"/>
       <c r="R444" s="1"/>
       <c r="S444" s="1"/>
-      <c r="V444" s="1"/>
-      <c r="X444" s="1"/>
-    </row>
-    <row r="445" spans="1:24">
+      <c r="T444" s="1"/>
+      <c r="W444" s="1"/>
+      <c r="Y444" s="1"/>
+    </row>
+    <row r="445" spans="1:25">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -11372,10 +11808,11 @@
       <c r="Q445" s="1"/>
       <c r="R445" s="1"/>
       <c r="S445" s="1"/>
-      <c r="V445" s="1"/>
-      <c r="X445" s="1"/>
-    </row>
-    <row r="446" spans="1:24">
+      <c r="T445" s="1"/>
+      <c r="W445" s="1"/>
+      <c r="Y445" s="1"/>
+    </row>
+    <row r="446" spans="1:25">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -11394,10 +11831,11 @@
       <c r="Q446" s="1"/>
       <c r="R446" s="1"/>
       <c r="S446" s="1"/>
-      <c r="V446" s="1"/>
-      <c r="X446" s="1"/>
-    </row>
-    <row r="447" spans="1:24">
+      <c r="T446" s="1"/>
+      <c r="W446" s="1"/>
+      <c r="Y446" s="1"/>
+    </row>
+    <row r="447" spans="1:25">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -11416,10 +11854,11 @@
       <c r="Q447" s="1"/>
       <c r="R447" s="1"/>
       <c r="S447" s="1"/>
-      <c r="V447" s="1"/>
-      <c r="X447" s="1"/>
-    </row>
-    <row r="448" spans="1:24">
+      <c r="T447" s="1"/>
+      <c r="W447" s="1"/>
+      <c r="Y447" s="1"/>
+    </row>
+    <row r="448" spans="1:25">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -11438,10 +11877,11 @@
       <c r="Q448" s="1"/>
       <c r="R448" s="1"/>
       <c r="S448" s="1"/>
-      <c r="V448" s="1"/>
-      <c r="X448" s="1"/>
-    </row>
-    <row r="449" spans="1:24">
+      <c r="T448" s="1"/>
+      <c r="W448" s="1"/>
+      <c r="Y448" s="1"/>
+    </row>
+    <row r="449" spans="1:25">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -11460,10 +11900,11 @@
       <c r="Q449" s="1"/>
       <c r="R449" s="1"/>
       <c r="S449" s="1"/>
-      <c r="V449" s="1"/>
-      <c r="X449" s="1"/>
-    </row>
-    <row r="450" spans="1:24">
+      <c r="T449" s="1"/>
+      <c r="W449" s="1"/>
+      <c r="Y449" s="1"/>
+    </row>
+    <row r="450" spans="1:25">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -11482,10 +11923,11 @@
       <c r="Q450" s="1"/>
       <c r="R450" s="1"/>
       <c r="S450" s="1"/>
-      <c r="V450" s="1"/>
-      <c r="X450" s="1"/>
-    </row>
-    <row r="451" spans="1:24">
+      <c r="T450" s="1"/>
+      <c r="W450" s="1"/>
+      <c r="Y450" s="1"/>
+    </row>
+    <row r="451" spans="1:25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -11504,10 +11946,11 @@
       <c r="Q451" s="1"/>
       <c r="R451" s="1"/>
       <c r="S451" s="1"/>
-      <c r="V451" s="1"/>
-      <c r="X451" s="1"/>
-    </row>
-    <row r="452" spans="1:24">
+      <c r="T451" s="1"/>
+      <c r="W451" s="1"/>
+      <c r="Y451" s="1"/>
+    </row>
+    <row r="452" spans="1:25">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -11526,10 +11969,11 @@
       <c r="Q452" s="1"/>
       <c r="R452" s="1"/>
       <c r="S452" s="1"/>
-      <c r="V452" s="1"/>
-      <c r="X452" s="1"/>
-    </row>
-    <row r="453" spans="1:24">
+      <c r="T452" s="1"/>
+      <c r="W452" s="1"/>
+      <c r="Y452" s="1"/>
+    </row>
+    <row r="453" spans="1:25">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -11548,10 +11992,11 @@
       <c r="Q453" s="1"/>
       <c r="R453" s="1"/>
       <c r="S453" s="1"/>
-      <c r="V453" s="1"/>
-      <c r="X453" s="1"/>
-    </row>
-    <row r="454" spans="1:24">
+      <c r="T453" s="1"/>
+      <c r="W453" s="1"/>
+      <c r="Y453" s="1"/>
+    </row>
+    <row r="454" spans="1:25">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -11570,10 +12015,11 @@
       <c r="Q454" s="1"/>
       <c r="R454" s="1"/>
       <c r="S454" s="1"/>
-      <c r="V454" s="1"/>
-      <c r="X454" s="1"/>
-    </row>
-    <row r="455" spans="1:24">
+      <c r="T454" s="1"/>
+      <c r="W454" s="1"/>
+      <c r="Y454" s="1"/>
+    </row>
+    <row r="455" spans="1:25">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -11592,10 +12038,11 @@
       <c r="Q455" s="1"/>
       <c r="R455" s="1"/>
       <c r="S455" s="1"/>
-      <c r="V455" s="1"/>
-      <c r="X455" s="1"/>
-    </row>
-    <row r="456" spans="1:24">
+      <c r="T455" s="1"/>
+      <c r="W455" s="1"/>
+      <c r="Y455" s="1"/>
+    </row>
+    <row r="456" spans="1:25">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -11614,10 +12061,11 @@
       <c r="Q456" s="1"/>
       <c r="R456" s="1"/>
       <c r="S456" s="1"/>
-      <c r="V456" s="1"/>
-      <c r="X456" s="1"/>
-    </row>
-    <row r="457" spans="1:24">
+      <c r="T456" s="1"/>
+      <c r="W456" s="1"/>
+      <c r="Y456" s="1"/>
+    </row>
+    <row r="457" spans="1:25">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -11636,10 +12084,11 @@
       <c r="Q457" s="1"/>
       <c r="R457" s="1"/>
       <c r="S457" s="1"/>
-      <c r="V457" s="1"/>
-      <c r="X457" s="1"/>
-    </row>
-    <row r="458" spans="1:24">
+      <c r="T457" s="1"/>
+      <c r="W457" s="1"/>
+      <c r="Y457" s="1"/>
+    </row>
+    <row r="458" spans="1:25">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -11658,10 +12107,11 @@
       <c r="Q458" s="1"/>
       <c r="R458" s="1"/>
       <c r="S458" s="1"/>
-      <c r="V458" s="1"/>
-      <c r="X458" s="1"/>
-    </row>
-    <row r="459" spans="1:24">
+      <c r="T458" s="1"/>
+      <c r="W458" s="1"/>
+      <c r="Y458" s="1"/>
+    </row>
+    <row r="459" spans="1:25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -11680,10 +12130,11 @@
       <c r="Q459" s="1"/>
       <c r="R459" s="1"/>
       <c r="S459" s="1"/>
-      <c r="V459" s="1"/>
-      <c r="X459" s="1"/>
-    </row>
-    <row r="460" spans="1:24">
+      <c r="T459" s="1"/>
+      <c r="W459" s="1"/>
+      <c r="Y459" s="1"/>
+    </row>
+    <row r="460" spans="1:25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -11702,10 +12153,11 @@
       <c r="Q460" s="1"/>
       <c r="R460" s="1"/>
       <c r="S460" s="1"/>
-      <c r="V460" s="1"/>
-      <c r="X460" s="1"/>
-    </row>
-    <row r="461" spans="1:24">
+      <c r="T460" s="1"/>
+      <c r="W460" s="1"/>
+      <c r="Y460" s="1"/>
+    </row>
+    <row r="461" spans="1:25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -11724,10 +12176,11 @@
       <c r="Q461" s="1"/>
       <c r="R461" s="1"/>
       <c r="S461" s="1"/>
-      <c r="V461" s="1"/>
-      <c r="X461" s="1"/>
-    </row>
-    <row r="462" spans="1:24">
+      <c r="T461" s="1"/>
+      <c r="W461" s="1"/>
+      <c r="Y461" s="1"/>
+    </row>
+    <row r="462" spans="1:25">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -11746,10 +12199,11 @@
       <c r="Q462" s="1"/>
       <c r="R462" s="1"/>
       <c r="S462" s="1"/>
-      <c r="V462" s="1"/>
-      <c r="X462" s="1"/>
-    </row>
-    <row r="463" spans="1:24">
+      <c r="T462" s="1"/>
+      <c r="W462" s="1"/>
+      <c r="Y462" s="1"/>
+    </row>
+    <row r="463" spans="1:25">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -11768,10 +12222,11 @@
       <c r="Q463" s="1"/>
       <c r="R463" s="1"/>
       <c r="S463" s="1"/>
-      <c r="V463" s="1"/>
-      <c r="X463" s="1"/>
-    </row>
-    <row r="464" spans="1:24">
+      <c r="T463" s="1"/>
+      <c r="W463" s="1"/>
+      <c r="Y463" s="1"/>
+    </row>
+    <row r="464" spans="1:25">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -11790,10 +12245,11 @@
       <c r="Q464" s="1"/>
       <c r="R464" s="1"/>
       <c r="S464" s="1"/>
-      <c r="V464" s="1"/>
-      <c r="X464" s="1"/>
-    </row>
-    <row r="465" spans="1:24">
+      <c r="T464" s="1"/>
+      <c r="W464" s="1"/>
+      <c r="Y464" s="1"/>
+    </row>
+    <row r="465" spans="1:25">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -11812,10 +12268,11 @@
       <c r="Q465" s="1"/>
       <c r="R465" s="1"/>
       <c r="S465" s="1"/>
-      <c r="V465" s="1"/>
-      <c r="X465" s="1"/>
-    </row>
-    <row r="466" spans="1:24">
+      <c r="T465" s="1"/>
+      <c r="W465" s="1"/>
+      <c r="Y465" s="1"/>
+    </row>
+    <row r="466" spans="1:25">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -11834,10 +12291,11 @@
       <c r="Q466" s="1"/>
       <c r="R466" s="1"/>
       <c r="S466" s="1"/>
-      <c r="V466" s="1"/>
-      <c r="X466" s="1"/>
-    </row>
-    <row r="467" spans="1:24">
+      <c r="T466" s="1"/>
+      <c r="W466" s="1"/>
+      <c r="Y466" s="1"/>
+    </row>
+    <row r="467" spans="1:25">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -11856,10 +12314,11 @@
       <c r="Q467" s="1"/>
       <c r="R467" s="1"/>
       <c r="S467" s="1"/>
-      <c r="V467" s="1"/>
-      <c r="X467" s="1"/>
-    </row>
-    <row r="468" spans="1:24">
+      <c r="T467" s="1"/>
+      <c r="W467" s="1"/>
+      <c r="Y467" s="1"/>
+    </row>
+    <row r="468" spans="1:25">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -11878,10 +12337,11 @@
       <c r="Q468" s="1"/>
       <c r="R468" s="1"/>
       <c r="S468" s="1"/>
-      <c r="V468" s="1"/>
-      <c r="X468" s="1"/>
-    </row>
-    <row r="469" spans="1:24">
+      <c r="T468" s="1"/>
+      <c r="W468" s="1"/>
+      <c r="Y468" s="1"/>
+    </row>
+    <row r="469" spans="1:25">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -11900,10 +12360,11 @@
       <c r="Q469" s="1"/>
       <c r="R469" s="1"/>
       <c r="S469" s="1"/>
-      <c r="V469" s="1"/>
-      <c r="X469" s="1"/>
-    </row>
-    <row r="470" spans="1:24">
+      <c r="T469" s="1"/>
+      <c r="W469" s="1"/>
+      <c r="Y469" s="1"/>
+    </row>
+    <row r="470" spans="1:25">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -11922,10 +12383,11 @@
       <c r="Q470" s="1"/>
       <c r="R470" s="1"/>
       <c r="S470" s="1"/>
-      <c r="V470" s="1"/>
-      <c r="X470" s="1"/>
-    </row>
-    <row r="471" spans="1:24">
+      <c r="T470" s="1"/>
+      <c r="W470" s="1"/>
+      <c r="Y470" s="1"/>
+    </row>
+    <row r="471" spans="1:25">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -11944,10 +12406,11 @@
       <c r="Q471" s="1"/>
       <c r="R471" s="1"/>
       <c r="S471" s="1"/>
-      <c r="V471" s="1"/>
-      <c r="X471" s="1"/>
-    </row>
-    <row r="472" spans="1:24">
+      <c r="T471" s="1"/>
+      <c r="W471" s="1"/>
+      <c r="Y471" s="1"/>
+    </row>
+    <row r="472" spans="1:25">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -11966,10 +12429,11 @@
       <c r="Q472" s="1"/>
       <c r="R472" s="1"/>
       <c r="S472" s="1"/>
-      <c r="V472" s="1"/>
-      <c r="X472" s="1"/>
-    </row>
-    <row r="473" spans="1:24">
+      <c r="T472" s="1"/>
+      <c r="W472" s="1"/>
+      <c r="Y472" s="1"/>
+    </row>
+    <row r="473" spans="1:25">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -11988,10 +12452,11 @@
       <c r="Q473" s="1"/>
       <c r="R473" s="1"/>
       <c r="S473" s="1"/>
-      <c r="V473" s="1"/>
-      <c r="X473" s="1"/>
-    </row>
-    <row r="474" spans="1:24">
+      <c r="T473" s="1"/>
+      <c r="W473" s="1"/>
+      <c r="Y473" s="1"/>
+    </row>
+    <row r="474" spans="1:25">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -12010,10 +12475,11 @@
       <c r="Q474" s="1"/>
       <c r="R474" s="1"/>
       <c r="S474" s="1"/>
-      <c r="V474" s="1"/>
-      <c r="X474" s="1"/>
-    </row>
-    <row r="475" spans="1:24">
+      <c r="T474" s="1"/>
+      <c r="W474" s="1"/>
+      <c r="Y474" s="1"/>
+    </row>
+    <row r="475" spans="1:25">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -12032,10 +12498,11 @@
       <c r="Q475" s="1"/>
       <c r="R475" s="1"/>
       <c r="S475" s="1"/>
-      <c r="V475" s="1"/>
-      <c r="X475" s="1"/>
-    </row>
-    <row r="476" spans="1:24">
+      <c r="T475" s="1"/>
+      <c r="W475" s="1"/>
+      <c r="Y475" s="1"/>
+    </row>
+    <row r="476" spans="1:25">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -12054,10 +12521,11 @@
       <c r="Q476" s="1"/>
       <c r="R476" s="1"/>
       <c r="S476" s="1"/>
-      <c r="V476" s="1"/>
-      <c r="X476" s="1"/>
-    </row>
-    <row r="477" spans="1:24">
+      <c r="T476" s="1"/>
+      <c r="W476" s="1"/>
+      <c r="Y476" s="1"/>
+    </row>
+    <row r="477" spans="1:25">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -12076,10 +12544,11 @@
       <c r="Q477" s="1"/>
       <c r="R477" s="1"/>
       <c r="S477" s="1"/>
-      <c r="V477" s="1"/>
-      <c r="X477" s="1"/>
-    </row>
-    <row r="478" spans="1:24">
+      <c r="T477" s="1"/>
+      <c r="W477" s="1"/>
+      <c r="Y477" s="1"/>
+    </row>
+    <row r="478" spans="1:25">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -12098,10 +12567,11 @@
       <c r="Q478" s="1"/>
       <c r="R478" s="1"/>
       <c r="S478" s="1"/>
-      <c r="V478" s="1"/>
-      <c r="X478" s="1"/>
-    </row>
-    <row r="479" spans="1:24">
+      <c r="T478" s="1"/>
+      <c r="W478" s="1"/>
+      <c r="Y478" s="1"/>
+    </row>
+    <row r="479" spans="1:25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -12120,10 +12590,11 @@
       <c r="Q479" s="1"/>
       <c r="R479" s="1"/>
       <c r="S479" s="1"/>
-      <c r="V479" s="1"/>
-      <c r="X479" s="1"/>
-    </row>
-    <row r="480" spans="1:24">
+      <c r="T479" s="1"/>
+      <c r="W479" s="1"/>
+      <c r="Y479" s="1"/>
+    </row>
+    <row r="480" spans="1:25">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -12142,10 +12613,11 @@
       <c r="Q480" s="1"/>
       <c r="R480" s="1"/>
       <c r="S480" s="1"/>
-      <c r="V480" s="1"/>
-      <c r="X480" s="1"/>
-    </row>
-    <row r="481" spans="1:24">
+      <c r="T480" s="1"/>
+      <c r="W480" s="1"/>
+      <c r="Y480" s="1"/>
+    </row>
+    <row r="481" spans="1:25">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -12164,10 +12636,11 @@
       <c r="Q481" s="1"/>
       <c r="R481" s="1"/>
       <c r="S481" s="1"/>
-      <c r="V481" s="1"/>
-      <c r="X481" s="1"/>
-    </row>
-    <row r="482" spans="1:24">
+      <c r="T481" s="1"/>
+      <c r="W481" s="1"/>
+      <c r="Y481" s="1"/>
+    </row>
+    <row r="482" spans="1:25">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -12186,10 +12659,11 @@
       <c r="Q482" s="1"/>
       <c r="R482" s="1"/>
       <c r="S482" s="1"/>
-      <c r="V482" s="1"/>
-      <c r="X482" s="1"/>
-    </row>
-    <row r="483" spans="1:24">
+      <c r="T482" s="1"/>
+      <c r="W482" s="1"/>
+      <c r="Y482" s="1"/>
+    </row>
+    <row r="483" spans="1:25">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -12208,10 +12682,11 @@
       <c r="Q483" s="1"/>
       <c r="R483" s="1"/>
       <c r="S483" s="1"/>
-      <c r="V483" s="1"/>
-      <c r="X483" s="1"/>
-    </row>
-    <row r="484" spans="1:24">
+      <c r="T483" s="1"/>
+      <c r="W483" s="1"/>
+      <c r="Y483" s="1"/>
+    </row>
+    <row r="484" spans="1:25">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -12230,10 +12705,11 @@
       <c r="Q484" s="1"/>
       <c r="R484" s="1"/>
       <c r="S484" s="1"/>
-      <c r="V484" s="1"/>
-      <c r="X484" s="1"/>
-    </row>
-    <row r="485" spans="1:24">
+      <c r="T484" s="1"/>
+      <c r="W484" s="1"/>
+      <c r="Y484" s="1"/>
+    </row>
+    <row r="485" spans="1:25">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -12252,10 +12728,11 @@
       <c r="Q485" s="1"/>
       <c r="R485" s="1"/>
       <c r="S485" s="1"/>
-      <c r="V485" s="1"/>
-      <c r="X485" s="1"/>
-    </row>
-    <row r="486" spans="1:24">
+      <c r="T485" s="1"/>
+      <c r="W485" s="1"/>
+      <c r="Y485" s="1"/>
+    </row>
+    <row r="486" spans="1:25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -12274,10 +12751,11 @@
       <c r="Q486" s="1"/>
       <c r="R486" s="1"/>
       <c r="S486" s="1"/>
-      <c r="V486" s="1"/>
-      <c r="X486" s="1"/>
-    </row>
-    <row r="487" spans="1:24">
+      <c r="T486" s="1"/>
+      <c r="W486" s="1"/>
+      <c r="Y486" s="1"/>
+    </row>
+    <row r="487" spans="1:25">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -12296,10 +12774,11 @@
       <c r="Q487" s="1"/>
       <c r="R487" s="1"/>
       <c r="S487" s="1"/>
-      <c r="V487" s="1"/>
-      <c r="X487" s="1"/>
-    </row>
-    <row r="488" spans="1:24">
+      <c r="T487" s="1"/>
+      <c r="W487" s="1"/>
+      <c r="Y487" s="1"/>
+    </row>
+    <row r="488" spans="1:25">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -12318,10 +12797,11 @@
       <c r="Q488" s="1"/>
       <c r="R488" s="1"/>
       <c r="S488" s="1"/>
-      <c r="V488" s="1"/>
-      <c r="X488" s="1"/>
-    </row>
-    <row r="489" spans="1:24">
+      <c r="T488" s="1"/>
+      <c r="W488" s="1"/>
+      <c r="Y488" s="1"/>
+    </row>
+    <row r="489" spans="1:25">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -12340,10 +12820,11 @@
       <c r="Q489" s="1"/>
       <c r="R489" s="1"/>
       <c r="S489" s="1"/>
-      <c r="V489" s="1"/>
-      <c r="X489" s="1"/>
-    </row>
-    <row r="490" spans="1:24">
+      <c r="T489" s="1"/>
+      <c r="W489" s="1"/>
+      <c r="Y489" s="1"/>
+    </row>
+    <row r="490" spans="1:25">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -12362,10 +12843,11 @@
       <c r="Q490" s="1"/>
       <c r="R490" s="1"/>
       <c r="S490" s="1"/>
-      <c r="V490" s="1"/>
-      <c r="X490" s="1"/>
-    </row>
-    <row r="491" spans="1:24">
+      <c r="T490" s="1"/>
+      <c r="W490" s="1"/>
+      <c r="Y490" s="1"/>
+    </row>
+    <row r="491" spans="1:25">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -12384,10 +12866,11 @@
       <c r="Q491" s="1"/>
       <c r="R491" s="1"/>
       <c r="S491" s="1"/>
-      <c r="V491" s="1"/>
-      <c r="X491" s="1"/>
-    </row>
-    <row r="492" spans="1:24">
+      <c r="T491" s="1"/>
+      <c r="W491" s="1"/>
+      <c r="Y491" s="1"/>
+    </row>
+    <row r="492" spans="1:25">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -12406,10 +12889,11 @@
       <c r="Q492" s="1"/>
       <c r="R492" s="1"/>
       <c r="S492" s="1"/>
-      <c r="V492" s="1"/>
-      <c r="X492" s="1"/>
-    </row>
-    <row r="493" spans="1:24">
+      <c r="T492" s="1"/>
+      <c r="W492" s="1"/>
+      <c r="Y492" s="1"/>
+    </row>
+    <row r="493" spans="1:25">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -12428,10 +12912,11 @@
       <c r="Q493" s="1"/>
       <c r="R493" s="1"/>
       <c r="S493" s="1"/>
-      <c r="V493" s="1"/>
-      <c r="X493" s="1"/>
-    </row>
-    <row r="494" spans="1:24">
+      <c r="T493" s="1"/>
+      <c r="W493" s="1"/>
+      <c r="Y493" s="1"/>
+    </row>
+    <row r="494" spans="1:25">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -12450,10 +12935,11 @@
       <c r="Q494" s="1"/>
       <c r="R494" s="1"/>
       <c r="S494" s="1"/>
-      <c r="V494" s="1"/>
-      <c r="X494" s="1"/>
-    </row>
-    <row r="495" spans="1:24">
+      <c r="T494" s="1"/>
+      <c r="W494" s="1"/>
+      <c r="Y494" s="1"/>
+    </row>
+    <row r="495" spans="1:25">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -12472,10 +12958,11 @@
       <c r="Q495" s="1"/>
       <c r="R495" s="1"/>
       <c r="S495" s="1"/>
-      <c r="V495" s="1"/>
-      <c r="X495" s="1"/>
-    </row>
-    <row r="496" spans="1:24">
+      <c r="T495" s="1"/>
+      <c r="W495" s="1"/>
+      <c r="Y495" s="1"/>
+    </row>
+    <row r="496" spans="1:25">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -12494,10 +12981,11 @@
       <c r="Q496" s="1"/>
       <c r="R496" s="1"/>
       <c r="S496" s="1"/>
-      <c r="V496" s="1"/>
-      <c r="X496" s="1"/>
-    </row>
-    <row r="497" spans="1:24">
+      <c r="T496" s="1"/>
+      <c r="W496" s="1"/>
+      <c r="Y496" s="1"/>
+    </row>
+    <row r="497" spans="1:25">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -12516,10 +13004,11 @@
       <c r="Q497" s="1"/>
       <c r="R497" s="1"/>
       <c r="S497" s="1"/>
-      <c r="V497" s="1"/>
-      <c r="X497" s="1"/>
-    </row>
-    <row r="498" spans="1:24">
+      <c r="T497" s="1"/>
+      <c r="W497" s="1"/>
+      <c r="Y497" s="1"/>
+    </row>
+    <row r="498" spans="1:25">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -12538,10 +13027,11 @@
       <c r="Q498" s="1"/>
       <c r="R498" s="1"/>
       <c r="S498" s="1"/>
-      <c r="V498" s="1"/>
-      <c r="X498" s="1"/>
-    </row>
-    <row r="499" spans="1:24">
+      <c r="T498" s="1"/>
+      <c r="W498" s="1"/>
+      <c r="Y498" s="1"/>
+    </row>
+    <row r="499" spans="1:25">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -12560,10 +13050,11 @@
       <c r="Q499" s="1"/>
       <c r="R499" s="1"/>
       <c r="S499" s="1"/>
-      <c r="V499" s="1"/>
-      <c r="X499" s="1"/>
-    </row>
-    <row r="500" spans="1:24">
+      <c r="T499" s="1"/>
+      <c r="W499" s="1"/>
+      <c r="Y499" s="1"/>
+    </row>
+    <row r="500" spans="1:25">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -12582,15 +13073,16 @@
       <c r="Q500" s="1"/>
       <c r="R500" s="1"/>
       <c r="S500" s="1"/>
-      <c r="V500" s="1"/>
-      <c r="X500" s="1"/>
+      <c r="T500" s="1"/>
+      <c r="W500" s="1"/>
+      <c r="Y500" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="U1:X1"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="V1:Y1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>日期</t>
   </si>
@@ -55,6 +55,21 @@
   <si>
     <t>买入后总跌幅/涨幅
 (下跌超过3%考虑卖出；上涨超过25%考虑卖出)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">上涨/下跌天数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(上涨大于65%考虑止盈；下跌大于65%考虑止损)</t>
+    </r>
   </si>
   <si>
     <t>当前止损线</t>
@@ -103,77 +118,6 @@
     <t>市盈率是否翻倍
 (超过2倍要考虑卖出)</t>
   </si>
-  <si>
-    <r>
-      <t>目前涨幅</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>超过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>25%</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>要考虑卖出</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>上涨天数是否大于65</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%</t>
-    </r>
-  </si>
 </sst>
 </file>
 
@@ -196,22 +140,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="方正书宋_GBK"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -362,10 +307,11 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="38">
@@ -863,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,7 +822,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -888,13 +834,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -903,31 +852,34 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -935,9 +887,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1258,14 +1207,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Y500"/>
+  <dimension ref="A1:X500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1278,24 +1227,23 @@
     <col min="6" max="6" width="10.4107142857143" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.96428571428571" customWidth="1"/>
     <col min="8" max="9" width="20.3839285714286" customWidth="1"/>
-    <col min="10" max="10" width="13.5357142857143" customWidth="1"/>
-    <col min="11" max="11" width="13.3839285714286" customWidth="1"/>
-    <col min="12" max="13" width="20.3839285714286" customWidth="1"/>
-    <col min="14" max="14" width="30.0625" customWidth="1"/>
-    <col min="15" max="15" width="40.4732142857143" customWidth="1"/>
-    <col min="16" max="16" width="25.4464285714286" customWidth="1"/>
-    <col min="17" max="17" width="28.7142857142857" customWidth="1"/>
-    <col min="18" max="18" width="30.0625" customWidth="1"/>
-    <col min="19" max="19" width="21.875" customWidth="1"/>
-    <col min="20" max="20" width="20.6785714285714" customWidth="1"/>
-    <col min="21" max="21" width="39.5803571428571" customWidth="1"/>
-    <col min="22" max="22" width="20.5267857142857" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.4464285714286" customWidth="1"/>
-    <col min="24" max="24" width="22.3125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="18.3035714285714" customWidth="1"/>
+    <col min="10" max="10" width="22.1696428571429" customWidth="1"/>
+    <col min="11" max="11" width="13.5357142857143" customWidth="1"/>
+    <col min="12" max="12" width="13.3839285714286" customWidth="1"/>
+    <col min="13" max="14" width="20.3839285714286" customWidth="1"/>
+    <col min="15" max="15" width="30.0625" customWidth="1"/>
+    <col min="16" max="16" width="40.4732142857143" customWidth="1"/>
+    <col min="17" max="17" width="25.4464285714286" customWidth="1"/>
+    <col min="18" max="18" width="28.7142857142857" customWidth="1"/>
+    <col min="19" max="19" width="30.0625" customWidth="1"/>
+    <col min="20" max="20" width="21.875" customWidth="1"/>
+    <col min="21" max="21" width="20.6785714285714" customWidth="1"/>
+    <col min="22" max="22" width="39.5803571428571" customWidth="1"/>
+    <col min="23" max="23" width="20.5267857142857" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.4464285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1309,30 +1257,29 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17" t="s">
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-    </row>
-    <row r="2" ht="56" customHeight="1" spans="1:25">
+      <c r="X1" s="20"/>
+    </row>
+    <row r="2" ht="56" customHeight="1" spans="1:24">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -1346,68 +1293,65 @@
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="W2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="X2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="5">
         <v>44523</v>
       </c>
@@ -1416,27 +1360,26 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="24"/>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="M3" s="6"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="23"/>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="7">
         <v>44524</v>
       </c>
@@ -1445,27 +1388,26 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="24"/>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="M4" s="6"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="23"/>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="7">
         <v>44525</v>
       </c>
@@ -1474,27 +1416,26 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="24"/>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="M5" s="6"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="23"/>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="7">
         <v>44526</v>
       </c>
@@ -1503,27 +1444,26 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="24"/>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="M6" s="6"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="23"/>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="7">
         <v>44527</v>
       </c>
@@ -1532,27 +1472,26 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="M7" s="6"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="6"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="7">
         <v>44528</v>
       </c>
@@ -1561,27 +1500,26 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="M8" s="6"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="6"/>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="7">
         <v>44529</v>
       </c>
@@ -1590,27 +1528,26 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="M9" s="6"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="6"/>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="7">
         <v>44530</v>
       </c>
@@ -1619,27 +1556,26 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="M10" s="6"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="6"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="7">
         <v>44531</v>
       </c>
@@ -1648,27 +1584,26 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="M11" s="6"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="6"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="7">
         <v>44532</v>
       </c>
@@ -1677,27 +1612,26 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="M12" s="6"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="6"/>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="7">
         <v>44533</v>
       </c>
@@ -1706,27 +1640,26 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="M13" s="6"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="7">
         <v>44534</v>
       </c>
@@ -1735,27 +1668,26 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="M14" s="6"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="6"/>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="7">
         <v>44535</v>
       </c>
@@ -1764,27 +1696,26 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="M15" s="6"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="6"/>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="7">
         <v>44536</v>
       </c>
@@ -1793,27 +1724,26 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="M16" s="6"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="6"/>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="7">
         <v>44537</v>
       </c>
@@ -1822,27 +1752,26 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="M17" s="6"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="6"/>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="7">
         <v>44538</v>
       </c>
@@ -1851,27 +1780,26 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="M18" s="6"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="6"/>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="7">
         <v>44539</v>
       </c>
@@ -1880,27 +1808,26 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="M19" s="6"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="6"/>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="7">
         <v>44540</v>
       </c>
@@ -1909,27 +1836,26 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="M20" s="6"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="6"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="7">
         <v>44541</v>
       </c>
@@ -1938,27 +1864,26 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="M21" s="6"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="6"/>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="7">
         <v>44542</v>
       </c>
@@ -1967,27 +1892,26 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="M22" s="6"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="6"/>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="7">
         <v>44543</v>
       </c>
@@ -1996,27 +1920,26 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="M23" s="6"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="6"/>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="7">
         <v>44544</v>
       </c>
@@ -2024,28 +1947,27 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="M24" s="6"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="6"/>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="7">
         <v>44545</v>
       </c>
@@ -2053,28 +1975,27 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="M25" s="6"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="7">
         <v>44546</v>
       </c>
@@ -2082,28 +2003,27 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="M26" s="6"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="7">
         <v>44547</v>
       </c>
@@ -2111,28 +2031,27 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="M27" s="6"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="7">
         <v>44548</v>
       </c>
@@ -2140,28 +2059,27 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="M28" s="6"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="7">
         <v>44549</v>
       </c>
@@ -2169,28 +2087,27 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="M29" s="6"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="7">
         <v>44550</v>
       </c>
@@ -2198,28 +2115,27 @@
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="M30" s="6"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="7">
         <v>44551</v>
       </c>
@@ -2227,28 +2143,27 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="M31" s="6"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="7">
         <v>44552</v>
       </c>
@@ -2256,28 +2171,27 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="M32" s="6"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="7">
         <v>44553</v>
       </c>
@@ -2285,28 +2199,27 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="M33" s="6"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="7">
         <v>44554</v>
       </c>
@@ -2314,28 +2227,27 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="M34" s="6"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="7">
         <v>44555</v>
       </c>
@@ -2343,28 +2255,27 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="M35" s="6"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="7">
         <v>44556</v>
       </c>
@@ -2372,28 +2283,27 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="M36" s="6"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="7">
         <v>44557</v>
       </c>
@@ -2401,28 +2311,27 @@
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="M37" s="6"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="7">
         <v>44558</v>
       </c>
@@ -2430,28 +2339,27 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="M38" s="6"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2471,10 +2379,10 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="Y39" s="1"/>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="U39" s="1"/>
+      <c r="X39" s="1"/>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2494,10 +2402,10 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="Y40" s="1"/>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="U40" s="1"/>
+      <c r="X40" s="1"/>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2517,10 +2425,10 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="Y41" s="1"/>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="U41" s="1"/>
+      <c r="X41" s="1"/>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2540,10 +2448,10 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="Y42" s="1"/>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="U42" s="1"/>
+      <c r="X42" s="1"/>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2563,10 +2471,10 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="Y43" s="1"/>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="U43" s="1"/>
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2586,10 +2494,10 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="Y44" s="1"/>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="U44" s="1"/>
+      <c r="X44" s="1"/>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2609,10 +2517,10 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="Y45" s="1"/>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="U45" s="1"/>
+      <c r="X45" s="1"/>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2632,10 +2540,10 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="Y46" s="1"/>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="U46" s="1"/>
+      <c r="X46" s="1"/>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2655,10 +2563,10 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="Y47" s="1"/>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="U47" s="1"/>
+      <c r="X47" s="1"/>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2678,10 +2586,10 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="Y48" s="1"/>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="U48" s="1"/>
+      <c r="X48" s="1"/>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2701,10 +2609,10 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="Y49" s="1"/>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="U49" s="1"/>
+      <c r="X49" s="1"/>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2724,10 +2632,10 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="Y50" s="1"/>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="U50" s="1"/>
+      <c r="X50" s="1"/>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2747,10 +2655,10 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="Y51" s="1"/>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="U51" s="1"/>
+      <c r="X51" s="1"/>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2770,10 +2678,10 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="Y52" s="1"/>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="U52" s="1"/>
+      <c r="X52" s="1"/>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2793,10 +2701,10 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="Y53" s="1"/>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="U53" s="1"/>
+      <c r="X53" s="1"/>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2816,10 +2724,10 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="Y54" s="1"/>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="U54" s="1"/>
+      <c r="X54" s="1"/>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2839,10 +2747,10 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="Y55" s="1"/>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="U55" s="1"/>
+      <c r="X55" s="1"/>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2862,10 +2770,10 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="Y56" s="1"/>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="U56" s="1"/>
+      <c r="X56" s="1"/>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2885,10 +2793,10 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="Y57" s="1"/>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="U57" s="1"/>
+      <c r="X57" s="1"/>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2908,10 +2816,10 @@
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="Y58" s="1"/>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="U58" s="1"/>
+      <c r="X58" s="1"/>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2931,10 +2839,10 @@
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="Y59" s="1"/>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="U59" s="1"/>
+      <c r="X59" s="1"/>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2954,10 +2862,10 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="Y60" s="1"/>
-    </row>
-    <row r="61" spans="1:25">
+      <c r="U60" s="1"/>
+      <c r="X60" s="1"/>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2977,10 +2885,10 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="Y61" s="1"/>
-    </row>
-    <row r="62" spans="1:25">
+      <c r="U61" s="1"/>
+      <c r="X61" s="1"/>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3000,10 +2908,10 @@
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="Y62" s="1"/>
-    </row>
-    <row r="63" spans="1:25">
+      <c r="U62" s="1"/>
+      <c r="X62" s="1"/>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3023,10 +2931,10 @@
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="Y63" s="1"/>
-    </row>
-    <row r="64" spans="1:25">
+      <c r="U63" s="1"/>
+      <c r="X63" s="1"/>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3046,10 +2954,10 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="Y64" s="1"/>
-    </row>
-    <row r="65" spans="1:25">
+      <c r="U64" s="1"/>
+      <c r="X64" s="1"/>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3069,10 +2977,10 @@
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="Y65" s="1"/>
-    </row>
-    <row r="66" spans="1:25">
+      <c r="U65" s="1"/>
+      <c r="X65" s="1"/>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3092,10 +3000,10 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="Y66" s="1"/>
-    </row>
-    <row r="67" spans="1:25">
+      <c r="U66" s="1"/>
+      <c r="X66" s="1"/>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3115,10 +3023,10 @@
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
-      <c r="W67" s="1"/>
-      <c r="Y67" s="1"/>
-    </row>
-    <row r="68" spans="1:25">
+      <c r="U67" s="1"/>
+      <c r="X67" s="1"/>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3138,10 +3046,10 @@
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="Y68" s="1"/>
-    </row>
-    <row r="69" spans="1:25">
+      <c r="U68" s="1"/>
+      <c r="X68" s="1"/>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3161,10 +3069,10 @@
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="Y69" s="1"/>
-    </row>
-    <row r="70" spans="1:25">
+      <c r="U69" s="1"/>
+      <c r="X69" s="1"/>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3184,10 +3092,10 @@
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="Y70" s="1"/>
-    </row>
-    <row r="71" spans="1:25">
+      <c r="U70" s="1"/>
+      <c r="X70" s="1"/>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3207,10 +3115,10 @@
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="Y71" s="1"/>
-    </row>
-    <row r="72" spans="1:25">
+      <c r="U71" s="1"/>
+      <c r="X71" s="1"/>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3230,10 +3138,10 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="Y72" s="1"/>
-    </row>
-    <row r="73" spans="1:25">
+      <c r="U72" s="1"/>
+      <c r="X72" s="1"/>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3253,10 +3161,10 @@
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="Y73" s="1"/>
-    </row>
-    <row r="74" spans="1:25">
+      <c r="U73" s="1"/>
+      <c r="X73" s="1"/>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3276,10 +3184,10 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="Y74" s="1"/>
-    </row>
-    <row r="75" spans="1:25">
+      <c r="U74" s="1"/>
+      <c r="X74" s="1"/>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3299,10 +3207,10 @@
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
-      <c r="W75" s="1"/>
-      <c r="Y75" s="1"/>
-    </row>
-    <row r="76" spans="1:25">
+      <c r="U75" s="1"/>
+      <c r="X75" s="1"/>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3322,10 +3230,10 @@
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
-      <c r="W76" s="1"/>
-      <c r="Y76" s="1"/>
-    </row>
-    <row r="77" spans="1:25">
+      <c r="U76" s="1"/>
+      <c r="X76" s="1"/>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3345,10 +3253,10 @@
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="Y77" s="1"/>
-    </row>
-    <row r="78" spans="1:25">
+      <c r="U77" s="1"/>
+      <c r="X77" s="1"/>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3368,10 +3276,10 @@
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="Y78" s="1"/>
-    </row>
-    <row r="79" spans="1:25">
+      <c r="U78" s="1"/>
+      <c r="X78" s="1"/>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3391,10 +3299,10 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="Y79" s="1"/>
-    </row>
-    <row r="80" spans="1:25">
+      <c r="U79" s="1"/>
+      <c r="X79" s="1"/>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3414,10 +3322,10 @@
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
-      <c r="W80" s="1"/>
-      <c r="Y80" s="1"/>
-    </row>
-    <row r="81" spans="1:25">
+      <c r="U80" s="1"/>
+      <c r="X80" s="1"/>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3437,10 +3345,10 @@
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="Y81" s="1"/>
-    </row>
-    <row r="82" spans="1:25">
+      <c r="U81" s="1"/>
+      <c r="X81" s="1"/>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3460,10 +3368,10 @@
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
-      <c r="W82" s="1"/>
-      <c r="Y82" s="1"/>
-    </row>
-    <row r="83" spans="1:25">
+      <c r="U82" s="1"/>
+      <c r="X82" s="1"/>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3483,10 +3391,10 @@
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
-      <c r="W83" s="1"/>
-      <c r="Y83" s="1"/>
-    </row>
-    <row r="84" spans="1:25">
+      <c r="U83" s="1"/>
+      <c r="X83" s="1"/>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3506,10 +3414,10 @@
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
-      <c r="W84" s="1"/>
-      <c r="Y84" s="1"/>
-    </row>
-    <row r="85" spans="1:25">
+      <c r="U84" s="1"/>
+      <c r="X84" s="1"/>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3529,10 +3437,10 @@
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
-      <c r="W85" s="1"/>
-      <c r="Y85" s="1"/>
-    </row>
-    <row r="86" spans="1:25">
+      <c r="U85" s="1"/>
+      <c r="X85" s="1"/>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3552,10 +3460,10 @@
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
-      <c r="W86" s="1"/>
-      <c r="Y86" s="1"/>
-    </row>
-    <row r="87" spans="1:25">
+      <c r="U86" s="1"/>
+      <c r="X86" s="1"/>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3575,10 +3483,10 @@
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
-      <c r="W87" s="1"/>
-      <c r="Y87" s="1"/>
-    </row>
-    <row r="88" spans="1:25">
+      <c r="U87" s="1"/>
+      <c r="X87" s="1"/>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3598,10 +3506,10 @@
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
-      <c r="W88" s="1"/>
-      <c r="Y88" s="1"/>
-    </row>
-    <row r="89" spans="1:25">
+      <c r="U88" s="1"/>
+      <c r="X88" s="1"/>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3621,10 +3529,10 @@
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
-      <c r="W89" s="1"/>
-      <c r="Y89" s="1"/>
-    </row>
-    <row r="90" spans="1:25">
+      <c r="U89" s="1"/>
+      <c r="X89" s="1"/>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3644,10 +3552,10 @@
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
-      <c r="W90" s="1"/>
-      <c r="Y90" s="1"/>
-    </row>
-    <row r="91" spans="1:25">
+      <c r="U90" s="1"/>
+      <c r="X90" s="1"/>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3667,10 +3575,10 @@
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
-      <c r="W91" s="1"/>
-      <c r="Y91" s="1"/>
-    </row>
-    <row r="92" spans="1:25">
+      <c r="U91" s="1"/>
+      <c r="X91" s="1"/>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3690,10 +3598,10 @@
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
-      <c r="W92" s="1"/>
-      <c r="Y92" s="1"/>
-    </row>
-    <row r="93" spans="1:25">
+      <c r="U92" s="1"/>
+      <c r="X92" s="1"/>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3713,10 +3621,10 @@
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
-      <c r="W93" s="1"/>
-      <c r="Y93" s="1"/>
-    </row>
-    <row r="94" spans="1:25">
+      <c r="U93" s="1"/>
+      <c r="X93" s="1"/>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3736,10 +3644,10 @@
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
-      <c r="W94" s="1"/>
-      <c r="Y94" s="1"/>
-    </row>
-    <row r="95" spans="1:25">
+      <c r="U94" s="1"/>
+      <c r="X94" s="1"/>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3759,10 +3667,10 @@
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
-      <c r="W95" s="1"/>
-      <c r="Y95" s="1"/>
-    </row>
-    <row r="96" spans="1:25">
+      <c r="U95" s="1"/>
+      <c r="X95" s="1"/>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3782,10 +3690,10 @@
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
-      <c r="W96" s="1"/>
-      <c r="Y96" s="1"/>
-    </row>
-    <row r="97" spans="1:25">
+      <c r="U96" s="1"/>
+      <c r="X96" s="1"/>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3805,10 +3713,10 @@
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
-      <c r="W97" s="1"/>
-      <c r="Y97" s="1"/>
-    </row>
-    <row r="98" spans="1:25">
+      <c r="U97" s="1"/>
+      <c r="X97" s="1"/>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3828,10 +3736,10 @@
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
-      <c r="W98" s="1"/>
-      <c r="Y98" s="1"/>
-    </row>
-    <row r="99" spans="1:25">
+      <c r="U98" s="1"/>
+      <c r="X98" s="1"/>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3851,10 +3759,10 @@
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
-      <c r="W99" s="1"/>
-      <c r="Y99" s="1"/>
-    </row>
-    <row r="100" spans="1:25">
+      <c r="U99" s="1"/>
+      <c r="X99" s="1"/>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3874,10 +3782,10 @@
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
-      <c r="W100" s="1"/>
-      <c r="Y100" s="1"/>
-    </row>
-    <row r="101" spans="1:25">
+      <c r="U100" s="1"/>
+      <c r="X100" s="1"/>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3897,10 +3805,10 @@
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
-      <c r="W101" s="1"/>
-      <c r="Y101" s="1"/>
-    </row>
-    <row r="102" spans="1:25">
+      <c r="U101" s="1"/>
+      <c r="X101" s="1"/>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3920,10 +3828,10 @@
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
-      <c r="W102" s="1"/>
-      <c r="Y102" s="1"/>
-    </row>
-    <row r="103" spans="1:25">
+      <c r="U102" s="1"/>
+      <c r="X102" s="1"/>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3943,10 +3851,10 @@
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
-      <c r="W103" s="1"/>
-      <c r="Y103" s="1"/>
-    </row>
-    <row r="104" spans="1:25">
+      <c r="U103" s="1"/>
+      <c r="X103" s="1"/>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3966,10 +3874,10 @@
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
-      <c r="W104" s="1"/>
-      <c r="Y104" s="1"/>
-    </row>
-    <row r="105" spans="1:25">
+      <c r="U104" s="1"/>
+      <c r="X104" s="1"/>
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3989,10 +3897,10 @@
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
-      <c r="W105" s="1"/>
-      <c r="Y105" s="1"/>
-    </row>
-    <row r="106" spans="1:25">
+      <c r="U105" s="1"/>
+      <c r="X105" s="1"/>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4012,10 +3920,10 @@
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
-      <c r="W106" s="1"/>
-      <c r="Y106" s="1"/>
-    </row>
-    <row r="107" spans="1:25">
+      <c r="U106" s="1"/>
+      <c r="X106" s="1"/>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4035,10 +3943,10 @@
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
-      <c r="W107" s="1"/>
-      <c r="Y107" s="1"/>
-    </row>
-    <row r="108" spans="1:25">
+      <c r="U107" s="1"/>
+      <c r="X107" s="1"/>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4058,10 +3966,10 @@
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
-      <c r="W108" s="1"/>
-      <c r="Y108" s="1"/>
-    </row>
-    <row r="109" spans="1:25">
+      <c r="U108" s="1"/>
+      <c r="X108" s="1"/>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4081,10 +3989,10 @@
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
-      <c r="W109" s="1"/>
-      <c r="Y109" s="1"/>
-    </row>
-    <row r="110" spans="1:25">
+      <c r="U109" s="1"/>
+      <c r="X109" s="1"/>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4104,10 +4012,10 @@
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
-      <c r="W110" s="1"/>
-      <c r="Y110" s="1"/>
-    </row>
-    <row r="111" spans="1:25">
+      <c r="U110" s="1"/>
+      <c r="X110" s="1"/>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4127,10 +4035,10 @@
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
-      <c r="W111" s="1"/>
-      <c r="Y111" s="1"/>
-    </row>
-    <row r="112" spans="1:25">
+      <c r="U111" s="1"/>
+      <c r="X111" s="1"/>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4150,10 +4058,10 @@
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
-      <c r="W112" s="1"/>
-      <c r="Y112" s="1"/>
-    </row>
-    <row r="113" spans="1:25">
+      <c r="U112" s="1"/>
+      <c r="X112" s="1"/>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4173,10 +4081,10 @@
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
-      <c r="W113" s="1"/>
-      <c r="Y113" s="1"/>
-    </row>
-    <row r="114" spans="1:25">
+      <c r="U113" s="1"/>
+      <c r="X113" s="1"/>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4196,10 +4104,10 @@
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
-      <c r="W114" s="1"/>
-      <c r="Y114" s="1"/>
-    </row>
-    <row r="115" spans="1:25">
+      <c r="U114" s="1"/>
+      <c r="X114" s="1"/>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4219,10 +4127,10 @@
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
-      <c r="W115" s="1"/>
-      <c r="Y115" s="1"/>
-    </row>
-    <row r="116" spans="1:25">
+      <c r="U115" s="1"/>
+      <c r="X115" s="1"/>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4242,10 +4150,10 @@
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
-      <c r="W116" s="1"/>
-      <c r="Y116" s="1"/>
-    </row>
-    <row r="117" spans="1:25">
+      <c r="U116" s="1"/>
+      <c r="X116" s="1"/>
+    </row>
+    <row r="117" spans="1:24">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4265,10 +4173,10 @@
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
-      <c r="W117" s="1"/>
-      <c r="Y117" s="1"/>
-    </row>
-    <row r="118" spans="1:25">
+      <c r="U117" s="1"/>
+      <c r="X117" s="1"/>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4288,10 +4196,10 @@
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
-      <c r="W118" s="1"/>
-      <c r="Y118" s="1"/>
-    </row>
-    <row r="119" spans="1:25">
+      <c r="U118" s="1"/>
+      <c r="X118" s="1"/>
+    </row>
+    <row r="119" spans="1:24">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4311,10 +4219,10 @@
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
-      <c r="W119" s="1"/>
-      <c r="Y119" s="1"/>
-    </row>
-    <row r="120" spans="1:25">
+      <c r="U119" s="1"/>
+      <c r="X119" s="1"/>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4334,10 +4242,10 @@
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
-      <c r="W120" s="1"/>
-      <c r="Y120" s="1"/>
-    </row>
-    <row r="121" spans="1:25">
+      <c r="U120" s="1"/>
+      <c r="X120" s="1"/>
+    </row>
+    <row r="121" spans="1:24">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4357,10 +4265,10 @@
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
-      <c r="W121" s="1"/>
-      <c r="Y121" s="1"/>
-    </row>
-    <row r="122" spans="1:25">
+      <c r="U121" s="1"/>
+      <c r="X121" s="1"/>
+    </row>
+    <row r="122" spans="1:24">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4380,10 +4288,10 @@
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
-      <c r="W122" s="1"/>
-      <c r="Y122" s="1"/>
-    </row>
-    <row r="123" spans="1:25">
+      <c r="U122" s="1"/>
+      <c r="X122" s="1"/>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4403,10 +4311,10 @@
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
-      <c r="W123" s="1"/>
-      <c r="Y123" s="1"/>
-    </row>
-    <row r="124" spans="1:25">
+      <c r="U123" s="1"/>
+      <c r="X123" s="1"/>
+    </row>
+    <row r="124" spans="1:24">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4426,10 +4334,10 @@
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
-      <c r="W124" s="1"/>
-      <c r="Y124" s="1"/>
-    </row>
-    <row r="125" spans="1:25">
+      <c r="U124" s="1"/>
+      <c r="X124" s="1"/>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4449,10 +4357,10 @@
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
-      <c r="W125" s="1"/>
-      <c r="Y125" s="1"/>
-    </row>
-    <row r="126" spans="1:25">
+      <c r="U125" s="1"/>
+      <c r="X125" s="1"/>
+    </row>
+    <row r="126" spans="1:24">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4472,10 +4380,10 @@
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
-      <c r="W126" s="1"/>
-      <c r="Y126" s="1"/>
-    </row>
-    <row r="127" spans="1:25">
+      <c r="U126" s="1"/>
+      <c r="X126" s="1"/>
+    </row>
+    <row r="127" spans="1:24">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4495,10 +4403,10 @@
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
-      <c r="W127" s="1"/>
-      <c r="Y127" s="1"/>
-    </row>
-    <row r="128" spans="1:25">
+      <c r="U127" s="1"/>
+      <c r="X127" s="1"/>
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4518,10 +4426,10 @@
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
-      <c r="W128" s="1"/>
-      <c r="Y128" s="1"/>
-    </row>
-    <row r="129" spans="1:25">
+      <c r="U128" s="1"/>
+      <c r="X128" s="1"/>
+    </row>
+    <row r="129" spans="1:24">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4541,10 +4449,10 @@
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
-      <c r="W129" s="1"/>
-      <c r="Y129" s="1"/>
-    </row>
-    <row r="130" spans="1:25">
+      <c r="U129" s="1"/>
+      <c r="X129" s="1"/>
+    </row>
+    <row r="130" spans="1:24">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4564,10 +4472,10 @@
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
-      <c r="W130" s="1"/>
-      <c r="Y130" s="1"/>
-    </row>
-    <row r="131" spans="1:25">
+      <c r="U130" s="1"/>
+      <c r="X130" s="1"/>
+    </row>
+    <row r="131" spans="1:24">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4587,10 +4495,10 @@
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
-      <c r="W131" s="1"/>
-      <c r="Y131" s="1"/>
-    </row>
-    <row r="132" spans="1:25">
+      <c r="U131" s="1"/>
+      <c r="X131" s="1"/>
+    </row>
+    <row r="132" spans="1:24">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4610,10 +4518,10 @@
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
-      <c r="W132" s="1"/>
-      <c r="Y132" s="1"/>
-    </row>
-    <row r="133" spans="1:25">
+      <c r="U132" s="1"/>
+      <c r="X132" s="1"/>
+    </row>
+    <row r="133" spans="1:24">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4633,10 +4541,10 @@
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
-      <c r="W133" s="1"/>
-      <c r="Y133" s="1"/>
-    </row>
-    <row r="134" spans="1:25">
+      <c r="U133" s="1"/>
+      <c r="X133" s="1"/>
+    </row>
+    <row r="134" spans="1:24">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4656,10 +4564,10 @@
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
-      <c r="W134" s="1"/>
-      <c r="Y134" s="1"/>
-    </row>
-    <row r="135" spans="1:25">
+      <c r="U134" s="1"/>
+      <c r="X134" s="1"/>
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4679,10 +4587,10 @@
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
-      <c r="W135" s="1"/>
-      <c r="Y135" s="1"/>
-    </row>
-    <row r="136" spans="1:25">
+      <c r="U135" s="1"/>
+      <c r="X135" s="1"/>
+    </row>
+    <row r="136" spans="1:24">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4702,10 +4610,10 @@
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
-      <c r="W136" s="1"/>
-      <c r="Y136" s="1"/>
-    </row>
-    <row r="137" spans="1:25">
+      <c r="U136" s="1"/>
+      <c r="X136" s="1"/>
+    </row>
+    <row r="137" spans="1:24">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4725,10 +4633,10 @@
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
-      <c r="W137" s="1"/>
-      <c r="Y137" s="1"/>
-    </row>
-    <row r="138" spans="1:25">
+      <c r="U137" s="1"/>
+      <c r="X137" s="1"/>
+    </row>
+    <row r="138" spans="1:24">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4748,10 +4656,10 @@
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
-      <c r="W138" s="1"/>
-      <c r="Y138" s="1"/>
-    </row>
-    <row r="139" spans="1:25">
+      <c r="U138" s="1"/>
+      <c r="X138" s="1"/>
+    </row>
+    <row r="139" spans="1:24">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4771,10 +4679,10 @@
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
-      <c r="W139" s="1"/>
-      <c r="Y139" s="1"/>
-    </row>
-    <row r="140" spans="1:25">
+      <c r="U139" s="1"/>
+      <c r="X139" s="1"/>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4794,10 +4702,10 @@
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
-      <c r="W140" s="1"/>
-      <c r="Y140" s="1"/>
-    </row>
-    <row r="141" spans="1:25">
+      <c r="U140" s="1"/>
+      <c r="X140" s="1"/>
+    </row>
+    <row r="141" spans="1:24">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4817,10 +4725,10 @@
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
-      <c r="W141" s="1"/>
-      <c r="Y141" s="1"/>
-    </row>
-    <row r="142" spans="1:25">
+      <c r="U141" s="1"/>
+      <c r="X141" s="1"/>
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4840,10 +4748,10 @@
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
-      <c r="W142" s="1"/>
-      <c r="Y142" s="1"/>
-    </row>
-    <row r="143" spans="1:25">
+      <c r="U142" s="1"/>
+      <c r="X142" s="1"/>
+    </row>
+    <row r="143" spans="1:24">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4863,10 +4771,10 @@
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
-      <c r="W143" s="1"/>
-      <c r="Y143" s="1"/>
-    </row>
-    <row r="144" spans="1:25">
+      <c r="U143" s="1"/>
+      <c r="X143" s="1"/>
+    </row>
+    <row r="144" spans="1:24">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4886,10 +4794,10 @@
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
-      <c r="W144" s="1"/>
-      <c r="Y144" s="1"/>
-    </row>
-    <row r="145" spans="1:25">
+      <c r="U144" s="1"/>
+      <c r="X144" s="1"/>
+    </row>
+    <row r="145" spans="1:24">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4909,10 +4817,10 @@
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
-      <c r="W145" s="1"/>
-      <c r="Y145" s="1"/>
-    </row>
-    <row r="146" spans="1:25">
+      <c r="U145" s="1"/>
+      <c r="X145" s="1"/>
+    </row>
+    <row r="146" spans="1:24">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4932,10 +4840,10 @@
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
-      <c r="W146" s="1"/>
-      <c r="Y146" s="1"/>
-    </row>
-    <row r="147" spans="1:25">
+      <c r="U146" s="1"/>
+      <c r="X146" s="1"/>
+    </row>
+    <row r="147" spans="1:24">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4955,10 +4863,10 @@
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
-      <c r="W147" s="1"/>
-      <c r="Y147" s="1"/>
-    </row>
-    <row r="148" spans="1:25">
+      <c r="U147" s="1"/>
+      <c r="X147" s="1"/>
+    </row>
+    <row r="148" spans="1:24">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4978,10 +4886,10 @@
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
-      <c r="W148" s="1"/>
-      <c r="Y148" s="1"/>
-    </row>
-    <row r="149" spans="1:25">
+      <c r="U148" s="1"/>
+      <c r="X148" s="1"/>
+    </row>
+    <row r="149" spans="1:24">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5001,10 +4909,10 @@
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
-      <c r="W149" s="1"/>
-      <c r="Y149" s="1"/>
-    </row>
-    <row r="150" spans="1:25">
+      <c r="U149" s="1"/>
+      <c r="X149" s="1"/>
+    </row>
+    <row r="150" spans="1:24">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5024,10 +4932,10 @@
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
-      <c r="W150" s="1"/>
-      <c r="Y150" s="1"/>
-    </row>
-    <row r="151" spans="1:25">
+      <c r="U150" s="1"/>
+      <c r="X150" s="1"/>
+    </row>
+    <row r="151" spans="1:24">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5047,10 +4955,10 @@
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
-      <c r="W151" s="1"/>
-      <c r="Y151" s="1"/>
-    </row>
-    <row r="152" spans="1:25">
+      <c r="U151" s="1"/>
+      <c r="X151" s="1"/>
+    </row>
+    <row r="152" spans="1:24">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5070,10 +4978,10 @@
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
-      <c r="W152" s="1"/>
-      <c r="Y152" s="1"/>
-    </row>
-    <row r="153" spans="1:25">
+      <c r="U152" s="1"/>
+      <c r="X152" s="1"/>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5093,10 +5001,10 @@
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
-      <c r="W153" s="1"/>
-      <c r="Y153" s="1"/>
-    </row>
-    <row r="154" spans="1:25">
+      <c r="U153" s="1"/>
+      <c r="X153" s="1"/>
+    </row>
+    <row r="154" spans="1:24">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5116,10 +5024,10 @@
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
-      <c r="W154" s="1"/>
-      <c r="Y154" s="1"/>
-    </row>
-    <row r="155" spans="1:25">
+      <c r="U154" s="1"/>
+      <c r="X154" s="1"/>
+    </row>
+    <row r="155" spans="1:24">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5139,10 +5047,10 @@
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
-      <c r="W155" s="1"/>
-      <c r="Y155" s="1"/>
-    </row>
-    <row r="156" spans="1:25">
+      <c r="U155" s="1"/>
+      <c r="X155" s="1"/>
+    </row>
+    <row r="156" spans="1:24">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5162,10 +5070,10 @@
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
-      <c r="W156" s="1"/>
-      <c r="Y156" s="1"/>
-    </row>
-    <row r="157" spans="1:25">
+      <c r="U156" s="1"/>
+      <c r="X156" s="1"/>
+    </row>
+    <row r="157" spans="1:24">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5185,10 +5093,10 @@
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
-      <c r="W157" s="1"/>
-      <c r="Y157" s="1"/>
-    </row>
-    <row r="158" spans="1:25">
+      <c r="U157" s="1"/>
+      <c r="X157" s="1"/>
+    </row>
+    <row r="158" spans="1:24">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5208,10 +5116,10 @@
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
-      <c r="W158" s="1"/>
-      <c r="Y158" s="1"/>
-    </row>
-    <row r="159" spans="1:25">
+      <c r="U158" s="1"/>
+      <c r="X158" s="1"/>
+    </row>
+    <row r="159" spans="1:24">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5231,10 +5139,10 @@
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
-      <c r="W159" s="1"/>
-      <c r="Y159" s="1"/>
-    </row>
-    <row r="160" spans="1:25">
+      <c r="U159" s="1"/>
+      <c r="X159" s="1"/>
+    </row>
+    <row r="160" spans="1:24">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5254,10 +5162,10 @@
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
-      <c r="W160" s="1"/>
-      <c r="Y160" s="1"/>
-    </row>
-    <row r="161" spans="1:25">
+      <c r="U160" s="1"/>
+      <c r="X160" s="1"/>
+    </row>
+    <row r="161" spans="1:24">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5277,10 +5185,10 @@
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
-      <c r="W161" s="1"/>
-      <c r="Y161" s="1"/>
-    </row>
-    <row r="162" spans="1:25">
+      <c r="U161" s="1"/>
+      <c r="X161" s="1"/>
+    </row>
+    <row r="162" spans="1:24">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5300,10 +5208,10 @@
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
-      <c r="W162" s="1"/>
-      <c r="Y162" s="1"/>
-    </row>
-    <row r="163" spans="1:25">
+      <c r="U162" s="1"/>
+      <c r="X162" s="1"/>
+    </row>
+    <row r="163" spans="1:24">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5323,10 +5231,10 @@
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
-      <c r="W163" s="1"/>
-      <c r="Y163" s="1"/>
-    </row>
-    <row r="164" spans="1:25">
+      <c r="U163" s="1"/>
+      <c r="X163" s="1"/>
+    </row>
+    <row r="164" spans="1:24">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5346,10 +5254,10 @@
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
-      <c r="W164" s="1"/>
-      <c r="Y164" s="1"/>
-    </row>
-    <row r="165" spans="1:25">
+      <c r="U164" s="1"/>
+      <c r="X164" s="1"/>
+    </row>
+    <row r="165" spans="1:24">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5369,10 +5277,10 @@
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
-      <c r="W165" s="1"/>
-      <c r="Y165" s="1"/>
-    </row>
-    <row r="166" spans="1:25">
+      <c r="U165" s="1"/>
+      <c r="X165" s="1"/>
+    </row>
+    <row r="166" spans="1:24">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5392,10 +5300,10 @@
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
-      <c r="W166" s="1"/>
-      <c r="Y166" s="1"/>
-    </row>
-    <row r="167" spans="1:25">
+      <c r="U166" s="1"/>
+      <c r="X166" s="1"/>
+    </row>
+    <row r="167" spans="1:24">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5415,10 +5323,10 @@
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
-      <c r="W167" s="1"/>
-      <c r="Y167" s="1"/>
-    </row>
-    <row r="168" spans="1:25">
+      <c r="U167" s="1"/>
+      <c r="X167" s="1"/>
+    </row>
+    <row r="168" spans="1:24">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5438,10 +5346,10 @@
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
-      <c r="W168" s="1"/>
-      <c r="Y168" s="1"/>
-    </row>
-    <row r="169" spans="1:25">
+      <c r="U168" s="1"/>
+      <c r="X168" s="1"/>
+    </row>
+    <row r="169" spans="1:24">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5461,10 +5369,10 @@
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
-      <c r="W169" s="1"/>
-      <c r="Y169" s="1"/>
-    </row>
-    <row r="170" spans="1:25">
+      <c r="U169" s="1"/>
+      <c r="X169" s="1"/>
+    </row>
+    <row r="170" spans="1:24">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5484,10 +5392,10 @@
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
-      <c r="W170" s="1"/>
-      <c r="Y170" s="1"/>
-    </row>
-    <row r="171" spans="1:25">
+      <c r="U170" s="1"/>
+      <c r="X170" s="1"/>
+    </row>
+    <row r="171" spans="1:24">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5507,10 +5415,10 @@
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
-      <c r="W171" s="1"/>
-      <c r="Y171" s="1"/>
-    </row>
-    <row r="172" spans="1:25">
+      <c r="U171" s="1"/>
+      <c r="X171" s="1"/>
+    </row>
+    <row r="172" spans="1:24">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5530,10 +5438,10 @@
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
-      <c r="W172" s="1"/>
-      <c r="Y172" s="1"/>
-    </row>
-    <row r="173" spans="1:25">
+      <c r="U172" s="1"/>
+      <c r="X172" s="1"/>
+    </row>
+    <row r="173" spans="1:24">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5553,10 +5461,10 @@
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
-      <c r="W173" s="1"/>
-      <c r="Y173" s="1"/>
-    </row>
-    <row r="174" spans="1:25">
+      <c r="U173" s="1"/>
+      <c r="X173" s="1"/>
+    </row>
+    <row r="174" spans="1:24">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5576,10 +5484,10 @@
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
-      <c r="W174" s="1"/>
-      <c r="Y174" s="1"/>
-    </row>
-    <row r="175" spans="1:25">
+      <c r="U174" s="1"/>
+      <c r="X174" s="1"/>
+    </row>
+    <row r="175" spans="1:24">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5599,10 +5507,10 @@
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
-      <c r="W175" s="1"/>
-      <c r="Y175" s="1"/>
-    </row>
-    <row r="176" spans="1:25">
+      <c r="U175" s="1"/>
+      <c r="X175" s="1"/>
+    </row>
+    <row r="176" spans="1:24">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5622,10 +5530,10 @@
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
-      <c r="W176" s="1"/>
-      <c r="Y176" s="1"/>
-    </row>
-    <row r="177" spans="1:25">
+      <c r="U176" s="1"/>
+      <c r="X176" s="1"/>
+    </row>
+    <row r="177" spans="1:24">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5645,10 +5553,10 @@
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
-      <c r="W177" s="1"/>
-      <c r="Y177" s="1"/>
-    </row>
-    <row r="178" spans="1:25">
+      <c r="U177" s="1"/>
+      <c r="X177" s="1"/>
+    </row>
+    <row r="178" spans="1:24">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5668,10 +5576,10 @@
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
-      <c r="W178" s="1"/>
-      <c r="Y178" s="1"/>
-    </row>
-    <row r="179" spans="1:25">
+      <c r="U178" s="1"/>
+      <c r="X178" s="1"/>
+    </row>
+    <row r="179" spans="1:24">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5691,10 +5599,10 @@
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
-      <c r="W179" s="1"/>
-      <c r="Y179" s="1"/>
-    </row>
-    <row r="180" spans="1:25">
+      <c r="U179" s="1"/>
+      <c r="X179" s="1"/>
+    </row>
+    <row r="180" spans="1:24">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5714,10 +5622,10 @@
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
-      <c r="W180" s="1"/>
-      <c r="Y180" s="1"/>
-    </row>
-    <row r="181" spans="1:25">
+      <c r="U180" s="1"/>
+      <c r="X180" s="1"/>
+    </row>
+    <row r="181" spans="1:24">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5737,10 +5645,10 @@
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
-      <c r="W181" s="1"/>
-      <c r="Y181" s="1"/>
-    </row>
-    <row r="182" spans="1:25">
+      <c r="U181" s="1"/>
+      <c r="X181" s="1"/>
+    </row>
+    <row r="182" spans="1:24">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5760,10 +5668,10 @@
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
-      <c r="W182" s="1"/>
-      <c r="Y182" s="1"/>
-    </row>
-    <row r="183" spans="1:25">
+      <c r="U182" s="1"/>
+      <c r="X182" s="1"/>
+    </row>
+    <row r="183" spans="1:24">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5783,10 +5691,10 @@
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
-      <c r="W183" s="1"/>
-      <c r="Y183" s="1"/>
-    </row>
-    <row r="184" spans="1:25">
+      <c r="U183" s="1"/>
+      <c r="X183" s="1"/>
+    </row>
+    <row r="184" spans="1:24">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5806,10 +5714,10 @@
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
-      <c r="W184" s="1"/>
-      <c r="Y184" s="1"/>
-    </row>
-    <row r="185" spans="1:25">
+      <c r="U184" s="1"/>
+      <c r="X184" s="1"/>
+    </row>
+    <row r="185" spans="1:24">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5829,10 +5737,10 @@
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
-      <c r="W185" s="1"/>
-      <c r="Y185" s="1"/>
-    </row>
-    <row r="186" spans="1:25">
+      <c r="U185" s="1"/>
+      <c r="X185" s="1"/>
+    </row>
+    <row r="186" spans="1:24">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5852,10 +5760,10 @@
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
-      <c r="W186" s="1"/>
-      <c r="Y186" s="1"/>
-    </row>
-    <row r="187" spans="1:25">
+      <c r="U186" s="1"/>
+      <c r="X186" s="1"/>
+    </row>
+    <row r="187" spans="1:24">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5875,10 +5783,10 @@
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
-      <c r="W187" s="1"/>
-      <c r="Y187" s="1"/>
-    </row>
-    <row r="188" spans="1:25">
+      <c r="U187" s="1"/>
+      <c r="X187" s="1"/>
+    </row>
+    <row r="188" spans="1:24">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5898,10 +5806,10 @@
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
-      <c r="W188" s="1"/>
-      <c r="Y188" s="1"/>
-    </row>
-    <row r="189" spans="1:25">
+      <c r="U188" s="1"/>
+      <c r="X188" s="1"/>
+    </row>
+    <row r="189" spans="1:24">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5921,10 +5829,10 @@
       <c r="R189" s="1"/>
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
-      <c r="W189" s="1"/>
-      <c r="Y189" s="1"/>
-    </row>
-    <row r="190" spans="1:25">
+      <c r="U189" s="1"/>
+      <c r="X189" s="1"/>
+    </row>
+    <row r="190" spans="1:24">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5944,10 +5852,10 @@
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
-      <c r="W190" s="1"/>
-      <c r="Y190" s="1"/>
-    </row>
-    <row r="191" spans="1:25">
+      <c r="U190" s="1"/>
+      <c r="X190" s="1"/>
+    </row>
+    <row r="191" spans="1:24">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5967,10 +5875,10 @@
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
-      <c r="W191" s="1"/>
-      <c r="Y191" s="1"/>
-    </row>
-    <row r="192" spans="1:25">
+      <c r="U191" s="1"/>
+      <c r="X191" s="1"/>
+    </row>
+    <row r="192" spans="1:24">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5990,10 +5898,10 @@
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
-      <c r="W192" s="1"/>
-      <c r="Y192" s="1"/>
-    </row>
-    <row r="193" spans="1:25">
+      <c r="U192" s="1"/>
+      <c r="X192" s="1"/>
+    </row>
+    <row r="193" spans="1:24">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6013,10 +5921,10 @@
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
-      <c r="W193" s="1"/>
-      <c r="Y193" s="1"/>
-    </row>
-    <row r="194" spans="1:25">
+      <c r="U193" s="1"/>
+      <c r="X193" s="1"/>
+    </row>
+    <row r="194" spans="1:24">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6036,10 +5944,10 @@
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
-      <c r="W194" s="1"/>
-      <c r="Y194" s="1"/>
-    </row>
-    <row r="195" spans="1:25">
+      <c r="U194" s="1"/>
+      <c r="X194" s="1"/>
+    </row>
+    <row r="195" spans="1:24">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6059,10 +5967,10 @@
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
-      <c r="W195" s="1"/>
-      <c r="Y195" s="1"/>
-    </row>
-    <row r="196" spans="1:25">
+      <c r="U195" s="1"/>
+      <c r="X195" s="1"/>
+    </row>
+    <row r="196" spans="1:24">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6082,10 +5990,10 @@
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
-      <c r="W196" s="1"/>
-      <c r="Y196" s="1"/>
-    </row>
-    <row r="197" spans="1:25">
+      <c r="U196" s="1"/>
+      <c r="X196" s="1"/>
+    </row>
+    <row r="197" spans="1:24">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6105,10 +6013,10 @@
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
-      <c r="W197" s="1"/>
-      <c r="Y197" s="1"/>
-    </row>
-    <row r="198" spans="1:25">
+      <c r="U197" s="1"/>
+      <c r="X197" s="1"/>
+    </row>
+    <row r="198" spans="1:24">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6128,10 +6036,10 @@
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
-      <c r="W198" s="1"/>
-      <c r="Y198" s="1"/>
-    </row>
-    <row r="199" spans="1:25">
+      <c r="U198" s="1"/>
+      <c r="X198" s="1"/>
+    </row>
+    <row r="199" spans="1:24">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6151,10 +6059,10 @@
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
-      <c r="W199" s="1"/>
-      <c r="Y199" s="1"/>
-    </row>
-    <row r="200" spans="1:25">
+      <c r="U199" s="1"/>
+      <c r="X199" s="1"/>
+    </row>
+    <row r="200" spans="1:24">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6174,10 +6082,10 @@
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
-      <c r="W200" s="1"/>
-      <c r="Y200" s="1"/>
-    </row>
-    <row r="201" spans="1:25">
+      <c r="U200" s="1"/>
+      <c r="X200" s="1"/>
+    </row>
+    <row r="201" spans="1:24">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6197,10 +6105,10 @@
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
       <c r="T201" s="1"/>
-      <c r="W201" s="1"/>
-      <c r="Y201" s="1"/>
-    </row>
-    <row r="202" spans="1:25">
+      <c r="U201" s="1"/>
+      <c r="X201" s="1"/>
+    </row>
+    <row r="202" spans="1:24">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6220,10 +6128,10 @@
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
       <c r="T202" s="1"/>
-      <c r="W202" s="1"/>
-      <c r="Y202" s="1"/>
-    </row>
-    <row r="203" spans="1:25">
+      <c r="U202" s="1"/>
+      <c r="X202" s="1"/>
+    </row>
+    <row r="203" spans="1:24">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6243,10 +6151,10 @@
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
       <c r="T203" s="1"/>
-      <c r="W203" s="1"/>
-      <c r="Y203" s="1"/>
-    </row>
-    <row r="204" spans="1:25">
+      <c r="U203" s="1"/>
+      <c r="X203" s="1"/>
+    </row>
+    <row r="204" spans="1:24">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6266,10 +6174,10 @@
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
       <c r="T204" s="1"/>
-      <c r="W204" s="1"/>
-      <c r="Y204" s="1"/>
-    </row>
-    <row r="205" spans="1:25">
+      <c r="U204" s="1"/>
+      <c r="X204" s="1"/>
+    </row>
+    <row r="205" spans="1:24">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6289,10 +6197,10 @@
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
       <c r="T205" s="1"/>
-      <c r="W205" s="1"/>
-      <c r="Y205" s="1"/>
-    </row>
-    <row r="206" spans="1:25">
+      <c r="U205" s="1"/>
+      <c r="X205" s="1"/>
+    </row>
+    <row r="206" spans="1:24">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6312,10 +6220,10 @@
       <c r="R206" s="1"/>
       <c r="S206" s="1"/>
       <c r="T206" s="1"/>
-      <c r="W206" s="1"/>
-      <c r="Y206" s="1"/>
-    </row>
-    <row r="207" spans="1:25">
+      <c r="U206" s="1"/>
+      <c r="X206" s="1"/>
+    </row>
+    <row r="207" spans="1:24">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6335,10 +6243,10 @@
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
       <c r="T207" s="1"/>
-      <c r="W207" s="1"/>
-      <c r="Y207" s="1"/>
-    </row>
-    <row r="208" spans="1:25">
+      <c r="U207" s="1"/>
+      <c r="X207" s="1"/>
+    </row>
+    <row r="208" spans="1:24">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6358,10 +6266,10 @@
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
       <c r="T208" s="1"/>
-      <c r="W208" s="1"/>
-      <c r="Y208" s="1"/>
-    </row>
-    <row r="209" spans="1:25">
+      <c r="U208" s="1"/>
+      <c r="X208" s="1"/>
+    </row>
+    <row r="209" spans="1:24">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6381,10 +6289,10 @@
       <c r="R209" s="1"/>
       <c r="S209" s="1"/>
       <c r="T209" s="1"/>
-      <c r="W209" s="1"/>
-      <c r="Y209" s="1"/>
-    </row>
-    <row r="210" spans="1:25">
+      <c r="U209" s="1"/>
+      <c r="X209" s="1"/>
+    </row>
+    <row r="210" spans="1:24">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6404,10 +6312,10 @@
       <c r="R210" s="1"/>
       <c r="S210" s="1"/>
       <c r="T210" s="1"/>
-      <c r="W210" s="1"/>
-      <c r="Y210" s="1"/>
-    </row>
-    <row r="211" spans="1:25">
+      <c r="U210" s="1"/>
+      <c r="X210" s="1"/>
+    </row>
+    <row r="211" spans="1:24">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6427,10 +6335,10 @@
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
       <c r="T211" s="1"/>
-      <c r="W211" s="1"/>
-      <c r="Y211" s="1"/>
-    </row>
-    <row r="212" spans="1:25">
+      <c r="U211" s="1"/>
+      <c r="X211" s="1"/>
+    </row>
+    <row r="212" spans="1:24">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6450,10 +6358,10 @@
       <c r="R212" s="1"/>
       <c r="S212" s="1"/>
       <c r="T212" s="1"/>
-      <c r="W212" s="1"/>
-      <c r="Y212" s="1"/>
-    </row>
-    <row r="213" spans="1:25">
+      <c r="U212" s="1"/>
+      <c r="X212" s="1"/>
+    </row>
+    <row r="213" spans="1:24">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6473,10 +6381,10 @@
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
       <c r="T213" s="1"/>
-      <c r="W213" s="1"/>
-      <c r="Y213" s="1"/>
-    </row>
-    <row r="214" spans="1:25">
+      <c r="U213" s="1"/>
+      <c r="X213" s="1"/>
+    </row>
+    <row r="214" spans="1:24">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6496,10 +6404,10 @@
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
       <c r="T214" s="1"/>
-      <c r="W214" s="1"/>
-      <c r="Y214" s="1"/>
-    </row>
-    <row r="215" spans="1:25">
+      <c r="U214" s="1"/>
+      <c r="X214" s="1"/>
+    </row>
+    <row r="215" spans="1:24">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6519,10 +6427,10 @@
       <c r="R215" s="1"/>
       <c r="S215" s="1"/>
       <c r="T215" s="1"/>
-      <c r="W215" s="1"/>
-      <c r="Y215" s="1"/>
-    </row>
-    <row r="216" spans="1:25">
+      <c r="U215" s="1"/>
+      <c r="X215" s="1"/>
+    </row>
+    <row r="216" spans="1:24">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6542,10 +6450,10 @@
       <c r="R216" s="1"/>
       <c r="S216" s="1"/>
       <c r="T216" s="1"/>
-      <c r="W216" s="1"/>
-      <c r="Y216" s="1"/>
-    </row>
-    <row r="217" spans="1:25">
+      <c r="U216" s="1"/>
+      <c r="X216" s="1"/>
+    </row>
+    <row r="217" spans="1:24">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6565,10 +6473,10 @@
       <c r="R217" s="1"/>
       <c r="S217" s="1"/>
       <c r="T217" s="1"/>
-      <c r="W217" s="1"/>
-      <c r="Y217" s="1"/>
-    </row>
-    <row r="218" spans="1:25">
+      <c r="U217" s="1"/>
+      <c r="X217" s="1"/>
+    </row>
+    <row r="218" spans="1:24">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6588,10 +6496,10 @@
       <c r="R218" s="1"/>
       <c r="S218" s="1"/>
       <c r="T218" s="1"/>
-      <c r="W218" s="1"/>
-      <c r="Y218" s="1"/>
-    </row>
-    <row r="219" spans="1:25">
+      <c r="U218" s="1"/>
+      <c r="X218" s="1"/>
+    </row>
+    <row r="219" spans="1:24">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6611,10 +6519,10 @@
       <c r="R219" s="1"/>
       <c r="S219" s="1"/>
       <c r="T219" s="1"/>
-      <c r="W219" s="1"/>
-      <c r="Y219" s="1"/>
-    </row>
-    <row r="220" spans="1:25">
+      <c r="U219" s="1"/>
+      <c r="X219" s="1"/>
+    </row>
+    <row r="220" spans="1:24">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6634,10 +6542,10 @@
       <c r="R220" s="1"/>
       <c r="S220" s="1"/>
       <c r="T220" s="1"/>
-      <c r="W220" s="1"/>
-      <c r="Y220" s="1"/>
-    </row>
-    <row r="221" spans="1:25">
+      <c r="U220" s="1"/>
+      <c r="X220" s="1"/>
+    </row>
+    <row r="221" spans="1:24">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6657,10 +6565,10 @@
       <c r="R221" s="1"/>
       <c r="S221" s="1"/>
       <c r="T221" s="1"/>
-      <c r="W221" s="1"/>
-      <c r="Y221" s="1"/>
-    </row>
-    <row r="222" spans="1:25">
+      <c r="U221" s="1"/>
+      <c r="X221" s="1"/>
+    </row>
+    <row r="222" spans="1:24">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6680,10 +6588,10 @@
       <c r="R222" s="1"/>
       <c r="S222" s="1"/>
       <c r="T222" s="1"/>
-      <c r="W222" s="1"/>
-      <c r="Y222" s="1"/>
-    </row>
-    <row r="223" spans="1:25">
+      <c r="U222" s="1"/>
+      <c r="X222" s="1"/>
+    </row>
+    <row r="223" spans="1:24">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6703,10 +6611,10 @@
       <c r="R223" s="1"/>
       <c r="S223" s="1"/>
       <c r="T223" s="1"/>
-      <c r="W223" s="1"/>
-      <c r="Y223" s="1"/>
-    </row>
-    <row r="224" spans="1:25">
+      <c r="U223" s="1"/>
+      <c r="X223" s="1"/>
+    </row>
+    <row r="224" spans="1:24">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6726,10 +6634,10 @@
       <c r="R224" s="1"/>
       <c r="S224" s="1"/>
       <c r="T224" s="1"/>
-      <c r="W224" s="1"/>
-      <c r="Y224" s="1"/>
-    </row>
-    <row r="225" spans="1:25">
+      <c r="U224" s="1"/>
+      <c r="X224" s="1"/>
+    </row>
+    <row r="225" spans="1:24">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6749,10 +6657,10 @@
       <c r="R225" s="1"/>
       <c r="S225" s="1"/>
       <c r="T225" s="1"/>
-      <c r="W225" s="1"/>
-      <c r="Y225" s="1"/>
-    </row>
-    <row r="226" spans="1:25">
+      <c r="U225" s="1"/>
+      <c r="X225" s="1"/>
+    </row>
+    <row r="226" spans="1:24">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6772,10 +6680,10 @@
       <c r="R226" s="1"/>
       <c r="S226" s="1"/>
       <c r="T226" s="1"/>
-      <c r="W226" s="1"/>
-      <c r="Y226" s="1"/>
-    </row>
-    <row r="227" spans="1:25">
+      <c r="U226" s="1"/>
+      <c r="X226" s="1"/>
+    </row>
+    <row r="227" spans="1:24">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6795,10 +6703,10 @@
       <c r="R227" s="1"/>
       <c r="S227" s="1"/>
       <c r="T227" s="1"/>
-      <c r="W227" s="1"/>
-      <c r="Y227" s="1"/>
-    </row>
-    <row r="228" spans="1:25">
+      <c r="U227" s="1"/>
+      <c r="X227" s="1"/>
+    </row>
+    <row r="228" spans="1:24">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6818,10 +6726,10 @@
       <c r="R228" s="1"/>
       <c r="S228" s="1"/>
       <c r="T228" s="1"/>
-      <c r="W228" s="1"/>
-      <c r="Y228" s="1"/>
-    </row>
-    <row r="229" spans="1:25">
+      <c r="U228" s="1"/>
+      <c r="X228" s="1"/>
+    </row>
+    <row r="229" spans="1:24">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6841,10 +6749,10 @@
       <c r="R229" s="1"/>
       <c r="S229" s="1"/>
       <c r="T229" s="1"/>
-      <c r="W229" s="1"/>
-      <c r="Y229" s="1"/>
-    </row>
-    <row r="230" spans="1:25">
+      <c r="U229" s="1"/>
+      <c r="X229" s="1"/>
+    </row>
+    <row r="230" spans="1:24">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -6864,10 +6772,10 @@
       <c r="R230" s="1"/>
       <c r="S230" s="1"/>
       <c r="T230" s="1"/>
-      <c r="W230" s="1"/>
-      <c r="Y230" s="1"/>
-    </row>
-    <row r="231" spans="1:25">
+      <c r="U230" s="1"/>
+      <c r="X230" s="1"/>
+    </row>
+    <row r="231" spans="1:24">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -6887,10 +6795,10 @@
       <c r="R231" s="1"/>
       <c r="S231" s="1"/>
       <c r="T231" s="1"/>
-      <c r="W231" s="1"/>
-      <c r="Y231" s="1"/>
-    </row>
-    <row r="232" spans="1:25">
+      <c r="U231" s="1"/>
+      <c r="X231" s="1"/>
+    </row>
+    <row r="232" spans="1:24">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -6910,10 +6818,10 @@
       <c r="R232" s="1"/>
       <c r="S232" s="1"/>
       <c r="T232" s="1"/>
-      <c r="W232" s="1"/>
-      <c r="Y232" s="1"/>
-    </row>
-    <row r="233" spans="1:25">
+      <c r="U232" s="1"/>
+      <c r="X232" s="1"/>
+    </row>
+    <row r="233" spans="1:24">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -6933,10 +6841,10 @@
       <c r="R233" s="1"/>
       <c r="S233" s="1"/>
       <c r="T233" s="1"/>
-      <c r="W233" s="1"/>
-      <c r="Y233" s="1"/>
-    </row>
-    <row r="234" spans="1:25">
+      <c r="U233" s="1"/>
+      <c r="X233" s="1"/>
+    </row>
+    <row r="234" spans="1:24">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -6956,10 +6864,10 @@
       <c r="R234" s="1"/>
       <c r="S234" s="1"/>
       <c r="T234" s="1"/>
-      <c r="W234" s="1"/>
-      <c r="Y234" s="1"/>
-    </row>
-    <row r="235" spans="1:25">
+      <c r="U234" s="1"/>
+      <c r="X234" s="1"/>
+    </row>
+    <row r="235" spans="1:24">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -6979,10 +6887,10 @@
       <c r="R235" s="1"/>
       <c r="S235" s="1"/>
       <c r="T235" s="1"/>
-      <c r="W235" s="1"/>
-      <c r="Y235" s="1"/>
-    </row>
-    <row r="236" spans="1:25">
+      <c r="U235" s="1"/>
+      <c r="X235" s="1"/>
+    </row>
+    <row r="236" spans="1:24">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -7002,10 +6910,10 @@
       <c r="R236" s="1"/>
       <c r="S236" s="1"/>
       <c r="T236" s="1"/>
-      <c r="W236" s="1"/>
-      <c r="Y236" s="1"/>
-    </row>
-    <row r="237" spans="1:25">
+      <c r="U236" s="1"/>
+      <c r="X236" s="1"/>
+    </row>
+    <row r="237" spans="1:24">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -7025,10 +6933,10 @@
       <c r="R237" s="1"/>
       <c r="S237" s="1"/>
       <c r="T237" s="1"/>
-      <c r="W237" s="1"/>
-      <c r="Y237" s="1"/>
-    </row>
-    <row r="238" spans="1:25">
+      <c r="U237" s="1"/>
+      <c r="X237" s="1"/>
+    </row>
+    <row r="238" spans="1:24">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -7048,10 +6956,10 @@
       <c r="R238" s="1"/>
       <c r="S238" s="1"/>
       <c r="T238" s="1"/>
-      <c r="W238" s="1"/>
-      <c r="Y238" s="1"/>
-    </row>
-    <row r="239" spans="1:25">
+      <c r="U238" s="1"/>
+      <c r="X238" s="1"/>
+    </row>
+    <row r="239" spans="1:24">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -7071,10 +6979,10 @@
       <c r="R239" s="1"/>
       <c r="S239" s="1"/>
       <c r="T239" s="1"/>
-      <c r="W239" s="1"/>
-      <c r="Y239" s="1"/>
-    </row>
-    <row r="240" spans="1:25">
+      <c r="U239" s="1"/>
+      <c r="X239" s="1"/>
+    </row>
+    <row r="240" spans="1:24">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7094,10 +7002,10 @@
       <c r="R240" s="1"/>
       <c r="S240" s="1"/>
       <c r="T240" s="1"/>
-      <c r="W240" s="1"/>
-      <c r="Y240" s="1"/>
-    </row>
-    <row r="241" spans="1:25">
+      <c r="U240" s="1"/>
+      <c r="X240" s="1"/>
+    </row>
+    <row r="241" spans="1:24">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7117,10 +7025,10 @@
       <c r="R241" s="1"/>
       <c r="S241" s="1"/>
       <c r="T241" s="1"/>
-      <c r="W241" s="1"/>
-      <c r="Y241" s="1"/>
-    </row>
-    <row r="242" spans="1:25">
+      <c r="U241" s="1"/>
+      <c r="X241" s="1"/>
+    </row>
+    <row r="242" spans="1:24">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7140,10 +7048,10 @@
       <c r="R242" s="1"/>
       <c r="S242" s="1"/>
       <c r="T242" s="1"/>
-      <c r="W242" s="1"/>
-      <c r="Y242" s="1"/>
-    </row>
-    <row r="243" spans="1:25">
+      <c r="U242" s="1"/>
+      <c r="X242" s="1"/>
+    </row>
+    <row r="243" spans="1:24">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -7163,10 +7071,10 @@
       <c r="R243" s="1"/>
       <c r="S243" s="1"/>
       <c r="T243" s="1"/>
-      <c r="W243" s="1"/>
-      <c r="Y243" s="1"/>
-    </row>
-    <row r="244" spans="1:25">
+      <c r="U243" s="1"/>
+      <c r="X243" s="1"/>
+    </row>
+    <row r="244" spans="1:24">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -7186,10 +7094,10 @@
       <c r="R244" s="1"/>
       <c r="S244" s="1"/>
       <c r="T244" s="1"/>
-      <c r="W244" s="1"/>
-      <c r="Y244" s="1"/>
-    </row>
-    <row r="245" spans="1:25">
+      <c r="U244" s="1"/>
+      <c r="X244" s="1"/>
+    </row>
+    <row r="245" spans="1:24">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -7209,10 +7117,10 @@
       <c r="R245" s="1"/>
       <c r="S245" s="1"/>
       <c r="T245" s="1"/>
-      <c r="W245" s="1"/>
-      <c r="Y245" s="1"/>
-    </row>
-    <row r="246" spans="1:25">
+      <c r="U245" s="1"/>
+      <c r="X245" s="1"/>
+    </row>
+    <row r="246" spans="1:24">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -7232,10 +7140,10 @@
       <c r="R246" s="1"/>
       <c r="S246" s="1"/>
       <c r="T246" s="1"/>
-      <c r="W246" s="1"/>
-      <c r="Y246" s="1"/>
-    </row>
-    <row r="247" spans="1:25">
+      <c r="U246" s="1"/>
+      <c r="X246" s="1"/>
+    </row>
+    <row r="247" spans="1:24">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -7255,10 +7163,10 @@
       <c r="R247" s="1"/>
       <c r="S247" s="1"/>
       <c r="T247" s="1"/>
-      <c r="W247" s="1"/>
-      <c r="Y247" s="1"/>
-    </row>
-    <row r="248" spans="1:25">
+      <c r="U247" s="1"/>
+      <c r="X247" s="1"/>
+    </row>
+    <row r="248" spans="1:24">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -7278,10 +7186,10 @@
       <c r="R248" s="1"/>
       <c r="S248" s="1"/>
       <c r="T248" s="1"/>
-      <c r="W248" s="1"/>
-      <c r="Y248" s="1"/>
-    </row>
-    <row r="249" spans="1:25">
+      <c r="U248" s="1"/>
+      <c r="X248" s="1"/>
+    </row>
+    <row r="249" spans="1:24">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -7301,10 +7209,10 @@
       <c r="R249" s="1"/>
       <c r="S249" s="1"/>
       <c r="T249" s="1"/>
-      <c r="W249" s="1"/>
-      <c r="Y249" s="1"/>
-    </row>
-    <row r="250" spans="1:25">
+      <c r="U249" s="1"/>
+      <c r="X249" s="1"/>
+    </row>
+    <row r="250" spans="1:24">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -7324,10 +7232,10 @@
       <c r="R250" s="1"/>
       <c r="S250" s="1"/>
       <c r="T250" s="1"/>
-      <c r="W250" s="1"/>
-      <c r="Y250" s="1"/>
-    </row>
-    <row r="251" spans="1:25">
+      <c r="U250" s="1"/>
+      <c r="X250" s="1"/>
+    </row>
+    <row r="251" spans="1:24">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -7347,10 +7255,10 @@
       <c r="R251" s="1"/>
       <c r="S251" s="1"/>
       <c r="T251" s="1"/>
-      <c r="W251" s="1"/>
-      <c r="Y251" s="1"/>
-    </row>
-    <row r="252" spans="1:25">
+      <c r="U251" s="1"/>
+      <c r="X251" s="1"/>
+    </row>
+    <row r="252" spans="1:24">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -7370,10 +7278,10 @@
       <c r="R252" s="1"/>
       <c r="S252" s="1"/>
       <c r="T252" s="1"/>
-      <c r="W252" s="1"/>
-      <c r="Y252" s="1"/>
-    </row>
-    <row r="253" spans="1:25">
+      <c r="U252" s="1"/>
+      <c r="X252" s="1"/>
+    </row>
+    <row r="253" spans="1:24">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -7393,10 +7301,10 @@
       <c r="R253" s="1"/>
       <c r="S253" s="1"/>
       <c r="T253" s="1"/>
-      <c r="W253" s="1"/>
-      <c r="Y253" s="1"/>
-    </row>
-    <row r="254" spans="1:25">
+      <c r="U253" s="1"/>
+      <c r="X253" s="1"/>
+    </row>
+    <row r="254" spans="1:24">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -7416,10 +7324,10 @@
       <c r="R254" s="1"/>
       <c r="S254" s="1"/>
       <c r="T254" s="1"/>
-      <c r="W254" s="1"/>
-      <c r="Y254" s="1"/>
-    </row>
-    <row r="255" spans="1:25">
+      <c r="U254" s="1"/>
+      <c r="X254" s="1"/>
+    </row>
+    <row r="255" spans="1:24">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -7439,10 +7347,10 @@
       <c r="R255" s="1"/>
       <c r="S255" s="1"/>
       <c r="T255" s="1"/>
-      <c r="W255" s="1"/>
-      <c r="Y255" s="1"/>
-    </row>
-    <row r="256" spans="1:25">
+      <c r="U255" s="1"/>
+      <c r="X255" s="1"/>
+    </row>
+    <row r="256" spans="1:24">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -7462,10 +7370,10 @@
       <c r="R256" s="1"/>
       <c r="S256" s="1"/>
       <c r="T256" s="1"/>
-      <c r="W256" s="1"/>
-      <c r="Y256" s="1"/>
-    </row>
-    <row r="257" spans="1:25">
+      <c r="U256" s="1"/>
+      <c r="X256" s="1"/>
+    </row>
+    <row r="257" spans="1:24">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -7485,10 +7393,10 @@
       <c r="R257" s="1"/>
       <c r="S257" s="1"/>
       <c r="T257" s="1"/>
-      <c r="W257" s="1"/>
-      <c r="Y257" s="1"/>
-    </row>
-    <row r="258" spans="1:25">
+      <c r="U257" s="1"/>
+      <c r="X257" s="1"/>
+    </row>
+    <row r="258" spans="1:24">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -7508,10 +7416,10 @@
       <c r="R258" s="1"/>
       <c r="S258" s="1"/>
       <c r="T258" s="1"/>
-      <c r="W258" s="1"/>
-      <c r="Y258" s="1"/>
-    </row>
-    <row r="259" spans="1:25">
+      <c r="U258" s="1"/>
+      <c r="X258" s="1"/>
+    </row>
+    <row r="259" spans="1:24">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -7531,10 +7439,10 @@
       <c r="R259" s="1"/>
       <c r="S259" s="1"/>
       <c r="T259" s="1"/>
-      <c r="W259" s="1"/>
-      <c r="Y259" s="1"/>
-    </row>
-    <row r="260" spans="1:25">
+      <c r="U259" s="1"/>
+      <c r="X259" s="1"/>
+    </row>
+    <row r="260" spans="1:24">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -7554,10 +7462,10 @@
       <c r="R260" s="1"/>
       <c r="S260" s="1"/>
       <c r="T260" s="1"/>
-      <c r="W260" s="1"/>
-      <c r="Y260" s="1"/>
-    </row>
-    <row r="261" spans="1:25">
+      <c r="U260" s="1"/>
+      <c r="X260" s="1"/>
+    </row>
+    <row r="261" spans="1:24">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -7577,10 +7485,10 @@
       <c r="R261" s="1"/>
       <c r="S261" s="1"/>
       <c r="T261" s="1"/>
-      <c r="W261" s="1"/>
-      <c r="Y261" s="1"/>
-    </row>
-    <row r="262" spans="1:25">
+      <c r="U261" s="1"/>
+      <c r="X261" s="1"/>
+    </row>
+    <row r="262" spans="1:24">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -7600,10 +7508,10 @@
       <c r="R262" s="1"/>
       <c r="S262" s="1"/>
       <c r="T262" s="1"/>
-      <c r="W262" s="1"/>
-      <c r="Y262" s="1"/>
-    </row>
-    <row r="263" spans="1:25">
+      <c r="U262" s="1"/>
+      <c r="X262" s="1"/>
+    </row>
+    <row r="263" spans="1:24">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -7623,10 +7531,10 @@
       <c r="R263" s="1"/>
       <c r="S263" s="1"/>
       <c r="T263" s="1"/>
-      <c r="W263" s="1"/>
-      <c r="Y263" s="1"/>
-    </row>
-    <row r="264" spans="1:25">
+      <c r="U263" s="1"/>
+      <c r="X263" s="1"/>
+    </row>
+    <row r="264" spans="1:24">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -7646,10 +7554,10 @@
       <c r="R264" s="1"/>
       <c r="S264" s="1"/>
       <c r="T264" s="1"/>
-      <c r="W264" s="1"/>
-      <c r="Y264" s="1"/>
-    </row>
-    <row r="265" spans="1:25">
+      <c r="U264" s="1"/>
+      <c r="X264" s="1"/>
+    </row>
+    <row r="265" spans="1:24">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -7669,10 +7577,10 @@
       <c r="R265" s="1"/>
       <c r="S265" s="1"/>
       <c r="T265" s="1"/>
-      <c r="W265" s="1"/>
-      <c r="Y265" s="1"/>
-    </row>
-    <row r="266" spans="1:25">
+      <c r="U265" s="1"/>
+      <c r="X265" s="1"/>
+    </row>
+    <row r="266" spans="1:24">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -7692,10 +7600,10 @@
       <c r="R266" s="1"/>
       <c r="S266" s="1"/>
       <c r="T266" s="1"/>
-      <c r="W266" s="1"/>
-      <c r="Y266" s="1"/>
-    </row>
-    <row r="267" spans="1:25">
+      <c r="U266" s="1"/>
+      <c r="X266" s="1"/>
+    </row>
+    <row r="267" spans="1:24">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -7715,10 +7623,10 @@
       <c r="R267" s="1"/>
       <c r="S267" s="1"/>
       <c r="T267" s="1"/>
-      <c r="W267" s="1"/>
-      <c r="Y267" s="1"/>
-    </row>
-    <row r="268" spans="1:25">
+      <c r="U267" s="1"/>
+      <c r="X267" s="1"/>
+    </row>
+    <row r="268" spans="1:24">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -7738,10 +7646,10 @@
       <c r="R268" s="1"/>
       <c r="S268" s="1"/>
       <c r="T268" s="1"/>
-      <c r="W268" s="1"/>
-      <c r="Y268" s="1"/>
-    </row>
-    <row r="269" spans="1:25">
+      <c r="U268" s="1"/>
+      <c r="X268" s="1"/>
+    </row>
+    <row r="269" spans="1:24">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -7761,10 +7669,10 @@
       <c r="R269" s="1"/>
       <c r="S269" s="1"/>
       <c r="T269" s="1"/>
-      <c r="W269" s="1"/>
-      <c r="Y269" s="1"/>
-    </row>
-    <row r="270" spans="1:25">
+      <c r="U269" s="1"/>
+      <c r="X269" s="1"/>
+    </row>
+    <row r="270" spans="1:24">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -7784,10 +7692,10 @@
       <c r="R270" s="1"/>
       <c r="S270" s="1"/>
       <c r="T270" s="1"/>
-      <c r="W270" s="1"/>
-      <c r="Y270" s="1"/>
-    </row>
-    <row r="271" spans="1:25">
+      <c r="U270" s="1"/>
+      <c r="X270" s="1"/>
+    </row>
+    <row r="271" spans="1:24">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -7807,10 +7715,10 @@
       <c r="R271" s="1"/>
       <c r="S271" s="1"/>
       <c r="T271" s="1"/>
-      <c r="W271" s="1"/>
-      <c r="Y271" s="1"/>
-    </row>
-    <row r="272" spans="1:25">
+      <c r="U271" s="1"/>
+      <c r="X271" s="1"/>
+    </row>
+    <row r="272" spans="1:24">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -7830,10 +7738,10 @@
       <c r="R272" s="1"/>
       <c r="S272" s="1"/>
       <c r="T272" s="1"/>
-      <c r="W272" s="1"/>
-      <c r="Y272" s="1"/>
-    </row>
-    <row r="273" spans="1:25">
+      <c r="U272" s="1"/>
+      <c r="X272" s="1"/>
+    </row>
+    <row r="273" spans="1:24">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -7853,10 +7761,10 @@
       <c r="R273" s="1"/>
       <c r="S273" s="1"/>
       <c r="T273" s="1"/>
-      <c r="W273" s="1"/>
-      <c r="Y273" s="1"/>
-    </row>
-    <row r="274" spans="1:25">
+      <c r="U273" s="1"/>
+      <c r="X273" s="1"/>
+    </row>
+    <row r="274" spans="1:24">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -7876,10 +7784,10 @@
       <c r="R274" s="1"/>
       <c r="S274" s="1"/>
       <c r="T274" s="1"/>
-      <c r="W274" s="1"/>
-      <c r="Y274" s="1"/>
-    </row>
-    <row r="275" spans="1:25">
+      <c r="U274" s="1"/>
+      <c r="X274" s="1"/>
+    </row>
+    <row r="275" spans="1:24">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -7899,10 +7807,10 @@
       <c r="R275" s="1"/>
       <c r="S275" s="1"/>
       <c r="T275" s="1"/>
-      <c r="W275" s="1"/>
-      <c r="Y275" s="1"/>
-    </row>
-    <row r="276" spans="1:25">
+      <c r="U275" s="1"/>
+      <c r="X275" s="1"/>
+    </row>
+    <row r="276" spans="1:24">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -7922,10 +7830,10 @@
       <c r="R276" s="1"/>
       <c r="S276" s="1"/>
       <c r="T276" s="1"/>
-      <c r="W276" s="1"/>
-      <c r="Y276" s="1"/>
-    </row>
-    <row r="277" spans="1:25">
+      <c r="U276" s="1"/>
+      <c r="X276" s="1"/>
+    </row>
+    <row r="277" spans="1:24">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -7945,10 +7853,10 @@
       <c r="R277" s="1"/>
       <c r="S277" s="1"/>
       <c r="T277" s="1"/>
-      <c r="W277" s="1"/>
-      <c r="Y277" s="1"/>
-    </row>
-    <row r="278" spans="1:25">
+      <c r="U277" s="1"/>
+      <c r="X277" s="1"/>
+    </row>
+    <row r="278" spans="1:24">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -7968,10 +7876,10 @@
       <c r="R278" s="1"/>
       <c r="S278" s="1"/>
       <c r="T278" s="1"/>
-      <c r="W278" s="1"/>
-      <c r="Y278" s="1"/>
-    </row>
-    <row r="279" spans="1:25">
+      <c r="U278" s="1"/>
+      <c r="X278" s="1"/>
+    </row>
+    <row r="279" spans="1:24">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -7991,10 +7899,10 @@
       <c r="R279" s="1"/>
       <c r="S279" s="1"/>
       <c r="T279" s="1"/>
-      <c r="W279" s="1"/>
-      <c r="Y279" s="1"/>
-    </row>
-    <row r="280" spans="1:25">
+      <c r="U279" s="1"/>
+      <c r="X279" s="1"/>
+    </row>
+    <row r="280" spans="1:24">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -8014,10 +7922,10 @@
       <c r="R280" s="1"/>
       <c r="S280" s="1"/>
       <c r="T280" s="1"/>
-      <c r="W280" s="1"/>
-      <c r="Y280" s="1"/>
-    </row>
-    <row r="281" spans="1:25">
+      <c r="U280" s="1"/>
+      <c r="X280" s="1"/>
+    </row>
+    <row r="281" spans="1:24">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -8037,10 +7945,10 @@
       <c r="R281" s="1"/>
       <c r="S281" s="1"/>
       <c r="T281" s="1"/>
-      <c r="W281" s="1"/>
-      <c r="Y281" s="1"/>
-    </row>
-    <row r="282" spans="1:25">
+      <c r="U281" s="1"/>
+      <c r="X281" s="1"/>
+    </row>
+    <row r="282" spans="1:24">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -8060,10 +7968,10 @@
       <c r="R282" s="1"/>
       <c r="S282" s="1"/>
       <c r="T282" s="1"/>
-      <c r="W282" s="1"/>
-      <c r="Y282" s="1"/>
-    </row>
-    <row r="283" spans="1:25">
+      <c r="U282" s="1"/>
+      <c r="X282" s="1"/>
+    </row>
+    <row r="283" spans="1:24">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -8083,10 +7991,10 @@
       <c r="R283" s="1"/>
       <c r="S283" s="1"/>
       <c r="T283" s="1"/>
-      <c r="W283" s="1"/>
-      <c r="Y283" s="1"/>
-    </row>
-    <row r="284" spans="1:25">
+      <c r="U283" s="1"/>
+      <c r="X283" s="1"/>
+    </row>
+    <row r="284" spans="1:24">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -8106,10 +8014,10 @@
       <c r="R284" s="1"/>
       <c r="S284" s="1"/>
       <c r="T284" s="1"/>
-      <c r="W284" s="1"/>
-      <c r="Y284" s="1"/>
-    </row>
-    <row r="285" spans="1:25">
+      <c r="U284" s="1"/>
+      <c r="X284" s="1"/>
+    </row>
+    <row r="285" spans="1:24">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -8129,10 +8037,10 @@
       <c r="R285" s="1"/>
       <c r="S285" s="1"/>
       <c r="T285" s="1"/>
-      <c r="W285" s="1"/>
-      <c r="Y285" s="1"/>
-    </row>
-    <row r="286" spans="1:25">
+      <c r="U285" s="1"/>
+      <c r="X285" s="1"/>
+    </row>
+    <row r="286" spans="1:24">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -8152,10 +8060,10 @@
       <c r="R286" s="1"/>
       <c r="S286" s="1"/>
       <c r="T286" s="1"/>
-      <c r="W286" s="1"/>
-      <c r="Y286" s="1"/>
-    </row>
-    <row r="287" spans="1:25">
+      <c r="U286" s="1"/>
+      <c r="X286" s="1"/>
+    </row>
+    <row r="287" spans="1:24">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -8175,10 +8083,10 @@
       <c r="R287" s="1"/>
       <c r="S287" s="1"/>
       <c r="T287" s="1"/>
-      <c r="W287" s="1"/>
-      <c r="Y287" s="1"/>
-    </row>
-    <row r="288" spans="1:25">
+      <c r="U287" s="1"/>
+      <c r="X287" s="1"/>
+    </row>
+    <row r="288" spans="1:24">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -8198,10 +8106,10 @@
       <c r="R288" s="1"/>
       <c r="S288" s="1"/>
       <c r="T288" s="1"/>
-      <c r="W288" s="1"/>
-      <c r="Y288" s="1"/>
-    </row>
-    <row r="289" spans="1:25">
+      <c r="U288" s="1"/>
+      <c r="X288" s="1"/>
+    </row>
+    <row r="289" spans="1:24">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -8221,10 +8129,10 @@
       <c r="R289" s="1"/>
       <c r="S289" s="1"/>
       <c r="T289" s="1"/>
-      <c r="W289" s="1"/>
-      <c r="Y289" s="1"/>
-    </row>
-    <row r="290" spans="1:25">
+      <c r="U289" s="1"/>
+      <c r="X289" s="1"/>
+    </row>
+    <row r="290" spans="1:24">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -8244,10 +8152,10 @@
       <c r="R290" s="1"/>
       <c r="S290" s="1"/>
       <c r="T290" s="1"/>
-      <c r="W290" s="1"/>
-      <c r="Y290" s="1"/>
-    </row>
-    <row r="291" spans="1:25">
+      <c r="U290" s="1"/>
+      <c r="X290" s="1"/>
+    </row>
+    <row r="291" spans="1:24">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -8267,10 +8175,10 @@
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
       <c r="T291" s="1"/>
-      <c r="W291" s="1"/>
-      <c r="Y291" s="1"/>
-    </row>
-    <row r="292" spans="1:25">
+      <c r="U291" s="1"/>
+      <c r="X291" s="1"/>
+    </row>
+    <row r="292" spans="1:24">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -8290,10 +8198,10 @@
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
       <c r="T292" s="1"/>
-      <c r="W292" s="1"/>
-      <c r="Y292" s="1"/>
-    </row>
-    <row r="293" spans="1:25">
+      <c r="U292" s="1"/>
+      <c r="X292" s="1"/>
+    </row>
+    <row r="293" spans="1:24">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -8313,10 +8221,10 @@
       <c r="R293" s="1"/>
       <c r="S293" s="1"/>
       <c r="T293" s="1"/>
-      <c r="W293" s="1"/>
-      <c r="Y293" s="1"/>
-    </row>
-    <row r="294" spans="1:25">
+      <c r="U293" s="1"/>
+      <c r="X293" s="1"/>
+    </row>
+    <row r="294" spans="1:24">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -8336,10 +8244,10 @@
       <c r="R294" s="1"/>
       <c r="S294" s="1"/>
       <c r="T294" s="1"/>
-      <c r="W294" s="1"/>
-      <c r="Y294" s="1"/>
-    </row>
-    <row r="295" spans="1:25">
+      <c r="U294" s="1"/>
+      <c r="X294" s="1"/>
+    </row>
+    <row r="295" spans="1:24">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -8359,10 +8267,10 @@
       <c r="R295" s="1"/>
       <c r="S295" s="1"/>
       <c r="T295" s="1"/>
-      <c r="W295" s="1"/>
-      <c r="Y295" s="1"/>
-    </row>
-    <row r="296" spans="1:25">
+      <c r="U295" s="1"/>
+      <c r="X295" s="1"/>
+    </row>
+    <row r="296" spans="1:24">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -8382,10 +8290,10 @@
       <c r="R296" s="1"/>
       <c r="S296" s="1"/>
       <c r="T296" s="1"/>
-      <c r="W296" s="1"/>
-      <c r="Y296" s="1"/>
-    </row>
-    <row r="297" spans="1:25">
+      <c r="U296" s="1"/>
+      <c r="X296" s="1"/>
+    </row>
+    <row r="297" spans="1:24">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -8405,10 +8313,10 @@
       <c r="R297" s="1"/>
       <c r="S297" s="1"/>
       <c r="T297" s="1"/>
-      <c r="W297" s="1"/>
-      <c r="Y297" s="1"/>
-    </row>
-    <row r="298" spans="1:25">
+      <c r="U297" s="1"/>
+      <c r="X297" s="1"/>
+    </row>
+    <row r="298" spans="1:24">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -8428,10 +8336,10 @@
       <c r="R298" s="1"/>
       <c r="S298" s="1"/>
       <c r="T298" s="1"/>
-      <c r="W298" s="1"/>
-      <c r="Y298" s="1"/>
-    </row>
-    <row r="299" spans="1:25">
+      <c r="U298" s="1"/>
+      <c r="X298" s="1"/>
+    </row>
+    <row r="299" spans="1:24">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -8451,10 +8359,10 @@
       <c r="R299" s="1"/>
       <c r="S299" s="1"/>
       <c r="T299" s="1"/>
-      <c r="W299" s="1"/>
-      <c r="Y299" s="1"/>
-    </row>
-    <row r="300" spans="1:25">
+      <c r="U299" s="1"/>
+      <c r="X299" s="1"/>
+    </row>
+    <row r="300" spans="1:24">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -8474,10 +8382,10 @@
       <c r="R300" s="1"/>
       <c r="S300" s="1"/>
       <c r="T300" s="1"/>
-      <c r="W300" s="1"/>
-      <c r="Y300" s="1"/>
-    </row>
-    <row r="301" spans="1:25">
+      <c r="U300" s="1"/>
+      <c r="X300" s="1"/>
+    </row>
+    <row r="301" spans="1:24">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -8497,10 +8405,10 @@
       <c r="R301" s="1"/>
       <c r="S301" s="1"/>
       <c r="T301" s="1"/>
-      <c r="W301" s="1"/>
-      <c r="Y301" s="1"/>
-    </row>
-    <row r="302" spans="1:25">
+      <c r="U301" s="1"/>
+      <c r="X301" s="1"/>
+    </row>
+    <row r="302" spans="1:24">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -8520,10 +8428,10 @@
       <c r="R302" s="1"/>
       <c r="S302" s="1"/>
       <c r="T302" s="1"/>
-      <c r="W302" s="1"/>
-      <c r="Y302" s="1"/>
-    </row>
-    <row r="303" spans="1:25">
+      <c r="U302" s="1"/>
+      <c r="X302" s="1"/>
+    </row>
+    <row r="303" spans="1:24">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -8543,10 +8451,10 @@
       <c r="R303" s="1"/>
       <c r="S303" s="1"/>
       <c r="T303" s="1"/>
-      <c r="W303" s="1"/>
-      <c r="Y303" s="1"/>
-    </row>
-    <row r="304" spans="1:25">
+      <c r="U303" s="1"/>
+      <c r="X303" s="1"/>
+    </row>
+    <row r="304" spans="1:24">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -8566,10 +8474,10 @@
       <c r="R304" s="1"/>
       <c r="S304" s="1"/>
       <c r="T304" s="1"/>
-      <c r="W304" s="1"/>
-      <c r="Y304" s="1"/>
-    </row>
-    <row r="305" spans="1:25">
+      <c r="U304" s="1"/>
+      <c r="X304" s="1"/>
+    </row>
+    <row r="305" spans="1:24">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -8589,10 +8497,10 @@
       <c r="R305" s="1"/>
       <c r="S305" s="1"/>
       <c r="T305" s="1"/>
-      <c r="W305" s="1"/>
-      <c r="Y305" s="1"/>
-    </row>
-    <row r="306" spans="1:25">
+      <c r="U305" s="1"/>
+      <c r="X305" s="1"/>
+    </row>
+    <row r="306" spans="1:24">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -8612,10 +8520,10 @@
       <c r="R306" s="1"/>
       <c r="S306" s="1"/>
       <c r="T306" s="1"/>
-      <c r="W306" s="1"/>
-      <c r="Y306" s="1"/>
-    </row>
-    <row r="307" spans="1:25">
+      <c r="U306" s="1"/>
+      <c r="X306" s="1"/>
+    </row>
+    <row r="307" spans="1:24">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -8635,10 +8543,10 @@
       <c r="R307" s="1"/>
       <c r="S307" s="1"/>
       <c r="T307" s="1"/>
-      <c r="W307" s="1"/>
-      <c r="Y307" s="1"/>
-    </row>
-    <row r="308" spans="1:25">
+      <c r="U307" s="1"/>
+      <c r="X307" s="1"/>
+    </row>
+    <row r="308" spans="1:24">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -8658,10 +8566,10 @@
       <c r="R308" s="1"/>
       <c r="S308" s="1"/>
       <c r="T308" s="1"/>
-      <c r="W308" s="1"/>
-      <c r="Y308" s="1"/>
-    </row>
-    <row r="309" spans="1:25">
+      <c r="U308" s="1"/>
+      <c r="X308" s="1"/>
+    </row>
+    <row r="309" spans="1:24">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -8681,10 +8589,10 @@
       <c r="R309" s="1"/>
       <c r="S309" s="1"/>
       <c r="T309" s="1"/>
-      <c r="W309" s="1"/>
-      <c r="Y309" s="1"/>
-    </row>
-    <row r="310" spans="1:25">
+      <c r="U309" s="1"/>
+      <c r="X309" s="1"/>
+    </row>
+    <row r="310" spans="1:24">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -8704,10 +8612,10 @@
       <c r="R310" s="1"/>
       <c r="S310" s="1"/>
       <c r="T310" s="1"/>
-      <c r="W310" s="1"/>
-      <c r="Y310" s="1"/>
-    </row>
-    <row r="311" spans="1:25">
+      <c r="U310" s="1"/>
+      <c r="X310" s="1"/>
+    </row>
+    <row r="311" spans="1:24">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -8727,10 +8635,10 @@
       <c r="R311" s="1"/>
       <c r="S311" s="1"/>
       <c r="T311" s="1"/>
-      <c r="W311" s="1"/>
-      <c r="Y311" s="1"/>
-    </row>
-    <row r="312" spans="1:25">
+      <c r="U311" s="1"/>
+      <c r="X311" s="1"/>
+    </row>
+    <row r="312" spans="1:24">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -8750,10 +8658,10 @@
       <c r="R312" s="1"/>
       <c r="S312" s="1"/>
       <c r="T312" s="1"/>
-      <c r="W312" s="1"/>
-      <c r="Y312" s="1"/>
-    </row>
-    <row r="313" spans="1:25">
+      <c r="U312" s="1"/>
+      <c r="X312" s="1"/>
+    </row>
+    <row r="313" spans="1:24">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -8773,10 +8681,10 @@
       <c r="R313" s="1"/>
       <c r="S313" s="1"/>
       <c r="T313" s="1"/>
-      <c r="W313" s="1"/>
-      <c r="Y313" s="1"/>
-    </row>
-    <row r="314" spans="1:25">
+      <c r="U313" s="1"/>
+      <c r="X313" s="1"/>
+    </row>
+    <row r="314" spans="1:24">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -8796,10 +8704,10 @@
       <c r="R314" s="1"/>
       <c r="S314" s="1"/>
       <c r="T314" s="1"/>
-      <c r="W314" s="1"/>
-      <c r="Y314" s="1"/>
-    </row>
-    <row r="315" spans="1:25">
+      <c r="U314" s="1"/>
+      <c r="X314" s="1"/>
+    </row>
+    <row r="315" spans="1:24">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -8819,10 +8727,10 @@
       <c r="R315" s="1"/>
       <c r="S315" s="1"/>
       <c r="T315" s="1"/>
-      <c r="W315" s="1"/>
-      <c r="Y315" s="1"/>
-    </row>
-    <row r="316" spans="1:25">
+      <c r="U315" s="1"/>
+      <c r="X315" s="1"/>
+    </row>
+    <row r="316" spans="1:24">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -8842,10 +8750,10 @@
       <c r="R316" s="1"/>
       <c r="S316" s="1"/>
       <c r="T316" s="1"/>
-      <c r="W316" s="1"/>
-      <c r="Y316" s="1"/>
-    </row>
-    <row r="317" spans="1:25">
+      <c r="U316" s="1"/>
+      <c r="X316" s="1"/>
+    </row>
+    <row r="317" spans="1:24">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -8865,10 +8773,10 @@
       <c r="R317" s="1"/>
       <c r="S317" s="1"/>
       <c r="T317" s="1"/>
-      <c r="W317" s="1"/>
-      <c r="Y317" s="1"/>
-    </row>
-    <row r="318" spans="1:25">
+      <c r="U317" s="1"/>
+      <c r="X317" s="1"/>
+    </row>
+    <row r="318" spans="1:24">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -8888,10 +8796,10 @@
       <c r="R318" s="1"/>
       <c r="S318" s="1"/>
       <c r="T318" s="1"/>
-      <c r="W318" s="1"/>
-      <c r="Y318" s="1"/>
-    </row>
-    <row r="319" spans="1:25">
+      <c r="U318" s="1"/>
+      <c r="X318" s="1"/>
+    </row>
+    <row r="319" spans="1:24">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -8911,10 +8819,10 @@
       <c r="R319" s="1"/>
       <c r="S319" s="1"/>
       <c r="T319" s="1"/>
-      <c r="W319" s="1"/>
-      <c r="Y319" s="1"/>
-    </row>
-    <row r="320" spans="1:25">
+      <c r="U319" s="1"/>
+      <c r="X319" s="1"/>
+    </row>
+    <row r="320" spans="1:24">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -8934,10 +8842,10 @@
       <c r="R320" s="1"/>
       <c r="S320" s="1"/>
       <c r="T320" s="1"/>
-      <c r="W320" s="1"/>
-      <c r="Y320" s="1"/>
-    </row>
-    <row r="321" spans="1:25">
+      <c r="U320" s="1"/>
+      <c r="X320" s="1"/>
+    </row>
+    <row r="321" spans="1:24">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -8957,10 +8865,10 @@
       <c r="R321" s="1"/>
       <c r="S321" s="1"/>
       <c r="T321" s="1"/>
-      <c r="W321" s="1"/>
-      <c r="Y321" s="1"/>
-    </row>
-    <row r="322" spans="1:25">
+      <c r="U321" s="1"/>
+      <c r="X321" s="1"/>
+    </row>
+    <row r="322" spans="1:24">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -8980,10 +8888,10 @@
       <c r="R322" s="1"/>
       <c r="S322" s="1"/>
       <c r="T322" s="1"/>
-      <c r="W322" s="1"/>
-      <c r="Y322" s="1"/>
-    </row>
-    <row r="323" spans="1:25">
+      <c r="U322" s="1"/>
+      <c r="X322" s="1"/>
+    </row>
+    <row r="323" spans="1:24">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -9003,10 +8911,10 @@
       <c r="R323" s="1"/>
       <c r="S323" s="1"/>
       <c r="T323" s="1"/>
-      <c r="W323" s="1"/>
-      <c r="Y323" s="1"/>
-    </row>
-    <row r="324" spans="1:25">
+      <c r="U323" s="1"/>
+      <c r="X323" s="1"/>
+    </row>
+    <row r="324" spans="1:24">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -9026,10 +8934,10 @@
       <c r="R324" s="1"/>
       <c r="S324" s="1"/>
       <c r="T324" s="1"/>
-      <c r="W324" s="1"/>
-      <c r="Y324" s="1"/>
-    </row>
-    <row r="325" spans="1:25">
+      <c r="U324" s="1"/>
+      <c r="X324" s="1"/>
+    </row>
+    <row r="325" spans="1:24">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -9049,10 +8957,10 @@
       <c r="R325" s="1"/>
       <c r="S325" s="1"/>
       <c r="T325" s="1"/>
-      <c r="W325" s="1"/>
-      <c r="Y325" s="1"/>
-    </row>
-    <row r="326" spans="1:25">
+      <c r="U325" s="1"/>
+      <c r="X325" s="1"/>
+    </row>
+    <row r="326" spans="1:24">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -9072,10 +8980,10 @@
       <c r="R326" s="1"/>
       <c r="S326" s="1"/>
       <c r="T326" s="1"/>
-      <c r="W326" s="1"/>
-      <c r="Y326" s="1"/>
-    </row>
-    <row r="327" spans="1:25">
+      <c r="U326" s="1"/>
+      <c r="X326" s="1"/>
+    </row>
+    <row r="327" spans="1:24">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -9095,10 +9003,10 @@
       <c r="R327" s="1"/>
       <c r="S327" s="1"/>
       <c r="T327" s="1"/>
-      <c r="W327" s="1"/>
-      <c r="Y327" s="1"/>
-    </row>
-    <row r="328" spans="1:25">
+      <c r="U327" s="1"/>
+      <c r="X327" s="1"/>
+    </row>
+    <row r="328" spans="1:24">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -9118,10 +9026,10 @@
       <c r="R328" s="1"/>
       <c r="S328" s="1"/>
       <c r="T328" s="1"/>
-      <c r="W328" s="1"/>
-      <c r="Y328" s="1"/>
-    </row>
-    <row r="329" spans="1:25">
+      <c r="U328" s="1"/>
+      <c r="X328" s="1"/>
+    </row>
+    <row r="329" spans="1:24">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -9141,10 +9049,10 @@
       <c r="R329" s="1"/>
       <c r="S329" s="1"/>
       <c r="T329" s="1"/>
-      <c r="W329" s="1"/>
-      <c r="Y329" s="1"/>
-    </row>
-    <row r="330" spans="1:25">
+      <c r="U329" s="1"/>
+      <c r="X329" s="1"/>
+    </row>
+    <row r="330" spans="1:24">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -9164,10 +9072,10 @@
       <c r="R330" s="1"/>
       <c r="S330" s="1"/>
       <c r="T330" s="1"/>
-      <c r="W330" s="1"/>
-      <c r="Y330" s="1"/>
-    </row>
-    <row r="331" spans="1:25">
+      <c r="U330" s="1"/>
+      <c r="X330" s="1"/>
+    </row>
+    <row r="331" spans="1:24">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -9187,10 +9095,10 @@
       <c r="R331" s="1"/>
       <c r="S331" s="1"/>
       <c r="T331" s="1"/>
-      <c r="W331" s="1"/>
-      <c r="Y331" s="1"/>
-    </row>
-    <row r="332" spans="1:25">
+      <c r="U331" s="1"/>
+      <c r="X331" s="1"/>
+    </row>
+    <row r="332" spans="1:24">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -9210,10 +9118,10 @@
       <c r="R332" s="1"/>
       <c r="S332" s="1"/>
       <c r="T332" s="1"/>
-      <c r="W332" s="1"/>
-      <c r="Y332" s="1"/>
-    </row>
-    <row r="333" spans="1:25">
+      <c r="U332" s="1"/>
+      <c r="X332" s="1"/>
+    </row>
+    <row r="333" spans="1:24">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -9233,10 +9141,10 @@
       <c r="R333" s="1"/>
       <c r="S333" s="1"/>
       <c r="T333" s="1"/>
-      <c r="W333" s="1"/>
-      <c r="Y333" s="1"/>
-    </row>
-    <row r="334" spans="1:25">
+      <c r="U333" s="1"/>
+      <c r="X333" s="1"/>
+    </row>
+    <row r="334" spans="1:24">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -9256,10 +9164,10 @@
       <c r="R334" s="1"/>
       <c r="S334" s="1"/>
       <c r="T334" s="1"/>
-      <c r="W334" s="1"/>
-      <c r="Y334" s="1"/>
-    </row>
-    <row r="335" spans="1:25">
+      <c r="U334" s="1"/>
+      <c r="X334" s="1"/>
+    </row>
+    <row r="335" spans="1:24">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -9279,10 +9187,10 @@
       <c r="R335" s="1"/>
       <c r="S335" s="1"/>
       <c r="T335" s="1"/>
-      <c r="W335" s="1"/>
-      <c r="Y335" s="1"/>
-    </row>
-    <row r="336" spans="1:25">
+      <c r="U335" s="1"/>
+      <c r="X335" s="1"/>
+    </row>
+    <row r="336" spans="1:24">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -9302,10 +9210,10 @@
       <c r="R336" s="1"/>
       <c r="S336" s="1"/>
       <c r="T336" s="1"/>
-      <c r="W336" s="1"/>
-      <c r="Y336" s="1"/>
-    </row>
-    <row r="337" spans="1:25">
+      <c r="U336" s="1"/>
+      <c r="X336" s="1"/>
+    </row>
+    <row r="337" spans="1:24">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -9325,10 +9233,10 @@
       <c r="R337" s="1"/>
       <c r="S337" s="1"/>
       <c r="T337" s="1"/>
-      <c r="W337" s="1"/>
-      <c r="Y337" s="1"/>
-    </row>
-    <row r="338" spans="1:25">
+      <c r="U337" s="1"/>
+      <c r="X337" s="1"/>
+    </row>
+    <row r="338" spans="1:24">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -9348,10 +9256,10 @@
       <c r="R338" s="1"/>
       <c r="S338" s="1"/>
       <c r="T338" s="1"/>
-      <c r="W338" s="1"/>
-      <c r="Y338" s="1"/>
-    </row>
-    <row r="339" spans="1:25">
+      <c r="U338" s="1"/>
+      <c r="X338" s="1"/>
+    </row>
+    <row r="339" spans="1:24">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -9371,10 +9279,10 @@
       <c r="R339" s="1"/>
       <c r="S339" s="1"/>
       <c r="T339" s="1"/>
-      <c r="W339" s="1"/>
-      <c r="Y339" s="1"/>
-    </row>
-    <row r="340" spans="1:25">
+      <c r="U339" s="1"/>
+      <c r="X339" s="1"/>
+    </row>
+    <row r="340" spans="1:24">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -9394,10 +9302,10 @@
       <c r="R340" s="1"/>
       <c r="S340" s="1"/>
       <c r="T340" s="1"/>
-      <c r="W340" s="1"/>
-      <c r="Y340" s="1"/>
-    </row>
-    <row r="341" spans="1:25">
+      <c r="U340" s="1"/>
+      <c r="X340" s="1"/>
+    </row>
+    <row r="341" spans="1:24">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -9417,10 +9325,10 @@
       <c r="R341" s="1"/>
       <c r="S341" s="1"/>
       <c r="T341" s="1"/>
-      <c r="W341" s="1"/>
-      <c r="Y341" s="1"/>
-    </row>
-    <row r="342" spans="1:25">
+      <c r="U341" s="1"/>
+      <c r="X341" s="1"/>
+    </row>
+    <row r="342" spans="1:24">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -9440,10 +9348,10 @@
       <c r="R342" s="1"/>
       <c r="S342" s="1"/>
       <c r="T342" s="1"/>
-      <c r="W342" s="1"/>
-      <c r="Y342" s="1"/>
-    </row>
-    <row r="343" spans="1:25">
+      <c r="U342" s="1"/>
+      <c r="X342" s="1"/>
+    </row>
+    <row r="343" spans="1:24">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -9463,10 +9371,10 @@
       <c r="R343" s="1"/>
       <c r="S343" s="1"/>
       <c r="T343" s="1"/>
-      <c r="W343" s="1"/>
-      <c r="Y343" s="1"/>
-    </row>
-    <row r="344" spans="1:25">
+      <c r="U343" s="1"/>
+      <c r="X343" s="1"/>
+    </row>
+    <row r="344" spans="1:24">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -9486,10 +9394,10 @@
       <c r="R344" s="1"/>
       <c r="S344" s="1"/>
       <c r="T344" s="1"/>
-      <c r="W344" s="1"/>
-      <c r="Y344" s="1"/>
-    </row>
-    <row r="345" spans="1:25">
+      <c r="U344" s="1"/>
+      <c r="X344" s="1"/>
+    </row>
+    <row r="345" spans="1:24">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -9509,10 +9417,10 @@
       <c r="R345" s="1"/>
       <c r="S345" s="1"/>
       <c r="T345" s="1"/>
-      <c r="W345" s="1"/>
-      <c r="Y345" s="1"/>
-    </row>
-    <row r="346" spans="1:25">
+      <c r="U345" s="1"/>
+      <c r="X345" s="1"/>
+    </row>
+    <row r="346" spans="1:24">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -9532,10 +9440,10 @@
       <c r="R346" s="1"/>
       <c r="S346" s="1"/>
       <c r="T346" s="1"/>
-      <c r="W346" s="1"/>
-      <c r="Y346" s="1"/>
-    </row>
-    <row r="347" spans="1:25">
+      <c r="U346" s="1"/>
+      <c r="X346" s="1"/>
+    </row>
+    <row r="347" spans="1:24">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -9555,10 +9463,10 @@
       <c r="R347" s="1"/>
       <c r="S347" s="1"/>
       <c r="T347" s="1"/>
-      <c r="W347" s="1"/>
-      <c r="Y347" s="1"/>
-    </row>
-    <row r="348" spans="1:25">
+      <c r="U347" s="1"/>
+      <c r="X347" s="1"/>
+    </row>
+    <row r="348" spans="1:24">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -9578,10 +9486,10 @@
       <c r="R348" s="1"/>
       <c r="S348" s="1"/>
       <c r="T348" s="1"/>
-      <c r="W348" s="1"/>
-      <c r="Y348" s="1"/>
-    </row>
-    <row r="349" spans="1:25">
+      <c r="U348" s="1"/>
+      <c r="X348" s="1"/>
+    </row>
+    <row r="349" spans="1:24">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -9601,10 +9509,10 @@
       <c r="R349" s="1"/>
       <c r="S349" s="1"/>
       <c r="T349" s="1"/>
-      <c r="W349" s="1"/>
-      <c r="Y349" s="1"/>
-    </row>
-    <row r="350" spans="1:25">
+      <c r="U349" s="1"/>
+      <c r="X349" s="1"/>
+    </row>
+    <row r="350" spans="1:24">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -9624,10 +9532,10 @@
       <c r="R350" s="1"/>
       <c r="S350" s="1"/>
       <c r="T350" s="1"/>
-      <c r="W350" s="1"/>
-      <c r="Y350" s="1"/>
-    </row>
-    <row r="351" spans="1:25">
+      <c r="U350" s="1"/>
+      <c r="X350" s="1"/>
+    </row>
+    <row r="351" spans="1:24">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -9647,10 +9555,10 @@
       <c r="R351" s="1"/>
       <c r="S351" s="1"/>
       <c r="T351" s="1"/>
-      <c r="W351" s="1"/>
-      <c r="Y351" s="1"/>
-    </row>
-    <row r="352" spans="1:25">
+      <c r="U351" s="1"/>
+      <c r="X351" s="1"/>
+    </row>
+    <row r="352" spans="1:24">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -9670,10 +9578,10 @@
       <c r="R352" s="1"/>
       <c r="S352" s="1"/>
       <c r="T352" s="1"/>
-      <c r="W352" s="1"/>
-      <c r="Y352" s="1"/>
-    </row>
-    <row r="353" spans="1:25">
+      <c r="U352" s="1"/>
+      <c r="X352" s="1"/>
+    </row>
+    <row r="353" spans="1:24">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -9693,10 +9601,10 @@
       <c r="R353" s="1"/>
       <c r="S353" s="1"/>
       <c r="T353" s="1"/>
-      <c r="W353" s="1"/>
-      <c r="Y353" s="1"/>
-    </row>
-    <row r="354" spans="1:25">
+      <c r="U353" s="1"/>
+      <c r="X353" s="1"/>
+    </row>
+    <row r="354" spans="1:24">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -9716,10 +9624,10 @@
       <c r="R354" s="1"/>
       <c r="S354" s="1"/>
       <c r="T354" s="1"/>
-      <c r="W354" s="1"/>
-      <c r="Y354" s="1"/>
-    </row>
-    <row r="355" spans="1:25">
+      <c r="U354" s="1"/>
+      <c r="X354" s="1"/>
+    </row>
+    <row r="355" spans="1:24">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -9739,10 +9647,10 @@
       <c r="R355" s="1"/>
       <c r="S355" s="1"/>
       <c r="T355" s="1"/>
-      <c r="W355" s="1"/>
-      <c r="Y355" s="1"/>
-    </row>
-    <row r="356" spans="1:25">
+      <c r="U355" s="1"/>
+      <c r="X355" s="1"/>
+    </row>
+    <row r="356" spans="1:24">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -9762,10 +9670,10 @@
       <c r="R356" s="1"/>
       <c r="S356" s="1"/>
       <c r="T356" s="1"/>
-      <c r="W356" s="1"/>
-      <c r="Y356" s="1"/>
-    </row>
-    <row r="357" spans="1:25">
+      <c r="U356" s="1"/>
+      <c r="X356" s="1"/>
+    </row>
+    <row r="357" spans="1:24">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -9785,10 +9693,10 @@
       <c r="R357" s="1"/>
       <c r="S357" s="1"/>
       <c r="T357" s="1"/>
-      <c r="W357" s="1"/>
-      <c r="Y357" s="1"/>
-    </row>
-    <row r="358" spans="1:25">
+      <c r="U357" s="1"/>
+      <c r="X357" s="1"/>
+    </row>
+    <row r="358" spans="1:24">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -9808,10 +9716,10 @@
       <c r="R358" s="1"/>
       <c r="S358" s="1"/>
       <c r="T358" s="1"/>
-      <c r="W358" s="1"/>
-      <c r="Y358" s="1"/>
-    </row>
-    <row r="359" spans="1:25">
+      <c r="U358" s="1"/>
+      <c r="X358" s="1"/>
+    </row>
+    <row r="359" spans="1:24">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -9831,10 +9739,10 @@
       <c r="R359" s="1"/>
       <c r="S359" s="1"/>
       <c r="T359" s="1"/>
-      <c r="W359" s="1"/>
-      <c r="Y359" s="1"/>
-    </row>
-    <row r="360" spans="1:25">
+      <c r="U359" s="1"/>
+      <c r="X359" s="1"/>
+    </row>
+    <row r="360" spans="1:24">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -9854,10 +9762,10 @@
       <c r="R360" s="1"/>
       <c r="S360" s="1"/>
       <c r="T360" s="1"/>
-      <c r="W360" s="1"/>
-      <c r="Y360" s="1"/>
-    </row>
-    <row r="361" spans="1:25">
+      <c r="U360" s="1"/>
+      <c r="X360" s="1"/>
+    </row>
+    <row r="361" spans="1:24">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -9877,10 +9785,10 @@
       <c r="R361" s="1"/>
       <c r="S361" s="1"/>
       <c r="T361" s="1"/>
-      <c r="W361" s="1"/>
-      <c r="Y361" s="1"/>
-    </row>
-    <row r="362" spans="1:25">
+      <c r="U361" s="1"/>
+      <c r="X361" s="1"/>
+    </row>
+    <row r="362" spans="1:24">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -9900,10 +9808,10 @@
       <c r="R362" s="1"/>
       <c r="S362" s="1"/>
       <c r="T362" s="1"/>
-      <c r="W362" s="1"/>
-      <c r="Y362" s="1"/>
-    </row>
-    <row r="363" spans="1:25">
+      <c r="U362" s="1"/>
+      <c r="X362" s="1"/>
+    </row>
+    <row r="363" spans="1:24">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -9923,10 +9831,10 @@
       <c r="R363" s="1"/>
       <c r="S363" s="1"/>
       <c r="T363" s="1"/>
-      <c r="W363" s="1"/>
-      <c r="Y363" s="1"/>
-    </row>
-    <row r="364" spans="1:25">
+      <c r="U363" s="1"/>
+      <c r="X363" s="1"/>
+    </row>
+    <row r="364" spans="1:24">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -9946,10 +9854,10 @@
       <c r="R364" s="1"/>
       <c r="S364" s="1"/>
       <c r="T364" s="1"/>
-      <c r="W364" s="1"/>
-      <c r="Y364" s="1"/>
-    </row>
-    <row r="365" spans="1:25">
+      <c r="U364" s="1"/>
+      <c r="X364" s="1"/>
+    </row>
+    <row r="365" spans="1:24">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -9969,10 +9877,10 @@
       <c r="R365" s="1"/>
       <c r="S365" s="1"/>
       <c r="T365" s="1"/>
-      <c r="W365" s="1"/>
-      <c r="Y365" s="1"/>
-    </row>
-    <row r="366" spans="1:25">
+      <c r="U365" s="1"/>
+      <c r="X365" s="1"/>
+    </row>
+    <row r="366" spans="1:24">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -9992,10 +9900,10 @@
       <c r="R366" s="1"/>
       <c r="S366" s="1"/>
       <c r="T366" s="1"/>
-      <c r="W366" s="1"/>
-      <c r="Y366" s="1"/>
-    </row>
-    <row r="367" spans="1:25">
+      <c r="U366" s="1"/>
+      <c r="X366" s="1"/>
+    </row>
+    <row r="367" spans="1:24">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -10015,10 +9923,10 @@
       <c r="R367" s="1"/>
       <c r="S367" s="1"/>
       <c r="T367" s="1"/>
-      <c r="W367" s="1"/>
-      <c r="Y367" s="1"/>
-    </row>
-    <row r="368" spans="1:25">
+      <c r="U367" s="1"/>
+      <c r="X367" s="1"/>
+    </row>
+    <row r="368" spans="1:24">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -10038,10 +9946,10 @@
       <c r="R368" s="1"/>
       <c r="S368" s="1"/>
       <c r="T368" s="1"/>
-      <c r="W368" s="1"/>
-      <c r="Y368" s="1"/>
-    </row>
-    <row r="369" spans="1:25">
+      <c r="U368" s="1"/>
+      <c r="X368" s="1"/>
+    </row>
+    <row r="369" spans="1:24">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -10061,10 +9969,10 @@
       <c r="R369" s="1"/>
       <c r="S369" s="1"/>
       <c r="T369" s="1"/>
-      <c r="W369" s="1"/>
-      <c r="Y369" s="1"/>
-    </row>
-    <row r="370" spans="1:25">
+      <c r="U369" s="1"/>
+      <c r="X369" s="1"/>
+    </row>
+    <row r="370" spans="1:24">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -10084,10 +9992,10 @@
       <c r="R370" s="1"/>
       <c r="S370" s="1"/>
       <c r="T370" s="1"/>
-      <c r="W370" s="1"/>
-      <c r="Y370" s="1"/>
-    </row>
-    <row r="371" spans="1:25">
+      <c r="U370" s="1"/>
+      <c r="X370" s="1"/>
+    </row>
+    <row r="371" spans="1:24">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -10107,10 +10015,10 @@
       <c r="R371" s="1"/>
       <c r="S371" s="1"/>
       <c r="T371" s="1"/>
-      <c r="W371" s="1"/>
-      <c r="Y371" s="1"/>
-    </row>
-    <row r="372" spans="1:25">
+      <c r="U371" s="1"/>
+      <c r="X371" s="1"/>
+    </row>
+    <row r="372" spans="1:24">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -10130,10 +10038,10 @@
       <c r="R372" s="1"/>
       <c r="S372" s="1"/>
       <c r="T372" s="1"/>
-      <c r="W372" s="1"/>
-      <c r="Y372" s="1"/>
-    </row>
-    <row r="373" spans="1:25">
+      <c r="U372" s="1"/>
+      <c r="X372" s="1"/>
+    </row>
+    <row r="373" spans="1:24">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -10153,10 +10061,10 @@
       <c r="R373" s="1"/>
       <c r="S373" s="1"/>
       <c r="T373" s="1"/>
-      <c r="W373" s="1"/>
-      <c r="Y373" s="1"/>
-    </row>
-    <row r="374" spans="1:25">
+      <c r="U373" s="1"/>
+      <c r="X373" s="1"/>
+    </row>
+    <row r="374" spans="1:24">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -10176,10 +10084,10 @@
       <c r="R374" s="1"/>
       <c r="S374" s="1"/>
       <c r="T374" s="1"/>
-      <c r="W374" s="1"/>
-      <c r="Y374" s="1"/>
-    </row>
-    <row r="375" spans="1:25">
+      <c r="U374" s="1"/>
+      <c r="X374" s="1"/>
+    </row>
+    <row r="375" spans="1:24">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -10199,10 +10107,10 @@
       <c r="R375" s="1"/>
       <c r="S375" s="1"/>
       <c r="T375" s="1"/>
-      <c r="W375" s="1"/>
-      <c r="Y375" s="1"/>
-    </row>
-    <row r="376" spans="1:25">
+      <c r="U375" s="1"/>
+      <c r="X375" s="1"/>
+    </row>
+    <row r="376" spans="1:24">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -10222,10 +10130,10 @@
       <c r="R376" s="1"/>
       <c r="S376" s="1"/>
       <c r="T376" s="1"/>
-      <c r="W376" s="1"/>
-      <c r="Y376" s="1"/>
-    </row>
-    <row r="377" spans="1:25">
+      <c r="U376" s="1"/>
+      <c r="X376" s="1"/>
+    </row>
+    <row r="377" spans="1:24">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -10245,10 +10153,10 @@
       <c r="R377" s="1"/>
       <c r="S377" s="1"/>
       <c r="T377" s="1"/>
-      <c r="W377" s="1"/>
-      <c r="Y377" s="1"/>
-    </row>
-    <row r="378" spans="1:25">
+      <c r="U377" s="1"/>
+      <c r="X377" s="1"/>
+    </row>
+    <row r="378" spans="1:24">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -10268,10 +10176,10 @@
       <c r="R378" s="1"/>
       <c r="S378" s="1"/>
       <c r="T378" s="1"/>
-      <c r="W378" s="1"/>
-      <c r="Y378" s="1"/>
-    </row>
-    <row r="379" spans="1:25">
+      <c r="U378" s="1"/>
+      <c r="X378" s="1"/>
+    </row>
+    <row r="379" spans="1:24">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -10291,10 +10199,10 @@
       <c r="R379" s="1"/>
       <c r="S379" s="1"/>
       <c r="T379" s="1"/>
-      <c r="W379" s="1"/>
-      <c r="Y379" s="1"/>
-    </row>
-    <row r="380" spans="1:25">
+      <c r="U379" s="1"/>
+      <c r="X379" s="1"/>
+    </row>
+    <row r="380" spans="1:24">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -10314,10 +10222,10 @@
       <c r="R380" s="1"/>
       <c r="S380" s="1"/>
       <c r="T380" s="1"/>
-      <c r="W380" s="1"/>
-      <c r="Y380" s="1"/>
-    </row>
-    <row r="381" spans="1:25">
+      <c r="U380" s="1"/>
+      <c r="X380" s="1"/>
+    </row>
+    <row r="381" spans="1:24">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -10337,10 +10245,10 @@
       <c r="R381" s="1"/>
       <c r="S381" s="1"/>
       <c r="T381" s="1"/>
-      <c r="W381" s="1"/>
-      <c r="Y381" s="1"/>
-    </row>
-    <row r="382" spans="1:25">
+      <c r="U381" s="1"/>
+      <c r="X381" s="1"/>
+    </row>
+    <row r="382" spans="1:24">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -10360,10 +10268,10 @@
       <c r="R382" s="1"/>
       <c r="S382" s="1"/>
       <c r="T382" s="1"/>
-      <c r="W382" s="1"/>
-      <c r="Y382" s="1"/>
-    </row>
-    <row r="383" spans="1:25">
+      <c r="U382" s="1"/>
+      <c r="X382" s="1"/>
+    </row>
+    <row r="383" spans="1:24">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -10383,10 +10291,10 @@
       <c r="R383" s="1"/>
       <c r="S383" s="1"/>
       <c r="T383" s="1"/>
-      <c r="W383" s="1"/>
-      <c r="Y383" s="1"/>
-    </row>
-    <row r="384" spans="1:25">
+      <c r="U383" s="1"/>
+      <c r="X383" s="1"/>
+    </row>
+    <row r="384" spans="1:24">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -10406,10 +10314,10 @@
       <c r="R384" s="1"/>
       <c r="S384" s="1"/>
       <c r="T384" s="1"/>
-      <c r="W384" s="1"/>
-      <c r="Y384" s="1"/>
-    </row>
-    <row r="385" spans="1:25">
+      <c r="U384" s="1"/>
+      <c r="X384" s="1"/>
+    </row>
+    <row r="385" spans="1:24">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -10429,10 +10337,10 @@
       <c r="R385" s="1"/>
       <c r="S385" s="1"/>
       <c r="T385" s="1"/>
-      <c r="W385" s="1"/>
-      <c r="Y385" s="1"/>
-    </row>
-    <row r="386" spans="1:25">
+      <c r="U385" s="1"/>
+      <c r="X385" s="1"/>
+    </row>
+    <row r="386" spans="1:24">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -10452,10 +10360,10 @@
       <c r="R386" s="1"/>
       <c r="S386" s="1"/>
       <c r="T386" s="1"/>
-      <c r="W386" s="1"/>
-      <c r="Y386" s="1"/>
-    </row>
-    <row r="387" spans="1:25">
+      <c r="U386" s="1"/>
+      <c r="X386" s="1"/>
+    </row>
+    <row r="387" spans="1:24">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -10475,10 +10383,10 @@
       <c r="R387" s="1"/>
       <c r="S387" s="1"/>
       <c r="T387" s="1"/>
-      <c r="W387" s="1"/>
-      <c r="Y387" s="1"/>
-    </row>
-    <row r="388" spans="1:25">
+      <c r="U387" s="1"/>
+      <c r="X387" s="1"/>
+    </row>
+    <row r="388" spans="1:24">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -10498,10 +10406,10 @@
       <c r="R388" s="1"/>
       <c r="S388" s="1"/>
       <c r="T388" s="1"/>
-      <c r="W388" s="1"/>
-      <c r="Y388" s="1"/>
-    </row>
-    <row r="389" spans="1:25">
+      <c r="U388" s="1"/>
+      <c r="X388" s="1"/>
+    </row>
+    <row r="389" spans="1:24">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -10521,10 +10429,10 @@
       <c r="R389" s="1"/>
       <c r="S389" s="1"/>
       <c r="T389" s="1"/>
-      <c r="W389" s="1"/>
-      <c r="Y389" s="1"/>
-    </row>
-    <row r="390" spans="1:25">
+      <c r="U389" s="1"/>
+      <c r="X389" s="1"/>
+    </row>
+    <row r="390" spans="1:24">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -10544,10 +10452,10 @@
       <c r="R390" s="1"/>
       <c r="S390" s="1"/>
       <c r="T390" s="1"/>
-      <c r="W390" s="1"/>
-      <c r="Y390" s="1"/>
-    </row>
-    <row r="391" spans="1:25">
+      <c r="U390" s="1"/>
+      <c r="X390" s="1"/>
+    </row>
+    <row r="391" spans="1:24">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -10567,10 +10475,10 @@
       <c r="R391" s="1"/>
       <c r="S391" s="1"/>
       <c r="T391" s="1"/>
-      <c r="W391" s="1"/>
-      <c r="Y391" s="1"/>
-    </row>
-    <row r="392" spans="1:25">
+      <c r="U391" s="1"/>
+      <c r="X391" s="1"/>
+    </row>
+    <row r="392" spans="1:24">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -10590,10 +10498,10 @@
       <c r="R392" s="1"/>
       <c r="S392" s="1"/>
       <c r="T392" s="1"/>
-      <c r="W392" s="1"/>
-      <c r="Y392" s="1"/>
-    </row>
-    <row r="393" spans="1:25">
+      <c r="U392" s="1"/>
+      <c r="X392" s="1"/>
+    </row>
+    <row r="393" spans="1:24">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -10613,10 +10521,10 @@
       <c r="R393" s="1"/>
       <c r="S393" s="1"/>
       <c r="T393" s="1"/>
-      <c r="W393" s="1"/>
-      <c r="Y393" s="1"/>
-    </row>
-    <row r="394" spans="1:25">
+      <c r="U393" s="1"/>
+      <c r="X393" s="1"/>
+    </row>
+    <row r="394" spans="1:24">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -10636,10 +10544,10 @@
       <c r="R394" s="1"/>
       <c r="S394" s="1"/>
       <c r="T394" s="1"/>
-      <c r="W394" s="1"/>
-      <c r="Y394" s="1"/>
-    </row>
-    <row r="395" spans="1:25">
+      <c r="U394" s="1"/>
+      <c r="X394" s="1"/>
+    </row>
+    <row r="395" spans="1:24">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -10659,10 +10567,10 @@
       <c r="R395" s="1"/>
       <c r="S395" s="1"/>
       <c r="T395" s="1"/>
-      <c r="W395" s="1"/>
-      <c r="Y395" s="1"/>
-    </row>
-    <row r="396" spans="1:25">
+      <c r="U395" s="1"/>
+      <c r="X395" s="1"/>
+    </row>
+    <row r="396" spans="1:24">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -10682,10 +10590,10 @@
       <c r="R396" s="1"/>
       <c r="S396" s="1"/>
       <c r="T396" s="1"/>
-      <c r="W396" s="1"/>
-      <c r="Y396" s="1"/>
-    </row>
-    <row r="397" spans="1:25">
+      <c r="U396" s="1"/>
+      <c r="X396" s="1"/>
+    </row>
+    <row r="397" spans="1:24">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -10705,10 +10613,10 @@
       <c r="R397" s="1"/>
       <c r="S397" s="1"/>
       <c r="T397" s="1"/>
-      <c r="W397" s="1"/>
-      <c r="Y397" s="1"/>
-    </row>
-    <row r="398" spans="1:25">
+      <c r="U397" s="1"/>
+      <c r="X397" s="1"/>
+    </row>
+    <row r="398" spans="1:24">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -10728,10 +10636,10 @@
       <c r="R398" s="1"/>
       <c r="S398" s="1"/>
       <c r="T398" s="1"/>
-      <c r="W398" s="1"/>
-      <c r="Y398" s="1"/>
-    </row>
-    <row r="399" spans="1:25">
+      <c r="U398" s="1"/>
+      <c r="X398" s="1"/>
+    </row>
+    <row r="399" spans="1:24">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -10751,10 +10659,10 @@
       <c r="R399" s="1"/>
       <c r="S399" s="1"/>
       <c r="T399" s="1"/>
-      <c r="W399" s="1"/>
-      <c r="Y399" s="1"/>
-    </row>
-    <row r="400" spans="1:25">
+      <c r="U399" s="1"/>
+      <c r="X399" s="1"/>
+    </row>
+    <row r="400" spans="1:24">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -10774,10 +10682,10 @@
       <c r="R400" s="1"/>
       <c r="S400" s="1"/>
       <c r="T400" s="1"/>
-      <c r="W400" s="1"/>
-      <c r="Y400" s="1"/>
-    </row>
-    <row r="401" spans="1:25">
+      <c r="U400" s="1"/>
+      <c r="X400" s="1"/>
+    </row>
+    <row r="401" spans="1:24">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -10797,10 +10705,10 @@
       <c r="R401" s="1"/>
       <c r="S401" s="1"/>
       <c r="T401" s="1"/>
-      <c r="W401" s="1"/>
-      <c r="Y401" s="1"/>
-    </row>
-    <row r="402" spans="1:25">
+      <c r="U401" s="1"/>
+      <c r="X401" s="1"/>
+    </row>
+    <row r="402" spans="1:24">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -10820,10 +10728,10 @@
       <c r="R402" s="1"/>
       <c r="S402" s="1"/>
       <c r="T402" s="1"/>
-      <c r="W402" s="1"/>
-      <c r="Y402" s="1"/>
-    </row>
-    <row r="403" spans="1:25">
+      <c r="U402" s="1"/>
+      <c r="X402" s="1"/>
+    </row>
+    <row r="403" spans="1:24">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -10843,10 +10751,10 @@
       <c r="R403" s="1"/>
       <c r="S403" s="1"/>
       <c r="T403" s="1"/>
-      <c r="W403" s="1"/>
-      <c r="Y403" s="1"/>
-    </row>
-    <row r="404" spans="1:25">
+      <c r="U403" s="1"/>
+      <c r="X403" s="1"/>
+    </row>
+    <row r="404" spans="1:24">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -10866,10 +10774,10 @@
       <c r="R404" s="1"/>
       <c r="S404" s="1"/>
       <c r="T404" s="1"/>
-      <c r="W404" s="1"/>
-      <c r="Y404" s="1"/>
-    </row>
-    <row r="405" spans="1:25">
+      <c r="U404" s="1"/>
+      <c r="X404" s="1"/>
+    </row>
+    <row r="405" spans="1:24">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -10889,10 +10797,10 @@
       <c r="R405" s="1"/>
       <c r="S405" s="1"/>
       <c r="T405" s="1"/>
-      <c r="W405" s="1"/>
-      <c r="Y405" s="1"/>
-    </row>
-    <row r="406" spans="1:25">
+      <c r="U405" s="1"/>
+      <c r="X405" s="1"/>
+    </row>
+    <row r="406" spans="1:24">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -10912,10 +10820,10 @@
       <c r="R406" s="1"/>
       <c r="S406" s="1"/>
       <c r="T406" s="1"/>
-      <c r="W406" s="1"/>
-      <c r="Y406" s="1"/>
-    </row>
-    <row r="407" spans="1:25">
+      <c r="U406" s="1"/>
+      <c r="X406" s="1"/>
+    </row>
+    <row r="407" spans="1:24">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -10935,10 +10843,10 @@
       <c r="R407" s="1"/>
       <c r="S407" s="1"/>
       <c r="T407" s="1"/>
-      <c r="W407" s="1"/>
-      <c r="Y407" s="1"/>
-    </row>
-    <row r="408" spans="1:25">
+      <c r="U407" s="1"/>
+      <c r="X407" s="1"/>
+    </row>
+    <row r="408" spans="1:24">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -10958,10 +10866,10 @@
       <c r="R408" s="1"/>
       <c r="S408" s="1"/>
       <c r="T408" s="1"/>
-      <c r="W408" s="1"/>
-      <c r="Y408" s="1"/>
-    </row>
-    <row r="409" spans="1:25">
+      <c r="U408" s="1"/>
+      <c r="X408" s="1"/>
+    </row>
+    <row r="409" spans="1:24">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -10981,10 +10889,10 @@
       <c r="R409" s="1"/>
       <c r="S409" s="1"/>
       <c r="T409" s="1"/>
-      <c r="W409" s="1"/>
-      <c r="Y409" s="1"/>
-    </row>
-    <row r="410" spans="1:25">
+      <c r="U409" s="1"/>
+      <c r="X409" s="1"/>
+    </row>
+    <row r="410" spans="1:24">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -11004,10 +10912,10 @@
       <c r="R410" s="1"/>
       <c r="S410" s="1"/>
       <c r="T410" s="1"/>
-      <c r="W410" s="1"/>
-      <c r="Y410" s="1"/>
-    </row>
-    <row r="411" spans="1:25">
+      <c r="U410" s="1"/>
+      <c r="X410" s="1"/>
+    </row>
+    <row r="411" spans="1:24">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -11027,10 +10935,10 @@
       <c r="R411" s="1"/>
       <c r="S411" s="1"/>
       <c r="T411" s="1"/>
-      <c r="W411" s="1"/>
-      <c r="Y411" s="1"/>
-    </row>
-    <row r="412" spans="1:25">
+      <c r="U411" s="1"/>
+      <c r="X411" s="1"/>
+    </row>
+    <row r="412" spans="1:24">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -11050,10 +10958,10 @@
       <c r="R412" s="1"/>
       <c r="S412" s="1"/>
       <c r="T412" s="1"/>
-      <c r="W412" s="1"/>
-      <c r="Y412" s="1"/>
-    </row>
-    <row r="413" spans="1:25">
+      <c r="U412" s="1"/>
+      <c r="X412" s="1"/>
+    </row>
+    <row r="413" spans="1:24">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -11073,10 +10981,10 @@
       <c r="R413" s="1"/>
       <c r="S413" s="1"/>
       <c r="T413" s="1"/>
-      <c r="W413" s="1"/>
-      <c r="Y413" s="1"/>
-    </row>
-    <row r="414" spans="1:25">
+      <c r="U413" s="1"/>
+      <c r="X413" s="1"/>
+    </row>
+    <row r="414" spans="1:24">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -11096,10 +11004,10 @@
       <c r="R414" s="1"/>
       <c r="S414" s="1"/>
       <c r="T414" s="1"/>
-      <c r="W414" s="1"/>
-      <c r="Y414" s="1"/>
-    </row>
-    <row r="415" spans="1:25">
+      <c r="U414" s="1"/>
+      <c r="X414" s="1"/>
+    </row>
+    <row r="415" spans="1:24">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -11119,10 +11027,10 @@
       <c r="R415" s="1"/>
       <c r="S415" s="1"/>
       <c r="T415" s="1"/>
-      <c r="W415" s="1"/>
-      <c r="Y415" s="1"/>
-    </row>
-    <row r="416" spans="1:25">
+      <c r="U415" s="1"/>
+      <c r="X415" s="1"/>
+    </row>
+    <row r="416" spans="1:24">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -11142,10 +11050,10 @@
       <c r="R416" s="1"/>
       <c r="S416" s="1"/>
       <c r="T416" s="1"/>
-      <c r="W416" s="1"/>
-      <c r="Y416" s="1"/>
-    </row>
-    <row r="417" spans="1:25">
+      <c r="U416" s="1"/>
+      <c r="X416" s="1"/>
+    </row>
+    <row r="417" spans="1:24">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -11165,10 +11073,10 @@
       <c r="R417" s="1"/>
       <c r="S417" s="1"/>
       <c r="T417" s="1"/>
-      <c r="W417" s="1"/>
-      <c r="Y417" s="1"/>
-    </row>
-    <row r="418" spans="1:25">
+      <c r="U417" s="1"/>
+      <c r="X417" s="1"/>
+    </row>
+    <row r="418" spans="1:24">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -11188,10 +11096,10 @@
       <c r="R418" s="1"/>
       <c r="S418" s="1"/>
       <c r="T418" s="1"/>
-      <c r="W418" s="1"/>
-      <c r="Y418" s="1"/>
-    </row>
-    <row r="419" spans="1:25">
+      <c r="U418" s="1"/>
+      <c r="X418" s="1"/>
+    </row>
+    <row r="419" spans="1:24">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -11211,10 +11119,10 @@
       <c r="R419" s="1"/>
       <c r="S419" s="1"/>
       <c r="T419" s="1"/>
-      <c r="W419" s="1"/>
-      <c r="Y419" s="1"/>
-    </row>
-    <row r="420" spans="1:25">
+      <c r="U419" s="1"/>
+      <c r="X419" s="1"/>
+    </row>
+    <row r="420" spans="1:24">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -11234,10 +11142,10 @@
       <c r="R420" s="1"/>
       <c r="S420" s="1"/>
       <c r="T420" s="1"/>
-      <c r="W420" s="1"/>
-      <c r="Y420" s="1"/>
-    </row>
-    <row r="421" spans="1:25">
+      <c r="U420" s="1"/>
+      <c r="X420" s="1"/>
+    </row>
+    <row r="421" spans="1:24">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -11257,10 +11165,10 @@
       <c r="R421" s="1"/>
       <c r="S421" s="1"/>
       <c r="T421" s="1"/>
-      <c r="W421" s="1"/>
-      <c r="Y421" s="1"/>
-    </row>
-    <row r="422" spans="1:25">
+      <c r="U421" s="1"/>
+      <c r="X421" s="1"/>
+    </row>
+    <row r="422" spans="1:24">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -11280,10 +11188,10 @@
       <c r="R422" s="1"/>
       <c r="S422" s="1"/>
       <c r="T422" s="1"/>
-      <c r="W422" s="1"/>
-      <c r="Y422" s="1"/>
-    </row>
-    <row r="423" spans="1:25">
+      <c r="U422" s="1"/>
+      <c r="X422" s="1"/>
+    </row>
+    <row r="423" spans="1:24">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -11303,10 +11211,10 @@
       <c r="R423" s="1"/>
       <c r="S423" s="1"/>
       <c r="T423" s="1"/>
-      <c r="W423" s="1"/>
-      <c r="Y423" s="1"/>
-    </row>
-    <row r="424" spans="1:25">
+      <c r="U423" s="1"/>
+      <c r="X423" s="1"/>
+    </row>
+    <row r="424" spans="1:24">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -11326,10 +11234,10 @@
       <c r="R424" s="1"/>
       <c r="S424" s="1"/>
       <c r="T424" s="1"/>
-      <c r="W424" s="1"/>
-      <c r="Y424" s="1"/>
-    </row>
-    <row r="425" spans="1:25">
+      <c r="U424" s="1"/>
+      <c r="X424" s="1"/>
+    </row>
+    <row r="425" spans="1:24">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -11349,10 +11257,10 @@
       <c r="R425" s="1"/>
       <c r="S425" s="1"/>
       <c r="T425" s="1"/>
-      <c r="W425" s="1"/>
-      <c r="Y425" s="1"/>
-    </row>
-    <row r="426" spans="1:25">
+      <c r="U425" s="1"/>
+      <c r="X425" s="1"/>
+    </row>
+    <row r="426" spans="1:24">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -11372,10 +11280,10 @@
       <c r="R426" s="1"/>
       <c r="S426" s="1"/>
       <c r="T426" s="1"/>
-      <c r="W426" s="1"/>
-      <c r="Y426" s="1"/>
-    </row>
-    <row r="427" spans="1:25">
+      <c r="U426" s="1"/>
+      <c r="X426" s="1"/>
+    </row>
+    <row r="427" spans="1:24">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -11395,10 +11303,10 @@
       <c r="R427" s="1"/>
       <c r="S427" s="1"/>
       <c r="T427" s="1"/>
-      <c r="W427" s="1"/>
-      <c r="Y427" s="1"/>
-    </row>
-    <row r="428" spans="1:25">
+      <c r="U427" s="1"/>
+      <c r="X427" s="1"/>
+    </row>
+    <row r="428" spans="1:24">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -11418,10 +11326,10 @@
       <c r="R428" s="1"/>
       <c r="S428" s="1"/>
       <c r="T428" s="1"/>
-      <c r="W428" s="1"/>
-      <c r="Y428" s="1"/>
-    </row>
-    <row r="429" spans="1:25">
+      <c r="U428" s="1"/>
+      <c r="X428" s="1"/>
+    </row>
+    <row r="429" spans="1:24">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -11441,10 +11349,10 @@
       <c r="R429" s="1"/>
       <c r="S429" s="1"/>
       <c r="T429" s="1"/>
-      <c r="W429" s="1"/>
-      <c r="Y429" s="1"/>
-    </row>
-    <row r="430" spans="1:25">
+      <c r="U429" s="1"/>
+      <c r="X429" s="1"/>
+    </row>
+    <row r="430" spans="1:24">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -11464,10 +11372,10 @@
       <c r="R430" s="1"/>
       <c r="S430" s="1"/>
       <c r="T430" s="1"/>
-      <c r="W430" s="1"/>
-      <c r="Y430" s="1"/>
-    </row>
-    <row r="431" spans="1:25">
+      <c r="U430" s="1"/>
+      <c r="X430" s="1"/>
+    </row>
+    <row r="431" spans="1:24">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -11487,10 +11395,10 @@
       <c r="R431" s="1"/>
       <c r="S431" s="1"/>
       <c r="T431" s="1"/>
-      <c r="W431" s="1"/>
-      <c r="Y431" s="1"/>
-    </row>
-    <row r="432" spans="1:25">
+      <c r="U431" s="1"/>
+      <c r="X431" s="1"/>
+    </row>
+    <row r="432" spans="1:24">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -11510,10 +11418,10 @@
       <c r="R432" s="1"/>
       <c r="S432" s="1"/>
       <c r="T432" s="1"/>
-      <c r="W432" s="1"/>
-      <c r="Y432" s="1"/>
-    </row>
-    <row r="433" spans="1:25">
+      <c r="U432" s="1"/>
+      <c r="X432" s="1"/>
+    </row>
+    <row r="433" spans="1:24">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -11533,10 +11441,10 @@
       <c r="R433" s="1"/>
       <c r="S433" s="1"/>
       <c r="T433" s="1"/>
-      <c r="W433" s="1"/>
-      <c r="Y433" s="1"/>
-    </row>
-    <row r="434" spans="1:25">
+      <c r="U433" s="1"/>
+      <c r="X433" s="1"/>
+    </row>
+    <row r="434" spans="1:24">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -11556,10 +11464,10 @@
       <c r="R434" s="1"/>
       <c r="S434" s="1"/>
       <c r="T434" s="1"/>
-      <c r="W434" s="1"/>
-      <c r="Y434" s="1"/>
-    </row>
-    <row r="435" spans="1:25">
+      <c r="U434" s="1"/>
+      <c r="X434" s="1"/>
+    </row>
+    <row r="435" spans="1:24">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -11579,10 +11487,10 @@
       <c r="R435" s="1"/>
       <c r="S435" s="1"/>
       <c r="T435" s="1"/>
-      <c r="W435" s="1"/>
-      <c r="Y435" s="1"/>
-    </row>
-    <row r="436" spans="1:25">
+      <c r="U435" s="1"/>
+      <c r="X435" s="1"/>
+    </row>
+    <row r="436" spans="1:24">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -11602,10 +11510,10 @@
       <c r="R436" s="1"/>
       <c r="S436" s="1"/>
       <c r="T436" s="1"/>
-      <c r="W436" s="1"/>
-      <c r="Y436" s="1"/>
-    </row>
-    <row r="437" spans="1:25">
+      <c r="U436" s="1"/>
+      <c r="X436" s="1"/>
+    </row>
+    <row r="437" spans="1:24">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -11625,10 +11533,10 @@
       <c r="R437" s="1"/>
       <c r="S437" s="1"/>
       <c r="T437" s="1"/>
-      <c r="W437" s="1"/>
-      <c r="Y437" s="1"/>
-    </row>
-    <row r="438" spans="1:25">
+      <c r="U437" s="1"/>
+      <c r="X437" s="1"/>
+    </row>
+    <row r="438" spans="1:24">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -11648,10 +11556,10 @@
       <c r="R438" s="1"/>
       <c r="S438" s="1"/>
       <c r="T438" s="1"/>
-      <c r="W438" s="1"/>
-      <c r="Y438" s="1"/>
-    </row>
-    <row r="439" spans="1:25">
+      <c r="U438" s="1"/>
+      <c r="X438" s="1"/>
+    </row>
+    <row r="439" spans="1:24">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -11671,10 +11579,10 @@
       <c r="R439" s="1"/>
       <c r="S439" s="1"/>
       <c r="T439" s="1"/>
-      <c r="W439" s="1"/>
-      <c r="Y439" s="1"/>
-    </row>
-    <row r="440" spans="1:25">
+      <c r="U439" s="1"/>
+      <c r="X439" s="1"/>
+    </row>
+    <row r="440" spans="1:24">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -11694,10 +11602,10 @@
       <c r="R440" s="1"/>
       <c r="S440" s="1"/>
       <c r="T440" s="1"/>
-      <c r="W440" s="1"/>
-      <c r="Y440" s="1"/>
-    </row>
-    <row r="441" spans="1:25">
+      <c r="U440" s="1"/>
+      <c r="X440" s="1"/>
+    </row>
+    <row r="441" spans="1:24">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -11717,10 +11625,10 @@
       <c r="R441" s="1"/>
       <c r="S441" s="1"/>
       <c r="T441" s="1"/>
-      <c r="W441" s="1"/>
-      <c r="Y441" s="1"/>
-    </row>
-    <row r="442" spans="1:25">
+      <c r="U441" s="1"/>
+      <c r="X441" s="1"/>
+    </row>
+    <row r="442" spans="1:24">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -11740,10 +11648,10 @@
       <c r="R442" s="1"/>
       <c r="S442" s="1"/>
       <c r="T442" s="1"/>
-      <c r="W442" s="1"/>
-      <c r="Y442" s="1"/>
-    </row>
-    <row r="443" spans="1:25">
+      <c r="U442" s="1"/>
+      <c r="X442" s="1"/>
+    </row>
+    <row r="443" spans="1:24">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -11763,10 +11671,10 @@
       <c r="R443" s="1"/>
       <c r="S443" s="1"/>
       <c r="T443" s="1"/>
-      <c r="W443" s="1"/>
-      <c r="Y443" s="1"/>
-    </row>
-    <row r="444" spans="1:25">
+      <c r="U443" s="1"/>
+      <c r="X443" s="1"/>
+    </row>
+    <row r="444" spans="1:24">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -11786,10 +11694,10 @@
       <c r="R444" s="1"/>
       <c r="S444" s="1"/>
       <c r="T444" s="1"/>
-      <c r="W444" s="1"/>
-      <c r="Y444" s="1"/>
-    </row>
-    <row r="445" spans="1:25">
+      <c r="U444" s="1"/>
+      <c r="X444" s="1"/>
+    </row>
+    <row r="445" spans="1:24">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -11809,10 +11717,10 @@
       <c r="R445" s="1"/>
       <c r="S445" s="1"/>
       <c r="T445" s="1"/>
-      <c r="W445" s="1"/>
-      <c r="Y445" s="1"/>
-    </row>
-    <row r="446" spans="1:25">
+      <c r="U445" s="1"/>
+      <c r="X445" s="1"/>
+    </row>
+    <row r="446" spans="1:24">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -11832,10 +11740,10 @@
       <c r="R446" s="1"/>
       <c r="S446" s="1"/>
       <c r="T446" s="1"/>
-      <c r="W446" s="1"/>
-      <c r="Y446" s="1"/>
-    </row>
-    <row r="447" spans="1:25">
+      <c r="U446" s="1"/>
+      <c r="X446" s="1"/>
+    </row>
+    <row r="447" spans="1:24">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -11855,10 +11763,10 @@
       <c r="R447" s="1"/>
       <c r="S447" s="1"/>
       <c r="T447" s="1"/>
-      <c r="W447" s="1"/>
-      <c r="Y447" s="1"/>
-    </row>
-    <row r="448" spans="1:25">
+      <c r="U447" s="1"/>
+      <c r="X447" s="1"/>
+    </row>
+    <row r="448" spans="1:24">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -11878,10 +11786,10 @@
       <c r="R448" s="1"/>
       <c r="S448" s="1"/>
       <c r="T448" s="1"/>
-      <c r="W448" s="1"/>
-      <c r="Y448" s="1"/>
-    </row>
-    <row r="449" spans="1:25">
+      <c r="U448" s="1"/>
+      <c r="X448" s="1"/>
+    </row>
+    <row r="449" spans="1:24">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -11901,10 +11809,10 @@
       <c r="R449" s="1"/>
       <c r="S449" s="1"/>
       <c r="T449" s="1"/>
-      <c r="W449" s="1"/>
-      <c r="Y449" s="1"/>
-    </row>
-    <row r="450" spans="1:25">
+      <c r="U449" s="1"/>
+      <c r="X449" s="1"/>
+    </row>
+    <row r="450" spans="1:24">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -11924,10 +11832,10 @@
       <c r="R450" s="1"/>
       <c r="S450" s="1"/>
       <c r="T450" s="1"/>
-      <c r="W450" s="1"/>
-      <c r="Y450" s="1"/>
-    </row>
-    <row r="451" spans="1:25">
+      <c r="U450" s="1"/>
+      <c r="X450" s="1"/>
+    </row>
+    <row r="451" spans="1:24">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -11947,10 +11855,10 @@
       <c r="R451" s="1"/>
       <c r="S451" s="1"/>
       <c r="T451" s="1"/>
-      <c r="W451" s="1"/>
-      <c r="Y451" s="1"/>
-    </row>
-    <row r="452" spans="1:25">
+      <c r="U451" s="1"/>
+      <c r="X451" s="1"/>
+    </row>
+    <row r="452" spans="1:24">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -11970,10 +11878,10 @@
       <c r="R452" s="1"/>
       <c r="S452" s="1"/>
       <c r="T452" s="1"/>
-      <c r="W452" s="1"/>
-      <c r="Y452" s="1"/>
-    </row>
-    <row r="453" spans="1:25">
+      <c r="U452" s="1"/>
+      <c r="X452" s="1"/>
+    </row>
+    <row r="453" spans="1:24">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -11993,10 +11901,10 @@
       <c r="R453" s="1"/>
       <c r="S453" s="1"/>
       <c r="T453" s="1"/>
-      <c r="W453" s="1"/>
-      <c r="Y453" s="1"/>
-    </row>
-    <row r="454" spans="1:25">
+      <c r="U453" s="1"/>
+      <c r="X453" s="1"/>
+    </row>
+    <row r="454" spans="1:24">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -12016,10 +11924,10 @@
       <c r="R454" s="1"/>
       <c r="S454" s="1"/>
       <c r="T454" s="1"/>
-      <c r="W454" s="1"/>
-      <c r="Y454" s="1"/>
-    </row>
-    <row r="455" spans="1:25">
+      <c r="U454" s="1"/>
+      <c r="X454" s="1"/>
+    </row>
+    <row r="455" spans="1:24">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -12039,10 +11947,10 @@
       <c r="R455" s="1"/>
       <c r="S455" s="1"/>
       <c r="T455" s="1"/>
-      <c r="W455" s="1"/>
-      <c r="Y455" s="1"/>
-    </row>
-    <row r="456" spans="1:25">
+      <c r="U455" s="1"/>
+      <c r="X455" s="1"/>
+    </row>
+    <row r="456" spans="1:24">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -12062,10 +11970,10 @@
       <c r="R456" s="1"/>
       <c r="S456" s="1"/>
       <c r="T456" s="1"/>
-      <c r="W456" s="1"/>
-      <c r="Y456" s="1"/>
-    </row>
-    <row r="457" spans="1:25">
+      <c r="U456" s="1"/>
+      <c r="X456" s="1"/>
+    </row>
+    <row r="457" spans="1:24">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -12085,10 +11993,10 @@
       <c r="R457" s="1"/>
       <c r="S457" s="1"/>
       <c r="T457" s="1"/>
-      <c r="W457" s="1"/>
-      <c r="Y457" s="1"/>
-    </row>
-    <row r="458" spans="1:25">
+      <c r="U457" s="1"/>
+      <c r="X457" s="1"/>
+    </row>
+    <row r="458" spans="1:24">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -12108,10 +12016,10 @@
       <c r="R458" s="1"/>
       <c r="S458" s="1"/>
       <c r="T458" s="1"/>
-      <c r="W458" s="1"/>
-      <c r="Y458" s="1"/>
-    </row>
-    <row r="459" spans="1:25">
+      <c r="U458" s="1"/>
+      <c r="X458" s="1"/>
+    </row>
+    <row r="459" spans="1:24">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -12131,10 +12039,10 @@
       <c r="R459" s="1"/>
       <c r="S459" s="1"/>
       <c r="T459" s="1"/>
-      <c r="W459" s="1"/>
-      <c r="Y459" s="1"/>
-    </row>
-    <row r="460" spans="1:25">
+      <c r="U459" s="1"/>
+      <c r="X459" s="1"/>
+    </row>
+    <row r="460" spans="1:24">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -12154,10 +12062,10 @@
       <c r="R460" s="1"/>
       <c r="S460" s="1"/>
       <c r="T460" s="1"/>
-      <c r="W460" s="1"/>
-      <c r="Y460" s="1"/>
-    </row>
-    <row r="461" spans="1:25">
+      <c r="U460" s="1"/>
+      <c r="X460" s="1"/>
+    </row>
+    <row r="461" spans="1:24">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -12177,10 +12085,10 @@
       <c r="R461" s="1"/>
       <c r="S461" s="1"/>
       <c r="T461" s="1"/>
-      <c r="W461" s="1"/>
-      <c r="Y461" s="1"/>
-    </row>
-    <row r="462" spans="1:25">
+      <c r="U461" s="1"/>
+      <c r="X461" s="1"/>
+    </row>
+    <row r="462" spans="1:24">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -12200,10 +12108,10 @@
       <c r="R462" s="1"/>
       <c r="S462" s="1"/>
       <c r="T462" s="1"/>
-      <c r="W462" s="1"/>
-      <c r="Y462" s="1"/>
-    </row>
-    <row r="463" spans="1:25">
+      <c r="U462" s="1"/>
+      <c r="X462" s="1"/>
+    </row>
+    <row r="463" spans="1:24">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -12223,10 +12131,10 @@
       <c r="R463" s="1"/>
       <c r="S463" s="1"/>
       <c r="T463" s="1"/>
-      <c r="W463" s="1"/>
-      <c r="Y463" s="1"/>
-    </row>
-    <row r="464" spans="1:25">
+      <c r="U463" s="1"/>
+      <c r="X463" s="1"/>
+    </row>
+    <row r="464" spans="1:24">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -12246,10 +12154,10 @@
       <c r="R464" s="1"/>
       <c r="S464" s="1"/>
       <c r="T464" s="1"/>
-      <c r="W464" s="1"/>
-      <c r="Y464" s="1"/>
-    </row>
-    <row r="465" spans="1:25">
+      <c r="U464" s="1"/>
+      <c r="X464" s="1"/>
+    </row>
+    <row r="465" spans="1:24">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -12269,10 +12177,10 @@
       <c r="R465" s="1"/>
       <c r="S465" s="1"/>
       <c r="T465" s="1"/>
-      <c r="W465" s="1"/>
-      <c r="Y465" s="1"/>
-    </row>
-    <row r="466" spans="1:25">
+      <c r="U465" s="1"/>
+      <c r="X465" s="1"/>
+    </row>
+    <row r="466" spans="1:24">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -12292,10 +12200,10 @@
       <c r="R466" s="1"/>
       <c r="S466" s="1"/>
       <c r="T466" s="1"/>
-      <c r="W466" s="1"/>
-      <c r="Y466" s="1"/>
-    </row>
-    <row r="467" spans="1:25">
+      <c r="U466" s="1"/>
+      <c r="X466" s="1"/>
+    </row>
+    <row r="467" spans="1:24">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -12315,10 +12223,10 @@
       <c r="R467" s="1"/>
       <c r="S467" s="1"/>
       <c r="T467" s="1"/>
-      <c r="W467" s="1"/>
-      <c r="Y467" s="1"/>
-    </row>
-    <row r="468" spans="1:25">
+      <c r="U467" s="1"/>
+      <c r="X467" s="1"/>
+    </row>
+    <row r="468" spans="1:24">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -12338,10 +12246,10 @@
       <c r="R468" s="1"/>
       <c r="S468" s="1"/>
       <c r="T468" s="1"/>
-      <c r="W468" s="1"/>
-      <c r="Y468" s="1"/>
-    </row>
-    <row r="469" spans="1:25">
+      <c r="U468" s="1"/>
+      <c r="X468" s="1"/>
+    </row>
+    <row r="469" spans="1:24">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -12361,10 +12269,10 @@
       <c r="R469" s="1"/>
       <c r="S469" s="1"/>
       <c r="T469" s="1"/>
-      <c r="W469" s="1"/>
-      <c r="Y469" s="1"/>
-    </row>
-    <row r="470" spans="1:25">
+      <c r="U469" s="1"/>
+      <c r="X469" s="1"/>
+    </row>
+    <row r="470" spans="1:24">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -12384,10 +12292,10 @@
       <c r="R470" s="1"/>
       <c r="S470" s="1"/>
       <c r="T470" s="1"/>
-      <c r="W470" s="1"/>
-      <c r="Y470" s="1"/>
-    </row>
-    <row r="471" spans="1:25">
+      <c r="U470" s="1"/>
+      <c r="X470" s="1"/>
+    </row>
+    <row r="471" spans="1:24">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -12407,10 +12315,10 @@
       <c r="R471" s="1"/>
       <c r="S471" s="1"/>
       <c r="T471" s="1"/>
-      <c r="W471" s="1"/>
-      <c r="Y471" s="1"/>
-    </row>
-    <row r="472" spans="1:25">
+      <c r="U471" s="1"/>
+      <c r="X471" s="1"/>
+    </row>
+    <row r="472" spans="1:24">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -12430,10 +12338,10 @@
       <c r="R472" s="1"/>
       <c r="S472" s="1"/>
       <c r="T472" s="1"/>
-      <c r="W472" s="1"/>
-      <c r="Y472" s="1"/>
-    </row>
-    <row r="473" spans="1:25">
+      <c r="U472" s="1"/>
+      <c r="X472" s="1"/>
+    </row>
+    <row r="473" spans="1:24">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -12453,10 +12361,10 @@
       <c r="R473" s="1"/>
       <c r="S473" s="1"/>
       <c r="T473" s="1"/>
-      <c r="W473" s="1"/>
-      <c r="Y473" s="1"/>
-    </row>
-    <row r="474" spans="1:25">
+      <c r="U473" s="1"/>
+      <c r="X473" s="1"/>
+    </row>
+    <row r="474" spans="1:24">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -12476,10 +12384,10 @@
       <c r="R474" s="1"/>
       <c r="S474" s="1"/>
       <c r="T474" s="1"/>
-      <c r="W474" s="1"/>
-      <c r="Y474" s="1"/>
-    </row>
-    <row r="475" spans="1:25">
+      <c r="U474" s="1"/>
+      <c r="X474" s="1"/>
+    </row>
+    <row r="475" spans="1:24">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -12499,10 +12407,10 @@
       <c r="R475" s="1"/>
       <c r="S475" s="1"/>
       <c r="T475" s="1"/>
-      <c r="W475" s="1"/>
-      <c r="Y475" s="1"/>
-    </row>
-    <row r="476" spans="1:25">
+      <c r="U475" s="1"/>
+      <c r="X475" s="1"/>
+    </row>
+    <row r="476" spans="1:24">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -12522,10 +12430,10 @@
       <c r="R476" s="1"/>
       <c r="S476" s="1"/>
       <c r="T476" s="1"/>
-      <c r="W476" s="1"/>
-      <c r="Y476" s="1"/>
-    </row>
-    <row r="477" spans="1:25">
+      <c r="U476" s="1"/>
+      <c r="X476" s="1"/>
+    </row>
+    <row r="477" spans="1:24">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -12545,10 +12453,10 @@
       <c r="R477" s="1"/>
       <c r="S477" s="1"/>
       <c r="T477" s="1"/>
-      <c r="W477" s="1"/>
-      <c r="Y477" s="1"/>
-    </row>
-    <row r="478" spans="1:25">
+      <c r="U477" s="1"/>
+      <c r="X477" s="1"/>
+    </row>
+    <row r="478" spans="1:24">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -12568,10 +12476,10 @@
       <c r="R478" s="1"/>
       <c r="S478" s="1"/>
       <c r="T478" s="1"/>
-      <c r="W478" s="1"/>
-      <c r="Y478" s="1"/>
-    </row>
-    <row r="479" spans="1:25">
+      <c r="U478" s="1"/>
+      <c r="X478" s="1"/>
+    </row>
+    <row r="479" spans="1:24">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -12591,10 +12499,10 @@
       <c r="R479" s="1"/>
       <c r="S479" s="1"/>
       <c r="T479" s="1"/>
-      <c r="W479" s="1"/>
-      <c r="Y479" s="1"/>
-    </row>
-    <row r="480" spans="1:25">
+      <c r="U479" s="1"/>
+      <c r="X479" s="1"/>
+    </row>
+    <row r="480" spans="1:24">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -12614,10 +12522,10 @@
       <c r="R480" s="1"/>
       <c r="S480" s="1"/>
       <c r="T480" s="1"/>
-      <c r="W480" s="1"/>
-      <c r="Y480" s="1"/>
-    </row>
-    <row r="481" spans="1:25">
+      <c r="U480" s="1"/>
+      <c r="X480" s="1"/>
+    </row>
+    <row r="481" spans="1:24">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -12637,10 +12545,10 @@
       <c r="R481" s="1"/>
       <c r="S481" s="1"/>
       <c r="T481" s="1"/>
-      <c r="W481" s="1"/>
-      <c r="Y481" s="1"/>
-    </row>
-    <row r="482" spans="1:25">
+      <c r="U481" s="1"/>
+      <c r="X481" s="1"/>
+    </row>
+    <row r="482" spans="1:24">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -12660,10 +12568,10 @@
       <c r="R482" s="1"/>
       <c r="S482" s="1"/>
       <c r="T482" s="1"/>
-      <c r="W482" s="1"/>
-      <c r="Y482" s="1"/>
-    </row>
-    <row r="483" spans="1:25">
+      <c r="U482" s="1"/>
+      <c r="X482" s="1"/>
+    </row>
+    <row r="483" spans="1:24">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -12683,10 +12591,10 @@
       <c r="R483" s="1"/>
       <c r="S483" s="1"/>
       <c r="T483" s="1"/>
-      <c r="W483" s="1"/>
-      <c r="Y483" s="1"/>
-    </row>
-    <row r="484" spans="1:25">
+      <c r="U483" s="1"/>
+      <c r="X483" s="1"/>
+    </row>
+    <row r="484" spans="1:24">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -12706,10 +12614,10 @@
       <c r="R484" s="1"/>
       <c r="S484" s="1"/>
       <c r="T484" s="1"/>
-      <c r="W484" s="1"/>
-      <c r="Y484" s="1"/>
-    </row>
-    <row r="485" spans="1:25">
+      <c r="U484" s="1"/>
+      <c r="X484" s="1"/>
+    </row>
+    <row r="485" spans="1:24">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -12729,10 +12637,10 @@
       <c r="R485" s="1"/>
       <c r="S485" s="1"/>
       <c r="T485" s="1"/>
-      <c r="W485" s="1"/>
-      <c r="Y485" s="1"/>
-    </row>
-    <row r="486" spans="1:25">
+      <c r="U485" s="1"/>
+      <c r="X485" s="1"/>
+    </row>
+    <row r="486" spans="1:24">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -12752,10 +12660,10 @@
       <c r="R486" s="1"/>
       <c r="S486" s="1"/>
       <c r="T486" s="1"/>
-      <c r="W486" s="1"/>
-      <c r="Y486" s="1"/>
-    </row>
-    <row r="487" spans="1:25">
+      <c r="U486" s="1"/>
+      <c r="X486" s="1"/>
+    </row>
+    <row r="487" spans="1:24">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -12775,10 +12683,10 @@
       <c r="R487" s="1"/>
       <c r="S487" s="1"/>
       <c r="T487" s="1"/>
-      <c r="W487" s="1"/>
-      <c r="Y487" s="1"/>
-    </row>
-    <row r="488" spans="1:25">
+      <c r="U487" s="1"/>
+      <c r="X487" s="1"/>
+    </row>
+    <row r="488" spans="1:24">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -12798,10 +12706,10 @@
       <c r="R488" s="1"/>
       <c r="S488" s="1"/>
       <c r="T488" s="1"/>
-      <c r="W488" s="1"/>
-      <c r="Y488" s="1"/>
-    </row>
-    <row r="489" spans="1:25">
+      <c r="U488" s="1"/>
+      <c r="X488" s="1"/>
+    </row>
+    <row r="489" spans="1:24">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -12821,10 +12729,10 @@
       <c r="R489" s="1"/>
       <c r="S489" s="1"/>
       <c r="T489" s="1"/>
-      <c r="W489" s="1"/>
-      <c r="Y489" s="1"/>
-    </row>
-    <row r="490" spans="1:25">
+      <c r="U489" s="1"/>
+      <c r="X489" s="1"/>
+    </row>
+    <row r="490" spans="1:24">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -12844,10 +12752,10 @@
       <c r="R490" s="1"/>
       <c r="S490" s="1"/>
       <c r="T490" s="1"/>
-      <c r="W490" s="1"/>
-      <c r="Y490" s="1"/>
-    </row>
-    <row r="491" spans="1:25">
+      <c r="U490" s="1"/>
+      <c r="X490" s="1"/>
+    </row>
+    <row r="491" spans="1:24">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -12867,10 +12775,10 @@
       <c r="R491" s="1"/>
       <c r="S491" s="1"/>
       <c r="T491" s="1"/>
-      <c r="W491" s="1"/>
-      <c r="Y491" s="1"/>
-    </row>
-    <row r="492" spans="1:25">
+      <c r="U491" s="1"/>
+      <c r="X491" s="1"/>
+    </row>
+    <row r="492" spans="1:24">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -12890,10 +12798,10 @@
       <c r="R492" s="1"/>
       <c r="S492" s="1"/>
       <c r="T492" s="1"/>
-      <c r="W492" s="1"/>
-      <c r="Y492" s="1"/>
-    </row>
-    <row r="493" spans="1:25">
+      <c r="U492" s="1"/>
+      <c r="X492" s="1"/>
+    </row>
+    <row r="493" spans="1:24">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -12913,10 +12821,10 @@
       <c r="R493" s="1"/>
       <c r="S493" s="1"/>
       <c r="T493" s="1"/>
-      <c r="W493" s="1"/>
-      <c r="Y493" s="1"/>
-    </row>
-    <row r="494" spans="1:25">
+      <c r="U493" s="1"/>
+      <c r="X493" s="1"/>
+    </row>
+    <row r="494" spans="1:24">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -12936,10 +12844,10 @@
       <c r="R494" s="1"/>
       <c r="S494" s="1"/>
       <c r="T494" s="1"/>
-      <c r="W494" s="1"/>
-      <c r="Y494" s="1"/>
-    </row>
-    <row r="495" spans="1:25">
+      <c r="U494" s="1"/>
+      <c r="X494" s="1"/>
+    </row>
+    <row r="495" spans="1:24">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -12959,10 +12867,10 @@
       <c r="R495" s="1"/>
       <c r="S495" s="1"/>
       <c r="T495" s="1"/>
-      <c r="W495" s="1"/>
-      <c r="Y495" s="1"/>
-    </row>
-    <row r="496" spans="1:25">
+      <c r="U495" s="1"/>
+      <c r="X495" s="1"/>
+    </row>
+    <row r="496" spans="1:24">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -12982,10 +12890,10 @@
       <c r="R496" s="1"/>
       <c r="S496" s="1"/>
       <c r="T496" s="1"/>
-      <c r="W496" s="1"/>
-      <c r="Y496" s="1"/>
-    </row>
-    <row r="497" spans="1:25">
+      <c r="U496" s="1"/>
+      <c r="X496" s="1"/>
+    </row>
+    <row r="497" spans="1:24">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -13005,10 +12913,10 @@
       <c r="R497" s="1"/>
       <c r="S497" s="1"/>
       <c r="T497" s="1"/>
-      <c r="W497" s="1"/>
-      <c r="Y497" s="1"/>
-    </row>
-    <row r="498" spans="1:25">
+      <c r="U497" s="1"/>
+      <c r="X497" s="1"/>
+    </row>
+    <row r="498" spans="1:24">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -13028,10 +12936,10 @@
       <c r="R498" s="1"/>
       <c r="S498" s="1"/>
       <c r="T498" s="1"/>
-      <c r="W498" s="1"/>
-      <c r="Y498" s="1"/>
-    </row>
-    <row r="499" spans="1:25">
+      <c r="U498" s="1"/>
+      <c r="X498" s="1"/>
+    </row>
+    <row r="499" spans="1:24">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -13051,10 +12959,10 @@
       <c r="R499" s="1"/>
       <c r="S499" s="1"/>
       <c r="T499" s="1"/>
-      <c r="W499" s="1"/>
-      <c r="Y499" s="1"/>
-    </row>
-    <row r="500" spans="1:25">
+      <c r="U499" s="1"/>
+      <c r="X499" s="1"/>
+    </row>
+    <row r="500" spans="1:24">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -13074,15 +12982,15 @@
       <c r="R500" s="1"/>
       <c r="S500" s="1"/>
       <c r="T500" s="1"/>
-      <c r="W500" s="1"/>
-      <c r="Y500" s="1"/>
+      <c r="U500" s="1"/>
+      <c r="X500" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="W1:X1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -25,7 +25,7 @@
     <t>止损线状态</t>
   </si>
   <si>
-    <t>是否向预期反向发展的指标</t>
+    <t>是否向预期相反方向走的指标</t>
   </si>
   <si>
     <t>强势卖出指标</t>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">上涨/下跌天数
 </t>
     </r>
@@ -66,6 +72,7 @@
         <b/>
         <sz val="8"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>(上涨大于65%考虑止盈；下跌大于65%考虑止损)</t>
@@ -124,12 +131,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -163,14 +170,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,8 +191,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,9 +229,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,30 +267,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -247,14 +283,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,7 +299,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,29 +307,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,7 +318,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="38">
@@ -359,7 +365,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +425,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,55 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,13 +473,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,73 +533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,8 +571,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,6 +621,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,21 +655,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -620,129 +665,90 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,65 +757,65 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,10 +831,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -861,9 +867,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -873,13 +876,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1207,14 +1207,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:X500"/>
+  <dimension ref="A1:W500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V2" sqref="V2"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1230,20 +1230,20 @@
     <col min="10" max="10" width="22.1696428571429" customWidth="1"/>
     <col min="11" max="11" width="13.5357142857143" customWidth="1"/>
     <col min="12" max="12" width="13.3839285714286" customWidth="1"/>
-    <col min="13" max="14" width="20.3839285714286" customWidth="1"/>
-    <col min="15" max="15" width="30.0625" customWidth="1"/>
-    <col min="16" max="16" width="40.4732142857143" customWidth="1"/>
-    <col min="17" max="17" width="25.4464285714286" customWidth="1"/>
-    <col min="18" max="18" width="28.7142857142857" customWidth="1"/>
-    <col min="19" max="19" width="30.0625" customWidth="1"/>
-    <col min="20" max="20" width="21.875" customWidth="1"/>
-    <col min="21" max="21" width="20.6785714285714" customWidth="1"/>
-    <col min="22" max="22" width="39.5803571428571" customWidth="1"/>
-    <col min="23" max="23" width="20.5267857142857" style="1" customWidth="1"/>
-    <col min="24" max="24" width="18.4464285714286" customWidth="1"/>
+    <col min="13" max="13" width="20.3839285714286" customWidth="1"/>
+    <col min="14" max="14" width="30.0625" customWidth="1"/>
+    <col min="15" max="15" width="40.4732142857143" customWidth="1"/>
+    <col min="16" max="16" width="25.4464285714286" customWidth="1"/>
+    <col min="17" max="17" width="28.7142857142857" customWidth="1"/>
+    <col min="18" max="18" width="30.0625" customWidth="1"/>
+    <col min="19" max="19" width="21.875" customWidth="1"/>
+    <col min="20" max="20" width="20.6785714285714" customWidth="1"/>
+    <col min="21" max="21" width="39.5803571428571" customWidth="1"/>
+    <col min="22" max="22" width="20.5267857142857" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.4464285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1272,14 +1272,13 @@
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
       <c r="T1" s="16"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20" t="s">
+      <c r="U1" s="16"/>
+      <c r="V1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="20"/>
-    </row>
-    <row r="2" ht="56" customHeight="1" spans="1:24">
+      <c r="W1" s="19"/>
+    </row>
+    <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -1318,40 +1317,37 @@
         <v>16</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="O2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="Q2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="R2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="S2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="T2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="U2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="V2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="W2" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:23">
       <c r="A3" s="5">
         <v>44523</v>
       </c>
@@ -1367,19 +1363,18 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="11"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="23"/>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="U3" s="6"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="21"/>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="7">
         <v>44524</v>
       </c>
@@ -1395,19 +1390,18 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="12"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="23"/>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="U4" s="6"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="21"/>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="7">
         <v>44525</v>
       </c>
@@ -1423,19 +1417,18 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="12"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="23"/>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="U5" s="6"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="21"/>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="7">
         <v>44526</v>
       </c>
@@ -1451,19 +1444,18 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="12"/>
+      <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="23"/>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="U6" s="6"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="21"/>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="7">
         <v>44527</v>
       </c>
@@ -1488,10 +1480,9 @@
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="6"/>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="W7" s="6"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="7">
         <v>44528</v>
       </c>
@@ -1516,10 +1507,9 @@
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="6"/>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="W8" s="6"/>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="7">
         <v>44529</v>
       </c>
@@ -1544,10 +1534,9 @@
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="6"/>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="W9" s="6"/>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="7">
         <v>44530</v>
       </c>
@@ -1572,10 +1561,9 @@
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="6"/>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="W10" s="6"/>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="7">
         <v>44531</v>
       </c>
@@ -1600,10 +1588,9 @@
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="6"/>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="W11" s="6"/>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="7">
         <v>44532</v>
       </c>
@@ -1628,10 +1615,9 @@
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="6"/>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="7">
         <v>44533</v>
       </c>
@@ -1656,10 +1642,9 @@
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="6"/>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="7">
         <v>44534</v>
       </c>
@@ -1684,10 +1669,9 @@
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="6"/>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="7">
         <v>44535</v>
       </c>
@@ -1712,10 +1696,9 @@
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="6"/>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="7">
         <v>44536</v>
       </c>
@@ -1740,10 +1723,9 @@
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="6"/>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="7">
         <v>44537</v>
       </c>
@@ -1768,10 +1750,9 @@
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="6"/>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="W17" s="6"/>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="7">
         <v>44538</v>
       </c>
@@ -1796,10 +1777,9 @@
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="6"/>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="7">
         <v>44539</v>
       </c>
@@ -1824,10 +1804,9 @@
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="6"/>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="7">
         <v>44540</v>
       </c>
@@ -1852,10 +1831,9 @@
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="6"/>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="W20" s="6"/>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="7">
         <v>44541</v>
       </c>
@@ -1880,10 +1858,9 @@
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="6"/>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="W21" s="6"/>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="7">
         <v>44542</v>
       </c>
@@ -1908,10 +1885,9 @@
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="6"/>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="W22" s="6"/>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="7">
         <v>44543</v>
       </c>
@@ -1936,10 +1912,9 @@
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="6"/>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="W23" s="6"/>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="7">
         <v>44544</v>
       </c>
@@ -1964,10 +1939,9 @@
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="6"/>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="W24" s="6"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="7">
         <v>44545</v>
       </c>
@@ -1990,12 +1964,11 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="25"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="10"/>
       <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-    </row>
-    <row r="26" spans="1:24">
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="7">
         <v>44546</v>
       </c>
@@ -2018,12 +1991,11 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="25"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="10"/>
       <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-    </row>
-    <row r="27" spans="1:24">
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="7">
         <v>44547</v>
       </c>
@@ -2046,12 +2018,11 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="25"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="10"/>
       <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-    </row>
-    <row r="28" spans="1:24">
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="7">
         <v>44548</v>
       </c>
@@ -2074,12 +2045,11 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="25"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="10"/>
       <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-    </row>
-    <row r="29" spans="1:24">
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="7">
         <v>44549</v>
       </c>
@@ -2102,12 +2072,11 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="25"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="10"/>
       <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-    </row>
-    <row r="30" spans="1:24">
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="7">
         <v>44550</v>
       </c>
@@ -2130,12 +2099,11 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="25"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="10"/>
       <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-    </row>
-    <row r="31" spans="1:24">
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="7">
         <v>44551</v>
       </c>
@@ -2158,12 +2126,11 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="25"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="10"/>
       <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-    </row>
-    <row r="32" spans="1:24">
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="7">
         <v>44552</v>
       </c>
@@ -2186,12 +2153,11 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="25"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="10"/>
       <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-    </row>
-    <row r="33" spans="1:24">
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="7">
         <v>44553</v>
       </c>
@@ -2214,12 +2180,11 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="25"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="10"/>
       <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-    </row>
-    <row r="34" spans="1:24">
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="7">
         <v>44554</v>
       </c>
@@ -2242,12 +2207,11 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="25"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="10"/>
       <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-    </row>
-    <row r="35" spans="1:24">
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="7">
         <v>44555</v>
       </c>
@@ -2270,12 +2234,11 @@
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="25"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="10"/>
       <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-    </row>
-    <row r="36" spans="1:24">
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="7">
         <v>44556</v>
       </c>
@@ -2298,12 +2261,11 @@
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="25"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="10"/>
       <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-    </row>
-    <row r="37" spans="1:24">
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="7">
         <v>44557</v>
       </c>
@@ -2326,12 +2288,11 @@
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="25"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="10"/>
       <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-    </row>
-    <row r="38" spans="1:24">
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="7">
         <v>44558</v>
       </c>
@@ -2354,12 +2315,11 @@
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="25"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="10"/>
       <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-    </row>
-    <row r="39" spans="1:24">
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2379,10 +2339,9 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="X39" s="1"/>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2402,10 +2361,9 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="X40" s="1"/>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2425,10 +2383,9 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="X41" s="1"/>
-    </row>
-    <row r="42" spans="1:24">
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2448,10 +2405,9 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="X42" s="1"/>
-    </row>
-    <row r="43" spans="1:24">
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2471,10 +2427,9 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="X43" s="1"/>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2494,10 +2449,9 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="X44" s="1"/>
-    </row>
-    <row r="45" spans="1:24">
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2517,10 +2471,9 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="X45" s="1"/>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2540,10 +2493,9 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="X46" s="1"/>
-    </row>
-    <row r="47" spans="1:24">
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2563,10 +2515,9 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="X47" s="1"/>
-    </row>
-    <row r="48" spans="1:24">
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2586,10 +2537,9 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="X48" s="1"/>
-    </row>
-    <row r="49" spans="1:24">
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2609,10 +2559,9 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="X49" s="1"/>
-    </row>
-    <row r="50" spans="1:24">
+      <c r="W49" s="1"/>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2632,10 +2581,9 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="X50" s="1"/>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="W50" s="1"/>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2655,10 +2603,9 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="X51" s="1"/>
-    </row>
-    <row r="52" spans="1:24">
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2678,10 +2625,9 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="X52" s="1"/>
-    </row>
-    <row r="53" spans="1:24">
+      <c r="W52" s="1"/>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2701,10 +2647,9 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="X53" s="1"/>
-    </row>
-    <row r="54" spans="1:24">
+      <c r="W53" s="1"/>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2724,10 +2669,9 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="X54" s="1"/>
-    </row>
-    <row r="55" spans="1:24">
+      <c r="W54" s="1"/>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2747,10 +2691,9 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="X55" s="1"/>
-    </row>
-    <row r="56" spans="1:24">
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2770,10 +2713,9 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="X56" s="1"/>
-    </row>
-    <row r="57" spans="1:24">
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2793,10 +2735,9 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="X57" s="1"/>
-    </row>
-    <row r="58" spans="1:24">
+      <c r="W57" s="1"/>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2816,10 +2757,9 @@
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="X58" s="1"/>
-    </row>
-    <row r="59" spans="1:24">
+      <c r="W58" s="1"/>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2839,10 +2779,9 @@
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="X59" s="1"/>
-    </row>
-    <row r="60" spans="1:24">
+      <c r="W59" s="1"/>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2862,10 +2801,9 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="X60" s="1"/>
-    </row>
-    <row r="61" spans="1:24">
+      <c r="W60" s="1"/>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2885,10 +2823,9 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="X61" s="1"/>
-    </row>
-    <row r="62" spans="1:24">
+      <c r="W61" s="1"/>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2908,10 +2845,9 @@
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="X62" s="1"/>
-    </row>
-    <row r="63" spans="1:24">
+      <c r="W62" s="1"/>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2931,10 +2867,9 @@
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="X63" s="1"/>
-    </row>
-    <row r="64" spans="1:24">
+      <c r="W63" s="1"/>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2954,10 +2889,9 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="X64" s="1"/>
-    </row>
-    <row r="65" spans="1:24">
+      <c r="W64" s="1"/>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2977,10 +2911,9 @@
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="X65" s="1"/>
-    </row>
-    <row r="66" spans="1:24">
+      <c r="W65" s="1"/>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3000,10 +2933,9 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="X66" s="1"/>
-    </row>
-    <row r="67" spans="1:24">
+      <c r="W66" s="1"/>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3023,10 +2955,9 @@
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="X67" s="1"/>
-    </row>
-    <row r="68" spans="1:24">
+      <c r="W67" s="1"/>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3046,10 +2977,9 @@
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="X68" s="1"/>
-    </row>
-    <row r="69" spans="1:24">
+      <c r="W68" s="1"/>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3069,10 +2999,9 @@
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="X69" s="1"/>
-    </row>
-    <row r="70" spans="1:24">
+      <c r="W69" s="1"/>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3092,10 +3021,9 @@
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="X70" s="1"/>
-    </row>
-    <row r="71" spans="1:24">
+      <c r="W70" s="1"/>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3115,10 +3043,9 @@
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="X71" s="1"/>
-    </row>
-    <row r="72" spans="1:24">
+      <c r="W71" s="1"/>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3138,10 +3065,9 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="X72" s="1"/>
-    </row>
-    <row r="73" spans="1:24">
+      <c r="W72" s="1"/>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3161,10 +3087,9 @@
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="X73" s="1"/>
-    </row>
-    <row r="74" spans="1:24">
+      <c r="W73" s="1"/>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3184,10 +3109,9 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="X74" s="1"/>
-    </row>
-    <row r="75" spans="1:24">
+      <c r="W74" s="1"/>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3207,10 +3131,9 @@
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="X75" s="1"/>
-    </row>
-    <row r="76" spans="1:24">
+      <c r="W75" s="1"/>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3230,10 +3153,9 @@
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="X76" s="1"/>
-    </row>
-    <row r="77" spans="1:24">
+      <c r="W76" s="1"/>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3253,10 +3175,9 @@
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="X77" s="1"/>
-    </row>
-    <row r="78" spans="1:24">
+      <c r="W77" s="1"/>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3276,10 +3197,9 @@
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="X78" s="1"/>
-    </row>
-    <row r="79" spans="1:24">
+      <c r="W78" s="1"/>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3299,10 +3219,9 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="X79" s="1"/>
-    </row>
-    <row r="80" spans="1:24">
+      <c r="W79" s="1"/>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3322,10 +3241,9 @@
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="X80" s="1"/>
-    </row>
-    <row r="81" spans="1:24">
+      <c r="W80" s="1"/>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3345,10 +3263,9 @@
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="X81" s="1"/>
-    </row>
-    <row r="82" spans="1:24">
+      <c r="W81" s="1"/>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3368,10 +3285,9 @@
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
-      <c r="X82" s="1"/>
-    </row>
-    <row r="83" spans="1:24">
+      <c r="W82" s="1"/>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3391,10 +3307,9 @@
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
-      <c r="X83" s="1"/>
-    </row>
-    <row r="84" spans="1:24">
+      <c r="W83" s="1"/>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3414,10 +3329,9 @@
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
-      <c r="U84" s="1"/>
-      <c r="X84" s="1"/>
-    </row>
-    <row r="85" spans="1:24">
+      <c r="W84" s="1"/>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3437,10 +3351,9 @@
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
-      <c r="X85" s="1"/>
-    </row>
-    <row r="86" spans="1:24">
+      <c r="W85" s="1"/>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3460,10 +3373,9 @@
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
-      <c r="X86" s="1"/>
-    </row>
-    <row r="87" spans="1:24">
+      <c r="W86" s="1"/>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3483,10 +3395,9 @@
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
-      <c r="X87" s="1"/>
-    </row>
-    <row r="88" spans="1:24">
+      <c r="W87" s="1"/>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3506,10 +3417,9 @@
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="X88" s="1"/>
-    </row>
-    <row r="89" spans="1:24">
+      <c r="W88" s="1"/>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3529,10 +3439,9 @@
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="X89" s="1"/>
-    </row>
-    <row r="90" spans="1:24">
+      <c r="W89" s="1"/>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3552,10 +3461,9 @@
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="X90" s="1"/>
-    </row>
-    <row r="91" spans="1:24">
+      <c r="W90" s="1"/>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3575,10 +3483,9 @@
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="X91" s="1"/>
-    </row>
-    <row r="92" spans="1:24">
+      <c r="W91" s="1"/>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3598,10 +3505,9 @@
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="X92" s="1"/>
-    </row>
-    <row r="93" spans="1:24">
+      <c r="W92" s="1"/>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3621,10 +3527,9 @@
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
-      <c r="U93" s="1"/>
-      <c r="X93" s="1"/>
-    </row>
-    <row r="94" spans="1:24">
+      <c r="W93" s="1"/>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3644,10 +3549,9 @@
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
-      <c r="U94" s="1"/>
-      <c r="X94" s="1"/>
-    </row>
-    <row r="95" spans="1:24">
+      <c r="W94" s="1"/>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3667,10 +3571,9 @@
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
-      <c r="U95" s="1"/>
-      <c r="X95" s="1"/>
-    </row>
-    <row r="96" spans="1:24">
+      <c r="W95" s="1"/>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3690,10 +3593,9 @@
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
-      <c r="X96" s="1"/>
-    </row>
-    <row r="97" spans="1:24">
+      <c r="W96" s="1"/>
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3713,10 +3615,9 @@
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="X97" s="1"/>
-    </row>
-    <row r="98" spans="1:24">
+      <c r="W97" s="1"/>
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3736,10 +3637,9 @@
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
-      <c r="U98" s="1"/>
-      <c r="X98" s="1"/>
-    </row>
-    <row r="99" spans="1:24">
+      <c r="W98" s="1"/>
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3759,10 +3659,9 @@
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="X99" s="1"/>
-    </row>
-    <row r="100" spans="1:24">
+      <c r="W99" s="1"/>
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3782,10 +3681,9 @@
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="X100" s="1"/>
-    </row>
-    <row r="101" spans="1:24">
+      <c r="W100" s="1"/>
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3805,10 +3703,9 @@
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
-      <c r="X101" s="1"/>
-    </row>
-    <row r="102" spans="1:24">
+      <c r="W101" s="1"/>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3828,10 +3725,9 @@
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
-      <c r="U102" s="1"/>
-      <c r="X102" s="1"/>
-    </row>
-    <row r="103" spans="1:24">
+      <c r="W102" s="1"/>
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3851,10 +3747,9 @@
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
-      <c r="U103" s="1"/>
-      <c r="X103" s="1"/>
-    </row>
-    <row r="104" spans="1:24">
+      <c r="W103" s="1"/>
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3874,10 +3769,9 @@
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
-      <c r="U104" s="1"/>
-      <c r="X104" s="1"/>
-    </row>
-    <row r="105" spans="1:24">
+      <c r="W104" s="1"/>
+    </row>
+    <row r="105" spans="1:23">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3897,10 +3791,9 @@
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
-      <c r="U105" s="1"/>
-      <c r="X105" s="1"/>
-    </row>
-    <row r="106" spans="1:24">
+      <c r="W105" s="1"/>
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3920,10 +3813,9 @@
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
-      <c r="U106" s="1"/>
-      <c r="X106" s="1"/>
-    </row>
-    <row r="107" spans="1:24">
+      <c r="W106" s="1"/>
+    </row>
+    <row r="107" spans="1:23">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3943,10 +3835,9 @@
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
-      <c r="U107" s="1"/>
-      <c r="X107" s="1"/>
-    </row>
-    <row r="108" spans="1:24">
+      <c r="W107" s="1"/>
+    </row>
+    <row r="108" spans="1:23">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -3966,10 +3857,9 @@
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
-      <c r="U108" s="1"/>
-      <c r="X108" s="1"/>
-    </row>
-    <row r="109" spans="1:24">
+      <c r="W108" s="1"/>
+    </row>
+    <row r="109" spans="1:23">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -3989,10 +3879,9 @@
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
-      <c r="U109" s="1"/>
-      <c r="X109" s="1"/>
-    </row>
-    <row r="110" spans="1:24">
+      <c r="W109" s="1"/>
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4012,10 +3901,9 @@
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
-      <c r="U110" s="1"/>
-      <c r="X110" s="1"/>
-    </row>
-    <row r="111" spans="1:24">
+      <c r="W110" s="1"/>
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4035,10 +3923,9 @@
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
-      <c r="U111" s="1"/>
-      <c r="X111" s="1"/>
-    </row>
-    <row r="112" spans="1:24">
+      <c r="W111" s="1"/>
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4058,10 +3945,9 @@
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
-      <c r="U112" s="1"/>
-      <c r="X112" s="1"/>
-    </row>
-    <row r="113" spans="1:24">
+      <c r="W112" s="1"/>
+    </row>
+    <row r="113" spans="1:23">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4081,10 +3967,9 @@
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
-      <c r="U113" s="1"/>
-      <c r="X113" s="1"/>
-    </row>
-    <row r="114" spans="1:24">
+      <c r="W113" s="1"/>
+    </row>
+    <row r="114" spans="1:23">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4104,10 +3989,9 @@
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
-      <c r="U114" s="1"/>
-      <c r="X114" s="1"/>
-    </row>
-    <row r="115" spans="1:24">
+      <c r="W114" s="1"/>
+    </row>
+    <row r="115" spans="1:23">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4127,10 +4011,9 @@
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
-      <c r="U115" s="1"/>
-      <c r="X115" s="1"/>
-    </row>
-    <row r="116" spans="1:24">
+      <c r="W115" s="1"/>
+    </row>
+    <row r="116" spans="1:23">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4150,10 +4033,9 @@
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
-      <c r="U116" s="1"/>
-      <c r="X116" s="1"/>
-    </row>
-    <row r="117" spans="1:24">
+      <c r="W116" s="1"/>
+    </row>
+    <row r="117" spans="1:23">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4173,10 +4055,9 @@
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
-      <c r="U117" s="1"/>
-      <c r="X117" s="1"/>
-    </row>
-    <row r="118" spans="1:24">
+      <c r="W117" s="1"/>
+    </row>
+    <row r="118" spans="1:23">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4196,10 +4077,9 @@
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
-      <c r="U118" s="1"/>
-      <c r="X118" s="1"/>
-    </row>
-    <row r="119" spans="1:24">
+      <c r="W118" s="1"/>
+    </row>
+    <row r="119" spans="1:23">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4219,10 +4099,9 @@
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
-      <c r="U119" s="1"/>
-      <c r="X119" s="1"/>
-    </row>
-    <row r="120" spans="1:24">
+      <c r="W119" s="1"/>
+    </row>
+    <row r="120" spans="1:23">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4242,10 +4121,9 @@
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
-      <c r="U120" s="1"/>
-      <c r="X120" s="1"/>
-    </row>
-    <row r="121" spans="1:24">
+      <c r="W120" s="1"/>
+    </row>
+    <row r="121" spans="1:23">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4265,10 +4143,9 @@
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
-      <c r="U121" s="1"/>
-      <c r="X121" s="1"/>
-    </row>
-    <row r="122" spans="1:24">
+      <c r="W121" s="1"/>
+    </row>
+    <row r="122" spans="1:23">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4288,10 +4165,9 @@
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
-      <c r="U122" s="1"/>
-      <c r="X122" s="1"/>
-    </row>
-    <row r="123" spans="1:24">
+      <c r="W122" s="1"/>
+    </row>
+    <row r="123" spans="1:23">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4311,10 +4187,9 @@
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
-      <c r="U123" s="1"/>
-      <c r="X123" s="1"/>
-    </row>
-    <row r="124" spans="1:24">
+      <c r="W123" s="1"/>
+    </row>
+    <row r="124" spans="1:23">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4334,10 +4209,9 @@
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
-      <c r="U124" s="1"/>
-      <c r="X124" s="1"/>
-    </row>
-    <row r="125" spans="1:24">
+      <c r="W124" s="1"/>
+    </row>
+    <row r="125" spans="1:23">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4357,10 +4231,9 @@
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
-      <c r="U125" s="1"/>
-      <c r="X125" s="1"/>
-    </row>
-    <row r="126" spans="1:24">
+      <c r="W125" s="1"/>
+    </row>
+    <row r="126" spans="1:23">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4380,10 +4253,9 @@
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
-      <c r="U126" s="1"/>
-      <c r="X126" s="1"/>
-    </row>
-    <row r="127" spans="1:24">
+      <c r="W126" s="1"/>
+    </row>
+    <row r="127" spans="1:23">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4403,10 +4275,9 @@
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
-      <c r="U127" s="1"/>
-      <c r="X127" s="1"/>
-    </row>
-    <row r="128" spans="1:24">
+      <c r="W127" s="1"/>
+    </row>
+    <row r="128" spans="1:23">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4426,10 +4297,9 @@
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
-      <c r="U128" s="1"/>
-      <c r="X128" s="1"/>
-    </row>
-    <row r="129" spans="1:24">
+      <c r="W128" s="1"/>
+    </row>
+    <row r="129" spans="1:23">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4449,10 +4319,9 @@
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
-      <c r="U129" s="1"/>
-      <c r="X129" s="1"/>
-    </row>
-    <row r="130" spans="1:24">
+      <c r="W129" s="1"/>
+    </row>
+    <row r="130" spans="1:23">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4472,10 +4341,9 @@
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
-      <c r="U130" s="1"/>
-      <c r="X130" s="1"/>
-    </row>
-    <row r="131" spans="1:24">
+      <c r="W130" s="1"/>
+    </row>
+    <row r="131" spans="1:23">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4495,10 +4363,9 @@
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
-      <c r="U131" s="1"/>
-      <c r="X131" s="1"/>
-    </row>
-    <row r="132" spans="1:24">
+      <c r="W131" s="1"/>
+    </row>
+    <row r="132" spans="1:23">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4518,10 +4385,9 @@
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
-      <c r="U132" s="1"/>
-      <c r="X132" s="1"/>
-    </row>
-    <row r="133" spans="1:24">
+      <c r="W132" s="1"/>
+    </row>
+    <row r="133" spans="1:23">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4541,10 +4407,9 @@
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
-      <c r="U133" s="1"/>
-      <c r="X133" s="1"/>
-    </row>
-    <row r="134" spans="1:24">
+      <c r="W133" s="1"/>
+    </row>
+    <row r="134" spans="1:23">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4564,10 +4429,9 @@
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
-      <c r="U134" s="1"/>
-      <c r="X134" s="1"/>
-    </row>
-    <row r="135" spans="1:24">
+      <c r="W134" s="1"/>
+    </row>
+    <row r="135" spans="1:23">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4587,10 +4451,9 @@
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
-      <c r="U135" s="1"/>
-      <c r="X135" s="1"/>
-    </row>
-    <row r="136" spans="1:24">
+      <c r="W135" s="1"/>
+    </row>
+    <row r="136" spans="1:23">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4610,10 +4473,9 @@
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
-      <c r="U136" s="1"/>
-      <c r="X136" s="1"/>
-    </row>
-    <row r="137" spans="1:24">
+      <c r="W136" s="1"/>
+    </row>
+    <row r="137" spans="1:23">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4633,10 +4495,9 @@
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
-      <c r="U137" s="1"/>
-      <c r="X137" s="1"/>
-    </row>
-    <row r="138" spans="1:24">
+      <c r="W137" s="1"/>
+    </row>
+    <row r="138" spans="1:23">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4656,10 +4517,9 @@
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
-      <c r="U138" s="1"/>
-      <c r="X138" s="1"/>
-    </row>
-    <row r="139" spans="1:24">
+      <c r="W138" s="1"/>
+    </row>
+    <row r="139" spans="1:23">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4679,10 +4539,9 @@
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
-      <c r="U139" s="1"/>
-      <c r="X139" s="1"/>
-    </row>
-    <row r="140" spans="1:24">
+      <c r="W139" s="1"/>
+    </row>
+    <row r="140" spans="1:23">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4702,10 +4561,9 @@
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
-      <c r="U140" s="1"/>
-      <c r="X140" s="1"/>
-    </row>
-    <row r="141" spans="1:24">
+      <c r="W140" s="1"/>
+    </row>
+    <row r="141" spans="1:23">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4725,10 +4583,9 @@
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
-      <c r="U141" s="1"/>
-      <c r="X141" s="1"/>
-    </row>
-    <row r="142" spans="1:24">
+      <c r="W141" s="1"/>
+    </row>
+    <row r="142" spans="1:23">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4748,10 +4605,9 @@
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
-      <c r="U142" s="1"/>
-      <c r="X142" s="1"/>
-    </row>
-    <row r="143" spans="1:24">
+      <c r="W142" s="1"/>
+    </row>
+    <row r="143" spans="1:23">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4771,10 +4627,9 @@
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
-      <c r="U143" s="1"/>
-      <c r="X143" s="1"/>
-    </row>
-    <row r="144" spans="1:24">
+      <c r="W143" s="1"/>
+    </row>
+    <row r="144" spans="1:23">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4794,10 +4649,9 @@
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
-      <c r="U144" s="1"/>
-      <c r="X144" s="1"/>
-    </row>
-    <row r="145" spans="1:24">
+      <c r="W144" s="1"/>
+    </row>
+    <row r="145" spans="1:23">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4817,10 +4671,9 @@
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
-      <c r="U145" s="1"/>
-      <c r="X145" s="1"/>
-    </row>
-    <row r="146" spans="1:24">
+      <c r="W145" s="1"/>
+    </row>
+    <row r="146" spans="1:23">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4840,10 +4693,9 @@
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
-      <c r="U146" s="1"/>
-      <c r="X146" s="1"/>
-    </row>
-    <row r="147" spans="1:24">
+      <c r="W146" s="1"/>
+    </row>
+    <row r="147" spans="1:23">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4863,10 +4715,9 @@
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
-      <c r="U147" s="1"/>
-      <c r="X147" s="1"/>
-    </row>
-    <row r="148" spans="1:24">
+      <c r="W147" s="1"/>
+    </row>
+    <row r="148" spans="1:23">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4886,10 +4737,9 @@
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
-      <c r="U148" s="1"/>
-      <c r="X148" s="1"/>
-    </row>
-    <row r="149" spans="1:24">
+      <c r="W148" s="1"/>
+    </row>
+    <row r="149" spans="1:23">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4909,10 +4759,9 @@
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
-      <c r="U149" s="1"/>
-      <c r="X149" s="1"/>
-    </row>
-    <row r="150" spans="1:24">
+      <c r="W149" s="1"/>
+    </row>
+    <row r="150" spans="1:23">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4932,10 +4781,9 @@
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
-      <c r="U150" s="1"/>
-      <c r="X150" s="1"/>
-    </row>
-    <row r="151" spans="1:24">
+      <c r="W150" s="1"/>
+    </row>
+    <row r="151" spans="1:23">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4955,10 +4803,9 @@
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
-      <c r="U151" s="1"/>
-      <c r="X151" s="1"/>
-    </row>
-    <row r="152" spans="1:24">
+      <c r="W151" s="1"/>
+    </row>
+    <row r="152" spans="1:23">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4978,10 +4825,9 @@
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
-      <c r="U152" s="1"/>
-      <c r="X152" s="1"/>
-    </row>
-    <row r="153" spans="1:24">
+      <c r="W152" s="1"/>
+    </row>
+    <row r="153" spans="1:23">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5001,10 +4847,9 @@
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
-      <c r="U153" s="1"/>
-      <c r="X153" s="1"/>
-    </row>
-    <row r="154" spans="1:24">
+      <c r="W153" s="1"/>
+    </row>
+    <row r="154" spans="1:23">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5024,10 +4869,9 @@
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
-      <c r="U154" s="1"/>
-      <c r="X154" s="1"/>
-    </row>
-    <row r="155" spans="1:24">
+      <c r="W154" s="1"/>
+    </row>
+    <row r="155" spans="1:23">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5047,10 +4891,9 @@
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
-      <c r="U155" s="1"/>
-      <c r="X155" s="1"/>
-    </row>
-    <row r="156" spans="1:24">
+      <c r="W155" s="1"/>
+    </row>
+    <row r="156" spans="1:23">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5070,10 +4913,9 @@
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
-      <c r="U156" s="1"/>
-      <c r="X156" s="1"/>
-    </row>
-    <row r="157" spans="1:24">
+      <c r="W156" s="1"/>
+    </row>
+    <row r="157" spans="1:23">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5093,10 +4935,9 @@
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
-      <c r="U157" s="1"/>
-      <c r="X157" s="1"/>
-    </row>
-    <row r="158" spans="1:24">
+      <c r="W157" s="1"/>
+    </row>
+    <row r="158" spans="1:23">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5116,10 +4957,9 @@
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
-      <c r="U158" s="1"/>
-      <c r="X158" s="1"/>
-    </row>
-    <row r="159" spans="1:24">
+      <c r="W158" s="1"/>
+    </row>
+    <row r="159" spans="1:23">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5139,10 +4979,9 @@
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
-      <c r="U159" s="1"/>
-      <c r="X159" s="1"/>
-    </row>
-    <row r="160" spans="1:24">
+      <c r="W159" s="1"/>
+    </row>
+    <row r="160" spans="1:23">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5162,10 +5001,9 @@
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
-      <c r="U160" s="1"/>
-      <c r="X160" s="1"/>
-    </row>
-    <row r="161" spans="1:24">
+      <c r="W160" s="1"/>
+    </row>
+    <row r="161" spans="1:23">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5185,10 +5023,9 @@
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
-      <c r="U161" s="1"/>
-      <c r="X161" s="1"/>
-    </row>
-    <row r="162" spans="1:24">
+      <c r="W161" s="1"/>
+    </row>
+    <row r="162" spans="1:23">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5208,10 +5045,9 @@
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
-      <c r="U162" s="1"/>
-      <c r="X162" s="1"/>
-    </row>
-    <row r="163" spans="1:24">
+      <c r="W162" s="1"/>
+    </row>
+    <row r="163" spans="1:23">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5231,10 +5067,9 @@
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
-      <c r="U163" s="1"/>
-      <c r="X163" s="1"/>
-    </row>
-    <row r="164" spans="1:24">
+      <c r="W163" s="1"/>
+    </row>
+    <row r="164" spans="1:23">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5254,10 +5089,9 @@
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
-      <c r="U164" s="1"/>
-      <c r="X164" s="1"/>
-    </row>
-    <row r="165" spans="1:24">
+      <c r="W164" s="1"/>
+    </row>
+    <row r="165" spans="1:23">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5277,10 +5111,9 @@
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
-      <c r="U165" s="1"/>
-      <c r="X165" s="1"/>
-    </row>
-    <row r="166" spans="1:24">
+      <c r="W165" s="1"/>
+    </row>
+    <row r="166" spans="1:23">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5300,10 +5133,9 @@
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
-      <c r="U166" s="1"/>
-      <c r="X166" s="1"/>
-    </row>
-    <row r="167" spans="1:24">
+      <c r="W166" s="1"/>
+    </row>
+    <row r="167" spans="1:23">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5323,10 +5155,9 @@
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
-      <c r="U167" s="1"/>
-      <c r="X167" s="1"/>
-    </row>
-    <row r="168" spans="1:24">
+      <c r="W167" s="1"/>
+    </row>
+    <row r="168" spans="1:23">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5346,10 +5177,9 @@
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
-      <c r="U168" s="1"/>
-      <c r="X168" s="1"/>
-    </row>
-    <row r="169" spans="1:24">
+      <c r="W168" s="1"/>
+    </row>
+    <row r="169" spans="1:23">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5369,10 +5199,9 @@
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
-      <c r="U169" s="1"/>
-      <c r="X169" s="1"/>
-    </row>
-    <row r="170" spans="1:24">
+      <c r="W169" s="1"/>
+    </row>
+    <row r="170" spans="1:23">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5392,10 +5221,9 @@
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
-      <c r="U170" s="1"/>
-      <c r="X170" s="1"/>
-    </row>
-    <row r="171" spans="1:24">
+      <c r="W170" s="1"/>
+    </row>
+    <row r="171" spans="1:23">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5415,10 +5243,9 @@
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
-      <c r="U171" s="1"/>
-      <c r="X171" s="1"/>
-    </row>
-    <row r="172" spans="1:24">
+      <c r="W171" s="1"/>
+    </row>
+    <row r="172" spans="1:23">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5438,10 +5265,9 @@
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
-      <c r="U172" s="1"/>
-      <c r="X172" s="1"/>
-    </row>
-    <row r="173" spans="1:24">
+      <c r="W172" s="1"/>
+    </row>
+    <row r="173" spans="1:23">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5461,10 +5287,9 @@
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
-      <c r="U173" s="1"/>
-      <c r="X173" s="1"/>
-    </row>
-    <row r="174" spans="1:24">
+      <c r="W173" s="1"/>
+    </row>
+    <row r="174" spans="1:23">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5484,10 +5309,9 @@
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
-      <c r="U174" s="1"/>
-      <c r="X174" s="1"/>
-    </row>
-    <row r="175" spans="1:24">
+      <c r="W174" s="1"/>
+    </row>
+    <row r="175" spans="1:23">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5507,10 +5331,9 @@
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
-      <c r="U175" s="1"/>
-      <c r="X175" s="1"/>
-    </row>
-    <row r="176" spans="1:24">
+      <c r="W175" s="1"/>
+    </row>
+    <row r="176" spans="1:23">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5530,10 +5353,9 @@
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
-      <c r="U176" s="1"/>
-      <c r="X176" s="1"/>
-    </row>
-    <row r="177" spans="1:24">
+      <c r="W176" s="1"/>
+    </row>
+    <row r="177" spans="1:23">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5553,10 +5375,9 @@
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
-      <c r="U177" s="1"/>
-      <c r="X177" s="1"/>
-    </row>
-    <row r="178" spans="1:24">
+      <c r="W177" s="1"/>
+    </row>
+    <row r="178" spans="1:23">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5576,10 +5397,9 @@
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
-      <c r="U178" s="1"/>
-      <c r="X178" s="1"/>
-    </row>
-    <row r="179" spans="1:24">
+      <c r="W178" s="1"/>
+    </row>
+    <row r="179" spans="1:23">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5599,10 +5419,9 @@
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
-      <c r="U179" s="1"/>
-      <c r="X179" s="1"/>
-    </row>
-    <row r="180" spans="1:24">
+      <c r="W179" s="1"/>
+    </row>
+    <row r="180" spans="1:23">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5622,10 +5441,9 @@
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
-      <c r="U180" s="1"/>
-      <c r="X180" s="1"/>
-    </row>
-    <row r="181" spans="1:24">
+      <c r="W180" s="1"/>
+    </row>
+    <row r="181" spans="1:23">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5645,10 +5463,9 @@
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
-      <c r="U181" s="1"/>
-      <c r="X181" s="1"/>
-    </row>
-    <row r="182" spans="1:24">
+      <c r="W181" s="1"/>
+    </row>
+    <row r="182" spans="1:23">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5668,10 +5485,9 @@
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
-      <c r="U182" s="1"/>
-      <c r="X182" s="1"/>
-    </row>
-    <row r="183" spans="1:24">
+      <c r="W182" s="1"/>
+    </row>
+    <row r="183" spans="1:23">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5691,10 +5507,9 @@
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
-      <c r="U183" s="1"/>
-      <c r="X183" s="1"/>
-    </row>
-    <row r="184" spans="1:24">
+      <c r="W183" s="1"/>
+    </row>
+    <row r="184" spans="1:23">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5714,10 +5529,9 @@
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
-      <c r="U184" s="1"/>
-      <c r="X184" s="1"/>
-    </row>
-    <row r="185" spans="1:24">
+      <c r="W184" s="1"/>
+    </row>
+    <row r="185" spans="1:23">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5737,10 +5551,9 @@
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
-      <c r="U185" s="1"/>
-      <c r="X185" s="1"/>
-    </row>
-    <row r="186" spans="1:24">
+      <c r="W185" s="1"/>
+    </row>
+    <row r="186" spans="1:23">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5760,10 +5573,9 @@
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
-      <c r="U186" s="1"/>
-      <c r="X186" s="1"/>
-    </row>
-    <row r="187" spans="1:24">
+      <c r="W186" s="1"/>
+    </row>
+    <row r="187" spans="1:23">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5783,10 +5595,9 @@
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
-      <c r="U187" s="1"/>
-      <c r="X187" s="1"/>
-    </row>
-    <row r="188" spans="1:24">
+      <c r="W187" s="1"/>
+    </row>
+    <row r="188" spans="1:23">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5806,10 +5617,9 @@
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
-      <c r="U188" s="1"/>
-      <c r="X188" s="1"/>
-    </row>
-    <row r="189" spans="1:24">
+      <c r="W188" s="1"/>
+    </row>
+    <row r="189" spans="1:23">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5829,10 +5639,9 @@
       <c r="R189" s="1"/>
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
-      <c r="U189" s="1"/>
-      <c r="X189" s="1"/>
-    </row>
-    <row r="190" spans="1:24">
+      <c r="W189" s="1"/>
+    </row>
+    <row r="190" spans="1:23">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5852,10 +5661,9 @@
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
-      <c r="U190" s="1"/>
-      <c r="X190" s="1"/>
-    </row>
-    <row r="191" spans="1:24">
+      <c r="W190" s="1"/>
+    </row>
+    <row r="191" spans="1:23">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5875,10 +5683,9 @@
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
-      <c r="U191" s="1"/>
-      <c r="X191" s="1"/>
-    </row>
-    <row r="192" spans="1:24">
+      <c r="W191" s="1"/>
+    </row>
+    <row r="192" spans="1:23">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5898,10 +5705,9 @@
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
-      <c r="U192" s="1"/>
-      <c r="X192" s="1"/>
-    </row>
-    <row r="193" spans="1:24">
+      <c r="W192" s="1"/>
+    </row>
+    <row r="193" spans="1:23">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5921,10 +5727,9 @@
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
-      <c r="U193" s="1"/>
-      <c r="X193" s="1"/>
-    </row>
-    <row r="194" spans="1:24">
+      <c r="W193" s="1"/>
+    </row>
+    <row r="194" spans="1:23">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5944,10 +5749,9 @@
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
-      <c r="U194" s="1"/>
-      <c r="X194" s="1"/>
-    </row>
-    <row r="195" spans="1:24">
+      <c r="W194" s="1"/>
+    </row>
+    <row r="195" spans="1:23">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5967,10 +5771,9 @@
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
-      <c r="U195" s="1"/>
-      <c r="X195" s="1"/>
-    </row>
-    <row r="196" spans="1:24">
+      <c r="W195" s="1"/>
+    </row>
+    <row r="196" spans="1:23">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5990,10 +5793,9 @@
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
-      <c r="U196" s="1"/>
-      <c r="X196" s="1"/>
-    </row>
-    <row r="197" spans="1:24">
+      <c r="W196" s="1"/>
+    </row>
+    <row r="197" spans="1:23">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6013,10 +5815,9 @@
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
-      <c r="U197" s="1"/>
-      <c r="X197" s="1"/>
-    </row>
-    <row r="198" spans="1:24">
+      <c r="W197" s="1"/>
+    </row>
+    <row r="198" spans="1:23">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -6036,10 +5837,9 @@
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
-      <c r="U198" s="1"/>
-      <c r="X198" s="1"/>
-    </row>
-    <row r="199" spans="1:24">
+      <c r="W198" s="1"/>
+    </row>
+    <row r="199" spans="1:23">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6059,10 +5859,9 @@
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
-      <c r="U199" s="1"/>
-      <c r="X199" s="1"/>
-    </row>
-    <row r="200" spans="1:24">
+      <c r="W199" s="1"/>
+    </row>
+    <row r="200" spans="1:23">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6082,10 +5881,9 @@
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
-      <c r="U200" s="1"/>
-      <c r="X200" s="1"/>
-    </row>
-    <row r="201" spans="1:24">
+      <c r="W200" s="1"/>
+    </row>
+    <row r="201" spans="1:23">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6105,10 +5903,9 @@
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
       <c r="T201" s="1"/>
-      <c r="U201" s="1"/>
-      <c r="X201" s="1"/>
-    </row>
-    <row r="202" spans="1:24">
+      <c r="W201" s="1"/>
+    </row>
+    <row r="202" spans="1:23">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6128,10 +5925,9 @@
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
       <c r="T202" s="1"/>
-      <c r="U202" s="1"/>
-      <c r="X202" s="1"/>
-    </row>
-    <row r="203" spans="1:24">
+      <c r="W202" s="1"/>
+    </row>
+    <row r="203" spans="1:23">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6151,10 +5947,9 @@
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
       <c r="T203" s="1"/>
-      <c r="U203" s="1"/>
-      <c r="X203" s="1"/>
-    </row>
-    <row r="204" spans="1:24">
+      <c r="W203" s="1"/>
+    </row>
+    <row r="204" spans="1:23">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6174,10 +5969,9 @@
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
       <c r="T204" s="1"/>
-      <c r="U204" s="1"/>
-      <c r="X204" s="1"/>
-    </row>
-    <row r="205" spans="1:24">
+      <c r="W204" s="1"/>
+    </row>
+    <row r="205" spans="1:23">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6197,10 +5991,9 @@
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
       <c r="T205" s="1"/>
-      <c r="U205" s="1"/>
-      <c r="X205" s="1"/>
-    </row>
-    <row r="206" spans="1:24">
+      <c r="W205" s="1"/>
+    </row>
+    <row r="206" spans="1:23">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6220,10 +6013,9 @@
       <c r="R206" s="1"/>
       <c r="S206" s="1"/>
       <c r="T206" s="1"/>
-      <c r="U206" s="1"/>
-      <c r="X206" s="1"/>
-    </row>
-    <row r="207" spans="1:24">
+      <c r="W206" s="1"/>
+    </row>
+    <row r="207" spans="1:23">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6243,10 +6035,9 @@
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
       <c r="T207" s="1"/>
-      <c r="U207" s="1"/>
-      <c r="X207" s="1"/>
-    </row>
-    <row r="208" spans="1:24">
+      <c r="W207" s="1"/>
+    </row>
+    <row r="208" spans="1:23">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6266,10 +6057,9 @@
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
       <c r="T208" s="1"/>
-      <c r="U208" s="1"/>
-      <c r="X208" s="1"/>
-    </row>
-    <row r="209" spans="1:24">
+      <c r="W208" s="1"/>
+    </row>
+    <row r="209" spans="1:23">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6289,10 +6079,9 @@
       <c r="R209" s="1"/>
       <c r="S209" s="1"/>
       <c r="T209" s="1"/>
-      <c r="U209" s="1"/>
-      <c r="X209" s="1"/>
-    </row>
-    <row r="210" spans="1:24">
+      <c r="W209" s="1"/>
+    </row>
+    <row r="210" spans="1:23">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6312,10 +6101,9 @@
       <c r="R210" s="1"/>
       <c r="S210" s="1"/>
       <c r="T210" s="1"/>
-      <c r="U210" s="1"/>
-      <c r="X210" s="1"/>
-    </row>
-    <row r="211" spans="1:24">
+      <c r="W210" s="1"/>
+    </row>
+    <row r="211" spans="1:23">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6335,10 +6123,9 @@
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
       <c r="T211" s="1"/>
-      <c r="U211" s="1"/>
-      <c r="X211" s="1"/>
-    </row>
-    <row r="212" spans="1:24">
+      <c r="W211" s="1"/>
+    </row>
+    <row r="212" spans="1:23">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6358,10 +6145,9 @@
       <c r="R212" s="1"/>
       <c r="S212" s="1"/>
       <c r="T212" s="1"/>
-      <c r="U212" s="1"/>
-      <c r="X212" s="1"/>
-    </row>
-    <row r="213" spans="1:24">
+      <c r="W212" s="1"/>
+    </row>
+    <row r="213" spans="1:23">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6381,10 +6167,9 @@
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
       <c r="T213" s="1"/>
-      <c r="U213" s="1"/>
-      <c r="X213" s="1"/>
-    </row>
-    <row r="214" spans="1:24">
+      <c r="W213" s="1"/>
+    </row>
+    <row r="214" spans="1:23">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6404,10 +6189,9 @@
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
       <c r="T214" s="1"/>
-      <c r="U214" s="1"/>
-      <c r="X214" s="1"/>
-    </row>
-    <row r="215" spans="1:24">
+      <c r="W214" s="1"/>
+    </row>
+    <row r="215" spans="1:23">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6427,10 +6211,9 @@
       <c r="R215" s="1"/>
       <c r="S215" s="1"/>
       <c r="T215" s="1"/>
-      <c r="U215" s="1"/>
-      <c r="X215" s="1"/>
-    </row>
-    <row r="216" spans="1:24">
+      <c r="W215" s="1"/>
+    </row>
+    <row r="216" spans="1:23">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6450,10 +6233,9 @@
       <c r="R216" s="1"/>
       <c r="S216" s="1"/>
       <c r="T216" s="1"/>
-      <c r="U216" s="1"/>
-      <c r="X216" s="1"/>
-    </row>
-    <row r="217" spans="1:24">
+      <c r="W216" s="1"/>
+    </row>
+    <row r="217" spans="1:23">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6473,10 +6255,9 @@
       <c r="R217" s="1"/>
       <c r="S217" s="1"/>
       <c r="T217" s="1"/>
-      <c r="U217" s="1"/>
-      <c r="X217" s="1"/>
-    </row>
-    <row r="218" spans="1:24">
+      <c r="W217" s="1"/>
+    </row>
+    <row r="218" spans="1:23">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6496,10 +6277,9 @@
       <c r="R218" s="1"/>
       <c r="S218" s="1"/>
       <c r="T218" s="1"/>
-      <c r="U218" s="1"/>
-      <c r="X218" s="1"/>
-    </row>
-    <row r="219" spans="1:24">
+      <c r="W218" s="1"/>
+    </row>
+    <row r="219" spans="1:23">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6519,10 +6299,9 @@
       <c r="R219" s="1"/>
       <c r="S219" s="1"/>
       <c r="T219" s="1"/>
-      <c r="U219" s="1"/>
-      <c r="X219" s="1"/>
-    </row>
-    <row r="220" spans="1:24">
+      <c r="W219" s="1"/>
+    </row>
+    <row r="220" spans="1:23">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6542,10 +6321,9 @@
       <c r="R220" s="1"/>
       <c r="S220" s="1"/>
       <c r="T220" s="1"/>
-      <c r="U220" s="1"/>
-      <c r="X220" s="1"/>
-    </row>
-    <row r="221" spans="1:24">
+      <c r="W220" s="1"/>
+    </row>
+    <row r="221" spans="1:23">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6565,10 +6343,9 @@
       <c r="R221" s="1"/>
       <c r="S221" s="1"/>
       <c r="T221" s="1"/>
-      <c r="U221" s="1"/>
-      <c r="X221" s="1"/>
-    </row>
-    <row r="222" spans="1:24">
+      <c r="W221" s="1"/>
+    </row>
+    <row r="222" spans="1:23">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6588,10 +6365,9 @@
       <c r="R222" s="1"/>
       <c r="S222" s="1"/>
       <c r="T222" s="1"/>
-      <c r="U222" s="1"/>
-      <c r="X222" s="1"/>
-    </row>
-    <row r="223" spans="1:24">
+      <c r="W222" s="1"/>
+    </row>
+    <row r="223" spans="1:23">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6611,10 +6387,9 @@
       <c r="R223" s="1"/>
       <c r="S223" s="1"/>
       <c r="T223" s="1"/>
-      <c r="U223" s="1"/>
-      <c r="X223" s="1"/>
-    </row>
-    <row r="224" spans="1:24">
+      <c r="W223" s="1"/>
+    </row>
+    <row r="224" spans="1:23">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6634,10 +6409,9 @@
       <c r="R224" s="1"/>
       <c r="S224" s="1"/>
       <c r="T224" s="1"/>
-      <c r="U224" s="1"/>
-      <c r="X224" s="1"/>
-    </row>
-    <row r="225" spans="1:24">
+      <c r="W224" s="1"/>
+    </row>
+    <row r="225" spans="1:23">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6657,10 +6431,9 @@
       <c r="R225" s="1"/>
       <c r="S225" s="1"/>
       <c r="T225" s="1"/>
-      <c r="U225" s="1"/>
-      <c r="X225" s="1"/>
-    </row>
-    <row r="226" spans="1:24">
+      <c r="W225" s="1"/>
+    </row>
+    <row r="226" spans="1:23">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6680,10 +6453,9 @@
       <c r="R226" s="1"/>
       <c r="S226" s="1"/>
       <c r="T226" s="1"/>
-      <c r="U226" s="1"/>
-      <c r="X226" s="1"/>
-    </row>
-    <row r="227" spans="1:24">
+      <c r="W226" s="1"/>
+    </row>
+    <row r="227" spans="1:23">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6703,10 +6475,9 @@
       <c r="R227" s="1"/>
       <c r="S227" s="1"/>
       <c r="T227" s="1"/>
-      <c r="U227" s="1"/>
-      <c r="X227" s="1"/>
-    </row>
-    <row r="228" spans="1:24">
+      <c r="W227" s="1"/>
+    </row>
+    <row r="228" spans="1:23">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6726,10 +6497,9 @@
       <c r="R228" s="1"/>
       <c r="S228" s="1"/>
       <c r="T228" s="1"/>
-      <c r="U228" s="1"/>
-      <c r="X228" s="1"/>
-    </row>
-    <row r="229" spans="1:24">
+      <c r="W228" s="1"/>
+    </row>
+    <row r="229" spans="1:23">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6749,10 +6519,9 @@
       <c r="R229" s="1"/>
       <c r="S229" s="1"/>
       <c r="T229" s="1"/>
-      <c r="U229" s="1"/>
-      <c r="X229" s="1"/>
-    </row>
-    <row r="230" spans="1:24">
+      <c r="W229" s="1"/>
+    </row>
+    <row r="230" spans="1:23">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -6772,10 +6541,9 @@
       <c r="R230" s="1"/>
       <c r="S230" s="1"/>
       <c r="T230" s="1"/>
-      <c r="U230" s="1"/>
-      <c r="X230" s="1"/>
-    </row>
-    <row r="231" spans="1:24">
+      <c r="W230" s="1"/>
+    </row>
+    <row r="231" spans="1:23">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -6795,10 +6563,9 @@
       <c r="R231" s="1"/>
       <c r="S231" s="1"/>
       <c r="T231" s="1"/>
-      <c r="U231" s="1"/>
-      <c r="X231" s="1"/>
-    </row>
-    <row r="232" spans="1:24">
+      <c r="W231" s="1"/>
+    </row>
+    <row r="232" spans="1:23">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -6818,10 +6585,9 @@
       <c r="R232" s="1"/>
       <c r="S232" s="1"/>
       <c r="T232" s="1"/>
-      <c r="U232" s="1"/>
-      <c r="X232" s="1"/>
-    </row>
-    <row r="233" spans="1:24">
+      <c r="W232" s="1"/>
+    </row>
+    <row r="233" spans="1:23">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -6841,10 +6607,9 @@
       <c r="R233" s="1"/>
       <c r="S233" s="1"/>
       <c r="T233" s="1"/>
-      <c r="U233" s="1"/>
-      <c r="X233" s="1"/>
-    </row>
-    <row r="234" spans="1:24">
+      <c r="W233" s="1"/>
+    </row>
+    <row r="234" spans="1:23">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -6864,10 +6629,9 @@
       <c r="R234" s="1"/>
       <c r="S234" s="1"/>
       <c r="T234" s="1"/>
-      <c r="U234" s="1"/>
-      <c r="X234" s="1"/>
-    </row>
-    <row r="235" spans="1:24">
+      <c r="W234" s="1"/>
+    </row>
+    <row r="235" spans="1:23">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -6887,10 +6651,9 @@
       <c r="R235" s="1"/>
       <c r="S235" s="1"/>
       <c r="T235" s="1"/>
-      <c r="U235" s="1"/>
-      <c r="X235" s="1"/>
-    </row>
-    <row r="236" spans="1:24">
+      <c r="W235" s="1"/>
+    </row>
+    <row r="236" spans="1:23">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -6910,10 +6673,9 @@
       <c r="R236" s="1"/>
       <c r="S236" s="1"/>
       <c r="T236" s="1"/>
-      <c r="U236" s="1"/>
-      <c r="X236" s="1"/>
-    </row>
-    <row r="237" spans="1:24">
+      <c r="W236" s="1"/>
+    </row>
+    <row r="237" spans="1:23">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -6933,10 +6695,9 @@
       <c r="R237" s="1"/>
       <c r="S237" s="1"/>
       <c r="T237" s="1"/>
-      <c r="U237" s="1"/>
-      <c r="X237" s="1"/>
-    </row>
-    <row r="238" spans="1:24">
+      <c r="W237" s="1"/>
+    </row>
+    <row r="238" spans="1:23">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -6956,10 +6717,9 @@
       <c r="R238" s="1"/>
       <c r="S238" s="1"/>
       <c r="T238" s="1"/>
-      <c r="U238" s="1"/>
-      <c r="X238" s="1"/>
-    </row>
-    <row r="239" spans="1:24">
+      <c r="W238" s="1"/>
+    </row>
+    <row r="239" spans="1:23">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -6979,10 +6739,9 @@
       <c r="R239" s="1"/>
       <c r="S239" s="1"/>
       <c r="T239" s="1"/>
-      <c r="U239" s="1"/>
-      <c r="X239" s="1"/>
-    </row>
-    <row r="240" spans="1:24">
+      <c r="W239" s="1"/>
+    </row>
+    <row r="240" spans="1:23">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -7002,10 +6761,9 @@
       <c r="R240" s="1"/>
       <c r="S240" s="1"/>
       <c r="T240" s="1"/>
-      <c r="U240" s="1"/>
-      <c r="X240" s="1"/>
-    </row>
-    <row r="241" spans="1:24">
+      <c r="W240" s="1"/>
+    </row>
+    <row r="241" spans="1:23">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -7025,10 +6783,9 @@
       <c r="R241" s="1"/>
       <c r="S241" s="1"/>
       <c r="T241" s="1"/>
-      <c r="U241" s="1"/>
-      <c r="X241" s="1"/>
-    </row>
-    <row r="242" spans="1:24">
+      <c r="W241" s="1"/>
+    </row>
+    <row r="242" spans="1:23">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -7048,10 +6805,9 @@
       <c r="R242" s="1"/>
       <c r="S242" s="1"/>
       <c r="T242" s="1"/>
-      <c r="U242" s="1"/>
-      <c r="X242" s="1"/>
-    </row>
-    <row r="243" spans="1:24">
+      <c r="W242" s="1"/>
+    </row>
+    <row r="243" spans="1:23">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -7071,10 +6827,9 @@
       <c r="R243" s="1"/>
       <c r="S243" s="1"/>
       <c r="T243" s="1"/>
-      <c r="U243" s="1"/>
-      <c r="X243" s="1"/>
-    </row>
-    <row r="244" spans="1:24">
+      <c r="W243" s="1"/>
+    </row>
+    <row r="244" spans="1:23">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -7094,10 +6849,9 @@
       <c r="R244" s="1"/>
       <c r="S244" s="1"/>
       <c r="T244" s="1"/>
-      <c r="U244" s="1"/>
-      <c r="X244" s="1"/>
-    </row>
-    <row r="245" spans="1:24">
+      <c r="W244" s="1"/>
+    </row>
+    <row r="245" spans="1:23">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -7117,10 +6871,9 @@
       <c r="R245" s="1"/>
       <c r="S245" s="1"/>
       <c r="T245" s="1"/>
-      <c r="U245" s="1"/>
-      <c r="X245" s="1"/>
-    </row>
-    <row r="246" spans="1:24">
+      <c r="W245" s="1"/>
+    </row>
+    <row r="246" spans="1:23">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -7140,10 +6893,9 @@
       <c r="R246" s="1"/>
       <c r="S246" s="1"/>
       <c r="T246" s="1"/>
-      <c r="U246" s="1"/>
-      <c r="X246" s="1"/>
-    </row>
-    <row r="247" spans="1:24">
+      <c r="W246" s="1"/>
+    </row>
+    <row r="247" spans="1:23">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -7163,10 +6915,9 @@
       <c r="R247" s="1"/>
       <c r="S247" s="1"/>
       <c r="T247" s="1"/>
-      <c r="U247" s="1"/>
-      <c r="X247" s="1"/>
-    </row>
-    <row r="248" spans="1:24">
+      <c r="W247" s="1"/>
+    </row>
+    <row r="248" spans="1:23">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -7186,10 +6937,9 @@
       <c r="R248" s="1"/>
       <c r="S248" s="1"/>
       <c r="T248" s="1"/>
-      <c r="U248" s="1"/>
-      <c r="X248" s="1"/>
-    </row>
-    <row r="249" spans="1:24">
+      <c r="W248" s="1"/>
+    </row>
+    <row r="249" spans="1:23">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -7209,10 +6959,9 @@
       <c r="R249" s="1"/>
       <c r="S249" s="1"/>
       <c r="T249" s="1"/>
-      <c r="U249" s="1"/>
-      <c r="X249" s="1"/>
-    </row>
-    <row r="250" spans="1:24">
+      <c r="W249" s="1"/>
+    </row>
+    <row r="250" spans="1:23">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -7232,10 +6981,9 @@
       <c r="R250" s="1"/>
       <c r="S250" s="1"/>
       <c r="T250" s="1"/>
-      <c r="U250" s="1"/>
-      <c r="X250" s="1"/>
-    </row>
-    <row r="251" spans="1:24">
+      <c r="W250" s="1"/>
+    </row>
+    <row r="251" spans="1:23">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -7255,10 +7003,9 @@
       <c r="R251" s="1"/>
       <c r="S251" s="1"/>
       <c r="T251" s="1"/>
-      <c r="U251" s="1"/>
-      <c r="X251" s="1"/>
-    </row>
-    <row r="252" spans="1:24">
+      <c r="W251" s="1"/>
+    </row>
+    <row r="252" spans="1:23">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -7278,10 +7025,9 @@
       <c r="R252" s="1"/>
       <c r="S252" s="1"/>
       <c r="T252" s="1"/>
-      <c r="U252" s="1"/>
-      <c r="X252" s="1"/>
-    </row>
-    <row r="253" spans="1:24">
+      <c r="W252" s="1"/>
+    </row>
+    <row r="253" spans="1:23">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -7301,10 +7047,9 @@
       <c r="R253" s="1"/>
       <c r="S253" s="1"/>
       <c r="T253" s="1"/>
-      <c r="U253" s="1"/>
-      <c r="X253" s="1"/>
-    </row>
-    <row r="254" spans="1:24">
+      <c r="W253" s="1"/>
+    </row>
+    <row r="254" spans="1:23">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -7324,10 +7069,9 @@
       <c r="R254" s="1"/>
       <c r="S254" s="1"/>
       <c r="T254" s="1"/>
-      <c r="U254" s="1"/>
-      <c r="X254" s="1"/>
-    </row>
-    <row r="255" spans="1:24">
+      <c r="W254" s="1"/>
+    </row>
+    <row r="255" spans="1:23">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -7347,10 +7091,9 @@
       <c r="R255" s="1"/>
       <c r="S255" s="1"/>
       <c r="T255" s="1"/>
-      <c r="U255" s="1"/>
-      <c r="X255" s="1"/>
-    </row>
-    <row r="256" spans="1:24">
+      <c r="W255" s="1"/>
+    </row>
+    <row r="256" spans="1:23">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -7370,10 +7113,9 @@
       <c r="R256" s="1"/>
       <c r="S256" s="1"/>
       <c r="T256" s="1"/>
-      <c r="U256" s="1"/>
-      <c r="X256" s="1"/>
-    </row>
-    <row r="257" spans="1:24">
+      <c r="W256" s="1"/>
+    </row>
+    <row r="257" spans="1:23">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -7393,10 +7135,9 @@
       <c r="R257" s="1"/>
       <c r="S257" s="1"/>
       <c r="T257" s="1"/>
-      <c r="U257" s="1"/>
-      <c r="X257" s="1"/>
-    </row>
-    <row r="258" spans="1:24">
+      <c r="W257" s="1"/>
+    </row>
+    <row r="258" spans="1:23">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -7416,10 +7157,9 @@
       <c r="R258" s="1"/>
       <c r="S258" s="1"/>
       <c r="T258" s="1"/>
-      <c r="U258" s="1"/>
-      <c r="X258" s="1"/>
-    </row>
-    <row r="259" spans="1:24">
+      <c r="W258" s="1"/>
+    </row>
+    <row r="259" spans="1:23">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -7439,10 +7179,9 @@
       <c r="R259" s="1"/>
       <c r="S259" s="1"/>
       <c r="T259" s="1"/>
-      <c r="U259" s="1"/>
-      <c r="X259" s="1"/>
-    </row>
-    <row r="260" spans="1:24">
+      <c r="W259" s="1"/>
+    </row>
+    <row r="260" spans="1:23">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -7462,10 +7201,9 @@
       <c r="R260" s="1"/>
       <c r="S260" s="1"/>
       <c r="T260" s="1"/>
-      <c r="U260" s="1"/>
-      <c r="X260" s="1"/>
-    </row>
-    <row r="261" spans="1:24">
+      <c r="W260" s="1"/>
+    </row>
+    <row r="261" spans="1:23">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -7485,10 +7223,9 @@
       <c r="R261" s="1"/>
       <c r="S261" s="1"/>
       <c r="T261" s="1"/>
-      <c r="U261" s="1"/>
-      <c r="X261" s="1"/>
-    </row>
-    <row r="262" spans="1:24">
+      <c r="W261" s="1"/>
+    </row>
+    <row r="262" spans="1:23">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -7508,10 +7245,9 @@
       <c r="R262" s="1"/>
       <c r="S262" s="1"/>
       <c r="T262" s="1"/>
-      <c r="U262" s="1"/>
-      <c r="X262" s="1"/>
-    </row>
-    <row r="263" spans="1:24">
+      <c r="W262" s="1"/>
+    </row>
+    <row r="263" spans="1:23">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -7531,10 +7267,9 @@
       <c r="R263" s="1"/>
       <c r="S263" s="1"/>
       <c r="T263" s="1"/>
-      <c r="U263" s="1"/>
-      <c r="X263" s="1"/>
-    </row>
-    <row r="264" spans="1:24">
+      <c r="W263" s="1"/>
+    </row>
+    <row r="264" spans="1:23">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -7554,10 +7289,9 @@
       <c r="R264" s="1"/>
       <c r="S264" s="1"/>
       <c r="T264" s="1"/>
-      <c r="U264" s="1"/>
-      <c r="X264" s="1"/>
-    </row>
-    <row r="265" spans="1:24">
+      <c r="W264" s="1"/>
+    </row>
+    <row r="265" spans="1:23">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -7577,10 +7311,9 @@
       <c r="R265" s="1"/>
       <c r="S265" s="1"/>
       <c r="T265" s="1"/>
-      <c r="U265" s="1"/>
-      <c r="X265" s="1"/>
-    </row>
-    <row r="266" spans="1:24">
+      <c r="W265" s="1"/>
+    </row>
+    <row r="266" spans="1:23">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -7600,10 +7333,9 @@
       <c r="R266" s="1"/>
       <c r="S266" s="1"/>
       <c r="T266" s="1"/>
-      <c r="U266" s="1"/>
-      <c r="X266" s="1"/>
-    </row>
-    <row r="267" spans="1:24">
+      <c r="W266" s="1"/>
+    </row>
+    <row r="267" spans="1:23">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -7623,10 +7355,9 @@
       <c r="R267" s="1"/>
       <c r="S267" s="1"/>
       <c r="T267" s="1"/>
-      <c r="U267" s="1"/>
-      <c r="X267" s="1"/>
-    </row>
-    <row r="268" spans="1:24">
+      <c r="W267" s="1"/>
+    </row>
+    <row r="268" spans="1:23">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -7646,10 +7377,9 @@
       <c r="R268" s="1"/>
       <c r="S268" s="1"/>
       <c r="T268" s="1"/>
-      <c r="U268" s="1"/>
-      <c r="X268" s="1"/>
-    </row>
-    <row r="269" spans="1:24">
+      <c r="W268" s="1"/>
+    </row>
+    <row r="269" spans="1:23">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -7669,10 +7399,9 @@
       <c r="R269" s="1"/>
       <c r="S269" s="1"/>
       <c r="T269" s="1"/>
-      <c r="U269" s="1"/>
-      <c r="X269" s="1"/>
-    </row>
-    <row r="270" spans="1:24">
+      <c r="W269" s="1"/>
+    </row>
+    <row r="270" spans="1:23">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -7692,10 +7421,9 @@
       <c r="R270" s="1"/>
       <c r="S270" s="1"/>
       <c r="T270" s="1"/>
-      <c r="U270" s="1"/>
-      <c r="X270" s="1"/>
-    </row>
-    <row r="271" spans="1:24">
+      <c r="W270" s="1"/>
+    </row>
+    <row r="271" spans="1:23">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -7715,10 +7443,9 @@
       <c r="R271" s="1"/>
       <c r="S271" s="1"/>
       <c r="T271" s="1"/>
-      <c r="U271" s="1"/>
-      <c r="X271" s="1"/>
-    </row>
-    <row r="272" spans="1:24">
+      <c r="W271" s="1"/>
+    </row>
+    <row r="272" spans="1:23">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -7738,10 +7465,9 @@
       <c r="R272" s="1"/>
       <c r="S272" s="1"/>
       <c r="T272" s="1"/>
-      <c r="U272" s="1"/>
-      <c r="X272" s="1"/>
-    </row>
-    <row r="273" spans="1:24">
+      <c r="W272" s="1"/>
+    </row>
+    <row r="273" spans="1:23">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -7761,10 +7487,9 @@
       <c r="R273" s="1"/>
       <c r="S273" s="1"/>
       <c r="T273" s="1"/>
-      <c r="U273" s="1"/>
-      <c r="X273" s="1"/>
-    </row>
-    <row r="274" spans="1:24">
+      <c r="W273" s="1"/>
+    </row>
+    <row r="274" spans="1:23">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -7784,10 +7509,9 @@
       <c r="R274" s="1"/>
       <c r="S274" s="1"/>
       <c r="T274" s="1"/>
-      <c r="U274" s="1"/>
-      <c r="X274" s="1"/>
-    </row>
-    <row r="275" spans="1:24">
+      <c r="W274" s="1"/>
+    </row>
+    <row r="275" spans="1:23">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -7807,10 +7531,9 @@
       <c r="R275" s="1"/>
       <c r="S275" s="1"/>
       <c r="T275" s="1"/>
-      <c r="U275" s="1"/>
-      <c r="X275" s="1"/>
-    </row>
-    <row r="276" spans="1:24">
+      <c r="W275" s="1"/>
+    </row>
+    <row r="276" spans="1:23">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -7830,10 +7553,9 @@
       <c r="R276" s="1"/>
       <c r="S276" s="1"/>
       <c r="T276" s="1"/>
-      <c r="U276" s="1"/>
-      <c r="X276" s="1"/>
-    </row>
-    <row r="277" spans="1:24">
+      <c r="W276" s="1"/>
+    </row>
+    <row r="277" spans="1:23">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -7853,10 +7575,9 @@
       <c r="R277" s="1"/>
       <c r="S277" s="1"/>
       <c r="T277" s="1"/>
-      <c r="U277" s="1"/>
-      <c r="X277" s="1"/>
-    </row>
-    <row r="278" spans="1:24">
+      <c r="W277" s="1"/>
+    </row>
+    <row r="278" spans="1:23">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -7876,10 +7597,9 @@
       <c r="R278" s="1"/>
       <c r="S278" s="1"/>
       <c r="T278" s="1"/>
-      <c r="U278" s="1"/>
-      <c r="X278" s="1"/>
-    </row>
-    <row r="279" spans="1:24">
+      <c r="W278" s="1"/>
+    </row>
+    <row r="279" spans="1:23">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -7899,10 +7619,9 @@
       <c r="R279" s="1"/>
       <c r="S279" s="1"/>
       <c r="T279" s="1"/>
-      <c r="U279" s="1"/>
-      <c r="X279" s="1"/>
-    </row>
-    <row r="280" spans="1:24">
+      <c r="W279" s="1"/>
+    </row>
+    <row r="280" spans="1:23">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -7922,10 +7641,9 @@
       <c r="R280" s="1"/>
       <c r="S280" s="1"/>
       <c r="T280" s="1"/>
-      <c r="U280" s="1"/>
-      <c r="X280" s="1"/>
-    </row>
-    <row r="281" spans="1:24">
+      <c r="W280" s="1"/>
+    </row>
+    <row r="281" spans="1:23">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -7945,10 +7663,9 @@
       <c r="R281" s="1"/>
       <c r="S281" s="1"/>
       <c r="T281" s="1"/>
-      <c r="U281" s="1"/>
-      <c r="X281" s="1"/>
-    </row>
-    <row r="282" spans="1:24">
+      <c r="W281" s="1"/>
+    </row>
+    <row r="282" spans="1:23">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -7968,10 +7685,9 @@
       <c r="R282" s="1"/>
       <c r="S282" s="1"/>
       <c r="T282" s="1"/>
-      <c r="U282" s="1"/>
-      <c r="X282" s="1"/>
-    </row>
-    <row r="283" spans="1:24">
+      <c r="W282" s="1"/>
+    </row>
+    <row r="283" spans="1:23">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -7991,10 +7707,9 @@
       <c r="R283" s="1"/>
       <c r="S283" s="1"/>
       <c r="T283" s="1"/>
-      <c r="U283" s="1"/>
-      <c r="X283" s="1"/>
-    </row>
-    <row r="284" spans="1:24">
+      <c r="W283" s="1"/>
+    </row>
+    <row r="284" spans="1:23">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -8014,10 +7729,9 @@
       <c r="R284" s="1"/>
       <c r="S284" s="1"/>
       <c r="T284" s="1"/>
-      <c r="U284" s="1"/>
-      <c r="X284" s="1"/>
-    </row>
-    <row r="285" spans="1:24">
+      <c r="W284" s="1"/>
+    </row>
+    <row r="285" spans="1:23">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -8037,10 +7751,9 @@
       <c r="R285" s="1"/>
       <c r="S285" s="1"/>
       <c r="T285" s="1"/>
-      <c r="U285" s="1"/>
-      <c r="X285" s="1"/>
-    </row>
-    <row r="286" spans="1:24">
+      <c r="W285" s="1"/>
+    </row>
+    <row r="286" spans="1:23">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -8060,10 +7773,9 @@
       <c r="R286" s="1"/>
       <c r="S286" s="1"/>
       <c r="T286" s="1"/>
-      <c r="U286" s="1"/>
-      <c r="X286" s="1"/>
-    </row>
-    <row r="287" spans="1:24">
+      <c r="W286" s="1"/>
+    </row>
+    <row r="287" spans="1:23">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -8083,10 +7795,9 @@
       <c r="R287" s="1"/>
       <c r="S287" s="1"/>
       <c r="T287" s="1"/>
-      <c r="U287" s="1"/>
-      <c r="X287" s="1"/>
-    </row>
-    <row r="288" spans="1:24">
+      <c r="W287" s="1"/>
+    </row>
+    <row r="288" spans="1:23">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -8106,10 +7817,9 @@
       <c r="R288" s="1"/>
       <c r="S288" s="1"/>
       <c r="T288" s="1"/>
-      <c r="U288" s="1"/>
-      <c r="X288" s="1"/>
-    </row>
-    <row r="289" spans="1:24">
+      <c r="W288" s="1"/>
+    </row>
+    <row r="289" spans="1:23">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -8129,10 +7839,9 @@
       <c r="R289" s="1"/>
       <c r="S289" s="1"/>
       <c r="T289" s="1"/>
-      <c r="U289" s="1"/>
-      <c r="X289" s="1"/>
-    </row>
-    <row r="290" spans="1:24">
+      <c r="W289" s="1"/>
+    </row>
+    <row r="290" spans="1:23">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -8152,10 +7861,9 @@
       <c r="R290" s="1"/>
       <c r="S290" s="1"/>
       <c r="T290" s="1"/>
-      <c r="U290" s="1"/>
-      <c r="X290" s="1"/>
-    </row>
-    <row r="291" spans="1:24">
+      <c r="W290" s="1"/>
+    </row>
+    <row r="291" spans="1:23">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -8175,10 +7883,9 @@
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
       <c r="T291" s="1"/>
-      <c r="U291" s="1"/>
-      <c r="X291" s="1"/>
-    </row>
-    <row r="292" spans="1:24">
+      <c r="W291" s="1"/>
+    </row>
+    <row r="292" spans="1:23">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -8198,10 +7905,9 @@
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
       <c r="T292" s="1"/>
-      <c r="U292" s="1"/>
-      <c r="X292" s="1"/>
-    </row>
-    <row r="293" spans="1:24">
+      <c r="W292" s="1"/>
+    </row>
+    <row r="293" spans="1:23">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -8221,10 +7927,9 @@
       <c r="R293" s="1"/>
       <c r="S293" s="1"/>
       <c r="T293" s="1"/>
-      <c r="U293" s="1"/>
-      <c r="X293" s="1"/>
-    </row>
-    <row r="294" spans="1:24">
+      <c r="W293" s="1"/>
+    </row>
+    <row r="294" spans="1:23">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -8244,10 +7949,9 @@
       <c r="R294" s="1"/>
       <c r="S294" s="1"/>
       <c r="T294" s="1"/>
-      <c r="U294" s="1"/>
-      <c r="X294" s="1"/>
-    </row>
-    <row r="295" spans="1:24">
+      <c r="W294" s="1"/>
+    </row>
+    <row r="295" spans="1:23">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -8267,10 +7971,9 @@
       <c r="R295" s="1"/>
       <c r="S295" s="1"/>
       <c r="T295" s="1"/>
-      <c r="U295" s="1"/>
-      <c r="X295" s="1"/>
-    </row>
-    <row r="296" spans="1:24">
+      <c r="W295" s="1"/>
+    </row>
+    <row r="296" spans="1:23">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -8290,10 +7993,9 @@
       <c r="R296" s="1"/>
       <c r="S296" s="1"/>
       <c r="T296" s="1"/>
-      <c r="U296" s="1"/>
-      <c r="X296" s="1"/>
-    </row>
-    <row r="297" spans="1:24">
+      <c r="W296" s="1"/>
+    </row>
+    <row r="297" spans="1:23">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -8313,10 +8015,9 @@
       <c r="R297" s="1"/>
       <c r="S297" s="1"/>
       <c r="T297" s="1"/>
-      <c r="U297" s="1"/>
-      <c r="X297" s="1"/>
-    </row>
-    <row r="298" spans="1:24">
+      <c r="W297" s="1"/>
+    </row>
+    <row r="298" spans="1:23">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -8336,10 +8037,9 @@
       <c r="R298" s="1"/>
       <c r="S298" s="1"/>
       <c r="T298" s="1"/>
-      <c r="U298" s="1"/>
-      <c r="X298" s="1"/>
-    </row>
-    <row r="299" spans="1:24">
+      <c r="W298" s="1"/>
+    </row>
+    <row r="299" spans="1:23">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -8359,10 +8059,9 @@
       <c r="R299" s="1"/>
       <c r="S299" s="1"/>
       <c r="T299" s="1"/>
-      <c r="U299" s="1"/>
-      <c r="X299" s="1"/>
-    </row>
-    <row r="300" spans="1:24">
+      <c r="W299" s="1"/>
+    </row>
+    <row r="300" spans="1:23">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -8382,10 +8081,9 @@
       <c r="R300" s="1"/>
       <c r="S300" s="1"/>
       <c r="T300" s="1"/>
-      <c r="U300" s="1"/>
-      <c r="X300" s="1"/>
-    </row>
-    <row r="301" spans="1:24">
+      <c r="W300" s="1"/>
+    </row>
+    <row r="301" spans="1:23">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -8405,10 +8103,9 @@
       <c r="R301" s="1"/>
       <c r="S301" s="1"/>
       <c r="T301" s="1"/>
-      <c r="U301" s="1"/>
-      <c r="X301" s="1"/>
-    </row>
-    <row r="302" spans="1:24">
+      <c r="W301" s="1"/>
+    </row>
+    <row r="302" spans="1:23">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -8428,10 +8125,9 @@
       <c r="R302" s="1"/>
       <c r="S302" s="1"/>
       <c r="T302" s="1"/>
-      <c r="U302" s="1"/>
-      <c r="X302" s="1"/>
-    </row>
-    <row r="303" spans="1:24">
+      <c r="W302" s="1"/>
+    </row>
+    <row r="303" spans="1:23">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -8451,10 +8147,9 @@
       <c r="R303" s="1"/>
       <c r="S303" s="1"/>
       <c r="T303" s="1"/>
-      <c r="U303" s="1"/>
-      <c r="X303" s="1"/>
-    </row>
-    <row r="304" spans="1:24">
+      <c r="W303" s="1"/>
+    </row>
+    <row r="304" spans="1:23">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -8474,10 +8169,9 @@
       <c r="R304" s="1"/>
       <c r="S304" s="1"/>
       <c r="T304" s="1"/>
-      <c r="U304" s="1"/>
-      <c r="X304" s="1"/>
-    </row>
-    <row r="305" spans="1:24">
+      <c r="W304" s="1"/>
+    </row>
+    <row r="305" spans="1:23">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -8497,10 +8191,9 @@
       <c r="R305" s="1"/>
       <c r="S305" s="1"/>
       <c r="T305" s="1"/>
-      <c r="U305" s="1"/>
-      <c r="X305" s="1"/>
-    </row>
-    <row r="306" spans="1:24">
+      <c r="W305" s="1"/>
+    </row>
+    <row r="306" spans="1:23">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -8520,10 +8213,9 @@
       <c r="R306" s="1"/>
       <c r="S306" s="1"/>
       <c r="T306" s="1"/>
-      <c r="U306" s="1"/>
-      <c r="X306" s="1"/>
-    </row>
-    <row r="307" spans="1:24">
+      <c r="W306" s="1"/>
+    </row>
+    <row r="307" spans="1:23">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -8543,10 +8235,9 @@
       <c r="R307" s="1"/>
       <c r="S307" s="1"/>
       <c r="T307" s="1"/>
-      <c r="U307" s="1"/>
-      <c r="X307" s="1"/>
-    </row>
-    <row r="308" spans="1:24">
+      <c r="W307" s="1"/>
+    </row>
+    <row r="308" spans="1:23">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -8566,10 +8257,9 @@
       <c r="R308" s="1"/>
       <c r="S308" s="1"/>
       <c r="T308" s="1"/>
-      <c r="U308" s="1"/>
-      <c r="X308" s="1"/>
-    </row>
-    <row r="309" spans="1:24">
+      <c r="W308" s="1"/>
+    </row>
+    <row r="309" spans="1:23">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -8589,10 +8279,9 @@
       <c r="R309" s="1"/>
       <c r="S309" s="1"/>
       <c r="T309" s="1"/>
-      <c r="U309" s="1"/>
-      <c r="X309" s="1"/>
-    </row>
-    <row r="310" spans="1:24">
+      <c r="W309" s="1"/>
+    </row>
+    <row r="310" spans="1:23">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -8612,10 +8301,9 @@
       <c r="R310" s="1"/>
       <c r="S310" s="1"/>
       <c r="T310" s="1"/>
-      <c r="U310" s="1"/>
-      <c r="X310" s="1"/>
-    </row>
-    <row r="311" spans="1:24">
+      <c r="W310" s="1"/>
+    </row>
+    <row r="311" spans="1:23">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -8635,10 +8323,9 @@
       <c r="R311" s="1"/>
       <c r="S311" s="1"/>
       <c r="T311" s="1"/>
-      <c r="U311" s="1"/>
-      <c r="X311" s="1"/>
-    </row>
-    <row r="312" spans="1:24">
+      <c r="W311" s="1"/>
+    </row>
+    <row r="312" spans="1:23">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -8658,10 +8345,9 @@
       <c r="R312" s="1"/>
       <c r="S312" s="1"/>
       <c r="T312" s="1"/>
-      <c r="U312" s="1"/>
-      <c r="X312" s="1"/>
-    </row>
-    <row r="313" spans="1:24">
+      <c r="W312" s="1"/>
+    </row>
+    <row r="313" spans="1:23">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -8681,10 +8367,9 @@
       <c r="R313" s="1"/>
       <c r="S313" s="1"/>
       <c r="T313" s="1"/>
-      <c r="U313" s="1"/>
-      <c r="X313" s="1"/>
-    </row>
-    <row r="314" spans="1:24">
+      <c r="W313" s="1"/>
+    </row>
+    <row r="314" spans="1:23">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -8704,10 +8389,9 @@
       <c r="R314" s="1"/>
       <c r="S314" s="1"/>
       <c r="T314" s="1"/>
-      <c r="U314" s="1"/>
-      <c r="X314" s="1"/>
-    </row>
-    <row r="315" spans="1:24">
+      <c r="W314" s="1"/>
+    </row>
+    <row r="315" spans="1:23">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -8727,10 +8411,9 @@
       <c r="R315" s="1"/>
       <c r="S315" s="1"/>
       <c r="T315" s="1"/>
-      <c r="U315" s="1"/>
-      <c r="X315" s="1"/>
-    </row>
-    <row r="316" spans="1:24">
+      <c r="W315" s="1"/>
+    </row>
+    <row r="316" spans="1:23">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -8750,10 +8433,9 @@
       <c r="R316" s="1"/>
       <c r="S316" s="1"/>
       <c r="T316" s="1"/>
-      <c r="U316" s="1"/>
-      <c r="X316" s="1"/>
-    </row>
-    <row r="317" spans="1:24">
+      <c r="W316" s="1"/>
+    </row>
+    <row r="317" spans="1:23">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -8773,10 +8455,9 @@
       <c r="R317" s="1"/>
       <c r="S317" s="1"/>
       <c r="T317" s="1"/>
-      <c r="U317" s="1"/>
-      <c r="X317" s="1"/>
-    </row>
-    <row r="318" spans="1:24">
+      <c r="W317" s="1"/>
+    </row>
+    <row r="318" spans="1:23">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -8796,10 +8477,9 @@
       <c r="R318" s="1"/>
       <c r="S318" s="1"/>
       <c r="T318" s="1"/>
-      <c r="U318" s="1"/>
-      <c r="X318" s="1"/>
-    </row>
-    <row r="319" spans="1:24">
+      <c r="W318" s="1"/>
+    </row>
+    <row r="319" spans="1:23">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -8819,10 +8499,9 @@
       <c r="R319" s="1"/>
       <c r="S319" s="1"/>
       <c r="T319" s="1"/>
-      <c r="U319" s="1"/>
-      <c r="X319" s="1"/>
-    </row>
-    <row r="320" spans="1:24">
+      <c r="W319" s="1"/>
+    </row>
+    <row r="320" spans="1:23">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -8842,10 +8521,9 @@
       <c r="R320" s="1"/>
       <c r="S320" s="1"/>
       <c r="T320" s="1"/>
-      <c r="U320" s="1"/>
-      <c r="X320" s="1"/>
-    </row>
-    <row r="321" spans="1:24">
+      <c r="W320" s="1"/>
+    </row>
+    <row r="321" spans="1:23">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -8865,10 +8543,9 @@
       <c r="R321" s="1"/>
       <c r="S321" s="1"/>
       <c r="T321" s="1"/>
-      <c r="U321" s="1"/>
-      <c r="X321" s="1"/>
-    </row>
-    <row r="322" spans="1:24">
+      <c r="W321" s="1"/>
+    </row>
+    <row r="322" spans="1:23">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -8888,10 +8565,9 @@
       <c r="R322" s="1"/>
       <c r="S322" s="1"/>
       <c r="T322" s="1"/>
-      <c r="U322" s="1"/>
-      <c r="X322" s="1"/>
-    </row>
-    <row r="323" spans="1:24">
+      <c r="W322" s="1"/>
+    </row>
+    <row r="323" spans="1:23">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -8911,10 +8587,9 @@
       <c r="R323" s="1"/>
       <c r="S323" s="1"/>
       <c r="T323" s="1"/>
-      <c r="U323" s="1"/>
-      <c r="X323" s="1"/>
-    </row>
-    <row r="324" spans="1:24">
+      <c r="W323" s="1"/>
+    </row>
+    <row r="324" spans="1:23">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -8934,10 +8609,9 @@
       <c r="R324" s="1"/>
       <c r="S324" s="1"/>
       <c r="T324" s="1"/>
-      <c r="U324" s="1"/>
-      <c r="X324" s="1"/>
-    </row>
-    <row r="325" spans="1:24">
+      <c r="W324" s="1"/>
+    </row>
+    <row r="325" spans="1:23">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -8957,10 +8631,9 @@
       <c r="R325" s="1"/>
       <c r="S325" s="1"/>
       <c r="T325" s="1"/>
-      <c r="U325" s="1"/>
-      <c r="X325" s="1"/>
-    </row>
-    <row r="326" spans="1:24">
+      <c r="W325" s="1"/>
+    </row>
+    <row r="326" spans="1:23">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -8980,10 +8653,9 @@
       <c r="R326" s="1"/>
       <c r="S326" s="1"/>
       <c r="T326" s="1"/>
-      <c r="U326" s="1"/>
-      <c r="X326" s="1"/>
-    </row>
-    <row r="327" spans="1:24">
+      <c r="W326" s="1"/>
+    </row>
+    <row r="327" spans="1:23">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -9003,10 +8675,9 @@
       <c r="R327" s="1"/>
       <c r="S327" s="1"/>
       <c r="T327" s="1"/>
-      <c r="U327" s="1"/>
-      <c r="X327" s="1"/>
-    </row>
-    <row r="328" spans="1:24">
+      <c r="W327" s="1"/>
+    </row>
+    <row r="328" spans="1:23">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -9026,10 +8697,9 @@
       <c r="R328" s="1"/>
       <c r="S328" s="1"/>
       <c r="T328" s="1"/>
-      <c r="U328" s="1"/>
-      <c r="X328" s="1"/>
-    </row>
-    <row r="329" spans="1:24">
+      <c r="W328" s="1"/>
+    </row>
+    <row r="329" spans="1:23">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -9049,10 +8719,9 @@
       <c r="R329" s="1"/>
       <c r="S329" s="1"/>
       <c r="T329" s="1"/>
-      <c r="U329" s="1"/>
-      <c r="X329" s="1"/>
-    </row>
-    <row r="330" spans="1:24">
+      <c r="W329" s="1"/>
+    </row>
+    <row r="330" spans="1:23">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -9072,10 +8741,9 @@
       <c r="R330" s="1"/>
       <c r="S330" s="1"/>
       <c r="T330" s="1"/>
-      <c r="U330" s="1"/>
-      <c r="X330" s="1"/>
-    </row>
-    <row r="331" spans="1:24">
+      <c r="W330" s="1"/>
+    </row>
+    <row r="331" spans="1:23">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -9095,10 +8763,9 @@
       <c r="R331" s="1"/>
       <c r="S331" s="1"/>
       <c r="T331" s="1"/>
-      <c r="U331" s="1"/>
-      <c r="X331" s="1"/>
-    </row>
-    <row r="332" spans="1:24">
+      <c r="W331" s="1"/>
+    </row>
+    <row r="332" spans="1:23">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -9118,10 +8785,9 @@
       <c r="R332" s="1"/>
       <c r="S332" s="1"/>
       <c r="T332" s="1"/>
-      <c r="U332" s="1"/>
-      <c r="X332" s="1"/>
-    </row>
-    <row r="333" spans="1:24">
+      <c r="W332" s="1"/>
+    </row>
+    <row r="333" spans="1:23">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -9141,10 +8807,9 @@
       <c r="R333" s="1"/>
       <c r="S333" s="1"/>
       <c r="T333" s="1"/>
-      <c r="U333" s="1"/>
-      <c r="X333" s="1"/>
-    </row>
-    <row r="334" spans="1:24">
+      <c r="W333" s="1"/>
+    </row>
+    <row r="334" spans="1:23">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -9164,10 +8829,9 @@
       <c r="R334" s="1"/>
       <c r="S334" s="1"/>
       <c r="T334" s="1"/>
-      <c r="U334" s="1"/>
-      <c r="X334" s="1"/>
-    </row>
-    <row r="335" spans="1:24">
+      <c r="W334" s="1"/>
+    </row>
+    <row r="335" spans="1:23">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -9187,10 +8851,9 @@
       <c r="R335" s="1"/>
       <c r="S335" s="1"/>
       <c r="T335" s="1"/>
-      <c r="U335" s="1"/>
-      <c r="X335" s="1"/>
-    </row>
-    <row r="336" spans="1:24">
+      <c r="W335" s="1"/>
+    </row>
+    <row r="336" spans="1:23">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -9210,10 +8873,9 @@
       <c r="R336" s="1"/>
       <c r="S336" s="1"/>
       <c r="T336" s="1"/>
-      <c r="U336" s="1"/>
-      <c r="X336" s="1"/>
-    </row>
-    <row r="337" spans="1:24">
+      <c r="W336" s="1"/>
+    </row>
+    <row r="337" spans="1:23">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -9233,10 +8895,9 @@
       <c r="R337" s="1"/>
       <c r="S337" s="1"/>
       <c r="T337" s="1"/>
-      <c r="U337" s="1"/>
-      <c r="X337" s="1"/>
-    </row>
-    <row r="338" spans="1:24">
+      <c r="W337" s="1"/>
+    </row>
+    <row r="338" spans="1:23">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -9256,10 +8917,9 @@
       <c r="R338" s="1"/>
       <c r="S338" s="1"/>
       <c r="T338" s="1"/>
-      <c r="U338" s="1"/>
-      <c r="X338" s="1"/>
-    </row>
-    <row r="339" spans="1:24">
+      <c r="W338" s="1"/>
+    </row>
+    <row r="339" spans="1:23">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -9279,10 +8939,9 @@
       <c r="R339" s="1"/>
       <c r="S339" s="1"/>
       <c r="T339" s="1"/>
-      <c r="U339" s="1"/>
-      <c r="X339" s="1"/>
-    </row>
-    <row r="340" spans="1:24">
+      <c r="W339" s="1"/>
+    </row>
+    <row r="340" spans="1:23">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -9302,10 +8961,9 @@
       <c r="R340" s="1"/>
       <c r="S340" s="1"/>
       <c r="T340" s="1"/>
-      <c r="U340" s="1"/>
-      <c r="X340" s="1"/>
-    </row>
-    <row r="341" spans="1:24">
+      <c r="W340" s="1"/>
+    </row>
+    <row r="341" spans="1:23">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -9325,10 +8983,9 @@
       <c r="R341" s="1"/>
       <c r="S341" s="1"/>
       <c r="T341" s="1"/>
-      <c r="U341" s="1"/>
-      <c r="X341" s="1"/>
-    </row>
-    <row r="342" spans="1:24">
+      <c r="W341" s="1"/>
+    </row>
+    <row r="342" spans="1:23">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -9348,10 +9005,9 @@
       <c r="R342" s="1"/>
       <c r="S342" s="1"/>
       <c r="T342" s="1"/>
-      <c r="U342" s="1"/>
-      <c r="X342" s="1"/>
-    </row>
-    <row r="343" spans="1:24">
+      <c r="W342" s="1"/>
+    </row>
+    <row r="343" spans="1:23">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -9371,10 +9027,9 @@
       <c r="R343" s="1"/>
       <c r="S343" s="1"/>
       <c r="T343" s="1"/>
-      <c r="U343" s="1"/>
-      <c r="X343" s="1"/>
-    </row>
-    <row r="344" spans="1:24">
+      <c r="W343" s="1"/>
+    </row>
+    <row r="344" spans="1:23">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -9394,10 +9049,9 @@
       <c r="R344" s="1"/>
       <c r="S344" s="1"/>
       <c r="T344" s="1"/>
-      <c r="U344" s="1"/>
-      <c r="X344" s="1"/>
-    </row>
-    <row r="345" spans="1:24">
+      <c r="W344" s="1"/>
+    </row>
+    <row r="345" spans="1:23">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -9417,10 +9071,9 @@
       <c r="R345" s="1"/>
       <c r="S345" s="1"/>
       <c r="T345" s="1"/>
-      <c r="U345" s="1"/>
-      <c r="X345" s="1"/>
-    </row>
-    <row r="346" spans="1:24">
+      <c r="W345" s="1"/>
+    </row>
+    <row r="346" spans="1:23">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -9440,10 +9093,9 @@
       <c r="R346" s="1"/>
       <c r="S346" s="1"/>
       <c r="T346" s="1"/>
-      <c r="U346" s="1"/>
-      <c r="X346" s="1"/>
-    </row>
-    <row r="347" spans="1:24">
+      <c r="W346" s="1"/>
+    </row>
+    <row r="347" spans="1:23">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -9463,10 +9115,9 @@
       <c r="R347" s="1"/>
       <c r="S347" s="1"/>
       <c r="T347" s="1"/>
-      <c r="U347" s="1"/>
-      <c r="X347" s="1"/>
-    </row>
-    <row r="348" spans="1:24">
+      <c r="W347" s="1"/>
+    </row>
+    <row r="348" spans="1:23">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -9486,10 +9137,9 @@
       <c r="R348" s="1"/>
       <c r="S348" s="1"/>
       <c r="T348" s="1"/>
-      <c r="U348" s="1"/>
-      <c r="X348" s="1"/>
-    </row>
-    <row r="349" spans="1:24">
+      <c r="W348" s="1"/>
+    </row>
+    <row r="349" spans="1:23">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -9509,10 +9159,9 @@
       <c r="R349" s="1"/>
       <c r="S349" s="1"/>
       <c r="T349" s="1"/>
-      <c r="U349" s="1"/>
-      <c r="X349" s="1"/>
-    </row>
-    <row r="350" spans="1:24">
+      <c r="W349" s="1"/>
+    </row>
+    <row r="350" spans="1:23">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -9532,10 +9181,9 @@
       <c r="R350" s="1"/>
       <c r="S350" s="1"/>
       <c r="T350" s="1"/>
-      <c r="U350" s="1"/>
-      <c r="X350" s="1"/>
-    </row>
-    <row r="351" spans="1:24">
+      <c r="W350" s="1"/>
+    </row>
+    <row r="351" spans="1:23">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -9555,10 +9203,9 @@
       <c r="R351" s="1"/>
       <c r="S351" s="1"/>
       <c r="T351" s="1"/>
-      <c r="U351" s="1"/>
-      <c r="X351" s="1"/>
-    </row>
-    <row r="352" spans="1:24">
+      <c r="W351" s="1"/>
+    </row>
+    <row r="352" spans="1:23">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -9578,10 +9225,9 @@
       <c r="R352" s="1"/>
       <c r="S352" s="1"/>
       <c r="T352" s="1"/>
-      <c r="U352" s="1"/>
-      <c r="X352" s="1"/>
-    </row>
-    <row r="353" spans="1:24">
+      <c r="W352" s="1"/>
+    </row>
+    <row r="353" spans="1:23">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -9601,10 +9247,9 @@
       <c r="R353" s="1"/>
       <c r="S353" s="1"/>
       <c r="T353" s="1"/>
-      <c r="U353" s="1"/>
-      <c r="X353" s="1"/>
-    </row>
-    <row r="354" spans="1:24">
+      <c r="W353" s="1"/>
+    </row>
+    <row r="354" spans="1:23">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -9624,10 +9269,9 @@
       <c r="R354" s="1"/>
       <c r="S354" s="1"/>
       <c r="T354" s="1"/>
-      <c r="U354" s="1"/>
-      <c r="X354" s="1"/>
-    </row>
-    <row r="355" spans="1:24">
+      <c r="W354" s="1"/>
+    </row>
+    <row r="355" spans="1:23">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -9647,10 +9291,9 @@
       <c r="R355" s="1"/>
       <c r="S355" s="1"/>
       <c r="T355" s="1"/>
-      <c r="U355" s="1"/>
-      <c r="X355" s="1"/>
-    </row>
-    <row r="356" spans="1:24">
+      <c r="W355" s="1"/>
+    </row>
+    <row r="356" spans="1:23">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -9670,10 +9313,9 @@
       <c r="R356" s="1"/>
       <c r="S356" s="1"/>
       <c r="T356" s="1"/>
-      <c r="U356" s="1"/>
-      <c r="X356" s="1"/>
-    </row>
-    <row r="357" spans="1:24">
+      <c r="W356" s="1"/>
+    </row>
+    <row r="357" spans="1:23">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -9693,10 +9335,9 @@
       <c r="R357" s="1"/>
       <c r="S357" s="1"/>
       <c r="T357" s="1"/>
-      <c r="U357" s="1"/>
-      <c r="X357" s="1"/>
-    </row>
-    <row r="358" spans="1:24">
+      <c r="W357" s="1"/>
+    </row>
+    <row r="358" spans="1:23">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -9716,10 +9357,9 @@
       <c r="R358" s="1"/>
       <c r="S358" s="1"/>
       <c r="T358" s="1"/>
-      <c r="U358" s="1"/>
-      <c r="X358" s="1"/>
-    </row>
-    <row r="359" spans="1:24">
+      <c r="W358" s="1"/>
+    </row>
+    <row r="359" spans="1:23">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -9739,10 +9379,9 @@
       <c r="R359" s="1"/>
       <c r="S359" s="1"/>
       <c r="T359" s="1"/>
-      <c r="U359" s="1"/>
-      <c r="X359" s="1"/>
-    </row>
-    <row r="360" spans="1:24">
+      <c r="W359" s="1"/>
+    </row>
+    <row r="360" spans="1:23">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -9762,10 +9401,9 @@
       <c r="R360" s="1"/>
       <c r="S360" s="1"/>
       <c r="T360" s="1"/>
-      <c r="U360" s="1"/>
-      <c r="X360" s="1"/>
-    </row>
-    <row r="361" spans="1:24">
+      <c r="W360" s="1"/>
+    </row>
+    <row r="361" spans="1:23">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -9785,10 +9423,9 @@
       <c r="R361" s="1"/>
       <c r="S361" s="1"/>
       <c r="T361" s="1"/>
-      <c r="U361" s="1"/>
-      <c r="X361" s="1"/>
-    </row>
-    <row r="362" spans="1:24">
+      <c r="W361" s="1"/>
+    </row>
+    <row r="362" spans="1:23">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -9808,10 +9445,9 @@
       <c r="R362" s="1"/>
       <c r="S362" s="1"/>
       <c r="T362" s="1"/>
-      <c r="U362" s="1"/>
-      <c r="X362" s="1"/>
-    </row>
-    <row r="363" spans="1:24">
+      <c r="W362" s="1"/>
+    </row>
+    <row r="363" spans="1:23">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -9831,10 +9467,9 @@
       <c r="R363" s="1"/>
       <c r="S363" s="1"/>
       <c r="T363" s="1"/>
-      <c r="U363" s="1"/>
-      <c r="X363" s="1"/>
-    </row>
-    <row r="364" spans="1:24">
+      <c r="W363" s="1"/>
+    </row>
+    <row r="364" spans="1:23">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -9854,10 +9489,9 @@
       <c r="R364" s="1"/>
       <c r="S364" s="1"/>
       <c r="T364" s="1"/>
-      <c r="U364" s="1"/>
-      <c r="X364" s="1"/>
-    </row>
-    <row r="365" spans="1:24">
+      <c r="W364" s="1"/>
+    </row>
+    <row r="365" spans="1:23">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -9877,10 +9511,9 @@
       <c r="R365" s="1"/>
       <c r="S365" s="1"/>
       <c r="T365" s="1"/>
-      <c r="U365" s="1"/>
-      <c r="X365" s="1"/>
-    </row>
-    <row r="366" spans="1:24">
+      <c r="W365" s="1"/>
+    </row>
+    <row r="366" spans="1:23">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -9900,10 +9533,9 @@
       <c r="R366" s="1"/>
       <c r="S366" s="1"/>
       <c r="T366" s="1"/>
-      <c r="U366" s="1"/>
-      <c r="X366" s="1"/>
-    </row>
-    <row r="367" spans="1:24">
+      <c r="W366" s="1"/>
+    </row>
+    <row r="367" spans="1:23">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -9923,10 +9555,9 @@
       <c r="R367" s="1"/>
       <c r="S367" s="1"/>
       <c r="T367" s="1"/>
-      <c r="U367" s="1"/>
-      <c r="X367" s="1"/>
-    </row>
-    <row r="368" spans="1:24">
+      <c r="W367" s="1"/>
+    </row>
+    <row r="368" spans="1:23">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -9946,10 +9577,9 @@
       <c r="R368" s="1"/>
       <c r="S368" s="1"/>
       <c r="T368" s="1"/>
-      <c r="U368" s="1"/>
-      <c r="X368" s="1"/>
-    </row>
-    <row r="369" spans="1:24">
+      <c r="W368" s="1"/>
+    </row>
+    <row r="369" spans="1:23">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -9969,10 +9599,9 @@
       <c r="R369" s="1"/>
       <c r="S369" s="1"/>
       <c r="T369" s="1"/>
-      <c r="U369" s="1"/>
-      <c r="X369" s="1"/>
-    </row>
-    <row r="370" spans="1:24">
+      <c r="W369" s="1"/>
+    </row>
+    <row r="370" spans="1:23">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -9992,10 +9621,9 @@
       <c r="R370" s="1"/>
       <c r="S370" s="1"/>
       <c r="T370" s="1"/>
-      <c r="U370" s="1"/>
-      <c r="X370" s="1"/>
-    </row>
-    <row r="371" spans="1:24">
+      <c r="W370" s="1"/>
+    </row>
+    <row r="371" spans="1:23">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -10015,10 +9643,9 @@
       <c r="R371" s="1"/>
       <c r="S371" s="1"/>
       <c r="T371" s="1"/>
-      <c r="U371" s="1"/>
-      <c r="X371" s="1"/>
-    </row>
-    <row r="372" spans="1:24">
+      <c r="W371" s="1"/>
+    </row>
+    <row r="372" spans="1:23">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -10038,10 +9665,9 @@
       <c r="R372" s="1"/>
       <c r="S372" s="1"/>
       <c r="T372" s="1"/>
-      <c r="U372" s="1"/>
-      <c r="X372" s="1"/>
-    </row>
-    <row r="373" spans="1:24">
+      <c r="W372" s="1"/>
+    </row>
+    <row r="373" spans="1:23">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -10061,10 +9687,9 @@
       <c r="R373" s="1"/>
       <c r="S373" s="1"/>
       <c r="T373" s="1"/>
-      <c r="U373" s="1"/>
-      <c r="X373" s="1"/>
-    </row>
-    <row r="374" spans="1:24">
+      <c r="W373" s="1"/>
+    </row>
+    <row r="374" spans="1:23">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -10084,10 +9709,9 @@
       <c r="R374" s="1"/>
       <c r="S374" s="1"/>
       <c r="T374" s="1"/>
-      <c r="U374" s="1"/>
-      <c r="X374" s="1"/>
-    </row>
-    <row r="375" spans="1:24">
+      <c r="W374" s="1"/>
+    </row>
+    <row r="375" spans="1:23">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -10107,10 +9731,9 @@
       <c r="R375" s="1"/>
       <c r="S375" s="1"/>
       <c r="T375" s="1"/>
-      <c r="U375" s="1"/>
-      <c r="X375" s="1"/>
-    </row>
-    <row r="376" spans="1:24">
+      <c r="W375" s="1"/>
+    </row>
+    <row r="376" spans="1:23">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -10130,10 +9753,9 @@
       <c r="R376" s="1"/>
       <c r="S376" s="1"/>
       <c r="T376" s="1"/>
-      <c r="U376" s="1"/>
-      <c r="X376" s="1"/>
-    </row>
-    <row r="377" spans="1:24">
+      <c r="W376" s="1"/>
+    </row>
+    <row r="377" spans="1:23">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -10153,10 +9775,9 @@
       <c r="R377" s="1"/>
       <c r="S377" s="1"/>
       <c r="T377" s="1"/>
-      <c r="U377" s="1"/>
-      <c r="X377" s="1"/>
-    </row>
-    <row r="378" spans="1:24">
+      <c r="W377" s="1"/>
+    </row>
+    <row r="378" spans="1:23">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -10176,10 +9797,9 @@
       <c r="R378" s="1"/>
       <c r="S378" s="1"/>
       <c r="T378" s="1"/>
-      <c r="U378" s="1"/>
-      <c r="X378" s="1"/>
-    </row>
-    <row r="379" spans="1:24">
+      <c r="W378" s="1"/>
+    </row>
+    <row r="379" spans="1:23">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -10199,10 +9819,9 @@
       <c r="R379" s="1"/>
       <c r="S379" s="1"/>
       <c r="T379" s="1"/>
-      <c r="U379" s="1"/>
-      <c r="X379" s="1"/>
-    </row>
-    <row r="380" spans="1:24">
+      <c r="W379" s="1"/>
+    </row>
+    <row r="380" spans="1:23">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -10222,10 +9841,9 @@
       <c r="R380" s="1"/>
       <c r="S380" s="1"/>
       <c r="T380" s="1"/>
-      <c r="U380" s="1"/>
-      <c r="X380" s="1"/>
-    </row>
-    <row r="381" spans="1:24">
+      <c r="W380" s="1"/>
+    </row>
+    <row r="381" spans="1:23">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -10245,10 +9863,9 @@
       <c r="R381" s="1"/>
       <c r="S381" s="1"/>
       <c r="T381" s="1"/>
-      <c r="U381" s="1"/>
-      <c r="X381" s="1"/>
-    </row>
-    <row r="382" spans="1:24">
+      <c r="W381" s="1"/>
+    </row>
+    <row r="382" spans="1:23">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -10268,10 +9885,9 @@
       <c r="R382" s="1"/>
       <c r="S382" s="1"/>
       <c r="T382" s="1"/>
-      <c r="U382" s="1"/>
-      <c r="X382" s="1"/>
-    </row>
-    <row r="383" spans="1:24">
+      <c r="W382" s="1"/>
+    </row>
+    <row r="383" spans="1:23">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -10291,10 +9907,9 @@
       <c r="R383" s="1"/>
       <c r="S383" s="1"/>
       <c r="T383" s="1"/>
-      <c r="U383" s="1"/>
-      <c r="X383" s="1"/>
-    </row>
-    <row r="384" spans="1:24">
+      <c r="W383" s="1"/>
+    </row>
+    <row r="384" spans="1:23">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -10314,10 +9929,9 @@
       <c r="R384" s="1"/>
       <c r="S384" s="1"/>
       <c r="T384" s="1"/>
-      <c r="U384" s="1"/>
-      <c r="X384" s="1"/>
-    </row>
-    <row r="385" spans="1:24">
+      <c r="W384" s="1"/>
+    </row>
+    <row r="385" spans="1:23">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -10337,10 +9951,9 @@
       <c r="R385" s="1"/>
       <c r="S385" s="1"/>
       <c r="T385" s="1"/>
-      <c r="U385" s="1"/>
-      <c r="X385" s="1"/>
-    </row>
-    <row r="386" spans="1:24">
+      <c r="W385" s="1"/>
+    </row>
+    <row r="386" spans="1:23">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -10360,10 +9973,9 @@
       <c r="R386" s="1"/>
       <c r="S386" s="1"/>
       <c r="T386" s="1"/>
-      <c r="U386" s="1"/>
-      <c r="X386" s="1"/>
-    </row>
-    <row r="387" spans="1:24">
+      <c r="W386" s="1"/>
+    </row>
+    <row r="387" spans="1:23">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -10383,10 +9995,9 @@
       <c r="R387" s="1"/>
       <c r="S387" s="1"/>
       <c r="T387" s="1"/>
-      <c r="U387" s="1"/>
-      <c r="X387" s="1"/>
-    </row>
-    <row r="388" spans="1:24">
+      <c r="W387" s="1"/>
+    </row>
+    <row r="388" spans="1:23">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -10406,10 +10017,9 @@
       <c r="R388" s="1"/>
       <c r="S388" s="1"/>
       <c r="T388" s="1"/>
-      <c r="U388" s="1"/>
-      <c r="X388" s="1"/>
-    </row>
-    <row r="389" spans="1:24">
+      <c r="W388" s="1"/>
+    </row>
+    <row r="389" spans="1:23">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -10429,10 +10039,9 @@
       <c r="R389" s="1"/>
       <c r="S389" s="1"/>
       <c r="T389" s="1"/>
-      <c r="U389" s="1"/>
-      <c r="X389" s="1"/>
-    </row>
-    <row r="390" spans="1:24">
+      <c r="W389" s="1"/>
+    </row>
+    <row r="390" spans="1:23">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -10452,10 +10061,9 @@
       <c r="R390" s="1"/>
       <c r="S390" s="1"/>
       <c r="T390" s="1"/>
-      <c r="U390" s="1"/>
-      <c r="X390" s="1"/>
-    </row>
-    <row r="391" spans="1:24">
+      <c r="W390" s="1"/>
+    </row>
+    <row r="391" spans="1:23">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -10475,10 +10083,9 @@
       <c r="R391" s="1"/>
       <c r="S391" s="1"/>
       <c r="T391" s="1"/>
-      <c r="U391" s="1"/>
-      <c r="X391" s="1"/>
-    </row>
-    <row r="392" spans="1:24">
+      <c r="W391" s="1"/>
+    </row>
+    <row r="392" spans="1:23">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -10498,10 +10105,9 @@
       <c r="R392" s="1"/>
       <c r="S392" s="1"/>
       <c r="T392" s="1"/>
-      <c r="U392" s="1"/>
-      <c r="X392" s="1"/>
-    </row>
-    <row r="393" spans="1:24">
+      <c r="W392" s="1"/>
+    </row>
+    <row r="393" spans="1:23">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -10521,10 +10127,9 @@
       <c r="R393" s="1"/>
       <c r="S393" s="1"/>
       <c r="T393" s="1"/>
-      <c r="U393" s="1"/>
-      <c r="X393" s="1"/>
-    </row>
-    <row r="394" spans="1:24">
+      <c r="W393" s="1"/>
+    </row>
+    <row r="394" spans="1:23">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -10544,10 +10149,9 @@
       <c r="R394" s="1"/>
       <c r="S394" s="1"/>
       <c r="T394" s="1"/>
-      <c r="U394" s="1"/>
-      <c r="X394" s="1"/>
-    </row>
-    <row r="395" spans="1:24">
+      <c r="W394" s="1"/>
+    </row>
+    <row r="395" spans="1:23">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -10567,10 +10171,9 @@
       <c r="R395" s="1"/>
       <c r="S395" s="1"/>
       <c r="T395" s="1"/>
-      <c r="U395" s="1"/>
-      <c r="X395" s="1"/>
-    </row>
-    <row r="396" spans="1:24">
+      <c r="W395" s="1"/>
+    </row>
+    <row r="396" spans="1:23">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -10590,10 +10193,9 @@
       <c r="R396" s="1"/>
       <c r="S396" s="1"/>
       <c r="T396" s="1"/>
-      <c r="U396" s="1"/>
-      <c r="X396" s="1"/>
-    </row>
-    <row r="397" spans="1:24">
+      <c r="W396" s="1"/>
+    </row>
+    <row r="397" spans="1:23">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -10613,10 +10215,9 @@
       <c r="R397" s="1"/>
       <c r="S397" s="1"/>
       <c r="T397" s="1"/>
-      <c r="U397" s="1"/>
-      <c r="X397" s="1"/>
-    </row>
-    <row r="398" spans="1:24">
+      <c r="W397" s="1"/>
+    </row>
+    <row r="398" spans="1:23">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -10636,10 +10237,9 @@
       <c r="R398" s="1"/>
       <c r="S398" s="1"/>
       <c r="T398" s="1"/>
-      <c r="U398" s="1"/>
-      <c r="X398" s="1"/>
-    </row>
-    <row r="399" spans="1:24">
+      <c r="W398" s="1"/>
+    </row>
+    <row r="399" spans="1:23">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -10659,10 +10259,9 @@
       <c r="R399" s="1"/>
       <c r="S399" s="1"/>
       <c r="T399" s="1"/>
-      <c r="U399" s="1"/>
-      <c r="X399" s="1"/>
-    </row>
-    <row r="400" spans="1:24">
+      <c r="W399" s="1"/>
+    </row>
+    <row r="400" spans="1:23">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -10682,10 +10281,9 @@
       <c r="R400" s="1"/>
       <c r="S400" s="1"/>
       <c r="T400" s="1"/>
-      <c r="U400" s="1"/>
-      <c r="X400" s="1"/>
-    </row>
-    <row r="401" spans="1:24">
+      <c r="W400" s="1"/>
+    </row>
+    <row r="401" spans="1:23">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -10705,10 +10303,9 @@
       <c r="R401" s="1"/>
       <c r="S401" s="1"/>
       <c r="T401" s="1"/>
-      <c r="U401" s="1"/>
-      <c r="X401" s="1"/>
-    </row>
-    <row r="402" spans="1:24">
+      <c r="W401" s="1"/>
+    </row>
+    <row r="402" spans="1:23">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -10728,10 +10325,9 @@
       <c r="R402" s="1"/>
       <c r="S402" s="1"/>
       <c r="T402" s="1"/>
-      <c r="U402" s="1"/>
-      <c r="X402" s="1"/>
-    </row>
-    <row r="403" spans="1:24">
+      <c r="W402" s="1"/>
+    </row>
+    <row r="403" spans="1:23">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -10751,10 +10347,9 @@
       <c r="R403" s="1"/>
       <c r="S403" s="1"/>
       <c r="T403" s="1"/>
-      <c r="U403" s="1"/>
-      <c r="X403" s="1"/>
-    </row>
-    <row r="404" spans="1:24">
+      <c r="W403" s="1"/>
+    </row>
+    <row r="404" spans="1:23">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -10774,10 +10369,9 @@
       <c r="R404" s="1"/>
       <c r="S404" s="1"/>
       <c r="T404" s="1"/>
-      <c r="U404" s="1"/>
-      <c r="X404" s="1"/>
-    </row>
-    <row r="405" spans="1:24">
+      <c r="W404" s="1"/>
+    </row>
+    <row r="405" spans="1:23">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -10797,10 +10391,9 @@
       <c r="R405" s="1"/>
       <c r="S405" s="1"/>
       <c r="T405" s="1"/>
-      <c r="U405" s="1"/>
-      <c r="X405" s="1"/>
-    </row>
-    <row r="406" spans="1:24">
+      <c r="W405" s="1"/>
+    </row>
+    <row r="406" spans="1:23">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -10820,10 +10413,9 @@
       <c r="R406" s="1"/>
       <c r="S406" s="1"/>
       <c r="T406" s="1"/>
-      <c r="U406" s="1"/>
-      <c r="X406" s="1"/>
-    </row>
-    <row r="407" spans="1:24">
+      <c r="W406" s="1"/>
+    </row>
+    <row r="407" spans="1:23">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -10843,10 +10435,9 @@
       <c r="R407" s="1"/>
       <c r="S407" s="1"/>
       <c r="T407" s="1"/>
-      <c r="U407" s="1"/>
-      <c r="X407" s="1"/>
-    </row>
-    <row r="408" spans="1:24">
+      <c r="W407" s="1"/>
+    </row>
+    <row r="408" spans="1:23">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -10866,10 +10457,9 @@
       <c r="R408" s="1"/>
       <c r="S408" s="1"/>
       <c r="T408" s="1"/>
-      <c r="U408" s="1"/>
-      <c r="X408" s="1"/>
-    </row>
-    <row r="409" spans="1:24">
+      <c r="W408" s="1"/>
+    </row>
+    <row r="409" spans="1:23">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -10889,10 +10479,9 @@
       <c r="R409" s="1"/>
       <c r="S409" s="1"/>
       <c r="T409" s="1"/>
-      <c r="U409" s="1"/>
-      <c r="X409" s="1"/>
-    </row>
-    <row r="410" spans="1:24">
+      <c r="W409" s="1"/>
+    </row>
+    <row r="410" spans="1:23">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -10912,10 +10501,9 @@
       <c r="R410" s="1"/>
       <c r="S410" s="1"/>
       <c r="T410" s="1"/>
-      <c r="U410" s="1"/>
-      <c r="X410" s="1"/>
-    </row>
-    <row r="411" spans="1:24">
+      <c r="W410" s="1"/>
+    </row>
+    <row r="411" spans="1:23">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -10935,10 +10523,9 @@
       <c r="R411" s="1"/>
       <c r="S411" s="1"/>
       <c r="T411" s="1"/>
-      <c r="U411" s="1"/>
-      <c r="X411" s="1"/>
-    </row>
-    <row r="412" spans="1:24">
+      <c r="W411" s="1"/>
+    </row>
+    <row r="412" spans="1:23">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -10958,10 +10545,9 @@
       <c r="R412" s="1"/>
       <c r="S412" s="1"/>
       <c r="T412" s="1"/>
-      <c r="U412" s="1"/>
-      <c r="X412" s="1"/>
-    </row>
-    <row r="413" spans="1:24">
+      <c r="W412" s="1"/>
+    </row>
+    <row r="413" spans="1:23">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -10981,10 +10567,9 @@
       <c r="R413" s="1"/>
       <c r="S413" s="1"/>
       <c r="T413" s="1"/>
-      <c r="U413" s="1"/>
-      <c r="X413" s="1"/>
-    </row>
-    <row r="414" spans="1:24">
+      <c r="W413" s="1"/>
+    </row>
+    <row r="414" spans="1:23">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -11004,10 +10589,9 @@
       <c r="R414" s="1"/>
       <c r="S414" s="1"/>
       <c r="T414" s="1"/>
-      <c r="U414" s="1"/>
-      <c r="X414" s="1"/>
-    </row>
-    <row r="415" spans="1:24">
+      <c r="W414" s="1"/>
+    </row>
+    <row r="415" spans="1:23">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -11027,10 +10611,9 @@
       <c r="R415" s="1"/>
       <c r="S415" s="1"/>
       <c r="T415" s="1"/>
-      <c r="U415" s="1"/>
-      <c r="X415" s="1"/>
-    </row>
-    <row r="416" spans="1:24">
+      <c r="W415" s="1"/>
+    </row>
+    <row r="416" spans="1:23">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -11050,10 +10633,9 @@
       <c r="R416" s="1"/>
       <c r="S416" s="1"/>
       <c r="T416" s="1"/>
-      <c r="U416" s="1"/>
-      <c r="X416" s="1"/>
-    </row>
-    <row r="417" spans="1:24">
+      <c r="W416" s="1"/>
+    </row>
+    <row r="417" spans="1:23">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -11073,10 +10655,9 @@
       <c r="R417" s="1"/>
       <c r="S417" s="1"/>
       <c r="T417" s="1"/>
-      <c r="U417" s="1"/>
-      <c r="X417" s="1"/>
-    </row>
-    <row r="418" spans="1:24">
+      <c r="W417" s="1"/>
+    </row>
+    <row r="418" spans="1:23">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -11096,10 +10677,9 @@
       <c r="R418" s="1"/>
       <c r="S418" s="1"/>
       <c r="T418" s="1"/>
-      <c r="U418" s="1"/>
-      <c r="X418" s="1"/>
-    </row>
-    <row r="419" spans="1:24">
+      <c r="W418" s="1"/>
+    </row>
+    <row r="419" spans="1:23">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -11119,10 +10699,9 @@
       <c r="R419" s="1"/>
       <c r="S419" s="1"/>
       <c r="T419" s="1"/>
-      <c r="U419" s="1"/>
-      <c r="X419" s="1"/>
-    </row>
-    <row r="420" spans="1:24">
+      <c r="W419" s="1"/>
+    </row>
+    <row r="420" spans="1:23">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -11142,10 +10721,9 @@
       <c r="R420" s="1"/>
       <c r="S420" s="1"/>
       <c r="T420" s="1"/>
-      <c r="U420" s="1"/>
-      <c r="X420" s="1"/>
-    </row>
-    <row r="421" spans="1:24">
+      <c r="W420" s="1"/>
+    </row>
+    <row r="421" spans="1:23">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -11165,10 +10743,9 @@
       <c r="R421" s="1"/>
       <c r="S421" s="1"/>
       <c r="T421" s="1"/>
-      <c r="U421" s="1"/>
-      <c r="X421" s="1"/>
-    </row>
-    <row r="422" spans="1:24">
+      <c r="W421" s="1"/>
+    </row>
+    <row r="422" spans="1:23">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -11188,10 +10765,9 @@
       <c r="R422" s="1"/>
       <c r="S422" s="1"/>
       <c r="T422" s="1"/>
-      <c r="U422" s="1"/>
-      <c r="X422" s="1"/>
-    </row>
-    <row r="423" spans="1:24">
+      <c r="W422" s="1"/>
+    </row>
+    <row r="423" spans="1:23">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -11211,10 +10787,9 @@
       <c r="R423" s="1"/>
       <c r="S423" s="1"/>
       <c r="T423" s="1"/>
-      <c r="U423" s="1"/>
-      <c r="X423" s="1"/>
-    </row>
-    <row r="424" spans="1:24">
+      <c r="W423" s="1"/>
+    </row>
+    <row r="424" spans="1:23">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -11234,10 +10809,9 @@
       <c r="R424" s="1"/>
       <c r="S424" s="1"/>
       <c r="T424" s="1"/>
-      <c r="U424" s="1"/>
-      <c r="X424" s="1"/>
-    </row>
-    <row r="425" spans="1:24">
+      <c r="W424" s="1"/>
+    </row>
+    <row r="425" spans="1:23">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -11257,10 +10831,9 @@
       <c r="R425" s="1"/>
       <c r="S425" s="1"/>
       <c r="T425" s="1"/>
-      <c r="U425" s="1"/>
-      <c r="X425" s="1"/>
-    </row>
-    <row r="426" spans="1:24">
+      <c r="W425" s="1"/>
+    </row>
+    <row r="426" spans="1:23">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -11280,10 +10853,9 @@
       <c r="R426" s="1"/>
       <c r="S426" s="1"/>
       <c r="T426" s="1"/>
-      <c r="U426" s="1"/>
-      <c r="X426" s="1"/>
-    </row>
-    <row r="427" spans="1:24">
+      <c r="W426" s="1"/>
+    </row>
+    <row r="427" spans="1:23">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -11303,10 +10875,9 @@
       <c r="R427" s="1"/>
       <c r="S427" s="1"/>
       <c r="T427" s="1"/>
-      <c r="U427" s="1"/>
-      <c r="X427" s="1"/>
-    </row>
-    <row r="428" spans="1:24">
+      <c r="W427" s="1"/>
+    </row>
+    <row r="428" spans="1:23">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -11326,10 +10897,9 @@
       <c r="R428" s="1"/>
       <c r="S428" s="1"/>
       <c r="T428" s="1"/>
-      <c r="U428" s="1"/>
-      <c r="X428" s="1"/>
-    </row>
-    <row r="429" spans="1:24">
+      <c r="W428" s="1"/>
+    </row>
+    <row r="429" spans="1:23">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -11349,10 +10919,9 @@
       <c r="R429" s="1"/>
       <c r="S429" s="1"/>
       <c r="T429" s="1"/>
-      <c r="U429" s="1"/>
-      <c r="X429" s="1"/>
-    </row>
-    <row r="430" spans="1:24">
+      <c r="W429" s="1"/>
+    </row>
+    <row r="430" spans="1:23">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -11372,10 +10941,9 @@
       <c r="R430" s="1"/>
       <c r="S430" s="1"/>
       <c r="T430" s="1"/>
-      <c r="U430" s="1"/>
-      <c r="X430" s="1"/>
-    </row>
-    <row r="431" spans="1:24">
+      <c r="W430" s="1"/>
+    </row>
+    <row r="431" spans="1:23">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -11395,10 +10963,9 @@
       <c r="R431" s="1"/>
       <c r="S431" s="1"/>
       <c r="T431" s="1"/>
-      <c r="U431" s="1"/>
-      <c r="X431" s="1"/>
-    </row>
-    <row r="432" spans="1:24">
+      <c r="W431" s="1"/>
+    </row>
+    <row r="432" spans="1:23">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -11418,10 +10985,9 @@
       <c r="R432" s="1"/>
       <c r="S432" s="1"/>
       <c r="T432" s="1"/>
-      <c r="U432" s="1"/>
-      <c r="X432" s="1"/>
-    </row>
-    <row r="433" spans="1:24">
+      <c r="W432" s="1"/>
+    </row>
+    <row r="433" spans="1:23">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -11441,10 +11007,9 @@
       <c r="R433" s="1"/>
       <c r="S433" s="1"/>
       <c r="T433" s="1"/>
-      <c r="U433" s="1"/>
-      <c r="X433" s="1"/>
-    </row>
-    <row r="434" spans="1:24">
+      <c r="W433" s="1"/>
+    </row>
+    <row r="434" spans="1:23">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -11464,10 +11029,9 @@
       <c r="R434" s="1"/>
       <c r="S434" s="1"/>
       <c r="T434" s="1"/>
-      <c r="U434" s="1"/>
-      <c r="X434" s="1"/>
-    </row>
-    <row r="435" spans="1:24">
+      <c r="W434" s="1"/>
+    </row>
+    <row r="435" spans="1:23">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -11487,10 +11051,9 @@
       <c r="R435" s="1"/>
       <c r="S435" s="1"/>
       <c r="T435" s="1"/>
-      <c r="U435" s="1"/>
-      <c r="X435" s="1"/>
-    </row>
-    <row r="436" spans="1:24">
+      <c r="W435" s="1"/>
+    </row>
+    <row r="436" spans="1:23">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -11510,10 +11073,9 @@
       <c r="R436" s="1"/>
       <c r="S436" s="1"/>
       <c r="T436" s="1"/>
-      <c r="U436" s="1"/>
-      <c r="X436" s="1"/>
-    </row>
-    <row r="437" spans="1:24">
+      <c r="W436" s="1"/>
+    </row>
+    <row r="437" spans="1:23">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -11533,10 +11095,9 @@
       <c r="R437" s="1"/>
       <c r="S437" s="1"/>
       <c r="T437" s="1"/>
-      <c r="U437" s="1"/>
-      <c r="X437" s="1"/>
-    </row>
-    <row r="438" spans="1:24">
+      <c r="W437" s="1"/>
+    </row>
+    <row r="438" spans="1:23">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -11556,10 +11117,9 @@
       <c r="R438" s="1"/>
       <c r="S438" s="1"/>
       <c r="T438" s="1"/>
-      <c r="U438" s="1"/>
-      <c r="X438" s="1"/>
-    </row>
-    <row r="439" spans="1:24">
+      <c r="W438" s="1"/>
+    </row>
+    <row r="439" spans="1:23">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -11579,10 +11139,9 @@
       <c r="R439" s="1"/>
       <c r="S439" s="1"/>
       <c r="T439" s="1"/>
-      <c r="U439" s="1"/>
-      <c r="X439" s="1"/>
-    </row>
-    <row r="440" spans="1:24">
+      <c r="W439" s="1"/>
+    </row>
+    <row r="440" spans="1:23">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -11602,10 +11161,9 @@
       <c r="R440" s="1"/>
       <c r="S440" s="1"/>
       <c r="T440" s="1"/>
-      <c r="U440" s="1"/>
-      <c r="X440" s="1"/>
-    </row>
-    <row r="441" spans="1:24">
+      <c r="W440" s="1"/>
+    </row>
+    <row r="441" spans="1:23">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -11625,10 +11183,9 @@
       <c r="R441" s="1"/>
       <c r="S441" s="1"/>
       <c r="T441" s="1"/>
-      <c r="U441" s="1"/>
-      <c r="X441" s="1"/>
-    </row>
-    <row r="442" spans="1:24">
+      <c r="W441" s="1"/>
+    </row>
+    <row r="442" spans="1:23">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -11648,10 +11205,9 @@
       <c r="R442" s="1"/>
       <c r="S442" s="1"/>
       <c r="T442" s="1"/>
-      <c r="U442" s="1"/>
-      <c r="X442" s="1"/>
-    </row>
-    <row r="443" spans="1:24">
+      <c r="W442" s="1"/>
+    </row>
+    <row r="443" spans="1:23">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -11671,10 +11227,9 @@
       <c r="R443" s="1"/>
       <c r="S443" s="1"/>
       <c r="T443" s="1"/>
-      <c r="U443" s="1"/>
-      <c r="X443" s="1"/>
-    </row>
-    <row r="444" spans="1:24">
+      <c r="W443" s="1"/>
+    </row>
+    <row r="444" spans="1:23">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -11694,10 +11249,9 @@
       <c r="R444" s="1"/>
       <c r="S444" s="1"/>
       <c r="T444" s="1"/>
-      <c r="U444" s="1"/>
-      <c r="X444" s="1"/>
-    </row>
-    <row r="445" spans="1:24">
+      <c r="W444" s="1"/>
+    </row>
+    <row r="445" spans="1:23">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -11717,10 +11271,9 @@
       <c r="R445" s="1"/>
       <c r="S445" s="1"/>
       <c r="T445" s="1"/>
-      <c r="U445" s="1"/>
-      <c r="X445" s="1"/>
-    </row>
-    <row r="446" spans="1:24">
+      <c r="W445" s="1"/>
+    </row>
+    <row r="446" spans="1:23">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -11740,10 +11293,9 @@
       <c r="R446" s="1"/>
       <c r="S446" s="1"/>
       <c r="T446" s="1"/>
-      <c r="U446" s="1"/>
-      <c r="X446" s="1"/>
-    </row>
-    <row r="447" spans="1:24">
+      <c r="W446" s="1"/>
+    </row>
+    <row r="447" spans="1:23">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -11763,10 +11315,9 @@
       <c r="R447" s="1"/>
       <c r="S447" s="1"/>
       <c r="T447" s="1"/>
-      <c r="U447" s="1"/>
-      <c r="X447" s="1"/>
-    </row>
-    <row r="448" spans="1:24">
+      <c r="W447" s="1"/>
+    </row>
+    <row r="448" spans="1:23">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -11786,10 +11337,9 @@
       <c r="R448" s="1"/>
       <c r="S448" s="1"/>
       <c r="T448" s="1"/>
-      <c r="U448" s="1"/>
-      <c r="X448" s="1"/>
-    </row>
-    <row r="449" spans="1:24">
+      <c r="W448" s="1"/>
+    </row>
+    <row r="449" spans="1:23">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -11809,10 +11359,9 @@
       <c r="R449" s="1"/>
       <c r="S449" s="1"/>
       <c r="T449" s="1"/>
-      <c r="U449" s="1"/>
-      <c r="X449" s="1"/>
-    </row>
-    <row r="450" spans="1:24">
+      <c r="W449" s="1"/>
+    </row>
+    <row r="450" spans="1:23">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -11832,10 +11381,9 @@
       <c r="R450" s="1"/>
       <c r="S450" s="1"/>
       <c r="T450" s="1"/>
-      <c r="U450" s="1"/>
-      <c r="X450" s="1"/>
-    </row>
-    <row r="451" spans="1:24">
+      <c r="W450" s="1"/>
+    </row>
+    <row r="451" spans="1:23">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -11855,10 +11403,9 @@
       <c r="R451" s="1"/>
       <c r="S451" s="1"/>
       <c r="T451" s="1"/>
-      <c r="U451" s="1"/>
-      <c r="X451" s="1"/>
-    </row>
-    <row r="452" spans="1:24">
+      <c r="W451" s="1"/>
+    </row>
+    <row r="452" spans="1:23">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -11878,10 +11425,9 @@
       <c r="R452" s="1"/>
       <c r="S452" s="1"/>
       <c r="T452" s="1"/>
-      <c r="U452" s="1"/>
-      <c r="X452" s="1"/>
-    </row>
-    <row r="453" spans="1:24">
+      <c r="W452" s="1"/>
+    </row>
+    <row r="453" spans="1:23">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -11901,10 +11447,9 @@
       <c r="R453" s="1"/>
       <c r="S453" s="1"/>
       <c r="T453" s="1"/>
-      <c r="U453" s="1"/>
-      <c r="X453" s="1"/>
-    </row>
-    <row r="454" spans="1:24">
+      <c r="W453" s="1"/>
+    </row>
+    <row r="454" spans="1:23">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -11924,10 +11469,9 @@
       <c r="R454" s="1"/>
       <c r="S454" s="1"/>
       <c r="T454" s="1"/>
-      <c r="U454" s="1"/>
-      <c r="X454" s="1"/>
-    </row>
-    <row r="455" spans="1:24">
+      <c r="W454" s="1"/>
+    </row>
+    <row r="455" spans="1:23">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -11947,10 +11491,9 @@
       <c r="R455" s="1"/>
       <c r="S455" s="1"/>
       <c r="T455" s="1"/>
-      <c r="U455" s="1"/>
-      <c r="X455" s="1"/>
-    </row>
-    <row r="456" spans="1:24">
+      <c r="W455" s="1"/>
+    </row>
+    <row r="456" spans="1:23">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -11970,10 +11513,9 @@
       <c r="R456" s="1"/>
       <c r="S456" s="1"/>
       <c r="T456" s="1"/>
-      <c r="U456" s="1"/>
-      <c r="X456" s="1"/>
-    </row>
-    <row r="457" spans="1:24">
+      <c r="W456" s="1"/>
+    </row>
+    <row r="457" spans="1:23">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -11993,10 +11535,9 @@
       <c r="R457" s="1"/>
       <c r="S457" s="1"/>
       <c r="T457" s="1"/>
-      <c r="U457" s="1"/>
-      <c r="X457" s="1"/>
-    </row>
-    <row r="458" spans="1:24">
+      <c r="W457" s="1"/>
+    </row>
+    <row r="458" spans="1:23">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -12016,10 +11557,9 @@
       <c r="R458" s="1"/>
       <c r="S458" s="1"/>
       <c r="T458" s="1"/>
-      <c r="U458" s="1"/>
-      <c r="X458" s="1"/>
-    </row>
-    <row r="459" spans="1:24">
+      <c r="W458" s="1"/>
+    </row>
+    <row r="459" spans="1:23">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -12039,10 +11579,9 @@
       <c r="R459" s="1"/>
       <c r="S459" s="1"/>
       <c r="T459" s="1"/>
-      <c r="U459" s="1"/>
-      <c r="X459" s="1"/>
-    </row>
-    <row r="460" spans="1:24">
+      <c r="W459" s="1"/>
+    </row>
+    <row r="460" spans="1:23">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -12062,10 +11601,9 @@
       <c r="R460" s="1"/>
       <c r="S460" s="1"/>
       <c r="T460" s="1"/>
-      <c r="U460" s="1"/>
-      <c r="X460" s="1"/>
-    </row>
-    <row r="461" spans="1:24">
+      <c r="W460" s="1"/>
+    </row>
+    <row r="461" spans="1:23">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -12085,10 +11623,9 @@
       <c r="R461" s="1"/>
       <c r="S461" s="1"/>
       <c r="T461" s="1"/>
-      <c r="U461" s="1"/>
-      <c r="X461" s="1"/>
-    </row>
-    <row r="462" spans="1:24">
+      <c r="W461" s="1"/>
+    </row>
+    <row r="462" spans="1:23">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -12108,10 +11645,9 @@
       <c r="R462" s="1"/>
       <c r="S462" s="1"/>
       <c r="T462" s="1"/>
-      <c r="U462" s="1"/>
-      <c r="X462" s="1"/>
-    </row>
-    <row r="463" spans="1:24">
+      <c r="W462" s="1"/>
+    </row>
+    <row r="463" spans="1:23">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -12131,10 +11667,9 @@
       <c r="R463" s="1"/>
       <c r="S463" s="1"/>
       <c r="T463" s="1"/>
-      <c r="U463" s="1"/>
-      <c r="X463" s="1"/>
-    </row>
-    <row r="464" spans="1:24">
+      <c r="W463" s="1"/>
+    </row>
+    <row r="464" spans="1:23">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -12154,10 +11689,9 @@
       <c r="R464" s="1"/>
       <c r="S464" s="1"/>
       <c r="T464" s="1"/>
-      <c r="U464" s="1"/>
-      <c r="X464" s="1"/>
-    </row>
-    <row r="465" spans="1:24">
+      <c r="W464" s="1"/>
+    </row>
+    <row r="465" spans="1:23">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -12177,10 +11711,9 @@
       <c r="R465" s="1"/>
       <c r="S465" s="1"/>
       <c r="T465" s="1"/>
-      <c r="U465" s="1"/>
-      <c r="X465" s="1"/>
-    </row>
-    <row r="466" spans="1:24">
+      <c r="W465" s="1"/>
+    </row>
+    <row r="466" spans="1:23">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -12200,10 +11733,9 @@
       <c r="R466" s="1"/>
       <c r="S466" s="1"/>
       <c r="T466" s="1"/>
-      <c r="U466" s="1"/>
-      <c r="X466" s="1"/>
-    </row>
-    <row r="467" spans="1:24">
+      <c r="W466" s="1"/>
+    </row>
+    <row r="467" spans="1:23">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -12223,10 +11755,9 @@
       <c r="R467" s="1"/>
       <c r="S467" s="1"/>
       <c r="T467" s="1"/>
-      <c r="U467" s="1"/>
-      <c r="X467" s="1"/>
-    </row>
-    <row r="468" spans="1:24">
+      <c r="W467" s="1"/>
+    </row>
+    <row r="468" spans="1:23">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -12246,10 +11777,9 @@
       <c r="R468" s="1"/>
       <c r="S468" s="1"/>
       <c r="T468" s="1"/>
-      <c r="U468" s="1"/>
-      <c r="X468" s="1"/>
-    </row>
-    <row r="469" spans="1:24">
+      <c r="W468" s="1"/>
+    </row>
+    <row r="469" spans="1:23">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -12269,10 +11799,9 @@
       <c r="R469" s="1"/>
       <c r="S469" s="1"/>
       <c r="T469" s="1"/>
-      <c r="U469" s="1"/>
-      <c r="X469" s="1"/>
-    </row>
-    <row r="470" spans="1:24">
+      <c r="W469" s="1"/>
+    </row>
+    <row r="470" spans="1:23">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -12292,10 +11821,9 @@
       <c r="R470" s="1"/>
       <c r="S470" s="1"/>
       <c r="T470" s="1"/>
-      <c r="U470" s="1"/>
-      <c r="X470" s="1"/>
-    </row>
-    <row r="471" spans="1:24">
+      <c r="W470" s="1"/>
+    </row>
+    <row r="471" spans="1:23">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -12315,10 +11843,9 @@
       <c r="R471" s="1"/>
       <c r="S471" s="1"/>
       <c r="T471" s="1"/>
-      <c r="U471" s="1"/>
-      <c r="X471" s="1"/>
-    </row>
-    <row r="472" spans="1:24">
+      <c r="W471" s="1"/>
+    </row>
+    <row r="472" spans="1:23">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -12338,10 +11865,9 @@
       <c r="R472" s="1"/>
       <c r="S472" s="1"/>
       <c r="T472" s="1"/>
-      <c r="U472" s="1"/>
-      <c r="X472" s="1"/>
-    </row>
-    <row r="473" spans="1:24">
+      <c r="W472" s="1"/>
+    </row>
+    <row r="473" spans="1:23">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -12361,10 +11887,9 @@
       <c r="R473" s="1"/>
       <c r="S473" s="1"/>
       <c r="T473" s="1"/>
-      <c r="U473" s="1"/>
-      <c r="X473" s="1"/>
-    </row>
-    <row r="474" spans="1:24">
+      <c r="W473" s="1"/>
+    </row>
+    <row r="474" spans="1:23">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -12384,10 +11909,9 @@
       <c r="R474" s="1"/>
       <c r="S474" s="1"/>
       <c r="T474" s="1"/>
-      <c r="U474" s="1"/>
-      <c r="X474" s="1"/>
-    </row>
-    <row r="475" spans="1:24">
+      <c r="W474" s="1"/>
+    </row>
+    <row r="475" spans="1:23">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -12407,10 +11931,9 @@
       <c r="R475" s="1"/>
       <c r="S475" s="1"/>
       <c r="T475" s="1"/>
-      <c r="U475" s="1"/>
-      <c r="X475" s="1"/>
-    </row>
-    <row r="476" spans="1:24">
+      <c r="W475" s="1"/>
+    </row>
+    <row r="476" spans="1:23">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -12430,10 +11953,9 @@
       <c r="R476" s="1"/>
       <c r="S476" s="1"/>
       <c r="T476" s="1"/>
-      <c r="U476" s="1"/>
-      <c r="X476" s="1"/>
-    </row>
-    <row r="477" spans="1:24">
+      <c r="W476" s="1"/>
+    </row>
+    <row r="477" spans="1:23">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -12453,10 +11975,9 @@
       <c r="R477" s="1"/>
       <c r="S477" s="1"/>
       <c r="T477" s="1"/>
-      <c r="U477" s="1"/>
-      <c r="X477" s="1"/>
-    </row>
-    <row r="478" spans="1:24">
+      <c r="W477" s="1"/>
+    </row>
+    <row r="478" spans="1:23">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -12476,10 +11997,9 @@
       <c r="R478" s="1"/>
       <c r="S478" s="1"/>
       <c r="T478" s="1"/>
-      <c r="U478" s="1"/>
-      <c r="X478" s="1"/>
-    </row>
-    <row r="479" spans="1:24">
+      <c r="W478" s="1"/>
+    </row>
+    <row r="479" spans="1:23">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -12499,10 +12019,9 @@
       <c r="R479" s="1"/>
       <c r="S479" s="1"/>
       <c r="T479" s="1"/>
-      <c r="U479" s="1"/>
-      <c r="X479" s="1"/>
-    </row>
-    <row r="480" spans="1:24">
+      <c r="W479" s="1"/>
+    </row>
+    <row r="480" spans="1:23">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -12522,10 +12041,9 @@
       <c r="R480" s="1"/>
       <c r="S480" s="1"/>
       <c r="T480" s="1"/>
-      <c r="U480" s="1"/>
-      <c r="X480" s="1"/>
-    </row>
-    <row r="481" spans="1:24">
+      <c r="W480" s="1"/>
+    </row>
+    <row r="481" spans="1:23">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -12545,10 +12063,9 @@
       <c r="R481" s="1"/>
       <c r="S481" s="1"/>
       <c r="T481" s="1"/>
-      <c r="U481" s="1"/>
-      <c r="X481" s="1"/>
-    </row>
-    <row r="482" spans="1:24">
+      <c r="W481" s="1"/>
+    </row>
+    <row r="482" spans="1:23">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -12568,10 +12085,9 @@
       <c r="R482" s="1"/>
       <c r="S482" s="1"/>
       <c r="T482" s="1"/>
-      <c r="U482" s="1"/>
-      <c r="X482" s="1"/>
-    </row>
-    <row r="483" spans="1:24">
+      <c r="W482" s="1"/>
+    </row>
+    <row r="483" spans="1:23">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -12591,10 +12107,9 @@
       <c r="R483" s="1"/>
       <c r="S483" s="1"/>
       <c r="T483" s="1"/>
-      <c r="U483" s="1"/>
-      <c r="X483" s="1"/>
-    </row>
-    <row r="484" spans="1:24">
+      <c r="W483" s="1"/>
+    </row>
+    <row r="484" spans="1:23">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -12614,10 +12129,9 @@
       <c r="R484" s="1"/>
       <c r="S484" s="1"/>
       <c r="T484" s="1"/>
-      <c r="U484" s="1"/>
-      <c r="X484" s="1"/>
-    </row>
-    <row r="485" spans="1:24">
+      <c r="W484" s="1"/>
+    </row>
+    <row r="485" spans="1:23">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -12637,10 +12151,9 @@
       <c r="R485" s="1"/>
       <c r="S485" s="1"/>
       <c r="T485" s="1"/>
-      <c r="U485" s="1"/>
-      <c r="X485" s="1"/>
-    </row>
-    <row r="486" spans="1:24">
+      <c r="W485" s="1"/>
+    </row>
+    <row r="486" spans="1:23">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -12660,10 +12173,9 @@
       <c r="R486" s="1"/>
       <c r="S486" s="1"/>
       <c r="T486" s="1"/>
-      <c r="U486" s="1"/>
-      <c r="X486" s="1"/>
-    </row>
-    <row r="487" spans="1:24">
+      <c r="W486" s="1"/>
+    </row>
+    <row r="487" spans="1:23">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -12683,10 +12195,9 @@
       <c r="R487" s="1"/>
       <c r="S487" s="1"/>
       <c r="T487" s="1"/>
-      <c r="U487" s="1"/>
-      <c r="X487" s="1"/>
-    </row>
-    <row r="488" spans="1:24">
+      <c r="W487" s="1"/>
+    </row>
+    <row r="488" spans="1:23">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -12706,10 +12217,9 @@
       <c r="R488" s="1"/>
       <c r="S488" s="1"/>
       <c r="T488" s="1"/>
-      <c r="U488" s="1"/>
-      <c r="X488" s="1"/>
-    </row>
-    <row r="489" spans="1:24">
+      <c r="W488" s="1"/>
+    </row>
+    <row r="489" spans="1:23">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -12729,10 +12239,9 @@
       <c r="R489" s="1"/>
       <c r="S489" s="1"/>
       <c r="T489" s="1"/>
-      <c r="U489" s="1"/>
-      <c r="X489" s="1"/>
-    </row>
-    <row r="490" spans="1:24">
+      <c r="W489" s="1"/>
+    </row>
+    <row r="490" spans="1:23">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -12752,10 +12261,9 @@
       <c r="R490" s="1"/>
       <c r="S490" s="1"/>
       <c r="T490" s="1"/>
-      <c r="U490" s="1"/>
-      <c r="X490" s="1"/>
-    </row>
-    <row r="491" spans="1:24">
+      <c r="W490" s="1"/>
+    </row>
+    <row r="491" spans="1:23">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -12775,10 +12283,9 @@
       <c r="R491" s="1"/>
       <c r="S491" s="1"/>
       <c r="T491" s="1"/>
-      <c r="U491" s="1"/>
-      <c r="X491" s="1"/>
-    </row>
-    <row r="492" spans="1:24">
+      <c r="W491" s="1"/>
+    </row>
+    <row r="492" spans="1:23">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -12798,10 +12305,9 @@
       <c r="R492" s="1"/>
       <c r="S492" s="1"/>
       <c r="T492" s="1"/>
-      <c r="U492" s="1"/>
-      <c r="X492" s="1"/>
-    </row>
-    <row r="493" spans="1:24">
+      <c r="W492" s="1"/>
+    </row>
+    <row r="493" spans="1:23">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -12821,10 +12327,9 @@
       <c r="R493" s="1"/>
       <c r="S493" s="1"/>
       <c r="T493" s="1"/>
-      <c r="U493" s="1"/>
-      <c r="X493" s="1"/>
-    </row>
-    <row r="494" spans="1:24">
+      <c r="W493" s="1"/>
+    </row>
+    <row r="494" spans="1:23">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -12844,10 +12349,9 @@
       <c r="R494" s="1"/>
       <c r="S494" s="1"/>
       <c r="T494" s="1"/>
-      <c r="U494" s="1"/>
-      <c r="X494" s="1"/>
-    </row>
-    <row r="495" spans="1:24">
+      <c r="W494" s="1"/>
+    </row>
+    <row r="495" spans="1:23">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -12867,10 +12371,9 @@
       <c r="R495" s="1"/>
       <c r="S495" s="1"/>
       <c r="T495" s="1"/>
-      <c r="U495" s="1"/>
-      <c r="X495" s="1"/>
-    </row>
-    <row r="496" spans="1:24">
+      <c r="W495" s="1"/>
+    </row>
+    <row r="496" spans="1:23">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -12890,10 +12393,9 @@
       <c r="R496" s="1"/>
       <c r="S496" s="1"/>
       <c r="T496" s="1"/>
-      <c r="U496" s="1"/>
-      <c r="X496" s="1"/>
-    </row>
-    <row r="497" spans="1:24">
+      <c r="W496" s="1"/>
+    </row>
+    <row r="497" spans="1:23">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -12913,10 +12415,9 @@
       <c r="R497" s="1"/>
       <c r="S497" s="1"/>
       <c r="T497" s="1"/>
-      <c r="U497" s="1"/>
-      <c r="X497" s="1"/>
-    </row>
-    <row r="498" spans="1:24">
+      <c r="W497" s="1"/>
+    </row>
+    <row r="498" spans="1:23">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -12936,10 +12437,9 @@
       <c r="R498" s="1"/>
       <c r="S498" s="1"/>
       <c r="T498" s="1"/>
-      <c r="U498" s="1"/>
-      <c r="X498" s="1"/>
-    </row>
-    <row r="499" spans="1:24">
+      <c r="W498" s="1"/>
+    </row>
+    <row r="499" spans="1:23">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -12959,10 +12459,9 @@
       <c r="R499" s="1"/>
       <c r="S499" s="1"/>
       <c r="T499" s="1"/>
-      <c r="U499" s="1"/>
-      <c r="X499" s="1"/>
-    </row>
-    <row r="500" spans="1:24">
+      <c r="W499" s="1"/>
+    </row>
+    <row r="500" spans="1:23">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -12982,15 +12481,14 @@
       <c r="R500" s="1"/>
       <c r="S500" s="1"/>
       <c r="T500" s="1"/>
-      <c r="U500" s="1"/>
-      <c r="X500" s="1"/>
+      <c r="W500" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:T1"/>
-    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -131,14 +131,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,13 +176,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -191,9 +184,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,16 +198,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,9 +214,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +263,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,15 +291,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,7 +300,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,28 +313,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -320,7 +326,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +342,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,13 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,25 +395,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,43 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,19 +467,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,13 +491,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,19 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,16 +613,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -620,6 +632,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -640,28 +663,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,152 +682,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,43 +855,46 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1214,7 +1229,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1:U1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1263,20 +1278,20 @@
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="19" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="19"/>
+      <c r="W1" s="20"/>
     </row>
     <row r="2" ht="56" customHeight="1" spans="1:23">
       <c r="A2" s="2"/>
@@ -1304,46 +1319,46 @@
       <c r="I2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="W2" s="21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1372,7 +1387,7 @@
       <c r="T3" s="10"/>
       <c r="U3" s="6"/>
       <c r="V3" s="11"/>
-      <c r="W3" s="21"/>
+      <c r="W3" s="22"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="7">
@@ -1398,8 +1413,8 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="21"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="22"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="7">
@@ -1425,8 +1440,8 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="21"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="7">
@@ -1452,8 +1467,8 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="21"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="22"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="7">
@@ -1964,7 +1979,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="23"/>
+      <c r="U25" s="24"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
     </row>
@@ -1991,7 +2006,7 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="23"/>
+      <c r="U26" s="24"/>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
     </row>
@@ -2018,7 +2033,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="23"/>
+      <c r="U27" s="24"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
     </row>
@@ -2045,7 +2060,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="23"/>
+      <c r="U28" s="24"/>
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
     </row>
@@ -2072,7 +2087,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="23"/>
+      <c r="U29" s="24"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
     </row>
@@ -2099,7 +2114,7 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="23"/>
+      <c r="U30" s="24"/>
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
     </row>
@@ -2126,7 +2141,7 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="23"/>
+      <c r="U31" s="24"/>
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
     </row>
@@ -2153,7 +2168,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="23"/>
+      <c r="U32" s="24"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
@@ -2180,7 +2195,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="23"/>
+      <c r="U33" s="24"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
     </row>
@@ -2207,7 +2222,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="23"/>
+      <c r="U34" s="24"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
     </row>
@@ -2234,7 +2249,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="23"/>
+      <c r="U35" s="24"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
     </row>
@@ -2261,7 +2276,7 @@
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
-      <c r="U36" s="23"/>
+      <c r="U36" s="24"/>
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
     </row>
@@ -2288,7 +2303,7 @@
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
-      <c r="U37" s="23"/>
+      <c r="U37" s="24"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
     </row>
@@ -2315,7 +2330,7 @@
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
-      <c r="U38" s="23"/>
+      <c r="U38" s="24"/>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -1229,7 +1229,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2:J2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>日期</t>
   </si>
@@ -25,10 +25,16 @@
     <t>止损线状态</t>
   </si>
   <si>
-    <t>是否向预期相反方向走的指标</t>
+    <t>止损卖出指标</t>
+  </si>
+  <si>
+    <t>止盈卖出指标</t>
   </si>
   <si>
     <t>强势卖出指标</t>
+  </si>
+  <si>
+    <t>弱势卖出指标</t>
   </si>
   <si>
     <t>收盘价</t>
@@ -57,26 +63,8 @@
 (下跌超过3%考虑卖出；上涨超过25%考虑卖出)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">上涨/下跌天数
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(上涨大于65%考虑止盈；下跌大于65%考虑止损)</t>
-    </r>
+    <t>上涨/下跌天数
+(上涨大于65%考虑止盈；下跌大于65%考虑止损)</t>
   </si>
   <si>
     <t>当前止损线</t>
@@ -119,11 +107,22 @@
   </si>
   <si>
     <t>基底数
-(超过2个快到达第三个时，要考虑卖出)</t>
+(从下跌结束开始上涨算起，超过2个快到达第三个时，要考虑卖出)</t>
   </si>
   <si>
     <t>市盈率是否翻倍
 (超过2倍要考虑卖出)</t>
+  </si>
+  <si>
+    <t>是否靠近巅峰的顶点</t>
+  </si>
+  <si>
+    <t>1周内涨幅
+（超过25%考虑卖出）</t>
+  </si>
+  <si>
+    <t>3周内涨幅
+(超过50%考虑卖出)</t>
   </si>
 </sst>
 </file>
@@ -132,13 +131,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,25 +175,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,54 +198,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -268,6 +212,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -275,16 +242,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,8 +259,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,20 +288,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,7 +363,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,25 +483,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,25 +507,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,67 +531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,42 +543,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -574,6 +572,32 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -598,6 +622,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -609,30 +642,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,6 +672,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -682,152 +706,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,19 +912,40 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1222,14 +1267,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:W500"/>
+  <dimension ref="A1:AC502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1256,9 +1301,11 @@
     <col min="21" max="21" width="39.5803571428571" customWidth="1"/>
     <col min="22" max="22" width="20.5267857142857" style="1" customWidth="1"/>
     <col min="23" max="23" width="18.4464285714286" customWidth="1"/>
+    <col min="24" max="24" width="23.3571428571429" customWidth="1"/>
+    <col min="25" max="25" width="29.1607142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1292,133 +1339,163 @@
         <v>4</v>
       </c>
       <c r="W1" s="20"/>
-    </row>
-    <row r="2" ht="56" customHeight="1" spans="1:23">
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="I3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="J3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="L3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="M3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="N3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="O3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="P3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="Q3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="R3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="S3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="T3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="U3" s="18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="5">
+      <c r="V3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+    </row>
+    <row r="4" ht="56" customHeight="1" spans="1:29">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="5">
         <v>44523</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="22"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="7">
-        <v>44524</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="22"/>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="7">
-        <v>44525</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1426,8 +1503,8 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="10"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -1440,12 +1517,12 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="22"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="25"/>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="7">
-        <v>44526</v>
+        <v>44524</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1467,12 +1544,12 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
       <c r="U6" s="6"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="22"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="27"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="7">
-        <v>44527</v>
+        <v>44525</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1480,8 +1557,8 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -1493,13 +1570,13 @@
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="27"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="7">
-        <v>44528</v>
+        <v>44526</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1507,8 +1584,8 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -1520,13 +1597,13 @@
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="27"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="7">
-        <v>44529</v>
+        <v>44527</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1553,7 +1630,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="7">
-        <v>44530</v>
+        <v>44528</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1580,7 +1657,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="7">
-        <v>44531</v>
+        <v>44529</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1607,7 +1684,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="7">
-        <v>44532</v>
+        <v>44530</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1634,7 +1711,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="7">
-        <v>44533</v>
+        <v>44531</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1661,7 +1738,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="7">
-        <v>44534</v>
+        <v>44532</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1688,7 +1765,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="7">
-        <v>44535</v>
+        <v>44533</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1715,7 +1792,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="7">
-        <v>44536</v>
+        <v>44534</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -1742,7 +1819,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="7">
-        <v>44537</v>
+        <v>44535</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1769,7 +1846,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="7">
-        <v>44538</v>
+        <v>44536</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1796,7 +1873,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="7">
-        <v>44539</v>
+        <v>44537</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1823,7 +1900,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="7">
-        <v>44540</v>
+        <v>44538</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1850,7 +1927,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="7">
-        <v>44541</v>
+        <v>44539</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1877,7 +1954,7 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="7">
-        <v>44542</v>
+        <v>44540</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1904,7 +1981,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="7">
-        <v>44543</v>
+        <v>44541</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1931,13 +2008,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="7">
-        <v>44544</v>
+        <v>44542</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="10"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -1958,13 +2035,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="7">
-        <v>44545</v>
+        <v>44543</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="10"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -1979,13 +2056,13 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
-      <c r="U25" s="24"/>
+      <c r="U25" s="10"/>
       <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
+      <c r="W25" s="6"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="7">
-        <v>44546</v>
+        <v>44544</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2006,13 +2083,13 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
-      <c r="U26" s="24"/>
+      <c r="U26" s="10"/>
       <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
+      <c r="W26" s="6"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="7">
-        <v>44547</v>
+        <v>44545</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2033,13 +2110,13 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="24"/>
+      <c r="U27" s="28"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="7">
-        <v>44548</v>
+        <v>44546</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2060,13 +2137,13 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="24"/>
+      <c r="U28" s="28"/>
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="7">
-        <v>44549</v>
+        <v>44547</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2087,13 +2164,13 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="24"/>
+      <c r="U29" s="28"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="7">
-        <v>44550</v>
+        <v>44548</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2114,13 +2191,13 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="24"/>
+      <c r="U30" s="28"/>
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="7">
-        <v>44551</v>
+        <v>44549</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2141,13 +2218,13 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="24"/>
+      <c r="U31" s="28"/>
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="7">
-        <v>44552</v>
+        <v>44550</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2168,13 +2245,13 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="24"/>
+      <c r="U32" s="28"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="7">
-        <v>44553</v>
+        <v>44551</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2195,13 +2272,13 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="24"/>
+      <c r="U33" s="28"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="7">
-        <v>44554</v>
+        <v>44552</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2222,13 +2299,13 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="24"/>
+      <c r="U34" s="28"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="7">
-        <v>44555</v>
+        <v>44553</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2249,13 +2326,13 @@
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="24"/>
+      <c r="U35" s="28"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="7">
-        <v>44556</v>
+        <v>44554</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -2276,13 +2353,13 @@
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
-      <c r="U36" s="24"/>
+      <c r="U36" s="28"/>
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="7">
-        <v>44557</v>
+        <v>44555</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2303,13 +2380,13 @@
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
-      <c r="U37" s="24"/>
+      <c r="U37" s="28"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="7">
-        <v>44558</v>
+        <v>44556</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2330,53 +2407,63 @@
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
-      <c r="U38" s="24"/>
+      <c r="U38" s="28"/>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
     </row>
     <row r="39" spans="1:23">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="W39" s="1"/>
+      <c r="A39" s="7">
+        <v>44557</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
     </row>
     <row r="40" spans="1:23">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="W40" s="1"/>
+      <c r="A40" s="7">
+        <v>44558</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="1"/>
@@ -12498,13 +12585,82 @@
       <c r="T500" s="1"/>
       <c r="W500" s="1"/>
     </row>
+    <row r="501" spans="1:23">
+      <c r="A501" s="1"/>
+      <c r="B501" s="1"/>
+      <c r="C501" s="1"/>
+      <c r="D501" s="1"/>
+      <c r="E501" s="1"/>
+      <c r="G501" s="1"/>
+      <c r="H501" s="1"/>
+      <c r="I501" s="1"/>
+      <c r="J501" s="1"/>
+      <c r="K501" s="1"/>
+      <c r="L501" s="1"/>
+      <c r="M501" s="1"/>
+      <c r="N501" s="1"/>
+      <c r="O501" s="1"/>
+      <c r="P501" s="1"/>
+      <c r="Q501" s="1"/>
+      <c r="R501" s="1"/>
+      <c r="S501" s="1"/>
+      <c r="T501" s="1"/>
+      <c r="W501" s="1"/>
+    </row>
+    <row r="502" spans="1:23">
+      <c r="A502" s="1"/>
+      <c r="B502" s="1"/>
+      <c r="C502" s="1"/>
+      <c r="D502" s="1"/>
+      <c r="E502" s="1"/>
+      <c r="G502" s="1"/>
+      <c r="H502" s="1"/>
+      <c r="I502" s="1"/>
+      <c r="J502" s="1"/>
+      <c r="K502" s="1"/>
+      <c r="L502" s="1"/>
+      <c r="M502" s="1"/>
+      <c r="N502" s="1"/>
+      <c r="O502" s="1"/>
+      <c r="P502" s="1"/>
+      <c r="Q502" s="1"/>
+      <c r="R502" s="1"/>
+      <c r="S502" s="1"/>
+      <c r="T502" s="1"/>
+      <c r="W502" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="A1:A2"/>
+  <mergeCells count="30">
+    <mergeCell ref="V1:AC1"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="B1:J2"/>
+    <mergeCell ref="K1:M2"/>
+    <mergeCell ref="N1:U2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>日期</t>
   </si>
@@ -107,7 +107,7 @@
   </si>
   <si>
     <t>基底数
-(从下跌结束开始上涨算起，超过2个快到达第三个时，要考虑卖出)</t>
+(从下跌结束开始上涨算起，超过3个快到达第四个时，要考虑卖出)</t>
   </si>
   <si>
     <t>市盈率是否翻倍
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t>是否靠近巅峰的顶点</t>
+  </si>
+  <si>
+    <t>3周上涨天数占比
+(15天内超过70%考虑卖出)</t>
+  </si>
+  <si>
+    <t>是否出现6到10天的加速上涨并伴随2到3天的下跌</t>
+  </si>
+  <si>
+    <t>是否出现涨幅最大的日子
+(即涨幅最大或差价最大的日子)</t>
+  </si>
+  <si>
+    <t>交易量最大的一天股价是否收跌
+(如果是，要考虑卖出)</t>
   </si>
   <si>
     <t>1周内涨幅
@@ -851,7 +866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,11 +954,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1267,14 +1285,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AC502"/>
+  <dimension ref="A1:AG502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y4" sqref="Y4"/>
+      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1303,9 +1321,14 @@
     <col min="23" max="23" width="18.4464285714286" customWidth="1"/>
     <col min="24" max="24" width="23.3571428571429" customWidth="1"/>
     <col min="25" max="25" width="29.1607142857143" customWidth="1"/>
+    <col min="26" max="26" width="17.5535714285714" customWidth="1"/>
+    <col min="27" max="27" width="22.0178571428571" customWidth="1"/>
+    <col min="28" max="28" width="26.4821428571429" customWidth="1"/>
+    <col min="29" max="29" width="22.0267857142857" customWidth="1"/>
+    <col min="33" max="33" width="16.0625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:33">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1345,8 +1368,12 @@
       <c r="AA1" s="20"/>
       <c r="AB1" s="20"/>
       <c r="AC1" s="20"/>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1374,14 +1401,18 @@
       <c r="W2" s="21"/>
       <c r="X2" s="21"/>
       <c r="Y2" s="21"/>
-      <c r="Z2" s="29" t="s">
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -1453,12 +1484,24 @@
         <v>29</v>
       </c>
       <c r="Y3" s="21"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-    </row>
-    <row r="4" ht="56" customHeight="1" spans="1:29">
+      <c r="Z3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+    </row>
+    <row r="4" ht="56" customHeight="1" spans="1:33">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1483,15 +1526,19 @@
       <c r="V4" s="22"/>
       <c r="W4" s="22"/>
       <c r="X4" s="23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Y4" s="30" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="5">
@@ -12630,10 +12677,10 @@
       <c r="W502" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="V1:AC1"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="Z2:AC2"/>
+  <mergeCells count="34">
+    <mergeCell ref="V1:AG1"/>
+    <mergeCell ref="V2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="X3:Y3"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -12658,6 +12705,10 @@
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="W3:W4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="B1:J2"/>
     <mergeCell ref="K1:M2"/>
     <mergeCell ref="N1:U2"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -133,11 +133,11 @@
   </si>
   <si>
     <t>1周内涨幅
-（超过25%考虑卖出）</t>
+（超过25%，则靠近，考虑卖出）</t>
   </si>
   <si>
     <t>3周内涨幅
-(超过50%考虑卖出)</t>
+(超过50%，则靠近，考虑卖出)</t>
   </si>
 </sst>
 </file>
@@ -1288,11 +1288,11 @@
   <dimension ref="A1:AG502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X4" sqref="X4"/>
+      <selection pane="bottomRight" activeCell="Z3" sqref="Z3:Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>日期</t>
   </si>
@@ -25,10 +25,16 @@
     <t>止损线状态</t>
   </si>
   <si>
-    <t>止损卖出指标</t>
+    <t>继续持有指标</t>
   </si>
   <si>
-    <t>止盈卖出指标</t>
+    <t>止损卖出指标(短期策略)</t>
+  </si>
+  <si>
+    <t>盈亏平衡点到强势卖出阶段的策略(中期策略)</t>
+  </si>
+  <si>
+    <t>止盈卖出指标(长期策略)</t>
   </si>
   <si>
     <t>强势卖出指标</t>
@@ -76,15 +82,28 @@
     <t>预期移动止损线股价</t>
   </si>
   <si>
+    <t>购买后是否出现连续几天 的放量上涨</t>
+  </si>
+  <si>
+    <t>是否出现网球行为
+(即短暂微量下跌后快速反弹到新高；短暂一般为几天到一周)</t>
+  </si>
+  <si>
+    <t>是否出现一周内或两周内上涨的天数大于下跌的天数</t>
+  </si>
+  <si>
+    <t>是否出现一周内或两周内好的收盘次数大于坏的收盘次数</t>
+  </si>
+  <si>
     <t>当日收盘价是否小于20日均线
 (是的时候应该警惕)</t>
   </si>
   <si>
-    <t>上涨是否交易量收缩/下跌是否交易量放大
+    <t>是否出现连续三日新低
 (是的时候应该警惕)</t>
   </si>
   <si>
-    <t>是否出现连续三日新低
+    <t>上涨是否交易量收缩/下跌是否交易量放大
 (是的时候应该警惕)</t>
   </si>
   <si>
@@ -104,6 +123,9 @@
   <si>
     <t>是否出现巨大的价差
 （即最高价和最低价之间的差价拉大）</t>
+  </si>
+  <si>
+    <t>将止损线设置为50均线</t>
   </si>
   <si>
     <t>基底数
@@ -130,6 +152,13 @@
   <si>
     <t>交易量最大的一天股价是否收跌
 (如果是，要考虑卖出)</t>
+  </si>
+  <si>
+    <t>交易量最大，股价收跌</t>
+  </si>
+  <si>
+    <t>股票放量下跌
+(超过4%)</t>
   </si>
   <si>
     <t>1周内涨幅
@@ -327,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,7 +395,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,76 +762,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -799,7 +840,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -808,7 +849,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -820,25 +861,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,23 +891,23 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,26 +959,44 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -954,17 +1013,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1285,14 +1347,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AG502"/>
+  <dimension ref="A1:AJ502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z3" sqref="Z3:Z4"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="N3:N4 P3:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1308,27 +1370,29 @@
     <col min="10" max="10" width="22.1696428571429" customWidth="1"/>
     <col min="11" max="11" width="13.5357142857143" customWidth="1"/>
     <col min="12" max="12" width="13.3839285714286" customWidth="1"/>
-    <col min="13" max="13" width="20.3839285714286" customWidth="1"/>
-    <col min="14" max="14" width="30.0625" customWidth="1"/>
-    <col min="15" max="15" width="40.4732142857143" customWidth="1"/>
-    <col min="16" max="16" width="25.4464285714286" customWidth="1"/>
-    <col min="17" max="17" width="28.7142857142857" customWidth="1"/>
-    <col min="18" max="18" width="30.0625" customWidth="1"/>
-    <col min="19" max="19" width="21.875" customWidth="1"/>
-    <col min="20" max="20" width="20.6785714285714" customWidth="1"/>
-    <col min="21" max="21" width="39.5803571428571" customWidth="1"/>
-    <col min="22" max="22" width="20.5267857142857" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.4464285714286" customWidth="1"/>
-    <col min="24" max="24" width="23.3571428571429" customWidth="1"/>
-    <col min="25" max="25" width="29.1607142857143" customWidth="1"/>
-    <col min="26" max="26" width="17.5535714285714" customWidth="1"/>
-    <col min="27" max="27" width="22.0178571428571" customWidth="1"/>
-    <col min="28" max="28" width="26.4821428571429" customWidth="1"/>
-    <col min="29" max="29" width="22.0267857142857" customWidth="1"/>
-    <col min="33" max="33" width="16.0625" customWidth="1"/>
+    <col min="13" max="14" width="20.3839285714286" customWidth="1"/>
+    <col min="15" max="18" width="30.0625" customWidth="1"/>
+    <col min="19" max="19" width="25.4464285714286" customWidth="1"/>
+    <col min="20" max="20" width="40.4732142857143" customWidth="1"/>
+    <col min="21" max="21" width="28.7142857142857" customWidth="1"/>
+    <col min="22" max="22" width="30.0625" customWidth="1"/>
+    <col min="23" max="23" width="21.875" customWidth="1"/>
+    <col min="24" max="24" width="20.6785714285714" customWidth="1"/>
+    <col min="25" max="25" width="39.5803571428571" customWidth="1"/>
+    <col min="26" max="26" width="39.5803571428571" customWidth="1"/>
+    <col min="27" max="27" width="20.5267857142857" style="1" customWidth="1"/>
+    <col min="28" max="28" width="18.4464285714286" customWidth="1"/>
+    <col min="29" max="29" width="23.3571428571429" customWidth="1"/>
+    <col min="30" max="30" width="29.1607142857143" customWidth="1"/>
+    <col min="31" max="31" width="17.5535714285714" customWidth="1"/>
+    <col min="32" max="32" width="22.0178571428571" customWidth="1"/>
+    <col min="33" max="33" width="26.4821428571429" customWidth="1"/>
+    <col min="34" max="34" width="22.0267857142857" customWidth="1"/>
+    <col min="35" max="35" width="24.5446428571429" customWidth="1"/>
+    <col min="36" max="36" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:36">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1354,26 +1418,33 @@
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>4</v>
       </c>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
       <c r="W1" s="20"/>
       <c r="X1" s="20"/>
       <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="Z1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1391,117 +1462,137 @@
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="21" t="s">
-        <v>5</v>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="26" t="s">
+        <v>7</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="31" t="s">
-        <v>6</v>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="38" t="s">
+        <v>8</v>
       </c>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="AJ2" s="38"/>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="O3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="P3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="Q3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="R3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="S3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="T3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="22" t="s">
+      <c r="U3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="21" t="s">
+      <c r="V3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="29" t="s">
+      <c r="W3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="21" t="s">
+      <c r="X3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="29" t="s">
+      <c r="Y3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AC3" s="29" t="s">
+      <c r="Z3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-    </row>
-    <row r="4" ht="56" customHeight="1" spans="1:33">
+      <c r="AA3" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG3" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH3" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI3" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ3" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" ht="56" customHeight="1" spans="1:36">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1517,30 +1608,33 @@
       <c r="M4" s="15"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="22"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
       <c r="W4" s="22"/>
-      <c r="X4" s="23" t="s">
-        <v>34</v>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="36" t="s">
+        <v>43</v>
       </c>
-      <c r="Y4" s="30" t="s">
-        <v>35</v>
+      <c r="AD4" s="37" t="s">
+        <v>44</v>
       </c>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" s="5">
         <v>44523</v>
       </c>
@@ -1556,18 +1650,23 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="10"/>
+      <c r="N5" s="6"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="25"/>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="31"/>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" s="7">
         <v>44524</v>
       </c>
@@ -1583,18 +1682,23 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="10"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="27"/>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="33"/>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" s="7">
         <v>44525</v>
       </c>
@@ -1610,18 +1714,23 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="10"/>
+      <c r="N7" s="6"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="27"/>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="33"/>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" s="7">
         <v>44526</v>
       </c>
@@ -1637,18 +1746,23 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="10"/>
+      <c r="N8" s="6"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="27"/>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="33"/>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" s="7">
         <v>44527</v>
       </c>
@@ -1664,7 +1778,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="10"/>
+      <c r="N9" s="6"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -1673,9 +1787,14 @@
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
-      <c r="W9" s="6"/>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="6"/>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" s="7">
         <v>44528</v>
       </c>
@@ -1691,7 +1810,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="10"/>
+      <c r="N10" s="6"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
@@ -1700,9 +1819,14 @@
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
-      <c r="W10" s="6"/>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="6"/>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" s="7">
         <v>44529</v>
       </c>
@@ -1718,7 +1842,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="10"/>
+      <c r="N11" s="6"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
@@ -1727,9 +1851,14 @@
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
-      <c r="W11" s="6"/>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="6"/>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" s="7">
         <v>44530</v>
       </c>
@@ -1745,7 +1874,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="10"/>
+      <c r="N12" s="6"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
@@ -1754,9 +1883,14 @@
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
-      <c r="W12" s="6"/>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="6"/>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" s="7">
         <v>44531</v>
       </c>
@@ -1772,7 +1906,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="10"/>
+      <c r="N13" s="6"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
@@ -1781,9 +1915,14 @@
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
-      <c r="W13" s="6"/>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="6"/>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" s="7">
         <v>44532</v>
       </c>
@@ -1799,7 +1938,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="10"/>
+      <c r="N14" s="6"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
@@ -1808,9 +1947,14 @@
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
-      <c r="W14" s="6"/>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="6"/>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" s="7">
         <v>44533</v>
       </c>
@@ -1826,7 +1970,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="10"/>
+      <c r="N15" s="6"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
@@ -1835,9 +1979,14 @@
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
-      <c r="W15" s="6"/>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="6"/>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" s="7">
         <v>44534</v>
       </c>
@@ -1853,7 +2002,7 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="10"/>
+      <c r="N16" s="6"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
@@ -1862,9 +2011,14 @@
       <c r="T16" s="10"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
-      <c r="W16" s="6"/>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="6"/>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="7">
         <v>44535</v>
       </c>
@@ -1880,7 +2034,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="10"/>
+      <c r="N17" s="6"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
@@ -1889,9 +2043,14 @@
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
-      <c r="W17" s="6"/>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="6"/>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="7">
         <v>44536</v>
       </c>
@@ -1907,7 +2066,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="10"/>
+      <c r="N18" s="6"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
@@ -1916,9 +2075,14 @@
       <c r="T18" s="10"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
-      <c r="W18" s="6"/>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="6"/>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" s="7">
         <v>44537</v>
       </c>
@@ -1934,7 +2098,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="10"/>
+      <c r="N19" s="6"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
@@ -1943,9 +2107,14 @@
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
-      <c r="W19" s="6"/>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="6"/>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" s="7">
         <v>44538</v>
       </c>
@@ -1961,7 +2130,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="10"/>
+      <c r="N20" s="6"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
@@ -1970,9 +2139,14 @@
       <c r="T20" s="10"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
-      <c r="W20" s="6"/>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="6"/>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="7">
         <v>44539</v>
       </c>
@@ -1988,7 +2162,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="10"/>
+      <c r="N21" s="6"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
@@ -1997,9 +2171,14 @@
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
-      <c r="W21" s="6"/>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="6"/>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="7">
         <v>44540</v>
       </c>
@@ -2015,7 +2194,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="10"/>
+      <c r="N22" s="6"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
@@ -2024,9 +2203,14 @@
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
-      <c r="W22" s="6"/>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="6"/>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="7">
         <v>44541</v>
       </c>
@@ -2042,7 +2226,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="10"/>
+      <c r="N23" s="6"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
@@ -2051,9 +2235,14 @@
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
-      <c r="W23" s="6"/>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="6"/>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="7">
         <v>44542</v>
       </c>
@@ -2069,7 +2258,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="10"/>
+      <c r="N24" s="6"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
@@ -2078,9 +2267,14 @@
       <c r="T24" s="10"/>
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
-      <c r="W24" s="6"/>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="6"/>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="7">
         <v>44543</v>
       </c>
@@ -2096,7 +2290,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="10"/>
+      <c r="N25" s="6"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
@@ -2105,9 +2299,14 @@
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
-      <c r="W25" s="6"/>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="6"/>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="7">
         <v>44544</v>
       </c>
@@ -2123,7 +2322,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="10"/>
+      <c r="N26" s="6"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
@@ -2132,9 +2331,14 @@
       <c r="T26" s="10"/>
       <c r="U26" s="10"/>
       <c r="V26" s="10"/>
-      <c r="W26" s="6"/>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="6"/>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="7">
         <v>44545</v>
       </c>
@@ -2150,18 +2354,23 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="10"/>
+      <c r="N27" s="6"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
-      <c r="U27" s="28"/>
+      <c r="U27" s="10"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" s="10"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="7">
         <v>44546</v>
       </c>
@@ -2177,18 +2386,23 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="10"/>
+      <c r="N28" s="6"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
-      <c r="U28" s="28"/>
+      <c r="U28" s="10"/>
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" s="10"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="7">
         <v>44547</v>
       </c>
@@ -2204,18 +2418,23 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="10"/>
+      <c r="N29" s="6"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
-      <c r="U29" s="28"/>
+      <c r="U29" s="10"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29" s="10"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="7">
         <v>44548</v>
       </c>
@@ -2231,18 +2450,23 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="10"/>
+      <c r="N30" s="6"/>
       <c r="O30" s="10"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
-      <c r="U30" s="28"/>
+      <c r="U30" s="10"/>
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" s="10"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="7">
         <v>44549</v>
       </c>
@@ -2258,18 +2482,23 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="10"/>
+      <c r="N31" s="6"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
-      <c r="U31" s="28"/>
+      <c r="U31" s="10"/>
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" s="10"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="7">
         <v>44550</v>
       </c>
@@ -2285,18 +2514,23 @@
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="10"/>
+      <c r="N32" s="6"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
       <c r="T32" s="10"/>
-      <c r="U32" s="28"/>
+      <c r="U32" s="10"/>
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" s="10"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" s="7">
         <v>44551</v>
       </c>
@@ -2312,18 +2546,23 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="10"/>
+      <c r="N33" s="6"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
-      <c r="U33" s="28"/>
+      <c r="U33" s="10"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33" s="10"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" s="7">
         <v>44552</v>
       </c>
@@ -2339,18 +2578,23 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="10"/>
+      <c r="N34" s="6"/>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
-      <c r="U34" s="28"/>
+      <c r="U34" s="10"/>
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34" s="10"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="7">
         <v>44553</v>
       </c>
@@ -2366,18 +2610,23 @@
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="10"/>
+      <c r="N35" s="6"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
-      <c r="U35" s="28"/>
+      <c r="U35" s="10"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35" s="10"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="7">
         <v>44554</v>
       </c>
@@ -2393,18 +2642,23 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
-      <c r="N36" s="10"/>
+      <c r="N36" s="6"/>
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
       <c r="S36" s="10"/>
       <c r="T36" s="10"/>
-      <c r="U36" s="28"/>
+      <c r="U36" s="10"/>
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36" s="10"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="7">
         <v>44555</v>
       </c>
@@ -2420,18 +2674,23 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
-      <c r="N37" s="10"/>
+      <c r="N37" s="6"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
-      <c r="U37" s="28"/>
+      <c r="U37" s="10"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37" s="10"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="7">
         <v>44556</v>
       </c>
@@ -2447,18 +2706,23 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
-      <c r="N38" s="10"/>
+      <c r="N38" s="6"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
       <c r="S38" s="10"/>
       <c r="T38" s="10"/>
-      <c r="U38" s="28"/>
+      <c r="U38" s="10"/>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" s="10"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" s="7">
         <v>44557</v>
       </c>
@@ -2474,18 +2738,23 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
-      <c r="N39" s="10"/>
+      <c r="N39" s="6"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
-      <c r="U39" s="28"/>
+      <c r="U39" s="10"/>
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39" s="10"/>
+      <c r="Y39" s="34"/>
+      <c r="Z39" s="34"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" s="7">
         <v>44558</v>
       </c>
@@ -2501,18 +2770,23 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
-      <c r="N40" s="10"/>
+      <c r="N40" s="6"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
       <c r="T40" s="10"/>
-      <c r="U40" s="28"/>
+      <c r="U40" s="10"/>
       <c r="V40" s="10"/>
       <c r="W40" s="10"/>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40" s="10"/>
+      <c r="Y40" s="34"/>
+      <c r="Z40" s="34"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2532,9 +2806,13 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
       <c r="W41" s="1"/>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41" s="1"/>
+      <c r="AB41" s="1"/>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2554,9 +2832,13 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
       <c r="W42" s="1"/>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42" s="1"/>
+      <c r="AB42" s="1"/>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2576,9 +2858,13 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
       <c r="W43" s="1"/>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43" s="1"/>
+      <c r="AB43" s="1"/>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2598,9 +2884,13 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
       <c r="W44" s="1"/>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44" s="1"/>
+      <c r="AB44" s="1"/>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2620,9 +2910,13 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
       <c r="W45" s="1"/>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45" s="1"/>
+      <c r="AB45" s="1"/>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2642,9 +2936,13 @@
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
       <c r="W46" s="1"/>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46" s="1"/>
+      <c r="AB46" s="1"/>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2664,9 +2962,13 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
       <c r="W47" s="1"/>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47" s="1"/>
+      <c r="AB47" s="1"/>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2686,9 +2988,13 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
       <c r="W48" s="1"/>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48" s="1"/>
+      <c r="AB48" s="1"/>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2708,9 +3014,13 @@
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
       <c r="W49" s="1"/>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49" s="1"/>
+      <c r="AB49" s="1"/>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2730,9 +3040,13 @@
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
       <c r="W50" s="1"/>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50" s="1"/>
+      <c r="AB50" s="1"/>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2752,9 +3066,13 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
       <c r="W51" s="1"/>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51" s="1"/>
+      <c r="AB51" s="1"/>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2774,9 +3092,13 @@
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
       <c r="W52" s="1"/>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52" s="1"/>
+      <c r="AB52" s="1"/>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2796,9 +3118,13 @@
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
       <c r="W53" s="1"/>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53" s="1"/>
+      <c r="AB53" s="1"/>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2818,9 +3144,13 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
       <c r="W54" s="1"/>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54" s="1"/>
+      <c r="AB54" s="1"/>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2840,9 +3170,13 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
       <c r="W55" s="1"/>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55" s="1"/>
+      <c r="AB55" s="1"/>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2862,9 +3196,13 @@
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
       <c r="W56" s="1"/>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56" s="1"/>
+      <c r="AB56" s="1"/>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2884,9 +3222,13 @@
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
       <c r="W57" s="1"/>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57" s="1"/>
+      <c r="AB57" s="1"/>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2906,9 +3248,13 @@
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
       <c r="W58" s="1"/>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58" s="1"/>
+      <c r="AB58" s="1"/>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2928,9 +3274,13 @@
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
       <c r="W59" s="1"/>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="X59" s="1"/>
+      <c r="AB59" s="1"/>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2950,9 +3300,13 @@
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
       <c r="W60" s="1"/>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60" s="1"/>
+      <c r="AB60" s="1"/>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2972,9 +3326,13 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
       <c r="W61" s="1"/>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="X61" s="1"/>
+      <c r="AB61" s="1"/>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2994,9 +3352,13 @@
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
       <c r="W62" s="1"/>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="X62" s="1"/>
+      <c r="AB62" s="1"/>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3016,9 +3378,13 @@
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
       <c r="W63" s="1"/>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="X63" s="1"/>
+      <c r="AB63" s="1"/>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3038,9 +3404,13 @@
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
       <c r="W64" s="1"/>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64" s="1"/>
+      <c r="AB64" s="1"/>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3060,9 +3430,13 @@
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
       <c r="W65" s="1"/>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="X65" s="1"/>
+      <c r="AB65" s="1"/>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3082,9 +3456,13 @@
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
       <c r="W66" s="1"/>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66" s="1"/>
+      <c r="AB66" s="1"/>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3104,9 +3482,13 @@
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
       <c r="W67" s="1"/>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67" s="1"/>
+      <c r="AB67" s="1"/>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3126,9 +3508,13 @@
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
       <c r="W68" s="1"/>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="X68" s="1"/>
+      <c r="AB68" s="1"/>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3148,9 +3534,13 @@
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
       <c r="W69" s="1"/>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69" s="1"/>
+      <c r="AB69" s="1"/>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3170,9 +3560,13 @@
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
       <c r="W70" s="1"/>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="X70" s="1"/>
+      <c r="AB70" s="1"/>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3192,9 +3586,13 @@
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
       <c r="W71" s="1"/>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="X71" s="1"/>
+      <c r="AB71" s="1"/>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3214,9 +3612,13 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
       <c r="W72" s="1"/>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="X72" s="1"/>
+      <c r="AB72" s="1"/>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3236,9 +3638,13 @@
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
       <c r="W73" s="1"/>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73" s="1"/>
+      <c r="AB73" s="1"/>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3258,9 +3664,13 @@
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
       <c r="W74" s="1"/>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="X74" s="1"/>
+      <c r="AB74" s="1"/>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3280,9 +3690,13 @@
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
       <c r="W75" s="1"/>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75" s="1"/>
+      <c r="AB75" s="1"/>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3302,9 +3716,13 @@
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
       <c r="W76" s="1"/>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76" s="1"/>
+      <c r="AB76" s="1"/>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3324,9 +3742,13 @@
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
       <c r="W77" s="1"/>
-    </row>
-    <row r="78" spans="1:23">
+      <c r="X77" s="1"/>
+      <c r="AB77" s="1"/>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3346,9 +3768,13 @@
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
       <c r="W78" s="1"/>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="X78" s="1"/>
+      <c r="AB78" s="1"/>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3368,9 +3794,13 @@
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
       <c r="W79" s="1"/>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="X79" s="1"/>
+      <c r="AB79" s="1"/>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3390,9 +3820,13 @@
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
       <c r="W80" s="1"/>
-    </row>
-    <row r="81" spans="1:23">
+      <c r="X80" s="1"/>
+      <c r="AB80" s="1"/>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3412,9 +3846,13 @@
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
       <c r="W81" s="1"/>
-    </row>
-    <row r="82" spans="1:23">
+      <c r="X81" s="1"/>
+      <c r="AB81" s="1"/>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3434,9 +3872,13 @@
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
       <c r="W82" s="1"/>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="X82" s="1"/>
+      <c r="AB82" s="1"/>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3456,9 +3898,13 @@
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
       <c r="W83" s="1"/>
-    </row>
-    <row r="84" spans="1:23">
+      <c r="X83" s="1"/>
+      <c r="AB83" s="1"/>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3478,9 +3924,13 @@
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
       <c r="W84" s="1"/>
-    </row>
-    <row r="85" spans="1:23">
+      <c r="X84" s="1"/>
+      <c r="AB84" s="1"/>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3500,9 +3950,13 @@
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
       <c r="W85" s="1"/>
-    </row>
-    <row r="86" spans="1:23">
+      <c r="X85" s="1"/>
+      <c r="AB85" s="1"/>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3522,9 +3976,13 @@
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
       <c r="W86" s="1"/>
-    </row>
-    <row r="87" spans="1:23">
+      <c r="X86" s="1"/>
+      <c r="AB86" s="1"/>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3544,9 +4002,13 @@
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
       <c r="W87" s="1"/>
-    </row>
-    <row r="88" spans="1:23">
+      <c r="X87" s="1"/>
+      <c r="AB87" s="1"/>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3566,9 +4028,13 @@
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
       <c r="W88" s="1"/>
-    </row>
-    <row r="89" spans="1:23">
+      <c r="X88" s="1"/>
+      <c r="AB88" s="1"/>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3588,9 +4054,13 @@
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
       <c r="W89" s="1"/>
-    </row>
-    <row r="90" spans="1:23">
+      <c r="X89" s="1"/>
+      <c r="AB89" s="1"/>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3610,9 +4080,13 @@
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
       <c r="W90" s="1"/>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="X90" s="1"/>
+      <c r="AB90" s="1"/>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3632,9 +4106,13 @@
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
       <c r="W91" s="1"/>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="X91" s="1"/>
+      <c r="AB91" s="1"/>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3654,9 +4132,13 @@
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
       <c r="W92" s="1"/>
-    </row>
-    <row r="93" spans="1:23">
+      <c r="X92" s="1"/>
+      <c r="AB92" s="1"/>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3676,9 +4158,13 @@
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
       <c r="W93" s="1"/>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="X93" s="1"/>
+      <c r="AB93" s="1"/>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3698,9 +4184,13 @@
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
       <c r="W94" s="1"/>
-    </row>
-    <row r="95" spans="1:23">
+      <c r="X94" s="1"/>
+      <c r="AB94" s="1"/>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3720,9 +4210,13 @@
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
       <c r="W95" s="1"/>
-    </row>
-    <row r="96" spans="1:23">
+      <c r="X95" s="1"/>
+      <c r="AB95" s="1"/>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3742,9 +4236,13 @@
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
       <c r="W96" s="1"/>
-    </row>
-    <row r="97" spans="1:23">
+      <c r="X96" s="1"/>
+      <c r="AB96" s="1"/>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3764,9 +4262,13 @@
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
       <c r="W97" s="1"/>
-    </row>
-    <row r="98" spans="1:23">
+      <c r="X97" s="1"/>
+      <c r="AB97" s="1"/>
+    </row>
+    <row r="98" spans="1:28">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3786,9 +4288,13 @@
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
       <c r="W98" s="1"/>
-    </row>
-    <row r="99" spans="1:23">
+      <c r="X98" s="1"/>
+      <c r="AB98" s="1"/>
+    </row>
+    <row r="99" spans="1:28">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3808,9 +4314,13 @@
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
       <c r="W99" s="1"/>
-    </row>
-    <row r="100" spans="1:23">
+      <c r="X99" s="1"/>
+      <c r="AB99" s="1"/>
+    </row>
+    <row r="100" spans="1:28">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3830,9 +4340,13 @@
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
       <c r="W100" s="1"/>
-    </row>
-    <row r="101" spans="1:23">
+      <c r="X100" s="1"/>
+      <c r="AB100" s="1"/>
+    </row>
+    <row r="101" spans="1:28">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -3852,9 +4366,13 @@
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
       <c r="W101" s="1"/>
-    </row>
-    <row r="102" spans="1:23">
+      <c r="X101" s="1"/>
+      <c r="AB101" s="1"/>
+    </row>
+    <row r="102" spans="1:28">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -3874,9 +4392,13 @@
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
       <c r="W102" s="1"/>
-    </row>
-    <row r="103" spans="1:23">
+      <c r="X102" s="1"/>
+      <c r="AB102" s="1"/>
+    </row>
+    <row r="103" spans="1:28">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -3896,9 +4418,13 @@
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
       <c r="W103" s="1"/>
-    </row>
-    <row r="104" spans="1:23">
+      <c r="X103" s="1"/>
+      <c r="AB103" s="1"/>
+    </row>
+    <row r="104" spans="1:28">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -3918,9 +4444,13 @@
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
       <c r="W104" s="1"/>
-    </row>
-    <row r="105" spans="1:23">
+      <c r="X104" s="1"/>
+      <c r="AB104" s="1"/>
+    </row>
+    <row r="105" spans="1:28">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -3940,9 +4470,13 @@
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
       <c r="W105" s="1"/>
-    </row>
-    <row r="106" spans="1:23">
+      <c r="X105" s="1"/>
+      <c r="AB105" s="1"/>
+    </row>
+    <row r="106" spans="1:28">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -3962,9 +4496,13 @@
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
       <c r="W106" s="1"/>
-    </row>
-    <row r="107" spans="1:23">
+      <c r="X106" s="1"/>
+      <c r="AB106" s="1"/>
+    </row>
+    <row r="107" spans="1:28">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -3984,9 +4522,13 @@
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
       <c r="W107" s="1"/>
-    </row>
-    <row r="108" spans="1:23">
+      <c r="X107" s="1"/>
+      <c r="AB107" s="1"/>
+    </row>
+    <row r="108" spans="1:28">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4006,9 +4548,13 @@
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
       <c r="W108" s="1"/>
-    </row>
-    <row r="109" spans="1:23">
+      <c r="X108" s="1"/>
+      <c r="AB108" s="1"/>
+    </row>
+    <row r="109" spans="1:28">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4028,9 +4574,13 @@
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
       <c r="W109" s="1"/>
-    </row>
-    <row r="110" spans="1:23">
+      <c r="X109" s="1"/>
+      <c r="AB109" s="1"/>
+    </row>
+    <row r="110" spans="1:28">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4050,9 +4600,13 @@
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
       <c r="W110" s="1"/>
-    </row>
-    <row r="111" spans="1:23">
+      <c r="X110" s="1"/>
+      <c r="AB110" s="1"/>
+    </row>
+    <row r="111" spans="1:28">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4072,9 +4626,13 @@
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
       <c r="W111" s="1"/>
-    </row>
-    <row r="112" spans="1:23">
+      <c r="X111" s="1"/>
+      <c r="AB111" s="1"/>
+    </row>
+    <row r="112" spans="1:28">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4094,9 +4652,13 @@
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
       <c r="W112" s="1"/>
-    </row>
-    <row r="113" spans="1:23">
+      <c r="X112" s="1"/>
+      <c r="AB112" s="1"/>
+    </row>
+    <row r="113" spans="1:28">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4116,9 +4678,13 @@
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
       <c r="W113" s="1"/>
-    </row>
-    <row r="114" spans="1:23">
+      <c r="X113" s="1"/>
+      <c r="AB113" s="1"/>
+    </row>
+    <row r="114" spans="1:28">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4138,9 +4704,13 @@
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
       <c r="W114" s="1"/>
-    </row>
-    <row r="115" spans="1:23">
+      <c r="X114" s="1"/>
+      <c r="AB114" s="1"/>
+    </row>
+    <row r="115" spans="1:28">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4160,9 +4730,13 @@
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
       <c r="W115" s="1"/>
-    </row>
-    <row r="116" spans="1:23">
+      <c r="X115" s="1"/>
+      <c r="AB115" s="1"/>
+    </row>
+    <row r="116" spans="1:28">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4182,9 +4756,13 @@
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
       <c r="W116" s="1"/>
-    </row>
-    <row r="117" spans="1:23">
+      <c r="X116" s="1"/>
+      <c r="AB116" s="1"/>
+    </row>
+    <row r="117" spans="1:28">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4204,9 +4782,13 @@
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
       <c r="W117" s="1"/>
-    </row>
-    <row r="118" spans="1:23">
+      <c r="X117" s="1"/>
+      <c r="AB117" s="1"/>
+    </row>
+    <row r="118" spans="1:28">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4226,9 +4808,13 @@
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
       <c r="W118" s="1"/>
-    </row>
-    <row r="119" spans="1:23">
+      <c r="X118" s="1"/>
+      <c r="AB118" s="1"/>
+    </row>
+    <row r="119" spans="1:28">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4248,9 +4834,13 @@
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
       <c r="W119" s="1"/>
-    </row>
-    <row r="120" spans="1:23">
+      <c r="X119" s="1"/>
+      <c r="AB119" s="1"/>
+    </row>
+    <row r="120" spans="1:28">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4270,9 +4860,13 @@
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
       <c r="W120" s="1"/>
-    </row>
-    <row r="121" spans="1:23">
+      <c r="X120" s="1"/>
+      <c r="AB120" s="1"/>
+    </row>
+    <row r="121" spans="1:28">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4292,9 +4886,13 @@
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
       <c r="W121" s="1"/>
-    </row>
-    <row r="122" spans="1:23">
+      <c r="X121" s="1"/>
+      <c r="AB121" s="1"/>
+    </row>
+    <row r="122" spans="1:28">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4314,9 +4912,13 @@
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="1"/>
       <c r="W122" s="1"/>
-    </row>
-    <row r="123" spans="1:23">
+      <c r="X122" s="1"/>
+      <c r="AB122" s="1"/>
+    </row>
+    <row r="123" spans="1:28">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4336,9 +4938,13 @@
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
       <c r="W123" s="1"/>
-    </row>
-    <row r="124" spans="1:23">
+      <c r="X123" s="1"/>
+      <c r="AB123" s="1"/>
+    </row>
+    <row r="124" spans="1:28">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4358,9 +4964,13 @@
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="V124" s="1"/>
       <c r="W124" s="1"/>
-    </row>
-    <row r="125" spans="1:23">
+      <c r="X124" s="1"/>
+      <c r="AB124" s="1"/>
+    </row>
+    <row r="125" spans="1:28">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4380,9 +4990,13 @@
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
+      <c r="U125" s="1"/>
+      <c r="V125" s="1"/>
       <c r="W125" s="1"/>
-    </row>
-    <row r="126" spans="1:23">
+      <c r="X125" s="1"/>
+      <c r="AB125" s="1"/>
+    </row>
+    <row r="126" spans="1:28">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4402,9 +5016,13 @@
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
       <c r="W126" s="1"/>
-    </row>
-    <row r="127" spans="1:23">
+      <c r="X126" s="1"/>
+      <c r="AB126" s="1"/>
+    </row>
+    <row r="127" spans="1:28">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -4424,9 +5042,13 @@
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
       <c r="W127" s="1"/>
-    </row>
-    <row r="128" spans="1:23">
+      <c r="X127" s="1"/>
+      <c r="AB127" s="1"/>
+    </row>
+    <row r="128" spans="1:28">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -4446,9 +5068,13 @@
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
+      <c r="U128" s="1"/>
+      <c r="V128" s="1"/>
       <c r="W128" s="1"/>
-    </row>
-    <row r="129" spans="1:23">
+      <c r="X128" s="1"/>
+      <c r="AB128" s="1"/>
+    </row>
+    <row r="129" spans="1:28">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -4468,9 +5094,13 @@
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="1"/>
       <c r="W129" s="1"/>
-    </row>
-    <row r="130" spans="1:23">
+      <c r="X129" s="1"/>
+      <c r="AB129" s="1"/>
+    </row>
+    <row r="130" spans="1:28">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -4490,9 +5120,13 @@
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
+      <c r="U130" s="1"/>
+      <c r="V130" s="1"/>
       <c r="W130" s="1"/>
-    </row>
-    <row r="131" spans="1:23">
+      <c r="X130" s="1"/>
+      <c r="AB130" s="1"/>
+    </row>
+    <row r="131" spans="1:28">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -4512,9 +5146,13 @@
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
+      <c r="U131" s="1"/>
+      <c r="V131" s="1"/>
       <c r="W131" s="1"/>
-    </row>
-    <row r="132" spans="1:23">
+      <c r="X131" s="1"/>
+      <c r="AB131" s="1"/>
+    </row>
+    <row r="132" spans="1:28">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -4534,9 +5172,13 @@
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
+      <c r="U132" s="1"/>
+      <c r="V132" s="1"/>
       <c r="W132" s="1"/>
-    </row>
-    <row r="133" spans="1:23">
+      <c r="X132" s="1"/>
+      <c r="AB132" s="1"/>
+    </row>
+    <row r="133" spans="1:28">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -4556,9 +5198,13 @@
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="1"/>
       <c r="W133" s="1"/>
-    </row>
-    <row r="134" spans="1:23">
+      <c r="X133" s="1"/>
+      <c r="AB133" s="1"/>
+    </row>
+    <row r="134" spans="1:28">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -4578,9 +5224,13 @@
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
       <c r="W134" s="1"/>
-    </row>
-    <row r="135" spans="1:23">
+      <c r="X134" s="1"/>
+      <c r="AB134" s="1"/>
+    </row>
+    <row r="135" spans="1:28">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -4600,9 +5250,13 @@
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
+      <c r="U135" s="1"/>
+      <c r="V135" s="1"/>
       <c r="W135" s="1"/>
-    </row>
-    <row r="136" spans="1:23">
+      <c r="X135" s="1"/>
+      <c r="AB135" s="1"/>
+    </row>
+    <row r="136" spans="1:28">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -4622,9 +5276,13 @@
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
+      <c r="U136" s="1"/>
+      <c r="V136" s="1"/>
       <c r="W136" s="1"/>
-    </row>
-    <row r="137" spans="1:23">
+      <c r="X136" s="1"/>
+      <c r="AB136" s="1"/>
+    </row>
+    <row r="137" spans="1:28">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -4644,9 +5302,13 @@
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="V137" s="1"/>
       <c r="W137" s="1"/>
-    </row>
-    <row r="138" spans="1:23">
+      <c r="X137" s="1"/>
+      <c r="AB137" s="1"/>
+    </row>
+    <row r="138" spans="1:28">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -4666,9 +5328,13 @@
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
+      <c r="U138" s="1"/>
+      <c r="V138" s="1"/>
       <c r="W138" s="1"/>
-    </row>
-    <row r="139" spans="1:23">
+      <c r="X138" s="1"/>
+      <c r="AB138" s="1"/>
+    </row>
+    <row r="139" spans="1:28">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -4688,9 +5354,13 @@
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
+      <c r="U139" s="1"/>
+      <c r="V139" s="1"/>
       <c r="W139" s="1"/>
-    </row>
-    <row r="140" spans="1:23">
+      <c r="X139" s="1"/>
+      <c r="AB139" s="1"/>
+    </row>
+    <row r="140" spans="1:28">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -4710,9 +5380,13 @@
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
+      <c r="U140" s="1"/>
+      <c r="V140" s="1"/>
       <c r="W140" s="1"/>
-    </row>
-    <row r="141" spans="1:23">
+      <c r="X140" s="1"/>
+      <c r="AB140" s="1"/>
+    </row>
+    <row r="141" spans="1:28">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -4732,9 +5406,13 @@
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
+      <c r="U141" s="1"/>
+      <c r="V141" s="1"/>
       <c r="W141" s="1"/>
-    </row>
-    <row r="142" spans="1:23">
+      <c r="X141" s="1"/>
+      <c r="AB141" s="1"/>
+    </row>
+    <row r="142" spans="1:28">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -4754,9 +5432,13 @@
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
+      <c r="U142" s="1"/>
+      <c r="V142" s="1"/>
       <c r="W142" s="1"/>
-    </row>
-    <row r="143" spans="1:23">
+      <c r="X142" s="1"/>
+      <c r="AB142" s="1"/>
+    </row>
+    <row r="143" spans="1:28">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -4776,9 +5458,13 @@
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
+      <c r="U143" s="1"/>
+      <c r="V143" s="1"/>
       <c r="W143" s="1"/>
-    </row>
-    <row r="144" spans="1:23">
+      <c r="X143" s="1"/>
+      <c r="AB143" s="1"/>
+    </row>
+    <row r="144" spans="1:28">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -4798,9 +5484,13 @@
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
+      <c r="U144" s="1"/>
+      <c r="V144" s="1"/>
       <c r="W144" s="1"/>
-    </row>
-    <row r="145" spans="1:23">
+      <c r="X144" s="1"/>
+      <c r="AB144" s="1"/>
+    </row>
+    <row r="145" spans="1:28">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -4820,9 +5510,13 @@
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
+      <c r="U145" s="1"/>
+      <c r="V145" s="1"/>
       <c r="W145" s="1"/>
-    </row>
-    <row r="146" spans="1:23">
+      <c r="X145" s="1"/>
+      <c r="AB145" s="1"/>
+    </row>
+    <row r="146" spans="1:28">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -4842,9 +5536,13 @@
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
+      <c r="U146" s="1"/>
+      <c r="V146" s="1"/>
       <c r="W146" s="1"/>
-    </row>
-    <row r="147" spans="1:23">
+      <c r="X146" s="1"/>
+      <c r="AB146" s="1"/>
+    </row>
+    <row r="147" spans="1:28">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -4864,9 +5562,13 @@
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
+      <c r="U147" s="1"/>
+      <c r="V147" s="1"/>
       <c r="W147" s="1"/>
-    </row>
-    <row r="148" spans="1:23">
+      <c r="X147" s="1"/>
+      <c r="AB147" s="1"/>
+    </row>
+    <row r="148" spans="1:28">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -4886,9 +5588,13 @@
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
+      <c r="U148" s="1"/>
+      <c r="V148" s="1"/>
       <c r="W148" s="1"/>
-    </row>
-    <row r="149" spans="1:23">
+      <c r="X148" s="1"/>
+      <c r="AB148" s="1"/>
+    </row>
+    <row r="149" spans="1:28">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -4908,9 +5614,13 @@
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
+      <c r="U149" s="1"/>
+      <c r="V149" s="1"/>
       <c r="W149" s="1"/>
-    </row>
-    <row r="150" spans="1:23">
+      <c r="X149" s="1"/>
+      <c r="AB149" s="1"/>
+    </row>
+    <row r="150" spans="1:28">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -4930,9 +5640,13 @@
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
+      <c r="U150" s="1"/>
+      <c r="V150" s="1"/>
       <c r="W150" s="1"/>
-    </row>
-    <row r="151" spans="1:23">
+      <c r="X150" s="1"/>
+      <c r="AB150" s="1"/>
+    </row>
+    <row r="151" spans="1:28">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -4952,9 +5666,13 @@
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
+      <c r="U151" s="1"/>
+      <c r="V151" s="1"/>
       <c r="W151" s="1"/>
-    </row>
-    <row r="152" spans="1:23">
+      <c r="X151" s="1"/>
+      <c r="AB151" s="1"/>
+    </row>
+    <row r="152" spans="1:28">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -4974,9 +5692,13 @@
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
+      <c r="U152" s="1"/>
+      <c r="V152" s="1"/>
       <c r="W152" s="1"/>
-    </row>
-    <row r="153" spans="1:23">
+      <c r="X152" s="1"/>
+      <c r="AB152" s="1"/>
+    </row>
+    <row r="153" spans="1:28">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -4996,9 +5718,13 @@
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
+      <c r="U153" s="1"/>
+      <c r="V153" s="1"/>
       <c r="W153" s="1"/>
-    </row>
-    <row r="154" spans="1:23">
+      <c r="X153" s="1"/>
+      <c r="AB153" s="1"/>
+    </row>
+    <row r="154" spans="1:28">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5018,9 +5744,13 @@
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
+      <c r="U154" s="1"/>
+      <c r="V154" s="1"/>
       <c r="W154" s="1"/>
-    </row>
-    <row r="155" spans="1:23">
+      <c r="X154" s="1"/>
+      <c r="AB154" s="1"/>
+    </row>
+    <row r="155" spans="1:28">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5040,9 +5770,13 @@
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
+      <c r="U155" s="1"/>
+      <c r="V155" s="1"/>
       <c r="W155" s="1"/>
-    </row>
-    <row r="156" spans="1:23">
+      <c r="X155" s="1"/>
+      <c r="AB155" s="1"/>
+    </row>
+    <row r="156" spans="1:28">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5062,9 +5796,13 @@
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
+      <c r="U156" s="1"/>
+      <c r="V156" s="1"/>
       <c r="W156" s="1"/>
-    </row>
-    <row r="157" spans="1:23">
+      <c r="X156" s="1"/>
+      <c r="AB156" s="1"/>
+    </row>
+    <row r="157" spans="1:28">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5084,9 +5822,13 @@
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="1"/>
       <c r="W157" s="1"/>
-    </row>
-    <row r="158" spans="1:23">
+      <c r="X157" s="1"/>
+      <c r="AB157" s="1"/>
+    </row>
+    <row r="158" spans="1:28">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5106,9 +5848,13 @@
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
+      <c r="U158" s="1"/>
+      <c r="V158" s="1"/>
       <c r="W158" s="1"/>
-    </row>
-    <row r="159" spans="1:23">
+      <c r="X158" s="1"/>
+      <c r="AB158" s="1"/>
+    </row>
+    <row r="159" spans="1:28">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5128,9 +5874,13 @@
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
+      <c r="U159" s="1"/>
+      <c r="V159" s="1"/>
       <c r="W159" s="1"/>
-    </row>
-    <row r="160" spans="1:23">
+      <c r="X159" s="1"/>
+      <c r="AB159" s="1"/>
+    </row>
+    <row r="160" spans="1:28">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5150,9 +5900,13 @@
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
+      <c r="U160" s="1"/>
+      <c r="V160" s="1"/>
       <c r="W160" s="1"/>
-    </row>
-    <row r="161" spans="1:23">
+      <c r="X160" s="1"/>
+      <c r="AB160" s="1"/>
+    </row>
+    <row r="161" spans="1:28">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5172,9 +5926,13 @@
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
+      <c r="U161" s="1"/>
+      <c r="V161" s="1"/>
       <c r="W161" s="1"/>
-    </row>
-    <row r="162" spans="1:23">
+      <c r="X161" s="1"/>
+      <c r="AB161" s="1"/>
+    </row>
+    <row r="162" spans="1:28">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -5194,9 +5952,13 @@
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
+      <c r="U162" s="1"/>
+      <c r="V162" s="1"/>
       <c r="W162" s="1"/>
-    </row>
-    <row r="163" spans="1:23">
+      <c r="X162" s="1"/>
+      <c r="AB162" s="1"/>
+    </row>
+    <row r="163" spans="1:28">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -5216,9 +5978,13 @@
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
+      <c r="U163" s="1"/>
+      <c r="V163" s="1"/>
       <c r="W163" s="1"/>
-    </row>
-    <row r="164" spans="1:23">
+      <c r="X163" s="1"/>
+      <c r="AB163" s="1"/>
+    </row>
+    <row r="164" spans="1:28">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -5238,9 +6004,13 @@
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
+      <c r="U164" s="1"/>
+      <c r="V164" s="1"/>
       <c r="W164" s="1"/>
-    </row>
-    <row r="165" spans="1:23">
+      <c r="X164" s="1"/>
+      <c r="AB164" s="1"/>
+    </row>
+    <row r="165" spans="1:28">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -5260,9 +6030,13 @@
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
+      <c r="U165" s="1"/>
+      <c r="V165" s="1"/>
       <c r="W165" s="1"/>
-    </row>
-    <row r="166" spans="1:23">
+      <c r="X165" s="1"/>
+      <c r="AB165" s="1"/>
+    </row>
+    <row r="166" spans="1:28">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -5282,9 +6056,13 @@
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
+      <c r="U166" s="1"/>
+      <c r="V166" s="1"/>
       <c r="W166" s="1"/>
-    </row>
-    <row r="167" spans="1:23">
+      <c r="X166" s="1"/>
+      <c r="AB166" s="1"/>
+    </row>
+    <row r="167" spans="1:28">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -5304,9 +6082,13 @@
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
+      <c r="U167" s="1"/>
+      <c r="V167" s="1"/>
       <c r="W167" s="1"/>
-    </row>
-    <row r="168" spans="1:23">
+      <c r="X167" s="1"/>
+      <c r="AB167" s="1"/>
+    </row>
+    <row r="168" spans="1:28">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -5326,9 +6108,13 @@
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
+      <c r="U168" s="1"/>
+      <c r="V168" s="1"/>
       <c r="W168" s="1"/>
-    </row>
-    <row r="169" spans="1:23">
+      <c r="X168" s="1"/>
+      <c r="AB168" s="1"/>
+    </row>
+    <row r="169" spans="1:28">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -5348,9 +6134,13 @@
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
+      <c r="U169" s="1"/>
+      <c r="V169" s="1"/>
       <c r="W169" s="1"/>
-    </row>
-    <row r="170" spans="1:23">
+      <c r="X169" s="1"/>
+      <c r="AB169" s="1"/>
+    </row>
+    <row r="170" spans="1:28">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -5370,9 +6160,13 @@
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
+      <c r="U170" s="1"/>
+      <c r="V170" s="1"/>
       <c r="W170" s="1"/>
-    </row>
-    <row r="171" spans="1:23">
+      <c r="X170" s="1"/>
+      <c r="AB170" s="1"/>
+    </row>
+    <row r="171" spans="1:28">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -5392,9 +6186,13 @@
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
+      <c r="U171" s="1"/>
+      <c r="V171" s="1"/>
       <c r="W171" s="1"/>
-    </row>
-    <row r="172" spans="1:23">
+      <c r="X171" s="1"/>
+      <c r="AB171" s="1"/>
+    </row>
+    <row r="172" spans="1:28">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -5414,9 +6212,13 @@
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
+      <c r="U172" s="1"/>
+      <c r="V172" s="1"/>
       <c r="W172" s="1"/>
-    </row>
-    <row r="173" spans="1:23">
+      <c r="X172" s="1"/>
+      <c r="AB172" s="1"/>
+    </row>
+    <row r="173" spans="1:28">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -5436,9 +6238,13 @@
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
+      <c r="U173" s="1"/>
+      <c r="V173" s="1"/>
       <c r="W173" s="1"/>
-    </row>
-    <row r="174" spans="1:23">
+      <c r="X173" s="1"/>
+      <c r="AB173" s="1"/>
+    </row>
+    <row r="174" spans="1:28">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -5458,9 +6264,13 @@
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
+      <c r="U174" s="1"/>
+      <c r="V174" s="1"/>
       <c r="W174" s="1"/>
-    </row>
-    <row r="175" spans="1:23">
+      <c r="X174" s="1"/>
+      <c r="AB174" s="1"/>
+    </row>
+    <row r="175" spans="1:28">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -5480,9 +6290,13 @@
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
+      <c r="U175" s="1"/>
+      <c r="V175" s="1"/>
       <c r="W175" s="1"/>
-    </row>
-    <row r="176" spans="1:23">
+      <c r="X175" s="1"/>
+      <c r="AB175" s="1"/>
+    </row>
+    <row r="176" spans="1:28">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -5502,9 +6316,13 @@
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
+      <c r="U176" s="1"/>
+      <c r="V176" s="1"/>
       <c r="W176" s="1"/>
-    </row>
-    <row r="177" spans="1:23">
+      <c r="X176" s="1"/>
+      <c r="AB176" s="1"/>
+    </row>
+    <row r="177" spans="1:28">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -5524,9 +6342,13 @@
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
+      <c r="U177" s="1"/>
+      <c r="V177" s="1"/>
       <c r="W177" s="1"/>
-    </row>
-    <row r="178" spans="1:23">
+      <c r="X177" s="1"/>
+      <c r="AB177" s="1"/>
+    </row>
+    <row r="178" spans="1:28">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -5546,9 +6368,13 @@
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
+      <c r="U178" s="1"/>
+      <c r="V178" s="1"/>
       <c r="W178" s="1"/>
-    </row>
-    <row r="179" spans="1:23">
+      <c r="X178" s="1"/>
+      <c r="AB178" s="1"/>
+    </row>
+    <row r="179" spans="1:28">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -5568,9 +6394,13 @@
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
+      <c r="U179" s="1"/>
+      <c r="V179" s="1"/>
       <c r="W179" s="1"/>
-    </row>
-    <row r="180" spans="1:23">
+      <c r="X179" s="1"/>
+      <c r="AB179" s="1"/>
+    </row>
+    <row r="180" spans="1:28">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -5590,9 +6420,13 @@
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
+      <c r="U180" s="1"/>
+      <c r="V180" s="1"/>
       <c r="W180" s="1"/>
-    </row>
-    <row r="181" spans="1:23">
+      <c r="X180" s="1"/>
+      <c r="AB180" s="1"/>
+    </row>
+    <row r="181" spans="1:28">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -5612,9 +6446,13 @@
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
+      <c r="U181" s="1"/>
+      <c r="V181" s="1"/>
       <c r="W181" s="1"/>
-    </row>
-    <row r="182" spans="1:23">
+      <c r="X181" s="1"/>
+      <c r="AB181" s="1"/>
+    </row>
+    <row r="182" spans="1:28">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -5634,9 +6472,13 @@
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
+      <c r="U182" s="1"/>
+      <c r="V182" s="1"/>
       <c r="W182" s="1"/>
-    </row>
-    <row r="183" spans="1:23">
+      <c r="X182" s="1"/>
+      <c r="AB182" s="1"/>
+    </row>
+    <row r="183" spans="1:28">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -5656,9 +6498,13 @@
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
+      <c r="U183" s="1"/>
+      <c r="V183" s="1"/>
       <c r="W183" s="1"/>
-    </row>
-    <row r="184" spans="1:23">
+      <c r="X183" s="1"/>
+      <c r="AB183" s="1"/>
+    </row>
+    <row r="184" spans="1:28">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -5678,9 +6524,13 @@
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
+      <c r="U184" s="1"/>
+      <c r="V184" s="1"/>
       <c r="W184" s="1"/>
-    </row>
-    <row r="185" spans="1:23">
+      <c r="X184" s="1"/>
+      <c r="AB184" s="1"/>
+    </row>
+    <row r="185" spans="1:28">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -5700,9 +6550,13 @@
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
+      <c r="U185" s="1"/>
+      <c r="V185" s="1"/>
       <c r="W185" s="1"/>
-    </row>
-    <row r="186" spans="1:23">
+      <c r="X185" s="1"/>
+      <c r="AB185" s="1"/>
+    </row>
+    <row r="186" spans="1:28">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -5722,9 +6576,13 @@
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
+      <c r="U186" s="1"/>
+      <c r="V186" s="1"/>
       <c r="W186" s="1"/>
-    </row>
-    <row r="187" spans="1:23">
+      <c r="X186" s="1"/>
+      <c r="AB186" s="1"/>
+    </row>
+    <row r="187" spans="1:28">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -5744,9 +6602,13 @@
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
+      <c r="U187" s="1"/>
+      <c r="V187" s="1"/>
       <c r="W187" s="1"/>
-    </row>
-    <row r="188" spans="1:23">
+      <c r="X187" s="1"/>
+      <c r="AB187" s="1"/>
+    </row>
+    <row r="188" spans="1:28">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -5766,9 +6628,13 @@
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
+      <c r="U188" s="1"/>
+      <c r="V188" s="1"/>
       <c r="W188" s="1"/>
-    </row>
-    <row r="189" spans="1:23">
+      <c r="X188" s="1"/>
+      <c r="AB188" s="1"/>
+    </row>
+    <row r="189" spans="1:28">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -5788,9 +6654,13 @@
       <c r="R189" s="1"/>
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
+      <c r="U189" s="1"/>
+      <c r="V189" s="1"/>
       <c r="W189" s="1"/>
-    </row>
-    <row r="190" spans="1:23">
+      <c r="X189" s="1"/>
+      <c r="AB189" s="1"/>
+    </row>
+    <row r="190" spans="1:28">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -5810,9 +6680,13 @@
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
+      <c r="U190" s="1"/>
+      <c r="V190" s="1"/>
       <c r="W190" s="1"/>
-    </row>
-    <row r="191" spans="1:23">
+      <c r="X190" s="1"/>
+      <c r="AB190" s="1"/>
+    </row>
+    <row r="191" spans="1:28">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -5832,9 +6706,13 @@
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
+      <c r="U191" s="1"/>
+      <c r="V191" s="1"/>
       <c r="W191" s="1"/>
-    </row>
-    <row r="192" spans="1:23">
+      <c r="X191" s="1"/>
+      <c r="AB191" s="1"/>
+    </row>
+    <row r="192" spans="1:28">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -5854,9 +6732,13 @@
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
+      <c r="U192" s="1"/>
+      <c r="V192" s="1"/>
       <c r="W192" s="1"/>
-    </row>
-    <row r="193" spans="1:23">
+      <c r="X192" s="1"/>
+      <c r="AB192" s="1"/>
+    </row>
+    <row r="193" spans="1:28">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -5876,9 +6758,13 @@
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
+      <c r="U193" s="1"/>
+      <c r="V193" s="1"/>
       <c r="W193" s="1"/>
-    </row>
-    <row r="194" spans="1:23">
+      <c r="X193" s="1"/>
+      <c r="AB193" s="1"/>
+    </row>
+    <row r="194" spans="1:28">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -5898,9 +6784,13 @@
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
+      <c r="U194" s="1"/>
+      <c r="V194" s="1"/>
       <c r="W194" s="1"/>
-    </row>
-    <row r="195" spans="1:23">
+      <c r="X194" s="1"/>
+      <c r="AB194" s="1"/>
+    </row>
+    <row r="195" spans="1:28">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -5920,9 +6810,13 @@
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
+      <c r="U195" s="1"/>
+      <c r="V195" s="1"/>
       <c r="W195" s="1"/>
-    </row>
-    <row r="196" spans="1:23">
+      <c r="X195" s="1"/>
+      <c r="AB195" s="1"/>
+    </row>
+    <row r="196" spans="1:28">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -5942,9 +6836,13 @@
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
+      <c r="U196" s="1"/>
+      <c r="V196" s="1"/>
       <c r="W196" s="1"/>
-    </row>
-    <row r="197" spans="1:23">
+      <c r="X196" s="1"/>
+      <c r="AB196" s="1"/>
+    </row>
+    <row r="197" spans="1:28">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -5964,9 +6862,13 @@
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
+      <c r="U197" s="1"/>
+      <c r="V197" s="1"/>
       <c r="W197" s="1"/>
-    </row>
-    <row r="198" spans="1:23">
+      <c r="X197" s="1"/>
+      <c r="AB197" s="1"/>
+    </row>
+    <row r="198" spans="1:28">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -5986,9 +6888,13 @@
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
+      <c r="U198" s="1"/>
+      <c r="V198" s="1"/>
       <c r="W198" s="1"/>
-    </row>
-    <row r="199" spans="1:23">
+      <c r="X198" s="1"/>
+      <c r="AB198" s="1"/>
+    </row>
+    <row r="199" spans="1:28">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -6008,9 +6914,13 @@
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
+      <c r="U199" s="1"/>
+      <c r="V199" s="1"/>
       <c r="W199" s="1"/>
-    </row>
-    <row r="200" spans="1:23">
+      <c r="X199" s="1"/>
+      <c r="AB199" s="1"/>
+    </row>
+    <row r="200" spans="1:28">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -6030,9 +6940,13 @@
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
+      <c r="U200" s="1"/>
+      <c r="V200" s="1"/>
       <c r="W200" s="1"/>
-    </row>
-    <row r="201" spans="1:23">
+      <c r="X200" s="1"/>
+      <c r="AB200" s="1"/>
+    </row>
+    <row r="201" spans="1:28">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -6052,9 +6966,13 @@
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
       <c r="T201" s="1"/>
+      <c r="U201" s="1"/>
+      <c r="V201" s="1"/>
       <c r="W201" s="1"/>
-    </row>
-    <row r="202" spans="1:23">
+      <c r="X201" s="1"/>
+      <c r="AB201" s="1"/>
+    </row>
+    <row r="202" spans="1:28">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -6074,9 +6992,13 @@
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
       <c r="T202" s="1"/>
+      <c r="U202" s="1"/>
+      <c r="V202" s="1"/>
       <c r="W202" s="1"/>
-    </row>
-    <row r="203" spans="1:23">
+      <c r="X202" s="1"/>
+      <c r="AB202" s="1"/>
+    </row>
+    <row r="203" spans="1:28">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -6096,9 +7018,13 @@
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
       <c r="T203" s="1"/>
+      <c r="U203" s="1"/>
+      <c r="V203" s="1"/>
       <c r="W203" s="1"/>
-    </row>
-    <row r="204" spans="1:23">
+      <c r="X203" s="1"/>
+      <c r="AB203" s="1"/>
+    </row>
+    <row r="204" spans="1:28">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -6118,9 +7044,13 @@
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
       <c r="T204" s="1"/>
+      <c r="U204" s="1"/>
+      <c r="V204" s="1"/>
       <c r="W204" s="1"/>
-    </row>
-    <row r="205" spans="1:23">
+      <c r="X204" s="1"/>
+      <c r="AB204" s="1"/>
+    </row>
+    <row r="205" spans="1:28">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -6140,9 +7070,13 @@
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
       <c r="T205" s="1"/>
+      <c r="U205" s="1"/>
+      <c r="V205" s="1"/>
       <c r="W205" s="1"/>
-    </row>
-    <row r="206" spans="1:23">
+      <c r="X205" s="1"/>
+      <c r="AB205" s="1"/>
+    </row>
+    <row r="206" spans="1:28">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -6162,9 +7096,13 @@
       <c r="R206" s="1"/>
       <c r="S206" s="1"/>
       <c r="T206" s="1"/>
+      <c r="U206" s="1"/>
+      <c r="V206" s="1"/>
       <c r="W206" s="1"/>
-    </row>
-    <row r="207" spans="1:23">
+      <c r="X206" s="1"/>
+      <c r="AB206" s="1"/>
+    </row>
+    <row r="207" spans="1:28">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -6184,9 +7122,13 @@
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
       <c r="T207" s="1"/>
+      <c r="U207" s="1"/>
+      <c r="V207" s="1"/>
       <c r="W207" s="1"/>
-    </row>
-    <row r="208" spans="1:23">
+      <c r="X207" s="1"/>
+      <c r="AB207" s="1"/>
+    </row>
+    <row r="208" spans="1:28">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -6206,9 +7148,13 @@
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
       <c r="T208" s="1"/>
+      <c r="U208" s="1"/>
+      <c r="V208" s="1"/>
       <c r="W208" s="1"/>
-    </row>
-    <row r="209" spans="1:23">
+      <c r="X208" s="1"/>
+      <c r="AB208" s="1"/>
+    </row>
+    <row r="209" spans="1:28">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -6228,9 +7174,13 @@
       <c r="R209" s="1"/>
       <c r="S209" s="1"/>
       <c r="T209" s="1"/>
+      <c r="U209" s="1"/>
+      <c r="V209" s="1"/>
       <c r="W209" s="1"/>
-    </row>
-    <row r="210" spans="1:23">
+      <c r="X209" s="1"/>
+      <c r="AB209" s="1"/>
+    </row>
+    <row r="210" spans="1:28">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -6250,9 +7200,13 @@
       <c r="R210" s="1"/>
       <c r="S210" s="1"/>
       <c r="T210" s="1"/>
+      <c r="U210" s="1"/>
+      <c r="V210" s="1"/>
       <c r="W210" s="1"/>
-    </row>
-    <row r="211" spans="1:23">
+      <c r="X210" s="1"/>
+      <c r="AB210" s="1"/>
+    </row>
+    <row r="211" spans="1:28">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -6272,9 +7226,13 @@
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
       <c r="T211" s="1"/>
+      <c r="U211" s="1"/>
+      <c r="V211" s="1"/>
       <c r="W211" s="1"/>
-    </row>
-    <row r="212" spans="1:23">
+      <c r="X211" s="1"/>
+      <c r="AB211" s="1"/>
+    </row>
+    <row r="212" spans="1:28">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -6294,9 +7252,13 @@
       <c r="R212" s="1"/>
       <c r="S212" s="1"/>
       <c r="T212" s="1"/>
+      <c r="U212" s="1"/>
+      <c r="V212" s="1"/>
       <c r="W212" s="1"/>
-    </row>
-    <row r="213" spans="1:23">
+      <c r="X212" s="1"/>
+      <c r="AB212" s="1"/>
+    </row>
+    <row r="213" spans="1:28">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -6316,9 +7278,13 @@
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
       <c r="T213" s="1"/>
+      <c r="U213" s="1"/>
+      <c r="V213" s="1"/>
       <c r="W213" s="1"/>
-    </row>
-    <row r="214" spans="1:23">
+      <c r="X213" s="1"/>
+      <c r="AB213" s="1"/>
+    </row>
+    <row r="214" spans="1:28">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -6338,9 +7304,13 @@
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
       <c r="T214" s="1"/>
+      <c r="U214" s="1"/>
+      <c r="V214" s="1"/>
       <c r="W214" s="1"/>
-    </row>
-    <row r="215" spans="1:23">
+      <c r="X214" s="1"/>
+      <c r="AB214" s="1"/>
+    </row>
+    <row r="215" spans="1:28">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -6360,9 +7330,13 @@
       <c r="R215" s="1"/>
       <c r="S215" s="1"/>
       <c r="T215" s="1"/>
+      <c r="U215" s="1"/>
+      <c r="V215" s="1"/>
       <c r="W215" s="1"/>
-    </row>
-    <row r="216" spans="1:23">
+      <c r="X215" s="1"/>
+      <c r="AB215" s="1"/>
+    </row>
+    <row r="216" spans="1:28">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -6382,9 +7356,13 @@
       <c r="R216" s="1"/>
       <c r="S216" s="1"/>
       <c r="T216" s="1"/>
+      <c r="U216" s="1"/>
+      <c r="V216" s="1"/>
       <c r="W216" s="1"/>
-    </row>
-    <row r="217" spans="1:23">
+      <c r="X216" s="1"/>
+      <c r="AB216" s="1"/>
+    </row>
+    <row r="217" spans="1:28">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -6404,9 +7382,13 @@
       <c r="R217" s="1"/>
       <c r="S217" s="1"/>
       <c r="T217" s="1"/>
+      <c r="U217" s="1"/>
+      <c r="V217" s="1"/>
       <c r="W217" s="1"/>
-    </row>
-    <row r="218" spans="1:23">
+      <c r="X217" s="1"/>
+      <c r="AB217" s="1"/>
+    </row>
+    <row r="218" spans="1:28">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -6426,9 +7408,13 @@
       <c r="R218" s="1"/>
       <c r="S218" s="1"/>
       <c r="T218" s="1"/>
+      <c r="U218" s="1"/>
+      <c r="V218" s="1"/>
       <c r="W218" s="1"/>
-    </row>
-    <row r="219" spans="1:23">
+      <c r="X218" s="1"/>
+      <c r="AB218" s="1"/>
+    </row>
+    <row r="219" spans="1:28">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -6448,9 +7434,13 @@
       <c r="R219" s="1"/>
       <c r="S219" s="1"/>
       <c r="T219" s="1"/>
+      <c r="U219" s="1"/>
+      <c r="V219" s="1"/>
       <c r="W219" s="1"/>
-    </row>
-    <row r="220" spans="1:23">
+      <c r="X219" s="1"/>
+      <c r="AB219" s="1"/>
+    </row>
+    <row r="220" spans="1:28">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -6470,9 +7460,13 @@
       <c r="R220" s="1"/>
       <c r="S220" s="1"/>
       <c r="T220" s="1"/>
+      <c r="U220" s="1"/>
+      <c r="V220" s="1"/>
       <c r="W220" s="1"/>
-    </row>
-    <row r="221" spans="1:23">
+      <c r="X220" s="1"/>
+      <c r="AB220" s="1"/>
+    </row>
+    <row r="221" spans="1:28">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -6492,9 +7486,13 @@
       <c r="R221" s="1"/>
       <c r="S221" s="1"/>
       <c r="T221" s="1"/>
+      <c r="U221" s="1"/>
+      <c r="V221" s="1"/>
       <c r="W221" s="1"/>
-    </row>
-    <row r="222" spans="1:23">
+      <c r="X221" s="1"/>
+      <c r="AB221" s="1"/>
+    </row>
+    <row r="222" spans="1:28">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -6514,9 +7512,13 @@
       <c r="R222" s="1"/>
       <c r="S222" s="1"/>
       <c r="T222" s="1"/>
+      <c r="U222" s="1"/>
+      <c r="V222" s="1"/>
       <c r="W222" s="1"/>
-    </row>
-    <row r="223" spans="1:23">
+      <c r="X222" s="1"/>
+      <c r="AB222" s="1"/>
+    </row>
+    <row r="223" spans="1:28">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -6536,9 +7538,13 @@
       <c r="R223" s="1"/>
       <c r="S223" s="1"/>
       <c r="T223" s="1"/>
+      <c r="U223" s="1"/>
+      <c r="V223" s="1"/>
       <c r="W223" s="1"/>
-    </row>
-    <row r="224" spans="1:23">
+      <c r="X223" s="1"/>
+      <c r="AB223" s="1"/>
+    </row>
+    <row r="224" spans="1:28">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -6558,9 +7564,13 @@
       <c r="R224" s="1"/>
       <c r="S224" s="1"/>
       <c r="T224" s="1"/>
+      <c r="U224" s="1"/>
+      <c r="V224" s="1"/>
       <c r="W224" s="1"/>
-    </row>
-    <row r="225" spans="1:23">
+      <c r="X224" s="1"/>
+      <c r="AB224" s="1"/>
+    </row>
+    <row r="225" spans="1:28">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -6580,9 +7590,13 @@
       <c r="R225" s="1"/>
       <c r="S225" s="1"/>
       <c r="T225" s="1"/>
+      <c r="U225" s="1"/>
+      <c r="V225" s="1"/>
       <c r="W225" s="1"/>
-    </row>
-    <row r="226" spans="1:23">
+      <c r="X225" s="1"/>
+      <c r="AB225" s="1"/>
+    </row>
+    <row r="226" spans="1:28">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -6602,9 +7616,13 @@
       <c r="R226" s="1"/>
       <c r="S226" s="1"/>
       <c r="T226" s="1"/>
+      <c r="U226" s="1"/>
+      <c r="V226" s="1"/>
       <c r="W226" s="1"/>
-    </row>
-    <row r="227" spans="1:23">
+      <c r="X226" s="1"/>
+      <c r="AB226" s="1"/>
+    </row>
+    <row r="227" spans="1:28">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -6624,9 +7642,13 @@
       <c r="R227" s="1"/>
       <c r="S227" s="1"/>
       <c r="T227" s="1"/>
+      <c r="U227" s="1"/>
+      <c r="V227" s="1"/>
       <c r="W227" s="1"/>
-    </row>
-    <row r="228" spans="1:23">
+      <c r="X227" s="1"/>
+      <c r="AB227" s="1"/>
+    </row>
+    <row r="228" spans="1:28">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -6646,9 +7668,13 @@
       <c r="R228" s="1"/>
       <c r="S228" s="1"/>
       <c r="T228" s="1"/>
+      <c r="U228" s="1"/>
+      <c r="V228" s="1"/>
       <c r="W228" s="1"/>
-    </row>
-    <row r="229" spans="1:23">
+      <c r="X228" s="1"/>
+      <c r="AB228" s="1"/>
+    </row>
+    <row r="229" spans="1:28">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -6668,9 +7694,13 @@
       <c r="R229" s="1"/>
       <c r="S229" s="1"/>
       <c r="T229" s="1"/>
+      <c r="U229" s="1"/>
+      <c r="V229" s="1"/>
       <c r="W229" s="1"/>
-    </row>
-    <row r="230" spans="1:23">
+      <c r="X229" s="1"/>
+      <c r="AB229" s="1"/>
+    </row>
+    <row r="230" spans="1:28">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -6690,9 +7720,13 @@
       <c r="R230" s="1"/>
       <c r="S230" s="1"/>
       <c r="T230" s="1"/>
+      <c r="U230" s="1"/>
+      <c r="V230" s="1"/>
       <c r="W230" s="1"/>
-    </row>
-    <row r="231" spans="1:23">
+      <c r="X230" s="1"/>
+      <c r="AB230" s="1"/>
+    </row>
+    <row r="231" spans="1:28">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -6712,9 +7746,13 @@
       <c r="R231" s="1"/>
       <c r="S231" s="1"/>
       <c r="T231" s="1"/>
+      <c r="U231" s="1"/>
+      <c r="V231" s="1"/>
       <c r="W231" s="1"/>
-    </row>
-    <row r="232" spans="1:23">
+      <c r="X231" s="1"/>
+      <c r="AB231" s="1"/>
+    </row>
+    <row r="232" spans="1:28">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -6734,9 +7772,13 @@
       <c r="R232" s="1"/>
       <c r="S232" s="1"/>
       <c r="T232" s="1"/>
+      <c r="U232" s="1"/>
+      <c r="V232" s="1"/>
       <c r="W232" s="1"/>
-    </row>
-    <row r="233" spans="1:23">
+      <c r="X232" s="1"/>
+      <c r="AB232" s="1"/>
+    </row>
+    <row r="233" spans="1:28">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -6756,9 +7798,13 @@
       <c r="R233" s="1"/>
       <c r="S233" s="1"/>
       <c r="T233" s="1"/>
+      <c r="U233" s="1"/>
+      <c r="V233" s="1"/>
       <c r="W233" s="1"/>
-    </row>
-    <row r="234" spans="1:23">
+      <c r="X233" s="1"/>
+      <c r="AB233" s="1"/>
+    </row>
+    <row r="234" spans="1:28">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -6778,9 +7824,13 @@
       <c r="R234" s="1"/>
       <c r="S234" s="1"/>
       <c r="T234" s="1"/>
+      <c r="U234" s="1"/>
+      <c r="V234" s="1"/>
       <c r="W234" s="1"/>
-    </row>
-    <row r="235" spans="1:23">
+      <c r="X234" s="1"/>
+      <c r="AB234" s="1"/>
+    </row>
+    <row r="235" spans="1:28">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -6800,9 +7850,13 @@
       <c r="R235" s="1"/>
       <c r="S235" s="1"/>
       <c r="T235" s="1"/>
+      <c r="U235" s="1"/>
+      <c r="V235" s="1"/>
       <c r="W235" s="1"/>
-    </row>
-    <row r="236" spans="1:23">
+      <c r="X235" s="1"/>
+      <c r="AB235" s="1"/>
+    </row>
+    <row r="236" spans="1:28">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -6822,9 +7876,13 @@
       <c r="R236" s="1"/>
       <c r="S236" s="1"/>
       <c r="T236" s="1"/>
+      <c r="U236" s="1"/>
+      <c r="V236" s="1"/>
       <c r="W236" s="1"/>
-    </row>
-    <row r="237" spans="1:23">
+      <c r="X236" s="1"/>
+      <c r="AB236" s="1"/>
+    </row>
+    <row r="237" spans="1:28">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -6844,9 +7902,13 @@
       <c r="R237" s="1"/>
       <c r="S237" s="1"/>
       <c r="T237" s="1"/>
+      <c r="U237" s="1"/>
+      <c r="V237" s="1"/>
       <c r="W237" s="1"/>
-    </row>
-    <row r="238" spans="1:23">
+      <c r="X237" s="1"/>
+      <c r="AB237" s="1"/>
+    </row>
+    <row r="238" spans="1:28">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -6866,9 +7928,13 @@
       <c r="R238" s="1"/>
       <c r="S238" s="1"/>
       <c r="T238" s="1"/>
+      <c r="U238" s="1"/>
+      <c r="V238" s="1"/>
       <c r="W238" s="1"/>
-    </row>
-    <row r="239" spans="1:23">
+      <c r="X238" s="1"/>
+      <c r="AB238" s="1"/>
+    </row>
+    <row r="239" spans="1:28">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -6888,9 +7954,13 @@
       <c r="R239" s="1"/>
       <c r="S239" s="1"/>
       <c r="T239" s="1"/>
+      <c r="U239" s="1"/>
+      <c r="V239" s="1"/>
       <c r="W239" s="1"/>
-    </row>
-    <row r="240" spans="1:23">
+      <c r="X239" s="1"/>
+      <c r="AB239" s="1"/>
+    </row>
+    <row r="240" spans="1:28">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -6910,9 +7980,13 @@
       <c r="R240" s="1"/>
       <c r="S240" s="1"/>
       <c r="T240" s="1"/>
+      <c r="U240" s="1"/>
+      <c r="V240" s="1"/>
       <c r="W240" s="1"/>
-    </row>
-    <row r="241" spans="1:23">
+      <c r="X240" s="1"/>
+      <c r="AB240" s="1"/>
+    </row>
+    <row r="241" spans="1:28">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -6932,9 +8006,13 @@
       <c r="R241" s="1"/>
       <c r="S241" s="1"/>
       <c r="T241" s="1"/>
+      <c r="U241" s="1"/>
+      <c r="V241" s="1"/>
       <c r="W241" s="1"/>
-    </row>
-    <row r="242" spans="1:23">
+      <c r="X241" s="1"/>
+      <c r="AB241" s="1"/>
+    </row>
+    <row r="242" spans="1:28">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -6954,9 +8032,13 @@
       <c r="R242" s="1"/>
       <c r="S242" s="1"/>
       <c r="T242" s="1"/>
+      <c r="U242" s="1"/>
+      <c r="V242" s="1"/>
       <c r="W242" s="1"/>
-    </row>
-    <row r="243" spans="1:23">
+      <c r="X242" s="1"/>
+      <c r="AB242" s="1"/>
+    </row>
+    <row r="243" spans="1:28">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -6976,9 +8058,13 @@
       <c r="R243" s="1"/>
       <c r="S243" s="1"/>
       <c r="T243" s="1"/>
+      <c r="U243" s="1"/>
+      <c r="V243" s="1"/>
       <c r="W243" s="1"/>
-    </row>
-    <row r="244" spans="1:23">
+      <c r="X243" s="1"/>
+      <c r="AB243" s="1"/>
+    </row>
+    <row r="244" spans="1:28">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -6998,9 +8084,13 @@
       <c r="R244" s="1"/>
       <c r="S244" s="1"/>
       <c r="T244" s="1"/>
+      <c r="U244" s="1"/>
+      <c r="V244" s="1"/>
       <c r="W244" s="1"/>
-    </row>
-    <row r="245" spans="1:23">
+      <c r="X244" s="1"/>
+      <c r="AB244" s="1"/>
+    </row>
+    <row r="245" spans="1:28">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -7020,9 +8110,13 @@
       <c r="R245" s="1"/>
       <c r="S245" s="1"/>
       <c r="T245" s="1"/>
+      <c r="U245" s="1"/>
+      <c r="V245" s="1"/>
       <c r="W245" s="1"/>
-    </row>
-    <row r="246" spans="1:23">
+      <c r="X245" s="1"/>
+      <c r="AB245" s="1"/>
+    </row>
+    <row r="246" spans="1:28">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -7042,9 +8136,13 @@
       <c r="R246" s="1"/>
       <c r="S246" s="1"/>
       <c r="T246" s="1"/>
+      <c r="U246" s="1"/>
+      <c r="V246" s="1"/>
       <c r="W246" s="1"/>
-    </row>
-    <row r="247" spans="1:23">
+      <c r="X246" s="1"/>
+      <c r="AB246" s="1"/>
+    </row>
+    <row r="247" spans="1:28">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -7064,9 +8162,13 @@
       <c r="R247" s="1"/>
       <c r="S247" s="1"/>
       <c r="T247" s="1"/>
+      <c r="U247" s="1"/>
+      <c r="V247" s="1"/>
       <c r="W247" s="1"/>
-    </row>
-    <row r="248" spans="1:23">
+      <c r="X247" s="1"/>
+      <c r="AB247" s="1"/>
+    </row>
+    <row r="248" spans="1:28">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -7086,9 +8188,13 @@
       <c r="R248" s="1"/>
       <c r="S248" s="1"/>
       <c r="T248" s="1"/>
+      <c r="U248" s="1"/>
+      <c r="V248" s="1"/>
       <c r="W248" s="1"/>
-    </row>
-    <row r="249" spans="1:23">
+      <c r="X248" s="1"/>
+      <c r="AB248" s="1"/>
+    </row>
+    <row r="249" spans="1:28">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -7108,9 +8214,13 @@
       <c r="R249" s="1"/>
       <c r="S249" s="1"/>
       <c r="T249" s="1"/>
+      <c r="U249" s="1"/>
+      <c r="V249" s="1"/>
       <c r="W249" s="1"/>
-    </row>
-    <row r="250" spans="1:23">
+      <c r="X249" s="1"/>
+      <c r="AB249" s="1"/>
+    </row>
+    <row r="250" spans="1:28">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -7130,9 +8240,13 @@
       <c r="R250" s="1"/>
       <c r="S250" s="1"/>
       <c r="T250" s="1"/>
+      <c r="U250" s="1"/>
+      <c r="V250" s="1"/>
       <c r="W250" s="1"/>
-    </row>
-    <row r="251" spans="1:23">
+      <c r="X250" s="1"/>
+      <c r="AB250" s="1"/>
+    </row>
+    <row r="251" spans="1:28">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -7152,9 +8266,13 @@
       <c r="R251" s="1"/>
       <c r="S251" s="1"/>
       <c r="T251" s="1"/>
+      <c r="U251" s="1"/>
+      <c r="V251" s="1"/>
       <c r="W251" s="1"/>
-    </row>
-    <row r="252" spans="1:23">
+      <c r="X251" s="1"/>
+      <c r="AB251" s="1"/>
+    </row>
+    <row r="252" spans="1:28">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -7174,9 +8292,13 @@
       <c r="R252" s="1"/>
       <c r="S252" s="1"/>
       <c r="T252" s="1"/>
+      <c r="U252" s="1"/>
+      <c r="V252" s="1"/>
       <c r="W252" s="1"/>
-    </row>
-    <row r="253" spans="1:23">
+      <c r="X252" s="1"/>
+      <c r="AB252" s="1"/>
+    </row>
+    <row r="253" spans="1:28">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -7196,9 +8318,13 @@
       <c r="R253" s="1"/>
       <c r="S253" s="1"/>
       <c r="T253" s="1"/>
+      <c r="U253" s="1"/>
+      <c r="V253" s="1"/>
       <c r="W253" s="1"/>
-    </row>
-    <row r="254" spans="1:23">
+      <c r="X253" s="1"/>
+      <c r="AB253" s="1"/>
+    </row>
+    <row r="254" spans="1:28">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -7218,9 +8344,13 @@
       <c r="R254" s="1"/>
       <c r="S254" s="1"/>
       <c r="T254" s="1"/>
+      <c r="U254" s="1"/>
+      <c r="V254" s="1"/>
       <c r="W254" s="1"/>
-    </row>
-    <row r="255" spans="1:23">
+      <c r="X254" s="1"/>
+      <c r="AB254" s="1"/>
+    </row>
+    <row r="255" spans="1:28">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -7240,9 +8370,13 @@
       <c r="R255" s="1"/>
       <c r="S255" s="1"/>
       <c r="T255" s="1"/>
+      <c r="U255" s="1"/>
+      <c r="V255" s="1"/>
       <c r="W255" s="1"/>
-    </row>
-    <row r="256" spans="1:23">
+      <c r="X255" s="1"/>
+      <c r="AB255" s="1"/>
+    </row>
+    <row r="256" spans="1:28">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -7262,9 +8396,13 @@
       <c r="R256" s="1"/>
       <c r="S256" s="1"/>
       <c r="T256" s="1"/>
+      <c r="U256" s="1"/>
+      <c r="V256" s="1"/>
       <c r="W256" s="1"/>
-    </row>
-    <row r="257" spans="1:23">
+      <c r="X256" s="1"/>
+      <c r="AB256" s="1"/>
+    </row>
+    <row r="257" spans="1:28">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -7284,9 +8422,13 @@
       <c r="R257" s="1"/>
       <c r="S257" s="1"/>
       <c r="T257" s="1"/>
+      <c r="U257" s="1"/>
+      <c r="V257" s="1"/>
       <c r="W257" s="1"/>
-    </row>
-    <row r="258" spans="1:23">
+      <c r="X257" s="1"/>
+      <c r="AB257" s="1"/>
+    </row>
+    <row r="258" spans="1:28">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -7306,9 +8448,13 @@
       <c r="R258" s="1"/>
       <c r="S258" s="1"/>
       <c r="T258" s="1"/>
+      <c r="U258" s="1"/>
+      <c r="V258" s="1"/>
       <c r="W258" s="1"/>
-    </row>
-    <row r="259" spans="1:23">
+      <c r="X258" s="1"/>
+      <c r="AB258" s="1"/>
+    </row>
+    <row r="259" spans="1:28">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -7328,9 +8474,13 @@
       <c r="R259" s="1"/>
       <c r="S259" s="1"/>
       <c r="T259" s="1"/>
+      <c r="U259" s="1"/>
+      <c r="V259" s="1"/>
       <c r="W259" s="1"/>
-    </row>
-    <row r="260" spans="1:23">
+      <c r="X259" s="1"/>
+      <c r="AB259" s="1"/>
+    </row>
+    <row r="260" spans="1:28">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -7350,9 +8500,13 @@
       <c r="R260" s="1"/>
       <c r="S260" s="1"/>
       <c r="T260" s="1"/>
+      <c r="U260" s="1"/>
+      <c r="V260" s="1"/>
       <c r="W260" s="1"/>
-    </row>
-    <row r="261" spans="1:23">
+      <c r="X260" s="1"/>
+      <c r="AB260" s="1"/>
+    </row>
+    <row r="261" spans="1:28">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -7372,9 +8526,13 @@
       <c r="R261" s="1"/>
       <c r="S261" s="1"/>
       <c r="T261" s="1"/>
+      <c r="U261" s="1"/>
+      <c r="V261" s="1"/>
       <c r="W261" s="1"/>
-    </row>
-    <row r="262" spans="1:23">
+      <c r="X261" s="1"/>
+      <c r="AB261" s="1"/>
+    </row>
+    <row r="262" spans="1:28">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -7394,9 +8552,13 @@
       <c r="R262" s="1"/>
       <c r="S262" s="1"/>
       <c r="T262" s="1"/>
+      <c r="U262" s="1"/>
+      <c r="V262" s="1"/>
       <c r="W262" s="1"/>
-    </row>
-    <row r="263" spans="1:23">
+      <c r="X262" s="1"/>
+      <c r="AB262" s="1"/>
+    </row>
+    <row r="263" spans="1:28">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -7416,9 +8578,13 @@
       <c r="R263" s="1"/>
       <c r="S263" s="1"/>
       <c r="T263" s="1"/>
+      <c r="U263" s="1"/>
+      <c r="V263" s="1"/>
       <c r="W263" s="1"/>
-    </row>
-    <row r="264" spans="1:23">
+      <c r="X263" s="1"/>
+      <c r="AB263" s="1"/>
+    </row>
+    <row r="264" spans="1:28">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -7438,9 +8604,13 @@
       <c r="R264" s="1"/>
       <c r="S264" s="1"/>
       <c r="T264" s="1"/>
+      <c r="U264" s="1"/>
+      <c r="V264" s="1"/>
       <c r="W264" s="1"/>
-    </row>
-    <row r="265" spans="1:23">
+      <c r="X264" s="1"/>
+      <c r="AB264" s="1"/>
+    </row>
+    <row r="265" spans="1:28">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -7460,9 +8630,13 @@
       <c r="R265" s="1"/>
       <c r="S265" s="1"/>
       <c r="T265" s="1"/>
+      <c r="U265" s="1"/>
+      <c r="V265" s="1"/>
       <c r="W265" s="1"/>
-    </row>
-    <row r="266" spans="1:23">
+      <c r="X265" s="1"/>
+      <c r="AB265" s="1"/>
+    </row>
+    <row r="266" spans="1:28">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -7482,9 +8656,13 @@
       <c r="R266" s="1"/>
       <c r="S266" s="1"/>
       <c r="T266" s="1"/>
+      <c r="U266" s="1"/>
+      <c r="V266" s="1"/>
       <c r="W266" s="1"/>
-    </row>
-    <row r="267" spans="1:23">
+      <c r="X266" s="1"/>
+      <c r="AB266" s="1"/>
+    </row>
+    <row r="267" spans="1:28">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -7504,9 +8682,13 @@
       <c r="R267" s="1"/>
       <c r="S267" s="1"/>
       <c r="T267" s="1"/>
+      <c r="U267" s="1"/>
+      <c r="V267" s="1"/>
       <c r="W267" s="1"/>
-    </row>
-    <row r="268" spans="1:23">
+      <c r="X267" s="1"/>
+      <c r="AB267" s="1"/>
+    </row>
+    <row r="268" spans="1:28">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -7526,9 +8708,13 @@
       <c r="R268" s="1"/>
       <c r="S268" s="1"/>
       <c r="T268" s="1"/>
+      <c r="U268" s="1"/>
+      <c r="V268" s="1"/>
       <c r="W268" s="1"/>
-    </row>
-    <row r="269" spans="1:23">
+      <c r="X268" s="1"/>
+      <c r="AB268" s="1"/>
+    </row>
+    <row r="269" spans="1:28">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -7548,9 +8734,13 @@
       <c r="R269" s="1"/>
       <c r="S269" s="1"/>
       <c r="T269" s="1"/>
+      <c r="U269" s="1"/>
+      <c r="V269" s="1"/>
       <c r="W269" s="1"/>
-    </row>
-    <row r="270" spans="1:23">
+      <c r="X269" s="1"/>
+      <c r="AB269" s="1"/>
+    </row>
+    <row r="270" spans="1:28">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -7570,9 +8760,13 @@
       <c r="R270" s="1"/>
       <c r="S270" s="1"/>
       <c r="T270" s="1"/>
+      <c r="U270" s="1"/>
+      <c r="V270" s="1"/>
       <c r="W270" s="1"/>
-    </row>
-    <row r="271" spans="1:23">
+      <c r="X270" s="1"/>
+      <c r="AB270" s="1"/>
+    </row>
+    <row r="271" spans="1:28">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -7592,9 +8786,13 @@
       <c r="R271" s="1"/>
       <c r="S271" s="1"/>
       <c r="T271" s="1"/>
+      <c r="U271" s="1"/>
+      <c r="V271" s="1"/>
       <c r="W271" s="1"/>
-    </row>
-    <row r="272" spans="1:23">
+      <c r="X271" s="1"/>
+      <c r="AB271" s="1"/>
+    </row>
+    <row r="272" spans="1:28">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -7614,9 +8812,13 @@
       <c r="R272" s="1"/>
       <c r="S272" s="1"/>
       <c r="T272" s="1"/>
+      <c r="U272" s="1"/>
+      <c r="V272" s="1"/>
       <c r="W272" s="1"/>
-    </row>
-    <row r="273" spans="1:23">
+      <c r="X272" s="1"/>
+      <c r="AB272" s="1"/>
+    </row>
+    <row r="273" spans="1:28">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -7636,9 +8838,13 @@
       <c r="R273" s="1"/>
       <c r="S273" s="1"/>
       <c r="T273" s="1"/>
+      <c r="U273" s="1"/>
+      <c r="V273" s="1"/>
       <c r="W273" s="1"/>
-    </row>
-    <row r="274" spans="1:23">
+      <c r="X273" s="1"/>
+      <c r="AB273" s="1"/>
+    </row>
+    <row r="274" spans="1:28">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -7658,9 +8864,13 @@
       <c r="R274" s="1"/>
       <c r="S274" s="1"/>
       <c r="T274" s="1"/>
+      <c r="U274" s="1"/>
+      <c r="V274" s="1"/>
       <c r="W274" s="1"/>
-    </row>
-    <row r="275" spans="1:23">
+      <c r="X274" s="1"/>
+      <c r="AB274" s="1"/>
+    </row>
+    <row r="275" spans="1:28">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -7680,9 +8890,13 @@
       <c r="R275" s="1"/>
       <c r="S275" s="1"/>
       <c r="T275" s="1"/>
+      <c r="U275" s="1"/>
+      <c r="V275" s="1"/>
       <c r="W275" s="1"/>
-    </row>
-    <row r="276" spans="1:23">
+      <c r="X275" s="1"/>
+      <c r="AB275" s="1"/>
+    </row>
+    <row r="276" spans="1:28">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -7702,9 +8916,13 @@
       <c r="R276" s="1"/>
       <c r="S276" s="1"/>
       <c r="T276" s="1"/>
+      <c r="U276" s="1"/>
+      <c r="V276" s="1"/>
       <c r="W276" s="1"/>
-    </row>
-    <row r="277" spans="1:23">
+      <c r="X276" s="1"/>
+      <c r="AB276" s="1"/>
+    </row>
+    <row r="277" spans="1:28">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -7724,9 +8942,13 @@
       <c r="R277" s="1"/>
       <c r="S277" s="1"/>
       <c r="T277" s="1"/>
+      <c r="U277" s="1"/>
+      <c r="V277" s="1"/>
       <c r="W277" s="1"/>
-    </row>
-    <row r="278" spans="1:23">
+      <c r="X277" s="1"/>
+      <c r="AB277" s="1"/>
+    </row>
+    <row r="278" spans="1:28">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -7746,9 +8968,13 @@
       <c r="R278" s="1"/>
       <c r="S278" s="1"/>
       <c r="T278" s="1"/>
+      <c r="U278" s="1"/>
+      <c r="V278" s="1"/>
       <c r="W278" s="1"/>
-    </row>
-    <row r="279" spans="1:23">
+      <c r="X278" s="1"/>
+      <c r="AB278" s="1"/>
+    </row>
+    <row r="279" spans="1:28">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -7768,9 +8994,13 @@
       <c r="R279" s="1"/>
       <c r="S279" s="1"/>
       <c r="T279" s="1"/>
+      <c r="U279" s="1"/>
+      <c r="V279" s="1"/>
       <c r="W279" s="1"/>
-    </row>
-    <row r="280" spans="1:23">
+      <c r="X279" s="1"/>
+      <c r="AB279" s="1"/>
+    </row>
+    <row r="280" spans="1:28">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -7790,9 +9020,13 @@
       <c r="R280" s="1"/>
       <c r="S280" s="1"/>
       <c r="T280" s="1"/>
+      <c r="U280" s="1"/>
+      <c r="V280" s="1"/>
       <c r="W280" s="1"/>
-    </row>
-    <row r="281" spans="1:23">
+      <c r="X280" s="1"/>
+      <c r="AB280" s="1"/>
+    </row>
+    <row r="281" spans="1:28">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -7812,9 +9046,13 @@
       <c r="R281" s="1"/>
       <c r="S281" s="1"/>
       <c r="T281" s="1"/>
+      <c r="U281" s="1"/>
+      <c r="V281" s="1"/>
       <c r="W281" s="1"/>
-    </row>
-    <row r="282" spans="1:23">
+      <c r="X281" s="1"/>
+      <c r="AB281" s="1"/>
+    </row>
+    <row r="282" spans="1:28">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -7834,9 +9072,13 @@
       <c r="R282" s="1"/>
       <c r="S282" s="1"/>
       <c r="T282" s="1"/>
+      <c r="U282" s="1"/>
+      <c r="V282" s="1"/>
       <c r="W282" s="1"/>
-    </row>
-    <row r="283" spans="1:23">
+      <c r="X282" s="1"/>
+      <c r="AB282" s="1"/>
+    </row>
+    <row r="283" spans="1:28">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -7856,9 +9098,13 @@
       <c r="R283" s="1"/>
       <c r="S283" s="1"/>
       <c r="T283" s="1"/>
+      <c r="U283" s="1"/>
+      <c r="V283" s="1"/>
       <c r="W283" s="1"/>
-    </row>
-    <row r="284" spans="1:23">
+      <c r="X283" s="1"/>
+      <c r="AB283" s="1"/>
+    </row>
+    <row r="284" spans="1:28">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -7878,9 +9124,13 @@
       <c r="R284" s="1"/>
       <c r="S284" s="1"/>
       <c r="T284" s="1"/>
+      <c r="U284" s="1"/>
+      <c r="V284" s="1"/>
       <c r="W284" s="1"/>
-    </row>
-    <row r="285" spans="1:23">
+      <c r="X284" s="1"/>
+      <c r="AB284" s="1"/>
+    </row>
+    <row r="285" spans="1:28">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -7900,9 +9150,13 @@
       <c r="R285" s="1"/>
       <c r="S285" s="1"/>
       <c r="T285" s="1"/>
+      <c r="U285" s="1"/>
+      <c r="V285" s="1"/>
       <c r="W285" s="1"/>
-    </row>
-    <row r="286" spans="1:23">
+      <c r="X285" s="1"/>
+      <c r="AB285" s="1"/>
+    </row>
+    <row r="286" spans="1:28">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -7922,9 +9176,13 @@
       <c r="R286" s="1"/>
       <c r="S286" s="1"/>
       <c r="T286" s="1"/>
+      <c r="U286" s="1"/>
+      <c r="V286" s="1"/>
       <c r="W286" s="1"/>
-    </row>
-    <row r="287" spans="1:23">
+      <c r="X286" s="1"/>
+      <c r="AB286" s="1"/>
+    </row>
+    <row r="287" spans="1:28">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -7944,9 +9202,13 @@
       <c r="R287" s="1"/>
       <c r="S287" s="1"/>
       <c r="T287" s="1"/>
+      <c r="U287" s="1"/>
+      <c r="V287" s="1"/>
       <c r="W287" s="1"/>
-    </row>
-    <row r="288" spans="1:23">
+      <c r="X287" s="1"/>
+      <c r="AB287" s="1"/>
+    </row>
+    <row r="288" spans="1:28">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -7966,9 +9228,13 @@
       <c r="R288" s="1"/>
       <c r="S288" s="1"/>
       <c r="T288" s="1"/>
+      <c r="U288" s="1"/>
+      <c r="V288" s="1"/>
       <c r="W288" s="1"/>
-    </row>
-    <row r="289" spans="1:23">
+      <c r="X288" s="1"/>
+      <c r="AB288" s="1"/>
+    </row>
+    <row r="289" spans="1:28">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -7988,9 +9254,13 @@
       <c r="R289" s="1"/>
       <c r="S289" s="1"/>
       <c r="T289" s="1"/>
+      <c r="U289" s="1"/>
+      <c r="V289" s="1"/>
       <c r="W289" s="1"/>
-    </row>
-    <row r="290" spans="1:23">
+      <c r="X289" s="1"/>
+      <c r="AB289" s="1"/>
+    </row>
+    <row r="290" spans="1:28">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -8010,9 +9280,13 @@
       <c r="R290" s="1"/>
       <c r="S290" s="1"/>
       <c r="T290" s="1"/>
+      <c r="U290" s="1"/>
+      <c r="V290" s="1"/>
       <c r="W290" s="1"/>
-    </row>
-    <row r="291" spans="1:23">
+      <c r="X290" s="1"/>
+      <c r="AB290" s="1"/>
+    </row>
+    <row r="291" spans="1:28">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -8032,9 +9306,13 @@
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
       <c r="T291" s="1"/>
+      <c r="U291" s="1"/>
+      <c r="V291" s="1"/>
       <c r="W291" s="1"/>
-    </row>
-    <row r="292" spans="1:23">
+      <c r="X291" s="1"/>
+      <c r="AB291" s="1"/>
+    </row>
+    <row r="292" spans="1:28">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -8054,9 +9332,13 @@
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
       <c r="T292" s="1"/>
+      <c r="U292" s="1"/>
+      <c r="V292" s="1"/>
       <c r="W292" s="1"/>
-    </row>
-    <row r="293" spans="1:23">
+      <c r="X292" s="1"/>
+      <c r="AB292" s="1"/>
+    </row>
+    <row r="293" spans="1:28">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -8076,9 +9358,13 @@
       <c r="R293" s="1"/>
       <c r="S293" s="1"/>
       <c r="T293" s="1"/>
+      <c r="U293" s="1"/>
+      <c r="V293" s="1"/>
       <c r="W293" s="1"/>
-    </row>
-    <row r="294" spans="1:23">
+      <c r="X293" s="1"/>
+      <c r="AB293" s="1"/>
+    </row>
+    <row r="294" spans="1:28">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -8098,9 +9384,13 @@
       <c r="R294" s="1"/>
       <c r="S294" s="1"/>
       <c r="T294" s="1"/>
+      <c r="U294" s="1"/>
+      <c r="V294" s="1"/>
       <c r="W294" s="1"/>
-    </row>
-    <row r="295" spans="1:23">
+      <c r="X294" s="1"/>
+      <c r="AB294" s="1"/>
+    </row>
+    <row r="295" spans="1:28">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -8120,9 +9410,13 @@
       <c r="R295" s="1"/>
       <c r="S295" s="1"/>
       <c r="T295" s="1"/>
+      <c r="U295" s="1"/>
+      <c r="V295" s="1"/>
       <c r="W295" s="1"/>
-    </row>
-    <row r="296" spans="1:23">
+      <c r="X295" s="1"/>
+      <c r="AB295" s="1"/>
+    </row>
+    <row r="296" spans="1:28">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -8142,9 +9436,13 @@
       <c r="R296" s="1"/>
       <c r="S296" s="1"/>
       <c r="T296" s="1"/>
+      <c r="U296" s="1"/>
+      <c r="V296" s="1"/>
       <c r="W296" s="1"/>
-    </row>
-    <row r="297" spans="1:23">
+      <c r="X296" s="1"/>
+      <c r="AB296" s="1"/>
+    </row>
+    <row r="297" spans="1:28">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -8164,9 +9462,13 @@
       <c r="R297" s="1"/>
       <c r="S297" s="1"/>
       <c r="T297" s="1"/>
+      <c r="U297" s="1"/>
+      <c r="V297" s="1"/>
       <c r="W297" s="1"/>
-    </row>
-    <row r="298" spans="1:23">
+      <c r="X297" s="1"/>
+      <c r="AB297" s="1"/>
+    </row>
+    <row r="298" spans="1:28">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -8186,9 +9488,13 @@
       <c r="R298" s="1"/>
       <c r="S298" s="1"/>
       <c r="T298" s="1"/>
+      <c r="U298" s="1"/>
+      <c r="V298" s="1"/>
       <c r="W298" s="1"/>
-    </row>
-    <row r="299" spans="1:23">
+      <c r="X298" s="1"/>
+      <c r="AB298" s="1"/>
+    </row>
+    <row r="299" spans="1:28">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -8208,9 +9514,13 @@
       <c r="R299" s="1"/>
       <c r="S299" s="1"/>
       <c r="T299" s="1"/>
+      <c r="U299" s="1"/>
+      <c r="V299" s="1"/>
       <c r="W299" s="1"/>
-    </row>
-    <row r="300" spans="1:23">
+      <c r="X299" s="1"/>
+      <c r="AB299" s="1"/>
+    </row>
+    <row r="300" spans="1:28">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -8230,9 +9540,13 @@
       <c r="R300" s="1"/>
       <c r="S300" s="1"/>
       <c r="T300" s="1"/>
+      <c r="U300" s="1"/>
+      <c r="V300" s="1"/>
       <c r="W300" s="1"/>
-    </row>
-    <row r="301" spans="1:23">
+      <c r="X300" s="1"/>
+      <c r="AB300" s="1"/>
+    </row>
+    <row r="301" spans="1:28">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -8252,9 +9566,13 @@
       <c r="R301" s="1"/>
       <c r="S301" s="1"/>
       <c r="T301" s="1"/>
+      <c r="U301" s="1"/>
+      <c r="V301" s="1"/>
       <c r="W301" s="1"/>
-    </row>
-    <row r="302" spans="1:23">
+      <c r="X301" s="1"/>
+      <c r="AB301" s="1"/>
+    </row>
+    <row r="302" spans="1:28">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -8274,9 +9592,13 @@
       <c r="R302" s="1"/>
       <c r="S302" s="1"/>
       <c r="T302" s="1"/>
+      <c r="U302" s="1"/>
+      <c r="V302" s="1"/>
       <c r="W302" s="1"/>
-    </row>
-    <row r="303" spans="1:23">
+      <c r="X302" s="1"/>
+      <c r="AB302" s="1"/>
+    </row>
+    <row r="303" spans="1:28">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -8296,9 +9618,13 @@
       <c r="R303" s="1"/>
       <c r="S303" s="1"/>
       <c r="T303" s="1"/>
+      <c r="U303" s="1"/>
+      <c r="V303" s="1"/>
       <c r="W303" s="1"/>
-    </row>
-    <row r="304" spans="1:23">
+      <c r="X303" s="1"/>
+      <c r="AB303" s="1"/>
+    </row>
+    <row r="304" spans="1:28">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -8318,9 +9644,13 @@
       <c r="R304" s="1"/>
       <c r="S304" s="1"/>
       <c r="T304" s="1"/>
+      <c r="U304" s="1"/>
+      <c r="V304" s="1"/>
       <c r="W304" s="1"/>
-    </row>
-    <row r="305" spans="1:23">
+      <c r="X304" s="1"/>
+      <c r="AB304" s="1"/>
+    </row>
+    <row r="305" spans="1:28">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -8340,9 +9670,13 @@
       <c r="R305" s="1"/>
       <c r="S305" s="1"/>
       <c r="T305" s="1"/>
+      <c r="U305" s="1"/>
+      <c r="V305" s="1"/>
       <c r="W305" s="1"/>
-    </row>
-    <row r="306" spans="1:23">
+      <c r="X305" s="1"/>
+      <c r="AB305" s="1"/>
+    </row>
+    <row r="306" spans="1:28">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -8362,9 +9696,13 @@
       <c r="R306" s="1"/>
       <c r="S306" s="1"/>
       <c r="T306" s="1"/>
+      <c r="U306" s="1"/>
+      <c r="V306" s="1"/>
       <c r="W306" s="1"/>
-    </row>
-    <row r="307" spans="1:23">
+      <c r="X306" s="1"/>
+      <c r="AB306" s="1"/>
+    </row>
+    <row r="307" spans="1:28">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -8384,9 +9722,13 @@
       <c r="R307" s="1"/>
       <c r="S307" s="1"/>
       <c r="T307" s="1"/>
+      <c r="U307" s="1"/>
+      <c r="V307" s="1"/>
       <c r="W307" s="1"/>
-    </row>
-    <row r="308" spans="1:23">
+      <c r="X307" s="1"/>
+      <c r="AB307" s="1"/>
+    </row>
+    <row r="308" spans="1:28">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -8406,9 +9748,13 @@
       <c r="R308" s="1"/>
       <c r="S308" s="1"/>
       <c r="T308" s="1"/>
+      <c r="U308" s="1"/>
+      <c r="V308" s="1"/>
       <c r="W308" s="1"/>
-    </row>
-    <row r="309" spans="1:23">
+      <c r="X308" s="1"/>
+      <c r="AB308" s="1"/>
+    </row>
+    <row r="309" spans="1:28">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -8428,9 +9774,13 @@
       <c r="R309" s="1"/>
       <c r="S309" s="1"/>
       <c r="T309" s="1"/>
+      <c r="U309" s="1"/>
+      <c r="V309" s="1"/>
       <c r="W309" s="1"/>
-    </row>
-    <row r="310" spans="1:23">
+      <c r="X309" s="1"/>
+      <c r="AB309" s="1"/>
+    </row>
+    <row r="310" spans="1:28">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -8450,9 +9800,13 @@
       <c r="R310" s="1"/>
       <c r="S310" s="1"/>
       <c r="T310" s="1"/>
+      <c r="U310" s="1"/>
+      <c r="V310" s="1"/>
       <c r="W310" s="1"/>
-    </row>
-    <row r="311" spans="1:23">
+      <c r="X310" s="1"/>
+      <c r="AB310" s="1"/>
+    </row>
+    <row r="311" spans="1:28">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -8472,9 +9826,13 @@
       <c r="R311" s="1"/>
       <c r="S311" s="1"/>
       <c r="T311" s="1"/>
+      <c r="U311" s="1"/>
+      <c r="V311" s="1"/>
       <c r="W311" s="1"/>
-    </row>
-    <row r="312" spans="1:23">
+      <c r="X311" s="1"/>
+      <c r="AB311" s="1"/>
+    </row>
+    <row r="312" spans="1:28">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -8494,9 +9852,13 @@
       <c r="R312" s="1"/>
       <c r="S312" s="1"/>
       <c r="T312" s="1"/>
+      <c r="U312" s="1"/>
+      <c r="V312" s="1"/>
       <c r="W312" s="1"/>
-    </row>
-    <row r="313" spans="1:23">
+      <c r="X312" s="1"/>
+      <c r="AB312" s="1"/>
+    </row>
+    <row r="313" spans="1:28">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -8516,9 +9878,13 @@
       <c r="R313" s="1"/>
       <c r="S313" s="1"/>
       <c r="T313" s="1"/>
+      <c r="U313" s="1"/>
+      <c r="V313" s="1"/>
       <c r="W313" s="1"/>
-    </row>
-    <row r="314" spans="1:23">
+      <c r="X313" s="1"/>
+      <c r="AB313" s="1"/>
+    </row>
+    <row r="314" spans="1:28">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -8538,9 +9904,13 @@
       <c r="R314" s="1"/>
       <c r="S314" s="1"/>
       <c r="T314" s="1"/>
+      <c r="U314" s="1"/>
+      <c r="V314" s="1"/>
       <c r="W314" s="1"/>
-    </row>
-    <row r="315" spans="1:23">
+      <c r="X314" s="1"/>
+      <c r="AB314" s="1"/>
+    </row>
+    <row r="315" spans="1:28">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -8560,9 +9930,13 @@
       <c r="R315" s="1"/>
       <c r="S315" s="1"/>
       <c r="T315" s="1"/>
+      <c r="U315" s="1"/>
+      <c r="V315" s="1"/>
       <c r="W315" s="1"/>
-    </row>
-    <row r="316" spans="1:23">
+      <c r="X315" s="1"/>
+      <c r="AB315" s="1"/>
+    </row>
+    <row r="316" spans="1:28">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -8582,9 +9956,13 @@
       <c r="R316" s="1"/>
       <c r="S316" s="1"/>
       <c r="T316" s="1"/>
+      <c r="U316" s="1"/>
+      <c r="V316" s="1"/>
       <c r="W316" s="1"/>
-    </row>
-    <row r="317" spans="1:23">
+      <c r="X316" s="1"/>
+      <c r="AB316" s="1"/>
+    </row>
+    <row r="317" spans="1:28">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -8604,9 +9982,13 @@
       <c r="R317" s="1"/>
       <c r="S317" s="1"/>
       <c r="T317" s="1"/>
+      <c r="U317" s="1"/>
+      <c r="V317" s="1"/>
       <c r="W317" s="1"/>
-    </row>
-    <row r="318" spans="1:23">
+      <c r="X317" s="1"/>
+      <c r="AB317" s="1"/>
+    </row>
+    <row r="318" spans="1:28">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -8626,9 +10008,13 @@
       <c r="R318" s="1"/>
       <c r="S318" s="1"/>
       <c r="T318" s="1"/>
+      <c r="U318" s="1"/>
+      <c r="V318" s="1"/>
       <c r="W318" s="1"/>
-    </row>
-    <row r="319" spans="1:23">
+      <c r="X318" s="1"/>
+      <c r="AB318" s="1"/>
+    </row>
+    <row r="319" spans="1:28">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -8648,9 +10034,13 @@
       <c r="R319" s="1"/>
       <c r="S319" s="1"/>
       <c r="T319" s="1"/>
+      <c r="U319" s="1"/>
+      <c r="V319" s="1"/>
       <c r="W319" s="1"/>
-    </row>
-    <row r="320" spans="1:23">
+      <c r="X319" s="1"/>
+      <c r="AB319" s="1"/>
+    </row>
+    <row r="320" spans="1:28">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -8670,9 +10060,13 @@
       <c r="R320" s="1"/>
       <c r="S320" s="1"/>
       <c r="T320" s="1"/>
+      <c r="U320" s="1"/>
+      <c r="V320" s="1"/>
       <c r="W320" s="1"/>
-    </row>
-    <row r="321" spans="1:23">
+      <c r="X320" s="1"/>
+      <c r="AB320" s="1"/>
+    </row>
+    <row r="321" spans="1:28">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -8692,9 +10086,13 @@
       <c r="R321" s="1"/>
       <c r="S321" s="1"/>
       <c r="T321" s="1"/>
+      <c r="U321" s="1"/>
+      <c r="V321" s="1"/>
       <c r="W321" s="1"/>
-    </row>
-    <row r="322" spans="1:23">
+      <c r="X321" s="1"/>
+      <c r="AB321" s="1"/>
+    </row>
+    <row r="322" spans="1:28">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -8714,9 +10112,13 @@
       <c r="R322" s="1"/>
       <c r="S322" s="1"/>
       <c r="T322" s="1"/>
+      <c r="U322" s="1"/>
+      <c r="V322" s="1"/>
       <c r="W322" s="1"/>
-    </row>
-    <row r="323" spans="1:23">
+      <c r="X322" s="1"/>
+      <c r="AB322" s="1"/>
+    </row>
+    <row r="323" spans="1:28">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -8736,9 +10138,13 @@
       <c r="R323" s="1"/>
       <c r="S323" s="1"/>
       <c r="T323" s="1"/>
+      <c r="U323" s="1"/>
+      <c r="V323" s="1"/>
       <c r="W323" s="1"/>
-    </row>
-    <row r="324" spans="1:23">
+      <c r="X323" s="1"/>
+      <c r="AB323" s="1"/>
+    </row>
+    <row r="324" spans="1:28">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -8758,9 +10164,13 @@
       <c r="R324" s="1"/>
       <c r="S324" s="1"/>
       <c r="T324" s="1"/>
+      <c r="U324" s="1"/>
+      <c r="V324" s="1"/>
       <c r="W324" s="1"/>
-    </row>
-    <row r="325" spans="1:23">
+      <c r="X324" s="1"/>
+      <c r="AB324" s="1"/>
+    </row>
+    <row r="325" spans="1:28">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -8780,9 +10190,13 @@
       <c r="R325" s="1"/>
       <c r="S325" s="1"/>
       <c r="T325" s="1"/>
+      <c r="U325" s="1"/>
+      <c r="V325" s="1"/>
       <c r="W325" s="1"/>
-    </row>
-    <row r="326" spans="1:23">
+      <c r="X325" s="1"/>
+      <c r="AB325" s="1"/>
+    </row>
+    <row r="326" spans="1:28">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -8802,9 +10216,13 @@
       <c r="R326" s="1"/>
       <c r="S326" s="1"/>
       <c r="T326" s="1"/>
+      <c r="U326" s="1"/>
+      <c r="V326" s="1"/>
       <c r="W326" s="1"/>
-    </row>
-    <row r="327" spans="1:23">
+      <c r="X326" s="1"/>
+      <c r="AB326" s="1"/>
+    </row>
+    <row r="327" spans="1:28">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -8824,9 +10242,13 @@
       <c r="R327" s="1"/>
       <c r="S327" s="1"/>
       <c r="T327" s="1"/>
+      <c r="U327" s="1"/>
+      <c r="V327" s="1"/>
       <c r="W327" s="1"/>
-    </row>
-    <row r="328" spans="1:23">
+      <c r="X327" s="1"/>
+      <c r="AB327" s="1"/>
+    </row>
+    <row r="328" spans="1:28">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -8846,9 +10268,13 @@
       <c r="R328" s="1"/>
       <c r="S328" s="1"/>
       <c r="T328" s="1"/>
+      <c r="U328" s="1"/>
+      <c r="V328" s="1"/>
       <c r="W328" s="1"/>
-    </row>
-    <row r="329" spans="1:23">
+      <c r="X328" s="1"/>
+      <c r="AB328" s="1"/>
+    </row>
+    <row r="329" spans="1:28">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -8868,9 +10294,13 @@
       <c r="R329" s="1"/>
       <c r="S329" s="1"/>
       <c r="T329" s="1"/>
+      <c r="U329" s="1"/>
+      <c r="V329" s="1"/>
       <c r="W329" s="1"/>
-    </row>
-    <row r="330" spans="1:23">
+      <c r="X329" s="1"/>
+      <c r="AB329" s="1"/>
+    </row>
+    <row r="330" spans="1:28">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -8890,9 +10320,13 @@
       <c r="R330" s="1"/>
       <c r="S330" s="1"/>
       <c r="T330" s="1"/>
+      <c r="U330" s="1"/>
+      <c r="V330" s="1"/>
       <c r="W330" s="1"/>
-    </row>
-    <row r="331" spans="1:23">
+      <c r="X330" s="1"/>
+      <c r="AB330" s="1"/>
+    </row>
+    <row r="331" spans="1:28">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -8912,9 +10346,13 @@
       <c r="R331" s="1"/>
       <c r="S331" s="1"/>
       <c r="T331" s="1"/>
+      <c r="U331" s="1"/>
+      <c r="V331" s="1"/>
       <c r="W331" s="1"/>
-    </row>
-    <row r="332" spans="1:23">
+      <c r="X331" s="1"/>
+      <c r="AB331" s="1"/>
+    </row>
+    <row r="332" spans="1:28">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -8934,9 +10372,13 @@
       <c r="R332" s="1"/>
       <c r="S332" s="1"/>
       <c r="T332" s="1"/>
+      <c r="U332" s="1"/>
+      <c r="V332" s="1"/>
       <c r="W332" s="1"/>
-    </row>
-    <row r="333" spans="1:23">
+      <c r="X332" s="1"/>
+      <c r="AB332" s="1"/>
+    </row>
+    <row r="333" spans="1:28">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -8956,9 +10398,13 @@
       <c r="R333" s="1"/>
       <c r="S333" s="1"/>
       <c r="T333" s="1"/>
+      <c r="U333" s="1"/>
+      <c r="V333" s="1"/>
       <c r="W333" s="1"/>
-    </row>
-    <row r="334" spans="1:23">
+      <c r="X333" s="1"/>
+      <c r="AB333" s="1"/>
+    </row>
+    <row r="334" spans="1:28">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -8978,9 +10424,13 @@
       <c r="R334" s="1"/>
       <c r="S334" s="1"/>
       <c r="T334" s="1"/>
+      <c r="U334" s="1"/>
+      <c r="V334" s="1"/>
       <c r="W334" s="1"/>
-    </row>
-    <row r="335" spans="1:23">
+      <c r="X334" s="1"/>
+      <c r="AB334" s="1"/>
+    </row>
+    <row r="335" spans="1:28">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -9000,9 +10450,13 @@
       <c r="R335" s="1"/>
       <c r="S335" s="1"/>
       <c r="T335" s="1"/>
+      <c r="U335" s="1"/>
+      <c r="V335" s="1"/>
       <c r="W335" s="1"/>
-    </row>
-    <row r="336" spans="1:23">
+      <c r="X335" s="1"/>
+      <c r="AB335" s="1"/>
+    </row>
+    <row r="336" spans="1:28">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -9022,9 +10476,13 @@
       <c r="R336" s="1"/>
       <c r="S336" s="1"/>
       <c r="T336" s="1"/>
+      <c r="U336" s="1"/>
+      <c r="V336" s="1"/>
       <c r="W336" s="1"/>
-    </row>
-    <row r="337" spans="1:23">
+      <c r="X336" s="1"/>
+      <c r="AB336" s="1"/>
+    </row>
+    <row r="337" spans="1:28">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -9044,9 +10502,13 @@
       <c r="R337" s="1"/>
       <c r="S337" s="1"/>
       <c r="T337" s="1"/>
+      <c r="U337" s="1"/>
+      <c r="V337" s="1"/>
       <c r="W337" s="1"/>
-    </row>
-    <row r="338" spans="1:23">
+      <c r="X337" s="1"/>
+      <c r="AB337" s="1"/>
+    </row>
+    <row r="338" spans="1:28">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -9066,9 +10528,13 @@
       <c r="R338" s="1"/>
       <c r="S338" s="1"/>
       <c r="T338" s="1"/>
+      <c r="U338" s="1"/>
+      <c r="V338" s="1"/>
       <c r="W338" s="1"/>
-    </row>
-    <row r="339" spans="1:23">
+      <c r="X338" s="1"/>
+      <c r="AB338" s="1"/>
+    </row>
+    <row r="339" spans="1:28">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -9088,9 +10554,13 @@
       <c r="R339" s="1"/>
       <c r="S339" s="1"/>
       <c r="T339" s="1"/>
+      <c r="U339" s="1"/>
+      <c r="V339" s="1"/>
       <c r="W339" s="1"/>
-    </row>
-    <row r="340" spans="1:23">
+      <c r="X339" s="1"/>
+      <c r="AB339" s="1"/>
+    </row>
+    <row r="340" spans="1:28">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -9110,9 +10580,13 @@
       <c r="R340" s="1"/>
       <c r="S340" s="1"/>
       <c r="T340" s="1"/>
+      <c r="U340" s="1"/>
+      <c r="V340" s="1"/>
       <c r="W340" s="1"/>
-    </row>
-    <row r="341" spans="1:23">
+      <c r="X340" s="1"/>
+      <c r="AB340" s="1"/>
+    </row>
+    <row r="341" spans="1:28">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -9132,9 +10606,13 @@
       <c r="R341" s="1"/>
       <c r="S341" s="1"/>
       <c r="T341" s="1"/>
+      <c r="U341" s="1"/>
+      <c r="V341" s="1"/>
       <c r="W341" s="1"/>
-    </row>
-    <row r="342" spans="1:23">
+      <c r="X341" s="1"/>
+      <c r="AB341" s="1"/>
+    </row>
+    <row r="342" spans="1:28">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -9154,9 +10632,13 @@
       <c r="R342" s="1"/>
       <c r="S342" s="1"/>
       <c r="T342" s="1"/>
+      <c r="U342" s="1"/>
+      <c r="V342" s="1"/>
       <c r="W342" s="1"/>
-    </row>
-    <row r="343" spans="1:23">
+      <c r="X342" s="1"/>
+      <c r="AB342" s="1"/>
+    </row>
+    <row r="343" spans="1:28">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -9176,9 +10658,13 @@
       <c r="R343" s="1"/>
       <c r="S343" s="1"/>
       <c r="T343" s="1"/>
+      <c r="U343" s="1"/>
+      <c r="V343" s="1"/>
       <c r="W343" s="1"/>
-    </row>
-    <row r="344" spans="1:23">
+      <c r="X343" s="1"/>
+      <c r="AB343" s="1"/>
+    </row>
+    <row r="344" spans="1:28">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -9198,9 +10684,13 @@
       <c r="R344" s="1"/>
       <c r="S344" s="1"/>
       <c r="T344" s="1"/>
+      <c r="U344" s="1"/>
+      <c r="V344" s="1"/>
       <c r="W344" s="1"/>
-    </row>
-    <row r="345" spans="1:23">
+      <c r="X344" s="1"/>
+      <c r="AB344" s="1"/>
+    </row>
+    <row r="345" spans="1:28">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -9220,9 +10710,13 @@
       <c r="R345" s="1"/>
       <c r="S345" s="1"/>
       <c r="T345" s="1"/>
+      <c r="U345" s="1"/>
+      <c r="V345" s="1"/>
       <c r="W345" s="1"/>
-    </row>
-    <row r="346" spans="1:23">
+      <c r="X345" s="1"/>
+      <c r="AB345" s="1"/>
+    </row>
+    <row r="346" spans="1:28">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -9242,9 +10736,13 @@
       <c r="R346" s="1"/>
       <c r="S346" s="1"/>
       <c r="T346" s="1"/>
+      <c r="U346" s="1"/>
+      <c r="V346" s="1"/>
       <c r="W346" s="1"/>
-    </row>
-    <row r="347" spans="1:23">
+      <c r="X346" s="1"/>
+      <c r="AB346" s="1"/>
+    </row>
+    <row r="347" spans="1:28">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -9264,9 +10762,13 @@
       <c r="R347" s="1"/>
       <c r="S347" s="1"/>
       <c r="T347" s="1"/>
+      <c r="U347" s="1"/>
+      <c r="V347" s="1"/>
       <c r="W347" s="1"/>
-    </row>
-    <row r="348" spans="1:23">
+      <c r="X347" s="1"/>
+      <c r="AB347" s="1"/>
+    </row>
+    <row r="348" spans="1:28">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -9286,9 +10788,13 @@
       <c r="R348" s="1"/>
       <c r="S348" s="1"/>
       <c r="T348" s="1"/>
+      <c r="U348" s="1"/>
+      <c r="V348" s="1"/>
       <c r="W348" s="1"/>
-    </row>
-    <row r="349" spans="1:23">
+      <c r="X348" s="1"/>
+      <c r="AB348" s="1"/>
+    </row>
+    <row r="349" spans="1:28">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -9308,9 +10814,13 @@
       <c r="R349" s="1"/>
       <c r="S349" s="1"/>
       <c r="T349" s="1"/>
+      <c r="U349" s="1"/>
+      <c r="V349" s="1"/>
       <c r="W349" s="1"/>
-    </row>
-    <row r="350" spans="1:23">
+      <c r="X349" s="1"/>
+      <c r="AB349" s="1"/>
+    </row>
+    <row r="350" spans="1:28">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -9330,9 +10840,13 @@
       <c r="R350" s="1"/>
       <c r="S350" s="1"/>
       <c r="T350" s="1"/>
+      <c r="U350" s="1"/>
+      <c r="V350" s="1"/>
       <c r="W350" s="1"/>
-    </row>
-    <row r="351" spans="1:23">
+      <c r="X350" s="1"/>
+      <c r="AB350" s="1"/>
+    </row>
+    <row r="351" spans="1:28">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -9352,9 +10866,13 @@
       <c r="R351" s="1"/>
       <c r="S351" s="1"/>
       <c r="T351" s="1"/>
+      <c r="U351" s="1"/>
+      <c r="V351" s="1"/>
       <c r="W351" s="1"/>
-    </row>
-    <row r="352" spans="1:23">
+      <c r="X351" s="1"/>
+      <c r="AB351" s="1"/>
+    </row>
+    <row r="352" spans="1:28">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -9374,9 +10892,13 @@
       <c r="R352" s="1"/>
       <c r="S352" s="1"/>
       <c r="T352" s="1"/>
+      <c r="U352" s="1"/>
+      <c r="V352" s="1"/>
       <c r="W352" s="1"/>
-    </row>
-    <row r="353" spans="1:23">
+      <c r="X352" s="1"/>
+      <c r="AB352" s="1"/>
+    </row>
+    <row r="353" spans="1:28">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -9396,9 +10918,13 @@
       <c r="R353" s="1"/>
       <c r="S353" s="1"/>
       <c r="T353" s="1"/>
+      <c r="U353" s="1"/>
+      <c r="V353" s="1"/>
       <c r="W353" s="1"/>
-    </row>
-    <row r="354" spans="1:23">
+      <c r="X353" s="1"/>
+      <c r="AB353" s="1"/>
+    </row>
+    <row r="354" spans="1:28">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -9418,9 +10944,13 @@
       <c r="R354" s="1"/>
       <c r="S354" s="1"/>
       <c r="T354" s="1"/>
+      <c r="U354" s="1"/>
+      <c r="V354" s="1"/>
       <c r="W354" s="1"/>
-    </row>
-    <row r="355" spans="1:23">
+      <c r="X354" s="1"/>
+      <c r="AB354" s="1"/>
+    </row>
+    <row r="355" spans="1:28">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -9440,9 +10970,13 @@
       <c r="R355" s="1"/>
       <c r="S355" s="1"/>
       <c r="T355" s="1"/>
+      <c r="U355" s="1"/>
+      <c r="V355" s="1"/>
       <c r="W355" s="1"/>
-    </row>
-    <row r="356" spans="1:23">
+      <c r="X355" s="1"/>
+      <c r="AB355" s="1"/>
+    </row>
+    <row r="356" spans="1:28">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -9462,9 +10996,13 @@
       <c r="R356" s="1"/>
       <c r="S356" s="1"/>
       <c r="T356" s="1"/>
+      <c r="U356" s="1"/>
+      <c r="V356" s="1"/>
       <c r="W356" s="1"/>
-    </row>
-    <row r="357" spans="1:23">
+      <c r="X356" s="1"/>
+      <c r="AB356" s="1"/>
+    </row>
+    <row r="357" spans="1:28">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -9484,9 +11022,13 @@
       <c r="R357" s="1"/>
       <c r="S357" s="1"/>
       <c r="T357" s="1"/>
+      <c r="U357" s="1"/>
+      <c r="V357" s="1"/>
       <c r="W357" s="1"/>
-    </row>
-    <row r="358" spans="1:23">
+      <c r="X357" s="1"/>
+      <c r="AB357" s="1"/>
+    </row>
+    <row r="358" spans="1:28">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -9506,9 +11048,13 @@
       <c r="R358" s="1"/>
       <c r="S358" s="1"/>
       <c r="T358" s="1"/>
+      <c r="U358" s="1"/>
+      <c r="V358" s="1"/>
       <c r="W358" s="1"/>
-    </row>
-    <row r="359" spans="1:23">
+      <c r="X358" s="1"/>
+      <c r="AB358" s="1"/>
+    </row>
+    <row r="359" spans="1:28">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -9528,9 +11074,13 @@
       <c r="R359" s="1"/>
       <c r="S359" s="1"/>
       <c r="T359" s="1"/>
+      <c r="U359" s="1"/>
+      <c r="V359" s="1"/>
       <c r="W359" s="1"/>
-    </row>
-    <row r="360" spans="1:23">
+      <c r="X359" s="1"/>
+      <c r="AB359" s="1"/>
+    </row>
+    <row r="360" spans="1:28">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -9550,9 +11100,13 @@
       <c r="R360" s="1"/>
       <c r="S360" s="1"/>
       <c r="T360" s="1"/>
+      <c r="U360" s="1"/>
+      <c r="V360" s="1"/>
       <c r="W360" s="1"/>
-    </row>
-    <row r="361" spans="1:23">
+      <c r="X360" s="1"/>
+      <c r="AB360" s="1"/>
+    </row>
+    <row r="361" spans="1:28">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -9572,9 +11126,13 @@
       <c r="R361" s="1"/>
       <c r="S361" s="1"/>
       <c r="T361" s="1"/>
+      <c r="U361" s="1"/>
+      <c r="V361" s="1"/>
       <c r="W361" s="1"/>
-    </row>
-    <row r="362" spans="1:23">
+      <c r="X361" s="1"/>
+      <c r="AB361" s="1"/>
+    </row>
+    <row r="362" spans="1:28">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -9594,9 +11152,13 @@
       <c r="R362" s="1"/>
       <c r="S362" s="1"/>
       <c r="T362" s="1"/>
+      <c r="U362" s="1"/>
+      <c r="V362" s="1"/>
       <c r="W362" s="1"/>
-    </row>
-    <row r="363" spans="1:23">
+      <c r="X362" s="1"/>
+      <c r="AB362" s="1"/>
+    </row>
+    <row r="363" spans="1:28">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -9616,9 +11178,13 @@
       <c r="R363" s="1"/>
       <c r="S363" s="1"/>
       <c r="T363" s="1"/>
+      <c r="U363" s="1"/>
+      <c r="V363" s="1"/>
       <c r="W363" s="1"/>
-    </row>
-    <row r="364" spans="1:23">
+      <c r="X363" s="1"/>
+      <c r="AB363" s="1"/>
+    </row>
+    <row r="364" spans="1:28">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -9638,9 +11204,13 @@
       <c r="R364" s="1"/>
       <c r="S364" s="1"/>
       <c r="T364" s="1"/>
+      <c r="U364" s="1"/>
+      <c r="V364" s="1"/>
       <c r="W364" s="1"/>
-    </row>
-    <row r="365" spans="1:23">
+      <c r="X364" s="1"/>
+      <c r="AB364" s="1"/>
+    </row>
+    <row r="365" spans="1:28">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -9660,9 +11230,13 @@
       <c r="R365" s="1"/>
       <c r="S365" s="1"/>
       <c r="T365" s="1"/>
+      <c r="U365" s="1"/>
+      <c r="V365" s="1"/>
       <c r="W365" s="1"/>
-    </row>
-    <row r="366" spans="1:23">
+      <c r="X365" s="1"/>
+      <c r="AB365" s="1"/>
+    </row>
+    <row r="366" spans="1:28">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -9682,9 +11256,13 @@
       <c r="R366" s="1"/>
       <c r="S366" s="1"/>
       <c r="T366" s="1"/>
+      <c r="U366" s="1"/>
+      <c r="V366" s="1"/>
       <c r="W366" s="1"/>
-    </row>
-    <row r="367" spans="1:23">
+      <c r="X366" s="1"/>
+      <c r="AB366" s="1"/>
+    </row>
+    <row r="367" spans="1:28">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -9704,9 +11282,13 @@
       <c r="R367" s="1"/>
       <c r="S367" s="1"/>
       <c r="T367" s="1"/>
+      <c r="U367" s="1"/>
+      <c r="V367" s="1"/>
       <c r="W367" s="1"/>
-    </row>
-    <row r="368" spans="1:23">
+      <c r="X367" s="1"/>
+      <c r="AB367" s="1"/>
+    </row>
+    <row r="368" spans="1:28">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -9726,9 +11308,13 @@
       <c r="R368" s="1"/>
       <c r="S368" s="1"/>
       <c r="T368" s="1"/>
+      <c r="U368" s="1"/>
+      <c r="V368" s="1"/>
       <c r="W368" s="1"/>
-    </row>
-    <row r="369" spans="1:23">
+      <c r="X368" s="1"/>
+      <c r="AB368" s="1"/>
+    </row>
+    <row r="369" spans="1:28">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -9748,9 +11334,13 @@
       <c r="R369" s="1"/>
       <c r="S369" s="1"/>
       <c r="T369" s="1"/>
+      <c r="U369" s="1"/>
+      <c r="V369" s="1"/>
       <c r="W369" s="1"/>
-    </row>
-    <row r="370" spans="1:23">
+      <c r="X369" s="1"/>
+      <c r="AB369" s="1"/>
+    </row>
+    <row r="370" spans="1:28">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -9770,9 +11360,13 @@
       <c r="R370" s="1"/>
       <c r="S370" s="1"/>
       <c r="T370" s="1"/>
+      <c r="U370" s="1"/>
+      <c r="V370" s="1"/>
       <c r="W370" s="1"/>
-    </row>
-    <row r="371" spans="1:23">
+      <c r="X370" s="1"/>
+      <c r="AB370" s="1"/>
+    </row>
+    <row r="371" spans="1:28">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -9792,9 +11386,13 @@
       <c r="R371" s="1"/>
       <c r="S371" s="1"/>
       <c r="T371" s="1"/>
+      <c r="U371" s="1"/>
+      <c r="V371" s="1"/>
       <c r="W371" s="1"/>
-    </row>
-    <row r="372" spans="1:23">
+      <c r="X371" s="1"/>
+      <c r="AB371" s="1"/>
+    </row>
+    <row r="372" spans="1:28">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -9814,9 +11412,13 @@
       <c r="R372" s="1"/>
       <c r="S372" s="1"/>
       <c r="T372" s="1"/>
+      <c r="U372" s="1"/>
+      <c r="V372" s="1"/>
       <c r="W372" s="1"/>
-    </row>
-    <row r="373" spans="1:23">
+      <c r="X372" s="1"/>
+      <c r="AB372" s="1"/>
+    </row>
+    <row r="373" spans="1:28">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -9836,9 +11438,13 @@
       <c r="R373" s="1"/>
       <c r="S373" s="1"/>
       <c r="T373" s="1"/>
+      <c r="U373" s="1"/>
+      <c r="V373" s="1"/>
       <c r="W373" s="1"/>
-    </row>
-    <row r="374" spans="1:23">
+      <c r="X373" s="1"/>
+      <c r="AB373" s="1"/>
+    </row>
+    <row r="374" spans="1:28">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -9858,9 +11464,13 @@
       <c r="R374" s="1"/>
       <c r="S374" s="1"/>
       <c r="T374" s="1"/>
+      <c r="U374" s="1"/>
+      <c r="V374" s="1"/>
       <c r="W374" s="1"/>
-    </row>
-    <row r="375" spans="1:23">
+      <c r="X374" s="1"/>
+      <c r="AB374" s="1"/>
+    </row>
+    <row r="375" spans="1:28">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -9880,9 +11490,13 @@
       <c r="R375" s="1"/>
       <c r="S375" s="1"/>
       <c r="T375" s="1"/>
+      <c r="U375" s="1"/>
+      <c r="V375" s="1"/>
       <c r="W375" s="1"/>
-    </row>
-    <row r="376" spans="1:23">
+      <c r="X375" s="1"/>
+      <c r="AB375" s="1"/>
+    </row>
+    <row r="376" spans="1:28">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -9902,9 +11516,13 @@
       <c r="R376" s="1"/>
       <c r="S376" s="1"/>
       <c r="T376" s="1"/>
+      <c r="U376" s="1"/>
+      <c r="V376" s="1"/>
       <c r="W376" s="1"/>
-    </row>
-    <row r="377" spans="1:23">
+      <c r="X376" s="1"/>
+      <c r="AB376" s="1"/>
+    </row>
+    <row r="377" spans="1:28">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -9924,9 +11542,13 @@
       <c r="R377" s="1"/>
       <c r="S377" s="1"/>
       <c r="T377" s="1"/>
+      <c r="U377" s="1"/>
+      <c r="V377" s="1"/>
       <c r="W377" s="1"/>
-    </row>
-    <row r="378" spans="1:23">
+      <c r="X377" s="1"/>
+      <c r="AB377" s="1"/>
+    </row>
+    <row r="378" spans="1:28">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -9946,9 +11568,13 @@
       <c r="R378" s="1"/>
       <c r="S378" s="1"/>
       <c r="T378" s="1"/>
+      <c r="U378" s="1"/>
+      <c r="V378" s="1"/>
       <c r="W378" s="1"/>
-    </row>
-    <row r="379" spans="1:23">
+      <c r="X378" s="1"/>
+      <c r="AB378" s="1"/>
+    </row>
+    <row r="379" spans="1:28">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -9968,9 +11594,13 @@
       <c r="R379" s="1"/>
       <c r="S379" s="1"/>
       <c r="T379" s="1"/>
+      <c r="U379" s="1"/>
+      <c r="V379" s="1"/>
       <c r="W379" s="1"/>
-    </row>
-    <row r="380" spans="1:23">
+      <c r="X379" s="1"/>
+      <c r="AB379" s="1"/>
+    </row>
+    <row r="380" spans="1:28">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -9990,9 +11620,13 @@
       <c r="R380" s="1"/>
       <c r="S380" s="1"/>
       <c r="T380" s="1"/>
+      <c r="U380" s="1"/>
+      <c r="V380" s="1"/>
       <c r="W380" s="1"/>
-    </row>
-    <row r="381" spans="1:23">
+      <c r="X380" s="1"/>
+      <c r="AB380" s="1"/>
+    </row>
+    <row r="381" spans="1:28">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -10012,9 +11646,13 @@
       <c r="R381" s="1"/>
       <c r="S381" s="1"/>
       <c r="T381" s="1"/>
+      <c r="U381" s="1"/>
+      <c r="V381" s="1"/>
       <c r="W381" s="1"/>
-    </row>
-    <row r="382" spans="1:23">
+      <c r="X381" s="1"/>
+      <c r="AB381" s="1"/>
+    </row>
+    <row r="382" spans="1:28">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -10034,9 +11672,13 @@
       <c r="R382" s="1"/>
       <c r="S382" s="1"/>
       <c r="T382" s="1"/>
+      <c r="U382" s="1"/>
+      <c r="V382" s="1"/>
       <c r="W382" s="1"/>
-    </row>
-    <row r="383" spans="1:23">
+      <c r="X382" s="1"/>
+      <c r="AB382" s="1"/>
+    </row>
+    <row r="383" spans="1:28">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -10056,9 +11698,13 @@
       <c r="R383" s="1"/>
       <c r="S383" s="1"/>
       <c r="T383" s="1"/>
+      <c r="U383" s="1"/>
+      <c r="V383" s="1"/>
       <c r="W383" s="1"/>
-    </row>
-    <row r="384" spans="1:23">
+      <c r="X383" s="1"/>
+      <c r="AB383" s="1"/>
+    </row>
+    <row r="384" spans="1:28">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -10078,9 +11724,13 @@
       <c r="R384" s="1"/>
       <c r="S384" s="1"/>
       <c r="T384" s="1"/>
+      <c r="U384" s="1"/>
+      <c r="V384" s="1"/>
       <c r="W384" s="1"/>
-    </row>
-    <row r="385" spans="1:23">
+      <c r="X384" s="1"/>
+      <c r="AB384" s="1"/>
+    </row>
+    <row r="385" spans="1:28">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -10100,9 +11750,13 @@
       <c r="R385" s="1"/>
       <c r="S385" s="1"/>
       <c r="T385" s="1"/>
+      <c r="U385" s="1"/>
+      <c r="V385" s="1"/>
       <c r="W385" s="1"/>
-    </row>
-    <row r="386" spans="1:23">
+      <c r="X385" s="1"/>
+      <c r="AB385" s="1"/>
+    </row>
+    <row r="386" spans="1:28">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -10122,9 +11776,13 @@
       <c r="R386" s="1"/>
       <c r="S386" s="1"/>
       <c r="T386" s="1"/>
+      <c r="U386" s="1"/>
+      <c r="V386" s="1"/>
       <c r="W386" s="1"/>
-    </row>
-    <row r="387" spans="1:23">
+      <c r="X386" s="1"/>
+      <c r="AB386" s="1"/>
+    </row>
+    <row r="387" spans="1:28">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -10144,9 +11802,13 @@
       <c r="R387" s="1"/>
       <c r="S387" s="1"/>
       <c r="T387" s="1"/>
+      <c r="U387" s="1"/>
+      <c r="V387" s="1"/>
       <c r="W387" s="1"/>
-    </row>
-    <row r="388" spans="1:23">
+      <c r="X387" s="1"/>
+      <c r="AB387" s="1"/>
+    </row>
+    <row r="388" spans="1:28">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -10166,9 +11828,13 @@
       <c r="R388" s="1"/>
       <c r="S388" s="1"/>
       <c r="T388" s="1"/>
+      <c r="U388" s="1"/>
+      <c r="V388" s="1"/>
       <c r="W388" s="1"/>
-    </row>
-    <row r="389" spans="1:23">
+      <c r="X388" s="1"/>
+      <c r="AB388" s="1"/>
+    </row>
+    <row r="389" spans="1:28">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -10188,9 +11854,13 @@
       <c r="R389" s="1"/>
       <c r="S389" s="1"/>
       <c r="T389" s="1"/>
+      <c r="U389" s="1"/>
+      <c r="V389" s="1"/>
       <c r="W389" s="1"/>
-    </row>
-    <row r="390" spans="1:23">
+      <c r="X389" s="1"/>
+      <c r="AB389" s="1"/>
+    </row>
+    <row r="390" spans="1:28">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -10210,9 +11880,13 @@
       <c r="R390" s="1"/>
       <c r="S390" s="1"/>
       <c r="T390" s="1"/>
+      <c r="U390" s="1"/>
+      <c r="V390" s="1"/>
       <c r="W390" s="1"/>
-    </row>
-    <row r="391" spans="1:23">
+      <c r="X390" s="1"/>
+      <c r="AB390" s="1"/>
+    </row>
+    <row r="391" spans="1:28">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -10232,9 +11906,13 @@
       <c r="R391" s="1"/>
       <c r="S391" s="1"/>
       <c r="T391" s="1"/>
+      <c r="U391" s="1"/>
+      <c r="V391" s="1"/>
       <c r="W391" s="1"/>
-    </row>
-    <row r="392" spans="1:23">
+      <c r="X391" s="1"/>
+      <c r="AB391" s="1"/>
+    </row>
+    <row r="392" spans="1:28">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -10254,9 +11932,13 @@
       <c r="R392" s="1"/>
       <c r="S392" s="1"/>
       <c r="T392" s="1"/>
+      <c r="U392" s="1"/>
+      <c r="V392" s="1"/>
       <c r="W392" s="1"/>
-    </row>
-    <row r="393" spans="1:23">
+      <c r="X392" s="1"/>
+      <c r="AB392" s="1"/>
+    </row>
+    <row r="393" spans="1:28">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -10276,9 +11958,13 @@
       <c r="R393" s="1"/>
       <c r="S393" s="1"/>
       <c r="T393" s="1"/>
+      <c r="U393" s="1"/>
+      <c r="V393" s="1"/>
       <c r="W393" s="1"/>
-    </row>
-    <row r="394" spans="1:23">
+      <c r="X393" s="1"/>
+      <c r="AB393" s="1"/>
+    </row>
+    <row r="394" spans="1:28">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -10298,9 +11984,13 @@
       <c r="R394" s="1"/>
       <c r="S394" s="1"/>
       <c r="T394" s="1"/>
+      <c r="U394" s="1"/>
+      <c r="V394" s="1"/>
       <c r="W394" s="1"/>
-    </row>
-    <row r="395" spans="1:23">
+      <c r="X394" s="1"/>
+      <c r="AB394" s="1"/>
+    </row>
+    <row r="395" spans="1:28">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -10320,9 +12010,13 @@
       <c r="R395" s="1"/>
       <c r="S395" s="1"/>
       <c r="T395" s="1"/>
+      <c r="U395" s="1"/>
+      <c r="V395" s="1"/>
       <c r="W395" s="1"/>
-    </row>
-    <row r="396" spans="1:23">
+      <c r="X395" s="1"/>
+      <c r="AB395" s="1"/>
+    </row>
+    <row r="396" spans="1:28">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -10342,9 +12036,13 @@
       <c r="R396" s="1"/>
       <c r="S396" s="1"/>
       <c r="T396" s="1"/>
+      <c r="U396" s="1"/>
+      <c r="V396" s="1"/>
       <c r="W396" s="1"/>
-    </row>
-    <row r="397" spans="1:23">
+      <c r="X396" s="1"/>
+      <c r="AB396" s="1"/>
+    </row>
+    <row r="397" spans="1:28">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -10364,9 +12062,13 @@
       <c r="R397" s="1"/>
       <c r="S397" s="1"/>
       <c r="T397" s="1"/>
+      <c r="U397" s="1"/>
+      <c r="V397" s="1"/>
       <c r="W397" s="1"/>
-    </row>
-    <row r="398" spans="1:23">
+      <c r="X397" s="1"/>
+      <c r="AB397" s="1"/>
+    </row>
+    <row r="398" spans="1:28">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -10386,9 +12088,13 @@
       <c r="R398" s="1"/>
       <c r="S398" s="1"/>
       <c r="T398" s="1"/>
+      <c r="U398" s="1"/>
+      <c r="V398" s="1"/>
       <c r="W398" s="1"/>
-    </row>
-    <row r="399" spans="1:23">
+      <c r="X398" s="1"/>
+      <c r="AB398" s="1"/>
+    </row>
+    <row r="399" spans="1:28">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -10408,9 +12114,13 @@
       <c r="R399" s="1"/>
       <c r="S399" s="1"/>
       <c r="T399" s="1"/>
+      <c r="U399" s="1"/>
+      <c r="V399" s="1"/>
       <c r="W399" s="1"/>
-    </row>
-    <row r="400" spans="1:23">
+      <c r="X399" s="1"/>
+      <c r="AB399" s="1"/>
+    </row>
+    <row r="400" spans="1:28">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -10430,9 +12140,13 @@
       <c r="R400" s="1"/>
       <c r="S400" s="1"/>
       <c r="T400" s="1"/>
+      <c r="U400" s="1"/>
+      <c r="V400" s="1"/>
       <c r="W400" s="1"/>
-    </row>
-    <row r="401" spans="1:23">
+      <c r="X400" s="1"/>
+      <c r="AB400" s="1"/>
+    </row>
+    <row r="401" spans="1:28">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -10452,9 +12166,13 @@
       <c r="R401" s="1"/>
       <c r="S401" s="1"/>
       <c r="T401" s="1"/>
+      <c r="U401" s="1"/>
+      <c r="V401" s="1"/>
       <c r="W401" s="1"/>
-    </row>
-    <row r="402" spans="1:23">
+      <c r="X401" s="1"/>
+      <c r="AB401" s="1"/>
+    </row>
+    <row r="402" spans="1:28">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -10474,9 +12192,13 @@
       <c r="R402" s="1"/>
       <c r="S402" s="1"/>
       <c r="T402" s="1"/>
+      <c r="U402" s="1"/>
+      <c r="V402" s="1"/>
       <c r="W402" s="1"/>
-    </row>
-    <row r="403" spans="1:23">
+      <c r="X402" s="1"/>
+      <c r="AB402" s="1"/>
+    </row>
+    <row r="403" spans="1:28">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -10496,9 +12218,13 @@
       <c r="R403" s="1"/>
       <c r="S403" s="1"/>
       <c r="T403" s="1"/>
+      <c r="U403" s="1"/>
+      <c r="V403" s="1"/>
       <c r="W403" s="1"/>
-    </row>
-    <row r="404" spans="1:23">
+      <c r="X403" s="1"/>
+      <c r="AB403" s="1"/>
+    </row>
+    <row r="404" spans="1:28">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -10518,9 +12244,13 @@
       <c r="R404" s="1"/>
       <c r="S404" s="1"/>
       <c r="T404" s="1"/>
+      <c r="U404" s="1"/>
+      <c r="V404" s="1"/>
       <c r="W404" s="1"/>
-    </row>
-    <row r="405" spans="1:23">
+      <c r="X404" s="1"/>
+      <c r="AB404" s="1"/>
+    </row>
+    <row r="405" spans="1:28">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -10540,9 +12270,13 @@
       <c r="R405" s="1"/>
       <c r="S405" s="1"/>
       <c r="T405" s="1"/>
+      <c r="U405" s="1"/>
+      <c r="V405" s="1"/>
       <c r="W405" s="1"/>
-    </row>
-    <row r="406" spans="1:23">
+      <c r="X405" s="1"/>
+      <c r="AB405" s="1"/>
+    </row>
+    <row r="406" spans="1:28">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -10562,9 +12296,13 @@
       <c r="R406" s="1"/>
       <c r="S406" s="1"/>
       <c r="T406" s="1"/>
+      <c r="U406" s="1"/>
+      <c r="V406" s="1"/>
       <c r="W406" s="1"/>
-    </row>
-    <row r="407" spans="1:23">
+      <c r="X406" s="1"/>
+      <c r="AB406" s="1"/>
+    </row>
+    <row r="407" spans="1:28">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -10584,9 +12322,13 @@
       <c r="R407" s="1"/>
       <c r="S407" s="1"/>
       <c r="T407" s="1"/>
+      <c r="U407" s="1"/>
+      <c r="V407" s="1"/>
       <c r="W407" s="1"/>
-    </row>
-    <row r="408" spans="1:23">
+      <c r="X407" s="1"/>
+      <c r="AB407" s="1"/>
+    </row>
+    <row r="408" spans="1:28">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -10606,9 +12348,13 @@
       <c r="R408" s="1"/>
       <c r="S408" s="1"/>
       <c r="T408" s="1"/>
+      <c r="U408" s="1"/>
+      <c r="V408" s="1"/>
       <c r="W408" s="1"/>
-    </row>
-    <row r="409" spans="1:23">
+      <c r="X408" s="1"/>
+      <c r="AB408" s="1"/>
+    </row>
+    <row r="409" spans="1:28">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -10628,9 +12374,13 @@
       <c r="R409" s="1"/>
       <c r="S409" s="1"/>
       <c r="T409" s="1"/>
+      <c r="U409" s="1"/>
+      <c r="V409" s="1"/>
       <c r="W409" s="1"/>
-    </row>
-    <row r="410" spans="1:23">
+      <c r="X409" s="1"/>
+      <c r="AB409" s="1"/>
+    </row>
+    <row r="410" spans="1:28">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -10650,9 +12400,13 @@
       <c r="R410" s="1"/>
       <c r="S410" s="1"/>
       <c r="T410" s="1"/>
+      <c r="U410" s="1"/>
+      <c r="V410" s="1"/>
       <c r="W410" s="1"/>
-    </row>
-    <row r="411" spans="1:23">
+      <c r="X410" s="1"/>
+      <c r="AB410" s="1"/>
+    </row>
+    <row r="411" spans="1:28">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -10672,9 +12426,13 @@
       <c r="R411" s="1"/>
       <c r="S411" s="1"/>
       <c r="T411" s="1"/>
+      <c r="U411" s="1"/>
+      <c r="V411" s="1"/>
       <c r="W411" s="1"/>
-    </row>
-    <row r="412" spans="1:23">
+      <c r="X411" s="1"/>
+      <c r="AB411" s="1"/>
+    </row>
+    <row r="412" spans="1:28">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -10694,9 +12452,13 @@
       <c r="R412" s="1"/>
       <c r="S412" s="1"/>
       <c r="T412" s="1"/>
+      <c r="U412" s="1"/>
+      <c r="V412" s="1"/>
       <c r="W412" s="1"/>
-    </row>
-    <row r="413" spans="1:23">
+      <c r="X412" s="1"/>
+      <c r="AB412" s="1"/>
+    </row>
+    <row r="413" spans="1:28">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -10716,9 +12478,13 @@
       <c r="R413" s="1"/>
       <c r="S413" s="1"/>
       <c r="T413" s="1"/>
+      <c r="U413" s="1"/>
+      <c r="V413" s="1"/>
       <c r="W413" s="1"/>
-    </row>
-    <row r="414" spans="1:23">
+      <c r="X413" s="1"/>
+      <c r="AB413" s="1"/>
+    </row>
+    <row r="414" spans="1:28">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -10738,9 +12504,13 @@
       <c r="R414" s="1"/>
       <c r="S414" s="1"/>
       <c r="T414" s="1"/>
+      <c r="U414" s="1"/>
+      <c r="V414" s="1"/>
       <c r="W414" s="1"/>
-    </row>
-    <row r="415" spans="1:23">
+      <c r="X414" s="1"/>
+      <c r="AB414" s="1"/>
+    </row>
+    <row r="415" spans="1:28">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -10760,9 +12530,13 @@
       <c r="R415" s="1"/>
       <c r="S415" s="1"/>
       <c r="T415" s="1"/>
+      <c r="U415" s="1"/>
+      <c r="V415" s="1"/>
       <c r="W415" s="1"/>
-    </row>
-    <row r="416" spans="1:23">
+      <c r="X415" s="1"/>
+      <c r="AB415" s="1"/>
+    </row>
+    <row r="416" spans="1:28">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -10782,9 +12556,13 @@
       <c r="R416" s="1"/>
       <c r="S416" s="1"/>
       <c r="T416" s="1"/>
+      <c r="U416" s="1"/>
+      <c r="V416" s="1"/>
       <c r="W416" s="1"/>
-    </row>
-    <row r="417" spans="1:23">
+      <c r="X416" s="1"/>
+      <c r="AB416" s="1"/>
+    </row>
+    <row r="417" spans="1:28">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -10804,9 +12582,13 @@
       <c r="R417" s="1"/>
       <c r="S417" s="1"/>
       <c r="T417" s="1"/>
+      <c r="U417" s="1"/>
+      <c r="V417" s="1"/>
       <c r="W417" s="1"/>
-    </row>
-    <row r="418" spans="1:23">
+      <c r="X417" s="1"/>
+      <c r="AB417" s="1"/>
+    </row>
+    <row r="418" spans="1:28">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -10826,9 +12608,13 @@
       <c r="R418" s="1"/>
       <c r="S418" s="1"/>
       <c r="T418" s="1"/>
+      <c r="U418" s="1"/>
+      <c r="V418" s="1"/>
       <c r="W418" s="1"/>
-    </row>
-    <row r="419" spans="1:23">
+      <c r="X418" s="1"/>
+      <c r="AB418" s="1"/>
+    </row>
+    <row r="419" spans="1:28">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -10848,9 +12634,13 @@
       <c r="R419" s="1"/>
       <c r="S419" s="1"/>
       <c r="T419" s="1"/>
+      <c r="U419" s="1"/>
+      <c r="V419" s="1"/>
       <c r="W419" s="1"/>
-    </row>
-    <row r="420" spans="1:23">
+      <c r="X419" s="1"/>
+      <c r="AB419" s="1"/>
+    </row>
+    <row r="420" spans="1:28">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -10870,9 +12660,13 @@
       <c r="R420" s="1"/>
       <c r="S420" s="1"/>
       <c r="T420" s="1"/>
+      <c r="U420" s="1"/>
+      <c r="V420" s="1"/>
       <c r="W420" s="1"/>
-    </row>
-    <row r="421" spans="1:23">
+      <c r="X420" s="1"/>
+      <c r="AB420" s="1"/>
+    </row>
+    <row r="421" spans="1:28">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -10892,9 +12686,13 @@
       <c r="R421" s="1"/>
       <c r="S421" s="1"/>
       <c r="T421" s="1"/>
+      <c r="U421" s="1"/>
+      <c r="V421" s="1"/>
       <c r="W421" s="1"/>
-    </row>
-    <row r="422" spans="1:23">
+      <c r="X421" s="1"/>
+      <c r="AB421" s="1"/>
+    </row>
+    <row r="422" spans="1:28">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -10914,9 +12712,13 @@
       <c r="R422" s="1"/>
       <c r="S422" s="1"/>
       <c r="T422" s="1"/>
+      <c r="U422" s="1"/>
+      <c r="V422" s="1"/>
       <c r="W422" s="1"/>
-    </row>
-    <row r="423" spans="1:23">
+      <c r="X422" s="1"/>
+      <c r="AB422" s="1"/>
+    </row>
+    <row r="423" spans="1:28">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -10936,9 +12738,13 @@
       <c r="R423" s="1"/>
       <c r="S423" s="1"/>
       <c r="T423" s="1"/>
+      <c r="U423" s="1"/>
+      <c r="V423" s="1"/>
       <c r="W423" s="1"/>
-    </row>
-    <row r="424" spans="1:23">
+      <c r="X423" s="1"/>
+      <c r="AB423" s="1"/>
+    </row>
+    <row r="424" spans="1:28">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -10958,9 +12764,13 @@
       <c r="R424" s="1"/>
       <c r="S424" s="1"/>
       <c r="T424" s="1"/>
+      <c r="U424" s="1"/>
+      <c r="V424" s="1"/>
       <c r="W424" s="1"/>
-    </row>
-    <row r="425" spans="1:23">
+      <c r="X424" s="1"/>
+      <c r="AB424" s="1"/>
+    </row>
+    <row r="425" spans="1:28">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -10980,9 +12790,13 @@
       <c r="R425" s="1"/>
       <c r="S425" s="1"/>
       <c r="T425" s="1"/>
+      <c r="U425" s="1"/>
+      <c r="V425" s="1"/>
       <c r="W425" s="1"/>
-    </row>
-    <row r="426" spans="1:23">
+      <c r="X425" s="1"/>
+      <c r="AB425" s="1"/>
+    </row>
+    <row r="426" spans="1:28">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -11002,9 +12816,13 @@
       <c r="R426" s="1"/>
       <c r="S426" s="1"/>
       <c r="T426" s="1"/>
+      <c r="U426" s="1"/>
+      <c r="V426" s="1"/>
       <c r="W426" s="1"/>
-    </row>
-    <row r="427" spans="1:23">
+      <c r="X426" s="1"/>
+      <c r="AB426" s="1"/>
+    </row>
+    <row r="427" spans="1:28">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -11024,9 +12842,13 @@
       <c r="R427" s="1"/>
       <c r="S427" s="1"/>
       <c r="T427" s="1"/>
+      <c r="U427" s="1"/>
+      <c r="V427" s="1"/>
       <c r="W427" s="1"/>
-    </row>
-    <row r="428" spans="1:23">
+      <c r="X427" s="1"/>
+      <c r="AB427" s="1"/>
+    </row>
+    <row r="428" spans="1:28">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -11046,9 +12868,13 @@
       <c r="R428" s="1"/>
       <c r="S428" s="1"/>
       <c r="T428" s="1"/>
+      <c r="U428" s="1"/>
+      <c r="V428" s="1"/>
       <c r="W428" s="1"/>
-    </row>
-    <row r="429" spans="1:23">
+      <c r="X428" s="1"/>
+      <c r="AB428" s="1"/>
+    </row>
+    <row r="429" spans="1:28">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -11068,9 +12894,13 @@
       <c r="R429" s="1"/>
       <c r="S429" s="1"/>
       <c r="T429" s="1"/>
+      <c r="U429" s="1"/>
+      <c r="V429" s="1"/>
       <c r="W429" s="1"/>
-    </row>
-    <row r="430" spans="1:23">
+      <c r="X429" s="1"/>
+      <c r="AB429" s="1"/>
+    </row>
+    <row r="430" spans="1:28">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -11090,9 +12920,13 @@
       <c r="R430" s="1"/>
       <c r="S430" s="1"/>
       <c r="T430" s="1"/>
+      <c r="U430" s="1"/>
+      <c r="V430" s="1"/>
       <c r="W430" s="1"/>
-    </row>
-    <row r="431" spans="1:23">
+      <c r="X430" s="1"/>
+      <c r="AB430" s="1"/>
+    </row>
+    <row r="431" spans="1:28">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -11112,9 +12946,13 @@
       <c r="R431" s="1"/>
       <c r="S431" s="1"/>
       <c r="T431" s="1"/>
+      <c r="U431" s="1"/>
+      <c r="V431" s="1"/>
       <c r="W431" s="1"/>
-    </row>
-    <row r="432" spans="1:23">
+      <c r="X431" s="1"/>
+      <c r="AB431" s="1"/>
+    </row>
+    <row r="432" spans="1:28">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -11134,9 +12972,13 @@
       <c r="R432" s="1"/>
       <c r="S432" s="1"/>
       <c r="T432" s="1"/>
+      <c r="U432" s="1"/>
+      <c r="V432" s="1"/>
       <c r="W432" s="1"/>
-    </row>
-    <row r="433" spans="1:23">
+      <c r="X432" s="1"/>
+      <c r="AB432" s="1"/>
+    </row>
+    <row r="433" spans="1:28">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -11156,9 +12998,13 @@
       <c r="R433" s="1"/>
       <c r="S433" s="1"/>
       <c r="T433" s="1"/>
+      <c r="U433" s="1"/>
+      <c r="V433" s="1"/>
       <c r="W433" s="1"/>
-    </row>
-    <row r="434" spans="1:23">
+      <c r="X433" s="1"/>
+      <c r="AB433" s="1"/>
+    </row>
+    <row r="434" spans="1:28">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -11178,9 +13024,13 @@
       <c r="R434" s="1"/>
       <c r="S434" s="1"/>
       <c r="T434" s="1"/>
+      <c r="U434" s="1"/>
+      <c r="V434" s="1"/>
       <c r="W434" s="1"/>
-    </row>
-    <row r="435" spans="1:23">
+      <c r="X434" s="1"/>
+      <c r="AB434" s="1"/>
+    </row>
+    <row r="435" spans="1:28">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -11200,9 +13050,13 @@
       <c r="R435" s="1"/>
       <c r="S435" s="1"/>
       <c r="T435" s="1"/>
+      <c r="U435" s="1"/>
+      <c r="V435" s="1"/>
       <c r="W435" s="1"/>
-    </row>
-    <row r="436" spans="1:23">
+      <c r="X435" s="1"/>
+      <c r="AB435" s="1"/>
+    </row>
+    <row r="436" spans="1:28">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -11222,9 +13076,13 @@
       <c r="R436" s="1"/>
       <c r="S436" s="1"/>
       <c r="T436" s="1"/>
+      <c r="U436" s="1"/>
+      <c r="V436" s="1"/>
       <c r="W436" s="1"/>
-    </row>
-    <row r="437" spans="1:23">
+      <c r="X436" s="1"/>
+      <c r="AB436" s="1"/>
+    </row>
+    <row r="437" spans="1:28">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -11244,9 +13102,13 @@
       <c r="R437" s="1"/>
       <c r="S437" s="1"/>
       <c r="T437" s="1"/>
+      <c r="U437" s="1"/>
+      <c r="V437" s="1"/>
       <c r="W437" s="1"/>
-    </row>
-    <row r="438" spans="1:23">
+      <c r="X437" s="1"/>
+      <c r="AB437" s="1"/>
+    </row>
+    <row r="438" spans="1:28">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -11266,9 +13128,13 @@
       <c r="R438" s="1"/>
       <c r="S438" s="1"/>
       <c r="T438" s="1"/>
+      <c r="U438" s="1"/>
+      <c r="V438" s="1"/>
       <c r="W438" s="1"/>
-    </row>
-    <row r="439" spans="1:23">
+      <c r="X438" s="1"/>
+      <c r="AB438" s="1"/>
+    </row>
+    <row r="439" spans="1:28">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -11288,9 +13154,13 @@
       <c r="R439" s="1"/>
       <c r="S439" s="1"/>
       <c r="T439" s="1"/>
+      <c r="U439" s="1"/>
+      <c r="V439" s="1"/>
       <c r="W439" s="1"/>
-    </row>
-    <row r="440" spans="1:23">
+      <c r="X439" s="1"/>
+      <c r="AB439" s="1"/>
+    </row>
+    <row r="440" spans="1:28">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -11310,9 +13180,13 @@
       <c r="R440" s="1"/>
       <c r="S440" s="1"/>
       <c r="T440" s="1"/>
+      <c r="U440" s="1"/>
+      <c r="V440" s="1"/>
       <c r="W440" s="1"/>
-    </row>
-    <row r="441" spans="1:23">
+      <c r="X440" s="1"/>
+      <c r="AB440" s="1"/>
+    </row>
+    <row r="441" spans="1:28">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -11332,9 +13206,13 @@
       <c r="R441" s="1"/>
       <c r="S441" s="1"/>
       <c r="T441" s="1"/>
+      <c r="U441" s="1"/>
+      <c r="V441" s="1"/>
       <c r="W441" s="1"/>
-    </row>
-    <row r="442" spans="1:23">
+      <c r="X441" s="1"/>
+      <c r="AB441" s="1"/>
+    </row>
+    <row r="442" spans="1:28">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -11354,9 +13232,13 @@
       <c r="R442" s="1"/>
       <c r="S442" s="1"/>
       <c r="T442" s="1"/>
+      <c r="U442" s="1"/>
+      <c r="V442" s="1"/>
       <c r="W442" s="1"/>
-    </row>
-    <row r="443" spans="1:23">
+      <c r="X442" s="1"/>
+      <c r="AB442" s="1"/>
+    </row>
+    <row r="443" spans="1:28">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -11376,9 +13258,13 @@
       <c r="R443" s="1"/>
       <c r="S443" s="1"/>
       <c r="T443" s="1"/>
+      <c r="U443" s="1"/>
+      <c r="V443" s="1"/>
       <c r="W443" s="1"/>
-    </row>
-    <row r="444" spans="1:23">
+      <c r="X443" s="1"/>
+      <c r="AB443" s="1"/>
+    </row>
+    <row r="444" spans="1:28">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -11398,9 +13284,13 @@
       <c r="R444" s="1"/>
       <c r="S444" s="1"/>
       <c r="T444" s="1"/>
+      <c r="U444" s="1"/>
+      <c r="V444" s="1"/>
       <c r="W444" s="1"/>
-    </row>
-    <row r="445" spans="1:23">
+      <c r="X444" s="1"/>
+      <c r="AB444" s="1"/>
+    </row>
+    <row r="445" spans="1:28">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -11420,9 +13310,13 @@
       <c r="R445" s="1"/>
       <c r="S445" s="1"/>
       <c r="T445" s="1"/>
+      <c r="U445" s="1"/>
+      <c r="V445" s="1"/>
       <c r="W445" s="1"/>
-    </row>
-    <row r="446" spans="1:23">
+      <c r="X445" s="1"/>
+      <c r="AB445" s="1"/>
+    </row>
+    <row r="446" spans="1:28">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -11442,9 +13336,13 @@
       <c r="R446" s="1"/>
       <c r="S446" s="1"/>
       <c r="T446" s="1"/>
+      <c r="U446" s="1"/>
+      <c r="V446" s="1"/>
       <c r="W446" s="1"/>
-    </row>
-    <row r="447" spans="1:23">
+      <c r="X446" s="1"/>
+      <c r="AB446" s="1"/>
+    </row>
+    <row r="447" spans="1:28">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -11464,9 +13362,13 @@
       <c r="R447" s="1"/>
       <c r="S447" s="1"/>
       <c r="T447" s="1"/>
+      <c r="U447" s="1"/>
+      <c r="V447" s="1"/>
       <c r="W447" s="1"/>
-    </row>
-    <row r="448" spans="1:23">
+      <c r="X447" s="1"/>
+      <c r="AB447" s="1"/>
+    </row>
+    <row r="448" spans="1:28">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -11486,9 +13388,13 @@
       <c r="R448" s="1"/>
       <c r="S448" s="1"/>
       <c r="T448" s="1"/>
+      <c r="U448" s="1"/>
+      <c r="V448" s="1"/>
       <c r="W448" s="1"/>
-    </row>
-    <row r="449" spans="1:23">
+      <c r="X448" s="1"/>
+      <c r="AB448" s="1"/>
+    </row>
+    <row r="449" spans="1:28">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -11508,9 +13414,13 @@
       <c r="R449" s="1"/>
       <c r="S449" s="1"/>
       <c r="T449" s="1"/>
+      <c r="U449" s="1"/>
+      <c r="V449" s="1"/>
       <c r="W449" s="1"/>
-    </row>
-    <row r="450" spans="1:23">
+      <c r="X449" s="1"/>
+      <c r="AB449" s="1"/>
+    </row>
+    <row r="450" spans="1:28">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -11530,9 +13440,13 @@
       <c r="R450" s="1"/>
       <c r="S450" s="1"/>
       <c r="T450" s="1"/>
+      <c r="U450" s="1"/>
+      <c r="V450" s="1"/>
       <c r="W450" s="1"/>
-    </row>
-    <row r="451" spans="1:23">
+      <c r="X450" s="1"/>
+      <c r="AB450" s="1"/>
+    </row>
+    <row r="451" spans="1:28">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -11552,9 +13466,13 @@
       <c r="R451" s="1"/>
       <c r="S451" s="1"/>
       <c r="T451" s="1"/>
+      <c r="U451" s="1"/>
+      <c r="V451" s="1"/>
       <c r="W451" s="1"/>
-    </row>
-    <row r="452" spans="1:23">
+      <c r="X451" s="1"/>
+      <c r="AB451" s="1"/>
+    </row>
+    <row r="452" spans="1:28">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -11574,9 +13492,13 @@
       <c r="R452" s="1"/>
       <c r="S452" s="1"/>
       <c r="T452" s="1"/>
+      <c r="U452" s="1"/>
+      <c r="V452" s="1"/>
       <c r="W452" s="1"/>
-    </row>
-    <row r="453" spans="1:23">
+      <c r="X452" s="1"/>
+      <c r="AB452" s="1"/>
+    </row>
+    <row r="453" spans="1:28">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -11596,9 +13518,13 @@
       <c r="R453" s="1"/>
       <c r="S453" s="1"/>
       <c r="T453" s="1"/>
+      <c r="U453" s="1"/>
+      <c r="V453" s="1"/>
       <c r="W453" s="1"/>
-    </row>
-    <row r="454" spans="1:23">
+      <c r="X453" s="1"/>
+      <c r="AB453" s="1"/>
+    </row>
+    <row r="454" spans="1:28">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -11618,9 +13544,13 @@
       <c r="R454" s="1"/>
       <c r="S454" s="1"/>
       <c r="T454" s="1"/>
+      <c r="U454" s="1"/>
+      <c r="V454" s="1"/>
       <c r="W454" s="1"/>
-    </row>
-    <row r="455" spans="1:23">
+      <c r="X454" s="1"/>
+      <c r="AB454" s="1"/>
+    </row>
+    <row r="455" spans="1:28">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -11640,9 +13570,13 @@
       <c r="R455" s="1"/>
       <c r="S455" s="1"/>
       <c r="T455" s="1"/>
+      <c r="U455" s="1"/>
+      <c r="V455" s="1"/>
       <c r="W455" s="1"/>
-    </row>
-    <row r="456" spans="1:23">
+      <c r="X455" s="1"/>
+      <c r="AB455" s="1"/>
+    </row>
+    <row r="456" spans="1:28">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -11662,9 +13596,13 @@
       <c r="R456" s="1"/>
       <c r="S456" s="1"/>
       <c r="T456" s="1"/>
+      <c r="U456" s="1"/>
+      <c r="V456" s="1"/>
       <c r="W456" s="1"/>
-    </row>
-    <row r="457" spans="1:23">
+      <c r="X456" s="1"/>
+      <c r="AB456" s="1"/>
+    </row>
+    <row r="457" spans="1:28">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -11684,9 +13622,13 @@
       <c r="R457" s="1"/>
       <c r="S457" s="1"/>
       <c r="T457" s="1"/>
+      <c r="U457" s="1"/>
+      <c r="V457" s="1"/>
       <c r="W457" s="1"/>
-    </row>
-    <row r="458" spans="1:23">
+      <c r="X457" s="1"/>
+      <c r="AB457" s="1"/>
+    </row>
+    <row r="458" spans="1:28">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -11706,9 +13648,13 @@
       <c r="R458" s="1"/>
       <c r="S458" s="1"/>
       <c r="T458" s="1"/>
+      <c r="U458" s="1"/>
+      <c r="V458" s="1"/>
       <c r="W458" s="1"/>
-    </row>
-    <row r="459" spans="1:23">
+      <c r="X458" s="1"/>
+      <c r="AB458" s="1"/>
+    </row>
+    <row r="459" spans="1:28">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -11728,9 +13674,13 @@
       <c r="R459" s="1"/>
       <c r="S459" s="1"/>
       <c r="T459" s="1"/>
+      <c r="U459" s="1"/>
+      <c r="V459" s="1"/>
       <c r="W459" s="1"/>
-    </row>
-    <row r="460" spans="1:23">
+      <c r="X459" s="1"/>
+      <c r="AB459" s="1"/>
+    </row>
+    <row r="460" spans="1:28">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -11750,9 +13700,13 @@
       <c r="R460" s="1"/>
       <c r="S460" s="1"/>
       <c r="T460" s="1"/>
+      <c r="U460" s="1"/>
+      <c r="V460" s="1"/>
       <c r="W460" s="1"/>
-    </row>
-    <row r="461" spans="1:23">
+      <c r="X460" s="1"/>
+      <c r="AB460" s="1"/>
+    </row>
+    <row r="461" spans="1:28">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -11772,9 +13726,13 @@
       <c r="R461" s="1"/>
       <c r="S461" s="1"/>
       <c r="T461" s="1"/>
+      <c r="U461" s="1"/>
+      <c r="V461" s="1"/>
       <c r="W461" s="1"/>
-    </row>
-    <row r="462" spans="1:23">
+      <c r="X461" s="1"/>
+      <c r="AB461" s="1"/>
+    </row>
+    <row r="462" spans="1:28">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -11794,9 +13752,13 @@
       <c r="R462" s="1"/>
       <c r="S462" s="1"/>
       <c r="T462" s="1"/>
+      <c r="U462" s="1"/>
+      <c r="V462" s="1"/>
       <c r="W462" s="1"/>
-    </row>
-    <row r="463" spans="1:23">
+      <c r="X462" s="1"/>
+      <c r="AB462" s="1"/>
+    </row>
+    <row r="463" spans="1:28">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -11816,9 +13778,13 @@
       <c r="R463" s="1"/>
       <c r="S463" s="1"/>
       <c r="T463" s="1"/>
+      <c r="U463" s="1"/>
+      <c r="V463" s="1"/>
       <c r="W463" s="1"/>
-    </row>
-    <row r="464" spans="1:23">
+      <c r="X463" s="1"/>
+      <c r="AB463" s="1"/>
+    </row>
+    <row r="464" spans="1:28">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -11838,9 +13804,13 @@
       <c r="R464" s="1"/>
       <c r="S464" s="1"/>
       <c r="T464" s="1"/>
+      <c r="U464" s="1"/>
+      <c r="V464" s="1"/>
       <c r="W464" s="1"/>
-    </row>
-    <row r="465" spans="1:23">
+      <c r="X464" s="1"/>
+      <c r="AB464" s="1"/>
+    </row>
+    <row r="465" spans="1:28">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -11860,9 +13830,13 @@
       <c r="R465" s="1"/>
       <c r="S465" s="1"/>
       <c r="T465" s="1"/>
+      <c r="U465" s="1"/>
+      <c r="V465" s="1"/>
       <c r="W465" s="1"/>
-    </row>
-    <row r="466" spans="1:23">
+      <c r="X465" s="1"/>
+      <c r="AB465" s="1"/>
+    </row>
+    <row r="466" spans="1:28">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -11882,9 +13856,13 @@
       <c r="R466" s="1"/>
       <c r="S466" s="1"/>
       <c r="T466" s="1"/>
+      <c r="U466" s="1"/>
+      <c r="V466" s="1"/>
       <c r="W466" s="1"/>
-    </row>
-    <row r="467" spans="1:23">
+      <c r="X466" s="1"/>
+      <c r="AB466" s="1"/>
+    </row>
+    <row r="467" spans="1:28">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -11904,9 +13882,13 @@
       <c r="R467" s="1"/>
       <c r="S467" s="1"/>
       <c r="T467" s="1"/>
+      <c r="U467" s="1"/>
+      <c r="V467" s="1"/>
       <c r="W467" s="1"/>
-    </row>
-    <row r="468" spans="1:23">
+      <c r="X467" s="1"/>
+      <c r="AB467" s="1"/>
+    </row>
+    <row r="468" spans="1:28">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -11926,9 +13908,13 @@
       <c r="R468" s="1"/>
       <c r="S468" s="1"/>
       <c r="T468" s="1"/>
+      <c r="U468" s="1"/>
+      <c r="V468" s="1"/>
       <c r="W468" s="1"/>
-    </row>
-    <row r="469" spans="1:23">
+      <c r="X468" s="1"/>
+      <c r="AB468" s="1"/>
+    </row>
+    <row r="469" spans="1:28">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -11948,9 +13934,13 @@
       <c r="R469" s="1"/>
       <c r="S469" s="1"/>
       <c r="T469" s="1"/>
+      <c r="U469" s="1"/>
+      <c r="V469" s="1"/>
       <c r="W469" s="1"/>
-    </row>
-    <row r="470" spans="1:23">
+      <c r="X469" s="1"/>
+      <c r="AB469" s="1"/>
+    </row>
+    <row r="470" spans="1:28">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -11970,9 +13960,13 @@
       <c r="R470" s="1"/>
       <c r="S470" s="1"/>
       <c r="T470" s="1"/>
+      <c r="U470" s="1"/>
+      <c r="V470" s="1"/>
       <c r="W470" s="1"/>
-    </row>
-    <row r="471" spans="1:23">
+      <c r="X470" s="1"/>
+      <c r="AB470" s="1"/>
+    </row>
+    <row r="471" spans="1:28">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -11992,9 +13986,13 @@
       <c r="R471" s="1"/>
       <c r="S471" s="1"/>
       <c r="T471" s="1"/>
+      <c r="U471" s="1"/>
+      <c r="V471" s="1"/>
       <c r="W471" s="1"/>
-    </row>
-    <row r="472" spans="1:23">
+      <c r="X471" s="1"/>
+      <c r="AB471" s="1"/>
+    </row>
+    <row r="472" spans="1:28">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -12014,9 +14012,13 @@
       <c r="R472" s="1"/>
       <c r="S472" s="1"/>
       <c r="T472" s="1"/>
+      <c r="U472" s="1"/>
+      <c r="V472" s="1"/>
       <c r="W472" s="1"/>
-    </row>
-    <row r="473" spans="1:23">
+      <c r="X472" s="1"/>
+      <c r="AB472" s="1"/>
+    </row>
+    <row r="473" spans="1:28">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -12036,9 +14038,13 @@
       <c r="R473" s="1"/>
       <c r="S473" s="1"/>
       <c r="T473" s="1"/>
+      <c r="U473" s="1"/>
+      <c r="V473" s="1"/>
       <c r="W473" s="1"/>
-    </row>
-    <row r="474" spans="1:23">
+      <c r="X473" s="1"/>
+      <c r="AB473" s="1"/>
+    </row>
+    <row r="474" spans="1:28">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -12058,9 +14064,13 @@
       <c r="R474" s="1"/>
       <c r="S474" s="1"/>
       <c r="T474" s="1"/>
+      <c r="U474" s="1"/>
+      <c r="V474" s="1"/>
       <c r="W474" s="1"/>
-    </row>
-    <row r="475" spans="1:23">
+      <c r="X474" s="1"/>
+      <c r="AB474" s="1"/>
+    </row>
+    <row r="475" spans="1:28">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -12080,9 +14090,13 @@
       <c r="R475" s="1"/>
       <c r="S475" s="1"/>
       <c r="T475" s="1"/>
+      <c r="U475" s="1"/>
+      <c r="V475" s="1"/>
       <c r="W475" s="1"/>
-    </row>
-    <row r="476" spans="1:23">
+      <c r="X475" s="1"/>
+      <c r="AB475" s="1"/>
+    </row>
+    <row r="476" spans="1:28">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -12102,9 +14116,13 @@
       <c r="R476" s="1"/>
       <c r="S476" s="1"/>
       <c r="T476" s="1"/>
+      <c r="U476" s="1"/>
+      <c r="V476" s="1"/>
       <c r="W476" s="1"/>
-    </row>
-    <row r="477" spans="1:23">
+      <c r="X476" s="1"/>
+      <c r="AB476" s="1"/>
+    </row>
+    <row r="477" spans="1:28">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -12124,9 +14142,13 @@
       <c r="R477" s="1"/>
       <c r="S477" s="1"/>
       <c r="T477" s="1"/>
+      <c r="U477" s="1"/>
+      <c r="V477" s="1"/>
       <c r="W477" s="1"/>
-    </row>
-    <row r="478" spans="1:23">
+      <c r="X477" s="1"/>
+      <c r="AB477" s="1"/>
+    </row>
+    <row r="478" spans="1:28">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -12146,9 +14168,13 @@
       <c r="R478" s="1"/>
       <c r="S478" s="1"/>
       <c r="T478" s="1"/>
+      <c r="U478" s="1"/>
+      <c r="V478" s="1"/>
       <c r="W478" s="1"/>
-    </row>
-    <row r="479" spans="1:23">
+      <c r="X478" s="1"/>
+      <c r="AB478" s="1"/>
+    </row>
+    <row r="479" spans="1:28">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -12168,9 +14194,13 @@
       <c r="R479" s="1"/>
       <c r="S479" s="1"/>
       <c r="T479" s="1"/>
+      <c r="U479" s="1"/>
+      <c r="V479" s="1"/>
       <c r="W479" s="1"/>
-    </row>
-    <row r="480" spans="1:23">
+      <c r="X479" s="1"/>
+      <c r="AB479" s="1"/>
+    </row>
+    <row r="480" spans="1:28">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -12190,9 +14220,13 @@
       <c r="R480" s="1"/>
       <c r="S480" s="1"/>
       <c r="T480" s="1"/>
+      <c r="U480" s="1"/>
+      <c r="V480" s="1"/>
       <c r="W480" s="1"/>
-    </row>
-    <row r="481" spans="1:23">
+      <c r="X480" s="1"/>
+      <c r="AB480" s="1"/>
+    </row>
+    <row r="481" spans="1:28">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -12212,9 +14246,13 @@
       <c r="R481" s="1"/>
       <c r="S481" s="1"/>
       <c r="T481" s="1"/>
+      <c r="U481" s="1"/>
+      <c r="V481" s="1"/>
       <c r="W481" s="1"/>
-    </row>
-    <row r="482" spans="1:23">
+      <c r="X481" s="1"/>
+      <c r="AB481" s="1"/>
+    </row>
+    <row r="482" spans="1:28">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -12234,9 +14272,13 @@
       <c r="R482" s="1"/>
       <c r="S482" s="1"/>
       <c r="T482" s="1"/>
+      <c r="U482" s="1"/>
+      <c r="V482" s="1"/>
       <c r="W482" s="1"/>
-    </row>
-    <row r="483" spans="1:23">
+      <c r="X482" s="1"/>
+      <c r="AB482" s="1"/>
+    </row>
+    <row r="483" spans="1:28">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -12256,9 +14298,13 @@
       <c r="R483" s="1"/>
       <c r="S483" s="1"/>
       <c r="T483" s="1"/>
+      <c r="U483" s="1"/>
+      <c r="V483" s="1"/>
       <c r="W483" s="1"/>
-    </row>
-    <row r="484" spans="1:23">
+      <c r="X483" s="1"/>
+      <c r="AB483" s="1"/>
+    </row>
+    <row r="484" spans="1:28">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -12278,9 +14324,13 @@
       <c r="R484" s="1"/>
       <c r="S484" s="1"/>
       <c r="T484" s="1"/>
+      <c r="U484" s="1"/>
+      <c r="V484" s="1"/>
       <c r="W484" s="1"/>
-    </row>
-    <row r="485" spans="1:23">
+      <c r="X484" s="1"/>
+      <c r="AB484" s="1"/>
+    </row>
+    <row r="485" spans="1:28">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -12300,9 +14350,13 @@
       <c r="R485" s="1"/>
       <c r="S485" s="1"/>
       <c r="T485" s="1"/>
+      <c r="U485" s="1"/>
+      <c r="V485" s="1"/>
       <c r="W485" s="1"/>
-    </row>
-    <row r="486" spans="1:23">
+      <c r="X485" s="1"/>
+      <c r="AB485" s="1"/>
+    </row>
+    <row r="486" spans="1:28">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -12322,9 +14376,13 @@
       <c r="R486" s="1"/>
       <c r="S486" s="1"/>
       <c r="T486" s="1"/>
+      <c r="U486" s="1"/>
+      <c r="V486" s="1"/>
       <c r="W486" s="1"/>
-    </row>
-    <row r="487" spans="1:23">
+      <c r="X486" s="1"/>
+      <c r="AB486" s="1"/>
+    </row>
+    <row r="487" spans="1:28">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -12344,9 +14402,13 @@
       <c r="R487" s="1"/>
       <c r="S487" s="1"/>
       <c r="T487" s="1"/>
+      <c r="U487" s="1"/>
+      <c r="V487" s="1"/>
       <c r="W487" s="1"/>
-    </row>
-    <row r="488" spans="1:23">
+      <c r="X487" s="1"/>
+      <c r="AB487" s="1"/>
+    </row>
+    <row r="488" spans="1:28">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -12366,9 +14428,13 @@
       <c r="R488" s="1"/>
       <c r="S488" s="1"/>
       <c r="T488" s="1"/>
+      <c r="U488" s="1"/>
+      <c r="V488" s="1"/>
       <c r="W488" s="1"/>
-    </row>
-    <row r="489" spans="1:23">
+      <c r="X488" s="1"/>
+      <c r="AB488" s="1"/>
+    </row>
+    <row r="489" spans="1:28">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -12388,9 +14454,13 @@
       <c r="R489" s="1"/>
       <c r="S489" s="1"/>
       <c r="T489" s="1"/>
+      <c r="U489" s="1"/>
+      <c r="V489" s="1"/>
       <c r="W489" s="1"/>
-    </row>
-    <row r="490" spans="1:23">
+      <c r="X489" s="1"/>
+      <c r="AB489" s="1"/>
+    </row>
+    <row r="490" spans="1:28">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -12410,9 +14480,13 @@
       <c r="R490" s="1"/>
       <c r="S490" s="1"/>
       <c r="T490" s="1"/>
+      <c r="U490" s="1"/>
+      <c r="V490" s="1"/>
       <c r="W490" s="1"/>
-    </row>
-    <row r="491" spans="1:23">
+      <c r="X490" s="1"/>
+      <c r="AB490" s="1"/>
+    </row>
+    <row r="491" spans="1:28">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -12432,9 +14506,13 @@
       <c r="R491" s="1"/>
       <c r="S491" s="1"/>
       <c r="T491" s="1"/>
+      <c r="U491" s="1"/>
+      <c r="V491" s="1"/>
       <c r="W491" s="1"/>
-    </row>
-    <row r="492" spans="1:23">
+      <c r="X491" s="1"/>
+      <c r="AB491" s="1"/>
+    </row>
+    <row r="492" spans="1:28">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -12454,9 +14532,13 @@
       <c r="R492" s="1"/>
       <c r="S492" s="1"/>
       <c r="T492" s="1"/>
+      <c r="U492" s="1"/>
+      <c r="V492" s="1"/>
       <c r="W492" s="1"/>
-    </row>
-    <row r="493" spans="1:23">
+      <c r="X492" s="1"/>
+      <c r="AB492" s="1"/>
+    </row>
+    <row r="493" spans="1:28">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -12476,9 +14558,13 @@
       <c r="R493" s="1"/>
       <c r="S493" s="1"/>
       <c r="T493" s="1"/>
+      <c r="U493" s="1"/>
+      <c r="V493" s="1"/>
       <c r="W493" s="1"/>
-    </row>
-    <row r="494" spans="1:23">
+      <c r="X493" s="1"/>
+      <c r="AB493" s="1"/>
+    </row>
+    <row r="494" spans="1:28">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -12498,9 +14584,13 @@
       <c r="R494" s="1"/>
       <c r="S494" s="1"/>
       <c r="T494" s="1"/>
+      <c r="U494" s="1"/>
+      <c r="V494" s="1"/>
       <c r="W494" s="1"/>
-    </row>
-    <row r="495" spans="1:23">
+      <c r="X494" s="1"/>
+      <c r="AB494" s="1"/>
+    </row>
+    <row r="495" spans="1:28">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -12520,9 +14610,13 @@
       <c r="R495" s="1"/>
       <c r="S495" s="1"/>
       <c r="T495" s="1"/>
+      <c r="U495" s="1"/>
+      <c r="V495" s="1"/>
       <c r="W495" s="1"/>
-    </row>
-    <row r="496" spans="1:23">
+      <c r="X495" s="1"/>
+      <c r="AB495" s="1"/>
+    </row>
+    <row r="496" spans="1:28">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -12542,9 +14636,13 @@
       <c r="R496" s="1"/>
       <c r="S496" s="1"/>
       <c r="T496" s="1"/>
+      <c r="U496" s="1"/>
+      <c r="V496" s="1"/>
       <c r="W496" s="1"/>
-    </row>
-    <row r="497" spans="1:23">
+      <c r="X496" s="1"/>
+      <c r="AB496" s="1"/>
+    </row>
+    <row r="497" spans="1:28">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -12564,9 +14662,13 @@
       <c r="R497" s="1"/>
       <c r="S497" s="1"/>
       <c r="T497" s="1"/>
+      <c r="U497" s="1"/>
+      <c r="V497" s="1"/>
       <c r="W497" s="1"/>
-    </row>
-    <row r="498" spans="1:23">
+      <c r="X497" s="1"/>
+      <c r="AB497" s="1"/>
+    </row>
+    <row r="498" spans="1:28">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -12586,9 +14688,13 @@
       <c r="R498" s="1"/>
       <c r="S498" s="1"/>
       <c r="T498" s="1"/>
+      <c r="U498" s="1"/>
+      <c r="V498" s="1"/>
       <c r="W498" s="1"/>
-    </row>
-    <row r="499" spans="1:23">
+      <c r="X498" s="1"/>
+      <c r="AB498" s="1"/>
+    </row>
+    <row r="499" spans="1:28">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -12608,9 +14714,13 @@
       <c r="R499" s="1"/>
       <c r="S499" s="1"/>
       <c r="T499" s="1"/>
+      <c r="U499" s="1"/>
+      <c r="V499" s="1"/>
       <c r="W499" s="1"/>
-    </row>
-    <row r="500" spans="1:23">
+      <c r="X499" s="1"/>
+      <c r="AB499" s="1"/>
+    </row>
+    <row r="500" spans="1:28">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -12630,9 +14740,13 @@
       <c r="R500" s="1"/>
       <c r="S500" s="1"/>
       <c r="T500" s="1"/>
+      <c r="U500" s="1"/>
+      <c r="V500" s="1"/>
       <c r="W500" s="1"/>
-    </row>
-    <row r="501" spans="1:23">
+      <c r="X500" s="1"/>
+      <c r="AB500" s="1"/>
+    </row>
+    <row r="501" spans="1:28">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -12652,9 +14766,13 @@
       <c r="R501" s="1"/>
       <c r="S501" s="1"/>
       <c r="T501" s="1"/>
+      <c r="U501" s="1"/>
+      <c r="V501" s="1"/>
       <c r="W501" s="1"/>
-    </row>
-    <row r="502" spans="1:23">
+      <c r="X501" s="1"/>
+      <c r="AB501" s="1"/>
+    </row>
+    <row r="502" spans="1:28">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -12674,14 +14792,18 @@
       <c r="R502" s="1"/>
       <c r="S502" s="1"/>
       <c r="T502" s="1"/>
+      <c r="U502" s="1"/>
+      <c r="V502" s="1"/>
       <c r="W502" s="1"/>
+      <c r="X502" s="1"/>
+      <c r="AB502" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="V1:AG1"/>
-    <mergeCell ref="V2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="X3:Y3"/>
+  <mergeCells count="43">
+    <mergeCell ref="AA1:AJ1"/>
+    <mergeCell ref="AA2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -12705,13 +14827,22 @@
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
     <mergeCell ref="B1:J2"/>
     <mergeCell ref="K1:M2"/>
-    <mergeCell ref="N1:U2"/>
+    <mergeCell ref="R1:Y2"/>
+    <mergeCell ref="N1:Q2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
   <si>
     <t>日期</t>
   </si>
@@ -25,10 +25,7 @@
     <t>止损线状态</t>
   </si>
   <si>
-    <t>继续持有指标</t>
-  </si>
-  <si>
-    <t>止损卖出指标(短期策略)</t>
+    <t>止损卖出指标(继续持有指标)</t>
   </si>
   <si>
     <t>盈亏平衡点到强势卖出阶段的策略(中期策略)</t>
@@ -356,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -390,12 +387,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,40 +753,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -804,34 +792,37 @@
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -840,7 +831,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -849,7 +840,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -861,25 +852,25 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -891,23 +882,23 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -959,7 +950,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,31 +959,22 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1013,19 +995,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1350,11 +1332,11 @@
   <dimension ref="A1:AJ502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="N3:N4 P3:P4"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1418,31 +1400,29 @@
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="23" t="s">
+      <c r="AA1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AA1" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" s="2"/>
@@ -1462,134 +1442,134 @@
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="26" t="s">
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ2" s="38"/>
+      <c r="AJ2" s="35"/>
     </row>
     <row r="3" spans="1:36">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="M3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="O3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="P3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="Q3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="R3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="S3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="T3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="U3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="V3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="W3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="22" t="s">
+      <c r="X3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="21" t="s">
+      <c r="Y3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="21" t="s">
+      <c r="Z3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="27" t="s">
+      <c r="AA3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="28" t="s">
+      <c r="AB3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AB3" s="28" t="s">
+      <c r="AC3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AC3" s="26" t="s">
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="35" t="s">
+      <c r="AF3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AF3" s="26" t="s">
+      <c r="AG3" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AG3" s="35" t="s">
+      <c r="AH3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AH3" s="35" t="s">
+      <c r="AI3" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AI3" s="38" t="s">
+      <c r="AJ3" s="36" t="s">
         <v>41</v>
-      </c>
-      <c r="AJ3" s="39" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:36">
@@ -1610,29 +1590,29 @@
       <c r="O4" s="18"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="36" t="s">
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="5">
@@ -1662,9 +1642,9 @@
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="6"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="31"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="28"/>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="7">
@@ -1695,8 +1675,8 @@
       <c r="X6" s="10"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="33"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="30"/>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="7">
@@ -1727,8 +1707,8 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="33"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="30"/>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="7">
@@ -1759,8 +1739,8 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="33"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="30"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="7">
@@ -2365,8 +2345,8 @@
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
       <c r="X27" s="10"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
+      <c r="Y27" s="31"/>
+      <c r="Z27" s="31"/>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
     </row>
@@ -2397,8 +2377,8 @@
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
       <c r="X28" s="10"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
     </row>
@@ -2429,8 +2409,8 @@
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
     </row>
@@ -2461,8 +2441,8 @@
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
       <c r="X30" s="10"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
     </row>
@@ -2493,8 +2473,8 @@
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
       <c r="X31" s="10"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
     </row>
@@ -2525,8 +2505,8 @@
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
       <c r="X32" s="10"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
     </row>
@@ -2557,8 +2537,8 @@
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
       <c r="X33" s="10"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
       <c r="AA33" s="10"/>
       <c r="AB33" s="10"/>
     </row>
@@ -2589,8 +2569,8 @@
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
       <c r="X34" s="10"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
       <c r="AA34" s="10"/>
       <c r="AB34" s="10"/>
     </row>
@@ -2621,8 +2601,8 @@
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
       <c r="X35" s="10"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
       <c r="AA35" s="10"/>
       <c r="AB35" s="10"/>
     </row>
@@ -2653,8 +2633,8 @@
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
       <c r="X36" s="10"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
       <c r="AA36" s="10"/>
       <c r="AB36" s="10"/>
     </row>
@@ -2685,8 +2665,8 @@
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
       <c r="X37" s="10"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
+      <c r="Y37" s="31"/>
+      <c r="Z37" s="31"/>
       <c r="AA37" s="10"/>
       <c r="AB37" s="10"/>
     </row>
@@ -2717,8 +2697,8 @@
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
       <c r="X38" s="10"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
       <c r="AA38" s="10"/>
       <c r="AB38" s="10"/>
     </row>
@@ -2749,8 +2729,8 @@
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
       <c r="X39" s="10"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
       <c r="AA39" s="10"/>
       <c r="AB39" s="10"/>
     </row>
@@ -2781,8 +2761,8 @@
       <c r="V40" s="10"/>
       <c r="W40" s="10"/>
       <c r="X40" s="10"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
+      <c r="Y40" s="31"/>
+      <c r="Z40" s="31"/>
       <c r="AA40" s="10"/>
       <c r="AB40" s="10"/>
     </row>
@@ -14799,7 +14779,7 @@
       <c r="AB502" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="42">
     <mergeCell ref="AA1:AJ1"/>
     <mergeCell ref="AA2:AH2"/>
     <mergeCell ref="AI2:AJ2"/>
@@ -14841,8 +14821,7 @@
     <mergeCell ref="AJ3:AJ4"/>
     <mergeCell ref="B1:J2"/>
     <mergeCell ref="K1:M2"/>
-    <mergeCell ref="R1:Y2"/>
-    <mergeCell ref="N1:Q2"/>
+    <mergeCell ref="N1:Y2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -1315,11 +1315,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B40" sqref="B40:AD131"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -61,16 +61,57 @@
     <t>上涨天数</t>
   </si>
   <si>
-    <t>单日跌幅/涨幅
-(止损时，该值创新低是要引起注意；止盈时，该值创新高是要引起注意)</t>
+    <r>
+      <t xml:space="preserve">单日跌幅/涨幅
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(止损时，该值创新低是要引起注意；止盈时，该值创新高是要引起注意)</t>
+    </r>
   </si>
   <si>
-    <t>买入后总跌幅/涨幅
-(下跌超过3%考虑卖出；上涨超过25%考虑卖出)</t>
+    <r>
+      <t xml:space="preserve">买入后总跌幅/涨幅
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(下跌超过3%考虑卖出；上涨超过25%考虑卖出)</t>
+    </r>
   </si>
   <si>
-    <t>上涨/下跌天数
-(上涨大于65%考虑止盈；下跌大于65%考虑止损)</t>
+    <r>
+      <t>上涨/下跌天数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(上涨大于65%考虑止盈；下跌大于65%考虑止损)</t>
+    </r>
   </si>
   <si>
     <t>是否出现低交易量突破</t>
@@ -152,7 +193,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +212,13 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -325,6 +373,21 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="41">
@@ -721,152 +784,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -903,10 +966,13 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -939,7 +1005,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -960,10 +1026,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1294,11 +1360,11 @@
   <dimension ref="A1:AC502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3:F4"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1349,29 +1415,29 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="17" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="2"/>
@@ -1386,27 +1452,27 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="33" t="s">
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="33"/>
+      <c r="AC2" s="34"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="2"/>
@@ -1443,53 +1509,53 @@
       <c r="L3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="U3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="20"/>
-      <c r="X3" s="28" t="s">
+      <c r="W3" s="21"/>
+      <c r="X3" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="20" t="s">
+      <c r="Y3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Z3" s="28" t="s">
+      <c r="Z3" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AA3" s="28" t="s">
+      <c r="AA3" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="33" t="s">
+      <c r="AB3" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AC3" s="34" t="s">
+      <c r="AC3" s="35" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1505,28 +1571,28 @@
       <c r="I4" s="9"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="29" t="s">
+      <c r="L4" s="13"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="30" t="s">
+      <c r="W4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="5">
@@ -1540,8 +1606,8 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="6"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -1549,17 +1615,17 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="7">
@@ -1573,8 +1639,8 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="6"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -1583,16 +1649,16 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="7">
@@ -1606,8 +1672,8 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
       <c r="L7" s="6"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
@@ -1616,16 +1682,16 @@
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
@@ -1639,8 +1705,8 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="6"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -1649,16 +1715,16 @@
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="7">
@@ -1684,14 +1750,14 @@
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="6"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="7">
@@ -1717,14 +1783,14 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="7">
@@ -1750,14 +1816,14 @@
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="6"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="7">
@@ -1783,14 +1849,14 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
       <c r="U12" s="6"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="7">
@@ -1816,14 +1882,14 @@
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="6"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -1849,14 +1915,14 @@
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
       <c r="U14" s="6"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -1882,14 +1948,14 @@
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="7">
@@ -1915,14 +1981,14 @@
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="7">
@@ -1948,14 +2014,14 @@
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="7">
@@ -1981,14 +2047,14 @@
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="7">
@@ -2014,14 +2080,14 @@
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="6"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="7">
@@ -2047,14 +2113,14 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="7">
@@ -2080,14 +2146,14 @@
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="7">
@@ -2113,14 +2179,14 @@
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="7">
@@ -2146,14 +2212,14 @@
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
       <c r="U23" s="6"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="7">
@@ -2179,14 +2245,14 @@
       <c r="S24" s="10"/>
       <c r="T24" s="10"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
     </row>
     <row r="25" spans="1:29">
       <c r="A25" s="7">
@@ -2212,14 +2278,14 @@
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
       <c r="U25" s="6"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="7">
@@ -2245,14 +2311,14 @@
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="7">
@@ -2275,17 +2341,17 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
-      <c r="S27" s="26"/>
+      <c r="S27" s="27"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="7">
@@ -2308,17 +2374,17 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
-      <c r="S28" s="26"/>
+      <c r="S28" s="27"/>
       <c r="T28" s="10"/>
       <c r="U28" s="10"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="7">
@@ -2341,17 +2407,17 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
-      <c r="S29" s="26"/>
+      <c r="S29" s="27"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="7">
@@ -2374,17 +2440,17 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
-      <c r="S30" s="26"/>
+      <c r="S30" s="27"/>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="7">
@@ -2407,17 +2473,17 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
-      <c r="S31" s="26"/>
+      <c r="S31" s="27"/>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="28"/>
+      <c r="X31" s="28"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="28"/>
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="7">
@@ -2440,17 +2506,17 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
-      <c r="S32" s="26"/>
+      <c r="S32" s="27"/>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
     </row>
     <row r="33" spans="1:29">
       <c r="A33" s="7">
@@ -2473,17 +2539,17 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
-      <c r="S33" s="26"/>
+      <c r="S33" s="27"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
     </row>
     <row r="34" spans="1:29">
       <c r="A34" s="7">
@@ -2506,17 +2572,17 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
-      <c r="S34" s="26"/>
+      <c r="S34" s="27"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="27"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
     </row>
     <row r="35" spans="1:29">
       <c r="A35" s="7">
@@ -2539,17 +2605,17 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
-      <c r="S35" s="26"/>
+      <c r="S35" s="27"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="27"/>
-      <c r="AC35" s="27"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
     </row>
     <row r="36" spans="1:29">
       <c r="A36" s="7">
@@ -2572,17 +2638,17 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
-      <c r="S36" s="26"/>
+      <c r="S36" s="27"/>
       <c r="T36" s="10"/>
       <c r="U36" s="10"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
     </row>
     <row r="37" spans="1:29">
       <c r="A37" s="7">
@@ -2605,17 +2671,17 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
-      <c r="S37" s="26"/>
+      <c r="S37" s="27"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="28"/>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="28"/>
     </row>
     <row r="38" spans="1:29">
       <c r="A38" s="7">
@@ -2638,17 +2704,17 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
-      <c r="S38" s="26"/>
+      <c r="S38" s="27"/>
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
     </row>
     <row r="39" spans="1:29">
       <c r="A39" s="7">
@@ -2671,17 +2737,17 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
-      <c r="S39" s="26"/>
+      <c r="S39" s="27"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="7">
@@ -2704,17 +2770,17 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
-      <c r="S40" s="26"/>
+      <c r="S40" s="27"/>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="27"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
     </row>
     <row r="41" spans="1:29">
       <c r="A41" s="7">
@@ -2737,17 +2803,17 @@
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
-      <c r="S41" s="27"/>
+      <c r="S41" s="28"/>
       <c r="T41" s="8"/>
       <c r="U41" s="8"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
     </row>
     <row r="42" spans="1:29">
       <c r="A42" s="7">
@@ -2770,17 +2836,17 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
       <c r="R42" s="8"/>
-      <c r="S42" s="27"/>
+      <c r="S42" s="28"/>
       <c r="T42" s="8"/>
       <c r="U42" s="8"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
+      <c r="V42" s="28"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
     </row>
     <row r="43" spans="1:29">
       <c r="A43" s="7">
@@ -2803,17 +2869,17 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
       <c r="R43" s="8"/>
-      <c r="S43" s="27"/>
+      <c r="S43" s="28"/>
       <c r="T43" s="8"/>
       <c r="U43" s="8"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
+      <c r="V43" s="28"/>
+      <c r="W43" s="28"/>
+      <c r="X43" s="28"/>
+      <c r="Y43" s="28"/>
+      <c r="Z43" s="28"/>
+      <c r="AA43" s="28"/>
+      <c r="AB43" s="28"/>
+      <c r="AC43" s="28"/>
     </row>
     <row r="44" spans="1:29">
       <c r="A44" s="7">
@@ -2836,17 +2902,17 @@
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
       <c r="R44" s="8"/>
-      <c r="S44" s="27"/>
+      <c r="S44" s="28"/>
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="27"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
     </row>
     <row r="45" spans="1:29">
       <c r="A45" s="7">
@@ -2869,17 +2935,17 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
-      <c r="S45" s="27"/>
+      <c r="S45" s="28"/>
       <c r="T45" s="8"/>
       <c r="U45" s="8"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="27"/>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="27"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="7">
@@ -2902,17 +2968,17 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
-      <c r="S46" s="27"/>
+      <c r="S46" s="28"/>
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="27"/>
-      <c r="AC46" s="27"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
     </row>
     <row r="47" spans="1:29">
       <c r="A47" s="7">
@@ -2935,17 +3001,17 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
-      <c r="S47" s="27"/>
+      <c r="S47" s="28"/>
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="27"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="27"/>
-      <c r="AA47" s="27"/>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="27"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="28"/>
+      <c r="X47" s="28"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="28"/>
+      <c r="AA47" s="28"/>
+      <c r="AB47" s="28"/>
+      <c r="AC47" s="28"/>
     </row>
     <row r="48" spans="1:29">
       <c r="A48" s="7">
@@ -2968,17 +3034,17 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
-      <c r="S48" s="27"/>
+      <c r="S48" s="28"/>
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
-      <c r="V48" s="27"/>
-      <c r="W48" s="27"/>
-      <c r="X48" s="27"/>
-      <c r="Y48" s="27"/>
-      <c r="Z48" s="27"/>
-      <c r="AA48" s="27"/>
-      <c r="AB48" s="27"/>
-      <c r="AC48" s="27"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
     </row>
     <row r="49" spans="1:29">
       <c r="A49" s="7">
@@ -3001,17 +3067,17 @@
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
-      <c r="S49" s="27"/>
+      <c r="S49" s="28"/>
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="27"/>
-      <c r="AC49" s="27"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="28"/>
+      <c r="AC49" s="28"/>
     </row>
     <row r="50" spans="1:29">
       <c r="A50" s="7">
@@ -3034,17 +3100,17 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
-      <c r="S50" s="27"/>
+      <c r="S50" s="28"/>
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="27"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="27"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
+      <c r="AC50" s="28"/>
     </row>
     <row r="51" spans="1:29">
       <c r="A51" s="7">
@@ -3067,17 +3133,17 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
-      <c r="S51" s="27"/>
+      <c r="S51" s="28"/>
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="27"/>
-      <c r="Z51" s="27"/>
-      <c r="AA51" s="27"/>
-      <c r="AB51" s="27"/>
-      <c r="AC51" s="27"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="28"/>
+      <c r="X51" s="28"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28"/>
+      <c r="AA51" s="28"/>
+      <c r="AB51" s="28"/>
+      <c r="AC51" s="28"/>
     </row>
     <row r="52" spans="1:29">
       <c r="A52" s="7">
@@ -3100,17 +3166,17 @@
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8"/>
-      <c r="S52" s="27"/>
+      <c r="S52" s="28"/>
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
-      <c r="V52" s="27"/>
-      <c r="W52" s="27"/>
-      <c r="X52" s="27"/>
-      <c r="Y52" s="27"/>
-      <c r="Z52" s="27"/>
-      <c r="AA52" s="27"/>
-      <c r="AB52" s="27"/>
-      <c r="AC52" s="27"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+      <c r="AA52" s="28"/>
+      <c r="AB52" s="28"/>
+      <c r="AC52" s="28"/>
     </row>
     <row r="53" spans="1:29">
       <c r="A53" s="7">
@@ -3133,17 +3199,17 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
-      <c r="S53" s="27"/>
+      <c r="S53" s="28"/>
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
-      <c r="V53" s="27"/>
-      <c r="W53" s="27"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="27"/>
-      <c r="Z53" s="27"/>
-      <c r="AA53" s="27"/>
-      <c r="AB53" s="27"/>
-      <c r="AC53" s="27"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="28"/>
+      <c r="AA53" s="28"/>
+      <c r="AB53" s="28"/>
+      <c r="AC53" s="28"/>
     </row>
     <row r="54" spans="1:29">
       <c r="A54" s="7">
@@ -3166,17 +3232,17 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
-      <c r="S54" s="27"/>
+      <c r="S54" s="28"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
-      <c r="V54" s="27"/>
-      <c r="W54" s="27"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="27"/>
-      <c r="Z54" s="27"/>
-      <c r="AA54" s="27"/>
-      <c r="AB54" s="27"/>
-      <c r="AC54" s="27"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28"/>
+      <c r="AA54" s="28"/>
+      <c r="AB54" s="28"/>
+      <c r="AC54" s="28"/>
     </row>
     <row r="55" spans="1:29">
       <c r="A55" s="7">
@@ -3199,17 +3265,17 @@
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
-      <c r="S55" s="27"/>
+      <c r="S55" s="28"/>
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
-      <c r="V55" s="27"/>
-      <c r="W55" s="27"/>
-      <c r="X55" s="27"/>
-      <c r="Y55" s="27"/>
-      <c r="Z55" s="27"/>
-      <c r="AA55" s="27"/>
-      <c r="AB55" s="27"/>
-      <c r="AC55" s="27"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="28"/>
+      <c r="AA55" s="28"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="28"/>
     </row>
     <row r="56" spans="1:29">
       <c r="A56" s="7">
@@ -3232,17 +3298,17 @@
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
-      <c r="S56" s="27"/>
+      <c r="S56" s="28"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
-      <c r="V56" s="27"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="27"/>
-      <c r="Y56" s="27"/>
-      <c r="Z56" s="27"/>
-      <c r="AA56" s="27"/>
-      <c r="AB56" s="27"/>
-      <c r="AC56" s="27"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="28"/>
+      <c r="AC56" s="28"/>
     </row>
     <row r="57" spans="1:29">
       <c r="A57" s="7">
@@ -3265,17 +3331,17 @@
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
       <c r="R57" s="8"/>
-      <c r="S57" s="27"/>
+      <c r="S57" s="28"/>
       <c r="T57" s="8"/>
       <c r="U57" s="8"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="27"/>
-      <c r="Z57" s="27"/>
-      <c r="AA57" s="27"/>
-      <c r="AB57" s="27"/>
-      <c r="AC57" s="27"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="28"/>
+      <c r="AA57" s="28"/>
+      <c r="AB57" s="28"/>
+      <c r="AC57" s="28"/>
     </row>
     <row r="58" spans="1:29">
       <c r="A58" s="7">
@@ -3298,17 +3364,17 @@
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
-      <c r="S58" s="27"/>
+      <c r="S58" s="28"/>
       <c r="T58" s="8"/>
       <c r="U58" s="8"/>
-      <c r="V58" s="27"/>
-      <c r="W58" s="27"/>
-      <c r="X58" s="27"/>
-      <c r="Y58" s="27"/>
-      <c r="Z58" s="27"/>
-      <c r="AA58" s="27"/>
-      <c r="AB58" s="27"/>
-      <c r="AC58" s="27"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="28"/>
+      <c r="AA58" s="28"/>
+      <c r="AB58" s="28"/>
+      <c r="AC58" s="28"/>
     </row>
     <row r="59" spans="1:29">
       <c r="A59" s="7">
@@ -3331,17 +3397,17 @@
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
-      <c r="S59" s="27"/>
+      <c r="S59" s="28"/>
       <c r="T59" s="8"/>
       <c r="U59" s="8"/>
-      <c r="V59" s="27"/>
-      <c r="W59" s="27"/>
-      <c r="X59" s="27"/>
-      <c r="Y59" s="27"/>
-      <c r="Z59" s="27"/>
-      <c r="AA59" s="27"/>
-      <c r="AB59" s="27"/>
-      <c r="AC59" s="27"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="28"/>
+      <c r="Z59" s="28"/>
+      <c r="AA59" s="28"/>
+      <c r="AB59" s="28"/>
+      <c r="AC59" s="28"/>
     </row>
     <row r="60" spans="1:29">
       <c r="A60" s="7">
@@ -3364,17 +3430,17 @@
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
-      <c r="S60" s="27"/>
+      <c r="S60" s="28"/>
       <c r="T60" s="8"/>
       <c r="U60" s="8"/>
-      <c r="V60" s="27"/>
-      <c r="W60" s="27"/>
-      <c r="X60" s="27"/>
-      <c r="Y60" s="27"/>
-      <c r="Z60" s="27"/>
-      <c r="AA60" s="27"/>
-      <c r="AB60" s="27"/>
-      <c r="AC60" s="27"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="28"/>
+      <c r="AB60" s="28"/>
+      <c r="AC60" s="28"/>
     </row>
     <row r="61" spans="1:29">
       <c r="A61" s="7">
@@ -3397,17 +3463,17 @@
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
       <c r="R61" s="8"/>
-      <c r="S61" s="27"/>
+      <c r="S61" s="28"/>
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
-      <c r="V61" s="27"/>
-      <c r="W61" s="27"/>
-      <c r="X61" s="27"/>
-      <c r="Y61" s="27"/>
-      <c r="Z61" s="27"/>
-      <c r="AA61" s="27"/>
-      <c r="AB61" s="27"/>
-      <c r="AC61" s="27"/>
+      <c r="V61" s="28"/>
+      <c r="W61" s="28"/>
+      <c r="X61" s="28"/>
+      <c r="Y61" s="28"/>
+      <c r="Z61" s="28"/>
+      <c r="AA61" s="28"/>
+      <c r="AB61" s="28"/>
+      <c r="AC61" s="28"/>
     </row>
     <row r="62" spans="1:29">
       <c r="A62" s="7">
@@ -3430,17 +3496,17 @@
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
-      <c r="S62" s="27"/>
+      <c r="S62" s="28"/>
       <c r="T62" s="8"/>
       <c r="U62" s="8"/>
-      <c r="V62" s="27"/>
-      <c r="W62" s="27"/>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="27"/>
-      <c r="Z62" s="27"/>
-      <c r="AA62" s="27"/>
-      <c r="AB62" s="27"/>
-      <c r="AC62" s="27"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="28"/>
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="28"/>
+      <c r="AA62" s="28"/>
+      <c r="AB62" s="28"/>
+      <c r="AC62" s="28"/>
     </row>
     <row r="63" spans="1:29">
       <c r="A63" s="7">
@@ -3463,17 +3529,17 @@
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
-      <c r="S63" s="27"/>
+      <c r="S63" s="28"/>
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
-      <c r="V63" s="27"/>
-      <c r="W63" s="27"/>
-      <c r="X63" s="27"/>
-      <c r="Y63" s="27"/>
-      <c r="Z63" s="27"/>
-      <c r="AA63" s="27"/>
-      <c r="AB63" s="27"/>
-      <c r="AC63" s="27"/>
+      <c r="V63" s="28"/>
+      <c r="W63" s="28"/>
+      <c r="X63" s="28"/>
+      <c r="Y63" s="28"/>
+      <c r="Z63" s="28"/>
+      <c r="AA63" s="28"/>
+      <c r="AB63" s="28"/>
+      <c r="AC63" s="28"/>
     </row>
     <row r="64" spans="1:29">
       <c r="A64" s="7">
@@ -3496,17 +3562,17 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
-      <c r="S64" s="27"/>
+      <c r="S64" s="28"/>
       <c r="T64" s="8"/>
       <c r="U64" s="8"/>
-      <c r="V64" s="27"/>
-      <c r="W64" s="27"/>
-      <c r="X64" s="27"/>
-      <c r="Y64" s="27"/>
-      <c r="Z64" s="27"/>
-      <c r="AA64" s="27"/>
-      <c r="AB64" s="27"/>
-      <c r="AC64" s="27"/>
+      <c r="V64" s="28"/>
+      <c r="W64" s="28"/>
+      <c r="X64" s="28"/>
+      <c r="Y64" s="28"/>
+      <c r="Z64" s="28"/>
+      <c r="AA64" s="28"/>
+      <c r="AB64" s="28"/>
+      <c r="AC64" s="28"/>
     </row>
     <row r="65" spans="1:29">
       <c r="A65" s="7">
@@ -3529,17 +3595,17 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
       <c r="R65" s="8"/>
-      <c r="S65" s="27"/>
+      <c r="S65" s="28"/>
       <c r="T65" s="8"/>
       <c r="U65" s="8"/>
-      <c r="V65" s="27"/>
-      <c r="W65" s="27"/>
-      <c r="X65" s="27"/>
-      <c r="Y65" s="27"/>
-      <c r="Z65" s="27"/>
-      <c r="AA65" s="27"/>
-      <c r="AB65" s="27"/>
-      <c r="AC65" s="27"/>
+      <c r="V65" s="28"/>
+      <c r="W65" s="28"/>
+      <c r="X65" s="28"/>
+      <c r="Y65" s="28"/>
+      <c r="Z65" s="28"/>
+      <c r="AA65" s="28"/>
+      <c r="AB65" s="28"/>
+      <c r="AC65" s="28"/>
     </row>
     <row r="66" spans="1:29">
       <c r="A66" s="7">
@@ -3562,17 +3628,17 @@
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
       <c r="R66" s="8"/>
-      <c r="S66" s="27"/>
+      <c r="S66" s="28"/>
       <c r="T66" s="8"/>
       <c r="U66" s="8"/>
-      <c r="V66" s="27"/>
-      <c r="W66" s="27"/>
-      <c r="X66" s="27"/>
-      <c r="Y66" s="27"/>
-      <c r="Z66" s="27"/>
-      <c r="AA66" s="27"/>
-      <c r="AB66" s="27"/>
-      <c r="AC66" s="27"/>
+      <c r="V66" s="28"/>
+      <c r="W66" s="28"/>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="28"/>
+      <c r="Z66" s="28"/>
+      <c r="AA66" s="28"/>
+      <c r="AB66" s="28"/>
+      <c r="AC66" s="28"/>
     </row>
     <row r="67" spans="1:29">
       <c r="A67" s="7">
@@ -3595,17 +3661,17 @@
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
-      <c r="S67" s="27"/>
+      <c r="S67" s="28"/>
       <c r="T67" s="8"/>
       <c r="U67" s="8"/>
-      <c r="V67" s="27"/>
-      <c r="W67" s="27"/>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="27"/>
-      <c r="Z67" s="27"/>
-      <c r="AA67" s="27"/>
-      <c r="AB67" s="27"/>
-      <c r="AC67" s="27"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="28"/>
+      <c r="AA67" s="28"/>
+      <c r="AB67" s="28"/>
+      <c r="AC67" s="28"/>
     </row>
     <row r="68" spans="1:29">
       <c r="A68" s="7">
@@ -3628,17 +3694,17 @@
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
-      <c r="S68" s="27"/>
+      <c r="S68" s="28"/>
       <c r="T68" s="8"/>
       <c r="U68" s="8"/>
-      <c r="V68" s="27"/>
-      <c r="W68" s="27"/>
-      <c r="X68" s="27"/>
-      <c r="Y68" s="27"/>
-      <c r="Z68" s="27"/>
-      <c r="AA68" s="27"/>
-      <c r="AB68" s="27"/>
-      <c r="AC68" s="27"/>
+      <c r="V68" s="28"/>
+      <c r="W68" s="28"/>
+      <c r="X68" s="28"/>
+      <c r="Y68" s="28"/>
+      <c r="Z68" s="28"/>
+      <c r="AA68" s="28"/>
+      <c r="AB68" s="28"/>
+      <c r="AC68" s="28"/>
     </row>
     <row r="69" spans="1:29">
       <c r="A69" s="7">
@@ -3661,17 +3727,17 @@
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
-      <c r="S69" s="27"/>
+      <c r="S69" s="28"/>
       <c r="T69" s="8"/>
       <c r="U69" s="8"/>
-      <c r="V69" s="27"/>
-      <c r="W69" s="27"/>
-      <c r="X69" s="27"/>
-      <c r="Y69" s="27"/>
-      <c r="Z69" s="27"/>
-      <c r="AA69" s="27"/>
-      <c r="AB69" s="27"/>
-      <c r="AC69" s="27"/>
+      <c r="V69" s="28"/>
+      <c r="W69" s="28"/>
+      <c r="X69" s="28"/>
+      <c r="Y69" s="28"/>
+      <c r="Z69" s="28"/>
+      <c r="AA69" s="28"/>
+      <c r="AB69" s="28"/>
+      <c r="AC69" s="28"/>
     </row>
     <row r="70" spans="1:29">
       <c r="A70" s="7">
@@ -3694,17 +3760,17 @@
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
       <c r="R70" s="8"/>
-      <c r="S70" s="27"/>
+      <c r="S70" s="28"/>
       <c r="T70" s="8"/>
       <c r="U70" s="8"/>
-      <c r="V70" s="27"/>
-      <c r="W70" s="27"/>
-      <c r="X70" s="27"/>
-      <c r="Y70" s="27"/>
-      <c r="Z70" s="27"/>
-      <c r="AA70" s="27"/>
-      <c r="AB70" s="27"/>
-      <c r="AC70" s="27"/>
+      <c r="V70" s="28"/>
+      <c r="W70" s="28"/>
+      <c r="X70" s="28"/>
+      <c r="Y70" s="28"/>
+      <c r="Z70" s="28"/>
+      <c r="AA70" s="28"/>
+      <c r="AB70" s="28"/>
+      <c r="AC70" s="28"/>
     </row>
     <row r="71" spans="1:29">
       <c r="A71" s="7">
@@ -3727,17 +3793,17 @@
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
       <c r="R71" s="8"/>
-      <c r="S71" s="27"/>
+      <c r="S71" s="28"/>
       <c r="T71" s="8"/>
       <c r="U71" s="8"/>
-      <c r="V71" s="27"/>
-      <c r="W71" s="27"/>
-      <c r="X71" s="27"/>
-      <c r="Y71" s="27"/>
-      <c r="Z71" s="27"/>
-      <c r="AA71" s="27"/>
-      <c r="AB71" s="27"/>
-      <c r="AC71" s="27"/>
+      <c r="V71" s="28"/>
+      <c r="W71" s="28"/>
+      <c r="X71" s="28"/>
+      <c r="Y71" s="28"/>
+      <c r="Z71" s="28"/>
+      <c r="AA71" s="28"/>
+      <c r="AB71" s="28"/>
+      <c r="AC71" s="28"/>
     </row>
     <row r="72" spans="1:29">
       <c r="A72" s="7">
@@ -3760,17 +3826,17 @@
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
-      <c r="S72" s="27"/>
+      <c r="S72" s="28"/>
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
-      <c r="V72" s="27"/>
-      <c r="W72" s="27"/>
-      <c r="X72" s="27"/>
-      <c r="Y72" s="27"/>
-      <c r="Z72" s="27"/>
-      <c r="AA72" s="27"/>
-      <c r="AB72" s="27"/>
-      <c r="AC72" s="27"/>
+      <c r="V72" s="28"/>
+      <c r="W72" s="28"/>
+      <c r="X72" s="28"/>
+      <c r="Y72" s="28"/>
+      <c r="Z72" s="28"/>
+      <c r="AA72" s="28"/>
+      <c r="AB72" s="28"/>
+      <c r="AC72" s="28"/>
     </row>
     <row r="73" spans="1:29">
       <c r="A73" s="7">
@@ -3793,17 +3859,17 @@
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
-      <c r="S73" s="27"/>
+      <c r="S73" s="28"/>
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
-      <c r="V73" s="27"/>
-      <c r="W73" s="27"/>
-      <c r="X73" s="27"/>
-      <c r="Y73" s="27"/>
-      <c r="Z73" s="27"/>
-      <c r="AA73" s="27"/>
-      <c r="AB73" s="27"/>
-      <c r="AC73" s="27"/>
+      <c r="V73" s="28"/>
+      <c r="W73" s="28"/>
+      <c r="X73" s="28"/>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="28"/>
+      <c r="AA73" s="28"/>
+      <c r="AB73" s="28"/>
+      <c r="AC73" s="28"/>
     </row>
     <row r="74" spans="1:29">
       <c r="A74" s="7">
@@ -3826,17 +3892,17 @@
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
-      <c r="S74" s="27"/>
+      <c r="S74" s="28"/>
       <c r="T74" s="8"/>
       <c r="U74" s="8"/>
-      <c r="V74" s="27"/>
-      <c r="W74" s="27"/>
-      <c r="X74" s="27"/>
-      <c r="Y74" s="27"/>
-      <c r="Z74" s="27"/>
-      <c r="AA74" s="27"/>
-      <c r="AB74" s="27"/>
-      <c r="AC74" s="27"/>
+      <c r="V74" s="28"/>
+      <c r="W74" s="28"/>
+      <c r="X74" s="28"/>
+      <c r="Y74" s="28"/>
+      <c r="Z74" s="28"/>
+      <c r="AA74" s="28"/>
+      <c r="AB74" s="28"/>
+      <c r="AC74" s="28"/>
     </row>
     <row r="75" spans="1:29">
       <c r="A75" s="7">
@@ -3859,17 +3925,17 @@
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
-      <c r="S75" s="27"/>
+      <c r="S75" s="28"/>
       <c r="T75" s="8"/>
       <c r="U75" s="8"/>
-      <c r="V75" s="27"/>
-      <c r="W75" s="27"/>
-      <c r="X75" s="27"/>
-      <c r="Y75" s="27"/>
-      <c r="Z75" s="27"/>
-      <c r="AA75" s="27"/>
-      <c r="AB75" s="27"/>
-      <c r="AC75" s="27"/>
+      <c r="V75" s="28"/>
+      <c r="W75" s="28"/>
+      <c r="X75" s="28"/>
+      <c r="Y75" s="28"/>
+      <c r="Z75" s="28"/>
+      <c r="AA75" s="28"/>
+      <c r="AB75" s="28"/>
+      <c r="AC75" s="28"/>
     </row>
     <row r="76" spans="1:29">
       <c r="A76" s="7">
@@ -3892,17 +3958,17 @@
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
       <c r="R76" s="8"/>
-      <c r="S76" s="27"/>
+      <c r="S76" s="28"/>
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
-      <c r="V76" s="27"/>
-      <c r="W76" s="27"/>
-      <c r="X76" s="27"/>
-      <c r="Y76" s="27"/>
-      <c r="Z76" s="27"/>
-      <c r="AA76" s="27"/>
-      <c r="AB76" s="27"/>
-      <c r="AC76" s="27"/>
+      <c r="V76" s="28"/>
+      <c r="W76" s="28"/>
+      <c r="X76" s="28"/>
+      <c r="Y76" s="28"/>
+      <c r="Z76" s="28"/>
+      <c r="AA76" s="28"/>
+      <c r="AB76" s="28"/>
+      <c r="AC76" s="28"/>
     </row>
     <row r="77" spans="1:29">
       <c r="A77" s="7">
@@ -3925,17 +3991,17 @@
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
-      <c r="S77" s="27"/>
+      <c r="S77" s="28"/>
       <c r="T77" s="8"/>
       <c r="U77" s="8"/>
-      <c r="V77" s="27"/>
-      <c r="W77" s="27"/>
-      <c r="X77" s="27"/>
-      <c r="Y77" s="27"/>
-      <c r="Z77" s="27"/>
-      <c r="AA77" s="27"/>
-      <c r="AB77" s="27"/>
-      <c r="AC77" s="27"/>
+      <c r="V77" s="28"/>
+      <c r="W77" s="28"/>
+      <c r="X77" s="28"/>
+      <c r="Y77" s="28"/>
+      <c r="Z77" s="28"/>
+      <c r="AA77" s="28"/>
+      <c r="AB77" s="28"/>
+      <c r="AC77" s="28"/>
     </row>
     <row r="78" spans="1:29">
       <c r="A78" s="7">
@@ -3958,17 +4024,17 @@
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
-      <c r="S78" s="27"/>
+      <c r="S78" s="28"/>
       <c r="T78" s="8"/>
       <c r="U78" s="8"/>
-      <c r="V78" s="27"/>
-      <c r="W78" s="27"/>
-      <c r="X78" s="27"/>
-      <c r="Y78" s="27"/>
-      <c r="Z78" s="27"/>
-      <c r="AA78" s="27"/>
-      <c r="AB78" s="27"/>
-      <c r="AC78" s="27"/>
+      <c r="V78" s="28"/>
+      <c r="W78" s="28"/>
+      <c r="X78" s="28"/>
+      <c r="Y78" s="28"/>
+      <c r="Z78" s="28"/>
+      <c r="AA78" s="28"/>
+      <c r="AB78" s="28"/>
+      <c r="AC78" s="28"/>
     </row>
     <row r="79" spans="1:29">
       <c r="A79" s="7">
@@ -3991,17 +4057,17 @@
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
-      <c r="S79" s="27"/>
+      <c r="S79" s="28"/>
       <c r="T79" s="8"/>
       <c r="U79" s="8"/>
-      <c r="V79" s="27"/>
-      <c r="W79" s="27"/>
-      <c r="X79" s="27"/>
-      <c r="Y79" s="27"/>
-      <c r="Z79" s="27"/>
-      <c r="AA79" s="27"/>
-      <c r="AB79" s="27"/>
-      <c r="AC79" s="27"/>
+      <c r="V79" s="28"/>
+      <c r="W79" s="28"/>
+      <c r="X79" s="28"/>
+      <c r="Y79" s="28"/>
+      <c r="Z79" s="28"/>
+      <c r="AA79" s="28"/>
+      <c r="AB79" s="28"/>
+      <c r="AC79" s="28"/>
     </row>
     <row r="80" spans="1:29">
       <c r="A80" s="7">
@@ -4024,17 +4090,17 @@
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
-      <c r="S80" s="27"/>
+      <c r="S80" s="28"/>
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
-      <c r="V80" s="27"/>
-      <c r="W80" s="27"/>
-      <c r="X80" s="27"/>
-      <c r="Y80" s="27"/>
-      <c r="Z80" s="27"/>
-      <c r="AA80" s="27"/>
-      <c r="AB80" s="27"/>
-      <c r="AC80" s="27"/>
+      <c r="V80" s="28"/>
+      <c r="W80" s="28"/>
+      <c r="X80" s="28"/>
+      <c r="Y80" s="28"/>
+      <c r="Z80" s="28"/>
+      <c r="AA80" s="28"/>
+      <c r="AB80" s="28"/>
+      <c r="AC80" s="28"/>
     </row>
     <row r="81" spans="1:29">
       <c r="A81" s="7">
@@ -4057,17 +4123,17 @@
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
-      <c r="S81" s="27"/>
+      <c r="S81" s="28"/>
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
-      <c r="V81" s="27"/>
-      <c r="W81" s="27"/>
-      <c r="X81" s="27"/>
-      <c r="Y81" s="27"/>
-      <c r="Z81" s="27"/>
-      <c r="AA81" s="27"/>
-      <c r="AB81" s="27"/>
-      <c r="AC81" s="27"/>
+      <c r="V81" s="28"/>
+      <c r="W81" s="28"/>
+      <c r="X81" s="28"/>
+      <c r="Y81" s="28"/>
+      <c r="Z81" s="28"/>
+      <c r="AA81" s="28"/>
+      <c r="AB81" s="28"/>
+      <c r="AC81" s="28"/>
     </row>
     <row r="82" spans="1:29">
       <c r="A82" s="7">
@@ -4090,17 +4156,17 @@
       <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
-      <c r="S82" s="27"/>
+      <c r="S82" s="28"/>
       <c r="T82" s="8"/>
       <c r="U82" s="8"/>
-      <c r="V82" s="27"/>
-      <c r="W82" s="27"/>
-      <c r="X82" s="27"/>
-      <c r="Y82" s="27"/>
-      <c r="Z82" s="27"/>
-      <c r="AA82" s="27"/>
-      <c r="AB82" s="27"/>
-      <c r="AC82" s="27"/>
+      <c r="V82" s="28"/>
+      <c r="W82" s="28"/>
+      <c r="X82" s="28"/>
+      <c r="Y82" s="28"/>
+      <c r="Z82" s="28"/>
+      <c r="AA82" s="28"/>
+      <c r="AB82" s="28"/>
+      <c r="AC82" s="28"/>
     </row>
     <row r="83" spans="1:29">
       <c r="A83" s="7">
@@ -4123,17 +4189,17 @@
       <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
-      <c r="S83" s="27"/>
+      <c r="S83" s="28"/>
       <c r="T83" s="8"/>
       <c r="U83" s="8"/>
-      <c r="V83" s="27"/>
-      <c r="W83" s="27"/>
-      <c r="X83" s="27"/>
-      <c r="Y83" s="27"/>
-      <c r="Z83" s="27"/>
-      <c r="AA83" s="27"/>
-      <c r="AB83" s="27"/>
-      <c r="AC83" s="27"/>
+      <c r="V83" s="28"/>
+      <c r="W83" s="28"/>
+      <c r="X83" s="28"/>
+      <c r="Y83" s="28"/>
+      <c r="Z83" s="28"/>
+      <c r="AA83" s="28"/>
+      <c r="AB83" s="28"/>
+      <c r="AC83" s="28"/>
     </row>
     <row r="84" spans="1:29">
       <c r="A84" s="7">
@@ -4156,17 +4222,17 @@
       <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
       <c r="R84" s="8"/>
-      <c r="S84" s="27"/>
+      <c r="S84" s="28"/>
       <c r="T84" s="8"/>
       <c r="U84" s="8"/>
-      <c r="V84" s="27"/>
-      <c r="W84" s="27"/>
-      <c r="X84" s="27"/>
-      <c r="Y84" s="27"/>
-      <c r="Z84" s="27"/>
-      <c r="AA84" s="27"/>
-      <c r="AB84" s="27"/>
-      <c r="AC84" s="27"/>
+      <c r="V84" s="28"/>
+      <c r="W84" s="28"/>
+      <c r="X84" s="28"/>
+      <c r="Y84" s="28"/>
+      <c r="Z84" s="28"/>
+      <c r="AA84" s="28"/>
+      <c r="AB84" s="28"/>
+      <c r="AC84" s="28"/>
     </row>
     <row r="85" spans="1:29">
       <c r="A85" s="7">
@@ -4189,17 +4255,17 @@
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
-      <c r="S85" s="27"/>
+      <c r="S85" s="28"/>
       <c r="T85" s="8"/>
       <c r="U85" s="8"/>
-      <c r="V85" s="27"/>
-      <c r="W85" s="27"/>
-      <c r="X85" s="27"/>
-      <c r="Y85" s="27"/>
-      <c r="Z85" s="27"/>
-      <c r="AA85" s="27"/>
-      <c r="AB85" s="27"/>
-      <c r="AC85" s="27"/>
+      <c r="V85" s="28"/>
+      <c r="W85" s="28"/>
+      <c r="X85" s="28"/>
+      <c r="Y85" s="28"/>
+      <c r="Z85" s="28"/>
+      <c r="AA85" s="28"/>
+      <c r="AB85" s="28"/>
+      <c r="AC85" s="28"/>
     </row>
     <row r="86" spans="1:29">
       <c r="A86" s="7">
@@ -4222,17 +4288,17 @@
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
-      <c r="S86" s="27"/>
+      <c r="S86" s="28"/>
       <c r="T86" s="8"/>
       <c r="U86" s="8"/>
-      <c r="V86" s="27"/>
-      <c r="W86" s="27"/>
-      <c r="X86" s="27"/>
-      <c r="Y86" s="27"/>
-      <c r="Z86" s="27"/>
-      <c r="AA86" s="27"/>
-      <c r="AB86" s="27"/>
-      <c r="AC86" s="27"/>
+      <c r="V86" s="28"/>
+      <c r="W86" s="28"/>
+      <c r="X86" s="28"/>
+      <c r="Y86" s="28"/>
+      <c r="Z86" s="28"/>
+      <c r="AA86" s="28"/>
+      <c r="AB86" s="28"/>
+      <c r="AC86" s="28"/>
     </row>
     <row r="87" spans="1:29">
       <c r="A87" s="7">
@@ -4255,17 +4321,17 @@
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
-      <c r="S87" s="27"/>
+      <c r="S87" s="28"/>
       <c r="T87" s="8"/>
       <c r="U87" s="8"/>
-      <c r="V87" s="27"/>
-      <c r="W87" s="27"/>
-      <c r="X87" s="27"/>
-      <c r="Y87" s="27"/>
-      <c r="Z87" s="27"/>
-      <c r="AA87" s="27"/>
-      <c r="AB87" s="27"/>
-      <c r="AC87" s="27"/>
+      <c r="V87" s="28"/>
+      <c r="W87" s="28"/>
+      <c r="X87" s="28"/>
+      <c r="Y87" s="28"/>
+      <c r="Z87" s="28"/>
+      <c r="AA87" s="28"/>
+      <c r="AB87" s="28"/>
+      <c r="AC87" s="28"/>
     </row>
     <row r="88" spans="1:29">
       <c r="A88" s="7">
@@ -4288,17 +4354,17 @@
       <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
       <c r="R88" s="8"/>
-      <c r="S88" s="27"/>
+      <c r="S88" s="28"/>
       <c r="T88" s="8"/>
       <c r="U88" s="8"/>
-      <c r="V88" s="27"/>
-      <c r="W88" s="27"/>
-      <c r="X88" s="27"/>
-      <c r="Y88" s="27"/>
-      <c r="Z88" s="27"/>
-      <c r="AA88" s="27"/>
-      <c r="AB88" s="27"/>
-      <c r="AC88" s="27"/>
+      <c r="V88" s="28"/>
+      <c r="W88" s="28"/>
+      <c r="X88" s="28"/>
+      <c r="Y88" s="28"/>
+      <c r="Z88" s="28"/>
+      <c r="AA88" s="28"/>
+      <c r="AB88" s="28"/>
+      <c r="AC88" s="28"/>
     </row>
     <row r="89" spans="1:29">
       <c r="A89" s="7">
@@ -4321,17 +4387,17 @@
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
       <c r="R89" s="8"/>
-      <c r="S89" s="27"/>
+      <c r="S89" s="28"/>
       <c r="T89" s="8"/>
       <c r="U89" s="8"/>
-      <c r="V89" s="27"/>
-      <c r="W89" s="27"/>
-      <c r="X89" s="27"/>
-      <c r="Y89" s="27"/>
-      <c r="Z89" s="27"/>
-      <c r="AA89" s="27"/>
-      <c r="AB89" s="27"/>
-      <c r="AC89" s="27"/>
+      <c r="V89" s="28"/>
+      <c r="W89" s="28"/>
+      <c r="X89" s="28"/>
+      <c r="Y89" s="28"/>
+      <c r="Z89" s="28"/>
+      <c r="AA89" s="28"/>
+      <c r="AB89" s="28"/>
+      <c r="AC89" s="28"/>
     </row>
     <row r="90" spans="1:29">
       <c r="A90" s="7">
@@ -4354,17 +4420,17 @@
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
-      <c r="S90" s="27"/>
+      <c r="S90" s="28"/>
       <c r="T90" s="8"/>
       <c r="U90" s="8"/>
-      <c r="V90" s="27"/>
-      <c r="W90" s="27"/>
-      <c r="X90" s="27"/>
-      <c r="Y90" s="27"/>
-      <c r="Z90" s="27"/>
-      <c r="AA90" s="27"/>
-      <c r="AB90" s="27"/>
-      <c r="AC90" s="27"/>
+      <c r="V90" s="28"/>
+      <c r="W90" s="28"/>
+      <c r="X90" s="28"/>
+      <c r="Y90" s="28"/>
+      <c r="Z90" s="28"/>
+      <c r="AA90" s="28"/>
+      <c r="AB90" s="28"/>
+      <c r="AC90" s="28"/>
     </row>
     <row r="91" spans="1:29">
       <c r="A91" s="7">
@@ -4387,17 +4453,17 @@
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
-      <c r="S91" s="27"/>
+      <c r="S91" s="28"/>
       <c r="T91" s="8"/>
       <c r="U91" s="8"/>
-      <c r="V91" s="27"/>
-      <c r="W91" s="27"/>
-      <c r="X91" s="27"/>
-      <c r="Y91" s="27"/>
-      <c r="Z91" s="27"/>
-      <c r="AA91" s="27"/>
-      <c r="AB91" s="27"/>
-      <c r="AC91" s="27"/>
+      <c r="V91" s="28"/>
+      <c r="W91" s="28"/>
+      <c r="X91" s="28"/>
+      <c r="Y91" s="28"/>
+      <c r="Z91" s="28"/>
+      <c r="AA91" s="28"/>
+      <c r="AB91" s="28"/>
+      <c r="AC91" s="28"/>
     </row>
     <row r="92" spans="1:29">
       <c r="A92" s="7">
@@ -4420,17 +4486,17 @@
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
-      <c r="S92" s="27"/>
+      <c r="S92" s="28"/>
       <c r="T92" s="8"/>
       <c r="U92" s="8"/>
-      <c r="V92" s="27"/>
-      <c r="W92" s="27"/>
-      <c r="X92" s="27"/>
-      <c r="Y92" s="27"/>
-      <c r="Z92" s="27"/>
-      <c r="AA92" s="27"/>
-      <c r="AB92" s="27"/>
-      <c r="AC92" s="27"/>
+      <c r="V92" s="28"/>
+      <c r="W92" s="28"/>
+      <c r="X92" s="28"/>
+      <c r="Y92" s="28"/>
+      <c r="Z92" s="28"/>
+      <c r="AA92" s="28"/>
+      <c r="AB92" s="28"/>
+      <c r="AC92" s="28"/>
     </row>
     <row r="93" spans="1:29">
       <c r="A93" s="7">
@@ -4453,17 +4519,17 @@
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
       <c r="R93" s="8"/>
-      <c r="S93" s="27"/>
+      <c r="S93" s="28"/>
       <c r="T93" s="8"/>
       <c r="U93" s="8"/>
-      <c r="V93" s="27"/>
-      <c r="W93" s="27"/>
-      <c r="X93" s="27"/>
-      <c r="Y93" s="27"/>
-      <c r="Z93" s="27"/>
-      <c r="AA93" s="27"/>
-      <c r="AB93" s="27"/>
-      <c r="AC93" s="27"/>
+      <c r="V93" s="28"/>
+      <c r="W93" s="28"/>
+      <c r="X93" s="28"/>
+      <c r="Y93" s="28"/>
+      <c r="Z93" s="28"/>
+      <c r="AA93" s="28"/>
+      <c r="AB93" s="28"/>
+      <c r="AC93" s="28"/>
     </row>
     <row r="94" spans="1:29">
       <c r="A94" s="7">
@@ -4486,17 +4552,17 @@
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
       <c r="R94" s="8"/>
-      <c r="S94" s="27"/>
+      <c r="S94" s="28"/>
       <c r="T94" s="8"/>
       <c r="U94" s="8"/>
-      <c r="V94" s="27"/>
-      <c r="W94" s="27"/>
-      <c r="X94" s="27"/>
-      <c r="Y94" s="27"/>
-      <c r="Z94" s="27"/>
-      <c r="AA94" s="27"/>
-      <c r="AB94" s="27"/>
-      <c r="AC94" s="27"/>
+      <c r="V94" s="28"/>
+      <c r="W94" s="28"/>
+      <c r="X94" s="28"/>
+      <c r="Y94" s="28"/>
+      <c r="Z94" s="28"/>
+      <c r="AA94" s="28"/>
+      <c r="AB94" s="28"/>
+      <c r="AC94" s="28"/>
     </row>
     <row r="95" spans="1:29">
       <c r="A95" s="7">
@@ -4519,17 +4585,17 @@
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
       <c r="R95" s="8"/>
-      <c r="S95" s="27"/>
+      <c r="S95" s="28"/>
       <c r="T95" s="8"/>
       <c r="U95" s="8"/>
-      <c r="V95" s="27"/>
-      <c r="W95" s="27"/>
-      <c r="X95" s="27"/>
-      <c r="Y95" s="27"/>
-      <c r="Z95" s="27"/>
-      <c r="AA95" s="27"/>
-      <c r="AB95" s="27"/>
-      <c r="AC95" s="27"/>
+      <c r="V95" s="28"/>
+      <c r="W95" s="28"/>
+      <c r="X95" s="28"/>
+      <c r="Y95" s="28"/>
+      <c r="Z95" s="28"/>
+      <c r="AA95" s="28"/>
+      <c r="AB95" s="28"/>
+      <c r="AC95" s="28"/>
     </row>
     <row r="96" spans="1:29">
       <c r="A96" s="7">
@@ -4552,17 +4618,17 @@
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
       <c r="R96" s="8"/>
-      <c r="S96" s="27"/>
+      <c r="S96" s="28"/>
       <c r="T96" s="8"/>
       <c r="U96" s="8"/>
-      <c r="V96" s="27"/>
-      <c r="W96" s="27"/>
-      <c r="X96" s="27"/>
-      <c r="Y96" s="27"/>
-      <c r="Z96" s="27"/>
-      <c r="AA96" s="27"/>
-      <c r="AB96" s="27"/>
-      <c r="AC96" s="27"/>
+      <c r="V96" s="28"/>
+      <c r="W96" s="28"/>
+      <c r="X96" s="28"/>
+      <c r="Y96" s="28"/>
+      <c r="Z96" s="28"/>
+      <c r="AA96" s="28"/>
+      <c r="AB96" s="28"/>
+      <c r="AC96" s="28"/>
     </row>
     <row r="97" spans="1:29">
       <c r="A97" s="7">
@@ -4585,17 +4651,17 @@
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
       <c r="R97" s="8"/>
-      <c r="S97" s="27"/>
+      <c r="S97" s="28"/>
       <c r="T97" s="8"/>
       <c r="U97" s="8"/>
-      <c r="V97" s="27"/>
-      <c r="W97" s="27"/>
-      <c r="X97" s="27"/>
-      <c r="Y97" s="27"/>
-      <c r="Z97" s="27"/>
-      <c r="AA97" s="27"/>
-      <c r="AB97" s="27"/>
-      <c r="AC97" s="27"/>
+      <c r="V97" s="28"/>
+      <c r="W97" s="28"/>
+      <c r="X97" s="28"/>
+      <c r="Y97" s="28"/>
+      <c r="Z97" s="28"/>
+      <c r="AA97" s="28"/>
+      <c r="AB97" s="28"/>
+      <c r="AC97" s="28"/>
     </row>
     <row r="98" spans="1:29">
       <c r="A98" s="7">
@@ -4618,17 +4684,17 @@
       <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
       <c r="R98" s="8"/>
-      <c r="S98" s="27"/>
+      <c r="S98" s="28"/>
       <c r="T98" s="8"/>
       <c r="U98" s="8"/>
-      <c r="V98" s="27"/>
-      <c r="W98" s="27"/>
-      <c r="X98" s="27"/>
-      <c r="Y98" s="27"/>
-      <c r="Z98" s="27"/>
-      <c r="AA98" s="27"/>
-      <c r="AB98" s="27"/>
-      <c r="AC98" s="27"/>
+      <c r="V98" s="28"/>
+      <c r="W98" s="28"/>
+      <c r="X98" s="28"/>
+      <c r="Y98" s="28"/>
+      <c r="Z98" s="28"/>
+      <c r="AA98" s="28"/>
+      <c r="AB98" s="28"/>
+      <c r="AC98" s="28"/>
     </row>
     <row r="99" spans="1:29">
       <c r="A99" s="7">
@@ -4651,17 +4717,17 @@
       <c r="P99" s="8"/>
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
-      <c r="S99" s="27"/>
+      <c r="S99" s="28"/>
       <c r="T99" s="8"/>
       <c r="U99" s="8"/>
-      <c r="V99" s="27"/>
-      <c r="W99" s="27"/>
-      <c r="X99" s="27"/>
-      <c r="Y99" s="27"/>
-      <c r="Z99" s="27"/>
-      <c r="AA99" s="27"/>
-      <c r="AB99" s="27"/>
-      <c r="AC99" s="27"/>
+      <c r="V99" s="28"/>
+      <c r="W99" s="28"/>
+      <c r="X99" s="28"/>
+      <c r="Y99" s="28"/>
+      <c r="Z99" s="28"/>
+      <c r="AA99" s="28"/>
+      <c r="AB99" s="28"/>
+      <c r="AC99" s="28"/>
     </row>
     <row r="100" spans="1:29">
       <c r="A100" s="7">
@@ -4684,17 +4750,17 @@
       <c r="P100" s="8"/>
       <c r="Q100" s="8"/>
       <c r="R100" s="8"/>
-      <c r="S100" s="27"/>
+      <c r="S100" s="28"/>
       <c r="T100" s="8"/>
       <c r="U100" s="8"/>
-      <c r="V100" s="27"/>
-      <c r="W100" s="27"/>
-      <c r="X100" s="27"/>
-      <c r="Y100" s="27"/>
-      <c r="Z100" s="27"/>
-      <c r="AA100" s="27"/>
-      <c r="AB100" s="27"/>
-      <c r="AC100" s="27"/>
+      <c r="V100" s="28"/>
+      <c r="W100" s="28"/>
+      <c r="X100" s="28"/>
+      <c r="Y100" s="28"/>
+      <c r="Z100" s="28"/>
+      <c r="AA100" s="28"/>
+      <c r="AB100" s="28"/>
+      <c r="AC100" s="28"/>
     </row>
     <row r="101" spans="1:29">
       <c r="A101" s="7">
@@ -4717,17 +4783,17 @@
       <c r="P101" s="8"/>
       <c r="Q101" s="8"/>
       <c r="R101" s="8"/>
-      <c r="S101" s="27"/>
+      <c r="S101" s="28"/>
       <c r="T101" s="8"/>
       <c r="U101" s="8"/>
-      <c r="V101" s="27"/>
-      <c r="W101" s="27"/>
-      <c r="X101" s="27"/>
-      <c r="Y101" s="27"/>
-      <c r="Z101" s="27"/>
-      <c r="AA101" s="27"/>
-      <c r="AB101" s="27"/>
-      <c r="AC101" s="27"/>
+      <c r="V101" s="28"/>
+      <c r="W101" s="28"/>
+      <c r="X101" s="28"/>
+      <c r="Y101" s="28"/>
+      <c r="Z101" s="28"/>
+      <c r="AA101" s="28"/>
+      <c r="AB101" s="28"/>
+      <c r="AC101" s="28"/>
     </row>
     <row r="102" spans="1:29">
       <c r="A102" s="7">
@@ -4750,17 +4816,17 @@
       <c r="P102" s="8"/>
       <c r="Q102" s="8"/>
       <c r="R102" s="8"/>
-      <c r="S102" s="27"/>
+      <c r="S102" s="28"/>
       <c r="T102" s="8"/>
       <c r="U102" s="8"/>
-      <c r="V102" s="27"/>
-      <c r="W102" s="27"/>
-      <c r="X102" s="27"/>
-      <c r="Y102" s="27"/>
-      <c r="Z102" s="27"/>
-      <c r="AA102" s="27"/>
-      <c r="AB102" s="27"/>
-      <c r="AC102" s="27"/>
+      <c r="V102" s="28"/>
+      <c r="W102" s="28"/>
+      <c r="X102" s="28"/>
+      <c r="Y102" s="28"/>
+      <c r="Z102" s="28"/>
+      <c r="AA102" s="28"/>
+      <c r="AB102" s="28"/>
+      <c r="AC102" s="28"/>
     </row>
     <row r="103" spans="1:29">
       <c r="A103" s="7">
@@ -4783,17 +4849,17 @@
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
       <c r="R103" s="8"/>
-      <c r="S103" s="27"/>
+      <c r="S103" s="28"/>
       <c r="T103" s="8"/>
       <c r="U103" s="8"/>
-      <c r="V103" s="27"/>
-      <c r="W103" s="27"/>
-      <c r="X103" s="27"/>
-      <c r="Y103" s="27"/>
-      <c r="Z103" s="27"/>
-      <c r="AA103" s="27"/>
-      <c r="AB103" s="27"/>
-      <c r="AC103" s="27"/>
+      <c r="V103" s="28"/>
+      <c r="W103" s="28"/>
+      <c r="X103" s="28"/>
+      <c r="Y103" s="28"/>
+      <c r="Z103" s="28"/>
+      <c r="AA103" s="28"/>
+      <c r="AB103" s="28"/>
+      <c r="AC103" s="28"/>
     </row>
     <row r="104" spans="1:29">
       <c r="A104" s="7">
@@ -4816,17 +4882,17 @@
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
       <c r="R104" s="8"/>
-      <c r="S104" s="27"/>
+      <c r="S104" s="28"/>
       <c r="T104" s="8"/>
       <c r="U104" s="8"/>
-      <c r="V104" s="27"/>
-      <c r="W104" s="27"/>
-      <c r="X104" s="27"/>
-      <c r="Y104" s="27"/>
-      <c r="Z104" s="27"/>
-      <c r="AA104" s="27"/>
-      <c r="AB104" s="27"/>
-      <c r="AC104" s="27"/>
+      <c r="V104" s="28"/>
+      <c r="W104" s="28"/>
+      <c r="X104" s="28"/>
+      <c r="Y104" s="28"/>
+      <c r="Z104" s="28"/>
+      <c r="AA104" s="28"/>
+      <c r="AB104" s="28"/>
+      <c r="AC104" s="28"/>
     </row>
     <row r="105" spans="1:29">
       <c r="A105" s="7">
@@ -4849,17 +4915,17 @@
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
       <c r="R105" s="8"/>
-      <c r="S105" s="27"/>
+      <c r="S105" s="28"/>
       <c r="T105" s="8"/>
       <c r="U105" s="8"/>
-      <c r="V105" s="27"/>
-      <c r="W105" s="27"/>
-      <c r="X105" s="27"/>
-      <c r="Y105" s="27"/>
-      <c r="Z105" s="27"/>
-      <c r="AA105" s="27"/>
-      <c r="AB105" s="27"/>
-      <c r="AC105" s="27"/>
+      <c r="V105" s="28"/>
+      <c r="W105" s="28"/>
+      <c r="X105" s="28"/>
+      <c r="Y105" s="28"/>
+      <c r="Z105" s="28"/>
+      <c r="AA105" s="28"/>
+      <c r="AB105" s="28"/>
+      <c r="AC105" s="28"/>
     </row>
     <row r="106" spans="1:29">
       <c r="A106" s="7">
@@ -4882,17 +4948,17 @@
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
       <c r="R106" s="8"/>
-      <c r="S106" s="27"/>
+      <c r="S106" s="28"/>
       <c r="T106" s="8"/>
       <c r="U106" s="8"/>
-      <c r="V106" s="27"/>
-      <c r="W106" s="27"/>
-      <c r="X106" s="27"/>
-      <c r="Y106" s="27"/>
-      <c r="Z106" s="27"/>
-      <c r="AA106" s="27"/>
-      <c r="AB106" s="27"/>
-      <c r="AC106" s="27"/>
+      <c r="V106" s="28"/>
+      <c r="W106" s="28"/>
+      <c r="X106" s="28"/>
+      <c r="Y106" s="28"/>
+      <c r="Z106" s="28"/>
+      <c r="AA106" s="28"/>
+      <c r="AB106" s="28"/>
+      <c r="AC106" s="28"/>
     </row>
     <row r="107" spans="1:29">
       <c r="A107" s="7">
@@ -4915,17 +4981,17 @@
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
       <c r="R107" s="8"/>
-      <c r="S107" s="27"/>
+      <c r="S107" s="28"/>
       <c r="T107" s="8"/>
       <c r="U107" s="8"/>
-      <c r="V107" s="27"/>
-      <c r="W107" s="27"/>
-      <c r="X107" s="27"/>
-      <c r="Y107" s="27"/>
-      <c r="Z107" s="27"/>
-      <c r="AA107" s="27"/>
-      <c r="AB107" s="27"/>
-      <c r="AC107" s="27"/>
+      <c r="V107" s="28"/>
+      <c r="W107" s="28"/>
+      <c r="X107" s="28"/>
+      <c r="Y107" s="28"/>
+      <c r="Z107" s="28"/>
+      <c r="AA107" s="28"/>
+      <c r="AB107" s="28"/>
+      <c r="AC107" s="28"/>
     </row>
     <row r="108" spans="1:29">
       <c r="A108" s="7">
@@ -4948,17 +5014,17 @@
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
       <c r="R108" s="8"/>
-      <c r="S108" s="27"/>
+      <c r="S108" s="28"/>
       <c r="T108" s="8"/>
       <c r="U108" s="8"/>
-      <c r="V108" s="27"/>
-      <c r="W108" s="27"/>
-      <c r="X108" s="27"/>
-      <c r="Y108" s="27"/>
-      <c r="Z108" s="27"/>
-      <c r="AA108" s="27"/>
-      <c r="AB108" s="27"/>
-      <c r="AC108" s="27"/>
+      <c r="V108" s="28"/>
+      <c r="W108" s="28"/>
+      <c r="X108" s="28"/>
+      <c r="Y108" s="28"/>
+      <c r="Z108" s="28"/>
+      <c r="AA108" s="28"/>
+      <c r="AB108" s="28"/>
+      <c r="AC108" s="28"/>
     </row>
     <row r="109" spans="1:29">
       <c r="A109" s="7">
@@ -4981,17 +5047,17 @@
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
       <c r="R109" s="8"/>
-      <c r="S109" s="27"/>
+      <c r="S109" s="28"/>
       <c r="T109" s="8"/>
       <c r="U109" s="8"/>
-      <c r="V109" s="27"/>
-      <c r="W109" s="27"/>
-      <c r="X109" s="27"/>
-      <c r="Y109" s="27"/>
-      <c r="Z109" s="27"/>
-      <c r="AA109" s="27"/>
-      <c r="AB109" s="27"/>
-      <c r="AC109" s="27"/>
+      <c r="V109" s="28"/>
+      <c r="W109" s="28"/>
+      <c r="X109" s="28"/>
+      <c r="Y109" s="28"/>
+      <c r="Z109" s="28"/>
+      <c r="AA109" s="28"/>
+      <c r="AB109" s="28"/>
+      <c r="AC109" s="28"/>
     </row>
     <row r="110" spans="1:29">
       <c r="A110" s="7">
@@ -5014,17 +5080,17 @@
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
       <c r="R110" s="8"/>
-      <c r="S110" s="27"/>
+      <c r="S110" s="28"/>
       <c r="T110" s="8"/>
       <c r="U110" s="8"/>
-      <c r="V110" s="27"/>
-      <c r="W110" s="27"/>
-      <c r="X110" s="27"/>
-      <c r="Y110" s="27"/>
-      <c r="Z110" s="27"/>
-      <c r="AA110" s="27"/>
-      <c r="AB110" s="27"/>
-      <c r="AC110" s="27"/>
+      <c r="V110" s="28"/>
+      <c r="W110" s="28"/>
+      <c r="X110" s="28"/>
+      <c r="Y110" s="28"/>
+      <c r="Z110" s="28"/>
+      <c r="AA110" s="28"/>
+      <c r="AB110" s="28"/>
+      <c r="AC110" s="28"/>
     </row>
     <row r="111" spans="1:29">
       <c r="A111" s="7">
@@ -5047,17 +5113,17 @@
       <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
       <c r="R111" s="8"/>
-      <c r="S111" s="27"/>
+      <c r="S111" s="28"/>
       <c r="T111" s="8"/>
       <c r="U111" s="8"/>
-      <c r="V111" s="27"/>
-      <c r="W111" s="27"/>
-      <c r="X111" s="27"/>
-      <c r="Y111" s="27"/>
-      <c r="Z111" s="27"/>
-      <c r="AA111" s="27"/>
-      <c r="AB111" s="27"/>
-      <c r="AC111" s="27"/>
+      <c r="V111" s="28"/>
+      <c r="W111" s="28"/>
+      <c r="X111" s="28"/>
+      <c r="Y111" s="28"/>
+      <c r="Z111" s="28"/>
+      <c r="AA111" s="28"/>
+      <c r="AB111" s="28"/>
+      <c r="AC111" s="28"/>
     </row>
     <row r="112" spans="1:29">
       <c r="A112" s="7">
@@ -5080,17 +5146,17 @@
       <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
       <c r="R112" s="8"/>
-      <c r="S112" s="27"/>
+      <c r="S112" s="28"/>
       <c r="T112" s="8"/>
       <c r="U112" s="8"/>
-      <c r="V112" s="27"/>
-      <c r="W112" s="27"/>
-      <c r="X112" s="27"/>
-      <c r="Y112" s="27"/>
-      <c r="Z112" s="27"/>
-      <c r="AA112" s="27"/>
-      <c r="AB112" s="27"/>
-      <c r="AC112" s="27"/>
+      <c r="V112" s="28"/>
+      <c r="W112" s="28"/>
+      <c r="X112" s="28"/>
+      <c r="Y112" s="28"/>
+      <c r="Z112" s="28"/>
+      <c r="AA112" s="28"/>
+      <c r="AB112" s="28"/>
+      <c r="AC112" s="28"/>
     </row>
     <row r="113" spans="1:29">
       <c r="A113" s="7">
@@ -5113,17 +5179,17 @@
       <c r="P113" s="8"/>
       <c r="Q113" s="8"/>
       <c r="R113" s="8"/>
-      <c r="S113" s="27"/>
+      <c r="S113" s="28"/>
       <c r="T113" s="8"/>
       <c r="U113" s="8"/>
-      <c r="V113" s="27"/>
-      <c r="W113" s="27"/>
-      <c r="X113" s="27"/>
-      <c r="Y113" s="27"/>
-      <c r="Z113" s="27"/>
-      <c r="AA113" s="27"/>
-      <c r="AB113" s="27"/>
-      <c r="AC113" s="27"/>
+      <c r="V113" s="28"/>
+      <c r="W113" s="28"/>
+      <c r="X113" s="28"/>
+      <c r="Y113" s="28"/>
+      <c r="Z113" s="28"/>
+      <c r="AA113" s="28"/>
+      <c r="AB113" s="28"/>
+      <c r="AC113" s="28"/>
     </row>
     <row r="114" spans="1:29">
       <c r="A114" s="7">
@@ -5146,17 +5212,17 @@
       <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
-      <c r="S114" s="27"/>
+      <c r="S114" s="28"/>
       <c r="T114" s="8"/>
       <c r="U114" s="8"/>
-      <c r="V114" s="27"/>
-      <c r="W114" s="27"/>
-      <c r="X114" s="27"/>
-      <c r="Y114" s="27"/>
-      <c r="Z114" s="27"/>
-      <c r="AA114" s="27"/>
-      <c r="AB114" s="27"/>
-      <c r="AC114" s="27"/>
+      <c r="V114" s="28"/>
+      <c r="W114" s="28"/>
+      <c r="X114" s="28"/>
+      <c r="Y114" s="28"/>
+      <c r="Z114" s="28"/>
+      <c r="AA114" s="28"/>
+      <c r="AB114" s="28"/>
+      <c r="AC114" s="28"/>
     </row>
     <row r="115" spans="1:29">
       <c r="A115" s="7">
@@ -5179,17 +5245,17 @@
       <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
-      <c r="S115" s="27"/>
+      <c r="S115" s="28"/>
       <c r="T115" s="8"/>
       <c r="U115" s="8"/>
-      <c r="V115" s="27"/>
-      <c r="W115" s="27"/>
-      <c r="X115" s="27"/>
-      <c r="Y115" s="27"/>
-      <c r="Z115" s="27"/>
-      <c r="AA115" s="27"/>
-      <c r="AB115" s="27"/>
-      <c r="AC115" s="27"/>
+      <c r="V115" s="28"/>
+      <c r="W115" s="28"/>
+      <c r="X115" s="28"/>
+      <c r="Y115" s="28"/>
+      <c r="Z115" s="28"/>
+      <c r="AA115" s="28"/>
+      <c r="AB115" s="28"/>
+      <c r="AC115" s="28"/>
     </row>
     <row r="116" spans="1:29">
       <c r="A116" s="7">
@@ -5212,17 +5278,17 @@
       <c r="P116" s="8"/>
       <c r="Q116" s="8"/>
       <c r="R116" s="8"/>
-      <c r="S116" s="27"/>
+      <c r="S116" s="28"/>
       <c r="T116" s="8"/>
       <c r="U116" s="8"/>
-      <c r="V116" s="27"/>
-      <c r="W116" s="27"/>
-      <c r="X116" s="27"/>
-      <c r="Y116" s="27"/>
-      <c r="Z116" s="27"/>
-      <c r="AA116" s="27"/>
-      <c r="AB116" s="27"/>
-      <c r="AC116" s="27"/>
+      <c r="V116" s="28"/>
+      <c r="W116" s="28"/>
+      <c r="X116" s="28"/>
+      <c r="Y116" s="28"/>
+      <c r="Z116" s="28"/>
+      <c r="AA116" s="28"/>
+      <c r="AB116" s="28"/>
+      <c r="AC116" s="28"/>
     </row>
     <row r="117" spans="1:29">
       <c r="A117" s="7">
@@ -5245,17 +5311,17 @@
       <c r="P117" s="8"/>
       <c r="Q117" s="8"/>
       <c r="R117" s="8"/>
-      <c r="S117" s="27"/>
+      <c r="S117" s="28"/>
       <c r="T117" s="8"/>
       <c r="U117" s="8"/>
-      <c r="V117" s="27"/>
-      <c r="W117" s="27"/>
-      <c r="X117" s="27"/>
-      <c r="Y117" s="27"/>
-      <c r="Z117" s="27"/>
-      <c r="AA117" s="27"/>
-      <c r="AB117" s="27"/>
-      <c r="AC117" s="27"/>
+      <c r="V117" s="28"/>
+      <c r="W117" s="28"/>
+      <c r="X117" s="28"/>
+      <c r="Y117" s="28"/>
+      <c r="Z117" s="28"/>
+      <c r="AA117" s="28"/>
+      <c r="AB117" s="28"/>
+      <c r="AC117" s="28"/>
     </row>
     <row r="118" spans="1:29">
       <c r="A118" s="7">
@@ -5278,17 +5344,17 @@
       <c r="P118" s="8"/>
       <c r="Q118" s="8"/>
       <c r="R118" s="8"/>
-      <c r="S118" s="27"/>
+      <c r="S118" s="28"/>
       <c r="T118" s="8"/>
       <c r="U118" s="8"/>
-      <c r="V118" s="27"/>
-      <c r="W118" s="27"/>
-      <c r="X118" s="27"/>
-      <c r="Y118" s="27"/>
-      <c r="Z118" s="27"/>
-      <c r="AA118" s="27"/>
-      <c r="AB118" s="27"/>
-      <c r="AC118" s="27"/>
+      <c r="V118" s="28"/>
+      <c r="W118" s="28"/>
+      <c r="X118" s="28"/>
+      <c r="Y118" s="28"/>
+      <c r="Z118" s="28"/>
+      <c r="AA118" s="28"/>
+      <c r="AB118" s="28"/>
+      <c r="AC118" s="28"/>
     </row>
     <row r="119" spans="1:29">
       <c r="A119" s="7">
@@ -5311,17 +5377,17 @@
       <c r="P119" s="8"/>
       <c r="Q119" s="8"/>
       <c r="R119" s="8"/>
-      <c r="S119" s="27"/>
+      <c r="S119" s="28"/>
       <c r="T119" s="8"/>
       <c r="U119" s="8"/>
-      <c r="V119" s="27"/>
-      <c r="W119" s="27"/>
-      <c r="X119" s="27"/>
-      <c r="Y119" s="27"/>
-      <c r="Z119" s="27"/>
-      <c r="AA119" s="27"/>
-      <c r="AB119" s="27"/>
-      <c r="AC119" s="27"/>
+      <c r="V119" s="28"/>
+      <c r="W119" s="28"/>
+      <c r="X119" s="28"/>
+      <c r="Y119" s="28"/>
+      <c r="Z119" s="28"/>
+      <c r="AA119" s="28"/>
+      <c r="AB119" s="28"/>
+      <c r="AC119" s="28"/>
     </row>
     <row r="120" spans="1:29">
       <c r="A120" s="7">
@@ -5344,17 +5410,17 @@
       <c r="P120" s="8"/>
       <c r="Q120" s="8"/>
       <c r="R120" s="8"/>
-      <c r="S120" s="27"/>
+      <c r="S120" s="28"/>
       <c r="T120" s="8"/>
       <c r="U120" s="8"/>
-      <c r="V120" s="27"/>
-      <c r="W120" s="27"/>
-      <c r="X120" s="27"/>
-      <c r="Y120" s="27"/>
-      <c r="Z120" s="27"/>
-      <c r="AA120" s="27"/>
-      <c r="AB120" s="27"/>
-      <c r="AC120" s="27"/>
+      <c r="V120" s="28"/>
+      <c r="W120" s="28"/>
+      <c r="X120" s="28"/>
+      <c r="Y120" s="28"/>
+      <c r="Z120" s="28"/>
+      <c r="AA120" s="28"/>
+      <c r="AB120" s="28"/>
+      <c r="AC120" s="28"/>
     </row>
     <row r="121" spans="1:29">
       <c r="A121" s="7">
@@ -5377,17 +5443,17 @@
       <c r="P121" s="8"/>
       <c r="Q121" s="8"/>
       <c r="R121" s="8"/>
-      <c r="S121" s="27"/>
+      <c r="S121" s="28"/>
       <c r="T121" s="8"/>
       <c r="U121" s="8"/>
-      <c r="V121" s="27"/>
-      <c r="W121" s="27"/>
-      <c r="X121" s="27"/>
-      <c r="Y121" s="27"/>
-      <c r="Z121" s="27"/>
-      <c r="AA121" s="27"/>
-      <c r="AB121" s="27"/>
-      <c r="AC121" s="27"/>
+      <c r="V121" s="28"/>
+      <c r="W121" s="28"/>
+      <c r="X121" s="28"/>
+      <c r="Y121" s="28"/>
+      <c r="Z121" s="28"/>
+      <c r="AA121" s="28"/>
+      <c r="AB121" s="28"/>
+      <c r="AC121" s="28"/>
     </row>
     <row r="122" spans="1:29">
       <c r="A122" s="7">
@@ -5410,17 +5476,17 @@
       <c r="P122" s="8"/>
       <c r="Q122" s="8"/>
       <c r="R122" s="8"/>
-      <c r="S122" s="27"/>
+      <c r="S122" s="28"/>
       <c r="T122" s="8"/>
       <c r="U122" s="8"/>
-      <c r="V122" s="27"/>
-      <c r="W122" s="27"/>
-      <c r="X122" s="27"/>
-      <c r="Y122" s="27"/>
-      <c r="Z122" s="27"/>
-      <c r="AA122" s="27"/>
-      <c r="AB122" s="27"/>
-      <c r="AC122" s="27"/>
+      <c r="V122" s="28"/>
+      <c r="W122" s="28"/>
+      <c r="X122" s="28"/>
+      <c r="Y122" s="28"/>
+      <c r="Z122" s="28"/>
+      <c r="AA122" s="28"/>
+      <c r="AB122" s="28"/>
+      <c r="AC122" s="28"/>
     </row>
     <row r="123" spans="1:29">
       <c r="A123" s="7">
@@ -5443,17 +5509,17 @@
       <c r="P123" s="8"/>
       <c r="Q123" s="8"/>
       <c r="R123" s="8"/>
-      <c r="S123" s="27"/>
+      <c r="S123" s="28"/>
       <c r="T123" s="8"/>
       <c r="U123" s="8"/>
-      <c r="V123" s="27"/>
-      <c r="W123" s="27"/>
-      <c r="X123" s="27"/>
-      <c r="Y123" s="27"/>
-      <c r="Z123" s="27"/>
-      <c r="AA123" s="27"/>
-      <c r="AB123" s="27"/>
-      <c r="AC123" s="27"/>
+      <c r="V123" s="28"/>
+      <c r="W123" s="28"/>
+      <c r="X123" s="28"/>
+      <c r="Y123" s="28"/>
+      <c r="Z123" s="28"/>
+      <c r="AA123" s="28"/>
+      <c r="AB123" s="28"/>
+      <c r="AC123" s="28"/>
     </row>
     <row r="124" spans="1:29">
       <c r="A124" s="7">
@@ -5476,17 +5542,17 @@
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
       <c r="R124" s="8"/>
-      <c r="S124" s="27"/>
+      <c r="S124" s="28"/>
       <c r="T124" s="8"/>
       <c r="U124" s="8"/>
-      <c r="V124" s="27"/>
-      <c r="W124" s="27"/>
-      <c r="X124" s="27"/>
-      <c r="Y124" s="27"/>
-      <c r="Z124" s="27"/>
-      <c r="AA124" s="27"/>
-      <c r="AB124" s="27"/>
-      <c r="AC124" s="27"/>
+      <c r="V124" s="28"/>
+      <c r="W124" s="28"/>
+      <c r="X124" s="28"/>
+      <c r="Y124" s="28"/>
+      <c r="Z124" s="28"/>
+      <c r="AA124" s="28"/>
+      <c r="AB124" s="28"/>
+      <c r="AC124" s="28"/>
     </row>
     <row r="125" spans="1:29">
       <c r="A125" s="7">
@@ -5509,17 +5575,17 @@
       <c r="P125" s="8"/>
       <c r="Q125" s="8"/>
       <c r="R125" s="8"/>
-      <c r="S125" s="27"/>
+      <c r="S125" s="28"/>
       <c r="T125" s="8"/>
       <c r="U125" s="8"/>
-      <c r="V125" s="27"/>
-      <c r="W125" s="27"/>
-      <c r="X125" s="27"/>
-      <c r="Y125" s="27"/>
-      <c r="Z125" s="27"/>
-      <c r="AA125" s="27"/>
-      <c r="AB125" s="27"/>
-      <c r="AC125" s="27"/>
+      <c r="V125" s="28"/>
+      <c r="W125" s="28"/>
+      <c r="X125" s="28"/>
+      <c r="Y125" s="28"/>
+      <c r="Z125" s="28"/>
+      <c r="AA125" s="28"/>
+      <c r="AB125" s="28"/>
+      <c r="AC125" s="28"/>
     </row>
     <row r="126" spans="1:29">
       <c r="A126" s="7">
@@ -5542,17 +5608,17 @@
       <c r="P126" s="8"/>
       <c r="Q126" s="8"/>
       <c r="R126" s="8"/>
-      <c r="S126" s="27"/>
+      <c r="S126" s="28"/>
       <c r="T126" s="8"/>
       <c r="U126" s="8"/>
-      <c r="V126" s="27"/>
-      <c r="W126" s="27"/>
-      <c r="X126" s="27"/>
-      <c r="Y126" s="27"/>
-      <c r="Z126" s="27"/>
-      <c r="AA126" s="27"/>
-      <c r="AB126" s="27"/>
-      <c r="AC126" s="27"/>
+      <c r="V126" s="28"/>
+      <c r="W126" s="28"/>
+      <c r="X126" s="28"/>
+      <c r="Y126" s="28"/>
+      <c r="Z126" s="28"/>
+      <c r="AA126" s="28"/>
+      <c r="AB126" s="28"/>
+      <c r="AC126" s="28"/>
     </row>
     <row r="127" spans="1:29">
       <c r="A127" s="7">
@@ -5575,17 +5641,17 @@
       <c r="P127" s="8"/>
       <c r="Q127" s="8"/>
       <c r="R127" s="8"/>
-      <c r="S127" s="27"/>
+      <c r="S127" s="28"/>
       <c r="T127" s="8"/>
       <c r="U127" s="8"/>
-      <c r="V127" s="27"/>
-      <c r="W127" s="27"/>
-      <c r="X127" s="27"/>
-      <c r="Y127" s="27"/>
-      <c r="Z127" s="27"/>
-      <c r="AA127" s="27"/>
-      <c r="AB127" s="27"/>
-      <c r="AC127" s="27"/>
+      <c r="V127" s="28"/>
+      <c r="W127" s="28"/>
+      <c r="X127" s="28"/>
+      <c r="Y127" s="28"/>
+      <c r="Z127" s="28"/>
+      <c r="AA127" s="28"/>
+      <c r="AB127" s="28"/>
+      <c r="AC127" s="28"/>
     </row>
     <row r="128" spans="1:29">
       <c r="A128" s="7">
@@ -5608,17 +5674,17 @@
       <c r="P128" s="8"/>
       <c r="Q128" s="8"/>
       <c r="R128" s="8"/>
-      <c r="S128" s="27"/>
+      <c r="S128" s="28"/>
       <c r="T128" s="8"/>
       <c r="U128" s="8"/>
-      <c r="V128" s="27"/>
-      <c r="W128" s="27"/>
-      <c r="X128" s="27"/>
-      <c r="Y128" s="27"/>
-      <c r="Z128" s="27"/>
-      <c r="AA128" s="27"/>
-      <c r="AB128" s="27"/>
-      <c r="AC128" s="27"/>
+      <c r="V128" s="28"/>
+      <c r="W128" s="28"/>
+      <c r="X128" s="28"/>
+      <c r="Y128" s="28"/>
+      <c r="Z128" s="28"/>
+      <c r="AA128" s="28"/>
+      <c r="AB128" s="28"/>
+      <c r="AC128" s="28"/>
     </row>
     <row r="129" spans="1:29">
       <c r="A129" s="7">
@@ -5641,17 +5707,17 @@
       <c r="P129" s="8"/>
       <c r="Q129" s="8"/>
       <c r="R129" s="8"/>
-      <c r="S129" s="27"/>
+      <c r="S129" s="28"/>
       <c r="T129" s="8"/>
       <c r="U129" s="8"/>
-      <c r="V129" s="27"/>
-      <c r="W129" s="27"/>
-      <c r="X129" s="27"/>
-      <c r="Y129" s="27"/>
-      <c r="Z129" s="27"/>
-      <c r="AA129" s="27"/>
-      <c r="AB129" s="27"/>
-      <c r="AC129" s="27"/>
+      <c r="V129" s="28"/>
+      <c r="W129" s="28"/>
+      <c r="X129" s="28"/>
+      <c r="Y129" s="28"/>
+      <c r="Z129" s="28"/>
+      <c r="AA129" s="28"/>
+      <c r="AB129" s="28"/>
+      <c r="AC129" s="28"/>
     </row>
     <row r="130" spans="1:29">
       <c r="A130" s="7">
@@ -5674,17 +5740,17 @@
       <c r="P130" s="8"/>
       <c r="Q130" s="8"/>
       <c r="R130" s="8"/>
-      <c r="S130" s="27"/>
+      <c r="S130" s="28"/>
       <c r="T130" s="8"/>
       <c r="U130" s="8"/>
-      <c r="V130" s="27"/>
-      <c r="W130" s="27"/>
-      <c r="X130" s="27"/>
-      <c r="Y130" s="27"/>
-      <c r="Z130" s="27"/>
-      <c r="AA130" s="27"/>
-      <c r="AB130" s="27"/>
-      <c r="AC130" s="27"/>
+      <c r="V130" s="28"/>
+      <c r="W130" s="28"/>
+      <c r="X130" s="28"/>
+      <c r="Y130" s="28"/>
+      <c r="Z130" s="28"/>
+      <c r="AA130" s="28"/>
+      <c r="AB130" s="28"/>
+      <c r="AC130" s="28"/>
     </row>
     <row r="131" spans="1:29">
       <c r="A131" s="7">
@@ -5707,17 +5773,17 @@
       <c r="P131" s="8"/>
       <c r="Q131" s="8"/>
       <c r="R131" s="8"/>
-      <c r="S131" s="27"/>
+      <c r="S131" s="28"/>
       <c r="T131" s="8"/>
       <c r="U131" s="8"/>
-      <c r="V131" s="27"/>
-      <c r="W131" s="27"/>
-      <c r="X131" s="27"/>
-      <c r="Y131" s="27"/>
-      <c r="Z131" s="27"/>
-      <c r="AA131" s="27"/>
-      <c r="AB131" s="27"/>
-      <c r="AC131" s="27"/>
+      <c r="V131" s="28"/>
+      <c r="W131" s="28"/>
+      <c r="X131" s="28"/>
+      <c r="Y131" s="28"/>
+      <c r="Z131" s="28"/>
+      <c r="AA131" s="28"/>
+      <c r="AB131" s="28"/>
+      <c r="AC131" s="28"/>
     </row>
     <row r="132" spans="1:21">
       <c r="A132" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -1364,7 +1364,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3:J4"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -1360,11 +1360,11 @@
   <dimension ref="A1:AC502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3:H4"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>日期</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>止盈卖出指标(长期策略)</t>
+  </si>
+  <si>
+    <t>止损线</t>
   </si>
   <si>
     <t>强势卖出指标</t>
@@ -390,7 +393,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +451,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,37 +793,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,37 +835,34 @@
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -862,7 +871,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,7 +880,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -883,25 +892,25 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -913,23 +922,23 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,6 +1042,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1357,14 +1369,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AC502"/>
+  <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3:L4"/>
+      <selection pane="bottomRight" activeCell="AC3" sqref="AC3:AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1398,7 +1410,7 @@
     <col min="29" max="29" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1438,8 +1450,11 @@
       <c r="AA1" s="19"/>
       <c r="AB1" s="19"/>
       <c r="AC1" s="19"/>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1460,7 +1475,7 @@
       <c r="R2" s="16"/>
       <c r="S2" s="20"/>
       <c r="T2" s="21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U2" s="21"/>
       <c r="V2" s="21"/>
@@ -1470,96 +1485,98 @@
       <c r="Z2" s="21"/>
       <c r="AA2" s="21"/>
       <c r="AB2" s="34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC2" s="34"/>
-    </row>
-    <row r="3" spans="1:29">
+      <c r="AD2" s="35"/>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T3" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U3" s="23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W3" s="21"/>
       <c r="X3" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z3" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA3" s="29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB3" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC3" s="35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" ht="56" customHeight="1" spans="1:29">
+      <c r="AC3" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD3" s="35"/>
+    </row>
+    <row r="4" ht="56" customHeight="1" spans="1:30">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1582,10 +1599,10 @@
       <c r="T4" s="23"/>
       <c r="U4" s="23"/>
       <c r="V4" s="30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W4" s="31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X4" s="21"/>
       <c r="Y4" s="21"/>
@@ -1593,8 +1610,9 @@
       <c r="AA4" s="21"/>
       <c r="AB4" s="34"/>
       <c r="AC4" s="34"/>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AD4" s="35"/>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="5">
         <v>44523</v>
       </c>
@@ -1626,8 +1644,9 @@
       <c r="AA5" s="28"/>
       <c r="AB5" s="28"/>
       <c r="AC5" s="28"/>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AD5" s="28"/>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" s="7">
         <v>44524</v>
       </c>
@@ -1659,8 +1678,9 @@
       <c r="AA6" s="28"/>
       <c r="AB6" s="28"/>
       <c r="AC6" s="28"/>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6" s="28"/>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" s="7">
         <v>44525</v>
       </c>
@@ -1692,8 +1712,9 @@
       <c r="AA7" s="28"/>
       <c r="AB7" s="28"/>
       <c r="AC7" s="28"/>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7" s="28"/>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="7">
         <v>44526</v>
       </c>
@@ -1725,8 +1746,9 @@
       <c r="AA8" s="28"/>
       <c r="AB8" s="28"/>
       <c r="AC8" s="28"/>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="AD8" s="28"/>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="7">
         <v>44527</v>
       </c>
@@ -1758,8 +1780,9 @@
       <c r="AA9" s="28"/>
       <c r="AB9" s="28"/>
       <c r="AC9" s="28"/>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="AD9" s="28"/>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" s="7">
         <v>44528</v>
       </c>
@@ -1791,8 +1814,9 @@
       <c r="AA10" s="28"/>
       <c r="AB10" s="28"/>
       <c r="AC10" s="28"/>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="AD10" s="28"/>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" s="7">
         <v>44529</v>
       </c>
@@ -1824,8 +1848,9 @@
       <c r="AA11" s="28"/>
       <c r="AB11" s="28"/>
       <c r="AC11" s="28"/>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11" s="28"/>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" s="7">
         <v>44530</v>
       </c>
@@ -1857,8 +1882,9 @@
       <c r="AA12" s="28"/>
       <c r="AB12" s="28"/>
       <c r="AC12" s="28"/>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AD12" s="28"/>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" s="7">
         <v>44531</v>
       </c>
@@ -1890,8 +1916,9 @@
       <c r="AA13" s="28"/>
       <c r="AB13" s="28"/>
       <c r="AC13" s="28"/>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="AD13" s="28"/>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" s="7">
         <v>44532</v>
       </c>
@@ -1923,8 +1950,9 @@
       <c r="AA14" s="28"/>
       <c r="AB14" s="28"/>
       <c r="AC14" s="28"/>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="AD14" s="28"/>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" s="7">
         <v>44533</v>
       </c>
@@ -1956,8 +1984,9 @@
       <c r="AA15" s="28"/>
       <c r="AB15" s="28"/>
       <c r="AC15" s="28"/>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="AD15" s="28"/>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="7">
         <v>44534</v>
       </c>
@@ -1989,8 +2018,9 @@
       <c r="AA16" s="28"/>
       <c r="AB16" s="28"/>
       <c r="AC16" s="28"/>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16" s="28"/>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" s="7">
         <v>44535</v>
       </c>
@@ -2022,8 +2052,9 @@
       <c r="AA17" s="28"/>
       <c r="AB17" s="28"/>
       <c r="AC17" s="28"/>
-    </row>
-    <row r="18" spans="1:29">
+      <c r="AD17" s="28"/>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" s="7">
         <v>44536</v>
       </c>
@@ -2055,8 +2086,9 @@
       <c r="AA18" s="28"/>
       <c r="AB18" s="28"/>
       <c r="AC18" s="28"/>
-    </row>
-    <row r="19" spans="1:29">
+      <c r="AD18" s="28"/>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" s="7">
         <v>44537</v>
       </c>
@@ -2088,8 +2120,9 @@
       <c r="AA19" s="28"/>
       <c r="AB19" s="28"/>
       <c r="AC19" s="28"/>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19" s="28"/>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" s="7">
         <v>44538</v>
       </c>
@@ -2121,8 +2154,9 @@
       <c r="AA20" s="28"/>
       <c r="AB20" s="28"/>
       <c r="AC20" s="28"/>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20" s="28"/>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" s="7">
         <v>44539</v>
       </c>
@@ -2154,8 +2188,9 @@
       <c r="AA21" s="28"/>
       <c r="AB21" s="28"/>
       <c r="AC21" s="28"/>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AD21" s="28"/>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="7">
         <v>44540</v>
       </c>
@@ -2187,8 +2222,9 @@
       <c r="AA22" s="28"/>
       <c r="AB22" s="28"/>
       <c r="AC22" s="28"/>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22" s="28"/>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" s="7">
         <v>44541</v>
       </c>
@@ -2220,8 +2256,9 @@
       <c r="AA23" s="28"/>
       <c r="AB23" s="28"/>
       <c r="AC23" s="28"/>
-    </row>
-    <row r="24" spans="1:29">
+      <c r="AD23" s="28"/>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" s="7">
         <v>44542</v>
       </c>
@@ -2253,8 +2290,9 @@
       <c r="AA24" s="28"/>
       <c r="AB24" s="28"/>
       <c r="AC24" s="28"/>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AD24" s="28"/>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" s="7">
         <v>44543</v>
       </c>
@@ -2286,8 +2324,9 @@
       <c r="AA25" s="28"/>
       <c r="AB25" s="28"/>
       <c r="AC25" s="28"/>
-    </row>
-    <row r="26" spans="1:29">
+      <c r="AD25" s="28"/>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" s="7">
         <v>44544</v>
       </c>
@@ -2319,8 +2358,9 @@
       <c r="AA26" s="28"/>
       <c r="AB26" s="28"/>
       <c r="AC26" s="28"/>
-    </row>
-    <row r="27" spans="1:29">
+      <c r="AD26" s="28"/>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" s="7">
         <v>44545</v>
       </c>
@@ -2352,8 +2392,9 @@
       <c r="AA27" s="28"/>
       <c r="AB27" s="28"/>
       <c r="AC27" s="28"/>
-    </row>
-    <row r="28" spans="1:29">
+      <c r="AD27" s="28"/>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" s="7">
         <v>44546</v>
       </c>
@@ -2385,8 +2426,9 @@
       <c r="AA28" s="28"/>
       <c r="AB28" s="28"/>
       <c r="AC28" s="28"/>
-    </row>
-    <row r="29" spans="1:29">
+      <c r="AD28" s="28"/>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" s="7">
         <v>44547</v>
       </c>
@@ -2418,8 +2460,9 @@
       <c r="AA29" s="28"/>
       <c r="AB29" s="28"/>
       <c r="AC29" s="28"/>
-    </row>
-    <row r="30" spans="1:29">
+      <c r="AD29" s="28"/>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" s="7">
         <v>44548</v>
       </c>
@@ -2451,8 +2494,9 @@
       <c r="AA30" s="28"/>
       <c r="AB30" s="28"/>
       <c r="AC30" s="28"/>
-    </row>
-    <row r="31" spans="1:29">
+      <c r="AD30" s="28"/>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" s="7">
         <v>44549</v>
       </c>
@@ -2484,8 +2528,9 @@
       <c r="AA31" s="28"/>
       <c r="AB31" s="28"/>
       <c r="AC31" s="28"/>
-    </row>
-    <row r="32" spans="1:29">
+      <c r="AD31" s="28"/>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" s="7">
         <v>44550</v>
       </c>
@@ -2517,8 +2562,9 @@
       <c r="AA32" s="28"/>
       <c r="AB32" s="28"/>
       <c r="AC32" s="28"/>
-    </row>
-    <row r="33" spans="1:29">
+      <c r="AD32" s="28"/>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" s="7">
         <v>44551</v>
       </c>
@@ -2550,8 +2596,9 @@
       <c r="AA33" s="28"/>
       <c r="AB33" s="28"/>
       <c r="AC33" s="28"/>
-    </row>
-    <row r="34" spans="1:29">
+      <c r="AD33" s="28"/>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" s="7">
         <v>44552</v>
       </c>
@@ -2583,8 +2630,9 @@
       <c r="AA34" s="28"/>
       <c r="AB34" s="28"/>
       <c r="AC34" s="28"/>
-    </row>
-    <row r="35" spans="1:29">
+      <c r="AD34" s="28"/>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" s="7">
         <v>44553</v>
       </c>
@@ -2616,8 +2664,9 @@
       <c r="AA35" s="28"/>
       <c r="AB35" s="28"/>
       <c r="AC35" s="28"/>
-    </row>
-    <row r="36" spans="1:29">
+      <c r="AD35" s="28"/>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" s="7">
         <v>44554</v>
       </c>
@@ -2649,8 +2698,9 @@
       <c r="AA36" s="28"/>
       <c r="AB36" s="28"/>
       <c r="AC36" s="28"/>
-    </row>
-    <row r="37" spans="1:29">
+      <c r="AD36" s="28"/>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" s="7">
         <v>44555</v>
       </c>
@@ -2682,8 +2732,9 @@
       <c r="AA37" s="28"/>
       <c r="AB37" s="28"/>
       <c r="AC37" s="28"/>
-    </row>
-    <row r="38" spans="1:29">
+      <c r="AD37" s="28"/>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" s="7">
         <v>44556</v>
       </c>
@@ -2715,8 +2766,9 @@
       <c r="AA38" s="28"/>
       <c r="AB38" s="28"/>
       <c r="AC38" s="28"/>
-    </row>
-    <row r="39" spans="1:29">
+      <c r="AD38" s="28"/>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" s="7">
         <v>44557</v>
       </c>
@@ -2748,8 +2800,9 @@
       <c r="AA39" s="28"/>
       <c r="AB39" s="28"/>
       <c r="AC39" s="28"/>
-    </row>
-    <row r="40" spans="1:29">
+      <c r="AD39" s="28"/>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" s="7">
         <v>44558</v>
       </c>
@@ -2781,8 +2834,9 @@
       <c r="AA40" s="28"/>
       <c r="AB40" s="28"/>
       <c r="AC40" s="28"/>
-    </row>
-    <row r="41" spans="1:29">
+      <c r="AD40" s="28"/>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" s="7">
         <v>44559</v>
       </c>
@@ -2814,8 +2868,9 @@
       <c r="AA41" s="28"/>
       <c r="AB41" s="28"/>
       <c r="AC41" s="28"/>
-    </row>
-    <row r="42" spans="1:29">
+      <c r="AD41" s="28"/>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" s="7">
         <v>44560</v>
       </c>
@@ -2847,8 +2902,9 @@
       <c r="AA42" s="28"/>
       <c r="AB42" s="28"/>
       <c r="AC42" s="28"/>
-    </row>
-    <row r="43" spans="1:29">
+      <c r="AD42" s="28"/>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" s="7">
         <v>44561</v>
       </c>
@@ -2880,8 +2936,9 @@
       <c r="AA43" s="28"/>
       <c r="AB43" s="28"/>
       <c r="AC43" s="28"/>
-    </row>
-    <row r="44" spans="1:29">
+      <c r="AD43" s="28"/>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" s="7">
         <v>44562</v>
       </c>
@@ -2913,8 +2970,9 @@
       <c r="AA44" s="28"/>
       <c r="AB44" s="28"/>
       <c r="AC44" s="28"/>
-    </row>
-    <row r="45" spans="1:29">
+      <c r="AD44" s="28"/>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" s="7">
         <v>44563</v>
       </c>
@@ -2946,8 +3004,9 @@
       <c r="AA45" s="28"/>
       <c r="AB45" s="28"/>
       <c r="AC45" s="28"/>
-    </row>
-    <row r="46" spans="1:29">
+      <c r="AD45" s="28"/>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" s="7">
         <v>44564</v>
       </c>
@@ -2979,8 +3038,9 @@
       <c r="AA46" s="28"/>
       <c r="AB46" s="28"/>
       <c r="AC46" s="28"/>
-    </row>
-    <row r="47" spans="1:29">
+      <c r="AD46" s="28"/>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" s="7">
         <v>44565</v>
       </c>
@@ -3012,8 +3072,9 @@
       <c r="AA47" s="28"/>
       <c r="AB47" s="28"/>
       <c r="AC47" s="28"/>
-    </row>
-    <row r="48" spans="1:29">
+      <c r="AD47" s="28"/>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" s="7">
         <v>44566</v>
       </c>
@@ -3045,8 +3106,9 @@
       <c r="AA48" s="28"/>
       <c r="AB48" s="28"/>
       <c r="AC48" s="28"/>
-    </row>
-    <row r="49" spans="1:29">
+      <c r="AD48" s="28"/>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" s="7">
         <v>44567</v>
       </c>
@@ -3078,8 +3140,9 @@
       <c r="AA49" s="28"/>
       <c r="AB49" s="28"/>
       <c r="AC49" s="28"/>
-    </row>
-    <row r="50" spans="1:29">
+      <c r="AD49" s="28"/>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" s="7">
         <v>44568</v>
       </c>
@@ -3111,8 +3174,9 @@
       <c r="AA50" s="28"/>
       <c r="AB50" s="28"/>
       <c r="AC50" s="28"/>
-    </row>
-    <row r="51" spans="1:29">
+      <c r="AD50" s="28"/>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" s="7">
         <v>44569</v>
       </c>
@@ -3144,8 +3208,9 @@
       <c r="AA51" s="28"/>
       <c r="AB51" s="28"/>
       <c r="AC51" s="28"/>
-    </row>
-    <row r="52" spans="1:29">
+      <c r="AD51" s="28"/>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" s="7">
         <v>44570</v>
       </c>
@@ -3177,8 +3242,9 @@
       <c r="AA52" s="28"/>
       <c r="AB52" s="28"/>
       <c r="AC52" s="28"/>
-    </row>
-    <row r="53" spans="1:29">
+      <c r="AD52" s="28"/>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" s="7">
         <v>44571</v>
       </c>
@@ -3210,8 +3276,9 @@
       <c r="AA53" s="28"/>
       <c r="AB53" s="28"/>
       <c r="AC53" s="28"/>
-    </row>
-    <row r="54" spans="1:29">
+      <c r="AD53" s="28"/>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" s="7">
         <v>44572</v>
       </c>
@@ -3243,8 +3310,9 @@
       <c r="AA54" s="28"/>
       <c r="AB54" s="28"/>
       <c r="AC54" s="28"/>
-    </row>
-    <row r="55" spans="1:29">
+      <c r="AD54" s="28"/>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" s="7">
         <v>44573</v>
       </c>
@@ -3276,8 +3344,9 @@
       <c r="AA55" s="28"/>
       <c r="AB55" s="28"/>
       <c r="AC55" s="28"/>
-    </row>
-    <row r="56" spans="1:29">
+      <c r="AD55" s="28"/>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" s="7">
         <v>44574</v>
       </c>
@@ -3309,8 +3378,9 @@
       <c r="AA56" s="28"/>
       <c r="AB56" s="28"/>
       <c r="AC56" s="28"/>
-    </row>
-    <row r="57" spans="1:29">
+      <c r="AD56" s="28"/>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" s="7">
         <v>44575</v>
       </c>
@@ -3342,8 +3412,9 @@
       <c r="AA57" s="28"/>
       <c r="AB57" s="28"/>
       <c r="AC57" s="28"/>
-    </row>
-    <row r="58" spans="1:29">
+      <c r="AD57" s="28"/>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" s="7">
         <v>44576</v>
       </c>
@@ -3375,8 +3446,9 @@
       <c r="AA58" s="28"/>
       <c r="AB58" s="28"/>
       <c r="AC58" s="28"/>
-    </row>
-    <row r="59" spans="1:29">
+      <c r="AD58" s="28"/>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" s="7">
         <v>44577</v>
       </c>
@@ -3408,8 +3480,9 @@
       <c r="AA59" s="28"/>
       <c r="AB59" s="28"/>
       <c r="AC59" s="28"/>
-    </row>
-    <row r="60" spans="1:29">
+      <c r="AD59" s="28"/>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" s="7">
         <v>44578</v>
       </c>
@@ -3441,8 +3514,9 @@
       <c r="AA60" s="28"/>
       <c r="AB60" s="28"/>
       <c r="AC60" s="28"/>
-    </row>
-    <row r="61" spans="1:29">
+      <c r="AD60" s="28"/>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" s="7">
         <v>44579</v>
       </c>
@@ -3474,8 +3548,9 @@
       <c r="AA61" s="28"/>
       <c r="AB61" s="28"/>
       <c r="AC61" s="28"/>
-    </row>
-    <row r="62" spans="1:29">
+      <c r="AD61" s="28"/>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" s="7">
         <v>44580</v>
       </c>
@@ -3507,8 +3582,9 @@
       <c r="AA62" s="28"/>
       <c r="AB62" s="28"/>
       <c r="AC62" s="28"/>
-    </row>
-    <row r="63" spans="1:29">
+      <c r="AD62" s="28"/>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" s="7">
         <v>44581</v>
       </c>
@@ -3540,8 +3616,9 @@
       <c r="AA63" s="28"/>
       <c r="AB63" s="28"/>
       <c r="AC63" s="28"/>
-    </row>
-    <row r="64" spans="1:29">
+      <c r="AD63" s="28"/>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" s="7">
         <v>44582</v>
       </c>
@@ -3573,8 +3650,9 @@
       <c r="AA64" s="28"/>
       <c r="AB64" s="28"/>
       <c r="AC64" s="28"/>
-    </row>
-    <row r="65" spans="1:29">
+      <c r="AD64" s="28"/>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" s="7">
         <v>44583</v>
       </c>
@@ -3606,8 +3684,9 @@
       <c r="AA65" s="28"/>
       <c r="AB65" s="28"/>
       <c r="AC65" s="28"/>
-    </row>
-    <row r="66" spans="1:29">
+      <c r="AD65" s="28"/>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" s="7">
         <v>44584</v>
       </c>
@@ -3639,8 +3718,9 @@
       <c r="AA66" s="28"/>
       <c r="AB66" s="28"/>
       <c r="AC66" s="28"/>
-    </row>
-    <row r="67" spans="1:29">
+      <c r="AD66" s="28"/>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" s="7">
         <v>44585</v>
       </c>
@@ -3672,8 +3752,9 @@
       <c r="AA67" s="28"/>
       <c r="AB67" s="28"/>
       <c r="AC67" s="28"/>
-    </row>
-    <row r="68" spans="1:29">
+      <c r="AD67" s="28"/>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68" s="7">
         <v>44586</v>
       </c>
@@ -3705,8 +3786,9 @@
       <c r="AA68" s="28"/>
       <c r="AB68" s="28"/>
       <c r="AC68" s="28"/>
-    </row>
-    <row r="69" spans="1:29">
+      <c r="AD68" s="28"/>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69" s="7">
         <v>44587</v>
       </c>
@@ -3738,8 +3820,9 @@
       <c r="AA69" s="28"/>
       <c r="AB69" s="28"/>
       <c r="AC69" s="28"/>
-    </row>
-    <row r="70" spans="1:29">
+      <c r="AD69" s="28"/>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70" s="7">
         <v>44588</v>
       </c>
@@ -3771,8 +3854,9 @@
       <c r="AA70" s="28"/>
       <c r="AB70" s="28"/>
       <c r="AC70" s="28"/>
-    </row>
-    <row r="71" spans="1:29">
+      <c r="AD70" s="28"/>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71" s="7">
         <v>44589</v>
       </c>
@@ -3804,8 +3888,9 @@
       <c r="AA71" s="28"/>
       <c r="AB71" s="28"/>
       <c r="AC71" s="28"/>
-    </row>
-    <row r="72" spans="1:29">
+      <c r="AD71" s="28"/>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72" s="7">
         <v>44590</v>
       </c>
@@ -3837,8 +3922,9 @@
       <c r="AA72" s="28"/>
       <c r="AB72" s="28"/>
       <c r="AC72" s="28"/>
-    </row>
-    <row r="73" spans="1:29">
+      <c r="AD72" s="28"/>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73" s="7">
         <v>44591</v>
       </c>
@@ -3870,8 +3956,9 @@
       <c r="AA73" s="28"/>
       <c r="AB73" s="28"/>
       <c r="AC73" s="28"/>
-    </row>
-    <row r="74" spans="1:29">
+      <c r="AD73" s="28"/>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74" s="7">
         <v>44592</v>
       </c>
@@ -3903,8 +3990,9 @@
       <c r="AA74" s="28"/>
       <c r="AB74" s="28"/>
       <c r="AC74" s="28"/>
-    </row>
-    <row r="75" spans="1:29">
+      <c r="AD74" s="28"/>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75" s="7">
         <v>44593</v>
       </c>
@@ -3936,8 +4024,9 @@
       <c r="AA75" s="28"/>
       <c r="AB75" s="28"/>
       <c r="AC75" s="28"/>
-    </row>
-    <row r="76" spans="1:29">
+      <c r="AD75" s="28"/>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76" s="7">
         <v>44594</v>
       </c>
@@ -3969,8 +4058,9 @@
       <c r="AA76" s="28"/>
       <c r="AB76" s="28"/>
       <c r="AC76" s="28"/>
-    </row>
-    <row r="77" spans="1:29">
+      <c r="AD76" s="28"/>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77" s="7">
         <v>44595</v>
       </c>
@@ -4002,8 +4092,9 @@
       <c r="AA77" s="28"/>
       <c r="AB77" s="28"/>
       <c r="AC77" s="28"/>
-    </row>
-    <row r="78" spans="1:29">
+      <c r="AD77" s="28"/>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78" s="7">
         <v>44596</v>
       </c>
@@ -4035,8 +4126,9 @@
       <c r="AA78" s="28"/>
       <c r="AB78" s="28"/>
       <c r="AC78" s="28"/>
-    </row>
-    <row r="79" spans="1:29">
+      <c r="AD78" s="28"/>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79" s="7">
         <v>44597</v>
       </c>
@@ -4068,8 +4160,9 @@
       <c r="AA79" s="28"/>
       <c r="AB79" s="28"/>
       <c r="AC79" s="28"/>
-    </row>
-    <row r="80" spans="1:29">
+      <c r="AD79" s="28"/>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80" s="7">
         <v>44598</v>
       </c>
@@ -4101,8 +4194,9 @@
       <c r="AA80" s="28"/>
       <c r="AB80" s="28"/>
       <c r="AC80" s="28"/>
-    </row>
-    <row r="81" spans="1:29">
+      <c r="AD80" s="28"/>
+    </row>
+    <row r="81" spans="1:30">
       <c r="A81" s="7">
         <v>44599</v>
       </c>
@@ -4134,8 +4228,9 @@
       <c r="AA81" s="28"/>
       <c r="AB81" s="28"/>
       <c r="AC81" s="28"/>
-    </row>
-    <row r="82" spans="1:29">
+      <c r="AD81" s="28"/>
+    </row>
+    <row r="82" spans="1:30">
       <c r="A82" s="7">
         <v>44600</v>
       </c>
@@ -4167,8 +4262,9 @@
       <c r="AA82" s="28"/>
       <c r="AB82" s="28"/>
       <c r="AC82" s="28"/>
-    </row>
-    <row r="83" spans="1:29">
+      <c r="AD82" s="28"/>
+    </row>
+    <row r="83" spans="1:30">
       <c r="A83" s="7">
         <v>44601</v>
       </c>
@@ -4200,8 +4296,9 @@
       <c r="AA83" s="28"/>
       <c r="AB83" s="28"/>
       <c r="AC83" s="28"/>
-    </row>
-    <row r="84" spans="1:29">
+      <c r="AD83" s="28"/>
+    </row>
+    <row r="84" spans="1:30">
       <c r="A84" s="7">
         <v>44602</v>
       </c>
@@ -4233,8 +4330,9 @@
       <c r="AA84" s="28"/>
       <c r="AB84" s="28"/>
       <c r="AC84" s="28"/>
-    </row>
-    <row r="85" spans="1:29">
+      <c r="AD84" s="28"/>
+    </row>
+    <row r="85" spans="1:30">
       <c r="A85" s="7">
         <v>44603</v>
       </c>
@@ -4266,8 +4364,9 @@
       <c r="AA85" s="28"/>
       <c r="AB85" s="28"/>
       <c r="AC85" s="28"/>
-    </row>
-    <row r="86" spans="1:29">
+      <c r="AD85" s="28"/>
+    </row>
+    <row r="86" spans="1:30">
       <c r="A86" s="7">
         <v>44604</v>
       </c>
@@ -4299,8 +4398,9 @@
       <c r="AA86" s="28"/>
       <c r="AB86" s="28"/>
       <c r="AC86" s="28"/>
-    </row>
-    <row r="87" spans="1:29">
+      <c r="AD86" s="28"/>
+    </row>
+    <row r="87" spans="1:30">
       <c r="A87" s="7">
         <v>44605</v>
       </c>
@@ -4332,8 +4432,9 @@
       <c r="AA87" s="28"/>
       <c r="AB87" s="28"/>
       <c r="AC87" s="28"/>
-    </row>
-    <row r="88" spans="1:29">
+      <c r="AD87" s="28"/>
+    </row>
+    <row r="88" spans="1:30">
       <c r="A88" s="7">
         <v>44606</v>
       </c>
@@ -4365,8 +4466,9 @@
       <c r="AA88" s="28"/>
       <c r="AB88" s="28"/>
       <c r="AC88" s="28"/>
-    </row>
-    <row r="89" spans="1:29">
+      <c r="AD88" s="28"/>
+    </row>
+    <row r="89" spans="1:30">
       <c r="A89" s="7">
         <v>44607</v>
       </c>
@@ -4398,8 +4500,9 @@
       <c r="AA89" s="28"/>
       <c r="AB89" s="28"/>
       <c r="AC89" s="28"/>
-    </row>
-    <row r="90" spans="1:29">
+      <c r="AD89" s="28"/>
+    </row>
+    <row r="90" spans="1:30">
       <c r="A90" s="7">
         <v>44608</v>
       </c>
@@ -4431,8 +4534,9 @@
       <c r="AA90" s="28"/>
       <c r="AB90" s="28"/>
       <c r="AC90" s="28"/>
-    </row>
-    <row r="91" spans="1:29">
+      <c r="AD90" s="28"/>
+    </row>
+    <row r="91" spans="1:30">
       <c r="A91" s="7">
         <v>44609</v>
       </c>
@@ -4464,8 +4568,9 @@
       <c r="AA91" s="28"/>
       <c r="AB91" s="28"/>
       <c r="AC91" s="28"/>
-    </row>
-    <row r="92" spans="1:29">
+      <c r="AD91" s="28"/>
+    </row>
+    <row r="92" spans="1:30">
       <c r="A92" s="7">
         <v>44610</v>
       </c>
@@ -4497,8 +4602,9 @@
       <c r="AA92" s="28"/>
       <c r="AB92" s="28"/>
       <c r="AC92" s="28"/>
-    </row>
-    <row r="93" spans="1:29">
+      <c r="AD92" s="28"/>
+    </row>
+    <row r="93" spans="1:30">
       <c r="A93" s="7">
         <v>44611</v>
       </c>
@@ -4530,8 +4636,9 @@
       <c r="AA93" s="28"/>
       <c r="AB93" s="28"/>
       <c r="AC93" s="28"/>
-    </row>
-    <row r="94" spans="1:29">
+      <c r="AD93" s="28"/>
+    </row>
+    <row r="94" spans="1:30">
       <c r="A94" s="7">
         <v>44612</v>
       </c>
@@ -4563,8 +4670,9 @@
       <c r="AA94" s="28"/>
       <c r="AB94" s="28"/>
       <c r="AC94" s="28"/>
-    </row>
-    <row r="95" spans="1:29">
+      <c r="AD94" s="28"/>
+    </row>
+    <row r="95" spans="1:30">
       <c r="A95" s="7">
         <v>44613</v>
       </c>
@@ -4596,8 +4704,9 @@
       <c r="AA95" s="28"/>
       <c r="AB95" s="28"/>
       <c r="AC95" s="28"/>
-    </row>
-    <row r="96" spans="1:29">
+      <c r="AD95" s="28"/>
+    </row>
+    <row r="96" spans="1:30">
       <c r="A96" s="7">
         <v>44614</v>
       </c>
@@ -4629,8 +4738,9 @@
       <c r="AA96" s="28"/>
       <c r="AB96" s="28"/>
       <c r="AC96" s="28"/>
-    </row>
-    <row r="97" spans="1:29">
+      <c r="AD96" s="28"/>
+    </row>
+    <row r="97" spans="1:30">
       <c r="A97" s="7">
         <v>44615</v>
       </c>
@@ -4662,8 +4772,9 @@
       <c r="AA97" s="28"/>
       <c r="AB97" s="28"/>
       <c r="AC97" s="28"/>
-    </row>
-    <row r="98" spans="1:29">
+      <c r="AD97" s="28"/>
+    </row>
+    <row r="98" spans="1:30">
       <c r="A98" s="7">
         <v>44616</v>
       </c>
@@ -4695,8 +4806,9 @@
       <c r="AA98" s="28"/>
       <c r="AB98" s="28"/>
       <c r="AC98" s="28"/>
-    </row>
-    <row r="99" spans="1:29">
+      <c r="AD98" s="28"/>
+    </row>
+    <row r="99" spans="1:30">
       <c r="A99" s="7">
         <v>44617</v>
       </c>
@@ -4728,8 +4840,9 @@
       <c r="AA99" s="28"/>
       <c r="AB99" s="28"/>
       <c r="AC99" s="28"/>
-    </row>
-    <row r="100" spans="1:29">
+      <c r="AD99" s="28"/>
+    </row>
+    <row r="100" spans="1:30">
       <c r="A100" s="7">
         <v>44618</v>
       </c>
@@ -4761,8 +4874,9 @@
       <c r="AA100" s="28"/>
       <c r="AB100" s="28"/>
       <c r="AC100" s="28"/>
-    </row>
-    <row r="101" spans="1:29">
+      <c r="AD100" s="28"/>
+    </row>
+    <row r="101" spans="1:30">
       <c r="A101" s="7">
         <v>44619</v>
       </c>
@@ -4794,8 +4908,9 @@
       <c r="AA101" s="28"/>
       <c r="AB101" s="28"/>
       <c r="AC101" s="28"/>
-    </row>
-    <row r="102" spans="1:29">
+      <c r="AD101" s="28"/>
+    </row>
+    <row r="102" spans="1:30">
       <c r="A102" s="7">
         <v>44620</v>
       </c>
@@ -4827,8 +4942,9 @@
       <c r="AA102" s="28"/>
       <c r="AB102" s="28"/>
       <c r="AC102" s="28"/>
-    </row>
-    <row r="103" spans="1:29">
+      <c r="AD102" s="28"/>
+    </row>
+    <row r="103" spans="1:30">
       <c r="A103" s="7">
         <v>44621</v>
       </c>
@@ -4860,8 +4976,9 @@
       <c r="AA103" s="28"/>
       <c r="AB103" s="28"/>
       <c r="AC103" s="28"/>
-    </row>
-    <row r="104" spans="1:29">
+      <c r="AD103" s="28"/>
+    </row>
+    <row r="104" spans="1:30">
       <c r="A104" s="7">
         <v>44622</v>
       </c>
@@ -4893,8 +5010,9 @@
       <c r="AA104" s="28"/>
       <c r="AB104" s="28"/>
       <c r="AC104" s="28"/>
-    </row>
-    <row r="105" spans="1:29">
+      <c r="AD104" s="28"/>
+    </row>
+    <row r="105" spans="1:30">
       <c r="A105" s="7">
         <v>44623</v>
       </c>
@@ -4926,8 +5044,9 @@
       <c r="AA105" s="28"/>
       <c r="AB105" s="28"/>
       <c r="AC105" s="28"/>
-    </row>
-    <row r="106" spans="1:29">
+      <c r="AD105" s="28"/>
+    </row>
+    <row r="106" spans="1:30">
       <c r="A106" s="7">
         <v>44624</v>
       </c>
@@ -4959,8 +5078,9 @@
       <c r="AA106" s="28"/>
       <c r="AB106" s="28"/>
       <c r="AC106" s="28"/>
-    </row>
-    <row r="107" spans="1:29">
+      <c r="AD106" s="28"/>
+    </row>
+    <row r="107" spans="1:30">
       <c r="A107" s="7">
         <v>44625</v>
       </c>
@@ -4992,8 +5112,9 @@
       <c r="AA107" s="28"/>
       <c r="AB107" s="28"/>
       <c r="AC107" s="28"/>
-    </row>
-    <row r="108" spans="1:29">
+      <c r="AD107" s="28"/>
+    </row>
+    <row r="108" spans="1:30">
       <c r="A108" s="7">
         <v>44626</v>
       </c>
@@ -5025,8 +5146,9 @@
       <c r="AA108" s="28"/>
       <c r="AB108" s="28"/>
       <c r="AC108" s="28"/>
-    </row>
-    <row r="109" spans="1:29">
+      <c r="AD108" s="28"/>
+    </row>
+    <row r="109" spans="1:30">
       <c r="A109" s="7">
         <v>44627</v>
       </c>
@@ -5058,8 +5180,9 @@
       <c r="AA109" s="28"/>
       <c r="AB109" s="28"/>
       <c r="AC109" s="28"/>
-    </row>
-    <row r="110" spans="1:29">
+      <c r="AD109" s="28"/>
+    </row>
+    <row r="110" spans="1:30">
       <c r="A110" s="7">
         <v>44628</v>
       </c>
@@ -5091,8 +5214,9 @@
       <c r="AA110" s="28"/>
       <c r="AB110" s="28"/>
       <c r="AC110" s="28"/>
-    </row>
-    <row r="111" spans="1:29">
+      <c r="AD110" s="28"/>
+    </row>
+    <row r="111" spans="1:30">
       <c r="A111" s="7">
         <v>44629</v>
       </c>
@@ -5124,8 +5248,9 @@
       <c r="AA111" s="28"/>
       <c r="AB111" s="28"/>
       <c r="AC111" s="28"/>
-    </row>
-    <row r="112" spans="1:29">
+      <c r="AD111" s="28"/>
+    </row>
+    <row r="112" spans="1:30">
       <c r="A112" s="7">
         <v>44630</v>
       </c>
@@ -5157,8 +5282,9 @@
       <c r="AA112" s="28"/>
       <c r="AB112" s="28"/>
       <c r="AC112" s="28"/>
-    </row>
-    <row r="113" spans="1:29">
+      <c r="AD112" s="28"/>
+    </row>
+    <row r="113" spans="1:30">
       <c r="A113" s="7">
         <v>44631</v>
       </c>
@@ -5190,8 +5316,9 @@
       <c r="AA113" s="28"/>
       <c r="AB113" s="28"/>
       <c r="AC113" s="28"/>
-    </row>
-    <row r="114" spans="1:29">
+      <c r="AD113" s="28"/>
+    </row>
+    <row r="114" spans="1:30">
       <c r="A114" s="7">
         <v>44632</v>
       </c>
@@ -5223,8 +5350,9 @@
       <c r="AA114" s="28"/>
       <c r="AB114" s="28"/>
       <c r="AC114" s="28"/>
-    </row>
-    <row r="115" spans="1:29">
+      <c r="AD114" s="28"/>
+    </row>
+    <row r="115" spans="1:30">
       <c r="A115" s="7">
         <v>44633</v>
       </c>
@@ -5256,8 +5384,9 @@
       <c r="AA115" s="28"/>
       <c r="AB115" s="28"/>
       <c r="AC115" s="28"/>
-    </row>
-    <row r="116" spans="1:29">
+      <c r="AD115" s="28"/>
+    </row>
+    <row r="116" spans="1:30">
       <c r="A116" s="7">
         <v>44634</v>
       </c>
@@ -5289,8 +5418,9 @@
       <c r="AA116" s="28"/>
       <c r="AB116" s="28"/>
       <c r="AC116" s="28"/>
-    </row>
-    <row r="117" spans="1:29">
+      <c r="AD116" s="28"/>
+    </row>
+    <row r="117" spans="1:30">
       <c r="A117" s="7">
         <v>44635</v>
       </c>
@@ -5322,8 +5452,9 @@
       <c r="AA117" s="28"/>
       <c r="AB117" s="28"/>
       <c r="AC117" s="28"/>
-    </row>
-    <row r="118" spans="1:29">
+      <c r="AD117" s="28"/>
+    </row>
+    <row r="118" spans="1:30">
       <c r="A118" s="7">
         <v>44636</v>
       </c>
@@ -5355,8 +5486,9 @@
       <c r="AA118" s="28"/>
       <c r="AB118" s="28"/>
       <c r="AC118" s="28"/>
-    </row>
-    <row r="119" spans="1:29">
+      <c r="AD118" s="28"/>
+    </row>
+    <row r="119" spans="1:30">
       <c r="A119" s="7">
         <v>44637</v>
       </c>
@@ -5388,8 +5520,9 @@
       <c r="AA119" s="28"/>
       <c r="AB119" s="28"/>
       <c r="AC119" s="28"/>
-    </row>
-    <row r="120" spans="1:29">
+      <c r="AD119" s="28"/>
+    </row>
+    <row r="120" spans="1:30">
       <c r="A120" s="7">
         <v>44638</v>
       </c>
@@ -5421,8 +5554,9 @@
       <c r="AA120" s="28"/>
       <c r="AB120" s="28"/>
       <c r="AC120" s="28"/>
-    </row>
-    <row r="121" spans="1:29">
+      <c r="AD120" s="28"/>
+    </row>
+    <row r="121" spans="1:30">
       <c r="A121" s="7">
         <v>44639</v>
       </c>
@@ -5454,8 +5588,9 @@
       <c r="AA121" s="28"/>
       <c r="AB121" s="28"/>
       <c r="AC121" s="28"/>
-    </row>
-    <row r="122" spans="1:29">
+      <c r="AD121" s="28"/>
+    </row>
+    <row r="122" spans="1:30">
       <c r="A122" s="7">
         <v>44640</v>
       </c>
@@ -5487,8 +5622,9 @@
       <c r="AA122" s="28"/>
       <c r="AB122" s="28"/>
       <c r="AC122" s="28"/>
-    </row>
-    <row r="123" spans="1:29">
+      <c r="AD122" s="28"/>
+    </row>
+    <row r="123" spans="1:30">
       <c r="A123" s="7">
         <v>44641</v>
       </c>
@@ -5520,8 +5656,9 @@
       <c r="AA123" s="28"/>
       <c r="AB123" s="28"/>
       <c r="AC123" s="28"/>
-    </row>
-    <row r="124" spans="1:29">
+      <c r="AD123" s="28"/>
+    </row>
+    <row r="124" spans="1:30">
       <c r="A124" s="7">
         <v>44642</v>
       </c>
@@ -5553,8 +5690,9 @@
       <c r="AA124" s="28"/>
       <c r="AB124" s="28"/>
       <c r="AC124" s="28"/>
-    </row>
-    <row r="125" spans="1:29">
+      <c r="AD124" s="28"/>
+    </row>
+    <row r="125" spans="1:30">
       <c r="A125" s="7">
         <v>44643</v>
       </c>
@@ -5586,8 +5724,9 @@
       <c r="AA125" s="28"/>
       <c r="AB125" s="28"/>
       <c r="AC125" s="28"/>
-    </row>
-    <row r="126" spans="1:29">
+      <c r="AD125" s="28"/>
+    </row>
+    <row r="126" spans="1:30">
       <c r="A126" s="7">
         <v>44644</v>
       </c>
@@ -5619,8 +5758,9 @@
       <c r="AA126" s="28"/>
       <c r="AB126" s="28"/>
       <c r="AC126" s="28"/>
-    </row>
-    <row r="127" spans="1:29">
+      <c r="AD126" s="28"/>
+    </row>
+    <row r="127" spans="1:30">
       <c r="A127" s="7">
         <v>44645</v>
       </c>
@@ -5652,8 +5792,9 @@
       <c r="AA127" s="28"/>
       <c r="AB127" s="28"/>
       <c r="AC127" s="28"/>
-    </row>
-    <row r="128" spans="1:29">
+      <c r="AD127" s="28"/>
+    </row>
+    <row r="128" spans="1:30">
       <c r="A128" s="7">
         <v>44646</v>
       </c>
@@ -5685,8 +5826,9 @@
       <c r="AA128" s="28"/>
       <c r="AB128" s="28"/>
       <c r="AC128" s="28"/>
-    </row>
-    <row r="129" spans="1:29">
+      <c r="AD128" s="28"/>
+    </row>
+    <row r="129" spans="1:30">
       <c r="A129" s="7">
         <v>44647</v>
       </c>
@@ -5718,8 +5860,9 @@
       <c r="AA129" s="28"/>
       <c r="AB129" s="28"/>
       <c r="AC129" s="28"/>
-    </row>
-    <row r="130" spans="1:29">
+      <c r="AD129" s="28"/>
+    </row>
+    <row r="130" spans="1:30">
       <c r="A130" s="7">
         <v>44648</v>
       </c>
@@ -5751,8 +5894,9 @@
       <c r="AA130" s="28"/>
       <c r="AB130" s="28"/>
       <c r="AC130" s="28"/>
-    </row>
-    <row r="131" spans="1:29">
+      <c r="AD130" s="28"/>
+    </row>
+    <row r="131" spans="1:30">
       <c r="A131" s="7">
         <v>44649</v>
       </c>
@@ -5784,6 +5928,7 @@
       <c r="AA131" s="28"/>
       <c r="AB131" s="28"/>
       <c r="AC131" s="28"/>
+      <c r="AD131" s="28"/>
     </row>
     <row r="132" spans="1:21">
       <c r="A132" s="1"/>
@@ -13206,7 +13351,7 @@
       <c r="U502" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
     <mergeCell ref="T1:AC1"/>
     <mergeCell ref="T2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
@@ -13239,6 +13384,7 @@
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD1:AD4"/>
     <mergeCell ref="M1:R2"/>
     <mergeCell ref="B1:L2"/>
   </mergeCells>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -1376,7 +1376,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC3" sqref="AC3:AC4"/>
+      <selection pane="bottomRight" activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -1372,11 +1372,11 @@
   <dimension ref="A1:AD502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z5" sqref="Z5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -153,7 +153,7 @@
 (是的时候应该警惕)</t>
   </si>
   <si>
-    <t>是否出现连续三日新低
+    <t>是否出现连续三日新低，且第三日交易量放量
 (是的时候应该警惕)</t>
   </si>
   <si>
@@ -166,12 +166,10 @@
     <t>是否出现网球行为</t>
   </si>
   <si>
-    <t>是否上涨天数大于下跌天数
-（是的时候应该警惕）</t>
+    <t>是否上涨天数大于下跌天数</t>
   </si>
   <si>
-    <t>是否好的收盘次数大于坏的收盘次数
-(处于下部应该警惕)</t>
+    <t>是否好的收盘次数大于坏的收盘次数</t>
   </si>
   <si>
     <t>基底数
@@ -1423,11 +1421,11 @@
   <dimension ref="A1:AF503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1:U5"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>日期</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>止损线</t>
+  </si>
+  <si>
+    <t>盈利金额</t>
   </si>
   <si>
     <t>强势卖出指标</t>
@@ -693,7 +696,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -737,6 +740,19 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -854,7 +870,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -887,7 +903,7 @@
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -905,19 +921,19 @@
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -953,7 +969,7 @@
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -971,13 +987,13 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,16 +1002,19 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1090,7 +1109,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1098,6 +1117,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1418,14 +1443,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AF503"/>
+  <dimension ref="A1:AG503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4:O5"/>
+      <selection pane="bottomRight" activeCell="AG1" sqref="AG1:AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1455,4829 +1480,4837 @@
     <col min="29" max="29" width="22.0267857142857" customWidth="1"/>
     <col min="30" max="30" width="24.5446428571429" customWidth="1"/>
     <col min="31" max="31" width="18.75" customWidth="1"/>
+    <col min="33" max="33" width="9.07142857142857" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:33">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="15" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="20" t="s">
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="33" t="s">
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="23" t="s">
+      <c r="AG1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="34" t="s">
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="33"/>
-    </row>
-    <row r="3" spans="1:32">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="16" t="s">
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="18" t="s">
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="38"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="33"/>
-    </row>
-    <row r="4" spans="1:32">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="38"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="3"/>
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="M4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="N4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="O4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="P4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="Q4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="R4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="S4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="U4" s="22"/>
-      <c r="V4" s="24" t="s">
+      <c r="T4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="W4" s="24" t="s">
+      <c r="U4" s="23"/>
+      <c r="V4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="23" t="s">
+      <c r="W4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="32" t="s">
+      <c r="X4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="23" t="s">
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="32" t="s">
+      <c r="AA4" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="32" t="s">
+      <c r="AB4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="34" t="s">
+      <c r="AC4" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AE4" s="35" t="s">
+      <c r="AD4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AF4" s="33"/>
-    </row>
-    <row r="5" ht="56" customHeight="1" spans="1:32">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="25" t="s">
+      <c r="AE4" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="25" t="s">
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="38"/>
+    </row>
+    <row r="5" ht="56" customHeight="1" spans="1:33">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="33"/>
+      <c r="Y5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="38"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>44523</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="29"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="37"/>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>44524</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="29"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="37"/>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>44525</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="29"/>
-      <c r="AF8" s="29"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="37"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>44526</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="29"/>
-      <c r="AE9" s="29"/>
-      <c r="AF9" s="29"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="37"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <v>44527</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="37"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <v>44528</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29"/>
-      <c r="AF11" s="29"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30"/>
+      <c r="AF11" s="37"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>44529</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="30"/>
+      <c r="AC12" s="30"/>
+      <c r="AD12" s="30"/>
+      <c r="AE12" s="30"/>
+      <c r="AF12" s="37"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="7">
+      <c r="A13" s="8">
         <v>44530</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="37"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="7">
+      <c r="A14" s="8">
         <v>44531</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="29"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="37"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>44532</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="37"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>44533</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="29"/>
-      <c r="AF16" s="29"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="37"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>44534</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="37"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>44535</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="37"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="7">
+      <c r="A19" s="8">
         <v>44536</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="29"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="37"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <v>44537</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="29"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="30"/>
+      <c r="AF20" s="37"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <v>44538</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="29"/>
-      <c r="AB21" s="29"/>
-      <c r="AC21" s="29"/>
-      <c r="AD21" s="29"/>
-      <c r="AE21" s="29"/>
-      <c r="AF21" s="29"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="37"/>
     </row>
     <row r="22" spans="1:32">
-      <c r="A22" s="7">
+      <c r="A22" s="8">
         <v>44539</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="29"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="29"/>
-      <c r="AF22" s="29"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="37"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="7">
+      <c r="A23" s="8">
         <v>44540</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="29"/>
-      <c r="AB23" s="29"/>
-      <c r="AC23" s="29"/>
-      <c r="AD23" s="29"/>
-      <c r="AE23" s="29"/>
-      <c r="AF23" s="29"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="37"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="7">
+      <c r="A24" s="8">
         <v>44541</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="29"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="37"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="7">
+      <c r="A25" s="8">
         <v>44542</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="29"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="37"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="7">
+      <c r="A26" s="8">
         <v>44543</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="29"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="37"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <v>44544</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="37"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="7">
+      <c r="A28" s="8">
         <v>44545</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="29"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="37"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="7">
+      <c r="A29" s="8">
         <v>44546</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="29"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="37"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="7">
+      <c r="A30" s="8">
         <v>44547</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="29"/>
-      <c r="AF30" s="29"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="37"/>
     </row>
     <row r="31" spans="1:32">
-      <c r="A31" s="7">
+      <c r="A31" s="8">
         <v>44548</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="29"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="29"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="29"/>
-      <c r="AF31" s="29"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="30"/>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="30"/>
+      <c r="AD31" s="30"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="37"/>
     </row>
     <row r="32" spans="1:32">
-      <c r="A32" s="7">
+      <c r="A32" s="8">
         <v>44549</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="29"/>
-      <c r="AA32" s="29"/>
-      <c r="AB32" s="29"/>
-      <c r="AC32" s="29"/>
-      <c r="AD32" s="29"/>
-      <c r="AE32" s="29"/>
-      <c r="AF32" s="29"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="37"/>
     </row>
     <row r="33" spans="1:32">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <v>44550</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="29"/>
-      <c r="AA33" s="29"/>
-      <c r="AB33" s="29"/>
-      <c r="AC33" s="29"/>
-      <c r="AD33" s="29"/>
-      <c r="AE33" s="29"/>
-      <c r="AF33" s="29"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="30"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="37"/>
     </row>
     <row r="34" spans="1:32">
-      <c r="A34" s="7">
+      <c r="A34" s="8">
         <v>44551</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
-      <c r="AB34" s="29"/>
-      <c r="AC34" s="29"/>
-      <c r="AD34" s="29"/>
-      <c r="AE34" s="29"/>
-      <c r="AF34" s="29"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="30"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="37"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="A35" s="7">
+      <c r="A35" s="8">
         <v>44552</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="29"/>
-      <c r="AB35" s="29"/>
-      <c r="AC35" s="29"/>
-      <c r="AD35" s="29"/>
-      <c r="AE35" s="29"/>
-      <c r="AF35" s="29"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="30"/>
+      <c r="AB35" s="30"/>
+      <c r="AC35" s="30"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="37"/>
     </row>
     <row r="36" spans="1:32">
-      <c r="A36" s="7">
+      <c r="A36" s="8">
         <v>44553</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="29"/>
-      <c r="AA36" s="29"/>
-      <c r="AB36" s="29"/>
-      <c r="AC36" s="29"/>
-      <c r="AD36" s="29"/>
-      <c r="AE36" s="29"/>
-      <c r="AF36" s="29"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="37"/>
     </row>
     <row r="37" spans="1:32">
-      <c r="A37" s="7">
+      <c r="A37" s="8">
         <v>44554</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="29"/>
-      <c r="AB37" s="29"/>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
-      <c r="AE37" s="29"/>
-      <c r="AF37" s="29"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="30"/>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="37"/>
     </row>
     <row r="38" spans="1:32">
-      <c r="A38" s="7">
+      <c r="A38" s="8">
         <v>44555</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="29"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="37"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" s="7">
+      <c r="A39" s="8">
         <v>44556</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="29"/>
-      <c r="AF39" s="29"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="30"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="30"/>
+      <c r="AD39" s="30"/>
+      <c r="AE39" s="30"/>
+      <c r="AF39" s="37"/>
     </row>
     <row r="40" spans="1:32">
-      <c r="A40" s="7">
+      <c r="A40" s="8">
         <v>44557</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="29"/>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="29"/>
-      <c r="AE40" s="29"/>
-      <c r="AF40" s="29"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="30"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="30"/>
+      <c r="AE40" s="30"/>
+      <c r="AF40" s="37"/>
     </row>
     <row r="41" spans="1:32">
-      <c r="A41" s="7">
+      <c r="A41" s="8">
         <v>44558</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="29"/>
-      <c r="AF41" s="29"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="37"/>
     </row>
     <row r="42" spans="1:32">
-      <c r="A42" s="7">
+      <c r="A42" s="8">
         <v>44559</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="29"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
-      <c r="AE42" s="29"/>
-      <c r="AF42" s="29"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="30"/>
+      <c r="AD42" s="30"/>
+      <c r="AE42" s="30"/>
+      <c r="AF42" s="37"/>
     </row>
     <row r="43" spans="1:32">
-      <c r="A43" s="7">
+      <c r="A43" s="8">
         <v>44560</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="8"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="29"/>
-      <c r="AF43" s="29"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="30"/>
+      <c r="AA43" s="30"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="30"/>
+      <c r="AD43" s="30"/>
+      <c r="AE43" s="30"/>
+      <c r="AF43" s="37"/>
     </row>
     <row r="44" spans="1:32">
-      <c r="A44" s="7">
+      <c r="A44" s="8">
         <v>44561</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
-      <c r="AF44" s="29"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="30"/>
+      <c r="AD44" s="30"/>
+      <c r="AE44" s="30"/>
+      <c r="AF44" s="37"/>
     </row>
     <row r="45" spans="1:32">
-      <c r="A45" s="7">
+      <c r="A45" s="8">
         <v>44562</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="29"/>
-      <c r="AF45" s="29"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="30"/>
+      <c r="AD45" s="30"/>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="37"/>
     </row>
     <row r="46" spans="1:32">
-      <c r="A46" s="7">
+      <c r="A46" s="8">
         <v>44563</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="8"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
-      <c r="AE46" s="29"/>
-      <c r="AF46" s="29"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="30"/>
+      <c r="AD46" s="30"/>
+      <c r="AE46" s="30"/>
+      <c r="AF46" s="37"/>
     </row>
     <row r="47" spans="1:32">
-      <c r="A47" s="7">
+      <c r="A47" s="8">
         <v>44564</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="8"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="30"/>
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="37"/>
     </row>
     <row r="48" spans="1:32">
-      <c r="A48" s="7">
+      <c r="A48" s="8">
         <v>44565</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="29"/>
-      <c r="Z48" s="29"/>
-      <c r="AA48" s="29"/>
-      <c r="AB48" s="29"/>
-      <c r="AC48" s="29"/>
-      <c r="AD48" s="29"/>
-      <c r="AE48" s="29"/>
-      <c r="AF48" s="29"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
+      <c r="AA48" s="30"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="30"/>
+      <c r="AD48" s="30"/>
+      <c r="AE48" s="30"/>
+      <c r="AF48" s="37"/>
     </row>
     <row r="49" spans="1:32">
-      <c r="A49" s="7">
+      <c r="A49" s="8">
         <v>44566</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="8"/>
-      <c r="X49" s="29"/>
-      <c r="Y49" s="29"/>
-      <c r="Z49" s="29"/>
-      <c r="AA49" s="29"/>
-      <c r="AB49" s="29"/>
-      <c r="AC49" s="29"/>
-      <c r="AD49" s="29"/>
-      <c r="AE49" s="29"/>
-      <c r="AF49" s="29"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="30"/>
+      <c r="AA49" s="30"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="30"/>
+      <c r="AE49" s="30"/>
+      <c r="AF49" s="37"/>
     </row>
     <row r="50" spans="1:32">
-      <c r="A50" s="7">
+      <c r="A50" s="8">
         <v>44567</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="29"/>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29"/>
-      <c r="AE50" s="29"/>
-      <c r="AF50" s="29"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="30"/>
+      <c r="AA50" s="30"/>
+      <c r="AB50" s="30"/>
+      <c r="AC50" s="30"/>
+      <c r="AD50" s="30"/>
+      <c r="AE50" s="30"/>
+      <c r="AF50" s="37"/>
     </row>
     <row r="51" spans="1:32">
-      <c r="A51" s="7">
+      <c r="A51" s="8">
         <v>44568</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="29"/>
-      <c r="AB51" s="29"/>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="29"/>
-      <c r="AE51" s="29"/>
-      <c r="AF51" s="29"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30"/>
+      <c r="AA51" s="30"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="30"/>
+      <c r="AD51" s="30"/>
+      <c r="AE51" s="30"/>
+      <c r="AF51" s="37"/>
     </row>
     <row r="52" spans="1:32">
-      <c r="A52" s="7">
+      <c r="A52" s="8">
         <v>44569</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="29"/>
-      <c r="AA52" s="29"/>
-      <c r="AB52" s="29"/>
-      <c r="AC52" s="29"/>
-      <c r="AD52" s="29"/>
-      <c r="AE52" s="29"/>
-      <c r="AF52" s="29"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="30"/>
+      <c r="AA52" s="30"/>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="30"/>
+      <c r="AD52" s="30"/>
+      <c r="AE52" s="30"/>
+      <c r="AF52" s="37"/>
     </row>
     <row r="53" spans="1:32">
-      <c r="A53" s="7">
+      <c r="A53" s="8">
         <v>44570</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="29"/>
-      <c r="AA53" s="29"/>
-      <c r="AB53" s="29"/>
-      <c r="AC53" s="29"/>
-      <c r="AD53" s="29"/>
-      <c r="AE53" s="29"/>
-      <c r="AF53" s="29"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="30"/>
+      <c r="AA53" s="30"/>
+      <c r="AB53" s="30"/>
+      <c r="AC53" s="30"/>
+      <c r="AD53" s="30"/>
+      <c r="AE53" s="30"/>
+      <c r="AF53" s="37"/>
     </row>
     <row r="54" spans="1:32">
-      <c r="A54" s="7">
+      <c r="A54" s="8">
         <v>44571</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="29"/>
-      <c r="Y54" s="29"/>
-      <c r="Z54" s="29"/>
-      <c r="AA54" s="29"/>
-      <c r="AB54" s="29"/>
-      <c r="AC54" s="29"/>
-      <c r="AD54" s="29"/>
-      <c r="AE54" s="29"/>
-      <c r="AF54" s="29"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="30"/>
+      <c r="AA54" s="30"/>
+      <c r="AB54" s="30"/>
+      <c r="AC54" s="30"/>
+      <c r="AD54" s="30"/>
+      <c r="AE54" s="30"/>
+      <c r="AF54" s="37"/>
     </row>
     <row r="55" spans="1:32">
-      <c r="A55" s="7">
+      <c r="A55" s="8">
         <v>44572</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="29"/>
-      <c r="Y55" s="29"/>
-      <c r="Z55" s="29"/>
-      <c r="AA55" s="29"/>
-      <c r="AB55" s="29"/>
-      <c r="AC55" s="29"/>
-      <c r="AD55" s="29"/>
-      <c r="AE55" s="29"/>
-      <c r="AF55" s="29"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="30"/>
+      <c r="Y55" s="30"/>
+      <c r="Z55" s="30"/>
+      <c r="AA55" s="30"/>
+      <c r="AB55" s="30"/>
+      <c r="AC55" s="30"/>
+      <c r="AD55" s="30"/>
+      <c r="AE55" s="30"/>
+      <c r="AF55" s="37"/>
     </row>
     <row r="56" spans="1:32">
-      <c r="A56" s="7">
+      <c r="A56" s="8">
         <v>44573</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="29"/>
-      <c r="Y56" s="29"/>
-      <c r="Z56" s="29"/>
-      <c r="AA56" s="29"/>
-      <c r="AB56" s="29"/>
-      <c r="AC56" s="29"/>
-      <c r="AD56" s="29"/>
-      <c r="AE56" s="29"/>
-      <c r="AF56" s="29"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="30"/>
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="30"/>
+      <c r="AA56" s="30"/>
+      <c r="AB56" s="30"/>
+      <c r="AC56" s="30"/>
+      <c r="AD56" s="30"/>
+      <c r="AE56" s="30"/>
+      <c r="AF56" s="37"/>
     </row>
     <row r="57" spans="1:32">
-      <c r="A57" s="7">
+      <c r="A57" s="8">
         <v>44574</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="8"/>
-      <c r="X57" s="29"/>
-      <c r="Y57" s="29"/>
-      <c r="Z57" s="29"/>
-      <c r="AA57" s="29"/>
-      <c r="AB57" s="29"/>
-      <c r="AC57" s="29"/>
-      <c r="AD57" s="29"/>
-      <c r="AE57" s="29"/>
-      <c r="AF57" s="29"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="30"/>
+      <c r="Y57" s="30"/>
+      <c r="Z57" s="30"/>
+      <c r="AA57" s="30"/>
+      <c r="AB57" s="30"/>
+      <c r="AC57" s="30"/>
+      <c r="AD57" s="30"/>
+      <c r="AE57" s="30"/>
+      <c r="AF57" s="37"/>
     </row>
     <row r="58" spans="1:32">
-      <c r="A58" s="7">
+      <c r="A58" s="8">
         <v>44575</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="8"/>
-      <c r="X58" s="29"/>
-      <c r="Y58" s="29"/>
-      <c r="Z58" s="29"/>
-      <c r="AA58" s="29"/>
-      <c r="AB58" s="29"/>
-      <c r="AC58" s="29"/>
-      <c r="AD58" s="29"/>
-      <c r="AE58" s="29"/>
-      <c r="AF58" s="29"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="30"/>
+      <c r="Y58" s="30"/>
+      <c r="Z58" s="30"/>
+      <c r="AA58" s="30"/>
+      <c r="AB58" s="30"/>
+      <c r="AC58" s="30"/>
+      <c r="AD58" s="30"/>
+      <c r="AE58" s="30"/>
+      <c r="AF58" s="37"/>
     </row>
     <row r="59" spans="1:32">
-      <c r="A59" s="7">
+      <c r="A59" s="8">
         <v>44576</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="8"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="29"/>
-      <c r="Z59" s="29"/>
-      <c r="AA59" s="29"/>
-      <c r="AB59" s="29"/>
-      <c r="AC59" s="29"/>
-      <c r="AD59" s="29"/>
-      <c r="AE59" s="29"/>
-      <c r="AF59" s="29"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="30"/>
+      <c r="Y59" s="30"/>
+      <c r="Z59" s="30"/>
+      <c r="AA59" s="30"/>
+      <c r="AB59" s="30"/>
+      <c r="AC59" s="30"/>
+      <c r="AD59" s="30"/>
+      <c r="AE59" s="30"/>
+      <c r="AF59" s="37"/>
     </row>
     <row r="60" spans="1:32">
-      <c r="A60" s="7">
+      <c r="A60" s="8">
         <v>44577</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
-      <c r="X60" s="29"/>
-      <c r="Y60" s="29"/>
-      <c r="Z60" s="29"/>
-      <c r="AA60" s="29"/>
-      <c r="AB60" s="29"/>
-      <c r="AC60" s="29"/>
-      <c r="AD60" s="29"/>
-      <c r="AE60" s="29"/>
-      <c r="AF60" s="29"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="30"/>
+      <c r="Y60" s="30"/>
+      <c r="Z60" s="30"/>
+      <c r="AA60" s="30"/>
+      <c r="AB60" s="30"/>
+      <c r="AC60" s="30"/>
+      <c r="AD60" s="30"/>
+      <c r="AE60" s="30"/>
+      <c r="AF60" s="37"/>
     </row>
     <row r="61" spans="1:32">
-      <c r="A61" s="7">
+      <c r="A61" s="8">
         <v>44578</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
-      <c r="V61" s="8"/>
-      <c r="W61" s="8"/>
-      <c r="X61" s="29"/>
-      <c r="Y61" s="29"/>
-      <c r="Z61" s="29"/>
-      <c r="AA61" s="29"/>
-      <c r="AB61" s="29"/>
-      <c r="AC61" s="29"/>
-      <c r="AD61" s="29"/>
-      <c r="AE61" s="29"/>
-      <c r="AF61" s="29"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="30"/>
+      <c r="Y61" s="30"/>
+      <c r="Z61" s="30"/>
+      <c r="AA61" s="30"/>
+      <c r="AB61" s="30"/>
+      <c r="AC61" s="30"/>
+      <c r="AD61" s="30"/>
+      <c r="AE61" s="30"/>
+      <c r="AF61" s="37"/>
     </row>
     <row r="62" spans="1:32">
-      <c r="A62" s="7">
+      <c r="A62" s="8">
         <v>44579</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="8"/>
-      <c r="W62" s="8"/>
-      <c r="X62" s="29"/>
-      <c r="Y62" s="29"/>
-      <c r="Z62" s="29"/>
-      <c r="AA62" s="29"/>
-      <c r="AB62" s="29"/>
-      <c r="AC62" s="29"/>
-      <c r="AD62" s="29"/>
-      <c r="AE62" s="29"/>
-      <c r="AF62" s="29"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="30"/>
+      <c r="Y62" s="30"/>
+      <c r="Z62" s="30"/>
+      <c r="AA62" s="30"/>
+      <c r="AB62" s="30"/>
+      <c r="AC62" s="30"/>
+      <c r="AD62" s="30"/>
+      <c r="AE62" s="30"/>
+      <c r="AF62" s="37"/>
     </row>
     <row r="63" spans="1:32">
-      <c r="A63" s="7">
+      <c r="A63" s="8">
         <v>44580</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="8"/>
-      <c r="W63" s="8"/>
-      <c r="X63" s="29"/>
-      <c r="Y63" s="29"/>
-      <c r="Z63" s="29"/>
-      <c r="AA63" s="29"/>
-      <c r="AB63" s="29"/>
-      <c r="AC63" s="29"/>
-      <c r="AD63" s="29"/>
-      <c r="AE63" s="29"/>
-      <c r="AF63" s="29"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="30"/>
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="30"/>
+      <c r="AA63" s="30"/>
+      <c r="AB63" s="30"/>
+      <c r="AC63" s="30"/>
+      <c r="AD63" s="30"/>
+      <c r="AE63" s="30"/>
+      <c r="AF63" s="37"/>
     </row>
     <row r="64" spans="1:32">
-      <c r="A64" s="7">
+      <c r="A64" s="8">
         <v>44581</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="8"/>
-      <c r="W64" s="8"/>
-      <c r="X64" s="29"/>
-      <c r="Y64" s="29"/>
-      <c r="Z64" s="29"/>
-      <c r="AA64" s="29"/>
-      <c r="AB64" s="29"/>
-      <c r="AC64" s="29"/>
-      <c r="AD64" s="29"/>
-      <c r="AE64" s="29"/>
-      <c r="AF64" s="29"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="30"/>
+      <c r="Y64" s="30"/>
+      <c r="Z64" s="30"/>
+      <c r="AA64" s="30"/>
+      <c r="AB64" s="30"/>
+      <c r="AC64" s="30"/>
+      <c r="AD64" s="30"/>
+      <c r="AE64" s="30"/>
+      <c r="AF64" s="37"/>
     </row>
     <row r="65" spans="1:32">
-      <c r="A65" s="7">
+      <c r="A65" s="8">
         <v>44582</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
-      <c r="W65" s="8"/>
-      <c r="X65" s="29"/>
-      <c r="Y65" s="29"/>
-      <c r="Z65" s="29"/>
-      <c r="AA65" s="29"/>
-      <c r="AB65" s="29"/>
-      <c r="AC65" s="29"/>
-      <c r="AD65" s="29"/>
-      <c r="AE65" s="29"/>
-      <c r="AF65" s="29"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="30"/>
+      <c r="Y65" s="30"/>
+      <c r="Z65" s="30"/>
+      <c r="AA65" s="30"/>
+      <c r="AB65" s="30"/>
+      <c r="AC65" s="30"/>
+      <c r="AD65" s="30"/>
+      <c r="AE65" s="30"/>
+      <c r="AF65" s="37"/>
     </row>
     <row r="66" spans="1:32">
-      <c r="A66" s="7">
+      <c r="A66" s="8">
         <v>44583</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
-      <c r="W66" s="8"/>
-      <c r="X66" s="29"/>
-      <c r="Y66" s="29"/>
-      <c r="Z66" s="29"/>
-      <c r="AA66" s="29"/>
-      <c r="AB66" s="29"/>
-      <c r="AC66" s="29"/>
-      <c r="AD66" s="29"/>
-      <c r="AE66" s="29"/>
-      <c r="AF66" s="29"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="30"/>
+      <c r="Y66" s="30"/>
+      <c r="Z66" s="30"/>
+      <c r="AA66" s="30"/>
+      <c r="AB66" s="30"/>
+      <c r="AC66" s="30"/>
+      <c r="AD66" s="30"/>
+      <c r="AE66" s="30"/>
+      <c r="AF66" s="37"/>
     </row>
     <row r="67" spans="1:32">
-      <c r="A67" s="7">
+      <c r="A67" s="8">
         <v>44584</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
-      <c r="W67" s="8"/>
-      <c r="X67" s="29"/>
-      <c r="Y67" s="29"/>
-      <c r="Z67" s="29"/>
-      <c r="AA67" s="29"/>
-      <c r="AB67" s="29"/>
-      <c r="AC67" s="29"/>
-      <c r="AD67" s="29"/>
-      <c r="AE67" s="29"/>
-      <c r="AF67" s="29"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="30"/>
+      <c r="Y67" s="30"/>
+      <c r="Z67" s="30"/>
+      <c r="AA67" s="30"/>
+      <c r="AB67" s="30"/>
+      <c r="AC67" s="30"/>
+      <c r="AD67" s="30"/>
+      <c r="AE67" s="30"/>
+      <c r="AF67" s="37"/>
     </row>
     <row r="68" spans="1:32">
-      <c r="A68" s="7">
+      <c r="A68" s="8">
         <v>44585</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="8"/>
-      <c r="V68" s="8"/>
-      <c r="W68" s="8"/>
-      <c r="X68" s="29"/>
-      <c r="Y68" s="29"/>
-      <c r="Z68" s="29"/>
-      <c r="AA68" s="29"/>
-      <c r="AB68" s="29"/>
-      <c r="AC68" s="29"/>
-      <c r="AD68" s="29"/>
-      <c r="AE68" s="29"/>
-      <c r="AF68" s="29"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="30"/>
+      <c r="Y68" s="30"/>
+      <c r="Z68" s="30"/>
+      <c r="AA68" s="30"/>
+      <c r="AB68" s="30"/>
+      <c r="AC68" s="30"/>
+      <c r="AD68" s="30"/>
+      <c r="AE68" s="30"/>
+      <c r="AF68" s="37"/>
     </row>
     <row r="69" spans="1:32">
-      <c r="A69" s="7">
+      <c r="A69" s="8">
         <v>44586</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
-      <c r="V69" s="8"/>
-      <c r="W69" s="8"/>
-      <c r="X69" s="29"/>
-      <c r="Y69" s="29"/>
-      <c r="Z69" s="29"/>
-      <c r="AA69" s="29"/>
-      <c r="AB69" s="29"/>
-      <c r="AC69" s="29"/>
-      <c r="AD69" s="29"/>
-      <c r="AE69" s="29"/>
-      <c r="AF69" s="29"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="30"/>
+      <c r="Y69" s="30"/>
+      <c r="Z69" s="30"/>
+      <c r="AA69" s="30"/>
+      <c r="AB69" s="30"/>
+      <c r="AC69" s="30"/>
+      <c r="AD69" s="30"/>
+      <c r="AE69" s="30"/>
+      <c r="AF69" s="37"/>
     </row>
     <row r="70" spans="1:32">
-      <c r="A70" s="7">
+      <c r="A70" s="8">
         <v>44587</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="8"/>
-      <c r="V70" s="8"/>
-      <c r="W70" s="8"/>
-      <c r="X70" s="29"/>
-      <c r="Y70" s="29"/>
-      <c r="Z70" s="29"/>
-      <c r="AA70" s="29"/>
-      <c r="AB70" s="29"/>
-      <c r="AC70" s="29"/>
-      <c r="AD70" s="29"/>
-      <c r="AE70" s="29"/>
-      <c r="AF70" s="29"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="30"/>
+      <c r="Y70" s="30"/>
+      <c r="Z70" s="30"/>
+      <c r="AA70" s="30"/>
+      <c r="AB70" s="30"/>
+      <c r="AC70" s="30"/>
+      <c r="AD70" s="30"/>
+      <c r="AE70" s="30"/>
+      <c r="AF70" s="37"/>
     </row>
     <row r="71" spans="1:32">
-      <c r="A71" s="7">
+      <c r="A71" s="8">
         <v>44588</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
-      <c r="W71" s="8"/>
-      <c r="X71" s="29"/>
-      <c r="Y71" s="29"/>
-      <c r="Z71" s="29"/>
-      <c r="AA71" s="29"/>
-      <c r="AB71" s="29"/>
-      <c r="AC71" s="29"/>
-      <c r="AD71" s="29"/>
-      <c r="AE71" s="29"/>
-      <c r="AF71" s="29"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="30"/>
+      <c r="Y71" s="30"/>
+      <c r="Z71" s="30"/>
+      <c r="AA71" s="30"/>
+      <c r="AB71" s="30"/>
+      <c r="AC71" s="30"/>
+      <c r="AD71" s="30"/>
+      <c r="AE71" s="30"/>
+      <c r="AF71" s="37"/>
     </row>
     <row r="72" spans="1:32">
-      <c r="A72" s="7">
+      <c r="A72" s="8">
         <v>44589</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="S72" s="8"/>
-      <c r="T72" s="8"/>
-      <c r="U72" s="8"/>
-      <c r="V72" s="8"/>
-      <c r="W72" s="8"/>
-      <c r="X72" s="29"/>
-      <c r="Y72" s="29"/>
-      <c r="Z72" s="29"/>
-      <c r="AA72" s="29"/>
-      <c r="AB72" s="29"/>
-      <c r="AC72" s="29"/>
-      <c r="AD72" s="29"/>
-      <c r="AE72" s="29"/>
-      <c r="AF72" s="29"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="30"/>
+      <c r="Y72" s="30"/>
+      <c r="Z72" s="30"/>
+      <c r="AA72" s="30"/>
+      <c r="AB72" s="30"/>
+      <c r="AC72" s="30"/>
+      <c r="AD72" s="30"/>
+      <c r="AE72" s="30"/>
+      <c r="AF72" s="37"/>
     </row>
     <row r="73" spans="1:32">
-      <c r="A73" s="7">
+      <c r="A73" s="8">
         <v>44590</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
-      <c r="S73" s="8"/>
-      <c r="T73" s="8"/>
-      <c r="U73" s="8"/>
-      <c r="V73" s="8"/>
-      <c r="W73" s="8"/>
-      <c r="X73" s="29"/>
-      <c r="Y73" s="29"/>
-      <c r="Z73" s="29"/>
-      <c r="AA73" s="29"/>
-      <c r="AB73" s="29"/>
-      <c r="AC73" s="29"/>
-      <c r="AD73" s="29"/>
-      <c r="AE73" s="29"/>
-      <c r="AF73" s="29"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="30"/>
+      <c r="Y73" s="30"/>
+      <c r="Z73" s="30"/>
+      <c r="AA73" s="30"/>
+      <c r="AB73" s="30"/>
+      <c r="AC73" s="30"/>
+      <c r="AD73" s="30"/>
+      <c r="AE73" s="30"/>
+      <c r="AF73" s="37"/>
     </row>
     <row r="74" spans="1:32">
-      <c r="A74" s="7">
+      <c r="A74" s="8">
         <v>44591</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
-      <c r="S74" s="8"/>
-      <c r="T74" s="8"/>
-      <c r="U74" s="8"/>
-      <c r="V74" s="8"/>
-      <c r="W74" s="8"/>
-      <c r="X74" s="29"/>
-      <c r="Y74" s="29"/>
-      <c r="Z74" s="29"/>
-      <c r="AA74" s="29"/>
-      <c r="AB74" s="29"/>
-      <c r="AC74" s="29"/>
-      <c r="AD74" s="29"/>
-      <c r="AE74" s="29"/>
-      <c r="AF74" s="29"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="30"/>
+      <c r="Y74" s="30"/>
+      <c r="Z74" s="30"/>
+      <c r="AA74" s="30"/>
+      <c r="AB74" s="30"/>
+      <c r="AC74" s="30"/>
+      <c r="AD74" s="30"/>
+      <c r="AE74" s="30"/>
+      <c r="AF74" s="37"/>
     </row>
     <row r="75" spans="1:32">
-      <c r="A75" s="7">
+      <c r="A75" s="8">
         <v>44592</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
-      <c r="S75" s="8"/>
-      <c r="T75" s="8"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="29"/>
-      <c r="Y75" s="29"/>
-      <c r="Z75" s="29"/>
-      <c r="AA75" s="29"/>
-      <c r="AB75" s="29"/>
-      <c r="AC75" s="29"/>
-      <c r="AD75" s="29"/>
-      <c r="AE75" s="29"/>
-      <c r="AF75" s="29"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="30"/>
+      <c r="Y75" s="30"/>
+      <c r="Z75" s="30"/>
+      <c r="AA75" s="30"/>
+      <c r="AB75" s="30"/>
+      <c r="AC75" s="30"/>
+      <c r="AD75" s="30"/>
+      <c r="AE75" s="30"/>
+      <c r="AF75" s="37"/>
     </row>
     <row r="76" spans="1:32">
-      <c r="A76" s="7">
+      <c r="A76" s="8">
         <v>44593</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
-      <c r="S76" s="8"/>
-      <c r="T76" s="8"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
-      <c r="X76" s="29"/>
-      <c r="Y76" s="29"/>
-      <c r="Z76" s="29"/>
-      <c r="AA76" s="29"/>
-      <c r="AB76" s="29"/>
-      <c r="AC76" s="29"/>
-      <c r="AD76" s="29"/>
-      <c r="AE76" s="29"/>
-      <c r="AF76" s="29"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="30"/>
+      <c r="Y76" s="30"/>
+      <c r="Z76" s="30"/>
+      <c r="AA76" s="30"/>
+      <c r="AB76" s="30"/>
+      <c r="AC76" s="30"/>
+      <c r="AD76" s="30"/>
+      <c r="AE76" s="30"/>
+      <c r="AF76" s="37"/>
     </row>
     <row r="77" spans="1:32">
-      <c r="A77" s="7">
+      <c r="A77" s="8">
         <v>44594</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
-      <c r="S77" s="8"/>
-      <c r="T77" s="8"/>
-      <c r="U77" s="8"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
-      <c r="X77" s="29"/>
-      <c r="Y77" s="29"/>
-      <c r="Z77" s="29"/>
-      <c r="AA77" s="29"/>
-      <c r="AB77" s="29"/>
-      <c r="AC77" s="29"/>
-      <c r="AD77" s="29"/>
-      <c r="AE77" s="29"/>
-      <c r="AF77" s="29"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="30"/>
+      <c r="Y77" s="30"/>
+      <c r="Z77" s="30"/>
+      <c r="AA77" s="30"/>
+      <c r="AB77" s="30"/>
+      <c r="AC77" s="30"/>
+      <c r="AD77" s="30"/>
+      <c r="AE77" s="30"/>
+      <c r="AF77" s="37"/>
     </row>
     <row r="78" spans="1:32">
-      <c r="A78" s="7">
+      <c r="A78" s="8">
         <v>44595</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
-      <c r="S78" s="8"/>
-      <c r="T78" s="8"/>
-      <c r="U78" s="8"/>
-      <c r="V78" s="8"/>
-      <c r="W78" s="8"/>
-      <c r="X78" s="29"/>
-      <c r="Y78" s="29"/>
-      <c r="Z78" s="29"/>
-      <c r="AA78" s="29"/>
-      <c r="AB78" s="29"/>
-      <c r="AC78" s="29"/>
-      <c r="AD78" s="29"/>
-      <c r="AE78" s="29"/>
-      <c r="AF78" s="29"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="30"/>
+      <c r="Y78" s="30"/>
+      <c r="Z78" s="30"/>
+      <c r="AA78" s="30"/>
+      <c r="AB78" s="30"/>
+      <c r="AC78" s="30"/>
+      <c r="AD78" s="30"/>
+      <c r="AE78" s="30"/>
+      <c r="AF78" s="37"/>
     </row>
     <row r="79" spans="1:32">
-      <c r="A79" s="7">
+      <c r="A79" s="8">
         <v>44596</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="8"/>
-      <c r="V79" s="8"/>
-      <c r="W79" s="8"/>
-      <c r="X79" s="29"/>
-      <c r="Y79" s="29"/>
-      <c r="Z79" s="29"/>
-      <c r="AA79" s="29"/>
-      <c r="AB79" s="29"/>
-      <c r="AC79" s="29"/>
-      <c r="AD79" s="29"/>
-      <c r="AE79" s="29"/>
-      <c r="AF79" s="29"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="30"/>
+      <c r="Y79" s="30"/>
+      <c r="Z79" s="30"/>
+      <c r="AA79" s="30"/>
+      <c r="AB79" s="30"/>
+      <c r="AC79" s="30"/>
+      <c r="AD79" s="30"/>
+      <c r="AE79" s="30"/>
+      <c r="AF79" s="37"/>
     </row>
     <row r="80" spans="1:32">
-      <c r="A80" s="7">
+      <c r="A80" s="8">
         <v>44597</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
-      <c r="P80" s="8"/>
-      <c r="Q80" s="8"/>
-      <c r="R80" s="8"/>
-      <c r="S80" s="8"/>
-      <c r="T80" s="8"/>
-      <c r="U80" s="8"/>
-      <c r="V80" s="8"/>
-      <c r="W80" s="8"/>
-      <c r="X80" s="29"/>
-      <c r="Y80" s="29"/>
-      <c r="Z80" s="29"/>
-      <c r="AA80" s="29"/>
-      <c r="AB80" s="29"/>
-      <c r="AC80" s="29"/>
-      <c r="AD80" s="29"/>
-      <c r="AE80" s="29"/>
-      <c r="AF80" s="29"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="30"/>
+      <c r="Y80" s="30"/>
+      <c r="Z80" s="30"/>
+      <c r="AA80" s="30"/>
+      <c r="AB80" s="30"/>
+      <c r="AC80" s="30"/>
+      <c r="AD80" s="30"/>
+      <c r="AE80" s="30"/>
+      <c r="AF80" s="37"/>
     </row>
     <row r="81" spans="1:32">
-      <c r="A81" s="7">
+      <c r="A81" s="8">
         <v>44598</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
-      <c r="U81" s="8"/>
-      <c r="V81" s="8"/>
-      <c r="W81" s="8"/>
-      <c r="X81" s="29"/>
-      <c r="Y81" s="29"/>
-      <c r="Z81" s="29"/>
-      <c r="AA81" s="29"/>
-      <c r="AB81" s="29"/>
-      <c r="AC81" s="29"/>
-      <c r="AD81" s="29"/>
-      <c r="AE81" s="29"/>
-      <c r="AF81" s="29"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="30"/>
+      <c r="Y81" s="30"/>
+      <c r="Z81" s="30"/>
+      <c r="AA81" s="30"/>
+      <c r="AB81" s="30"/>
+      <c r="AC81" s="30"/>
+      <c r="AD81" s="30"/>
+      <c r="AE81" s="30"/>
+      <c r="AF81" s="37"/>
     </row>
     <row r="82" spans="1:32">
-      <c r="A82" s="7">
+      <c r="A82" s="8">
         <v>44599</v>
       </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
-      <c r="S82" s="8"/>
-      <c r="T82" s="8"/>
-      <c r="U82" s="8"/>
-      <c r="V82" s="8"/>
-      <c r="W82" s="8"/>
-      <c r="X82" s="29"/>
-      <c r="Y82" s="29"/>
-      <c r="Z82" s="29"/>
-      <c r="AA82" s="29"/>
-      <c r="AB82" s="29"/>
-      <c r="AC82" s="29"/>
-      <c r="AD82" s="29"/>
-      <c r="AE82" s="29"/>
-      <c r="AF82" s="29"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="9"/>
+      <c r="X82" s="30"/>
+      <c r="Y82" s="30"/>
+      <c r="Z82" s="30"/>
+      <c r="AA82" s="30"/>
+      <c r="AB82" s="30"/>
+      <c r="AC82" s="30"/>
+      <c r="AD82" s="30"/>
+      <c r="AE82" s="30"/>
+      <c r="AF82" s="37"/>
     </row>
     <row r="83" spans="1:32">
-      <c r="A83" s="7">
+      <c r="A83" s="8">
         <v>44600</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="8"/>
-      <c r="S83" s="8"/>
-      <c r="T83" s="8"/>
-      <c r="U83" s="8"/>
-      <c r="V83" s="8"/>
-      <c r="W83" s="8"/>
-      <c r="X83" s="29"/>
-      <c r="Y83" s="29"/>
-      <c r="Z83" s="29"/>
-      <c r="AA83" s="29"/>
-      <c r="AB83" s="29"/>
-      <c r="AC83" s="29"/>
-      <c r="AD83" s="29"/>
-      <c r="AE83" s="29"/>
-      <c r="AF83" s="29"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="9"/>
+      <c r="X83" s="30"/>
+      <c r="Y83" s="30"/>
+      <c r="Z83" s="30"/>
+      <c r="AA83" s="30"/>
+      <c r="AB83" s="30"/>
+      <c r="AC83" s="30"/>
+      <c r="AD83" s="30"/>
+      <c r="AE83" s="30"/>
+      <c r="AF83" s="37"/>
     </row>
     <row r="84" spans="1:32">
-      <c r="A84" s="7">
+      <c r="A84" s="8">
         <v>44601</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8"/>
-      <c r="Q84" s="8"/>
-      <c r="R84" s="8"/>
-      <c r="S84" s="8"/>
-      <c r="T84" s="8"/>
-      <c r="U84" s="8"/>
-      <c r="V84" s="8"/>
-      <c r="W84" s="8"/>
-      <c r="X84" s="29"/>
-      <c r="Y84" s="29"/>
-      <c r="Z84" s="29"/>
-      <c r="AA84" s="29"/>
-      <c r="AB84" s="29"/>
-      <c r="AC84" s="29"/>
-      <c r="AD84" s="29"/>
-      <c r="AE84" s="29"/>
-      <c r="AF84" s="29"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9"/>
+      <c r="W84" s="9"/>
+      <c r="X84" s="30"/>
+      <c r="Y84" s="30"/>
+      <c r="Z84" s="30"/>
+      <c r="AA84" s="30"/>
+      <c r="AB84" s="30"/>
+      <c r="AC84" s="30"/>
+      <c r="AD84" s="30"/>
+      <c r="AE84" s="30"/>
+      <c r="AF84" s="37"/>
     </row>
     <row r="85" spans="1:32">
-      <c r="A85" s="7">
+      <c r="A85" s="8">
         <v>44602</v>
       </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
-      <c r="R85" s="8"/>
-      <c r="S85" s="8"/>
-      <c r="T85" s="8"/>
-      <c r="U85" s="8"/>
-      <c r="V85" s="8"/>
-      <c r="W85" s="8"/>
-      <c r="X85" s="29"/>
-      <c r="Y85" s="29"/>
-      <c r="Z85" s="29"/>
-      <c r="AA85" s="29"/>
-      <c r="AB85" s="29"/>
-      <c r="AC85" s="29"/>
-      <c r="AD85" s="29"/>
-      <c r="AE85" s="29"/>
-      <c r="AF85" s="29"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9"/>
+      <c r="W85" s="9"/>
+      <c r="X85" s="30"/>
+      <c r="Y85" s="30"/>
+      <c r="Z85" s="30"/>
+      <c r="AA85" s="30"/>
+      <c r="AB85" s="30"/>
+      <c r="AC85" s="30"/>
+      <c r="AD85" s="30"/>
+      <c r="AE85" s="30"/>
+      <c r="AF85" s="37"/>
     </row>
     <row r="86" spans="1:32">
-      <c r="A86" s="7">
+      <c r="A86" s="8">
         <v>44603</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="8"/>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="8"/>
-      <c r="S86" s="8"/>
-      <c r="T86" s="8"/>
-      <c r="U86" s="8"/>
-      <c r="V86" s="8"/>
-      <c r="W86" s="8"/>
-      <c r="X86" s="29"/>
-      <c r="Y86" s="29"/>
-      <c r="Z86" s="29"/>
-      <c r="AA86" s="29"/>
-      <c r="AB86" s="29"/>
-      <c r="AC86" s="29"/>
-      <c r="AD86" s="29"/>
-      <c r="AE86" s="29"/>
-      <c r="AF86" s="29"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
+      <c r="W86" s="9"/>
+      <c r="X86" s="30"/>
+      <c r="Y86" s="30"/>
+      <c r="Z86" s="30"/>
+      <c r="AA86" s="30"/>
+      <c r="AB86" s="30"/>
+      <c r="AC86" s="30"/>
+      <c r="AD86" s="30"/>
+      <c r="AE86" s="30"/>
+      <c r="AF86" s="37"/>
     </row>
     <row r="87" spans="1:32">
-      <c r="A87" s="7">
+      <c r="A87" s="8">
         <v>44604</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="8"/>
-      <c r="P87" s="8"/>
-      <c r="Q87" s="8"/>
-      <c r="R87" s="8"/>
-      <c r="S87" s="8"/>
-      <c r="T87" s="8"/>
-      <c r="U87" s="8"/>
-      <c r="V87" s="8"/>
-      <c r="W87" s="8"/>
-      <c r="X87" s="29"/>
-      <c r="Y87" s="29"/>
-      <c r="Z87" s="29"/>
-      <c r="AA87" s="29"/>
-      <c r="AB87" s="29"/>
-      <c r="AC87" s="29"/>
-      <c r="AD87" s="29"/>
-      <c r="AE87" s="29"/>
-      <c r="AF87" s="29"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="9"/>
+      <c r="V87" s="9"/>
+      <c r="W87" s="9"/>
+      <c r="X87" s="30"/>
+      <c r="Y87" s="30"/>
+      <c r="Z87" s="30"/>
+      <c r="AA87" s="30"/>
+      <c r="AB87" s="30"/>
+      <c r="AC87" s="30"/>
+      <c r="AD87" s="30"/>
+      <c r="AE87" s="30"/>
+      <c r="AF87" s="37"/>
     </row>
     <row r="88" spans="1:32">
-      <c r="A88" s="7">
+      <c r="A88" s="8">
         <v>44605</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="8"/>
-      <c r="R88" s="8"/>
-      <c r="S88" s="8"/>
-      <c r="T88" s="8"/>
-      <c r="U88" s="8"/>
-      <c r="V88" s="8"/>
-      <c r="W88" s="8"/>
-      <c r="X88" s="29"/>
-      <c r="Y88" s="29"/>
-      <c r="Z88" s="29"/>
-      <c r="AA88" s="29"/>
-      <c r="AB88" s="29"/>
-      <c r="AC88" s="29"/>
-      <c r="AD88" s="29"/>
-      <c r="AE88" s="29"/>
-      <c r="AF88" s="29"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+      <c r="U88" s="9"/>
+      <c r="V88" s="9"/>
+      <c r="W88" s="9"/>
+      <c r="X88" s="30"/>
+      <c r="Y88" s="30"/>
+      <c r="Z88" s="30"/>
+      <c r="AA88" s="30"/>
+      <c r="AB88" s="30"/>
+      <c r="AC88" s="30"/>
+      <c r="AD88" s="30"/>
+      <c r="AE88" s="30"/>
+      <c r="AF88" s="37"/>
     </row>
     <row r="89" spans="1:32">
-      <c r="A89" s="7">
+      <c r="A89" s="8">
         <v>44606</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="8"/>
-      <c r="U89" s="8"/>
-      <c r="V89" s="8"/>
-      <c r="W89" s="8"/>
-      <c r="X89" s="29"/>
-      <c r="Y89" s="29"/>
-      <c r="Z89" s="29"/>
-      <c r="AA89" s="29"/>
-      <c r="AB89" s="29"/>
-      <c r="AC89" s="29"/>
-      <c r="AD89" s="29"/>
-      <c r="AE89" s="29"/>
-      <c r="AF89" s="29"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+      <c r="U89" s="9"/>
+      <c r="V89" s="9"/>
+      <c r="W89" s="9"/>
+      <c r="X89" s="30"/>
+      <c r="Y89" s="30"/>
+      <c r="Z89" s="30"/>
+      <c r="AA89" s="30"/>
+      <c r="AB89" s="30"/>
+      <c r="AC89" s="30"/>
+      <c r="AD89" s="30"/>
+      <c r="AE89" s="30"/>
+      <c r="AF89" s="37"/>
     </row>
     <row r="90" spans="1:32">
-      <c r="A90" s="7">
+      <c r="A90" s="8">
         <v>44607</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
-      <c r="S90" s="8"/>
-      <c r="T90" s="8"/>
-      <c r="U90" s="8"/>
-      <c r="V90" s="8"/>
-      <c r="W90" s="8"/>
-      <c r="X90" s="29"/>
-      <c r="Y90" s="29"/>
-      <c r="Z90" s="29"/>
-      <c r="AA90" s="29"/>
-      <c r="AB90" s="29"/>
-      <c r="AC90" s="29"/>
-      <c r="AD90" s="29"/>
-      <c r="AE90" s="29"/>
-      <c r="AF90" s="29"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+      <c r="U90" s="9"/>
+      <c r="V90" s="9"/>
+      <c r="W90" s="9"/>
+      <c r="X90" s="30"/>
+      <c r="Y90" s="30"/>
+      <c r="Z90" s="30"/>
+      <c r="AA90" s="30"/>
+      <c r="AB90" s="30"/>
+      <c r="AC90" s="30"/>
+      <c r="AD90" s="30"/>
+      <c r="AE90" s="30"/>
+      <c r="AF90" s="37"/>
     </row>
     <row r="91" spans="1:32">
-      <c r="A91" s="7">
+      <c r="A91" s="8">
         <v>44608</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
-      <c r="U91" s="8"/>
-      <c r="V91" s="8"/>
-      <c r="W91" s="8"/>
-      <c r="X91" s="29"/>
-      <c r="Y91" s="29"/>
-      <c r="Z91" s="29"/>
-      <c r="AA91" s="29"/>
-      <c r="AB91" s="29"/>
-      <c r="AC91" s="29"/>
-      <c r="AD91" s="29"/>
-      <c r="AE91" s="29"/>
-      <c r="AF91" s="29"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="30"/>
+      <c r="Y91" s="30"/>
+      <c r="Z91" s="30"/>
+      <c r="AA91" s="30"/>
+      <c r="AB91" s="30"/>
+      <c r="AC91" s="30"/>
+      <c r="AD91" s="30"/>
+      <c r="AE91" s="30"/>
+      <c r="AF91" s="37"/>
     </row>
     <row r="92" spans="1:32">
-      <c r="A92" s="7">
+      <c r="A92" s="8">
         <v>44609</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="8"/>
-      <c r="M92" s="8"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="8"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
-      <c r="S92" s="8"/>
-      <c r="T92" s="8"/>
-      <c r="U92" s="8"/>
-      <c r="V92" s="8"/>
-      <c r="W92" s="8"/>
-      <c r="X92" s="29"/>
-      <c r="Y92" s="29"/>
-      <c r="Z92" s="29"/>
-      <c r="AA92" s="29"/>
-      <c r="AB92" s="29"/>
-      <c r="AC92" s="29"/>
-      <c r="AD92" s="29"/>
-      <c r="AE92" s="29"/>
-      <c r="AF92" s="29"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+      <c r="U92" s="9"/>
+      <c r="V92" s="9"/>
+      <c r="W92" s="9"/>
+      <c r="X92" s="30"/>
+      <c r="Y92" s="30"/>
+      <c r="Z92" s="30"/>
+      <c r="AA92" s="30"/>
+      <c r="AB92" s="30"/>
+      <c r="AC92" s="30"/>
+      <c r="AD92" s="30"/>
+      <c r="AE92" s="30"/>
+      <c r="AF92" s="37"/>
     </row>
     <row r="93" spans="1:32">
-      <c r="A93" s="7">
+      <c r="A93" s="8">
         <v>44610</v>
       </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8"/>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="8"/>
-      <c r="Q93" s="8"/>
-      <c r="R93" s="8"/>
-      <c r="S93" s="8"/>
-      <c r="T93" s="8"/>
-      <c r="U93" s="8"/>
-      <c r="V93" s="8"/>
-      <c r="W93" s="8"/>
-      <c r="X93" s="29"/>
-      <c r="Y93" s="29"/>
-      <c r="Z93" s="29"/>
-      <c r="AA93" s="29"/>
-      <c r="AB93" s="29"/>
-      <c r="AC93" s="29"/>
-      <c r="AD93" s="29"/>
-      <c r="AE93" s="29"/>
-      <c r="AF93" s="29"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="9"/>
+      <c r="U93" s="9"/>
+      <c r="V93" s="9"/>
+      <c r="W93" s="9"/>
+      <c r="X93" s="30"/>
+      <c r="Y93" s="30"/>
+      <c r="Z93" s="30"/>
+      <c r="AA93" s="30"/>
+      <c r="AB93" s="30"/>
+      <c r="AC93" s="30"/>
+      <c r="AD93" s="30"/>
+      <c r="AE93" s="30"/>
+      <c r="AF93" s="37"/>
     </row>
     <row r="94" spans="1:32">
-      <c r="A94" s="7">
+      <c r="A94" s="8">
         <v>44611</v>
       </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="8"/>
-      <c r="P94" s="8"/>
-      <c r="Q94" s="8"/>
-      <c r="R94" s="8"/>
-      <c r="S94" s="8"/>
-      <c r="T94" s="8"/>
-      <c r="U94" s="8"/>
-      <c r="V94" s="8"/>
-      <c r="W94" s="8"/>
-      <c r="X94" s="29"/>
-      <c r="Y94" s="29"/>
-      <c r="Z94" s="29"/>
-      <c r="AA94" s="29"/>
-      <c r="AB94" s="29"/>
-      <c r="AC94" s="29"/>
-      <c r="AD94" s="29"/>
-      <c r="AE94" s="29"/>
-      <c r="AF94" s="29"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+      <c r="U94" s="9"/>
+      <c r="V94" s="9"/>
+      <c r="W94" s="9"/>
+      <c r="X94" s="30"/>
+      <c r="Y94" s="30"/>
+      <c r="Z94" s="30"/>
+      <c r="AA94" s="30"/>
+      <c r="AB94" s="30"/>
+      <c r="AC94" s="30"/>
+      <c r="AD94" s="30"/>
+      <c r="AE94" s="30"/>
+      <c r="AF94" s="37"/>
     </row>
     <row r="95" spans="1:32">
-      <c r="A95" s="7">
+      <c r="A95" s="8">
         <v>44612</v>
       </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="8"/>
-      <c r="Q95" s="8"/>
-      <c r="R95" s="8"/>
-      <c r="S95" s="8"/>
-      <c r="T95" s="8"/>
-      <c r="U95" s="8"/>
-      <c r="V95" s="8"/>
-      <c r="W95" s="8"/>
-      <c r="X95" s="29"/>
-      <c r="Y95" s="29"/>
-      <c r="Z95" s="29"/>
-      <c r="AA95" s="29"/>
-      <c r="AB95" s="29"/>
-      <c r="AC95" s="29"/>
-      <c r="AD95" s="29"/>
-      <c r="AE95" s="29"/>
-      <c r="AF95" s="29"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
+      <c r="U95" s="9"/>
+      <c r="V95" s="9"/>
+      <c r="W95" s="9"/>
+      <c r="X95" s="30"/>
+      <c r="Y95" s="30"/>
+      <c r="Z95" s="30"/>
+      <c r="AA95" s="30"/>
+      <c r="AB95" s="30"/>
+      <c r="AC95" s="30"/>
+      <c r="AD95" s="30"/>
+      <c r="AE95" s="30"/>
+      <c r="AF95" s="37"/>
     </row>
     <row r="96" spans="1:32">
-      <c r="A96" s="7">
+      <c r="A96" s="8">
         <v>44613</v>
       </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
-      <c r="M96" s="8"/>
-      <c r="N96" s="8"/>
-      <c r="O96" s="8"/>
-      <c r="P96" s="8"/>
-      <c r="Q96" s="8"/>
-      <c r="R96" s="8"/>
-      <c r="S96" s="8"/>
-      <c r="T96" s="8"/>
-      <c r="U96" s="8"/>
-      <c r="V96" s="8"/>
-      <c r="W96" s="8"/>
-      <c r="X96" s="29"/>
-      <c r="Y96" s="29"/>
-      <c r="Z96" s="29"/>
-      <c r="AA96" s="29"/>
-      <c r="AB96" s="29"/>
-      <c r="AC96" s="29"/>
-      <c r="AD96" s="29"/>
-      <c r="AE96" s="29"/>
-      <c r="AF96" s="29"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
+      <c r="U96" s="9"/>
+      <c r="V96" s="9"/>
+      <c r="W96" s="9"/>
+      <c r="X96" s="30"/>
+      <c r="Y96" s="30"/>
+      <c r="Z96" s="30"/>
+      <c r="AA96" s="30"/>
+      <c r="AB96" s="30"/>
+      <c r="AC96" s="30"/>
+      <c r="AD96" s="30"/>
+      <c r="AE96" s="30"/>
+      <c r="AF96" s="37"/>
     </row>
     <row r="97" spans="1:32">
-      <c r="A97" s="7">
+      <c r="A97" s="8">
         <v>44614</v>
       </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-      <c r="Q97" s="8"/>
-      <c r="R97" s="8"/>
-      <c r="S97" s="8"/>
-      <c r="T97" s="8"/>
-      <c r="U97" s="8"/>
-      <c r="V97" s="8"/>
-      <c r="W97" s="8"/>
-      <c r="X97" s="29"/>
-      <c r="Y97" s="29"/>
-      <c r="Z97" s="29"/>
-      <c r="AA97" s="29"/>
-      <c r="AB97" s="29"/>
-      <c r="AC97" s="29"/>
-      <c r="AD97" s="29"/>
-      <c r="AE97" s="29"/>
-      <c r="AF97" s="29"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="9"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="9"/>
+      <c r="U97" s="9"/>
+      <c r="V97" s="9"/>
+      <c r="W97" s="9"/>
+      <c r="X97" s="30"/>
+      <c r="Y97" s="30"/>
+      <c r="Z97" s="30"/>
+      <c r="AA97" s="30"/>
+      <c r="AB97" s="30"/>
+      <c r="AC97" s="30"/>
+      <c r="AD97" s="30"/>
+      <c r="AE97" s="30"/>
+      <c r="AF97" s="37"/>
     </row>
     <row r="98" spans="1:32">
-      <c r="A98" s="7">
+      <c r="A98" s="8">
         <v>44615</v>
       </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
-      <c r="Q98" s="8"/>
-      <c r="R98" s="8"/>
-      <c r="S98" s="8"/>
-      <c r="T98" s="8"/>
-      <c r="U98" s="8"/>
-      <c r="V98" s="8"/>
-      <c r="W98" s="8"/>
-      <c r="X98" s="29"/>
-      <c r="Y98" s="29"/>
-      <c r="Z98" s="29"/>
-      <c r="AA98" s="29"/>
-      <c r="AB98" s="29"/>
-      <c r="AC98" s="29"/>
-      <c r="AD98" s="29"/>
-      <c r="AE98" s="29"/>
-      <c r="AF98" s="29"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+      <c r="U98" s="9"/>
+      <c r="V98" s="9"/>
+      <c r="W98" s="9"/>
+      <c r="X98" s="30"/>
+      <c r="Y98" s="30"/>
+      <c r="Z98" s="30"/>
+      <c r="AA98" s="30"/>
+      <c r="AB98" s="30"/>
+      <c r="AC98" s="30"/>
+      <c r="AD98" s="30"/>
+      <c r="AE98" s="30"/>
+      <c r="AF98" s="37"/>
     </row>
     <row r="99" spans="1:32">
-      <c r="A99" s="7">
+      <c r="A99" s="8">
         <v>44616</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="8"/>
-      <c r="P99" s="8"/>
-      <c r="Q99" s="8"/>
-      <c r="R99" s="8"/>
-      <c r="S99" s="8"/>
-      <c r="T99" s="8"/>
-      <c r="U99" s="8"/>
-      <c r="V99" s="8"/>
-      <c r="W99" s="8"/>
-      <c r="X99" s="29"/>
-      <c r="Y99" s="29"/>
-      <c r="Z99" s="29"/>
-      <c r="AA99" s="29"/>
-      <c r="AB99" s="29"/>
-      <c r="AC99" s="29"/>
-      <c r="AD99" s="29"/>
-      <c r="AE99" s="29"/>
-      <c r="AF99" s="29"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
+      <c r="W99" s="9"/>
+      <c r="X99" s="30"/>
+      <c r="Y99" s="30"/>
+      <c r="Z99" s="30"/>
+      <c r="AA99" s="30"/>
+      <c r="AB99" s="30"/>
+      <c r="AC99" s="30"/>
+      <c r="AD99" s="30"/>
+      <c r="AE99" s="30"/>
+      <c r="AF99" s="37"/>
     </row>
     <row r="100" spans="1:32">
-      <c r="A100" s="7">
+      <c r="A100" s="8">
         <v>44617</v>
       </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="8"/>
-      <c r="M100" s="8"/>
-      <c r="N100" s="8"/>
-      <c r="O100" s="8"/>
-      <c r="P100" s="8"/>
-      <c r="Q100" s="8"/>
-      <c r="R100" s="8"/>
-      <c r="S100" s="8"/>
-      <c r="T100" s="8"/>
-      <c r="U100" s="8"/>
-      <c r="V100" s="8"/>
-      <c r="W100" s="8"/>
-      <c r="X100" s="29"/>
-      <c r="Y100" s="29"/>
-      <c r="Z100" s="29"/>
-      <c r="AA100" s="29"/>
-      <c r="AB100" s="29"/>
-      <c r="AC100" s="29"/>
-      <c r="AD100" s="29"/>
-      <c r="AE100" s="29"/>
-      <c r="AF100" s="29"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+      <c r="V100" s="9"/>
+      <c r="W100" s="9"/>
+      <c r="X100" s="30"/>
+      <c r="Y100" s="30"/>
+      <c r="Z100" s="30"/>
+      <c r="AA100" s="30"/>
+      <c r="AB100" s="30"/>
+      <c r="AC100" s="30"/>
+      <c r="AD100" s="30"/>
+      <c r="AE100" s="30"/>
+      <c r="AF100" s="37"/>
     </row>
     <row r="101" spans="1:32">
-      <c r="A101" s="7">
+      <c r="A101" s="8">
         <v>44618</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="8"/>
-      <c r="M101" s="8"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
-      <c r="P101" s="8"/>
-      <c r="Q101" s="8"/>
-      <c r="R101" s="8"/>
-      <c r="S101" s="8"/>
-      <c r="T101" s="8"/>
-      <c r="U101" s="8"/>
-      <c r="V101" s="8"/>
-      <c r="W101" s="8"/>
-      <c r="X101" s="29"/>
-      <c r="Y101" s="29"/>
-      <c r="Z101" s="29"/>
-      <c r="AA101" s="29"/>
-      <c r="AB101" s="29"/>
-      <c r="AC101" s="29"/>
-      <c r="AD101" s="29"/>
-      <c r="AE101" s="29"/>
-      <c r="AF101" s="29"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="9"/>
+      <c r="W101" s="9"/>
+      <c r="X101" s="30"/>
+      <c r="Y101" s="30"/>
+      <c r="Z101" s="30"/>
+      <c r="AA101" s="30"/>
+      <c r="AB101" s="30"/>
+      <c r="AC101" s="30"/>
+      <c r="AD101" s="30"/>
+      <c r="AE101" s="30"/>
+      <c r="AF101" s="37"/>
     </row>
     <row r="102" spans="1:32">
-      <c r="A102" s="7">
+      <c r="A102" s="8">
         <v>44619</v>
       </c>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="8"/>
-      <c r="N102" s="8"/>
-      <c r="O102" s="8"/>
-      <c r="P102" s="8"/>
-      <c r="Q102" s="8"/>
-      <c r="R102" s="8"/>
-      <c r="S102" s="8"/>
-      <c r="T102" s="8"/>
-      <c r="U102" s="8"/>
-      <c r="V102" s="8"/>
-      <c r="W102" s="8"/>
-      <c r="X102" s="29"/>
-      <c r="Y102" s="29"/>
-      <c r="Z102" s="29"/>
-      <c r="AA102" s="29"/>
-      <c r="AB102" s="29"/>
-      <c r="AC102" s="29"/>
-      <c r="AD102" s="29"/>
-      <c r="AE102" s="29"/>
-      <c r="AF102" s="29"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+      <c r="U102" s="9"/>
+      <c r="V102" s="9"/>
+      <c r="W102" s="9"/>
+      <c r="X102" s="30"/>
+      <c r="Y102" s="30"/>
+      <c r="Z102" s="30"/>
+      <c r="AA102" s="30"/>
+      <c r="AB102" s="30"/>
+      <c r="AC102" s="30"/>
+      <c r="AD102" s="30"/>
+      <c r="AE102" s="30"/>
+      <c r="AF102" s="37"/>
     </row>
     <row r="103" spans="1:32">
-      <c r="A103" s="7">
+      <c r="A103" s="8">
         <v>44620</v>
       </c>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
-      <c r="L103" s="8"/>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
-      <c r="Q103" s="8"/>
-      <c r="R103" s="8"/>
-      <c r="S103" s="8"/>
-      <c r="T103" s="8"/>
-      <c r="U103" s="8"/>
-      <c r="V103" s="8"/>
-      <c r="W103" s="8"/>
-      <c r="X103" s="29"/>
-      <c r="Y103" s="29"/>
-      <c r="Z103" s="29"/>
-      <c r="AA103" s="29"/>
-      <c r="AB103" s="29"/>
-      <c r="AC103" s="29"/>
-      <c r="AD103" s="29"/>
-      <c r="AE103" s="29"/>
-      <c r="AF103" s="29"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="9"/>
+      <c r="V103" s="9"/>
+      <c r="W103" s="9"/>
+      <c r="X103" s="30"/>
+      <c r="Y103" s="30"/>
+      <c r="Z103" s="30"/>
+      <c r="AA103" s="30"/>
+      <c r="AB103" s="30"/>
+      <c r="AC103" s="30"/>
+      <c r="AD103" s="30"/>
+      <c r="AE103" s="30"/>
+      <c r="AF103" s="37"/>
     </row>
     <row r="104" spans="1:32">
-      <c r="A104" s="7">
+      <c r="A104" s="8">
         <v>44621</v>
       </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="8"/>
-      <c r="M104" s="8"/>
-      <c r="N104" s="8"/>
-      <c r="O104" s="8"/>
-      <c r="P104" s="8"/>
-      <c r="Q104" s="8"/>
-      <c r="R104" s="8"/>
-      <c r="S104" s="8"/>
-      <c r="T104" s="8"/>
-      <c r="U104" s="8"/>
-      <c r="V104" s="8"/>
-      <c r="W104" s="8"/>
-      <c r="X104" s="29"/>
-      <c r="Y104" s="29"/>
-      <c r="Z104" s="29"/>
-      <c r="AA104" s="29"/>
-      <c r="AB104" s="29"/>
-      <c r="AC104" s="29"/>
-      <c r="AD104" s="29"/>
-      <c r="AE104" s="29"/>
-      <c r="AF104" s="29"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+      <c r="U104" s="9"/>
+      <c r="V104" s="9"/>
+      <c r="W104" s="9"/>
+      <c r="X104" s="30"/>
+      <c r="Y104" s="30"/>
+      <c r="Z104" s="30"/>
+      <c r="AA104" s="30"/>
+      <c r="AB104" s="30"/>
+      <c r="AC104" s="30"/>
+      <c r="AD104" s="30"/>
+      <c r="AE104" s="30"/>
+      <c r="AF104" s="37"/>
     </row>
     <row r="105" spans="1:32">
-      <c r="A105" s="7">
+      <c r="A105" s="8">
         <v>44622</v>
       </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="8"/>
-      <c r="M105" s="8"/>
-      <c r="N105" s="8"/>
-      <c r="O105" s="8"/>
-      <c r="P105" s="8"/>
-      <c r="Q105" s="8"/>
-      <c r="R105" s="8"/>
-      <c r="S105" s="8"/>
-      <c r="T105" s="8"/>
-      <c r="U105" s="8"/>
-      <c r="V105" s="8"/>
-      <c r="W105" s="8"/>
-      <c r="X105" s="29"/>
-      <c r="Y105" s="29"/>
-      <c r="Z105" s="29"/>
-      <c r="AA105" s="29"/>
-      <c r="AB105" s="29"/>
-      <c r="AC105" s="29"/>
-      <c r="AD105" s="29"/>
-      <c r="AE105" s="29"/>
-      <c r="AF105" s="29"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="9"/>
+      <c r="W105" s="9"/>
+      <c r="X105" s="30"/>
+      <c r="Y105" s="30"/>
+      <c r="Z105" s="30"/>
+      <c r="AA105" s="30"/>
+      <c r="AB105" s="30"/>
+      <c r="AC105" s="30"/>
+      <c r="AD105" s="30"/>
+      <c r="AE105" s="30"/>
+      <c r="AF105" s="37"/>
     </row>
     <row r="106" spans="1:32">
-      <c r="A106" s="7">
+      <c r="A106" s="8">
         <v>44623</v>
       </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="8"/>
-      <c r="M106" s="8"/>
-      <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
-      <c r="P106" s="8"/>
-      <c r="Q106" s="8"/>
-      <c r="R106" s="8"/>
-      <c r="S106" s="8"/>
-      <c r="T106" s="8"/>
-      <c r="U106" s="8"/>
-      <c r="V106" s="8"/>
-      <c r="W106" s="8"/>
-      <c r="X106" s="29"/>
-      <c r="Y106" s="29"/>
-      <c r="Z106" s="29"/>
-      <c r="AA106" s="29"/>
-      <c r="AB106" s="29"/>
-      <c r="AC106" s="29"/>
-      <c r="AD106" s="29"/>
-      <c r="AE106" s="29"/>
-      <c r="AF106" s="29"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+      <c r="U106" s="9"/>
+      <c r="V106" s="9"/>
+      <c r="W106" s="9"/>
+      <c r="X106" s="30"/>
+      <c r="Y106" s="30"/>
+      <c r="Z106" s="30"/>
+      <c r="AA106" s="30"/>
+      <c r="AB106" s="30"/>
+      <c r="AC106" s="30"/>
+      <c r="AD106" s="30"/>
+      <c r="AE106" s="30"/>
+      <c r="AF106" s="37"/>
     </row>
     <row r="107" spans="1:32">
-      <c r="A107" s="7">
+      <c r="A107" s="8">
         <v>44624</v>
       </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
-      <c r="L107" s="8"/>
-      <c r="M107" s="8"/>
-      <c r="N107" s="8"/>
-      <c r="O107" s="8"/>
-      <c r="P107" s="8"/>
-      <c r="Q107" s="8"/>
-      <c r="R107" s="8"/>
-      <c r="S107" s="8"/>
-      <c r="T107" s="8"/>
-      <c r="U107" s="8"/>
-      <c r="V107" s="8"/>
-      <c r="W107" s="8"/>
-      <c r="X107" s="29"/>
-      <c r="Y107" s="29"/>
-      <c r="Z107" s="29"/>
-      <c r="AA107" s="29"/>
-      <c r="AB107" s="29"/>
-      <c r="AC107" s="29"/>
-      <c r="AD107" s="29"/>
-      <c r="AE107" s="29"/>
-      <c r="AF107" s="29"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
+      <c r="S107" s="9"/>
+      <c r="T107" s="9"/>
+      <c r="U107" s="9"/>
+      <c r="V107" s="9"/>
+      <c r="W107" s="9"/>
+      <c r="X107" s="30"/>
+      <c r="Y107" s="30"/>
+      <c r="Z107" s="30"/>
+      <c r="AA107" s="30"/>
+      <c r="AB107" s="30"/>
+      <c r="AC107" s="30"/>
+      <c r="AD107" s="30"/>
+      <c r="AE107" s="30"/>
+      <c r="AF107" s="37"/>
     </row>
     <row r="108" spans="1:32">
-      <c r="A108" s="7">
+      <c r="A108" s="8">
         <v>44625</v>
       </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
-      <c r="L108" s="8"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="8"/>
-      <c r="O108" s="8"/>
-      <c r="P108" s="8"/>
-      <c r="Q108" s="8"/>
-      <c r="R108" s="8"/>
-      <c r="S108" s="8"/>
-      <c r="T108" s="8"/>
-      <c r="U108" s="8"/>
-      <c r="V108" s="8"/>
-      <c r="W108" s="8"/>
-      <c r="X108" s="29"/>
-      <c r="Y108" s="29"/>
-      <c r="Z108" s="29"/>
-      <c r="AA108" s="29"/>
-      <c r="AB108" s="29"/>
-      <c r="AC108" s="29"/>
-      <c r="AD108" s="29"/>
-      <c r="AE108" s="29"/>
-      <c r="AF108" s="29"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="9"/>
+      <c r="T108" s="9"/>
+      <c r="U108" s="9"/>
+      <c r="V108" s="9"/>
+      <c r="W108" s="9"/>
+      <c r="X108" s="30"/>
+      <c r="Y108" s="30"/>
+      <c r="Z108" s="30"/>
+      <c r="AA108" s="30"/>
+      <c r="AB108" s="30"/>
+      <c r="AC108" s="30"/>
+      <c r="AD108" s="30"/>
+      <c r="AE108" s="30"/>
+      <c r="AF108" s="37"/>
     </row>
     <row r="109" spans="1:32">
-      <c r="A109" s="7">
+      <c r="A109" s="8">
         <v>44626</v>
       </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-      <c r="N109" s="8"/>
-      <c r="O109" s="8"/>
-      <c r="P109" s="8"/>
-      <c r="Q109" s="8"/>
-      <c r="R109" s="8"/>
-      <c r="S109" s="8"/>
-      <c r="T109" s="8"/>
-      <c r="U109" s="8"/>
-      <c r="V109" s="8"/>
-      <c r="W109" s="8"/>
-      <c r="X109" s="29"/>
-      <c r="Y109" s="29"/>
-      <c r="Z109" s="29"/>
-      <c r="AA109" s="29"/>
-      <c r="AB109" s="29"/>
-      <c r="AC109" s="29"/>
-      <c r="AD109" s="29"/>
-      <c r="AE109" s="29"/>
-      <c r="AF109" s="29"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="9"/>
+      <c r="S109" s="9"/>
+      <c r="T109" s="9"/>
+      <c r="U109" s="9"/>
+      <c r="V109" s="9"/>
+      <c r="W109" s="9"/>
+      <c r="X109" s="30"/>
+      <c r="Y109" s="30"/>
+      <c r="Z109" s="30"/>
+      <c r="AA109" s="30"/>
+      <c r="AB109" s="30"/>
+      <c r="AC109" s="30"/>
+      <c r="AD109" s="30"/>
+      <c r="AE109" s="30"/>
+      <c r="AF109" s="37"/>
     </row>
     <row r="110" spans="1:32">
-      <c r="A110" s="7">
+      <c r="A110" s="8">
         <v>44627</v>
       </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
-      <c r="P110" s="8"/>
-      <c r="Q110" s="8"/>
-      <c r="R110" s="8"/>
-      <c r="S110" s="8"/>
-      <c r="T110" s="8"/>
-      <c r="U110" s="8"/>
-      <c r="V110" s="8"/>
-      <c r="W110" s="8"/>
-      <c r="X110" s="29"/>
-      <c r="Y110" s="29"/>
-      <c r="Z110" s="29"/>
-      <c r="AA110" s="29"/>
-      <c r="AB110" s="29"/>
-      <c r="AC110" s="29"/>
-      <c r="AD110" s="29"/>
-      <c r="AE110" s="29"/>
-      <c r="AF110" s="29"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="9"/>
+      <c r="S110" s="9"/>
+      <c r="T110" s="9"/>
+      <c r="U110" s="9"/>
+      <c r="V110" s="9"/>
+      <c r="W110" s="9"/>
+      <c r="X110" s="30"/>
+      <c r="Y110" s="30"/>
+      <c r="Z110" s="30"/>
+      <c r="AA110" s="30"/>
+      <c r="AB110" s="30"/>
+      <c r="AC110" s="30"/>
+      <c r="AD110" s="30"/>
+      <c r="AE110" s="30"/>
+      <c r="AF110" s="37"/>
     </row>
     <row r="111" spans="1:32">
-      <c r="A111" s="7">
+      <c r="A111" s="8">
         <v>44628</v>
       </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
-      <c r="O111" s="8"/>
-      <c r="P111" s="8"/>
-      <c r="Q111" s="8"/>
-      <c r="R111" s="8"/>
-      <c r="S111" s="8"/>
-      <c r="T111" s="8"/>
-      <c r="U111" s="8"/>
-      <c r="V111" s="8"/>
-      <c r="W111" s="8"/>
-      <c r="X111" s="29"/>
-      <c r="Y111" s="29"/>
-      <c r="Z111" s="29"/>
-      <c r="AA111" s="29"/>
-      <c r="AB111" s="29"/>
-      <c r="AC111" s="29"/>
-      <c r="AD111" s="29"/>
-      <c r="AE111" s="29"/>
-      <c r="AF111" s="29"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9"/>
+      <c r="R111" s="9"/>
+      <c r="S111" s="9"/>
+      <c r="T111" s="9"/>
+      <c r="U111" s="9"/>
+      <c r="V111" s="9"/>
+      <c r="W111" s="9"/>
+      <c r="X111" s="30"/>
+      <c r="Y111" s="30"/>
+      <c r="Z111" s="30"/>
+      <c r="AA111" s="30"/>
+      <c r="AB111" s="30"/>
+      <c r="AC111" s="30"/>
+      <c r="AD111" s="30"/>
+      <c r="AE111" s="30"/>
+      <c r="AF111" s="37"/>
     </row>
     <row r="112" spans="1:32">
-      <c r="A112" s="7">
+      <c r="A112" s="8">
         <v>44629</v>
       </c>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
-      <c r="M112" s="8"/>
-      <c r="N112" s="8"/>
-      <c r="O112" s="8"/>
-      <c r="P112" s="8"/>
-      <c r="Q112" s="8"/>
-      <c r="R112" s="8"/>
-      <c r="S112" s="8"/>
-      <c r="T112" s="8"/>
-      <c r="U112" s="8"/>
-      <c r="V112" s="8"/>
-      <c r="W112" s="8"/>
-      <c r="X112" s="29"/>
-      <c r="Y112" s="29"/>
-      <c r="Z112" s="29"/>
-      <c r="AA112" s="29"/>
-      <c r="AB112" s="29"/>
-      <c r="AC112" s="29"/>
-      <c r="AD112" s="29"/>
-      <c r="AE112" s="29"/>
-      <c r="AF112" s="29"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="9"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="9"/>
+      <c r="R112" s="9"/>
+      <c r="S112" s="9"/>
+      <c r="T112" s="9"/>
+      <c r="U112" s="9"/>
+      <c r="V112" s="9"/>
+      <c r="W112" s="9"/>
+      <c r="X112" s="30"/>
+      <c r="Y112" s="30"/>
+      <c r="Z112" s="30"/>
+      <c r="AA112" s="30"/>
+      <c r="AB112" s="30"/>
+      <c r="AC112" s="30"/>
+      <c r="AD112" s="30"/>
+      <c r="AE112" s="30"/>
+      <c r="AF112" s="37"/>
     </row>
     <row r="113" spans="1:32">
-      <c r="A113" s="7">
+      <c r="A113" s="8">
         <v>44630</v>
       </c>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
-      <c r="M113" s="8"/>
-      <c r="N113" s="8"/>
-      <c r="O113" s="8"/>
-      <c r="P113" s="8"/>
-      <c r="Q113" s="8"/>
-      <c r="R113" s="8"/>
-      <c r="S113" s="8"/>
-      <c r="T113" s="8"/>
-      <c r="U113" s="8"/>
-      <c r="V113" s="8"/>
-      <c r="W113" s="8"/>
-      <c r="X113" s="29"/>
-      <c r="Y113" s="29"/>
-      <c r="Z113" s="29"/>
-      <c r="AA113" s="29"/>
-      <c r="AB113" s="29"/>
-      <c r="AC113" s="29"/>
-      <c r="AD113" s="29"/>
-      <c r="AE113" s="29"/>
-      <c r="AF113" s="29"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="9"/>
+      <c r="Q113" s="9"/>
+      <c r="R113" s="9"/>
+      <c r="S113" s="9"/>
+      <c r="T113" s="9"/>
+      <c r="U113" s="9"/>
+      <c r="V113" s="9"/>
+      <c r="W113" s="9"/>
+      <c r="X113" s="30"/>
+      <c r="Y113" s="30"/>
+      <c r="Z113" s="30"/>
+      <c r="AA113" s="30"/>
+      <c r="AB113" s="30"/>
+      <c r="AC113" s="30"/>
+      <c r="AD113" s="30"/>
+      <c r="AE113" s="30"/>
+      <c r="AF113" s="37"/>
     </row>
     <row r="114" spans="1:32">
-      <c r="A114" s="7">
+      <c r="A114" s="8">
         <v>44631</v>
       </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="8"/>
-      <c r="L114" s="8"/>
-      <c r="M114" s="8"/>
-      <c r="N114" s="8"/>
-      <c r="O114" s="8"/>
-      <c r="P114" s="8"/>
-      <c r="Q114" s="8"/>
-      <c r="R114" s="8"/>
-      <c r="S114" s="8"/>
-      <c r="T114" s="8"/>
-      <c r="U114" s="8"/>
-      <c r="V114" s="8"/>
-      <c r="W114" s="8"/>
-      <c r="X114" s="29"/>
-      <c r="Y114" s="29"/>
-      <c r="Z114" s="29"/>
-      <c r="AA114" s="29"/>
-      <c r="AB114" s="29"/>
-      <c r="AC114" s="29"/>
-      <c r="AD114" s="29"/>
-      <c r="AE114" s="29"/>
-      <c r="AF114" s="29"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="9"/>
+      <c r="S114" s="9"/>
+      <c r="T114" s="9"/>
+      <c r="U114" s="9"/>
+      <c r="V114" s="9"/>
+      <c r="W114" s="9"/>
+      <c r="X114" s="30"/>
+      <c r="Y114" s="30"/>
+      <c r="Z114" s="30"/>
+      <c r="AA114" s="30"/>
+      <c r="AB114" s="30"/>
+      <c r="AC114" s="30"/>
+      <c r="AD114" s="30"/>
+      <c r="AE114" s="30"/>
+      <c r="AF114" s="37"/>
     </row>
     <row r="115" spans="1:32">
-      <c r="A115" s="7">
+      <c r="A115" s="8">
         <v>44632</v>
       </c>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
-      <c r="K115" s="8"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="8"/>
-      <c r="N115" s="8"/>
-      <c r="O115" s="8"/>
-      <c r="P115" s="8"/>
-      <c r="Q115" s="8"/>
-      <c r="R115" s="8"/>
-      <c r="S115" s="8"/>
-      <c r="T115" s="8"/>
-      <c r="U115" s="8"/>
-      <c r="V115" s="8"/>
-      <c r="W115" s="8"/>
-      <c r="X115" s="29"/>
-      <c r="Y115" s="29"/>
-      <c r="Z115" s="29"/>
-      <c r="AA115" s="29"/>
-      <c r="AB115" s="29"/>
-      <c r="AC115" s="29"/>
-      <c r="AD115" s="29"/>
-      <c r="AE115" s="29"/>
-      <c r="AF115" s="29"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="9"/>
+      <c r="S115" s="9"/>
+      <c r="T115" s="9"/>
+      <c r="U115" s="9"/>
+      <c r="V115" s="9"/>
+      <c r="W115" s="9"/>
+      <c r="X115" s="30"/>
+      <c r="Y115" s="30"/>
+      <c r="Z115" s="30"/>
+      <c r="AA115" s="30"/>
+      <c r="AB115" s="30"/>
+      <c r="AC115" s="30"/>
+      <c r="AD115" s="30"/>
+      <c r="AE115" s="30"/>
+      <c r="AF115" s="37"/>
     </row>
     <row r="116" spans="1:32">
-      <c r="A116" s="7">
+      <c r="A116" s="8">
         <v>44633</v>
       </c>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="8"/>
-      <c r="L116" s="8"/>
-      <c r="M116" s="8"/>
-      <c r="N116" s="8"/>
-      <c r="O116" s="8"/>
-      <c r="P116" s="8"/>
-      <c r="Q116" s="8"/>
-      <c r="R116" s="8"/>
-      <c r="S116" s="8"/>
-      <c r="T116" s="8"/>
-      <c r="U116" s="8"/>
-      <c r="V116" s="8"/>
-      <c r="W116" s="8"/>
-      <c r="X116" s="29"/>
-      <c r="Y116" s="29"/>
-      <c r="Z116" s="29"/>
-      <c r="AA116" s="29"/>
-      <c r="AB116" s="29"/>
-      <c r="AC116" s="29"/>
-      <c r="AD116" s="29"/>
-      <c r="AE116" s="29"/>
-      <c r="AF116" s="29"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="9"/>
+      <c r="S116" s="9"/>
+      <c r="T116" s="9"/>
+      <c r="U116" s="9"/>
+      <c r="V116" s="9"/>
+      <c r="W116" s="9"/>
+      <c r="X116" s="30"/>
+      <c r="Y116" s="30"/>
+      <c r="Z116" s="30"/>
+      <c r="AA116" s="30"/>
+      <c r="AB116" s="30"/>
+      <c r="AC116" s="30"/>
+      <c r="AD116" s="30"/>
+      <c r="AE116" s="30"/>
+      <c r="AF116" s="37"/>
     </row>
     <row r="117" spans="1:32">
-      <c r="A117" s="7">
+      <c r="A117" s="8">
         <v>44634</v>
       </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
-      <c r="J117" s="8"/>
-      <c r="K117" s="8"/>
-      <c r="L117" s="8"/>
-      <c r="M117" s="8"/>
-      <c r="N117" s="8"/>
-      <c r="O117" s="8"/>
-      <c r="P117" s="8"/>
-      <c r="Q117" s="8"/>
-      <c r="R117" s="8"/>
-      <c r="S117" s="8"/>
-      <c r="T117" s="8"/>
-      <c r="U117" s="8"/>
-      <c r="V117" s="8"/>
-      <c r="W117" s="8"/>
-      <c r="X117" s="29"/>
-      <c r="Y117" s="29"/>
-      <c r="Z117" s="29"/>
-      <c r="AA117" s="29"/>
-      <c r="AB117" s="29"/>
-      <c r="AC117" s="29"/>
-      <c r="AD117" s="29"/>
-      <c r="AE117" s="29"/>
-      <c r="AF117" s="29"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="9"/>
+      <c r="S117" s="9"/>
+      <c r="T117" s="9"/>
+      <c r="U117" s="9"/>
+      <c r="V117" s="9"/>
+      <c r="W117" s="9"/>
+      <c r="X117" s="30"/>
+      <c r="Y117" s="30"/>
+      <c r="Z117" s="30"/>
+      <c r="AA117" s="30"/>
+      <c r="AB117" s="30"/>
+      <c r="AC117" s="30"/>
+      <c r="AD117" s="30"/>
+      <c r="AE117" s="30"/>
+      <c r="AF117" s="37"/>
     </row>
     <row r="118" spans="1:32">
-      <c r="A118" s="7">
+      <c r="A118" s="8">
         <v>44635</v>
       </c>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
-      <c r="M118" s="8"/>
-      <c r="N118" s="8"/>
-      <c r="O118" s="8"/>
-      <c r="P118" s="8"/>
-      <c r="Q118" s="8"/>
-      <c r="R118" s="8"/>
-      <c r="S118" s="8"/>
-      <c r="T118" s="8"/>
-      <c r="U118" s="8"/>
-      <c r="V118" s="8"/>
-      <c r="W118" s="8"/>
-      <c r="X118" s="29"/>
-      <c r="Y118" s="29"/>
-      <c r="Z118" s="29"/>
-      <c r="AA118" s="29"/>
-      <c r="AB118" s="29"/>
-      <c r="AC118" s="29"/>
-      <c r="AD118" s="29"/>
-      <c r="AE118" s="29"/>
-      <c r="AF118" s="29"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+      <c r="R118" s="9"/>
+      <c r="S118" s="9"/>
+      <c r="T118" s="9"/>
+      <c r="U118" s="9"/>
+      <c r="V118" s="9"/>
+      <c r="W118" s="9"/>
+      <c r="X118" s="30"/>
+      <c r="Y118" s="30"/>
+      <c r="Z118" s="30"/>
+      <c r="AA118" s="30"/>
+      <c r="AB118" s="30"/>
+      <c r="AC118" s="30"/>
+      <c r="AD118" s="30"/>
+      <c r="AE118" s="30"/>
+      <c r="AF118" s="37"/>
     </row>
     <row r="119" spans="1:32">
-      <c r="A119" s="7">
+      <c r="A119" s="8">
         <v>44636</v>
       </c>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="8"/>
-      <c r="L119" s="8"/>
-      <c r="M119" s="8"/>
-      <c r="N119" s="8"/>
-      <c r="O119" s="8"/>
-      <c r="P119" s="8"/>
-      <c r="Q119" s="8"/>
-      <c r="R119" s="8"/>
-      <c r="S119" s="8"/>
-      <c r="T119" s="8"/>
-      <c r="U119" s="8"/>
-      <c r="V119" s="8"/>
-      <c r="W119" s="8"/>
-      <c r="X119" s="29"/>
-      <c r="Y119" s="29"/>
-      <c r="Z119" s="29"/>
-      <c r="AA119" s="29"/>
-      <c r="AB119" s="29"/>
-      <c r="AC119" s="29"/>
-      <c r="AD119" s="29"/>
-      <c r="AE119" s="29"/>
-      <c r="AF119" s="29"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
+      <c r="R119" s="9"/>
+      <c r="S119" s="9"/>
+      <c r="T119" s="9"/>
+      <c r="U119" s="9"/>
+      <c r="V119" s="9"/>
+      <c r="W119" s="9"/>
+      <c r="X119" s="30"/>
+      <c r="Y119" s="30"/>
+      <c r="Z119" s="30"/>
+      <c r="AA119" s="30"/>
+      <c r="AB119" s="30"/>
+      <c r="AC119" s="30"/>
+      <c r="AD119" s="30"/>
+      <c r="AE119" s="30"/>
+      <c r="AF119" s="37"/>
     </row>
     <row r="120" spans="1:32">
-      <c r="A120" s="7">
+      <c r="A120" s="8">
         <v>44637</v>
       </c>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="8"/>
-      <c r="L120" s="8"/>
-      <c r="M120" s="8"/>
-      <c r="N120" s="8"/>
-      <c r="O120" s="8"/>
-      <c r="P120" s="8"/>
-      <c r="Q120" s="8"/>
-      <c r="R120" s="8"/>
-      <c r="S120" s="8"/>
-      <c r="T120" s="8"/>
-      <c r="U120" s="8"/>
-      <c r="V120" s="8"/>
-      <c r="W120" s="8"/>
-      <c r="X120" s="29"/>
-      <c r="Y120" s="29"/>
-      <c r="Z120" s="29"/>
-      <c r="AA120" s="29"/>
-      <c r="AB120" s="29"/>
-      <c r="AC120" s="29"/>
-      <c r="AD120" s="29"/>
-      <c r="AE120" s="29"/>
-      <c r="AF120" s="29"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="9"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+      <c r="U120" s="9"/>
+      <c r="V120" s="9"/>
+      <c r="W120" s="9"/>
+      <c r="X120" s="30"/>
+      <c r="Y120" s="30"/>
+      <c r="Z120" s="30"/>
+      <c r="AA120" s="30"/>
+      <c r="AB120" s="30"/>
+      <c r="AC120" s="30"/>
+      <c r="AD120" s="30"/>
+      <c r="AE120" s="30"/>
+      <c r="AF120" s="37"/>
     </row>
     <row r="121" spans="1:32">
-      <c r="A121" s="7">
+      <c r="A121" s="8">
         <v>44638</v>
       </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="8"/>
-      <c r="O121" s="8"/>
-      <c r="P121" s="8"/>
-      <c r="Q121" s="8"/>
-      <c r="R121" s="8"/>
-      <c r="S121" s="8"/>
-      <c r="T121" s="8"/>
-      <c r="U121" s="8"/>
-      <c r="V121" s="8"/>
-      <c r="W121" s="8"/>
-      <c r="X121" s="29"/>
-      <c r="Y121" s="29"/>
-      <c r="Z121" s="29"/>
-      <c r="AA121" s="29"/>
-      <c r="AB121" s="29"/>
-      <c r="AC121" s="29"/>
-      <c r="AD121" s="29"/>
-      <c r="AE121" s="29"/>
-      <c r="AF121" s="29"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+      <c r="O121" s="9"/>
+      <c r="P121" s="9"/>
+      <c r="Q121" s="9"/>
+      <c r="R121" s="9"/>
+      <c r="S121" s="9"/>
+      <c r="T121" s="9"/>
+      <c r="U121" s="9"/>
+      <c r="V121" s="9"/>
+      <c r="W121" s="9"/>
+      <c r="X121" s="30"/>
+      <c r="Y121" s="30"/>
+      <c r="Z121" s="30"/>
+      <c r="AA121" s="30"/>
+      <c r="AB121" s="30"/>
+      <c r="AC121" s="30"/>
+      <c r="AD121" s="30"/>
+      <c r="AE121" s="30"/>
+      <c r="AF121" s="37"/>
     </row>
     <row r="122" spans="1:32">
-      <c r="A122" s="7">
+      <c r="A122" s="8">
         <v>44639</v>
       </c>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
-      <c r="K122" s="8"/>
-      <c r="L122" s="8"/>
-      <c r="M122" s="8"/>
-      <c r="N122" s="8"/>
-      <c r="O122" s="8"/>
-      <c r="P122" s="8"/>
-      <c r="Q122" s="8"/>
-      <c r="R122" s="8"/>
-      <c r="S122" s="8"/>
-      <c r="T122" s="8"/>
-      <c r="U122" s="8"/>
-      <c r="V122" s="8"/>
-      <c r="W122" s="8"/>
-      <c r="X122" s="29"/>
-      <c r="Y122" s="29"/>
-      <c r="Z122" s="29"/>
-      <c r="AA122" s="29"/>
-      <c r="AB122" s="29"/>
-      <c r="AC122" s="29"/>
-      <c r="AD122" s="29"/>
-      <c r="AE122" s="29"/>
-      <c r="AF122" s="29"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="9"/>
+      <c r="R122" s="9"/>
+      <c r="S122" s="9"/>
+      <c r="T122" s="9"/>
+      <c r="U122" s="9"/>
+      <c r="V122" s="9"/>
+      <c r="W122" s="9"/>
+      <c r="X122" s="30"/>
+      <c r="Y122" s="30"/>
+      <c r="Z122" s="30"/>
+      <c r="AA122" s="30"/>
+      <c r="AB122" s="30"/>
+      <c r="AC122" s="30"/>
+      <c r="AD122" s="30"/>
+      <c r="AE122" s="30"/>
+      <c r="AF122" s="37"/>
     </row>
     <row r="123" spans="1:32">
-      <c r="A123" s="7">
+      <c r="A123" s="8">
         <v>44640</v>
       </c>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="8"/>
-      <c r="L123" s="8"/>
-      <c r="M123" s="8"/>
-      <c r="N123" s="8"/>
-      <c r="O123" s="8"/>
-      <c r="P123" s="8"/>
-      <c r="Q123" s="8"/>
-      <c r="R123" s="8"/>
-      <c r="S123" s="8"/>
-      <c r="T123" s="8"/>
-      <c r="U123" s="8"/>
-      <c r="V123" s="8"/>
-      <c r="W123" s="8"/>
-      <c r="X123" s="29"/>
-      <c r="Y123" s="29"/>
-      <c r="Z123" s="29"/>
-      <c r="AA123" s="29"/>
-      <c r="AB123" s="29"/>
-      <c r="AC123" s="29"/>
-      <c r="AD123" s="29"/>
-      <c r="AE123" s="29"/>
-      <c r="AF123" s="29"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+      <c r="O123" s="9"/>
+      <c r="P123" s="9"/>
+      <c r="Q123" s="9"/>
+      <c r="R123" s="9"/>
+      <c r="S123" s="9"/>
+      <c r="T123" s="9"/>
+      <c r="U123" s="9"/>
+      <c r="V123" s="9"/>
+      <c r="W123" s="9"/>
+      <c r="X123" s="30"/>
+      <c r="Y123" s="30"/>
+      <c r="Z123" s="30"/>
+      <c r="AA123" s="30"/>
+      <c r="AB123" s="30"/>
+      <c r="AC123" s="30"/>
+      <c r="AD123" s="30"/>
+      <c r="AE123" s="30"/>
+      <c r="AF123" s="37"/>
     </row>
     <row r="124" spans="1:32">
-      <c r="A124" s="7">
+      <c r="A124" s="8">
         <v>44641</v>
       </c>
-      <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="8"/>
-      <c r="O124" s="8"/>
-      <c r="P124" s="8"/>
-      <c r="Q124" s="8"/>
-      <c r="R124" s="8"/>
-      <c r="S124" s="8"/>
-      <c r="T124" s="8"/>
-      <c r="U124" s="8"/>
-      <c r="V124" s="8"/>
-      <c r="W124" s="8"/>
-      <c r="X124" s="29"/>
-      <c r="Y124" s="29"/>
-      <c r="Z124" s="29"/>
-      <c r="AA124" s="29"/>
-      <c r="AB124" s="29"/>
-      <c r="AC124" s="29"/>
-      <c r="AD124" s="29"/>
-      <c r="AE124" s="29"/>
-      <c r="AF124" s="29"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+      <c r="O124" s="9"/>
+      <c r="P124" s="9"/>
+      <c r="Q124" s="9"/>
+      <c r="R124" s="9"/>
+      <c r="S124" s="9"/>
+      <c r="T124" s="9"/>
+      <c r="U124" s="9"/>
+      <c r="V124" s="9"/>
+      <c r="W124" s="9"/>
+      <c r="X124" s="30"/>
+      <c r="Y124" s="30"/>
+      <c r="Z124" s="30"/>
+      <c r="AA124" s="30"/>
+      <c r="AB124" s="30"/>
+      <c r="AC124" s="30"/>
+      <c r="AD124" s="30"/>
+      <c r="AE124" s="30"/>
+      <c r="AF124" s="37"/>
     </row>
     <row r="125" spans="1:32">
-      <c r="A125" s="7">
+      <c r="A125" s="8">
         <v>44642</v>
       </c>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
-      <c r="N125" s="8"/>
-      <c r="O125" s="8"/>
-      <c r="P125" s="8"/>
-      <c r="Q125" s="8"/>
-      <c r="R125" s="8"/>
-      <c r="S125" s="8"/>
-      <c r="T125" s="8"/>
-      <c r="U125" s="8"/>
-      <c r="V125" s="8"/>
-      <c r="W125" s="8"/>
-      <c r="X125" s="29"/>
-      <c r="Y125" s="29"/>
-      <c r="Z125" s="29"/>
-      <c r="AA125" s="29"/>
-      <c r="AB125" s="29"/>
-      <c r="AC125" s="29"/>
-      <c r="AD125" s="29"/>
-      <c r="AE125" s="29"/>
-      <c r="AF125" s="29"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="9"/>
+      <c r="R125" s="9"/>
+      <c r="S125" s="9"/>
+      <c r="T125" s="9"/>
+      <c r="U125" s="9"/>
+      <c r="V125" s="9"/>
+      <c r="W125" s="9"/>
+      <c r="X125" s="30"/>
+      <c r="Y125" s="30"/>
+      <c r="Z125" s="30"/>
+      <c r="AA125" s="30"/>
+      <c r="AB125" s="30"/>
+      <c r="AC125" s="30"/>
+      <c r="AD125" s="30"/>
+      <c r="AE125" s="30"/>
+      <c r="AF125" s="37"/>
     </row>
     <row r="126" spans="1:32">
-      <c r="A126" s="7">
+      <c r="A126" s="8">
         <v>44643</v>
       </c>
-      <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
-      <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
-      <c r="N126" s="8"/>
-      <c r="O126" s="8"/>
-      <c r="P126" s="8"/>
-      <c r="Q126" s="8"/>
-      <c r="R126" s="8"/>
-      <c r="S126" s="8"/>
-      <c r="T126" s="8"/>
-      <c r="U126" s="8"/>
-      <c r="V126" s="8"/>
-      <c r="W126" s="8"/>
-      <c r="X126" s="29"/>
-      <c r="Y126" s="29"/>
-      <c r="Z126" s="29"/>
-      <c r="AA126" s="29"/>
-      <c r="AB126" s="29"/>
-      <c r="AC126" s="29"/>
-      <c r="AD126" s="29"/>
-      <c r="AE126" s="29"/>
-      <c r="AF126" s="29"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+      <c r="O126" s="9"/>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="9"/>
+      <c r="R126" s="9"/>
+      <c r="S126" s="9"/>
+      <c r="T126" s="9"/>
+      <c r="U126" s="9"/>
+      <c r="V126" s="9"/>
+      <c r="W126" s="9"/>
+      <c r="X126" s="30"/>
+      <c r="Y126" s="30"/>
+      <c r="Z126" s="30"/>
+      <c r="AA126" s="30"/>
+      <c r="AB126" s="30"/>
+      <c r="AC126" s="30"/>
+      <c r="AD126" s="30"/>
+      <c r="AE126" s="30"/>
+      <c r="AF126" s="37"/>
     </row>
     <row r="127" spans="1:32">
-      <c r="A127" s="7">
+      <c r="A127" s="8">
         <v>44644</v>
       </c>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="8"/>
-      <c r="K127" s="8"/>
-      <c r="L127" s="8"/>
-      <c r="M127" s="8"/>
-      <c r="N127" s="8"/>
-      <c r="O127" s="8"/>
-      <c r="P127" s="8"/>
-      <c r="Q127" s="8"/>
-      <c r="R127" s="8"/>
-      <c r="S127" s="8"/>
-      <c r="T127" s="8"/>
-      <c r="U127" s="8"/>
-      <c r="V127" s="8"/>
-      <c r="W127" s="8"/>
-      <c r="X127" s="29"/>
-      <c r="Y127" s="29"/>
-      <c r="Z127" s="29"/>
-      <c r="AA127" s="29"/>
-      <c r="AB127" s="29"/>
-      <c r="AC127" s="29"/>
-      <c r="AD127" s="29"/>
-      <c r="AE127" s="29"/>
-      <c r="AF127" s="29"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
+      <c r="O127" s="9"/>
+      <c r="P127" s="9"/>
+      <c r="Q127" s="9"/>
+      <c r="R127" s="9"/>
+      <c r="S127" s="9"/>
+      <c r="T127" s="9"/>
+      <c r="U127" s="9"/>
+      <c r="V127" s="9"/>
+      <c r="W127" s="9"/>
+      <c r="X127" s="30"/>
+      <c r="Y127" s="30"/>
+      <c r="Z127" s="30"/>
+      <c r="AA127" s="30"/>
+      <c r="AB127" s="30"/>
+      <c r="AC127" s="30"/>
+      <c r="AD127" s="30"/>
+      <c r="AE127" s="30"/>
+      <c r="AF127" s="37"/>
     </row>
     <row r="128" spans="1:32">
-      <c r="A128" s="7">
+      <c r="A128" s="8">
         <v>44645</v>
       </c>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="8"/>
-      <c r="L128" s="8"/>
-      <c r="M128" s="8"/>
-      <c r="N128" s="8"/>
-      <c r="O128" s="8"/>
-      <c r="P128" s="8"/>
-      <c r="Q128" s="8"/>
-      <c r="R128" s="8"/>
-      <c r="S128" s="8"/>
-      <c r="T128" s="8"/>
-      <c r="U128" s="8"/>
-      <c r="V128" s="8"/>
-      <c r="W128" s="8"/>
-      <c r="X128" s="29"/>
-      <c r="Y128" s="29"/>
-      <c r="Z128" s="29"/>
-      <c r="AA128" s="29"/>
-      <c r="AB128" s="29"/>
-      <c r="AC128" s="29"/>
-      <c r="AD128" s="29"/>
-      <c r="AE128" s="29"/>
-      <c r="AF128" s="29"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
+      <c r="P128" s="9"/>
+      <c r="Q128" s="9"/>
+      <c r="R128" s="9"/>
+      <c r="S128" s="9"/>
+      <c r="T128" s="9"/>
+      <c r="U128" s="9"/>
+      <c r="V128" s="9"/>
+      <c r="W128" s="9"/>
+      <c r="X128" s="30"/>
+      <c r="Y128" s="30"/>
+      <c r="Z128" s="30"/>
+      <c r="AA128" s="30"/>
+      <c r="AB128" s="30"/>
+      <c r="AC128" s="30"/>
+      <c r="AD128" s="30"/>
+      <c r="AE128" s="30"/>
+      <c r="AF128" s="37"/>
     </row>
     <row r="129" spans="1:32">
-      <c r="A129" s="7">
+      <c r="A129" s="8">
         <v>44646</v>
       </c>
-      <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="8"/>
-      <c r="I129" s="8"/>
-      <c r="J129" s="8"/>
-      <c r="K129" s="8"/>
-      <c r="L129" s="8"/>
-      <c r="M129" s="8"/>
-      <c r="N129" s="8"/>
-      <c r="O129" s="8"/>
-      <c r="P129" s="8"/>
-      <c r="Q129" s="8"/>
-      <c r="R129" s="8"/>
-      <c r="S129" s="8"/>
-      <c r="T129" s="8"/>
-      <c r="U129" s="8"/>
-      <c r="V129" s="8"/>
-      <c r="W129" s="8"/>
-      <c r="X129" s="29"/>
-      <c r="Y129" s="29"/>
-      <c r="Z129" s="29"/>
-      <c r="AA129" s="29"/>
-      <c r="AB129" s="29"/>
-      <c r="AC129" s="29"/>
-      <c r="AD129" s="29"/>
-      <c r="AE129" s="29"/>
-      <c r="AF129" s="29"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="9"/>
+      <c r="P129" s="9"/>
+      <c r="Q129" s="9"/>
+      <c r="R129" s="9"/>
+      <c r="S129" s="9"/>
+      <c r="T129" s="9"/>
+      <c r="U129" s="9"/>
+      <c r="V129" s="9"/>
+      <c r="W129" s="9"/>
+      <c r="X129" s="30"/>
+      <c r="Y129" s="30"/>
+      <c r="Z129" s="30"/>
+      <c r="AA129" s="30"/>
+      <c r="AB129" s="30"/>
+      <c r="AC129" s="30"/>
+      <c r="AD129" s="30"/>
+      <c r="AE129" s="30"/>
+      <c r="AF129" s="37"/>
     </row>
     <row r="130" spans="1:32">
-      <c r="A130" s="7">
+      <c r="A130" s="8">
         <v>44647</v>
       </c>
-      <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8"/>
-      <c r="J130" s="8"/>
-      <c r="K130" s="8"/>
-      <c r="L130" s="8"/>
-      <c r="M130" s="8"/>
-      <c r="N130" s="8"/>
-      <c r="O130" s="8"/>
-      <c r="P130" s="8"/>
-      <c r="Q130" s="8"/>
-      <c r="R130" s="8"/>
-      <c r="S130" s="8"/>
-      <c r="T130" s="8"/>
-      <c r="U130" s="8"/>
-      <c r="V130" s="8"/>
-      <c r="W130" s="8"/>
-      <c r="X130" s="29"/>
-      <c r="Y130" s="29"/>
-      <c r="Z130" s="29"/>
-      <c r="AA130" s="29"/>
-      <c r="AB130" s="29"/>
-      <c r="AC130" s="29"/>
-      <c r="AD130" s="29"/>
-      <c r="AE130" s="29"/>
-      <c r="AF130" s="29"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="9"/>
+      <c r="O130" s="9"/>
+      <c r="P130" s="9"/>
+      <c r="Q130" s="9"/>
+      <c r="R130" s="9"/>
+      <c r="S130" s="9"/>
+      <c r="T130" s="9"/>
+      <c r="U130" s="9"/>
+      <c r="V130" s="9"/>
+      <c r="W130" s="9"/>
+      <c r="X130" s="30"/>
+      <c r="Y130" s="30"/>
+      <c r="Z130" s="30"/>
+      <c r="AA130" s="30"/>
+      <c r="AB130" s="30"/>
+      <c r="AC130" s="30"/>
+      <c r="AD130" s="30"/>
+      <c r="AE130" s="30"/>
+      <c r="AF130" s="37"/>
     </row>
     <row r="131" spans="1:32">
-      <c r="A131" s="7">
+      <c r="A131" s="8">
         <v>44648</v>
       </c>
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
-      <c r="K131" s="8"/>
-      <c r="L131" s="8"/>
-      <c r="M131" s="8"/>
-      <c r="N131" s="8"/>
-      <c r="O131" s="8"/>
-      <c r="P131" s="8"/>
-      <c r="Q131" s="8"/>
-      <c r="R131" s="8"/>
-      <c r="S131" s="8"/>
-      <c r="T131" s="8"/>
-      <c r="U131" s="8"/>
-      <c r="V131" s="8"/>
-      <c r="W131" s="8"/>
-      <c r="X131" s="29"/>
-      <c r="Y131" s="29"/>
-      <c r="Z131" s="29"/>
-      <c r="AA131" s="29"/>
-      <c r="AB131" s="29"/>
-      <c r="AC131" s="29"/>
-      <c r="AD131" s="29"/>
-      <c r="AE131" s="29"/>
-      <c r="AF131" s="29"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="9"/>
+      <c r="Q131" s="9"/>
+      <c r="R131" s="9"/>
+      <c r="S131" s="9"/>
+      <c r="T131" s="9"/>
+      <c r="U131" s="9"/>
+      <c r="V131" s="9"/>
+      <c r="W131" s="9"/>
+      <c r="X131" s="30"/>
+      <c r="Y131" s="30"/>
+      <c r="Z131" s="30"/>
+      <c r="AA131" s="30"/>
+      <c r="AB131" s="30"/>
+      <c r="AC131" s="30"/>
+      <c r="AD131" s="30"/>
+      <c r="AE131" s="30"/>
+      <c r="AF131" s="37"/>
     </row>
     <row r="132" spans="1:32">
-      <c r="A132" s="7">
+      <c r="A132" s="8">
         <v>44649</v>
       </c>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
-      <c r="K132" s="8"/>
-      <c r="L132" s="8"/>
-      <c r="M132" s="8"/>
-      <c r="N132" s="8"/>
-      <c r="O132" s="8"/>
-      <c r="P132" s="8"/>
-      <c r="Q132" s="8"/>
-      <c r="R132" s="8"/>
-      <c r="S132" s="8"/>
-      <c r="T132" s="8"/>
-      <c r="U132" s="8"/>
-      <c r="V132" s="8"/>
-      <c r="W132" s="8"/>
-      <c r="X132" s="29"/>
-      <c r="Y132" s="29"/>
-      <c r="Z132" s="29"/>
-      <c r="AA132" s="29"/>
-      <c r="AB132" s="29"/>
-      <c r="AC132" s="29"/>
-      <c r="AD132" s="29"/>
-      <c r="AE132" s="29"/>
-      <c r="AF132" s="29"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="9"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="9"/>
+      <c r="T132" s="9"/>
+      <c r="U132" s="9"/>
+      <c r="V132" s="9"/>
+      <c r="W132" s="9"/>
+      <c r="X132" s="30"/>
+      <c r="Y132" s="30"/>
+      <c r="Z132" s="30"/>
+      <c r="AA132" s="30"/>
+      <c r="AB132" s="30"/>
+      <c r="AC132" s="30"/>
+      <c r="AD132" s="30"/>
+      <c r="AE132" s="30"/>
+      <c r="AF132" s="37"/>
     </row>
     <row r="133" spans="1:23">
       <c r="A133" s="1"/>
@@ -14442,7 +14475,7 @@
       <c r="W503" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
     <mergeCell ref="V1:AE1"/>
     <mergeCell ref="V2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
@@ -14479,6 +14512,7 @@
     <mergeCell ref="AD4:AD5"/>
     <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="AF1:AF5"/>
+    <mergeCell ref="AG1:AG5"/>
     <mergeCell ref="B1:M3"/>
     <mergeCell ref="N1:T2"/>
   </mergeCells>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -442,7 +442,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +518,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,76 +867,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -939,7 +945,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -948,7 +954,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,25 +966,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -990,16 +996,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1121,7 +1127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1446,7 +1452,7 @@
   <dimension ref="A1:AG503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/运行状态监控模板.xlsx
@@ -149,7 +149,8 @@
     </r>
   </si>
   <si>
-    <t>收盘价处于波动范围的位置</t>
+    <t>收盘价处于波动范围的位置
+(1为上部，-1为下部)</t>
   </si>
   <si>
     <t>当日收盘价是否小于20日均线
@@ -223,10 +224,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -280,24 +281,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,6 +312,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -327,9 +328,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,7 +346,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,17 +359,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,21 +405,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,13 +536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,25 +554,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,37 +602,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,25 +632,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,19 +644,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,7 +674,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,15 +775,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -798,11 +790,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,41 +857,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,85 +868,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,49 +961,49 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1012,7 +1013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1097,14 +1098,8 @@
     <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1452,11 +1447,11 @@
   <dimension ref="A1:AG503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG1" sqref="AG1:AG5"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1531,10 +1526,10 @@
       <c r="AC1" s="22"/>
       <c r="AD1" s="22"/>
       <c r="AE1" s="22"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AF1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="38" t="s">
+      <c r="AG1" s="36" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1570,12 +1565,12 @@
       <c r="AA2" s="24"/>
       <c r="AB2" s="24"/>
       <c r="AC2" s="24"/>
-      <c r="AD2" s="35" t="s">
+      <c r="AD2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="38"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="36"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="3"/>
@@ -1611,10 +1606,10 @@
       <c r="AA3" s="24"/>
       <c r="AB3" s="24"/>
       <c r="AC3" s="24"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="38"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="36"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="3"/>
@@ -1686,26 +1681,26 @@
         <v>32</v>
       </c>
       <c r="Y4" s="24"/>
-      <c r="Z4" s="33" t="s">
+      <c r="Z4" s="31" t="s">
         <v>33</v>
       </c>
       <c r="AA4" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="33" t="s">
+      <c r="AB4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AC4" s="33" t="s">
+      <c r="AC4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AD4" s="35" t="s">
+      <c r="AD4" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AE4" s="36" t="s">
+      <c r="AE4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="38"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="36"/>
     </row>
     <row r="5" ht="56" customHeight="1" spans="1:33">
       <c r="A5" s="3"/>
@@ -1741,10 +1736,10 @@
       <c r="AA5" s="24"/>
       <c r="AB5" s="24"/>
       <c r="AC5" s="24"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="38"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="36"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="6">
@@ -1770,17 +1765,17 @@
       <c r="S6" s="9"/>
       <c r="T6" s="9"/>
       <c r="U6" s="27"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="37"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="35"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="8">
@@ -1805,18 +1800,18 @@
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="37"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="35"/>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="8">
@@ -1841,18 +1836,18 @@
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="37"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="35"/>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="8">
@@ -1877,18 +1872,18 @@
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="37"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="35"/>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="8">
@@ -1916,15 +1911,15 @@
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="7"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="37"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="35"/>
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="8">
@@ -1952,15 +1947,15 @@
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="7"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="37"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="35"/>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="8">
@@ -1988,15 +1983,15 @@
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="7"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="30"/>
-      <c r="AC12" s="30"/>
-      <c r="AD12" s="30"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="37"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="35"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="8">
@@ -2024,15 +2019,15 @@
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="7"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="37"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="35"/>
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="8">
@@ -2060,15 +2055,15 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14" s="7"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="37"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="35"/>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="8">
@@ -2096,15 +2091,15 @@
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
       <c r="W15" s="7"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="37"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="35"/>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="8">
@@ -2132,15 +2127,15 @@
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="30"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="37"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="35"/>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="8">
@@ -2168,15 +2163,15 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="30"/>
-      <c r="AB17" s="30"/>
-      <c r="AC17" s="30"/>
-      <c r="AD17" s="30"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="37"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="35"/>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="8">
@@ -2204,15 +2199,15 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="37"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="35"/>
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="8">
@@ -2240,15 +2235,15 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="7"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="37"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="35"/>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="8">
@@ -2276,15 +2271,15 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
       <c r="W20" s="7"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="37"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="35"/>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="8">
@@ -2312,15 +2307,15 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="7"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="37"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="35"/>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="8">
@@ -2348,15 +2343,15 @@
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
       <c r="W22" s="7"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="37"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="35"/>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="8">
@@ -2384,15 +2379,15 @@
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
       <c r="W23" s="7"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="37"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="35"/>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="8">
@@ -2420,15 +2415,15 @@
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
       <c r="W24" s="7"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="30"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="37"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="35"/>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="8">
@@ -2456,15 +2451,15 @@
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
       <c r="W25" s="7"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="30"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="37"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="35"/>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="8">
@@ -2492,15 +2487,15